--- a/config-boda-moh-ke-master/forms/app/case_investigation.xlsx
+++ b/config-boda-moh-ke-master/forms/app/case_investigation.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lab\Desktop\config-covid-moh-ke-master\forms\app\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\config-covid-moh-ke-master\forms\app\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C1151579-0470-42C1-B563-4A7D8004177B}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{44F0A037-B03E-4CCD-8602-4EE0E38FC1C6}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -19,16 +19,11 @@
     <sheet name="legend" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029" iterateDelta="1E-4"/>
-  <extLst>
-    <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
-      <loext:extCalcPr stringRefSyntax="ExcelA1"/>
-    </ext>
-  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="426" uniqueCount="243">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="434" uniqueCount="247">
   <si>
     <t>type</t>
   </si>
@@ -835,6 +830,18 @@
   </si>
   <si>
     <t>Please copy this identifier onto the specimen vial: **${uuid}**</t>
+  </si>
+  <si>
+    <t>db:trace_contact</t>
+  </si>
+  <si>
+    <t>_id</t>
+  </si>
+  <si>
+    <t>What is the traveller's name?</t>
+  </si>
+  <si>
+    <t>db-object</t>
   </si>
 </sst>
 </file>
@@ -1027,7 +1034,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="50">
+  <cellXfs count="52">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1094,6 +1101,8 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Explanatory Text" xfId="1" builtinId="53" customBuiltin="1"/>
@@ -1503,7 +1512,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A16" sqref="A16"/>
+      <selection pane="bottomLeft" activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1823,33 +1832,21 @@
       <c r="Y8" s="3"/>
       <c r="Z8" s="3"/>
     </row>
-    <row r="9" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="4"/>
-      <c r="B9" s="4"/>
-      <c r="C9" s="4"/>
-      <c r="D9" s="4"/>
-      <c r="E9" s="4"/>
-      <c r="F9" s="4"/>
-      <c r="G9" s="4"/>
-      <c r="H9" s="4"/>
-      <c r="I9" s="4"/>
-      <c r="J9" s="4"/>
-      <c r="K9" s="4"/>
-      <c r="L9" s="4"/>
-      <c r="M9" s="4"/>
-      <c r="N9" s="4"/>
-      <c r="O9" s="4"/>
-      <c r="P9" s="5"/>
-      <c r="Q9" s="5"/>
-      <c r="R9" s="5"/>
-      <c r="S9" s="5"/>
-      <c r="T9" s="5"/>
-      <c r="U9" s="5"/>
-      <c r="V9" s="5"/>
-      <c r="W9" s="3"/>
-      <c r="X9" s="3"/>
-      <c r="Y9" s="3"/>
-      <c r="Z9" s="3"/>
+    <row r="9" spans="1:26" s="50" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="51" t="s">
+        <v>243</v>
+      </c>
+      <c r="B9" s="51" t="s">
+        <v>244</v>
+      </c>
+      <c r="C9" s="51" t="s">
+        <v>245</v>
+      </c>
+      <c r="D9" s="51"/>
+      <c r="E9" s="51"/>
+      <c r="F9" s="51" t="s">
+        <v>246</v>
+      </c>
     </row>
     <row r="10" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="11" t="s">
@@ -3961,7 +3958,22 @@
     <row r="89" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="90" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="91" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="92" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="92" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A92" s="51" t="s">
+        <v>243</v>
+      </c>
+      <c r="B92" s="51" t="s">
+        <v>244</v>
+      </c>
+      <c r="C92" s="51" t="s">
+        <v>245</v>
+      </c>
+      <c r="D92" s="51"/>
+      <c r="E92" s="51"/>
+      <c r="F92" s="51" t="s">
+        <v>246</v>
+      </c>
+    </row>
     <row r="93" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="94" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="95" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -4508,9 +4520,11 @@
   </conditionalFormatting>
   <hyperlinks>
     <hyperlink ref="C30" r:id="rId1" display="mailto:info@agra.org" xr:uid="{019AC58D-FDA6-44EC-B0DD-24920615B405}"/>
+    <hyperlink ref="A92" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="A9" r:id="rId3" xr:uid="{F7E55958-2021-438A-9898-D4E60AFD5F1A}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
-  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
+  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId4"/>
 </worksheet>
 </file>
 

--- a/config-boda-moh-ke-master/forms/app/case_investigation.xlsx
+++ b/config-boda-moh-ke-master/forms/app/case_investigation.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21126"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\config-covid-moh-ke-master\forms\app\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\config-covid-moh-ke-master\forms\app\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{44F0A037-B03E-4CCD-8602-4EE0E38FC1C6}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12228" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="survey" sheetId="1" r:id="rId1"/>
@@ -18,12 +17,12 @@
     <sheet name="settings" sheetId="3" r:id="rId3"/>
     <sheet name="legend" sheetId="4" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="191029" iterateDelta="1E-4"/>
+  <calcPr calcId="162913" iterateDelta="1E-4"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="434" uniqueCount="247">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="430" uniqueCount="247">
   <si>
     <t>type</t>
   </si>
@@ -847,10 +846,9 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="2">
-    <numFmt numFmtId="164" formatCode="m/d/yyyy"/>
-    <numFmt numFmtId="165" formatCode="&quot;TRUE&quot;;&quot;TRUE&quot;;&quot;FALSE&quot;"/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="&quot;TRUE&quot;;&quot;TRUE&quot;;&quot;FALSE&quot;"/>
   </numFmts>
   <fonts count="15" x14ac:knownFonts="1">
     <font>
@@ -1043,13 +1041,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
@@ -1060,7 +1058,7 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1085,7 +1083,7 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -1113,21 +1111,18 @@
       <font>
         <color rgb="FF000000"/>
         <name val="Calibri"/>
-        <charset val="1"/>
       </font>
     </dxf>
     <dxf>
       <font>
         <color rgb="FF000000"/>
         <name val="Calibri"/>
-        <charset val="1"/>
       </font>
     </dxf>
     <dxf>
       <font>
         <color rgb="FF000000"/>
         <name val="Calibri"/>
-        <charset val="1"/>
       </font>
     </dxf>
   </dxfs>
@@ -1507,40 +1502,40 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Z620"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A10" sqref="A10"/>
+      <selection pane="bottomLeft" activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="39.28515625" customWidth="1"/>
-    <col min="2" max="2" width="26.28515625" customWidth="1"/>
-    <col min="3" max="3" width="55.140625" customWidth="1"/>
-    <col min="4" max="4" width="6.7109375" customWidth="1"/>
-    <col min="5" max="5" width="36.28515625" customWidth="1"/>
-    <col min="6" max="6" width="14.7109375" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" customWidth="1"/>
+    <col min="1" max="1" width="39.33203125" customWidth="1"/>
+    <col min="2" max="2" width="26.33203125" customWidth="1"/>
+    <col min="3" max="3" width="55.109375" customWidth="1"/>
+    <col min="4" max="4" width="6.6640625" customWidth="1"/>
+    <col min="5" max="5" width="36.33203125" customWidth="1"/>
+    <col min="6" max="6" width="14.6640625" customWidth="1"/>
+    <col min="7" max="7" width="14.44140625" customWidth="1"/>
     <col min="8" max="8" width="20" customWidth="1"/>
-    <col min="9" max="9" width="43.140625" customWidth="1"/>
-    <col min="10" max="10" width="9.85546875" customWidth="1"/>
+    <col min="9" max="9" width="43.109375" customWidth="1"/>
+    <col min="10" max="10" width="9.88671875" customWidth="1"/>
     <col min="11" max="11" width="16" customWidth="1"/>
-    <col min="12" max="12" width="9.42578125" customWidth="1"/>
-    <col min="13" max="13" width="5.85546875" customWidth="1"/>
-    <col min="14" max="15" width="6.7109375" customWidth="1"/>
+    <col min="12" max="12" width="9.44140625" customWidth="1"/>
+    <col min="13" max="13" width="5.88671875" customWidth="1"/>
+    <col min="14" max="15" width="6.6640625" customWidth="1"/>
     <col min="16" max="16" width="14" customWidth="1"/>
-    <col min="17" max="17" width="15.7109375" customWidth="1"/>
-    <col min="18" max="18" width="11.7109375" customWidth="1"/>
-    <col min="19" max="20" width="6.7109375" customWidth="1"/>
-    <col min="21" max="22" width="13.28515625" customWidth="1"/>
-    <col min="23" max="23" width="14.7109375" customWidth="1"/>
-    <col min="24" max="1025" width="14.42578125" customWidth="1"/>
+    <col min="17" max="17" width="15.6640625" customWidth="1"/>
+    <col min="18" max="18" width="11.6640625" customWidth="1"/>
+    <col min="19" max="20" width="6.6640625" customWidth="1"/>
+    <col min="21" max="22" width="13.33203125" customWidth="1"/>
+    <col min="23" max="23" width="14.6640625" customWidth="1"/>
+    <col min="24" max="1025" width="14.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1598,7 +1593,7 @@
       <c r="U1" s="3"/>
       <c r="V1" s="3"/>
     </row>
-    <row r="2" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
         <v>17</v>
       </c>
@@ -1636,7 +1631,7 @@
       <c r="Y2" s="3"/>
       <c r="Z2" s="3"/>
     </row>
-    <row r="3" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="6" t="s">
         <v>22</v>
       </c>
@@ -1674,7 +1669,7 @@
       <c r="Y3" s="6"/>
       <c r="Z3" s="6"/>
     </row>
-    <row r="4" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="6" t="s">
         <v>22</v>
       </c>
@@ -1710,7 +1705,7 @@
       <c r="Y4" s="6"/>
       <c r="Z4" s="6"/>
     </row>
-    <row r="5" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="7" t="s">
         <v>17</v>
       </c>
@@ -1741,7 +1736,7 @@
       <c r="X5" s="8"/>
       <c r="Y5" s="8"/>
     </row>
-    <row r="6" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="6" t="s">
         <v>25</v>
       </c>
@@ -1773,7 +1768,7 @@
       <c r="Y6" s="6"/>
       <c r="Z6" s="6"/>
     </row>
-    <row r="7" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="7" t="s">
         <v>29</v>
       </c>
@@ -1802,7 +1797,7 @@
       <c r="X7" s="8"/>
       <c r="Y7" s="8"/>
     </row>
-    <row r="8" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="4" t="s">
         <v>29</v>
       </c>
@@ -1832,7 +1827,7 @@
       <c r="Y8" s="3"/>
       <c r="Z8" s="3"/>
     </row>
-    <row r="9" spans="1:26" s="50" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:26" s="50" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="51" t="s">
         <v>243</v>
       </c>
@@ -1848,7 +1843,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="10" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="11" t="s">
         <v>32</v>
       </c>
@@ -1882,7 +1877,7 @@
       <c r="Y10" s="11"/>
       <c r="Z10" s="11"/>
     </row>
-    <row r="11" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="11" t="s">
         <v>32</v>
       </c>
@@ -1916,7 +1911,7 @@
       <c r="Y11" s="11"/>
       <c r="Z11" s="11"/>
     </row>
-    <row r="12" spans="1:26" s="11" customFormat="1" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:26" s="11" customFormat="1" ht="12.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="11" t="s">
         <v>32</v>
       </c>
@@ -1927,7 +1922,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="13" spans="1:26" s="11" customFormat="1" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:26" s="11" customFormat="1" ht="12.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="11" t="s">
         <v>32</v>
       </c>
@@ -1938,7 +1933,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="14" spans="1:26" s="11" customFormat="1" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:26" s="11" customFormat="1" ht="12.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="11" t="s">
         <v>32</v>
       </c>
@@ -1949,7 +1944,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="15" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="4" t="s">
         <v>17</v>
       </c>
@@ -1985,7 +1980,7 @@
       <c r="Y15" s="4"/>
       <c r="Z15" s="4"/>
     </row>
-    <row r="16" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A16" s="6" t="s">
         <v>50</v>
       </c>
@@ -1999,7 +1994,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="17" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A17" s="6" t="s">
         <v>50</v>
       </c>
@@ -2013,7 +2008,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="18" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A18" s="6" t="s">
         <v>50</v>
       </c>
@@ -2027,7 +2022,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="19" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="4" t="s">
         <v>29</v>
       </c>
@@ -2057,7 +2052,7 @@
       <c r="Y19" s="4"/>
       <c r="Z19" s="4"/>
     </row>
-    <row r="20" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="6"/>
       <c r="B20" s="6"/>
       <c r="C20" s="6"/>
@@ -2085,7 +2080,7 @@
       <c r="Y20" s="4"/>
       <c r="Z20" s="4"/>
     </row>
-    <row r="21" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="4" t="s">
         <v>17</v>
       </c>
@@ -2121,7 +2116,7 @@
       <c r="Y21" s="4"/>
       <c r="Z21" s="4"/>
     </row>
-    <row r="22" spans="1:26" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:26" ht="15.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="43" t="s">
         <v>142</v>
       </c>
@@ -2154,7 +2149,7 @@
       <c r="Y22" s="6"/>
       <c r="Z22" s="6"/>
     </row>
-    <row r="23" spans="1:26" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:26" ht="15.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="43" t="s">
         <v>144</v>
       </c>
@@ -2187,7 +2182,7 @@
       <c r="Y23" s="6"/>
       <c r="Z23" s="6"/>
     </row>
-    <row r="24" spans="1:26" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:26" ht="15.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="43" t="s">
         <v>146</v>
       </c>
@@ -2220,7 +2215,7 @@
       <c r="Y24" s="6"/>
       <c r="Z24" s="6"/>
     </row>
-    <row r="25" spans="1:26" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:26" ht="15.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="43" t="s">
         <v>50</v>
       </c>
@@ -2256,7 +2251,7 @@
       <c r="Y25" s="6"/>
       <c r="Z25" s="6"/>
     </row>
-    <row r="26" spans="1:26" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:26" ht="15.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="43" t="s">
         <v>50</v>
       </c>
@@ -2292,7 +2287,7 @@
       <c r="Y26" s="6"/>
       <c r="Z26" s="6"/>
     </row>
-    <row r="27" spans="1:26" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:26" ht="15.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="43" t="s">
         <v>50</v>
       </c>
@@ -2328,7 +2323,7 @@
       <c r="Y27" s="6"/>
       <c r="Z27" s="6"/>
     </row>
-    <row r="28" spans="1:26" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:26" ht="15.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="43" t="s">
         <v>50</v>
       </c>
@@ -2364,7 +2359,7 @@
       <c r="Y28" s="6"/>
       <c r="Z28" s="6"/>
     </row>
-    <row r="29" spans="1:26" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:26" ht="15.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="43" t="s">
         <v>50</v>
       </c>
@@ -2400,7 +2395,7 @@
       <c r="Y29" s="6"/>
       <c r="Z29" s="6"/>
     </row>
-    <row r="30" spans="1:26" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:26" ht="15.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" s="43" t="s">
         <v>50</v>
       </c>
@@ -2435,7 +2430,7 @@
       <c r="Y30" s="6"/>
       <c r="Z30" s="6"/>
     </row>
-    <row r="31" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" s="4" t="s">
         <v>29</v>
       </c>
@@ -2465,7 +2460,7 @@
       <c r="Y31" s="4"/>
       <c r="Z31" s="4"/>
     </row>
-    <row r="32" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" s="22"/>
       <c r="B32" s="22"/>
       <c r="C32" s="22"/>
@@ -2493,7 +2488,7 @@
       <c r="Y32" s="4"/>
       <c r="Z32" s="4"/>
     </row>
-    <row r="33" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" s="22"/>
       <c r="B33" s="22"/>
       <c r="C33" s="22"/>
@@ -2521,7 +2516,7 @@
       <c r="Y33" s="22"/>
       <c r="Z33" s="22"/>
     </row>
-    <row r="34" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A34" s="4" t="s">
         <v>17</v>
       </c>
@@ -2555,7 +2550,7 @@
       <c r="Y34" s="22"/>
       <c r="Z34" s="22"/>
     </row>
-    <row r="35" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A35" s="43" t="s">
         <v>50</v>
       </c>
@@ -2591,7 +2586,7 @@
       <c r="Y35" s="22"/>
       <c r="Z35" s="22"/>
     </row>
-    <row r="36" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A36" s="43" t="s">
         <v>50</v>
       </c>
@@ -2627,7 +2622,7 @@
       <c r="Y36" s="22"/>
       <c r="Z36" s="22"/>
     </row>
-    <row r="37" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A37" s="43" t="s">
         <v>50</v>
       </c>
@@ -2663,7 +2658,7 @@
       <c r="Y37" s="22"/>
       <c r="Z37" s="22"/>
     </row>
-    <row r="38" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A38" s="4" t="s">
         <v>29</v>
       </c>
@@ -2693,7 +2688,7 @@
       <c r="Y38" s="22"/>
       <c r="Z38" s="22"/>
     </row>
-    <row r="39" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A39" s="22"/>
       <c r="B39" s="22"/>
       <c r="C39" s="22"/>
@@ -2721,7 +2716,7 @@
       <c r="Y39" s="22"/>
       <c r="Z39" s="22"/>
     </row>
-    <row r="40" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A40" s="22"/>
       <c r="B40" s="22"/>
       <c r="C40" s="22"/>
@@ -2749,7 +2744,7 @@
       <c r="Y40" s="22"/>
       <c r="Z40" s="22"/>
     </row>
-    <row r="41" spans="1:26" s="4" customFormat="1" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:26" s="4" customFormat="1" ht="12.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A41" s="4" t="s">
         <v>17</v>
       </c>
@@ -2763,7 +2758,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="42" spans="1:26" s="6" customFormat="1" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:26" s="6" customFormat="1" ht="12.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A42" s="9" t="s">
         <v>32</v>
       </c>
@@ -2779,7 +2774,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="43" spans="1:26" s="6" customFormat="1" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:26" s="6" customFormat="1" ht="12.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A43" s="9" t="s">
         <v>32</v>
       </c>
@@ -2795,7 +2790,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="44" spans="1:26" s="6" customFormat="1" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:26" s="6" customFormat="1" ht="12.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A44" s="9" t="s">
         <v>50</v>
       </c>
@@ -2810,7 +2805,7 @@
       <c r="G44" s="22"/>
       <c r="H44" s="22"/>
     </row>
-    <row r="45" spans="1:26" s="6" customFormat="1" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:26" s="6" customFormat="1" ht="12.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A45" s="9" t="s">
         <v>44</v>
       </c>
@@ -2831,7 +2826,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="46" spans="1:26" s="6" customFormat="1" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:26" s="6" customFormat="1" ht="12.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A46" s="9" t="s">
         <v>66</v>
       </c>
@@ -2846,7 +2841,7 @@
       <c r="G46" s="22"/>
       <c r="H46" s="22"/>
     </row>
-    <row r="47" spans="1:26" s="6" customFormat="1" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:26" s="6" customFormat="1" ht="12.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A47" s="9"/>
       <c r="B47" s="9"/>
       <c r="C47" s="23"/>
@@ -2855,12 +2850,12 @@
       <c r="G47" s="22"/>
       <c r="H47" s="22"/>
     </row>
-    <row r="48" spans="1:26" s="4" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:26" s="4" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A48" s="4" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="49" spans="1:25" s="4" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:25" s="4" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A49"/>
       <c r="B49"/>
       <c r="C49"/>
@@ -2872,7 +2867,7 @@
       <c r="I49"/>
       <c r="J49"/>
     </row>
-    <row r="50" spans="1:25" s="4" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:25" s="4" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A50" s="42" t="s">
         <v>17</v>
       </c>
@@ -2890,7 +2885,7 @@
       <c r="I50"/>
       <c r="J50"/>
     </row>
-    <row r="51" spans="1:25" s="4" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:25" s="4" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A51" s="43" t="s">
         <v>205</v>
       </c>
@@ -2910,7 +2905,7 @@
       <c r="I51"/>
       <c r="J51"/>
     </row>
-    <row r="52" spans="1:25" s="4" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:25" s="4" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A52" s="43" t="s">
         <v>50</v>
       </c>
@@ -2930,7 +2925,7 @@
       <c r="I52"/>
       <c r="J52"/>
     </row>
-    <row r="53" spans="1:25" s="4" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:25" s="4" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A53" s="42" t="s">
         <v>29</v>
       </c>
@@ -2944,7 +2939,7 @@
       <c r="I53"/>
       <c r="J53"/>
     </row>
-    <row r="54" spans="1:25" s="4" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:25" s="4" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A54" s="43"/>
       <c r="B54" s="43"/>
       <c r="C54" s="43"/>
@@ -2956,7 +2951,7 @@
       <c r="I54"/>
       <c r="J54"/>
     </row>
-    <row r="55" spans="1:25" s="4" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:25" s="4" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A55" s="42" t="s">
         <v>17</v>
       </c>
@@ -2972,7 +2967,7 @@
       <c r="I55"/>
       <c r="J55"/>
     </row>
-    <row r="56" spans="1:25" s="4" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:25" s="4" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A56" s="43" t="s">
         <v>50</v>
       </c>
@@ -2992,7 +2987,7 @@
       <c r="I56"/>
       <c r="J56"/>
     </row>
-    <row r="57" spans="1:25" s="4" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:25" s="4" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A57" s="42" t="s">
         <v>29</v>
       </c>
@@ -3006,7 +3001,7 @@
       <c r="I57"/>
       <c r="J57"/>
     </row>
-    <row r="58" spans="1:25" s="4" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:25" s="4" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A58"/>
       <c r="B58"/>
       <c r="C58"/>
@@ -3018,7 +3013,7 @@
       <c r="I58"/>
       <c r="J58"/>
     </row>
-    <row r="59" spans="1:25" s="15" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:25" s="15" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A59" s="5" t="s">
         <v>17</v>
       </c>
@@ -3053,7 +3048,7 @@
       <c r="X59" s="16"/>
       <c r="Y59" s="16"/>
     </row>
-    <row r="60" spans="1:25" s="15" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:25" s="15" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A60" s="16" t="s">
         <v>50</v>
       </c>
@@ -3088,7 +3083,7 @@
       <c r="X60" s="16"/>
       <c r="Y60" s="16"/>
     </row>
-    <row r="61" spans="1:25" s="15" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:25" s="15" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A61" s="25" t="s">
         <v>50</v>
       </c>
@@ -3123,7 +3118,7 @@
       <c r="X61" s="25"/>
       <c r="Y61" s="25"/>
     </row>
-    <row r="62" spans="1:25" s="15" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:25" s="15" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A62" s="3" t="s">
         <v>50</v>
       </c>
@@ -3156,7 +3151,7 @@
       <c r="X62" s="3"/>
       <c r="Y62" s="3"/>
     </row>
-    <row r="63" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A63" s="6" t="s">
         <v>50</v>
       </c>
@@ -3170,7 +3165,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="64" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A64" s="6" t="s">
         <v>50</v>
       </c>
@@ -3184,7 +3179,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="65" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A65" s="6" t="s">
         <v>50</v>
       </c>
@@ -3198,7 +3193,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="66" spans="1:25" s="15" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:25" s="15" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A66" s="28" t="s">
         <v>50</v>
       </c>
@@ -3233,7 +3228,7 @@
       <c r="X66" s="28"/>
       <c r="Y66" s="28"/>
     </row>
-    <row r="67" spans="1:25" s="15" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:25" s="15" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A67" s="24" t="s">
         <v>50</v>
       </c>
@@ -3270,7 +3265,7 @@
       <c r="X67" s="16"/>
       <c r="Y67" s="16"/>
     </row>
-    <row r="68" spans="1:25" s="15" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:25" s="15" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A68" s="24" t="s">
         <v>50</v>
       </c>
@@ -3307,7 +3302,7 @@
       <c r="X68" s="16"/>
       <c r="Y68" s="16"/>
     </row>
-    <row r="69" spans="1:25" s="15" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:25" s="15" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A69" s="24" t="s">
         <v>50</v>
       </c>
@@ -3344,7 +3339,7 @@
       <c r="X69" s="16"/>
       <c r="Y69" s="16"/>
     </row>
-    <row r="70" spans="1:25" s="15" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:25" s="15" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A70" s="24" t="s">
         <v>50</v>
       </c>
@@ -3381,7 +3376,7 @@
       <c r="X70" s="16"/>
       <c r="Y70" s="16"/>
     </row>
-    <row r="71" spans="1:25" s="15" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:25" s="15" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A71" s="24" t="s">
         <v>50</v>
       </c>
@@ -3418,7 +3413,7 @@
       <c r="X71" s="16"/>
       <c r="Y71" s="16"/>
     </row>
-    <row r="72" spans="1:25" s="15" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:25" s="15" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A72" s="24" t="s">
         <v>50</v>
       </c>
@@ -3455,7 +3450,7 @@
       <c r="X72" s="16"/>
       <c r="Y72" s="16"/>
     </row>
-    <row r="73" spans="1:25" s="15" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:25" s="15" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A73" s="24" t="s">
         <v>50</v>
       </c>
@@ -3492,7 +3487,7 @@
       <c r="X73" s="16"/>
       <c r="Y73" s="16"/>
     </row>
-    <row r="74" spans="1:25" s="15" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:25" s="15" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A74" s="24" t="s">
         <v>50</v>
       </c>
@@ -3529,7 +3524,7 @@
       <c r="X74" s="16"/>
       <c r="Y74" s="16"/>
     </row>
-    <row r="75" spans="1:25" s="15" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:25" s="15" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A75" s="24" t="s">
         <v>50</v>
       </c>
@@ -3566,7 +3561,7 @@
       <c r="X75" s="16"/>
       <c r="Y75" s="16"/>
     </row>
-    <row r="76" spans="1:25" s="15" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:25" s="15" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A76" s="24" t="s">
         <v>50</v>
       </c>
@@ -3603,7 +3598,7 @@
       <c r="X76" s="16"/>
       <c r="Y76" s="16"/>
     </row>
-    <row r="77" spans="1:25" s="15" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:25" s="15" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A77" s="24" t="s">
         <v>50</v>
       </c>
@@ -3640,7 +3635,7 @@
       <c r="X77" s="16"/>
       <c r="Y77" s="16"/>
     </row>
-    <row r="78" spans="1:25" s="15" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:25" s="15" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A78" s="24" t="s">
         <v>50</v>
       </c>
@@ -3677,7 +3672,7 @@
       <c r="X78" s="16"/>
       <c r="Y78" s="16"/>
     </row>
-    <row r="79" spans="1:25" s="15" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:25" s="15" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A79" s="24" t="s">
         <v>50</v>
       </c>
@@ -3714,7 +3709,7 @@
       <c r="X79" s="16"/>
       <c r="Y79" s="16"/>
     </row>
-    <row r="80" spans="1:25" s="15" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:25" s="15" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A80" s="24" t="s">
         <v>50</v>
       </c>
@@ -3751,7 +3746,7 @@
       <c r="X80" s="16"/>
       <c r="Y80" s="16"/>
     </row>
-    <row r="81" spans="1:25" s="15" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:25" s="15" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A81" s="24" t="s">
         <v>50</v>
       </c>
@@ -3788,7 +3783,7 @@
       <c r="X81" s="16"/>
       <c r="Y81" s="16"/>
     </row>
-    <row r="82" spans="1:25" s="15" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:25" s="15" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A82" s="24" t="s">
         <v>50</v>
       </c>
@@ -3825,7 +3820,7 @@
       <c r="X82" s="16"/>
       <c r="Y82" s="16"/>
     </row>
-    <row r="83" spans="1:25" s="15" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:25" s="15" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A83" s="24" t="s">
         <v>50</v>
       </c>
@@ -3854,7 +3849,7 @@
       <c r="X83" s="16"/>
       <c r="Y83" s="16"/>
     </row>
-    <row r="84" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A84" s="24" t="s">
         <v>50</v>
       </c>
@@ -3887,7 +3882,7 @@
       <c r="X84" s="32"/>
       <c r="Y84" s="32"/>
     </row>
-    <row r="85" spans="1:25" s="15" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:25" s="15" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A85" s="33" t="s">
         <v>50</v>
       </c>
@@ -3924,7 +3919,7 @@
       <c r="X85" s="33"/>
       <c r="Y85" s="33"/>
     </row>
-    <row r="86" spans="1:25" s="15" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:25" s="15" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A86" s="5" t="s">
         <v>29</v>
       </c>
@@ -3953,555 +3948,547 @@
       <c r="X86" s="16"/>
       <c r="Y86" s="16"/>
     </row>
-    <row r="87" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="88" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="89" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="90" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="91" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="92" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A92" s="51" t="s">
-        <v>243</v>
-      </c>
-      <c r="B92" s="51" t="s">
-        <v>244</v>
-      </c>
-      <c r="C92" s="51" t="s">
-        <v>245</v>
-      </c>
+    <row r="87" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="88" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="89" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="90" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="91" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="92" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A92" s="51"/>
+      <c r="B92" s="51"/>
+      <c r="C92" s="51"/>
       <c r="D92" s="51"/>
       <c r="E92" s="51"/>
-      <c r="F92" s="51" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="93" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="94" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="95" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="96" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="97" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="98" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="99" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="100" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="101" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="102" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="103" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="104" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="105" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="106" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="107" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="108" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="109" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="110" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="111" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="112" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="113" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="114" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="115" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="116" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="117" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="118" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="119" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="120" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="121" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="122" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="123" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="124" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="125" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="126" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="127" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="128" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="129" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="130" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="131" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="132" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="133" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="134" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="135" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="136" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="137" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="138" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="139" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="140" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="141" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="142" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="143" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="144" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="145" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="146" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="147" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="148" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="149" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="150" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="151" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="152" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="153" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="154" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="155" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="156" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="157" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="158" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="159" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="160" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="161" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="162" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="163" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="164" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="165" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="166" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="167" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="168" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="169" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="170" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="171" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="172" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="173" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="174" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="175" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="176" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="177" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="178" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="179" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="180" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="181" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="182" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="183" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="184" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="185" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="186" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="187" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="188" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="189" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="190" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="191" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="192" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="193" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="194" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="195" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="196" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="197" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="198" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="199" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="200" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="201" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="202" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="203" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="204" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="205" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="206" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="207" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="208" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="209" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="210" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="211" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="212" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="213" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="214" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="215" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="216" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="217" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="218" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="219" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="220" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="221" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="222" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="223" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="224" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="225" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="226" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="227" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="228" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="229" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="230" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="231" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="232" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="233" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="234" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="235" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="236" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="237" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="238" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="239" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="240" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="241" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="242" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="243" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="244" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="245" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="246" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="247" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="248" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="249" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="250" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="251" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="252" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="253" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="254" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="255" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="256" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="257" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="258" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="259" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="260" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="261" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="262" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="263" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="264" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="265" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="266" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="267" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="268" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="269" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="270" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="271" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="272" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="273" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="274" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="275" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="276" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="277" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="278" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="279" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="280" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="281" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="282" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="283" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="284" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="285" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="286" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="287" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="288" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="289" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="290" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="291" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="292" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="293" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="294" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="295" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="296" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="297" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="298" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="299" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="300" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="301" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="302" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="303" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="304" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="305" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="306" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="307" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="308" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="309" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="310" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="311" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="312" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="313" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="314" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="315" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="316" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="317" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="318" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="319" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="320" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="321" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="322" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="323" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="324" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="325" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="326" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="327" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="328" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="329" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="330" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="331" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="332" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="333" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="334" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="335" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="336" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="337" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="338" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="339" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="340" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="341" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="342" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="343" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="344" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="345" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="346" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="347" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="348" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="349" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="350" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="351" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="352" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="353" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="354" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="355" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="356" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="357" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="358" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="359" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="360" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="361" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="362" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="363" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="364" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="365" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="366" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="367" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="368" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="369" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="370" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="371" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="372" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="373" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="374" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="375" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="376" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="377" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="378" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="379" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="380" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="381" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="382" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="383" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="384" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="385" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="386" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="387" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="388" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="389" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="390" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="391" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="392" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="393" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="394" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="395" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="396" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="397" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="398" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="399" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="400" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="401" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="402" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="403" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="404" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="405" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="406" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="407" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="408" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="409" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="410" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="411" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="412" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="413" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="414" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="415" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="416" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="417" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="418" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="419" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="420" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="421" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="422" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="423" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="424" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="425" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="426" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="427" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="428" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="429" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="430" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="431" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="432" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="433" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="434" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="435" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="436" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="437" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="438" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="439" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="440" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="441" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="442" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="443" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="444" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="445" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="446" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="447" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="448" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="449" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="450" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="451" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="452" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="453" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="454" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="455" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="456" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="457" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="458" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="459" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="460" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="461" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="462" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="463" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="464" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="465" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="466" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="467" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="468" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="469" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="470" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="471" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="472" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="473" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="474" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="475" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="476" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="477" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="478" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="479" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="480" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="481" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="482" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="483" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="484" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="485" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="486" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="487" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="488" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="489" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="490" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="491" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="492" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="493" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="494" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="495" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="496" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="497" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="498" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="499" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="500" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="501" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="502" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="503" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="504" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="505" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="506" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="507" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="508" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="509" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="510" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="511" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="512" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="513" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="514" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="515" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="516" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="517" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="518" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="519" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="520" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="521" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="522" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="523" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="524" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="525" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="526" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="527" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="528" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="529" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="530" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="531" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="532" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="533" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="534" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="535" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="536" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="537" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="538" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="539" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="540" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="541" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="542" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="543" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="544" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="545" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="546" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="547" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="548" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="549" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="550" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="551" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="552" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="553" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="554" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="555" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="556" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="557" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="558" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="559" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="560" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="561" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="562" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="563" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="564" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="565" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="566" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="567" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="568" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="569" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="570" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="571" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="572" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="573" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="574" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="575" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="576" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="577" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="578" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="579" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="580" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="581" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="582" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="583" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="584" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="585" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="586" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="587" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="588" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="589" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="590" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="591" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="592" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="593" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="594" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="595" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="596" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="597" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="598" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="599" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="600" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="601" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="602" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="603" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="604" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="605" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="606" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="607" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="608" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="609" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="610" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="611" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="612" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="613" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="614" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="615" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="616" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="617" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="618" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="619" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="620" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+      <c r="F92" s="51"/>
+    </row>
+    <row r="93" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="94" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="95" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="96" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="97" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="98" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="99" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="100" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="101" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="102" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="103" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="104" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="105" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="106" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="107" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="108" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="109" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="110" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="111" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="112" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="113" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="114" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="115" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="116" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="117" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="118" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="119" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="120" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="121" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="122" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="123" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="124" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="125" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="126" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="127" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="128" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="129" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="130" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="131" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="132" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="133" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="134" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="135" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="136" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="137" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="138" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="139" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="140" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="141" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="142" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="143" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="144" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="145" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="146" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="147" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="148" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="149" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="150" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="151" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="152" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="153" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="154" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="155" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="156" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="157" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="158" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="159" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="160" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="161" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="162" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="163" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="164" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="165" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="166" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="167" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="168" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="169" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="170" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="171" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="172" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="173" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="174" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="175" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="176" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="177" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="178" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="179" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="180" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="181" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="182" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="183" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="184" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="185" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="186" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="187" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="188" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="189" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="190" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="191" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="192" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="193" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="194" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="195" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="196" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="197" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="198" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="199" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="200" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="201" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="202" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="203" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="204" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="205" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="206" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="207" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="208" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="209" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="210" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="211" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="212" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="213" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="214" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="215" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="216" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="217" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="218" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="219" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="220" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="221" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="222" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="223" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="224" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="225" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="226" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="227" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="228" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="229" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="230" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="231" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="232" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="233" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="234" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="235" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="236" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="237" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="238" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="239" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="240" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="241" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="242" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="243" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="244" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="245" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="246" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="247" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="248" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="249" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="250" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="251" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="252" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="253" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="254" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="255" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="256" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="257" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="258" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="259" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="260" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="261" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="262" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="263" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="264" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="265" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="266" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="267" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="268" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="269" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="270" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="271" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="272" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="273" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="274" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="275" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="276" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="277" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="278" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="279" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="280" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="281" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="282" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="283" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="284" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="285" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="286" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="287" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="288" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="289" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="290" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="291" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="292" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="293" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="294" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="295" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="296" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="297" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="298" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="299" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="300" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="301" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="302" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="303" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="304" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="305" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="306" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="307" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="308" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="309" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="310" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="311" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="312" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="313" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="314" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="315" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="316" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="317" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="318" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="319" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="320" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="321" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="322" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="323" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="324" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="325" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="326" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="327" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="328" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="329" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="330" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="331" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="332" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="333" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="334" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="335" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="336" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="337" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="338" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="339" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="340" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="341" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="342" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="343" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="344" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="345" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="346" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="347" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="348" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="349" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="350" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="351" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="352" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="353" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="354" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="355" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="356" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="357" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="358" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="359" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="360" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="361" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="362" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="363" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="364" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="365" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="366" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="367" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="368" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="369" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="370" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="371" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="372" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="373" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="374" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="375" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="376" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="377" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="378" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="379" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="380" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="381" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="382" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="383" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="384" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="385" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="386" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="387" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="388" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="389" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="390" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="391" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="392" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="393" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="394" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="395" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="396" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="397" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="398" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="399" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="400" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="401" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="402" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="403" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="404" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="405" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="406" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="407" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="408" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="409" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="410" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="411" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="412" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="413" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="414" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="415" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="416" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="417" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="418" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="419" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="420" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="421" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="422" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="423" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="424" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="425" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="426" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="427" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="428" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="429" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="430" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="431" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="432" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="433" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="434" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="435" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="436" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="437" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="438" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="439" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="440" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="441" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="442" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="443" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="444" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="445" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="446" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="447" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="448" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="449" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="450" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="451" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="452" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="453" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="454" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="455" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="456" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="457" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="458" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="459" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="460" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="461" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="462" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="463" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="464" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="465" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="466" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="467" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="468" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="469" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="470" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="471" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="472" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="473" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="474" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="475" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="476" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="477" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="478" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="479" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="480" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="481" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="482" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="483" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="484" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="485" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="486" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="487" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="488" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="489" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="490" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="491" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="492" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="493" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="494" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="495" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="496" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="497" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="498" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="499" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="500" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="501" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="502" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="503" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="504" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="505" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="506" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="507" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="508" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="509" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="510" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="511" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="512" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="513" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="514" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="515" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="516" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="517" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="518" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="519" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="520" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="521" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="522" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="523" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="524" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="525" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="526" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="527" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="528" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="529" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="530" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="531" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="532" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="533" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="534" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="535" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="536" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="537" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="538" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="539" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="540" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="541" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="542" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="543" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="544" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="545" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="546" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="547" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="548" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="549" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="550" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="551" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="552" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="553" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="554" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="555" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="556" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="557" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="558" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="559" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="560" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="561" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="562" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="563" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="564" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="565" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="566" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="567" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="568" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="569" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="570" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="571" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="572" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="573" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="574" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="575" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="576" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="577" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="578" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="579" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="580" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="581" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="582" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="583" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="584" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="585" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="586" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="587" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="588" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="589" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="590" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="591" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="592" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="593" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="594" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="595" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="596" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="597" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="598" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="599" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="600" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="601" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="602" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="603" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="604" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="605" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="606" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="607" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="608" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="609" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="610" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="611" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="612" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="613" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="614" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="615" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="616" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="617" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="618" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="619" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="620" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <conditionalFormatting sqref="A61">
     <cfRule type="cellIs" dxfId="2" priority="2" operator="equal">
@@ -4519,36 +4506,35 @@
     </cfRule>
   </conditionalFormatting>
   <hyperlinks>
-    <hyperlink ref="C30" r:id="rId1" display="mailto:info@agra.org" xr:uid="{019AC58D-FDA6-44EC-B0DD-24920615B405}"/>
-    <hyperlink ref="A92" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
-    <hyperlink ref="A9" r:id="rId3" xr:uid="{F7E55958-2021-438A-9898-D4E60AFD5F1A}"/>
+    <hyperlink ref="C30" r:id="rId1" display="mailto:info@agra.org"/>
+    <hyperlink ref="A9" r:id="rId2"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
-  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId4"/>
+  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Z41"/>
   <sheetViews>
     <sheetView topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="B22" sqref="B22:B37"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="28.42578125" customWidth="1"/>
+    <col min="1" max="1" width="28.44140625" customWidth="1"/>
     <col min="2" max="2" width="37" customWidth="1"/>
     <col min="3" max="3" width="26" customWidth="1"/>
-    <col min="4" max="4" width="16.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="11" width="6.7109375" customWidth="1"/>
-    <col min="12" max="24" width="8.85546875" customWidth="1"/>
-    <col min="25" max="1025" width="14.42578125" customWidth="1"/>
+    <col min="4" max="4" width="16.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="11" width="6.6640625" customWidth="1"/>
+    <col min="12" max="24" width="8.88671875" customWidth="1"/>
+    <col min="25" max="1025" width="14.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="35" t="s">
         <v>91</v>
       </c>
@@ -4584,7 +4570,7 @@
       <c r="W1" s="36"/>
       <c r="X1" s="36"/>
     </row>
-    <row r="2" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="18" t="s">
         <v>92</v>
       </c>
@@ -4616,7 +4602,7 @@
       <c r="W2" s="6"/>
       <c r="X2" s="6"/>
     </row>
-    <row r="3" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="18" t="s">
         <v>92</v>
       </c>
@@ -4648,7 +4634,7 @@
       <c r="W3" s="6"/>
       <c r="X3" s="6"/>
     </row>
-    <row r="4" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="18" t="s">
         <v>95</v>
       </c>
@@ -4682,7 +4668,7 @@
       <c r="Y4" s="3"/>
       <c r="Z4" s="3"/>
     </row>
-    <row r="5" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="18" t="s">
         <v>95</v>
       </c>
@@ -4716,7 +4702,7 @@
       <c r="Y5" s="3"/>
       <c r="Z5" s="3"/>
     </row>
-    <row r="6" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="18" t="s">
         <v>107</v>
       </c>
@@ -4750,7 +4736,7 @@
       <c r="Y6" s="3"/>
       <c r="Z6" s="3"/>
     </row>
-    <row r="7" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>107</v>
       </c>
@@ -4761,7 +4747,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="8" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>107</v>
       </c>
@@ -4772,7 +4758,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="9" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>107</v>
       </c>
@@ -4783,7 +4769,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="10" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>107</v>
       </c>
@@ -4794,7 +4780,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="11" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>107</v>
       </c>
@@ -4805,7 +4791,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="12" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>107</v>
       </c>
@@ -4816,7 +4802,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="13" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>107</v>
       </c>
@@ -4827,7 +4813,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="14" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>107</v>
       </c>
@@ -4838,7 +4824,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="15" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>107</v>
       </c>
@@ -4849,7 +4835,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="16" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>107</v>
       </c>
@@ -4860,7 +4846,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>107</v>
       </c>
@@ -4871,7 +4857,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>107</v>
       </c>
@@ -4882,7 +4868,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>107</v>
       </c>
@@ -4893,7 +4879,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A22" s="46" t="s">
         <v>167</v>
       </c>
@@ -4904,7 +4890,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A23" s="46" t="s">
         <v>167</v>
       </c>
@@ -4915,7 +4901,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A24" s="46" t="s">
         <v>167</v>
       </c>
@@ -4926,7 +4912,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A25" s="46" t="s">
         <v>172</v>
       </c>
@@ -4937,7 +4923,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A26" s="46" t="s">
         <v>172</v>
       </c>
@@ -4948,7 +4934,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A27" s="46" t="s">
         <v>172</v>
       </c>
@@ -4959,7 +4945,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A28" s="46" t="s">
         <v>172</v>
       </c>
@@ -4970,7 +4956,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A29" s="46" t="s">
         <v>172</v>
       </c>
@@ -4981,7 +4967,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A30" s="46" t="s">
         <v>172</v>
       </c>
@@ -4992,7 +4978,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A31" s="46" t="s">
         <v>172</v>
       </c>
@@ -5003,7 +4989,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A32" s="46" t="s">
         <v>172</v>
       </c>
@@ -5014,7 +5000,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A33" s="46" t="s">
         <v>172</v>
       </c>
@@ -5025,7 +5011,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A34" s="46" t="s">
         <v>172</v>
       </c>
@@ -5036,7 +5022,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A35" s="46" t="s">
         <v>188</v>
       </c>
@@ -5047,7 +5033,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A36" s="46" t="s">
         <v>188</v>
       </c>
@@ -5058,7 +5044,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A37" s="46" t="s">
         <v>188</v>
       </c>
@@ -5069,12 +5055,12 @@
         <v>194</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A38" s="47"/>
       <c r="B38" s="47"/>
       <c r="C38" s="47"/>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A39" s="47" t="s">
         <v>195</v>
       </c>
@@ -5085,7 +5071,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A40" s="47" t="s">
         <v>195</v>
       </c>
@@ -5096,7 +5082,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A41" s="47" t="s">
         <v>195</v>
       </c>
@@ -5114,27 +5100,27 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Z1000"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="25.140625" customWidth="1"/>
+    <col min="1" max="1" width="25.109375" customWidth="1"/>
     <col min="2" max="2" width="19" customWidth="1"/>
-    <col min="3" max="3" width="10.28515625" customWidth="1"/>
-    <col min="4" max="4" width="12.28515625" customWidth="1"/>
-    <col min="5" max="5" width="12.42578125" customWidth="1"/>
-    <col min="6" max="6" width="30.140625" customWidth="1"/>
-    <col min="7" max="16" width="6.7109375" customWidth="1"/>
-    <col min="17" max="26" width="8.85546875" customWidth="1"/>
-    <col min="27" max="1025" width="14.42578125" customWidth="1"/>
+    <col min="3" max="3" width="10.33203125" customWidth="1"/>
+    <col min="4" max="4" width="12.33203125" customWidth="1"/>
+    <col min="5" max="5" width="12.44140625" customWidth="1"/>
+    <col min="6" max="6" width="30.109375" customWidth="1"/>
+    <col min="7" max="16" width="6.6640625" customWidth="1"/>
+    <col min="17" max="26" width="8.88671875" customWidth="1"/>
+    <col min="27" max="1025" width="14.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>121</v>
       </c>
@@ -5176,7 +5162,7 @@
       <c r="Y1" s="1"/>
       <c r="Z1" s="1"/>
     </row>
-    <row r="2" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
         <v>128</v>
       </c>
@@ -5206,986 +5192,986 @@
       <c r="O2" s="3"/>
       <c r="P2" s="3"/>
     </row>
-    <row r="21" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="29" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="30" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="31" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="32" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="33" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="34" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="37" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="38" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="39" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="40" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="41" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="42" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="43" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="44" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="46" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="47" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="48" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="49" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="51" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="52" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="53" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="54" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="55" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="56" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="57" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="59" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="60" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="61" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="62" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="63" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="64" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="65" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="66" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="67" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="68" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="69" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="70" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="71" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="72" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="73" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="74" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="75" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="76" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="77" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="78" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="79" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="80" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="81" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="82" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="83" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="84" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="85" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="86" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="87" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="88" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="89" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="90" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="91" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="92" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="93" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="94" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="95" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="96" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="97" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="98" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="99" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="100" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="101" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="102" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="103" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="104" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="105" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="106" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="107" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="108" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="109" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="110" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="111" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="112" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="113" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="114" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="115" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="116" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="117" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="118" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="119" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="120" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="121" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="122" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="123" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="124" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="125" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="126" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="127" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="128" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="129" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="130" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="131" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="132" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="133" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="134" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="135" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="136" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="137" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="138" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="139" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="140" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="141" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="142" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="143" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="144" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="145" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="146" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="147" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="148" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="149" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="150" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="151" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="152" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="153" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="154" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="155" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="156" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="157" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="158" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="159" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="160" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="161" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="162" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="163" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="164" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="165" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="166" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="167" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="168" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="169" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="170" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="171" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="172" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="173" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="174" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="175" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="176" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="177" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="178" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="179" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="180" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="181" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="182" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="183" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="184" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="185" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="186" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="187" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="188" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="189" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="190" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="191" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="192" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="193" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="194" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="195" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="196" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="197" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="198" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="199" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="200" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="201" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="202" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="203" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="204" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="205" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="206" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="207" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="208" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="209" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="210" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="211" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="212" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="213" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="214" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="215" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="216" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="217" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="218" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="219" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="220" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="221" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="222" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="223" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="224" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="225" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="226" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="227" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="228" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="229" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="230" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="231" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="232" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="233" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="234" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="235" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="236" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="237" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="238" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="239" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="240" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="241" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="242" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="243" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="244" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="245" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="246" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="247" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="248" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="249" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="250" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="251" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="252" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="253" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="254" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="255" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="256" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="257" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="258" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="259" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="260" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="261" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="262" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="263" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="264" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="265" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="266" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="267" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="268" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="269" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="270" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="271" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="272" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="273" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="274" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="275" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="276" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="277" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="278" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="279" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="280" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="281" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="282" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="283" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="284" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="285" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="286" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="287" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="288" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="289" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="290" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="291" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="292" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="293" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="294" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="295" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="296" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="297" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="298" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="299" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="300" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="301" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="302" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="303" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="304" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="305" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="306" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="307" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="308" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="309" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="310" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="311" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="312" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="313" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="314" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="315" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="316" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="317" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="318" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="319" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="320" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="321" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="322" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="323" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="324" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="325" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="326" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="327" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="328" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="329" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="330" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="331" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="332" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="333" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="334" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="335" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="336" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="337" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="338" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="339" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="340" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="341" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="342" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="343" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="344" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="345" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="346" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="347" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="348" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="349" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="350" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="351" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="352" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="353" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="354" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="355" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="356" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="357" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="358" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="359" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="360" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="361" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="362" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="363" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="364" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="365" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="366" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="367" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="368" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="369" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="370" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="371" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="372" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="373" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="374" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="375" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="376" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="377" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="378" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="379" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="380" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="381" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="382" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="383" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="384" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="385" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="386" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="387" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="388" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="389" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="390" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="391" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="392" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="393" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="394" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="395" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="396" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="397" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="398" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="399" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="400" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="401" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="402" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="403" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="404" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="405" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="406" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="407" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="408" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="409" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="410" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="411" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="412" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="413" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="414" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="415" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="416" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="417" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="418" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="419" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="420" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="421" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="422" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="423" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="424" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="425" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="426" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="427" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="428" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="429" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="430" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="431" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="432" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="433" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="434" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="435" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="436" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="437" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="438" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="439" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="440" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="441" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="442" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="443" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="444" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="445" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="446" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="447" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="448" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="449" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="450" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="451" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="452" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="453" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="454" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="455" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="456" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="457" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="458" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="459" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="460" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="461" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="462" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="463" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="464" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="465" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="466" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="467" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="468" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="469" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="470" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="471" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="472" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="473" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="474" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="475" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="476" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="477" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="478" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="479" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="480" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="481" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="482" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="483" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="484" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="485" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="486" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="487" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="488" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="489" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="490" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="491" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="492" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="493" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="494" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="495" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="496" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="497" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="498" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="499" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="500" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="501" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="502" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="503" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="504" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="505" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="506" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="507" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="508" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="509" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="510" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="511" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="512" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="513" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="514" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="515" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="516" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="517" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="518" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="519" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="520" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="521" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="522" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="523" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="524" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="525" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="526" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="527" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="528" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="529" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="530" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="531" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="532" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="533" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="534" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="535" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="536" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="537" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="538" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="539" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="540" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="541" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="542" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="543" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="544" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="545" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="546" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="547" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="548" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="549" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="550" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="551" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="552" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="553" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="554" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="555" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="556" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="557" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="558" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="559" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="560" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="561" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="562" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="563" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="564" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="565" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="566" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="567" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="568" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="569" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="570" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="571" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="572" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="573" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="574" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="575" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="576" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="577" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="578" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="579" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="580" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="581" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="582" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="583" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="584" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="585" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="586" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="587" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="588" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="589" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="590" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="591" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="592" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="593" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="594" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="595" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="596" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="597" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="598" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="599" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="600" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="601" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="602" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="603" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="604" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="605" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="606" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="607" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="608" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="609" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="610" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="611" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="612" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="613" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="614" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="615" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="616" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="617" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="618" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="619" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="620" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="621" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="622" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="623" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="624" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="625" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="626" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="627" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="628" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="629" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="630" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="631" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="632" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="633" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="634" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="635" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="636" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="637" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="638" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="639" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="640" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="641" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="642" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="643" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="644" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="645" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="646" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="647" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="648" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="649" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="650" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="651" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="652" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="653" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="654" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="655" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="656" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="657" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="658" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="659" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="660" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="661" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="662" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="663" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="664" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="665" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="666" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="667" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="668" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="669" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="670" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="671" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="672" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="673" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="674" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="675" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="676" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="677" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="678" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="679" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="680" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="681" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="682" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="683" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="684" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="685" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="686" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="687" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="688" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="689" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="690" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="691" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="692" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="693" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="694" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="695" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="696" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="697" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="698" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="699" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="700" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="701" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="702" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="703" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="704" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="705" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="706" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="707" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="708" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="709" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="710" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="711" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="712" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="713" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="714" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="715" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="716" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="717" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="718" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="719" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="720" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="721" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="722" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="723" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="724" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="725" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="726" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="727" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="728" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="729" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="730" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="731" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="732" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="733" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="734" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="735" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="736" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="737" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="738" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="739" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="740" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="741" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="742" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="743" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="744" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="745" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="746" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="747" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="748" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="749" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="750" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="751" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="752" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="753" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="754" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="755" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="756" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="757" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="758" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="759" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="760" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="761" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="762" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="763" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="764" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="765" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="766" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="767" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="768" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="769" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="770" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="771" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="772" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="773" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="774" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="775" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="776" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="777" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="778" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="779" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="780" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="781" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="782" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="783" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="784" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="785" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="786" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="787" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="788" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="789" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="790" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="791" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="792" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="793" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="794" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="795" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="796" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="797" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="798" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="799" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="800" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="801" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="802" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="803" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="804" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="805" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="806" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="807" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="808" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="809" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="810" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="811" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="812" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="813" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="814" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="815" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="816" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="817" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="818" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="819" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="820" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="821" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="822" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="823" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="824" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="825" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="826" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="827" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="828" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="829" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="830" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="831" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="832" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="833" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="834" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="835" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="836" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="837" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="838" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="839" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="840" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="841" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="842" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="843" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="844" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="845" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="846" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="847" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="848" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="849" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="850" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="851" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="852" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="853" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="854" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="855" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="856" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="857" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="858" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="859" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="860" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="861" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="862" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="863" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="864" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="865" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="866" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="867" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="868" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="869" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="870" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="871" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="872" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="873" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="874" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="875" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="876" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="877" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="878" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="879" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="880" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="881" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="882" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="883" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="884" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="885" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="886" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="887" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="888" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="889" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="890" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="891" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="892" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="893" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="894" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="895" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="896" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="897" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="898" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="899" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="900" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="901" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="902" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="903" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="904" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="905" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="906" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="907" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="908" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="909" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="910" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="911" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="912" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="913" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="914" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="915" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="916" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="917" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="918" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="919" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="920" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="921" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="922" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="923" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="924" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="925" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="926" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="927" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="928" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="929" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="930" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="931" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="932" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="933" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="934" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="935" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="936" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="937" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="938" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="939" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="940" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="941" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="942" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="943" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="944" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="945" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="946" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="947" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="948" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="949" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="950" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="951" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="952" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="953" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="954" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="955" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="956" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="957" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="958" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="959" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="960" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="961" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="962" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="963" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="964" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="965" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="966" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="967" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="968" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="969" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="970" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="971" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="972" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="973" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="974" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="975" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="976" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="977" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="978" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="979" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="980" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="981" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="982" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="983" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="984" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="985" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="986" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="987" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="988" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="989" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="990" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="991" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="992" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="993" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="994" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="995" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="996" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="997" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="998" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="999" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="1000" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="21" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="22" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="23" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="27" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="29" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="30" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="32" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="33" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="34" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="36" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="37" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="38" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="39" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="40" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="41" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="42" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="43" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="44" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="45" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="47" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="48" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="49" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="51" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="52" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="53" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="54" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="55" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="56" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="57" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="59" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="60" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="61" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="62" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="63" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="64" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="65" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="66" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="67" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="68" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="69" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="70" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="71" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="72" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="73" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="74" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="75" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="76" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="77" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="78" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="79" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="80" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="81" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="82" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="83" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="84" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="85" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="86" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="87" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="88" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="89" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="90" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="91" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="92" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="93" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="94" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="95" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="96" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="97" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="98" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="99" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="100" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="101" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="102" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="103" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="104" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="105" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="106" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="107" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="108" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="109" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="110" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="111" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="112" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="113" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="114" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="115" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="116" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="117" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="118" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="119" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="120" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="121" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="122" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="123" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="124" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="125" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="126" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="127" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="128" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="129" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="130" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="131" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="132" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="133" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="134" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="135" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="136" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="137" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="138" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="139" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="140" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="141" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="142" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="143" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="144" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="145" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="146" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="147" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="148" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="149" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="150" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="151" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="152" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="153" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="154" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="155" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="156" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="157" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="158" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="159" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="160" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="161" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="162" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="163" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="164" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="165" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="166" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="167" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="168" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="169" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="170" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="171" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="172" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="173" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="174" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="175" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="176" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="177" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="178" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="179" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="180" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="181" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="182" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="183" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="184" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="185" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="186" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="187" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="188" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="189" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="190" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="191" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="192" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="193" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="194" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="195" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="196" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="197" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="198" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="199" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="200" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="201" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="202" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="203" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="204" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="205" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="206" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="207" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="208" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="209" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="210" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="211" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="212" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="213" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="214" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="215" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="216" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="217" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="218" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="219" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="220" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="221" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="222" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="223" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="224" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="225" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="226" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="227" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="228" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="229" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="230" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="231" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="232" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="233" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="234" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="235" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="236" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="237" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="238" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="239" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="240" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="241" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="242" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="243" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="244" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="245" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="246" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="247" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="248" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="249" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="250" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="251" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="252" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="253" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="254" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="255" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="256" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="257" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="258" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="259" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="260" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="261" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="262" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="263" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="264" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="265" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="266" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="267" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="268" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="269" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="270" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="271" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="272" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="273" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="274" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="275" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="276" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="277" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="278" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="279" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="280" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="281" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="282" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="283" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="284" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="285" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="286" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="287" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="288" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="289" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="290" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="291" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="292" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="293" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="294" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="295" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="296" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="297" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="298" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="299" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="300" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="301" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="302" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="303" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="304" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="305" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="306" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="307" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="308" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="309" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="310" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="311" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="312" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="313" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="314" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="315" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="316" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="317" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="318" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="319" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="320" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="321" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="322" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="323" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="324" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="325" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="326" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="327" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="328" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="329" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="330" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="331" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="332" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="333" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="334" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="335" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="336" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="337" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="338" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="339" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="340" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="341" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="342" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="343" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="344" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="345" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="346" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="347" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="348" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="349" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="350" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="351" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="352" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="353" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="354" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="355" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="356" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="357" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="358" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="359" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="360" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="361" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="362" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="363" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="364" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="365" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="366" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="367" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="368" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="369" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="370" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="371" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="372" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="373" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="374" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="375" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="376" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="377" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="378" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="379" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="380" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="381" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="382" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="383" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="384" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="385" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="386" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="387" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="388" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="389" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="390" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="391" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="392" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="393" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="394" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="395" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="396" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="397" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="398" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="399" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="400" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="401" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="402" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="403" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="404" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="405" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="406" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="407" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="408" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="409" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="410" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="411" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="412" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="413" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="414" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="415" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="416" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="417" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="418" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="419" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="420" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="421" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="422" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="423" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="424" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="425" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="426" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="427" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="428" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="429" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="430" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="431" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="432" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="433" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="434" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="435" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="436" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="437" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="438" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="439" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="440" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="441" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="442" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="443" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="444" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="445" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="446" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="447" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="448" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="449" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="450" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="451" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="452" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="453" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="454" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="455" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="456" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="457" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="458" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="459" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="460" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="461" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="462" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="463" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="464" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="465" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="466" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="467" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="468" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="469" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="470" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="471" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="472" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="473" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="474" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="475" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="476" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="477" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="478" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="479" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="480" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="481" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="482" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="483" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="484" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="485" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="486" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="487" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="488" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="489" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="490" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="491" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="492" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="493" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="494" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="495" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="496" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="497" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="498" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="499" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="500" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="501" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="502" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="503" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="504" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="505" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="506" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="507" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="508" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="509" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="510" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="511" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="512" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="513" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="514" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="515" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="516" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="517" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="518" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="519" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="520" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="521" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="522" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="523" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="524" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="525" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="526" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="527" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="528" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="529" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="530" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="531" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="532" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="533" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="534" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="535" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="536" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="537" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="538" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="539" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="540" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="541" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="542" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="543" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="544" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="545" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="546" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="547" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="548" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="549" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="550" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="551" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="552" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="553" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="554" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="555" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="556" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="557" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="558" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="559" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="560" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="561" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="562" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="563" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="564" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="565" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="566" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="567" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="568" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="569" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="570" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="571" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="572" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="573" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="574" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="575" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="576" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="577" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="578" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="579" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="580" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="581" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="582" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="583" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="584" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="585" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="586" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="587" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="588" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="589" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="590" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="591" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="592" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="593" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="594" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="595" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="596" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="597" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="598" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="599" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="600" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="601" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="602" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="603" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="604" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="605" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="606" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="607" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="608" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="609" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="610" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="611" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="612" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="613" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="614" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="615" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="616" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="617" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="618" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="619" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="620" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="621" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="622" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="623" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="624" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="625" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="626" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="627" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="628" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="629" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="630" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="631" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="632" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="633" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="634" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="635" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="636" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="637" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="638" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="639" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="640" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="641" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="642" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="643" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="644" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="645" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="646" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="647" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="648" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="649" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="650" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="651" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="652" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="653" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="654" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="655" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="656" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="657" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="658" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="659" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="660" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="661" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="662" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="663" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="664" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="665" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="666" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="667" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="668" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="669" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="670" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="671" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="672" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="673" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="674" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="675" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="676" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="677" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="678" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="679" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="680" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="681" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="682" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="683" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="684" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="685" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="686" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="687" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="688" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="689" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="690" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="691" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="692" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="693" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="694" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="695" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="696" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="697" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="698" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="699" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="700" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="701" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="702" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="703" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="704" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="705" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="706" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="707" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="708" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="709" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="710" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="711" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="712" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="713" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="714" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="715" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="716" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="717" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="718" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="719" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="720" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="721" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="722" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="723" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="724" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="725" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="726" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="727" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="728" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="729" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="730" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="731" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="732" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="733" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="734" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="735" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="736" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="737" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="738" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="739" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="740" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="741" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="742" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="743" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="744" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="745" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="746" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="747" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="748" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="749" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="750" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="751" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="752" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="753" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="754" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="755" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="756" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="757" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="758" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="759" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="760" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="761" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="762" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="763" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="764" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="765" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="766" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="767" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="768" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="769" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="770" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="771" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="772" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="773" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="774" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="775" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="776" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="777" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="778" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="779" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="780" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="781" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="782" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="783" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="784" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="785" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="786" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="787" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="788" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="789" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="790" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="791" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="792" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="793" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="794" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="795" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="796" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="797" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="798" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="799" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="800" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="801" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="802" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="803" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="804" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="805" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="806" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="807" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="808" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="809" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="810" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="811" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="812" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="813" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="814" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="815" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="816" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="817" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="818" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="819" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="820" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="821" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="822" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="823" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="824" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="825" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="826" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="827" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="828" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="829" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="830" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="831" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="832" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="833" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="834" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="835" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="836" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="837" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="838" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="839" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="840" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="841" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="842" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="843" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="844" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="845" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="846" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="847" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="848" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="849" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="850" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="851" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="852" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="853" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="854" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="855" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="856" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="857" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="858" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="859" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="860" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="861" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="862" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="863" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="864" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="865" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="866" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="867" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="868" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="869" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="870" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="871" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="872" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="873" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="874" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="875" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="876" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="877" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="878" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="879" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="880" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="881" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="882" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="883" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="884" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="885" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="886" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="887" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="888" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="889" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="890" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="891" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="892" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="893" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="894" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="895" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="896" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="897" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="898" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="899" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="900" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="901" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="902" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="903" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="904" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="905" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="906" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="907" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="908" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="909" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="910" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="911" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="912" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="913" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="914" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="915" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="916" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="917" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="918" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="919" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="920" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="921" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="922" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="923" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="924" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="925" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="926" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="927" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="928" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="929" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="930" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="931" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="932" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="933" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="934" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="935" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="936" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="937" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="938" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="939" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="940" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="941" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="942" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="943" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="944" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="945" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="946" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="947" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="948" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="949" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="950" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="951" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="952" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="953" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="954" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="955" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="956" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="957" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="958" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="959" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="960" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="961" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="962" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="963" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="964" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="965" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="966" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="967" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="968" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="969" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="970" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="971" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="972" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="973" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="974" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="975" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="976" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="977" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="978" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="979" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="980" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="981" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="982" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="983" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="984" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="985" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="986" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="987" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="988" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="989" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="990" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="991" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="992" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="993" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="994" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="995" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="996" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="997" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="998" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="999" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="1000" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
@@ -6193,24 +6179,24 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O1000"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="39.28515625" customWidth="1"/>
-    <col min="2" max="2" width="1.7109375" customWidth="1"/>
-    <col min="3" max="3" width="59.140625" customWidth="1"/>
-    <col min="4" max="4" width="1.85546875" customWidth="1"/>
-    <col min="5" max="5" width="103.140625" customWidth="1"/>
-    <col min="6" max="15" width="14.42578125" customWidth="1"/>
-    <col min="16" max="26" width="8.85546875" customWidth="1"/>
-    <col min="27" max="1025" width="14.42578125" customWidth="1"/>
+    <col min="1" max="1" width="39.33203125" customWidth="1"/>
+    <col min="2" max="2" width="1.6640625" customWidth="1"/>
+    <col min="3" max="3" width="59.109375" customWidth="1"/>
+    <col min="4" max="4" width="1.88671875" customWidth="1"/>
+    <col min="5" max="5" width="103.109375" customWidth="1"/>
+    <col min="6" max="15" width="14.44140625" customWidth="1"/>
+    <col min="16" max="26" width="8.88671875" customWidth="1"/>
+    <col min="27" max="1025" width="14.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="37" t="s">
         <v>134</v>
       </c>
@@ -6233,7 +6219,7 @@
       <c r="N1" s="14"/>
       <c r="O1" s="14"/>
     </row>
-    <row r="2" spans="1:15" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:15" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="14"/>
       <c r="B2" s="14"/>
       <c r="C2" s="14"/>
@@ -6250,7 +6236,7 @@
       <c r="N2" s="14"/>
       <c r="O2" s="14"/>
     </row>
-    <row r="3" spans="1:15" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:15" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="14" t="s">
         <v>137</v>
       </c>
@@ -6269,7 +6255,7 @@
       <c r="N3" s="14"/>
       <c r="O3" s="14"/>
     </row>
-    <row r="4" spans="1:15" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:15" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="14" t="s">
         <v>138</v>
       </c>
@@ -6288,7 +6274,7 @@
       <c r="N4" s="14"/>
       <c r="O4" s="14"/>
     </row>
-    <row r="5" spans="1:15" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:15" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="14" t="s">
         <v>139</v>
       </c>
@@ -6307,7 +6293,7 @@
       <c r="N5" s="14"/>
       <c r="O5" s="14"/>
     </row>
-    <row r="6" spans="1:15" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:15" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="14" t="s">
         <v>140</v>
       </c>
@@ -6326,7 +6312,7 @@
       <c r="N6" s="14"/>
       <c r="O6" s="14"/>
     </row>
-    <row r="7" spans="1:15" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:15" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="14" t="s">
         <v>141</v>
       </c>
@@ -6345,986 +6331,986 @@
       <c r="N7" s="14"/>
       <c r="O7" s="14"/>
     </row>
-    <row r="21" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="29" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="30" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="31" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="32" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="33" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="34" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="37" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="38" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="39" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="40" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="41" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="42" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="43" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="44" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="46" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="47" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="48" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="49" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="51" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="52" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="53" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="54" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="55" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="56" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="57" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="59" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="60" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="61" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="62" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="63" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="64" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="65" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="66" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="67" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="68" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="69" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="70" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="71" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="72" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="73" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="74" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="75" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="76" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="77" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="78" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="79" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="80" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="81" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="82" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="83" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="84" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="85" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="86" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="87" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="88" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="89" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="90" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="91" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="92" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="93" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="94" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="95" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="96" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="97" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="98" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="99" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="100" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="101" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="102" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="103" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="104" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="105" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="106" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="107" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="108" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="109" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="110" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="111" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="112" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="113" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="114" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="115" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="116" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="117" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="118" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="119" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="120" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="121" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="122" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="123" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="124" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="125" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="126" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="127" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="128" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="129" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="130" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="131" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="132" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="133" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="134" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="135" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="136" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="137" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="138" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="139" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="140" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="141" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="142" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="143" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="144" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="145" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="146" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="147" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="148" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="149" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="150" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="151" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="152" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="153" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="154" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="155" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="156" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="157" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="158" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="159" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="160" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="161" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="162" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="163" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="164" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="165" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="166" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="167" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="168" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="169" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="170" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="171" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="172" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="173" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="174" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="175" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="176" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="177" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="178" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="179" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="180" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="181" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="182" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="183" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="184" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="185" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="186" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="187" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="188" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="189" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="190" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="191" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="192" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="193" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="194" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="195" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="196" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="197" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="198" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="199" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="200" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="201" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="202" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="203" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="204" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="205" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="206" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="207" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="208" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="209" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="210" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="211" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="212" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="213" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="214" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="215" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="216" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="217" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="218" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="219" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="220" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="221" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="222" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="223" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="224" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="225" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="226" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="227" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="228" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="229" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="230" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="231" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="232" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="233" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="234" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="235" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="236" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="237" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="238" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="239" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="240" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="241" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="242" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="243" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="244" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="245" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="246" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="247" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="248" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="249" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="250" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="251" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="252" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="253" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="254" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="255" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="256" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="257" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="258" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="259" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="260" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="261" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="262" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="263" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="264" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="265" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="266" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="267" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="268" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="269" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="270" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="271" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="272" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="273" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="274" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="275" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="276" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="277" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="278" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="279" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="280" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="281" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="282" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="283" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="284" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="285" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="286" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="287" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="288" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="289" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="290" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="291" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="292" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="293" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="294" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="295" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="296" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="297" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="298" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="299" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="300" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="301" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="302" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="303" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="304" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="305" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="306" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="307" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="308" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="309" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="310" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="311" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="312" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="313" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="314" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="315" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="316" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="317" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="318" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="319" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="320" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="321" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="322" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="323" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="324" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="325" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="326" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="327" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="328" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="329" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="330" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="331" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="332" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="333" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="334" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="335" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="336" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="337" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="338" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="339" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="340" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="341" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="342" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="343" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="344" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="345" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="346" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="347" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="348" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="349" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="350" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="351" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="352" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="353" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="354" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="355" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="356" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="357" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="358" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="359" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="360" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="361" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="362" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="363" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="364" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="365" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="366" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="367" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="368" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="369" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="370" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="371" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="372" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="373" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="374" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="375" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="376" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="377" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="378" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="379" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="380" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="381" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="382" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="383" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="384" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="385" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="386" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="387" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="388" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="389" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="390" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="391" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="392" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="393" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="394" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="395" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="396" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="397" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="398" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="399" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="400" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="401" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="402" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="403" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="404" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="405" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="406" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="407" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="408" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="409" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="410" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="411" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="412" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="413" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="414" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="415" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="416" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="417" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="418" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="419" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="420" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="421" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="422" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="423" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="424" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="425" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="426" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="427" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="428" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="429" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="430" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="431" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="432" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="433" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="434" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="435" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="436" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="437" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="438" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="439" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="440" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="441" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="442" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="443" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="444" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="445" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="446" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="447" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="448" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="449" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="450" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="451" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="452" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="453" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="454" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="455" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="456" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="457" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="458" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="459" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="460" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="461" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="462" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="463" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="464" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="465" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="466" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="467" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="468" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="469" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="470" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="471" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="472" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="473" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="474" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="475" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="476" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="477" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="478" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="479" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="480" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="481" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="482" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="483" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="484" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="485" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="486" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="487" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="488" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="489" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="490" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="491" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="492" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="493" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="494" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="495" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="496" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="497" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="498" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="499" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="500" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="501" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="502" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="503" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="504" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="505" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="506" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="507" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="508" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="509" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="510" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="511" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="512" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="513" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="514" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="515" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="516" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="517" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="518" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="519" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="520" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="521" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="522" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="523" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="524" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="525" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="526" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="527" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="528" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="529" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="530" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="531" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="532" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="533" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="534" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="535" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="536" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="537" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="538" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="539" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="540" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="541" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="542" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="543" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="544" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="545" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="546" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="547" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="548" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="549" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="550" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="551" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="552" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="553" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="554" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="555" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="556" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="557" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="558" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="559" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="560" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="561" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="562" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="563" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="564" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="565" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="566" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="567" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="568" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="569" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="570" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="571" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="572" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="573" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="574" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="575" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="576" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="577" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="578" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="579" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="580" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="581" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="582" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="583" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="584" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="585" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="586" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="587" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="588" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="589" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="590" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="591" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="592" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="593" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="594" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="595" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="596" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="597" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="598" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="599" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="600" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="601" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="602" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="603" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="604" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="605" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="606" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="607" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="608" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="609" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="610" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="611" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="612" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="613" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="614" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="615" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="616" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="617" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="618" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="619" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="620" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="621" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="622" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="623" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="624" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="625" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="626" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="627" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="628" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="629" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="630" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="631" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="632" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="633" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="634" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="635" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="636" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="637" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="638" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="639" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="640" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="641" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="642" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="643" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="644" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="645" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="646" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="647" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="648" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="649" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="650" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="651" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="652" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="653" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="654" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="655" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="656" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="657" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="658" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="659" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="660" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="661" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="662" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="663" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="664" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="665" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="666" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="667" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="668" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="669" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="670" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="671" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="672" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="673" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="674" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="675" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="676" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="677" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="678" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="679" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="680" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="681" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="682" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="683" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="684" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="685" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="686" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="687" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="688" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="689" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="690" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="691" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="692" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="693" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="694" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="695" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="696" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="697" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="698" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="699" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="700" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="701" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="702" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="703" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="704" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="705" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="706" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="707" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="708" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="709" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="710" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="711" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="712" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="713" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="714" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="715" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="716" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="717" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="718" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="719" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="720" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="721" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="722" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="723" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="724" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="725" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="726" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="727" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="728" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="729" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="730" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="731" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="732" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="733" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="734" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="735" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="736" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="737" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="738" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="739" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="740" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="741" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="742" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="743" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="744" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="745" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="746" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="747" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="748" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="749" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="750" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="751" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="752" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="753" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="754" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="755" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="756" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="757" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="758" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="759" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="760" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="761" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="762" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="763" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="764" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="765" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="766" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="767" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="768" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="769" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="770" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="771" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="772" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="773" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="774" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="775" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="776" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="777" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="778" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="779" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="780" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="781" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="782" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="783" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="784" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="785" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="786" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="787" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="788" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="789" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="790" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="791" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="792" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="793" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="794" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="795" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="796" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="797" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="798" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="799" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="800" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="801" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="802" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="803" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="804" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="805" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="806" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="807" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="808" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="809" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="810" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="811" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="812" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="813" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="814" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="815" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="816" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="817" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="818" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="819" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="820" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="821" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="822" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="823" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="824" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="825" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="826" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="827" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="828" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="829" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="830" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="831" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="832" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="833" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="834" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="835" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="836" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="837" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="838" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="839" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="840" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="841" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="842" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="843" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="844" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="845" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="846" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="847" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="848" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="849" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="850" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="851" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="852" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="853" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="854" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="855" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="856" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="857" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="858" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="859" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="860" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="861" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="862" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="863" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="864" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="865" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="866" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="867" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="868" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="869" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="870" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="871" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="872" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="873" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="874" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="875" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="876" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="877" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="878" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="879" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="880" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="881" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="882" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="883" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="884" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="885" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="886" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="887" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="888" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="889" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="890" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="891" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="892" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="893" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="894" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="895" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="896" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="897" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="898" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="899" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="900" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="901" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="902" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="903" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="904" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="905" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="906" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="907" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="908" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="909" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="910" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="911" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="912" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="913" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="914" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="915" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="916" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="917" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="918" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="919" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="920" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="921" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="922" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="923" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="924" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="925" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="926" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="927" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="928" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="929" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="930" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="931" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="932" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="933" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="934" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="935" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="936" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="937" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="938" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="939" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="940" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="941" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="942" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="943" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="944" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="945" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="946" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="947" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="948" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="949" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="950" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="951" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="952" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="953" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="954" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="955" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="956" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="957" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="958" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="959" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="960" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="961" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="962" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="963" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="964" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="965" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="966" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="967" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="968" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="969" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="970" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="971" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="972" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="973" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="974" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="975" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="976" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="977" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="978" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="979" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="980" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="981" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="982" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="983" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="984" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="985" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="986" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="987" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="988" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="989" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="990" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="991" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="992" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="993" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="994" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="995" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="996" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="997" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="998" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="999" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="1000" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="21" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="22" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="23" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="27" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="29" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="30" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="32" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="33" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="34" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="36" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="37" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="38" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="39" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="40" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="41" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="42" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="43" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="44" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="45" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="47" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="48" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="49" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="51" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="52" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="53" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="54" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="55" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="56" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="57" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="59" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="60" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="61" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="62" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="63" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="64" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="65" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="66" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="67" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="68" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="69" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="70" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="71" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="72" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="73" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="74" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="75" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="76" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="77" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="78" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="79" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="80" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="81" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="82" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="83" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="84" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="85" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="86" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="87" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="88" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="89" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="90" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="91" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="92" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="93" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="94" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="95" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="96" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="97" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="98" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="99" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="100" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="101" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="102" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="103" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="104" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="105" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="106" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="107" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="108" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="109" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="110" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="111" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="112" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="113" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="114" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="115" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="116" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="117" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="118" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="119" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="120" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="121" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="122" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="123" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="124" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="125" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="126" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="127" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="128" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="129" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="130" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="131" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="132" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="133" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="134" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="135" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="136" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="137" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="138" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="139" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="140" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="141" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="142" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="143" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="144" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="145" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="146" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="147" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="148" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="149" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="150" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="151" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="152" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="153" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="154" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="155" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="156" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="157" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="158" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="159" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="160" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="161" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="162" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="163" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="164" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="165" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="166" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="167" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="168" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="169" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="170" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="171" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="172" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="173" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="174" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="175" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="176" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="177" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="178" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="179" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="180" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="181" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="182" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="183" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="184" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="185" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="186" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="187" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="188" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="189" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="190" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="191" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="192" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="193" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="194" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="195" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="196" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="197" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="198" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="199" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="200" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="201" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="202" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="203" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="204" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="205" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="206" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="207" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="208" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="209" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="210" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="211" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="212" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="213" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="214" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="215" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="216" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="217" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="218" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="219" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="220" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="221" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="222" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="223" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="224" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="225" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="226" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="227" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="228" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="229" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="230" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="231" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="232" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="233" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="234" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="235" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="236" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="237" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="238" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="239" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="240" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="241" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="242" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="243" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="244" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="245" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="246" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="247" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="248" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="249" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="250" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="251" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="252" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="253" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="254" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="255" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="256" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="257" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="258" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="259" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="260" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="261" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="262" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="263" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="264" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="265" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="266" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="267" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="268" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="269" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="270" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="271" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="272" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="273" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="274" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="275" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="276" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="277" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="278" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="279" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="280" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="281" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="282" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="283" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="284" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="285" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="286" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="287" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="288" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="289" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="290" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="291" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="292" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="293" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="294" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="295" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="296" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="297" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="298" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="299" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="300" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="301" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="302" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="303" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="304" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="305" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="306" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="307" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="308" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="309" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="310" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="311" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="312" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="313" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="314" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="315" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="316" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="317" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="318" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="319" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="320" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="321" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="322" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="323" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="324" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="325" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="326" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="327" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="328" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="329" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="330" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="331" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="332" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="333" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="334" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="335" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="336" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="337" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="338" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="339" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="340" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="341" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="342" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="343" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="344" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="345" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="346" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="347" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="348" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="349" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="350" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="351" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="352" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="353" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="354" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="355" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="356" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="357" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="358" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="359" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="360" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="361" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="362" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="363" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="364" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="365" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="366" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="367" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="368" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="369" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="370" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="371" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="372" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="373" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="374" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="375" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="376" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="377" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="378" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="379" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="380" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="381" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="382" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="383" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="384" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="385" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="386" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="387" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="388" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="389" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="390" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="391" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="392" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="393" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="394" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="395" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="396" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="397" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="398" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="399" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="400" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="401" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="402" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="403" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="404" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="405" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="406" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="407" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="408" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="409" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="410" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="411" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="412" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="413" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="414" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="415" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="416" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="417" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="418" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="419" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="420" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="421" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="422" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="423" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="424" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="425" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="426" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="427" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="428" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="429" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="430" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="431" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="432" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="433" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="434" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="435" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="436" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="437" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="438" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="439" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="440" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="441" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="442" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="443" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="444" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="445" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="446" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="447" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="448" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="449" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="450" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="451" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="452" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="453" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="454" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="455" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="456" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="457" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="458" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="459" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="460" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="461" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="462" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="463" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="464" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="465" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="466" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="467" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="468" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="469" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="470" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="471" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="472" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="473" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="474" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="475" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="476" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="477" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="478" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="479" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="480" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="481" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="482" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="483" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="484" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="485" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="486" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="487" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="488" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="489" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="490" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="491" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="492" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="493" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="494" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="495" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="496" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="497" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="498" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="499" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="500" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="501" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="502" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="503" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="504" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="505" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="506" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="507" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="508" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="509" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="510" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="511" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="512" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="513" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="514" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="515" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="516" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="517" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="518" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="519" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="520" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="521" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="522" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="523" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="524" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="525" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="526" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="527" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="528" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="529" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="530" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="531" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="532" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="533" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="534" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="535" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="536" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="537" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="538" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="539" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="540" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="541" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="542" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="543" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="544" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="545" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="546" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="547" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="548" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="549" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="550" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="551" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="552" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="553" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="554" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="555" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="556" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="557" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="558" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="559" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="560" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="561" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="562" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="563" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="564" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="565" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="566" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="567" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="568" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="569" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="570" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="571" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="572" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="573" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="574" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="575" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="576" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="577" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="578" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="579" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="580" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="581" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="582" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="583" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="584" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="585" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="586" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="587" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="588" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="589" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="590" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="591" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="592" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="593" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="594" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="595" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="596" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="597" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="598" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="599" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="600" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="601" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="602" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="603" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="604" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="605" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="606" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="607" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="608" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="609" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="610" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="611" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="612" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="613" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="614" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="615" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="616" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="617" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="618" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="619" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="620" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="621" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="622" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="623" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="624" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="625" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="626" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="627" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="628" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="629" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="630" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="631" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="632" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="633" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="634" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="635" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="636" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="637" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="638" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="639" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="640" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="641" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="642" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="643" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="644" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="645" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="646" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="647" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="648" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="649" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="650" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="651" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="652" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="653" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="654" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="655" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="656" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="657" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="658" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="659" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="660" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="661" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="662" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="663" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="664" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="665" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="666" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="667" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="668" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="669" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="670" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="671" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="672" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="673" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="674" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="675" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="676" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="677" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="678" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="679" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="680" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="681" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="682" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="683" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="684" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="685" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="686" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="687" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="688" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="689" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="690" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="691" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="692" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="693" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="694" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="695" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="696" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="697" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="698" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="699" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="700" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="701" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="702" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="703" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="704" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="705" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="706" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="707" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="708" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="709" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="710" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="711" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="712" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="713" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="714" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="715" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="716" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="717" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="718" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="719" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="720" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="721" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="722" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="723" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="724" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="725" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="726" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="727" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="728" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="729" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="730" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="731" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="732" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="733" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="734" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="735" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="736" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="737" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="738" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="739" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="740" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="741" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="742" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="743" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="744" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="745" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="746" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="747" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="748" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="749" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="750" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="751" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="752" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="753" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="754" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="755" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="756" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="757" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="758" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="759" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="760" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="761" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="762" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="763" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="764" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="765" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="766" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="767" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="768" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="769" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="770" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="771" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="772" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="773" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="774" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="775" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="776" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="777" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="778" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="779" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="780" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="781" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="782" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="783" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="784" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="785" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="786" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="787" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="788" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="789" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="790" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="791" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="792" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="793" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="794" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="795" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="796" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="797" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="798" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="799" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="800" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="801" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="802" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="803" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="804" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="805" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="806" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="807" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="808" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="809" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="810" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="811" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="812" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="813" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="814" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="815" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="816" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="817" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="818" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="819" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="820" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="821" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="822" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="823" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="824" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="825" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="826" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="827" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="828" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="829" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="830" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="831" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="832" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="833" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="834" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="835" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="836" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="837" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="838" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="839" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="840" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="841" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="842" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="843" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="844" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="845" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="846" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="847" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="848" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="849" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="850" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="851" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="852" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="853" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="854" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="855" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="856" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="857" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="858" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="859" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="860" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="861" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="862" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="863" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="864" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="865" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="866" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="867" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="868" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="869" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="870" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="871" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="872" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="873" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="874" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="875" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="876" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="877" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="878" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="879" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="880" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="881" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="882" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="883" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="884" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="885" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="886" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="887" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="888" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="889" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="890" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="891" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="892" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="893" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="894" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="895" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="896" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="897" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="898" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="899" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="900" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="901" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="902" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="903" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="904" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="905" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="906" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="907" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="908" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="909" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="910" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="911" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="912" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="913" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="914" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="915" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="916" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="917" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="918" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="919" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="920" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="921" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="922" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="923" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="924" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="925" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="926" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="927" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="928" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="929" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="930" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="931" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="932" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="933" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="934" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="935" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="936" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="937" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="938" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="939" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="940" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="941" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="942" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="943" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="944" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="945" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="946" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="947" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="948" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="949" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="950" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="951" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="952" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="953" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="954" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="955" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="956" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="957" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="958" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="959" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="960" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="961" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="962" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="963" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="964" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="965" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="966" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="967" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="968" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="969" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="970" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="971" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="972" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="973" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="974" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="975" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="976" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="977" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="978" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="979" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="980" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="981" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="982" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="983" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="984" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="985" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="986" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="987" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="988" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="989" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="990" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="991" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="992" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="993" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="994" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="995" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="996" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="997" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="998" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="999" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="1000" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>

--- a/config-boda-moh-ke-master/forms/app/case_investigation.xlsx
+++ b/config-boda-moh-ke-master/forms/app/case_investigation.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="430" uniqueCount="247">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="431" uniqueCount="247">
   <si>
     <t>type</t>
   </si>
@@ -1506,8 +1506,8 @@
   <dimension ref="A1:Z620"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F9" sqref="F9"/>
+      <pane ySplit="1" topLeftCell="A67" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C85" sqref="C85"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1712,7 +1712,9 @@
       <c r="B5" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="C5" s="7"/>
+      <c r="C5" s="5" t="s">
+        <v>37</v>
+      </c>
       <c r="D5" s="7"/>
       <c r="E5" s="7"/>
       <c r="F5" s="7"/>

--- a/config-boda-moh-ke-master/forms/app/case_investigation.xlsx
+++ b/config-boda-moh-ke-master/forms/app/case_investigation.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="431" uniqueCount="247">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="432" uniqueCount="248">
   <si>
     <t>type</t>
   </si>
@@ -841,6 +841,9 @@
   </si>
   <si>
     <t>db-object</t>
+  </si>
+  <si>
+    <t>pcr_test</t>
   </si>
 </sst>
 </file>
@@ -1506,8 +1509,8 @@
   <dimension ref="A1:Z620"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A67" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C85" sqref="C85"/>
+      <pane ySplit="1" topLeftCell="A38" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B56" sqref="B56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2957,7 +2960,9 @@
       <c r="A55" s="42" t="s">
         <v>17</v>
       </c>
-      <c r="B55" s="42"/>
+      <c r="B55" s="42" t="s">
+        <v>210</v>
+      </c>
       <c r="C55" s="42" t="s">
         <v>209</v>
       </c>
@@ -2974,7 +2979,7 @@
         <v>50</v>
       </c>
       <c r="B56" s="43" t="s">
-        <v>210</v>
+        <v>247</v>
       </c>
       <c r="C56" s="43" t="s">
         <v>211</v>

--- a/config-boda-moh-ke-master/forms/app/case_investigation.xlsx
+++ b/config-boda-moh-ke-master/forms/app/case_investigation.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="432" uniqueCount="248">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="581" uniqueCount="338">
   <si>
     <t>type</t>
   </si>
@@ -845,6 +845,276 @@
   <si>
     <t>pcr_test</t>
   </si>
+  <si>
+    <t>Select a person from list</t>
+  </si>
+  <si>
+    <t>Contact</t>
+  </si>
+  <si>
+    <t>Type</t>
+  </si>
+  <si>
+    <t>contact_type</t>
+  </si>
+  <si>
+    <t>Contact Type</t>
+  </si>
+  <si>
+    <t>parent</t>
+  </si>
+  <si>
+    <t>Parent</t>
+  </si>
+  <si>
+    <t>role</t>
+  </si>
+  <si>
+    <t>Type of contact</t>
+  </si>
+  <si>
+    <t>case_id</t>
+  </si>
+  <si>
+    <t>Case ID</t>
+  </si>
+  <si>
+    <t>case_name</t>
+  </si>
+  <si>
+    <t>Case Name</t>
+  </si>
+  <si>
+    <t>type_of_contact</t>
+  </si>
+  <si>
+    <t>Close Contact</t>
+  </si>
+  <si>
+    <t>relation_to_case</t>
+  </si>
+  <si>
+    <t>Relation to Case</t>
+  </si>
+  <si>
+    <t>national_id</t>
+  </si>
+  <si>
+    <t>National ID Number</t>
+  </si>
+  <si>
+    <t>passport_number</t>
+  </si>
+  <si>
+    <t>Passport Number</t>
+  </si>
+  <si>
+    <t>alien_number</t>
+  </si>
+  <si>
+    <t>Alien Number</t>
+  </si>
+  <si>
+    <t>s_name</t>
+  </si>
+  <si>
+    <t>Surname</t>
+  </si>
+  <si>
+    <t>f_name</t>
+  </si>
+  <si>
+    <t>First name</t>
+  </si>
+  <si>
+    <t>o_name</t>
+  </si>
+  <si>
+    <t>Other name(s)</t>
+  </si>
+  <si>
+    <t>Full Name</t>
+  </si>
+  <si>
+    <t>sex</t>
+  </si>
+  <si>
+    <t>Sex</t>
+  </si>
+  <si>
+    <t>dob_known</t>
+  </si>
+  <si>
+    <t>Does the contact know their date of birth?</t>
+  </si>
+  <si>
+    <t>date_of_birth</t>
+  </si>
+  <si>
+    <t>Date of Birth</t>
+  </si>
+  <si>
+    <t>marital_status</t>
+  </si>
+  <si>
+    <t>Marital Status</t>
+  </si>
+  <si>
+    <t>head_of_household</t>
+  </si>
+  <si>
+    <t>Head of household</t>
+  </si>
+  <si>
+    <t>date_of_last_contact</t>
+  </si>
+  <si>
+    <t>Occupation</t>
+  </si>
+  <si>
+    <t>occupation</t>
+  </si>
+  <si>
+    <t>Date of last contact</t>
+  </si>
+  <si>
+    <t>occupation_other</t>
+  </si>
+  <si>
+    <t>Other (specify)</t>
+  </si>
+  <si>
+    <t>health_care_worker</t>
+  </si>
+  <si>
+    <t>Is the contact a health care worker</t>
+  </si>
+  <si>
+    <t>facility</t>
+  </si>
+  <si>
+    <t>If contact is health worker</t>
+  </si>
+  <si>
+    <t>education</t>
+  </si>
+  <si>
+    <t>Education</t>
+  </si>
+  <si>
+    <t>deceased</t>
+  </si>
+  <si>
+    <t>Deceased</t>
+  </si>
+  <si>
+    <t>date_of_death</t>
+  </si>
+  <si>
+    <t>Date of death</t>
+  </si>
+  <si>
+    <t>nationality</t>
+  </si>
+  <si>
+    <t>Nationality</t>
+  </si>
+  <si>
+    <t>phone</t>
+  </si>
+  <si>
+    <t>Phone</t>
+  </si>
+  <si>
+    <t>alternate_phone</t>
+  </si>
+  <si>
+    <t>Alternate phone</t>
+  </si>
+  <si>
+    <t>postal_address</t>
+  </si>
+  <si>
+    <t>Postal address</t>
+  </si>
+  <si>
+    <t>email_address</t>
+  </si>
+  <si>
+    <t>Email address</t>
+  </si>
+  <si>
+    <t>County</t>
+  </si>
+  <si>
+    <t>subcounty</t>
+  </si>
+  <si>
+    <t>Sub County</t>
+  </si>
+  <si>
+    <t>ward</t>
+  </si>
+  <si>
+    <t>Ward</t>
+  </si>
+  <si>
+    <t>location</t>
+  </si>
+  <si>
+    <t>Location</t>
+  </si>
+  <si>
+    <t>sub_location</t>
+  </si>
+  <si>
+    <t>Sub Location</t>
+  </si>
+  <si>
+    <t>village</t>
+  </si>
+  <si>
+    <t>Village</t>
+  </si>
+  <si>
+    <t>landmark</t>
+  </si>
+  <si>
+    <t>Landmark</t>
+  </si>
+  <si>
+    <t>residence</t>
+  </si>
+  <si>
+    <t>Residence</t>
+  </si>
+  <si>
+    <t>nearest_health_center</t>
+  </si>
+  <si>
+    <t>Nearest health center</t>
+  </si>
+  <si>
+    <t>kin_name</t>
+  </si>
+  <si>
+    <t>Next of kin name</t>
+  </si>
+  <si>
+    <t>kin_relationship</t>
+  </si>
+  <si>
+    <t>Relationship</t>
+  </si>
+  <si>
+    <t>kin_phone_number</t>
+  </si>
+  <si>
+    <t>Phone number</t>
+  </si>
+  <si>
+    <t>kin_postal_address</t>
+  </si>
 </sst>
 </file>
 
@@ -853,7 +1123,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="&quot;TRUE&quot;;&quot;TRUE&quot;;&quot;FALSE&quot;"/>
   </numFmts>
-  <fonts count="15" x14ac:knownFonts="1">
+  <fonts count="16" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -953,6 +1223,12 @@
       <name val="Century Schoolbook"/>
       <family val="1"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <charset val="1"/>
+    </font>
   </fonts>
   <fills count="12">
     <fill>
@@ -1035,7 +1311,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="52">
+  <cellXfs count="53">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1104,6 +1380,9 @@
     <xf numFmtId="0" fontId="12" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Explanatory Text" xfId="1" builtinId="53" customBuiltin="1"/>
@@ -1506,11 +1785,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Z620"/>
+  <dimension ref="A1:Z671"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A38" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B56" sqref="B56"/>
+    <sheetView tabSelected="1" topLeftCell="D1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I17" sqref="I17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1832,2194 +2111,3214 @@
       <c r="Y8" s="3"/>
       <c r="Z8" s="3"/>
     </row>
-    <row r="9" spans="1:26" s="50" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="51" t="s">
+    <row r="9" spans="1:26" s="50" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="4"/>
+      <c r="B9" s="4"/>
+      <c r="C9" s="4"/>
+      <c r="D9" s="4"/>
+      <c r="E9" s="4"/>
+      <c r="F9" s="4"/>
+      <c r="G9" s="4"/>
+      <c r="H9" s="4"/>
+      <c r="I9" s="4"/>
+      <c r="J9" s="4"/>
+      <c r="K9" s="4"/>
+      <c r="L9" s="4"/>
+      <c r="M9" s="4"/>
+      <c r="N9" s="4"/>
+      <c r="O9" s="4"/>
+      <c r="P9" s="5"/>
+      <c r="Q9" s="5"/>
+      <c r="R9" s="5"/>
+      <c r="S9" s="5"/>
+      <c r="T9" s="5"/>
+      <c r="U9" s="5"/>
+      <c r="V9" s="5"/>
+      <c r="W9" s="3"/>
+      <c r="X9" s="3"/>
+      <c r="Y9" s="3"/>
+      <c r="Z9" s="3"/>
+    </row>
+    <row r="10" spans="1:26" s="50" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>249</v>
+      </c>
+      <c r="D10" s="4"/>
+      <c r="E10" s="4"/>
+      <c r="F10" s="4"/>
+      <c r="G10" s="4"/>
+      <c r="H10" s="4"/>
+      <c r="I10" s="4"/>
+      <c r="J10" s="4"/>
+      <c r="K10" s="4"/>
+      <c r="L10" s="4"/>
+      <c r="M10" s="4"/>
+    </row>
+    <row r="11" spans="1:26" s="50" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="51" t="s">
         <v>243</v>
       </c>
-      <c r="B9" s="51" t="s">
+      <c r="B11" s="51" t="s">
         <v>244</v>
       </c>
-      <c r="C9" s="51" t="s">
+      <c r="C11" s="51" t="s">
         <v>245</v>
       </c>
-      <c r="D9" s="51"/>
-      <c r="E9" s="51"/>
-      <c r="F9" s="51" t="s">
+      <c r="D11" s="51"/>
+      <c r="E11" s="51"/>
+      <c r="F11" s="51" t="s">
         <v>246</v>
       </c>
-    </row>
-    <row r="10" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="11" t="s">
+      <c r="G11" s="51"/>
+      <c r="H11" s="51"/>
+      <c r="I11" s="51"/>
+      <c r="J11" s="51"/>
+      <c r="K11" s="51" t="s">
+        <v>248</v>
+      </c>
+      <c r="L11" s="51"/>
+      <c r="M11" s="51"/>
+    </row>
+    <row r="12" spans="1:26" s="50" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="51" t="s">
+        <v>25</v>
+      </c>
+      <c r="B12" s="51" t="s">
+        <v>0</v>
+      </c>
+      <c r="C12" s="51" t="s">
+        <v>250</v>
+      </c>
+      <c r="D12" s="51"/>
+      <c r="E12" s="51"/>
+      <c r="F12" s="51" t="s">
+        <v>25</v>
+      </c>
+      <c r="G12" s="51"/>
+      <c r="H12" s="51"/>
+      <c r="I12" s="51"/>
+      <c r="J12" s="51"/>
+      <c r="K12" s="51"/>
+      <c r="L12" s="51"/>
+      <c r="M12" s="51"/>
+    </row>
+    <row r="13" spans="1:26" s="50" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="51" t="s">
+        <v>25</v>
+      </c>
+      <c r="B13" s="51" t="s">
+        <v>251</v>
+      </c>
+      <c r="C13" s="51" t="s">
+        <v>252</v>
+      </c>
+      <c r="D13" s="51"/>
+      <c r="E13" s="51"/>
+      <c r="F13" s="51" t="s">
+        <v>25</v>
+      </c>
+      <c r="G13" s="51"/>
+      <c r="H13" s="51"/>
+      <c r="I13" s="51"/>
+      <c r="J13" s="51"/>
+      <c r="K13" s="51"/>
+      <c r="L13" s="51"/>
+      <c r="M13" s="51"/>
+    </row>
+    <row r="14" spans="1:26" s="50" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="51" t="s">
+        <v>25</v>
+      </c>
+      <c r="B14" s="51" t="s">
+        <v>253</v>
+      </c>
+      <c r="C14" s="51" t="s">
+        <v>254</v>
+      </c>
+      <c r="D14" s="51"/>
+      <c r="E14" s="51"/>
+      <c r="F14" s="51" t="s">
+        <v>25</v>
+      </c>
+      <c r="G14" s="51"/>
+      <c r="H14" s="51"/>
+      <c r="I14" s="51"/>
+      <c r="J14" s="51"/>
+      <c r="K14" s="51"/>
+      <c r="L14" s="51"/>
+      <c r="M14" s="51"/>
+    </row>
+    <row r="15" spans="1:26" s="50" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="51" t="s">
+        <v>25</v>
+      </c>
+      <c r="B15" s="51" t="s">
+        <v>255</v>
+      </c>
+      <c r="C15" s="52" t="s">
+        <v>256</v>
+      </c>
+      <c r="D15" s="51"/>
+      <c r="E15" s="51"/>
+      <c r="F15" s="51" t="s">
+        <v>25</v>
+      </c>
+      <c r="G15" s="51"/>
+      <c r="H15" s="51"/>
+      <c r="I15" s="51"/>
+      <c r="J15" s="51"/>
+      <c r="K15" s="51"/>
+      <c r="L15" s="51"/>
+      <c r="M15" s="51"/>
+    </row>
+    <row r="16" spans="1:26" s="50" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="51" t="s">
+        <v>25</v>
+      </c>
+      <c r="B16" s="51" t="s">
+        <v>257</v>
+      </c>
+      <c r="C16" s="52" t="s">
+        <v>258</v>
+      </c>
+      <c r="D16" s="51"/>
+      <c r="E16" s="51"/>
+      <c r="F16" s="51" t="s">
+        <v>25</v>
+      </c>
+      <c r="G16" s="51"/>
+      <c r="H16" s="51"/>
+      <c r="I16" s="51"/>
+      <c r="J16" s="51"/>
+      <c r="K16" s="51"/>
+      <c r="L16" s="51"/>
+      <c r="M16" s="51"/>
+    </row>
+    <row r="17" spans="1:13" s="50" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="51" t="s">
+        <v>25</v>
+      </c>
+      <c r="B17" s="10" t="s">
+        <v>259</v>
+      </c>
+      <c r="C17" s="52" t="s">
+        <v>260</v>
+      </c>
+      <c r="D17" s="51"/>
+      <c r="E17" s="51"/>
+      <c r="F17" s="51"/>
+      <c r="G17" s="51"/>
+      <c r="H17" s="51"/>
+      <c r="I17" s="51"/>
+      <c r="J17" s="51"/>
+      <c r="K17" s="51"/>
+      <c r="L17" s="51"/>
+      <c r="M17" s="51"/>
+    </row>
+    <row r="18" spans="1:13" s="50" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="51" t="s">
+        <v>25</v>
+      </c>
+      <c r="B18" s="10" t="s">
+        <v>261</v>
+      </c>
+      <c r="C18" s="52" t="s">
+        <v>262</v>
+      </c>
+      <c r="D18" s="51"/>
+      <c r="E18" s="51"/>
+      <c r="F18" s="51"/>
+      <c r="G18" s="51"/>
+      <c r="H18" s="51"/>
+      <c r="I18" s="51"/>
+      <c r="J18" s="51"/>
+      <c r="K18" s="51"/>
+      <c r="L18" s="51"/>
+      <c r="M18" s="51"/>
+    </row>
+    <row r="19" spans="1:13" s="50" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="51" t="s">
+        <v>25</v>
+      </c>
+      <c r="B19" s="10" t="s">
+        <v>263</v>
+      </c>
+      <c r="C19" s="52" t="s">
+        <v>264</v>
+      </c>
+      <c r="D19" s="51"/>
+      <c r="E19" s="51"/>
+      <c r="F19" s="51"/>
+      <c r="G19" s="51"/>
+      <c r="H19" s="51"/>
+      <c r="I19" s="51"/>
+      <c r="J19" s="51"/>
+      <c r="K19" s="51"/>
+      <c r="L19" s="51"/>
+      <c r="M19" s="51"/>
+    </row>
+    <row r="20" spans="1:13" s="50" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="51" t="s">
+        <v>25</v>
+      </c>
+      <c r="B20" s="10" t="s">
+        <v>265</v>
+      </c>
+      <c r="C20" s="52" t="s">
+        <v>266</v>
+      </c>
+      <c r="D20" s="51"/>
+      <c r="E20" s="51"/>
+      <c r="F20" s="51"/>
+      <c r="G20" s="51"/>
+      <c r="H20" s="51"/>
+      <c r="I20" s="51"/>
+      <c r="J20" s="51"/>
+      <c r="K20" s="51"/>
+      <c r="L20" s="51"/>
+      <c r="M20" s="51"/>
+    </row>
+    <row r="21" spans="1:13" s="50" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="51" t="s">
+        <v>25</v>
+      </c>
+      <c r="B21" s="10" t="s">
+        <v>267</v>
+      </c>
+      <c r="C21" s="52" t="s">
+        <v>268</v>
+      </c>
+      <c r="D21" s="51"/>
+      <c r="E21" s="51"/>
+      <c r="F21" s="51"/>
+      <c r="G21" s="51"/>
+      <c r="H21" s="51"/>
+      <c r="I21" s="51"/>
+      <c r="J21" s="51"/>
+      <c r="K21" s="51"/>
+      <c r="L21" s="51"/>
+      <c r="M21" s="51"/>
+    </row>
+    <row r="22" spans="1:13" s="50" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="51" t="s">
+        <v>25</v>
+      </c>
+      <c r="B22" s="10" t="s">
+        <v>269</v>
+      </c>
+      <c r="C22" s="52" t="s">
+        <v>270</v>
+      </c>
+      <c r="D22" s="51"/>
+      <c r="E22" s="51"/>
+      <c r="F22" s="51"/>
+      <c r="G22" s="51"/>
+      <c r="H22" s="51"/>
+      <c r="I22" s="51"/>
+      <c r="J22" s="51"/>
+      <c r="K22" s="51"/>
+      <c r="L22" s="51"/>
+      <c r="M22" s="51"/>
+    </row>
+    <row r="23" spans="1:13" s="50" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="51" t="s">
+        <v>25</v>
+      </c>
+      <c r="B23" s="10" t="s">
+        <v>271</v>
+      </c>
+      <c r="C23" s="52" t="s">
+        <v>272</v>
+      </c>
+      <c r="D23" s="51"/>
+      <c r="E23" s="51"/>
+      <c r="F23" s="51"/>
+      <c r="G23" s="51"/>
+      <c r="H23" s="51"/>
+      <c r="I23" s="51"/>
+      <c r="J23" s="51"/>
+      <c r="K23" s="51"/>
+      <c r="L23" s="51"/>
+      <c r="M23" s="51"/>
+    </row>
+    <row r="24" spans="1:13" s="50" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="51" t="s">
+        <v>25</v>
+      </c>
+      <c r="B24" s="10" t="s">
+        <v>273</v>
+      </c>
+      <c r="C24" s="52" t="s">
+        <v>274</v>
+      </c>
+      <c r="D24" s="51"/>
+      <c r="E24" s="51"/>
+      <c r="F24" s="51"/>
+      <c r="G24" s="51"/>
+      <c r="H24" s="51"/>
+      <c r="I24" s="51"/>
+      <c r="J24" s="51"/>
+      <c r="K24" s="51"/>
+      <c r="L24" s="51"/>
+      <c r="M24" s="51"/>
+    </row>
+    <row r="25" spans="1:13" s="50" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="51" t="s">
+        <v>25</v>
+      </c>
+      <c r="B25" s="10" t="s">
+        <v>275</v>
+      </c>
+      <c r="C25" s="52" t="s">
+        <v>276</v>
+      </c>
+      <c r="D25" s="51"/>
+      <c r="E25" s="51"/>
+      <c r="F25" s="51"/>
+      <c r="G25" s="51"/>
+      <c r="H25" s="51"/>
+      <c r="I25" s="51"/>
+      <c r="J25" s="51"/>
+      <c r="K25" s="51"/>
+      <c r="L25" s="51"/>
+      <c r="M25" s="51"/>
+    </row>
+    <row r="26" spans="1:13" s="50" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="51" t="s">
+        <v>25</v>
+      </c>
+      <c r="B26" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="C26" s="10" t="s">
+        <v>277</v>
+      </c>
+      <c r="D26" s="51"/>
+      <c r="E26" s="51"/>
+      <c r="F26" s="51"/>
+      <c r="G26" s="51"/>
+      <c r="H26" s="51"/>
+      <c r="I26" s="51"/>
+      <c r="J26" s="51"/>
+      <c r="K26" s="51"/>
+      <c r="L26" s="51"/>
+      <c r="M26" s="51"/>
+    </row>
+    <row r="27" spans="1:13" s="50" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="51" t="s">
+        <v>25</v>
+      </c>
+      <c r="B27" s="10" t="s">
+        <v>278</v>
+      </c>
+      <c r="C27" s="50" t="s">
+        <v>279</v>
+      </c>
+      <c r="D27" s="51"/>
+      <c r="E27" s="51"/>
+      <c r="F27" s="51"/>
+      <c r="G27" s="51"/>
+      <c r="H27" s="51"/>
+      <c r="I27" s="51"/>
+      <c r="J27" s="51"/>
+      <c r="K27" s="51"/>
+      <c r="L27" s="51"/>
+      <c r="M27" s="51"/>
+    </row>
+    <row r="28" spans="1:13" s="50" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="51" t="s">
+        <v>25</v>
+      </c>
+      <c r="B28" s="10" t="s">
+        <v>280</v>
+      </c>
+      <c r="C28" s="52" t="s">
+        <v>281</v>
+      </c>
+      <c r="D28" s="51"/>
+      <c r="E28" s="51"/>
+      <c r="F28" s="51"/>
+      <c r="G28" s="51"/>
+      <c r="H28" s="51"/>
+      <c r="I28" s="51"/>
+      <c r="J28" s="51"/>
+      <c r="K28" s="51"/>
+      <c r="L28" s="51"/>
+      <c r="M28" s="51"/>
+    </row>
+    <row r="29" spans="1:13" s="50" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="51" t="s">
+        <v>25</v>
+      </c>
+      <c r="B29" s="10" t="s">
+        <v>282</v>
+      </c>
+      <c r="C29" s="52" t="s">
+        <v>283</v>
+      </c>
+      <c r="D29" s="51"/>
+      <c r="E29" s="51"/>
+      <c r="F29" s="51"/>
+      <c r="G29" s="51"/>
+      <c r="H29" s="51"/>
+      <c r="I29" s="51"/>
+      <c r="J29" s="51"/>
+      <c r="K29" s="51"/>
+      <c r="L29" s="51"/>
+      <c r="M29" s="51"/>
+    </row>
+    <row r="30" spans="1:13" s="50" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="51" t="s">
+        <v>25</v>
+      </c>
+      <c r="B30" s="10" t="s">
+        <v>284</v>
+      </c>
+      <c r="C30" s="52" t="s">
+        <v>285</v>
+      </c>
+      <c r="D30" s="51"/>
+      <c r="E30" s="51"/>
+      <c r="F30" s="51"/>
+      <c r="G30" s="51"/>
+      <c r="H30" s="51"/>
+      <c r="I30" s="51"/>
+      <c r="J30" s="51"/>
+      <c r="K30" s="51"/>
+      <c r="L30" s="51"/>
+      <c r="M30" s="51"/>
+    </row>
+    <row r="31" spans="1:13" s="50" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="51" t="s">
+        <v>25</v>
+      </c>
+      <c r="B31" s="10" t="s">
+        <v>286</v>
+      </c>
+      <c r="C31" s="52" t="s">
+        <v>287</v>
+      </c>
+      <c r="D31" s="51"/>
+      <c r="E31" s="51"/>
+      <c r="F31" s="51"/>
+      <c r="G31" s="51"/>
+      <c r="H31" s="51"/>
+      <c r="I31" s="51"/>
+      <c r="J31" s="51"/>
+      <c r="K31" s="51"/>
+      <c r="L31" s="51"/>
+      <c r="M31" s="51"/>
+    </row>
+    <row r="32" spans="1:13" s="50" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="51" t="s">
+        <v>25</v>
+      </c>
+      <c r="B32" s="10" t="s">
+        <v>288</v>
+      </c>
+      <c r="C32" s="52" t="s">
+        <v>289</v>
+      </c>
+      <c r="D32" s="51"/>
+      <c r="E32" s="51"/>
+      <c r="F32" s="51"/>
+      <c r="G32" s="51"/>
+      <c r="H32" s="51"/>
+      <c r="I32" s="51"/>
+      <c r="J32" s="51"/>
+      <c r="K32" s="51"/>
+      <c r="L32" s="51"/>
+      <c r="M32" s="51"/>
+    </row>
+    <row r="33" spans="1:13" s="50" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="51" t="s">
+        <v>25</v>
+      </c>
+      <c r="B33" s="10" t="s">
+        <v>290</v>
+      </c>
+      <c r="C33" s="52" t="s">
+        <v>291</v>
+      </c>
+      <c r="D33" s="51"/>
+      <c r="E33" s="51"/>
+      <c r="F33" s="51"/>
+      <c r="G33" s="51"/>
+      <c r="H33" s="51"/>
+      <c r="I33" s="51"/>
+      <c r="J33" s="51"/>
+      <c r="K33" s="51"/>
+      <c r="L33" s="51"/>
+      <c r="M33" s="51"/>
+    </row>
+    <row r="34" spans="1:13" s="50" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="51" t="s">
+        <v>25</v>
+      </c>
+      <c r="B34" s="10" t="s">
+        <v>292</v>
+      </c>
+      <c r="C34" s="52" t="s">
+        <v>293</v>
+      </c>
+      <c r="D34" s="51"/>
+      <c r="E34" s="51"/>
+      <c r="F34" s="51"/>
+      <c r="G34" s="51"/>
+      <c r="H34" s="51"/>
+      <c r="I34" s="51"/>
+      <c r="J34" s="51"/>
+      <c r="K34" s="51"/>
+      <c r="L34" s="51"/>
+      <c r="M34" s="51"/>
+    </row>
+    <row r="35" spans="1:13" s="50" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A35" s="51" t="s">
+        <v>25</v>
+      </c>
+      <c r="B35" s="10" t="s">
+        <v>294</v>
+      </c>
+      <c r="C35" s="10" t="s">
+        <v>295</v>
+      </c>
+      <c r="D35" s="51"/>
+      <c r="E35" s="51"/>
+      <c r="F35" s="51"/>
+      <c r="G35" s="51"/>
+      <c r="H35" s="51"/>
+      <c r="I35" s="51"/>
+      <c r="J35" s="51"/>
+      <c r="K35" s="51"/>
+      <c r="L35" s="51"/>
+      <c r="M35" s="51"/>
+    </row>
+    <row r="36" spans="1:13" s="50" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A36" s="51" t="s">
+        <v>25</v>
+      </c>
+      <c r="B36" s="10" t="s">
+        <v>296</v>
+      </c>
+      <c r="C36" s="10" t="s">
+        <v>297</v>
+      </c>
+      <c r="D36" s="51"/>
+      <c r="E36" s="51"/>
+      <c r="F36" s="51"/>
+      <c r="G36" s="51"/>
+      <c r="H36" s="51"/>
+      <c r="I36" s="51"/>
+      <c r="J36" s="51"/>
+      <c r="K36" s="51"/>
+      <c r="L36" s="51"/>
+      <c r="M36" s="51"/>
+    </row>
+    <row r="37" spans="1:13" s="50" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A37" s="51" t="s">
+        <v>25</v>
+      </c>
+      <c r="B37" s="10" t="s">
+        <v>298</v>
+      </c>
+      <c r="C37" s="52" t="s">
+        <v>299</v>
+      </c>
+      <c r="D37" s="51"/>
+      <c r="E37" s="51"/>
+      <c r="F37" s="51"/>
+      <c r="G37" s="51"/>
+      <c r="H37" s="51"/>
+      <c r="I37" s="51"/>
+      <c r="J37" s="51"/>
+      <c r="K37" s="51"/>
+      <c r="L37" s="51"/>
+      <c r="M37" s="51"/>
+    </row>
+    <row r="38" spans="1:13" s="50" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A38" s="51" t="s">
+        <v>25</v>
+      </c>
+      <c r="B38" s="10" t="s">
+        <v>300</v>
+      </c>
+      <c r="C38" s="52" t="s">
+        <v>301</v>
+      </c>
+      <c r="D38" s="51"/>
+      <c r="E38" s="51"/>
+      <c r="F38" s="51"/>
+      <c r="G38" s="51"/>
+      <c r="H38" s="51"/>
+      <c r="I38" s="51"/>
+      <c r="J38" s="51"/>
+      <c r="K38" s="51"/>
+      <c r="L38" s="51"/>
+      <c r="M38" s="51"/>
+    </row>
+    <row r="39" spans="1:13" s="50" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A39" s="51" t="s">
+        <v>25</v>
+      </c>
+      <c r="B39" s="10" t="s">
+        <v>302</v>
+      </c>
+      <c r="C39" s="52" t="s">
+        <v>303</v>
+      </c>
+      <c r="D39" s="51"/>
+      <c r="E39" s="51"/>
+      <c r="F39" s="51"/>
+      <c r="G39" s="51"/>
+      <c r="H39" s="51"/>
+      <c r="I39" s="51"/>
+      <c r="J39" s="51"/>
+      <c r="K39" s="51"/>
+      <c r="L39" s="51"/>
+      <c r="M39" s="51"/>
+    </row>
+    <row r="40" spans="1:13" s="50" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A40" s="51" t="s">
+        <v>25</v>
+      </c>
+      <c r="B40" s="10" t="s">
+        <v>304</v>
+      </c>
+      <c r="C40" s="50" t="s">
+        <v>305</v>
+      </c>
+      <c r="D40" s="51"/>
+      <c r="E40" s="51"/>
+      <c r="F40" s="51"/>
+      <c r="G40" s="51"/>
+      <c r="H40" s="51"/>
+      <c r="I40" s="51"/>
+      <c r="J40" s="51"/>
+      <c r="K40" s="51"/>
+      <c r="L40" s="51"/>
+      <c r="M40" s="51"/>
+    </row>
+    <row r="41" spans="1:13" s="50" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A41" s="51" t="s">
+        <v>25</v>
+      </c>
+      <c r="B41" s="10" t="s">
+        <v>306</v>
+      </c>
+      <c r="C41" s="52" t="s">
+        <v>307</v>
+      </c>
+      <c r="D41" s="51"/>
+      <c r="E41" s="51"/>
+      <c r="F41" s="51"/>
+      <c r="G41" s="51"/>
+      <c r="H41" s="51"/>
+      <c r="I41" s="51"/>
+      <c r="J41" s="51"/>
+      <c r="K41" s="51"/>
+      <c r="L41" s="51"/>
+      <c r="M41" s="51"/>
+    </row>
+    <row r="42" spans="1:13" s="50" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A42" s="51" t="s">
+        <v>25</v>
+      </c>
+      <c r="B42" s="10" t="s">
+        <v>308</v>
+      </c>
+      <c r="C42" s="10" t="s">
+        <v>309</v>
+      </c>
+      <c r="D42" s="51"/>
+      <c r="E42" s="51"/>
+      <c r="F42" s="51"/>
+      <c r="G42" s="51"/>
+      <c r="H42" s="51"/>
+      <c r="I42" s="51"/>
+      <c r="J42" s="51"/>
+      <c r="K42" s="51"/>
+      <c r="L42" s="51"/>
+      <c r="M42" s="51"/>
+    </row>
+    <row r="43" spans="1:13" s="50" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A43" s="51" t="s">
+        <v>25</v>
+      </c>
+      <c r="B43" s="10" t="s">
+        <v>310</v>
+      </c>
+      <c r="C43" s="10" t="s">
+        <v>311</v>
+      </c>
+      <c r="D43" s="51"/>
+      <c r="E43" s="51"/>
+      <c r="F43" s="51"/>
+      <c r="G43" s="51"/>
+      <c r="H43" s="51"/>
+      <c r="I43" s="51"/>
+      <c r="J43" s="51"/>
+      <c r="K43" s="51"/>
+      <c r="L43" s="51"/>
+      <c r="M43" s="51"/>
+    </row>
+    <row r="44" spans="1:13" s="50" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A44" s="51" t="s">
+        <v>25</v>
+      </c>
+      <c r="B44" s="10" t="s">
+        <v>312</v>
+      </c>
+      <c r="C44" s="10" t="s">
+        <v>313</v>
+      </c>
+      <c r="D44" s="51"/>
+      <c r="E44" s="51"/>
+      <c r="F44" s="51"/>
+      <c r="G44" s="51"/>
+      <c r="H44" s="51"/>
+      <c r="I44" s="51"/>
+      <c r="J44" s="51"/>
+      <c r="K44" s="51"/>
+      <c r="L44" s="51"/>
+      <c r="M44" s="51"/>
+    </row>
+    <row r="45" spans="1:13" s="50" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A45" s="51" t="s">
+        <v>25</v>
+      </c>
+      <c r="B45" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="C45" s="10" t="s">
+        <v>314</v>
+      </c>
+      <c r="D45" s="51"/>
+      <c r="E45" s="51"/>
+      <c r="F45" s="51"/>
+      <c r="G45" s="51"/>
+      <c r="H45" s="51"/>
+      <c r="I45" s="51"/>
+      <c r="J45" s="51"/>
+      <c r="K45" s="51"/>
+      <c r="L45" s="51"/>
+      <c r="M45" s="51"/>
+    </row>
+    <row r="46" spans="1:13" s="50" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A46" s="51" t="s">
+        <v>25</v>
+      </c>
+      <c r="B46" s="10" t="s">
+        <v>315</v>
+      </c>
+      <c r="C46" s="10" t="s">
+        <v>316</v>
+      </c>
+      <c r="D46" s="51"/>
+      <c r="E46" s="51"/>
+      <c r="F46" s="51"/>
+      <c r="G46" s="51"/>
+      <c r="H46" s="51"/>
+      <c r="I46" s="51"/>
+      <c r="J46" s="51"/>
+      <c r="K46" s="51"/>
+      <c r="L46" s="51"/>
+      <c r="M46" s="51"/>
+    </row>
+    <row r="47" spans="1:13" s="50" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A47" s="51" t="s">
+        <v>25</v>
+      </c>
+      <c r="B47" s="10" t="s">
+        <v>317</v>
+      </c>
+      <c r="C47" s="10" t="s">
+        <v>318</v>
+      </c>
+      <c r="D47" s="51"/>
+      <c r="E47" s="51"/>
+      <c r="F47" s="51"/>
+      <c r="G47" s="51"/>
+      <c r="H47" s="51"/>
+      <c r="I47" s="51"/>
+      <c r="J47" s="51"/>
+      <c r="K47" s="51"/>
+      <c r="L47" s="51"/>
+      <c r="M47" s="51"/>
+    </row>
+    <row r="48" spans="1:13" s="50" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A48" s="51" t="s">
+        <v>25</v>
+      </c>
+      <c r="B48" s="10" t="s">
+        <v>319</v>
+      </c>
+      <c r="C48" s="10" t="s">
+        <v>320</v>
+      </c>
+      <c r="D48" s="51"/>
+      <c r="E48" s="51"/>
+      <c r="F48" s="51"/>
+      <c r="G48" s="51"/>
+      <c r="H48" s="51"/>
+      <c r="I48" s="51"/>
+      <c r="J48" s="51"/>
+      <c r="K48" s="51"/>
+      <c r="L48" s="51"/>
+      <c r="M48" s="51"/>
+    </row>
+    <row r="49" spans="1:26" s="50" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A49" s="51" t="s">
+        <v>25</v>
+      </c>
+      <c r="B49" s="10" t="s">
+        <v>321</v>
+      </c>
+      <c r="C49" s="10" t="s">
+        <v>322</v>
+      </c>
+      <c r="D49" s="51"/>
+      <c r="E49" s="51"/>
+      <c r="F49" s="51"/>
+      <c r="G49" s="51"/>
+      <c r="H49" s="51"/>
+      <c r="I49" s="51"/>
+      <c r="J49" s="51"/>
+      <c r="K49" s="51"/>
+      <c r="L49" s="51"/>
+      <c r="M49" s="51"/>
+    </row>
+    <row r="50" spans="1:26" s="50" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A50" s="51" t="s">
+        <v>25</v>
+      </c>
+      <c r="B50" s="10" t="s">
+        <v>323</v>
+      </c>
+      <c r="C50" s="10" t="s">
+        <v>324</v>
+      </c>
+      <c r="D50" s="51"/>
+      <c r="E50" s="51"/>
+      <c r="F50" s="51"/>
+      <c r="G50" s="51"/>
+      <c r="H50" s="51"/>
+      <c r="I50" s="51"/>
+      <c r="J50" s="51"/>
+      <c r="K50" s="51"/>
+      <c r="L50" s="51"/>
+      <c r="M50" s="51"/>
+    </row>
+    <row r="51" spans="1:26" s="50" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A51" s="51" t="s">
+        <v>25</v>
+      </c>
+      <c r="B51" s="10" t="s">
+        <v>325</v>
+      </c>
+      <c r="C51" s="10" t="s">
+        <v>326</v>
+      </c>
+      <c r="D51" s="51"/>
+      <c r="E51" s="51"/>
+      <c r="F51" s="51"/>
+      <c r="G51" s="51"/>
+      <c r="H51" s="51"/>
+      <c r="I51" s="51"/>
+      <c r="J51" s="51"/>
+      <c r="K51" s="51"/>
+      <c r="L51" s="51"/>
+      <c r="M51" s="51"/>
+    </row>
+    <row r="52" spans="1:26" s="50" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A52" s="51" t="s">
+        <v>25</v>
+      </c>
+      <c r="B52" s="10" t="s">
+        <v>327</v>
+      </c>
+      <c r="C52" s="10" t="s">
+        <v>328</v>
+      </c>
+      <c r="D52" s="51"/>
+      <c r="E52" s="51"/>
+      <c r="F52" s="51"/>
+      <c r="G52" s="51"/>
+      <c r="H52" s="51"/>
+      <c r="I52" s="51"/>
+      <c r="J52" s="51"/>
+      <c r="K52" s="51"/>
+      <c r="L52" s="51"/>
+      <c r="M52" s="51"/>
+    </row>
+    <row r="53" spans="1:26" s="50" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A53" s="51" t="s">
+        <v>25</v>
+      </c>
+      <c r="B53" s="10" t="s">
+        <v>329</v>
+      </c>
+      <c r="C53" s="10" t="s">
+        <v>330</v>
+      </c>
+      <c r="D53" s="51"/>
+      <c r="E53" s="51"/>
+      <c r="F53" s="51"/>
+      <c r="G53" s="51"/>
+      <c r="H53" s="51"/>
+      <c r="I53" s="51"/>
+      <c r="J53" s="51"/>
+      <c r="K53" s="51"/>
+      <c r="L53" s="51"/>
+      <c r="M53" s="51"/>
+    </row>
+    <row r="54" spans="1:26" s="50" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A54" s="51" t="s">
+        <v>25</v>
+      </c>
+      <c r="B54" s="10" t="s">
+        <v>331</v>
+      </c>
+      <c r="C54" s="10" t="s">
+        <v>332</v>
+      </c>
+      <c r="D54" s="51"/>
+      <c r="E54" s="51"/>
+      <c r="F54" s="51"/>
+      <c r="G54" s="51"/>
+      <c r="H54" s="51"/>
+      <c r="I54" s="51"/>
+      <c r="J54" s="51"/>
+      <c r="K54" s="51"/>
+      <c r="L54" s="51"/>
+      <c r="M54" s="51"/>
+    </row>
+    <row r="55" spans="1:26" s="50" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A55" s="51" t="s">
+        <v>25</v>
+      </c>
+      <c r="B55" s="10" t="s">
+        <v>333</v>
+      </c>
+      <c r="C55" s="10" t="s">
+        <v>334</v>
+      </c>
+      <c r="D55" s="51"/>
+      <c r="E55" s="51"/>
+      <c r="F55" s="51"/>
+      <c r="G55" s="51"/>
+      <c r="H55" s="51"/>
+      <c r="I55" s="51"/>
+      <c r="J55" s="51"/>
+      <c r="K55" s="51"/>
+      <c r="L55" s="51"/>
+      <c r="M55" s="51"/>
+    </row>
+    <row r="56" spans="1:26" s="50" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A56" s="51" t="s">
+        <v>25</v>
+      </c>
+      <c r="B56" s="10" t="s">
+        <v>335</v>
+      </c>
+      <c r="C56" s="10" t="s">
+        <v>336</v>
+      </c>
+      <c r="D56" s="51"/>
+      <c r="E56" s="51"/>
+      <c r="F56" s="51"/>
+      <c r="G56" s="51"/>
+      <c r="H56" s="51"/>
+      <c r="I56" s="51"/>
+      <c r="J56" s="51"/>
+      <c r="K56" s="51"/>
+      <c r="L56" s="51"/>
+      <c r="M56" s="51"/>
+    </row>
+    <row r="57" spans="1:26" s="50" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A57" s="51" t="s">
+        <v>25</v>
+      </c>
+      <c r="B57" s="10" t="s">
+        <v>337</v>
+      </c>
+      <c r="C57" s="10" t="s">
+        <v>311</v>
+      </c>
+      <c r="D57" s="51"/>
+      <c r="E57" s="51"/>
+      <c r="F57" s="51"/>
+      <c r="G57" s="51"/>
+      <c r="H57" s="51"/>
+      <c r="I57" s="51"/>
+      <c r="J57" s="51"/>
+      <c r="K57" s="51"/>
+      <c r="L57" s="51"/>
+      <c r="M57" s="51"/>
+    </row>
+    <row r="58" spans="1:26" s="50" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A58" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="B58" s="4"/>
+      <c r="C58" s="4"/>
+      <c r="D58" s="4"/>
+      <c r="E58" s="4"/>
+      <c r="F58" s="4"/>
+      <c r="G58" s="4"/>
+      <c r="H58" s="4"/>
+      <c r="I58" s="4"/>
+      <c r="J58" s="4"/>
+      <c r="K58" s="4"/>
+      <c r="L58" s="4"/>
+      <c r="M58" s="4"/>
+    </row>
+    <row r="59" spans="1:26" s="50" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A59" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="B59" s="51"/>
+      <c r="C59" s="51"/>
+      <c r="D59" s="51"/>
+      <c r="E59" s="51"/>
+      <c r="F59" s="51"/>
+      <c r="K59" s="51"/>
+    </row>
+    <row r="60" spans="1:26" s="50" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A60" s="51"/>
+      <c r="B60" s="51"/>
+      <c r="C60" s="51"/>
+      <c r="D60" s="51"/>
+      <c r="E60" s="51"/>
+      <c r="F60" s="51"/>
+      <c r="K60" s="51"/>
+    </row>
+    <row r="61" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A61" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="B10" s="11" t="s">
+      <c r="B61" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="C10" s="11"/>
-      <c r="D10" s="11"/>
-      <c r="E10" s="11"/>
-      <c r="F10" s="11"/>
-      <c r="G10" s="11"/>
-      <c r="H10" s="11"/>
-      <c r="I10" s="11" t="s">
+      <c r="C61" s="11"/>
+      <c r="D61" s="11"/>
+      <c r="E61" s="11"/>
+      <c r="F61" s="11"/>
+      <c r="G61" s="11"/>
+      <c r="H61" s="11"/>
+      <c r="I61" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="J10" s="11"/>
-      <c r="K10" s="11"/>
-      <c r="L10" s="11"/>
-      <c r="M10" s="11"/>
-      <c r="N10" s="11"/>
-      <c r="O10" s="11"/>
-      <c r="P10" s="11"/>
-      <c r="Q10" s="11"/>
-      <c r="R10" s="11"/>
-      <c r="S10" s="11"/>
-      <c r="T10" s="11"/>
-      <c r="U10" s="11"/>
-      <c r="V10" s="11"/>
-      <c r="W10" s="11"/>
-      <c r="X10" s="11"/>
-      <c r="Y10" s="11"/>
-      <c r="Z10" s="11"/>
-    </row>
-    <row r="11" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="11" t="s">
+      <c r="J61" s="11"/>
+      <c r="K61" s="11"/>
+      <c r="L61" s="11"/>
+      <c r="M61" s="11"/>
+      <c r="N61" s="11"/>
+      <c r="O61" s="11"/>
+      <c r="P61" s="11"/>
+      <c r="Q61" s="11"/>
+      <c r="R61" s="11"/>
+      <c r="S61" s="11"/>
+      <c r="T61" s="11"/>
+      <c r="U61" s="11"/>
+      <c r="V61" s="11"/>
+      <c r="W61" s="11"/>
+      <c r="X61" s="11"/>
+      <c r="Y61" s="11"/>
+      <c r="Z61" s="11"/>
+    </row>
+    <row r="62" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A62" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="B11" s="11" t="s">
+      <c r="B62" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="C11" s="11"/>
-      <c r="D11" s="11"/>
-      <c r="E11" s="11"/>
-      <c r="F11" s="11"/>
-      <c r="G11" s="11"/>
-      <c r="H11" s="11"/>
-      <c r="I11" s="11" t="s">
+      <c r="C62" s="11"/>
+      <c r="D62" s="11"/>
+      <c r="E62" s="11"/>
+      <c r="F62" s="11"/>
+      <c r="G62" s="11"/>
+      <c r="H62" s="11"/>
+      <c r="I62" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="J11" s="11"/>
-      <c r="K11" s="11"/>
-      <c r="L11" s="11"/>
-      <c r="M11" s="11"/>
-      <c r="N11" s="11"/>
-      <c r="O11" s="11"/>
-      <c r="P11" s="11"/>
-      <c r="Q11" s="11"/>
-      <c r="R11" s="11"/>
-      <c r="S11" s="11"/>
-      <c r="T11" s="11"/>
-      <c r="U11" s="11"/>
-      <c r="V11" s="11"/>
-      <c r="W11" s="11"/>
-      <c r="X11" s="11"/>
-      <c r="Y11" s="11"/>
-      <c r="Z11" s="11"/>
-    </row>
-    <row r="12" spans="1:26" s="11" customFormat="1" ht="12.9" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="11" t="s">
+      <c r="J62" s="11"/>
+      <c r="K62" s="11"/>
+      <c r="L62" s="11"/>
+      <c r="M62" s="11"/>
+      <c r="N62" s="11"/>
+      <c r="O62" s="11"/>
+      <c r="P62" s="11"/>
+      <c r="Q62" s="11"/>
+      <c r="R62" s="11"/>
+      <c r="S62" s="11"/>
+      <c r="T62" s="11"/>
+      <c r="U62" s="11"/>
+      <c r="V62" s="11"/>
+      <c r="W62" s="11"/>
+      <c r="X62" s="11"/>
+      <c r="Y62" s="11"/>
+      <c r="Z62" s="11"/>
+    </row>
+    <row r="63" spans="1:26" s="11" customFormat="1" ht="12.9" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A63" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="B12" s="11" t="s">
+      <c r="B63" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="I12" s="12" t="s">
+      <c r="I63" s="12" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="13" spans="1:26" s="11" customFormat="1" ht="12.9" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="11" t="s">
+    <row r="64" spans="1:26" s="11" customFormat="1" ht="12.9" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A64" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="B13" s="11" t="s">
+      <c r="B64" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="I13" s="13" t="s">
+      <c r="I64" s="13" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="14" spans="1:26" s="11" customFormat="1" ht="12.9" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="11" t="s">
+    <row r="65" spans="1:26" s="11" customFormat="1" ht="12.9" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A65" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="B14" s="11" t="s">
+      <c r="B65" s="11" t="s">
         <v>42</v>
       </c>
-      <c r="I14" s="13" t="s">
+      <c r="I65" s="13" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="15" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="4" t="s">
+    <row r="66" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A66" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="B15" s="4" t="s">
+      <c r="B66" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="C15" s="4" t="s">
+      <c r="C66" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="D15" s="4"/>
-      <c r="E15" s="4"/>
-      <c r="F15" s="4" t="s">
+      <c r="D66" s="4"/>
+      <c r="E66" s="4"/>
+      <c r="F66" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="G15" s="4"/>
-      <c r="H15" s="4"/>
-      <c r="I15" s="4"/>
-      <c r="J15" s="4"/>
-      <c r="K15" s="4"/>
-      <c r="L15" s="4"/>
-      <c r="M15" s="4"/>
-      <c r="N15" s="4"/>
-      <c r="O15" s="4"/>
-      <c r="P15" s="4"/>
-      <c r="Q15" s="4"/>
-      <c r="R15" s="4"/>
-      <c r="S15" s="4"/>
-      <c r="T15" s="4"/>
-      <c r="U15" s="4"/>
-      <c r="V15" s="4"/>
-      <c r="W15" s="4"/>
-      <c r="X15" s="4"/>
-      <c r="Y15" s="4"/>
-      <c r="Z15" s="4"/>
-    </row>
-    <row r="16" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A16" s="6" t="s">
+      <c r="G66" s="4"/>
+      <c r="H66" s="4"/>
+      <c r="I66" s="4"/>
+      <c r="J66" s="4"/>
+      <c r="K66" s="4"/>
+      <c r="L66" s="4"/>
+      <c r="M66" s="4"/>
+      <c r="N66" s="4"/>
+      <c r="O66" s="4"/>
+      <c r="P66" s="4"/>
+      <c r="Q66" s="4"/>
+      <c r="R66" s="4"/>
+      <c r="S66" s="4"/>
+      <c r="T66" s="4"/>
+      <c r="U66" s="4"/>
+      <c r="V66" s="4"/>
+      <c r="W66" s="4"/>
+      <c r="X66" s="4"/>
+      <c r="Y66" s="4"/>
+      <c r="Z66" s="4"/>
+    </row>
+    <row r="67" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A67" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="B16" s="6" t="s">
+      <c r="B67" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="C16" t="s">
+      <c r="C67" t="s">
         <v>52</v>
       </c>
-      <c r="E16" t="s">
+      <c r="E67" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="17" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A17" s="6" t="s">
+    <row r="68" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A68" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="B17" s="6" t="s">
+      <c r="B68" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="C17" t="s">
+      <c r="C68" t="s">
         <v>55</v>
       </c>
-      <c r="E17" t="s">
+      <c r="E68" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="18" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A18" s="6" t="s">
+    <row r="69" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A69" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="B18" s="6" t="s">
+      <c r="B69" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="C18" t="s">
+      <c r="C69" t="s">
         <v>58</v>
       </c>
-      <c r="E18" t="s">
+      <c r="E69" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="19" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="4" t="s">
+    <row r="70" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A70" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="B19" s="4"/>
-      <c r="C19" s="4"/>
-      <c r="D19" s="4"/>
-      <c r="E19" s="4"/>
-      <c r="F19" s="4"/>
-      <c r="G19" s="4"/>
-      <c r="H19" s="4"/>
-      <c r="I19" s="4"/>
-      <c r="J19" s="4"/>
-      <c r="K19" s="4"/>
-      <c r="L19" s="4"/>
-      <c r="M19" s="4"/>
-      <c r="N19" s="4"/>
-      <c r="O19" s="4"/>
-      <c r="P19" s="4"/>
-      <c r="Q19" s="4"/>
-      <c r="R19" s="4"/>
-      <c r="S19" s="4"/>
-      <c r="T19" s="4"/>
-      <c r="U19" s="4"/>
-      <c r="V19" s="4"/>
-      <c r="W19" s="4"/>
-      <c r="X19" s="4"/>
-      <c r="Y19" s="4"/>
-      <c r="Z19" s="4"/>
-    </row>
-    <row r="20" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="6"/>
-      <c r="B20" s="6"/>
-      <c r="C20" s="6"/>
-      <c r="D20" s="6"/>
-      <c r="E20" s="6"/>
-      <c r="F20" s="6"/>
-      <c r="G20" s="6"/>
-      <c r="H20" s="6"/>
-      <c r="I20" s="6"/>
-      <c r="J20" s="6"/>
-      <c r="K20" s="6"/>
-      <c r="L20" s="6"/>
-      <c r="M20" s="6"/>
-      <c r="N20" s="6"/>
-      <c r="O20" s="6"/>
-      <c r="P20" s="6"/>
-      <c r="Q20" s="6"/>
-      <c r="R20" s="6"/>
-      <c r="S20" s="6"/>
-      <c r="T20" s="6"/>
-      <c r="U20" s="6"/>
-      <c r="V20" s="6"/>
-      <c r="W20" s="4"/>
-      <c r="X20" s="4"/>
-      <c r="Y20" s="4"/>
-      <c r="Z20" s="4"/>
-    </row>
-    <row r="21" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="4" t="s">
+      <c r="B70" s="4"/>
+      <c r="C70" s="4"/>
+      <c r="D70" s="4"/>
+      <c r="E70" s="4"/>
+      <c r="F70" s="4"/>
+      <c r="G70" s="4"/>
+      <c r="H70" s="4"/>
+      <c r="I70" s="4"/>
+      <c r="J70" s="4"/>
+      <c r="K70" s="4"/>
+      <c r="L70" s="4"/>
+      <c r="M70" s="4"/>
+      <c r="N70" s="4"/>
+      <c r="O70" s="4"/>
+      <c r="P70" s="4"/>
+      <c r="Q70" s="4"/>
+      <c r="R70" s="4"/>
+      <c r="S70" s="4"/>
+      <c r="T70" s="4"/>
+      <c r="U70" s="4"/>
+      <c r="V70" s="4"/>
+      <c r="W70" s="4"/>
+      <c r="X70" s="4"/>
+      <c r="Y70" s="4"/>
+      <c r="Z70" s="4"/>
+    </row>
+    <row r="71" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A71" s="6"/>
+      <c r="B71" s="6"/>
+      <c r="C71" s="6"/>
+      <c r="D71" s="6"/>
+      <c r="E71" s="6"/>
+      <c r="F71" s="6"/>
+      <c r="G71" s="6"/>
+      <c r="H71" s="6"/>
+      <c r="I71" s="6"/>
+      <c r="J71" s="6"/>
+      <c r="K71" s="6"/>
+      <c r="L71" s="6"/>
+      <c r="M71" s="6"/>
+      <c r="N71" s="6"/>
+      <c r="O71" s="6"/>
+      <c r="P71" s="6"/>
+      <c r="Q71" s="6"/>
+      <c r="R71" s="6"/>
+      <c r="S71" s="6"/>
+      <c r="T71" s="6"/>
+      <c r="U71" s="6"/>
+      <c r="V71" s="6"/>
+      <c r="W71" s="4"/>
+      <c r="X71" s="4"/>
+      <c r="Y71" s="4"/>
+      <c r="Z71" s="4"/>
+    </row>
+    <row r="72" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A72" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="B21" s="4" t="s">
+      <c r="B72" s="4" t="s">
         <v>157</v>
       </c>
-      <c r="C21" s="4" t="s">
+      <c r="C72" s="4" t="s">
         <v>156</v>
       </c>
-      <c r="D21" s="4"/>
-      <c r="E21" s="4"/>
-      <c r="F21" s="4" t="s">
+      <c r="D72" s="4"/>
+      <c r="E72" s="4"/>
+      <c r="F72" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="G21" s="4"/>
-      <c r="H21" s="4"/>
-      <c r="I21" s="4"/>
-      <c r="J21" s="4"/>
-      <c r="K21" s="4"/>
-      <c r="L21" s="4"/>
-      <c r="M21" s="4"/>
-      <c r="N21" s="4"/>
-      <c r="O21" s="4"/>
-      <c r="P21" s="4"/>
-      <c r="Q21" s="4"/>
-      <c r="R21" s="4"/>
-      <c r="S21" s="4"/>
-      <c r="T21" s="4"/>
-      <c r="U21" s="4"/>
-      <c r="V21" s="4"/>
-      <c r="W21" s="4"/>
-      <c r="X21" s="4"/>
-      <c r="Y21" s="4"/>
-      <c r="Z21" s="4"/>
-    </row>
-    <row r="22" spans="1:26" ht="15.9" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="43" t="s">
+      <c r="G72" s="4"/>
+      <c r="H72" s="4"/>
+      <c r="I72" s="4"/>
+      <c r="J72" s="4"/>
+      <c r="K72" s="4"/>
+      <c r="L72" s="4"/>
+      <c r="M72" s="4"/>
+      <c r="N72" s="4"/>
+      <c r="O72" s="4"/>
+      <c r="P72" s="4"/>
+      <c r="Q72" s="4"/>
+      <c r="R72" s="4"/>
+      <c r="S72" s="4"/>
+      <c r="T72" s="4"/>
+      <c r="U72" s="4"/>
+      <c r="V72" s="4"/>
+      <c r="W72" s="4"/>
+      <c r="X72" s="4"/>
+      <c r="Y72" s="4"/>
+      <c r="Z72" s="4"/>
+    </row>
+    <row r="73" spans="1:26" ht="15.9" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A73" s="43" t="s">
         <v>142</v>
       </c>
-      <c r="B22" s="43" t="s">
+      <c r="B73" s="43" t="s">
         <v>143</v>
       </c>
-      <c r="C22" s="43" t="s">
+      <c r="C73" s="43" t="s">
         <v>158</v>
       </c>
-      <c r="D22" s="6"/>
-      <c r="F22" s="45" t="s">
+      <c r="D73" s="6"/>
+      <c r="F73" s="45" t="s">
         <v>166</v>
       </c>
-      <c r="I22" s="6"/>
-      <c r="J22" s="6"/>
-      <c r="K22" s="6"/>
-      <c r="L22" s="6"/>
-      <c r="M22" s="6"/>
-      <c r="N22" s="6"/>
-      <c r="O22" s="6"/>
-      <c r="P22" s="6"/>
-      <c r="Q22" s="6"/>
-      <c r="R22" s="6"/>
-      <c r="S22" s="6"/>
-      <c r="T22" s="6"/>
-      <c r="U22" s="6"/>
-      <c r="V22" s="6"/>
-      <c r="W22" s="6"/>
-      <c r="X22" s="6"/>
-      <c r="Y22" s="6"/>
-      <c r="Z22" s="6"/>
-    </row>
-    <row r="23" spans="1:26" ht="15.9" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="43" t="s">
+      <c r="I73" s="6"/>
+      <c r="J73" s="6"/>
+      <c r="K73" s="6"/>
+      <c r="L73" s="6"/>
+      <c r="M73" s="6"/>
+      <c r="N73" s="6"/>
+      <c r="O73" s="6"/>
+      <c r="P73" s="6"/>
+      <c r="Q73" s="6"/>
+      <c r="R73" s="6"/>
+      <c r="S73" s="6"/>
+      <c r="T73" s="6"/>
+      <c r="U73" s="6"/>
+      <c r="V73" s="6"/>
+      <c r="W73" s="6"/>
+      <c r="X73" s="6"/>
+      <c r="Y73" s="6"/>
+      <c r="Z73" s="6"/>
+    </row>
+    <row r="74" spans="1:26" ht="15.9" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A74" s="43" t="s">
         <v>144</v>
       </c>
-      <c r="B23" s="43" t="s">
+      <c r="B74" s="43" t="s">
         <v>145</v>
       </c>
-      <c r="C23" s="43" t="s">
+      <c r="C74" s="43" t="s">
         <v>159</v>
       </c>
-      <c r="D23" s="6"/>
-      <c r="F23" s="45" t="s">
+      <c r="D74" s="6"/>
+      <c r="F74" s="45" t="s">
         <v>166</v>
       </c>
-      <c r="I23" s="6"/>
-      <c r="J23" s="6"/>
-      <c r="K23" s="6"/>
-      <c r="L23" s="6"/>
-      <c r="M23" s="6"/>
-      <c r="N23" s="6"/>
-      <c r="O23" s="6"/>
-      <c r="P23" s="6"/>
-      <c r="Q23" s="6"/>
-      <c r="R23" s="6"/>
-      <c r="S23" s="6"/>
-      <c r="T23" s="6"/>
-      <c r="U23" s="6"/>
-      <c r="V23" s="6"/>
-      <c r="W23" s="6"/>
-      <c r="X23" s="6"/>
-      <c r="Y23" s="6"/>
-      <c r="Z23" s="6"/>
-    </row>
-    <row r="24" spans="1:26" ht="15.9" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="43" t="s">
+      <c r="I74" s="6"/>
+      <c r="J74" s="6"/>
+      <c r="K74" s="6"/>
+      <c r="L74" s="6"/>
+      <c r="M74" s="6"/>
+      <c r="N74" s="6"/>
+      <c r="O74" s="6"/>
+      <c r="P74" s="6"/>
+      <c r="Q74" s="6"/>
+      <c r="R74" s="6"/>
+      <c r="S74" s="6"/>
+      <c r="T74" s="6"/>
+      <c r="U74" s="6"/>
+      <c r="V74" s="6"/>
+      <c r="W74" s="6"/>
+      <c r="X74" s="6"/>
+      <c r="Y74" s="6"/>
+      <c r="Z74" s="6"/>
+    </row>
+    <row r="75" spans="1:26" ht="15.9" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A75" s="43" t="s">
         <v>146</v>
       </c>
-      <c r="B24" s="43" t="s">
+      <c r="B75" s="43" t="s">
         <v>147</v>
       </c>
-      <c r="C24" s="43" t="s">
+      <c r="C75" s="43" t="s">
         <v>160</v>
       </c>
-      <c r="D24" s="6"/>
-      <c r="F24" s="45" t="s">
+      <c r="D75" s="6"/>
+      <c r="F75" s="45" t="s">
         <v>166</v>
       </c>
-      <c r="I24" s="6"/>
-      <c r="J24" s="6"/>
-      <c r="K24" s="6"/>
-      <c r="L24" s="6"/>
-      <c r="M24" s="6"/>
-      <c r="N24" s="6"/>
-      <c r="O24" s="6"/>
-      <c r="P24" s="6"/>
-      <c r="Q24" s="6"/>
-      <c r="R24" s="6"/>
-      <c r="S24" s="6"/>
-      <c r="T24" s="6"/>
-      <c r="U24" s="6"/>
-      <c r="V24" s="6"/>
-      <c r="W24" s="6"/>
-      <c r="X24" s="6"/>
-      <c r="Y24" s="6"/>
-      <c r="Z24" s="6"/>
-    </row>
-    <row r="25" spans="1:26" ht="15.9" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="43" t="s">
+      <c r="I75" s="6"/>
+      <c r="J75" s="6"/>
+      <c r="K75" s="6"/>
+      <c r="L75" s="6"/>
+      <c r="M75" s="6"/>
+      <c r="N75" s="6"/>
+      <c r="O75" s="6"/>
+      <c r="P75" s="6"/>
+      <c r="Q75" s="6"/>
+      <c r="R75" s="6"/>
+      <c r="S75" s="6"/>
+      <c r="T75" s="6"/>
+      <c r="U75" s="6"/>
+      <c r="V75" s="6"/>
+      <c r="W75" s="6"/>
+      <c r="X75" s="6"/>
+      <c r="Y75" s="6"/>
+      <c r="Z75" s="6"/>
+    </row>
+    <row r="76" spans="1:26" ht="15.9" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A76" s="43" t="s">
         <v>50</v>
       </c>
-      <c r="B25" s="43" t="s">
+      <c r="B76" s="43" t="s">
         <v>148</v>
       </c>
-      <c r="C25" s="43" t="s">
+      <c r="C76" s="43" t="s">
         <v>161</v>
       </c>
-      <c r="D25" s="6"/>
-      <c r="E25" s="44" t="s">
+      <c r="D76" s="6"/>
+      <c r="E76" s="44" t="s">
         <v>149</v>
       </c>
-      <c r="F25" s="45"/>
-      <c r="G25" s="45"/>
-      <c r="H25" s="45"/>
-      <c r="I25" s="6"/>
-      <c r="J25" s="6"/>
-      <c r="K25" s="6"/>
-      <c r="L25" s="6"/>
-      <c r="M25" s="6"/>
-      <c r="N25" s="6"/>
-      <c r="O25" s="6"/>
-      <c r="P25" s="6"/>
-      <c r="Q25" s="6"/>
-      <c r="R25" s="6"/>
-      <c r="S25" s="6"/>
-      <c r="T25" s="6"/>
-      <c r="U25" s="6"/>
-      <c r="V25" s="6"/>
-      <c r="W25" s="6"/>
-      <c r="X25" s="6"/>
-      <c r="Y25" s="6"/>
-      <c r="Z25" s="6"/>
-    </row>
-    <row r="26" spans="1:26" ht="15.9" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="43" t="s">
+      <c r="F76" s="45"/>
+      <c r="G76" s="45"/>
+      <c r="H76" s="45"/>
+      <c r="I76" s="6"/>
+      <c r="J76" s="6"/>
+      <c r="K76" s="6"/>
+      <c r="L76" s="6"/>
+      <c r="M76" s="6"/>
+      <c r="N76" s="6"/>
+      <c r="O76" s="6"/>
+      <c r="P76" s="6"/>
+      <c r="Q76" s="6"/>
+      <c r="R76" s="6"/>
+      <c r="S76" s="6"/>
+      <c r="T76" s="6"/>
+      <c r="U76" s="6"/>
+      <c r="V76" s="6"/>
+      <c r="W76" s="6"/>
+      <c r="X76" s="6"/>
+      <c r="Y76" s="6"/>
+      <c r="Z76" s="6"/>
+    </row>
+    <row r="77" spans="1:26" ht="15.9" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A77" s="43" t="s">
         <v>50</v>
       </c>
-      <c r="B26" s="43" t="s">
+      <c r="B77" s="43" t="s">
         <v>150</v>
       </c>
-      <c r="C26" s="43" t="s">
+      <c r="C77" s="43" t="s">
         <v>162</v>
       </c>
-      <c r="D26" s="6"/>
-      <c r="E26" s="44" t="s">
+      <c r="D77" s="6"/>
+      <c r="E77" s="44" t="s">
         <v>151</v>
       </c>
-      <c r="F26" s="43"/>
-      <c r="G26" s="43"/>
-      <c r="H26" s="43"/>
-      <c r="I26" s="6"/>
-      <c r="J26" s="6"/>
-      <c r="K26" s="6"/>
-      <c r="L26" s="6"/>
-      <c r="M26" s="6"/>
-      <c r="N26" s="6"/>
-      <c r="O26" s="6"/>
-      <c r="P26" s="6"/>
-      <c r="Q26" s="6"/>
-      <c r="R26" s="6"/>
-      <c r="S26" s="6"/>
-      <c r="T26" s="6"/>
-      <c r="U26" s="6"/>
-      <c r="V26" s="6"/>
-      <c r="W26" s="6"/>
-      <c r="X26" s="6"/>
-      <c r="Y26" s="6"/>
-      <c r="Z26" s="6"/>
-    </row>
-    <row r="27" spans="1:26" ht="15.9" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="43" t="s">
+      <c r="F77" s="43"/>
+      <c r="G77" s="43"/>
+      <c r="H77" s="43"/>
+      <c r="I77" s="6"/>
+      <c r="J77" s="6"/>
+      <c r="K77" s="6"/>
+      <c r="L77" s="6"/>
+      <c r="M77" s="6"/>
+      <c r="N77" s="6"/>
+      <c r="O77" s="6"/>
+      <c r="P77" s="6"/>
+      <c r="Q77" s="6"/>
+      <c r="R77" s="6"/>
+      <c r="S77" s="6"/>
+      <c r="T77" s="6"/>
+      <c r="U77" s="6"/>
+      <c r="V77" s="6"/>
+      <c r="W77" s="6"/>
+      <c r="X77" s="6"/>
+      <c r="Y77" s="6"/>
+      <c r="Z77" s="6"/>
+    </row>
+    <row r="78" spans="1:26" ht="15.9" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A78" s="43" t="s">
         <v>50</v>
       </c>
-      <c r="B27" s="43" t="s">
+      <c r="B78" s="43" t="s">
         <v>152</v>
       </c>
-      <c r="C27" s="43" t="s">
+      <c r="C78" s="43" t="s">
         <v>163</v>
       </c>
-      <c r="D27" s="6"/>
-      <c r="E27" s="44" t="s">
+      <c r="D78" s="6"/>
+      <c r="E78" s="44" t="s">
         <v>153</v>
       </c>
-      <c r="F27" s="43"/>
-      <c r="G27" s="43"/>
-      <c r="H27" s="43"/>
-      <c r="I27" s="6"/>
-      <c r="J27" s="6"/>
-      <c r="K27" s="6"/>
-      <c r="L27" s="6"/>
-      <c r="M27" s="6"/>
-      <c r="N27" s="6"/>
-      <c r="O27" s="6"/>
-      <c r="P27" s="6"/>
-      <c r="Q27" s="6"/>
-      <c r="R27" s="6"/>
-      <c r="S27" s="6"/>
-      <c r="T27" s="6"/>
-      <c r="U27" s="6"/>
-      <c r="V27" s="6"/>
-      <c r="W27" s="6"/>
-      <c r="X27" s="6"/>
-      <c r="Y27" s="6"/>
-      <c r="Z27" s="6"/>
-    </row>
-    <row r="28" spans="1:26" ht="15.9" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="43" t="s">
+      <c r="F78" s="43"/>
+      <c r="G78" s="43"/>
+      <c r="H78" s="43"/>
+      <c r="I78" s="6"/>
+      <c r="J78" s="6"/>
+      <c r="K78" s="6"/>
+      <c r="L78" s="6"/>
+      <c r="M78" s="6"/>
+      <c r="N78" s="6"/>
+      <c r="O78" s="6"/>
+      <c r="P78" s="6"/>
+      <c r="Q78" s="6"/>
+      <c r="R78" s="6"/>
+      <c r="S78" s="6"/>
+      <c r="T78" s="6"/>
+      <c r="U78" s="6"/>
+      <c r="V78" s="6"/>
+      <c r="W78" s="6"/>
+      <c r="X78" s="6"/>
+      <c r="Y78" s="6"/>
+      <c r="Z78" s="6"/>
+    </row>
+    <row r="79" spans="1:26" ht="15.9" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A79" s="43" t="s">
         <v>50</v>
       </c>
-      <c r="B28" s="43" t="s">
+      <c r="B79" s="43" t="s">
         <v>103</v>
       </c>
-      <c r="C28" s="43" t="s">
+      <c r="C79" s="43" t="s">
         <v>164</v>
       </c>
-      <c r="D28" s="6"/>
-      <c r="E28" s="44" t="s">
+      <c r="D79" s="6"/>
+      <c r="E79" s="44" t="s">
         <v>154</v>
       </c>
-      <c r="F28" s="43"/>
-      <c r="G28" s="43"/>
-      <c r="H28" s="43"/>
-      <c r="I28" s="6"/>
-      <c r="J28" s="6"/>
-      <c r="K28" s="6"/>
-      <c r="L28" s="6"/>
-      <c r="M28" s="6"/>
-      <c r="N28" s="6"/>
-      <c r="O28" s="6"/>
-      <c r="P28" s="6"/>
-      <c r="Q28" s="6"/>
-      <c r="R28" s="6"/>
-      <c r="S28" s="6"/>
-      <c r="T28" s="6"/>
-      <c r="U28" s="6"/>
-      <c r="V28" s="6"/>
-      <c r="W28" s="6"/>
-      <c r="X28" s="6"/>
-      <c r="Y28" s="6"/>
-      <c r="Z28" s="6"/>
-    </row>
-    <row r="29" spans="1:26" ht="15.9" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="43" t="s">
+      <c r="F79" s="43"/>
+      <c r="G79" s="43"/>
+      <c r="H79" s="43"/>
+      <c r="I79" s="6"/>
+      <c r="J79" s="6"/>
+      <c r="K79" s="6"/>
+      <c r="L79" s="6"/>
+      <c r="M79" s="6"/>
+      <c r="N79" s="6"/>
+      <c r="O79" s="6"/>
+      <c r="P79" s="6"/>
+      <c r="Q79" s="6"/>
+      <c r="R79" s="6"/>
+      <c r="S79" s="6"/>
+      <c r="T79" s="6"/>
+      <c r="U79" s="6"/>
+      <c r="V79" s="6"/>
+      <c r="W79" s="6"/>
+      <c r="X79" s="6"/>
+      <c r="Y79" s="6"/>
+      <c r="Z79" s="6"/>
+    </row>
+    <row r="80" spans="1:26" ht="15.9" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A80" s="43" t="s">
         <v>50</v>
       </c>
-      <c r="B29" s="43" t="s">
+      <c r="B80" s="43" t="s">
         <v>103</v>
       </c>
-      <c r="C29" s="43" t="s">
+      <c r="C80" s="43" t="s">
         <v>165</v>
       </c>
-      <c r="D29" s="6"/>
-      <c r="E29" s="44" t="s">
+      <c r="D80" s="6"/>
+      <c r="E80" s="44" t="s">
         <v>155</v>
       </c>
-      <c r="F29" s="43"/>
-      <c r="G29" s="43"/>
-      <c r="H29" s="43"/>
-      <c r="I29" s="6"/>
-      <c r="J29" s="6"/>
-      <c r="K29" s="6"/>
-      <c r="L29" s="6"/>
-      <c r="M29" s="6"/>
-      <c r="N29" s="6"/>
-      <c r="O29" s="6"/>
-      <c r="P29" s="6"/>
-      <c r="Q29" s="6"/>
-      <c r="R29" s="6"/>
-      <c r="S29" s="6"/>
-      <c r="T29" s="6"/>
-      <c r="U29" s="6"/>
-      <c r="V29" s="6"/>
-      <c r="W29" s="6"/>
-      <c r="X29" s="6"/>
-      <c r="Y29" s="6"/>
-      <c r="Z29" s="6"/>
-    </row>
-    <row r="30" spans="1:26" ht="15.9" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="43" t="s">
+      <c r="F80" s="43"/>
+      <c r="G80" s="43"/>
+      <c r="H80" s="43"/>
+      <c r="I80" s="6"/>
+      <c r="J80" s="6"/>
+      <c r="K80" s="6"/>
+      <c r="L80" s="6"/>
+      <c r="M80" s="6"/>
+      <c r="N80" s="6"/>
+      <c r="O80" s="6"/>
+      <c r="P80" s="6"/>
+      <c r="Q80" s="6"/>
+      <c r="R80" s="6"/>
+      <c r="S80" s="6"/>
+      <c r="T80" s="6"/>
+      <c r="U80" s="6"/>
+      <c r="V80" s="6"/>
+      <c r="W80" s="6"/>
+      <c r="X80" s="6"/>
+      <c r="Y80" s="6"/>
+      <c r="Z80" s="6"/>
+    </row>
+    <row r="81" spans="1:26" ht="15.9" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A81" s="43" t="s">
         <v>50</v>
       </c>
-      <c r="B30" s="43" t="s">
+      <c r="B81" s="43" t="s">
         <v>50</v>
       </c>
-      <c r="C30" s="48" t="s">
+      <c r="C81" s="48" t="s">
         <v>217</v>
       </c>
-      <c r="E30" s="49" t="s">
+      <c r="E81" s="49" t="s">
         <v>218</v>
       </c>
-      <c r="F30" s="43"/>
-      <c r="G30" s="43"/>
-      <c r="H30" s="43"/>
-      <c r="I30" s="6"/>
-      <c r="J30" s="6"/>
-      <c r="K30" s="6"/>
-      <c r="L30" s="6"/>
-      <c r="M30" s="6"/>
-      <c r="N30" s="6"/>
-      <c r="O30" s="6"/>
-      <c r="P30" s="6"/>
-      <c r="Q30" s="6"/>
-      <c r="R30" s="6"/>
-      <c r="S30" s="6"/>
-      <c r="T30" s="6"/>
-      <c r="U30" s="6"/>
-      <c r="V30" s="6"/>
-      <c r="W30" s="6"/>
-      <c r="X30" s="6"/>
-      <c r="Y30" s="6"/>
-      <c r="Z30" s="6"/>
-    </row>
-    <row r="31" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="4" t="s">
+      <c r="F81" s="43"/>
+      <c r="G81" s="43"/>
+      <c r="H81" s="43"/>
+      <c r="I81" s="6"/>
+      <c r="J81" s="6"/>
+      <c r="K81" s="6"/>
+      <c r="L81" s="6"/>
+      <c r="M81" s="6"/>
+      <c r="N81" s="6"/>
+      <c r="O81" s="6"/>
+      <c r="P81" s="6"/>
+      <c r="Q81" s="6"/>
+      <c r="R81" s="6"/>
+      <c r="S81" s="6"/>
+      <c r="T81" s="6"/>
+      <c r="U81" s="6"/>
+      <c r="V81" s="6"/>
+      <c r="W81" s="6"/>
+      <c r="X81" s="6"/>
+      <c r="Y81" s="6"/>
+      <c r="Z81" s="6"/>
+    </row>
+    <row r="82" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A82" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="B31" s="4"/>
-      <c r="C31" s="4"/>
-      <c r="D31" s="4"/>
-      <c r="E31" s="4"/>
-      <c r="F31" s="4"/>
-      <c r="G31" s="4"/>
-      <c r="H31" s="4"/>
-      <c r="I31" s="4"/>
-      <c r="J31" s="4"/>
-      <c r="K31" s="4"/>
-      <c r="L31" s="4"/>
-      <c r="M31" s="4"/>
-      <c r="N31" s="4"/>
-      <c r="O31" s="4"/>
-      <c r="P31" s="4"/>
-      <c r="Q31" s="4"/>
-      <c r="R31" s="4"/>
-      <c r="S31" s="4"/>
-      <c r="T31" s="4"/>
-      <c r="U31" s="4"/>
-      <c r="V31" s="4"/>
-      <c r="W31" s="4"/>
-      <c r="X31" s="4"/>
-      <c r="Y31" s="4"/>
-      <c r="Z31" s="4"/>
-    </row>
-    <row r="32" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="22"/>
-      <c r="B32" s="22"/>
-      <c r="C32" s="22"/>
-      <c r="D32" s="22"/>
-      <c r="E32" s="22"/>
-      <c r="F32" s="22"/>
-      <c r="G32" s="22"/>
-      <c r="H32" s="22"/>
-      <c r="I32" s="22"/>
-      <c r="J32" s="4"/>
-      <c r="K32" s="4"/>
-      <c r="L32" s="4"/>
-      <c r="M32" s="4"/>
-      <c r="N32" s="4"/>
-      <c r="O32" s="4"/>
-      <c r="P32" s="4"/>
-      <c r="Q32" s="4"/>
-      <c r="R32" s="4"/>
-      <c r="S32" s="4"/>
-      <c r="T32" s="4"/>
-      <c r="U32" s="4"/>
-      <c r="V32" s="4"/>
-      <c r="W32" s="4"/>
-      <c r="X32" s="4"/>
-      <c r="Y32" s="4"/>
-      <c r="Z32" s="4"/>
-    </row>
-    <row r="33" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="22"/>
-      <c r="B33" s="22"/>
-      <c r="C33" s="22"/>
-      <c r="D33" s="22"/>
-      <c r="E33" s="22"/>
-      <c r="F33" s="22"/>
-      <c r="G33" s="22"/>
-      <c r="H33" s="22"/>
-      <c r="I33" s="22"/>
-      <c r="J33" s="22"/>
-      <c r="K33" s="22"/>
-      <c r="L33" s="22"/>
-      <c r="M33" s="22"/>
-      <c r="N33" s="22"/>
-      <c r="O33" s="22"/>
-      <c r="P33" s="22"/>
-      <c r="Q33" s="22"/>
-      <c r="R33" s="22"/>
-      <c r="S33" s="22"/>
-      <c r="T33" s="22"/>
-      <c r="U33" s="22"/>
-      <c r="V33" s="22"/>
-      <c r="W33" s="22"/>
-      <c r="X33" s="22"/>
-      <c r="Y33" s="22"/>
-      <c r="Z33" s="22"/>
-    </row>
-    <row r="34" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="4" t="s">
+      <c r="B82" s="4"/>
+      <c r="C82" s="4"/>
+      <c r="D82" s="4"/>
+      <c r="E82" s="4"/>
+      <c r="F82" s="4"/>
+      <c r="G82" s="4"/>
+      <c r="H82" s="4"/>
+      <c r="I82" s="4"/>
+      <c r="J82" s="4"/>
+      <c r="K82" s="4"/>
+      <c r="L82" s="4"/>
+      <c r="M82" s="4"/>
+      <c r="N82" s="4"/>
+      <c r="O82" s="4"/>
+      <c r="P82" s="4"/>
+      <c r="Q82" s="4"/>
+      <c r="R82" s="4"/>
+      <c r="S82" s="4"/>
+      <c r="T82" s="4"/>
+      <c r="U82" s="4"/>
+      <c r="V82" s="4"/>
+      <c r="W82" s="4"/>
+      <c r="X82" s="4"/>
+      <c r="Y82" s="4"/>
+      <c r="Z82" s="4"/>
+    </row>
+    <row r="83" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A83" s="22"/>
+      <c r="B83" s="22"/>
+      <c r="C83" s="22"/>
+      <c r="D83" s="22"/>
+      <c r="E83" s="22"/>
+      <c r="F83" s="22"/>
+      <c r="G83" s="22"/>
+      <c r="H83" s="22"/>
+      <c r="I83" s="22"/>
+      <c r="J83" s="4"/>
+      <c r="K83" s="4"/>
+      <c r="L83" s="4"/>
+      <c r="M83" s="4"/>
+      <c r="N83" s="4"/>
+      <c r="O83" s="4"/>
+      <c r="P83" s="4"/>
+      <c r="Q83" s="4"/>
+      <c r="R83" s="4"/>
+      <c r="S83" s="4"/>
+      <c r="T83" s="4"/>
+      <c r="U83" s="4"/>
+      <c r="V83" s="4"/>
+      <c r="W83" s="4"/>
+      <c r="X83" s="4"/>
+      <c r="Y83" s="4"/>
+      <c r="Z83" s="4"/>
+    </row>
+    <row r="84" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A84" s="22"/>
+      <c r="B84" s="22"/>
+      <c r="C84" s="22"/>
+      <c r="D84" s="22"/>
+      <c r="E84" s="22"/>
+      <c r="F84" s="22"/>
+      <c r="G84" s="22"/>
+      <c r="H84" s="22"/>
+      <c r="I84" s="22"/>
+      <c r="J84" s="22"/>
+      <c r="K84" s="22"/>
+      <c r="L84" s="22"/>
+      <c r="M84" s="22"/>
+      <c r="N84" s="22"/>
+      <c r="O84" s="22"/>
+      <c r="P84" s="22"/>
+      <c r="Q84" s="22"/>
+      <c r="R84" s="22"/>
+      <c r="S84" s="22"/>
+      <c r="T84" s="22"/>
+      <c r="U84" s="22"/>
+      <c r="V84" s="22"/>
+      <c r="W84" s="22"/>
+      <c r="X84" s="22"/>
+      <c r="Y84" s="22"/>
+      <c r="Z84" s="22"/>
+    </row>
+    <row r="85" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A85" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="B34" s="4" t="s">
+      <c r="B85" s="4" t="s">
         <v>201</v>
       </c>
-      <c r="C34" s="4" t="s">
+      <c r="C85" s="4" t="s">
         <v>197</v>
       </c>
-      <c r="D34" s="22"/>
-      <c r="E34" s="22"/>
-      <c r="F34" s="22"/>
-      <c r="G34" s="22"/>
-      <c r="H34" s="22"/>
-      <c r="I34" s="22"/>
-      <c r="J34" s="22"/>
-      <c r="K34" s="22"/>
-      <c r="L34" s="22"/>
-      <c r="M34" s="22"/>
-      <c r="N34" s="22"/>
-      <c r="O34" s="22"/>
-      <c r="P34" s="22"/>
-      <c r="Q34" s="22"/>
-      <c r="R34" s="22"/>
-      <c r="S34" s="22"/>
-      <c r="T34" s="22"/>
-      <c r="U34" s="22"/>
-      <c r="V34" s="22"/>
-      <c r="W34" s="22"/>
-      <c r="X34" s="22"/>
-      <c r="Y34" s="22"/>
-      <c r="Z34" s="22"/>
-    </row>
-    <row r="35" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="43" t="s">
+      <c r="D85" s="22"/>
+      <c r="E85" s="22"/>
+      <c r="F85" s="22"/>
+      <c r="G85" s="22"/>
+      <c r="H85" s="22"/>
+      <c r="I85" s="22"/>
+      <c r="J85" s="22"/>
+      <c r="K85" s="22"/>
+      <c r="L85" s="22"/>
+      <c r="M85" s="22"/>
+      <c r="N85" s="22"/>
+      <c r="O85" s="22"/>
+      <c r="P85" s="22"/>
+      <c r="Q85" s="22"/>
+      <c r="R85" s="22"/>
+      <c r="S85" s="22"/>
+      <c r="T85" s="22"/>
+      <c r="U85" s="22"/>
+      <c r="V85" s="22"/>
+      <c r="W85" s="22"/>
+      <c r="X85" s="22"/>
+      <c r="Y85" s="22"/>
+      <c r="Z85" s="22"/>
+    </row>
+    <row r="86" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A86" s="43" t="s">
         <v>50</v>
       </c>
-      <c r="B35" s="43" t="s">
+      <c r="B86" s="43" t="s">
         <v>198</v>
       </c>
-      <c r="C35" s="43" t="s">
+      <c r="C86" s="43" t="s">
         <v>202</v>
       </c>
-      <c r="D35" s="22"/>
-      <c r="E35" s="44" t="s">
+      <c r="D86" s="22"/>
+      <c r="E86" s="44" t="s">
         <v>149</v>
       </c>
-      <c r="F35" s="22"/>
-      <c r="G35" s="22"/>
-      <c r="H35" s="22"/>
-      <c r="I35" s="22"/>
-      <c r="J35" s="22"/>
-      <c r="K35" s="22"/>
-      <c r="L35" s="22"/>
-      <c r="M35" s="22"/>
-      <c r="N35" s="22"/>
-      <c r="O35" s="22"/>
-      <c r="P35" s="22"/>
-      <c r="Q35" s="22"/>
-      <c r="R35" s="22"/>
-      <c r="S35" s="22"/>
-      <c r="T35" s="22"/>
-      <c r="U35" s="22"/>
-      <c r="V35" s="22"/>
-      <c r="W35" s="22"/>
-      <c r="X35" s="22"/>
-      <c r="Y35" s="22"/>
-      <c r="Z35" s="22"/>
-    </row>
-    <row r="36" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="43" t="s">
+      <c r="F86" s="22"/>
+      <c r="G86" s="22"/>
+      <c r="H86" s="22"/>
+      <c r="I86" s="22"/>
+      <c r="J86" s="22"/>
+      <c r="K86" s="22"/>
+      <c r="L86" s="22"/>
+      <c r="M86" s="22"/>
+      <c r="N86" s="22"/>
+      <c r="O86" s="22"/>
+      <c r="P86" s="22"/>
+      <c r="Q86" s="22"/>
+      <c r="R86" s="22"/>
+      <c r="S86" s="22"/>
+      <c r="T86" s="22"/>
+      <c r="U86" s="22"/>
+      <c r="V86" s="22"/>
+      <c r="W86" s="22"/>
+      <c r="X86" s="22"/>
+      <c r="Y86" s="22"/>
+      <c r="Z86" s="22"/>
+    </row>
+    <row r="87" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A87" s="43" t="s">
         <v>50</v>
       </c>
-      <c r="B36" s="43" t="s">
+      <c r="B87" s="43" t="s">
         <v>199</v>
       </c>
-      <c r="C36" s="43" t="s">
+      <c r="C87" s="43" t="s">
         <v>202</v>
       </c>
-      <c r="D36" s="22"/>
-      <c r="E36" s="44" t="s">
+      <c r="D87" s="22"/>
+      <c r="E87" s="44" t="s">
         <v>151</v>
       </c>
-      <c r="F36" s="22"/>
-      <c r="G36" s="22"/>
-      <c r="H36" s="22"/>
-      <c r="I36" s="22"/>
-      <c r="J36" s="22"/>
-      <c r="K36" s="22"/>
-      <c r="L36" s="22"/>
-      <c r="M36" s="22"/>
-      <c r="N36" s="22"/>
-      <c r="O36" s="22"/>
-      <c r="P36" s="22"/>
-      <c r="Q36" s="22"/>
-      <c r="R36" s="22"/>
-      <c r="S36" s="22"/>
-      <c r="T36" s="22"/>
-      <c r="U36" s="22"/>
-      <c r="V36" s="22"/>
-      <c r="W36" s="22"/>
-      <c r="X36" s="22"/>
-      <c r="Y36" s="22"/>
-      <c r="Z36" s="22"/>
-    </row>
-    <row r="37" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="43" t="s">
+      <c r="F87" s="22"/>
+      <c r="G87" s="22"/>
+      <c r="H87" s="22"/>
+      <c r="I87" s="22"/>
+      <c r="J87" s="22"/>
+      <c r="K87" s="22"/>
+      <c r="L87" s="22"/>
+      <c r="M87" s="22"/>
+      <c r="N87" s="22"/>
+      <c r="O87" s="22"/>
+      <c r="P87" s="22"/>
+      <c r="Q87" s="22"/>
+      <c r="R87" s="22"/>
+      <c r="S87" s="22"/>
+      <c r="T87" s="22"/>
+      <c r="U87" s="22"/>
+      <c r="V87" s="22"/>
+      <c r="W87" s="22"/>
+      <c r="X87" s="22"/>
+      <c r="Y87" s="22"/>
+      <c r="Z87" s="22"/>
+    </row>
+    <row r="88" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A88" s="43" t="s">
         <v>50</v>
       </c>
-      <c r="B37" s="43" t="s">
+      <c r="B88" s="43" t="s">
         <v>200</v>
       </c>
-      <c r="C37" s="43" t="s">
+      <c r="C88" s="43" t="s">
         <v>203</v>
       </c>
-      <c r="D37" s="22"/>
-      <c r="E37" s="44" t="s">
+      <c r="D88" s="22"/>
+      <c r="E88" s="44" t="s">
         <v>153</v>
       </c>
-      <c r="F37" s="22"/>
-      <c r="G37" s="22"/>
-      <c r="H37" s="22"/>
-      <c r="I37" s="22"/>
-      <c r="J37" s="22"/>
-      <c r="K37" s="22"/>
-      <c r="L37" s="22"/>
-      <c r="M37" s="22"/>
-      <c r="N37" s="22"/>
-      <c r="O37" s="22"/>
-      <c r="P37" s="22"/>
-      <c r="Q37" s="22"/>
-      <c r="R37" s="22"/>
-      <c r="S37" s="22"/>
-      <c r="T37" s="22"/>
-      <c r="U37" s="22"/>
-      <c r="V37" s="22"/>
-      <c r="W37" s="22"/>
-      <c r="X37" s="22"/>
-      <c r="Y37" s="22"/>
-      <c r="Z37" s="22"/>
-    </row>
-    <row r="38" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="4" t="s">
+      <c r="F88" s="22"/>
+      <c r="G88" s="22"/>
+      <c r="H88" s="22"/>
+      <c r="I88" s="22"/>
+      <c r="J88" s="22"/>
+      <c r="K88" s="22"/>
+      <c r="L88" s="22"/>
+      <c r="M88" s="22"/>
+      <c r="N88" s="22"/>
+      <c r="O88" s="22"/>
+      <c r="P88" s="22"/>
+      <c r="Q88" s="22"/>
+      <c r="R88" s="22"/>
+      <c r="S88" s="22"/>
+      <c r="T88" s="22"/>
+      <c r="U88" s="22"/>
+      <c r="V88" s="22"/>
+      <c r="W88" s="22"/>
+      <c r="X88" s="22"/>
+      <c r="Y88" s="22"/>
+      <c r="Z88" s="22"/>
+    </row>
+    <row r="89" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A89" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="B38" s="4"/>
-      <c r="C38" s="4"/>
-      <c r="D38" s="22"/>
-      <c r="E38" s="22"/>
-      <c r="F38" s="22"/>
-      <c r="G38" s="22"/>
-      <c r="H38" s="22"/>
-      <c r="I38" s="22"/>
-      <c r="J38" s="22"/>
-      <c r="K38" s="22"/>
-      <c r="L38" s="22"/>
-      <c r="M38" s="22"/>
-      <c r="N38" s="22"/>
-      <c r="O38" s="22"/>
-      <c r="P38" s="22"/>
-      <c r="Q38" s="22"/>
-      <c r="R38" s="22"/>
-      <c r="S38" s="22"/>
-      <c r="T38" s="22"/>
-      <c r="U38" s="22"/>
-      <c r="V38" s="22"/>
-      <c r="W38" s="22"/>
-      <c r="X38" s="22"/>
-      <c r="Y38" s="22"/>
-      <c r="Z38" s="22"/>
-    </row>
-    <row r="39" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="22"/>
-      <c r="B39" s="22"/>
-      <c r="C39" s="22"/>
-      <c r="D39" s="22"/>
-      <c r="E39" s="22"/>
-      <c r="F39" s="22"/>
-      <c r="G39" s="22"/>
-      <c r="H39" s="22"/>
-      <c r="I39" s="22"/>
-      <c r="J39" s="22"/>
-      <c r="K39" s="22"/>
-      <c r="L39" s="22"/>
-      <c r="M39" s="22"/>
-      <c r="N39" s="22"/>
-      <c r="O39" s="22"/>
-      <c r="P39" s="22"/>
-      <c r="Q39" s="22"/>
-      <c r="R39" s="22"/>
-      <c r="S39" s="22"/>
-      <c r="T39" s="22"/>
-      <c r="U39" s="22"/>
-      <c r="V39" s="22"/>
-      <c r="W39" s="22"/>
-      <c r="X39" s="22"/>
-      <c r="Y39" s="22"/>
-      <c r="Z39" s="22"/>
-    </row>
-    <row r="40" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="22"/>
-      <c r="B40" s="22"/>
-      <c r="C40" s="22"/>
-      <c r="D40" s="22"/>
-      <c r="E40" s="22"/>
-      <c r="F40" s="22"/>
-      <c r="G40" s="22"/>
-      <c r="H40" s="22"/>
-      <c r="I40" s="22"/>
-      <c r="J40" s="22"/>
-      <c r="K40" s="22"/>
-      <c r="L40" s="22"/>
-      <c r="M40" s="22"/>
-      <c r="N40" s="22"/>
-      <c r="O40" s="22"/>
-      <c r="P40" s="22"/>
-      <c r="Q40" s="22"/>
-      <c r="R40" s="22"/>
-      <c r="S40" s="22"/>
-      <c r="T40" s="22"/>
-      <c r="U40" s="22"/>
-      <c r="V40" s="22"/>
-      <c r="W40" s="22"/>
-      <c r="X40" s="22"/>
-      <c r="Y40" s="22"/>
-      <c r="Z40" s="22"/>
-    </row>
-    <row r="41" spans="1:26" s="4" customFormat="1" ht="12.9" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="4" t="s">
+      <c r="B89" s="4"/>
+      <c r="C89" s="4"/>
+      <c r="D89" s="22"/>
+      <c r="E89" s="22"/>
+      <c r="F89" s="22"/>
+      <c r="G89" s="22"/>
+      <c r="H89" s="22"/>
+      <c r="I89" s="22"/>
+      <c r="J89" s="22"/>
+      <c r="K89" s="22"/>
+      <c r="L89" s="22"/>
+      <c r="M89" s="22"/>
+      <c r="N89" s="22"/>
+      <c r="O89" s="22"/>
+      <c r="P89" s="22"/>
+      <c r="Q89" s="22"/>
+      <c r="R89" s="22"/>
+      <c r="S89" s="22"/>
+      <c r="T89" s="22"/>
+      <c r="U89" s="22"/>
+      <c r="V89" s="22"/>
+      <c r="W89" s="22"/>
+      <c r="X89" s="22"/>
+      <c r="Y89" s="22"/>
+      <c r="Z89" s="22"/>
+    </row>
+    <row r="90" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A90" s="22"/>
+      <c r="B90" s="22"/>
+      <c r="C90" s="22"/>
+      <c r="D90" s="22"/>
+      <c r="E90" s="22"/>
+      <c r="F90" s="22"/>
+      <c r="G90" s="22"/>
+      <c r="H90" s="22"/>
+      <c r="I90" s="22"/>
+      <c r="J90" s="22"/>
+      <c r="K90" s="22"/>
+      <c r="L90" s="22"/>
+      <c r="M90" s="22"/>
+      <c r="N90" s="22"/>
+      <c r="O90" s="22"/>
+      <c r="P90" s="22"/>
+      <c r="Q90" s="22"/>
+      <c r="R90" s="22"/>
+      <c r="S90" s="22"/>
+      <c r="T90" s="22"/>
+      <c r="U90" s="22"/>
+      <c r="V90" s="22"/>
+      <c r="W90" s="22"/>
+      <c r="X90" s="22"/>
+      <c r="Y90" s="22"/>
+      <c r="Z90" s="22"/>
+    </row>
+    <row r="91" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A91" s="22"/>
+      <c r="B91" s="22"/>
+      <c r="C91" s="22"/>
+      <c r="D91" s="22"/>
+      <c r="E91" s="22"/>
+      <c r="F91" s="22"/>
+      <c r="G91" s="22"/>
+      <c r="H91" s="22"/>
+      <c r="I91" s="22"/>
+      <c r="J91" s="22"/>
+      <c r="K91" s="22"/>
+      <c r="L91" s="22"/>
+      <c r="M91" s="22"/>
+      <c r="N91" s="22"/>
+      <c r="O91" s="22"/>
+      <c r="P91" s="22"/>
+      <c r="Q91" s="22"/>
+      <c r="R91" s="22"/>
+      <c r="S91" s="22"/>
+      <c r="T91" s="22"/>
+      <c r="U91" s="22"/>
+      <c r="V91" s="22"/>
+      <c r="W91" s="22"/>
+      <c r="X91" s="22"/>
+      <c r="Y91" s="22"/>
+      <c r="Z91" s="22"/>
+    </row>
+    <row r="92" spans="1:26" s="4" customFormat="1" ht="12.9" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A92" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="B41" s="4" t="s">
+      <c r="B92" s="4" t="s">
         <v>219</v>
       </c>
-      <c r="C41" s="4" t="s">
+      <c r="C92" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="F41" s="19" t="s">
+      <c r="F92" s="19" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="42" spans="1:26" s="6" customFormat="1" ht="12.9" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="9" t="s">
+    <row r="93" spans="1:26" s="6" customFormat="1" ht="12.9" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A93" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="B42" s="9" t="s">
+      <c r="B93" s="9" t="s">
         <v>221</v>
       </c>
-      <c r="C42" s="17"/>
-      <c r="D42" s="9"/>
-      <c r="E42" s="17"/>
-      <c r="G42" s="22"/>
-      <c r="H42" s="22"/>
-      <c r="I42" s="6" t="s">
+      <c r="C93" s="17"/>
+      <c r="D93" s="9"/>
+      <c r="E93" s="17"/>
+      <c r="G93" s="22"/>
+      <c r="H93" s="22"/>
+      <c r="I93" s="6" t="s">
         <v>222</v>
       </c>
     </row>
-    <row r="43" spans="1:26" s="6" customFormat="1" ht="12.9" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="9" t="s">
+    <row r="94" spans="1:26" s="6" customFormat="1" ht="12.9" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A94" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="B43" s="9" t="s">
+      <c r="B94" s="9" t="s">
         <v>223</v>
       </c>
-      <c r="C43" s="17"/>
-      <c r="D43" s="9"/>
-      <c r="E43" s="17"/>
-      <c r="G43" s="22"/>
-      <c r="H43" s="22"/>
-      <c r="I43" s="6" t="s">
+      <c r="C94" s="17"/>
+      <c r="D94" s="9"/>
+      <c r="E94" s="17"/>
+      <c r="G94" s="22"/>
+      <c r="H94" s="22"/>
+      <c r="I94" s="6" t="s">
         <v>224</v>
       </c>
     </row>
-    <row r="44" spans="1:26" s="6" customFormat="1" ht="12.9" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="9" t="s">
+    <row r="95" spans="1:26" s="6" customFormat="1" ht="12.9" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A95" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="B44" s="9" t="s">
+      <c r="B95" s="9" t="s">
         <v>63</v>
       </c>
-      <c r="C44" s="17" t="s">
+      <c r="C95" s="17" t="s">
         <v>242</v>
       </c>
-      <c r="D44" s="9"/>
-      <c r="E44" s="17"/>
-      <c r="G44" s="22"/>
-      <c r="H44" s="22"/>
-    </row>
-    <row r="45" spans="1:26" s="6" customFormat="1" ht="12.9" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="9" t="s">
+      <c r="D95" s="9"/>
+      <c r="E95" s="17"/>
+      <c r="G95" s="22"/>
+      <c r="H95" s="22"/>
+    </row>
+    <row r="96" spans="1:26" s="6" customFormat="1" ht="12.9" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A96" s="9" t="s">
         <v>44</v>
       </c>
-      <c r="B45" s="9" t="s">
+      <c r="B96" s="9" t="s">
         <v>225</v>
       </c>
-      <c r="C45" s="10" t="s">
+      <c r="C96" s="10" t="s">
         <v>64</v>
       </c>
-      <c r="D45" s="21" t="s">
+      <c r="D96" s="21" t="s">
         <v>45</v>
       </c>
-      <c r="E45" s="9"/>
-      <c r="G45" s="22" t="s">
+      <c r="E96" s="9"/>
+      <c r="G96" s="22" t="s">
         <v>65</v>
       </c>
-      <c r="H45" s="22" t="s">
+      <c r="H96" s="22" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="46" spans="1:26" s="6" customFormat="1" ht="12.9" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A46" s="9" t="s">
+    <row r="97" spans="1:25" s="6" customFormat="1" ht="12.9" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A97" s="9" t="s">
         <v>66</v>
       </c>
-      <c r="B46" s="9" t="s">
+      <c r="B97" s="9" t="s">
         <v>67</v>
       </c>
-      <c r="C46" s="23" t="s">
+      <c r="C97" s="23" t="s">
         <v>68</v>
       </c>
-      <c r="D46" s="21"/>
-      <c r="E46" s="9"/>
-      <c r="G46" s="22"/>
-      <c r="H46" s="22"/>
-    </row>
-    <row r="47" spans="1:26" s="6" customFormat="1" ht="12.9" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A47" s="9"/>
-      <c r="B47" s="9"/>
-      <c r="C47" s="23"/>
-      <c r="D47" s="21"/>
-      <c r="E47" s="9"/>
-      <c r="G47" s="22"/>
-      <c r="H47" s="22"/>
-    </row>
-    <row r="48" spans="1:26" s="4" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A48" s="4" t="s">
+      <c r="D97" s="21"/>
+      <c r="E97" s="9"/>
+      <c r="G97" s="22"/>
+      <c r="H97" s="22"/>
+    </row>
+    <row r="98" spans="1:25" s="6" customFormat="1" ht="12.9" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A98" s="9"/>
+      <c r="B98" s="9"/>
+      <c r="C98" s="23"/>
+      <c r="D98" s="21"/>
+      <c r="E98" s="9"/>
+      <c r="G98" s="22"/>
+      <c r="H98" s="22"/>
+    </row>
+    <row r="99" spans="1:25" s="4" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A99" s="4" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="49" spans="1:25" s="4" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A49"/>
-      <c r="B49"/>
-      <c r="C49"/>
-      <c r="D49"/>
-      <c r="E49"/>
-      <c r="F49"/>
-      <c r="G49"/>
-      <c r="H49"/>
-      <c r="I49"/>
-      <c r="J49"/>
-    </row>
-    <row r="50" spans="1:25" s="4" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A50" s="42" t="s">
+    <row r="100" spans="1:25" s="4" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A100"/>
+      <c r="B100"/>
+      <c r="C100"/>
+      <c r="D100"/>
+      <c r="E100"/>
+      <c r="F100"/>
+      <c r="G100"/>
+      <c r="H100"/>
+      <c r="I100"/>
+      <c r="J100"/>
+    </row>
+    <row r="101" spans="1:25" s="4" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A101" s="42" t="s">
         <v>17</v>
       </c>
-      <c r="B50" s="42" t="s">
+      <c r="B101" s="42" t="s">
         <v>212</v>
       </c>
-      <c r="C50" s="42" t="s">
+      <c r="C101" s="42" t="s">
         <v>204</v>
       </c>
-      <c r="D50"/>
-      <c r="E50"/>
-      <c r="F50"/>
-      <c r="G50"/>
-      <c r="H50"/>
-      <c r="I50"/>
-      <c r="J50"/>
-    </row>
-    <row r="51" spans="1:25" s="4" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A51" s="43" t="s">
+      <c r="D101"/>
+      <c r="E101"/>
+      <c r="F101"/>
+      <c r="G101"/>
+      <c r="H101"/>
+      <c r="I101"/>
+      <c r="J101"/>
+    </row>
+    <row r="102" spans="1:25" s="4" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A102" s="43" t="s">
         <v>205</v>
       </c>
-      <c r="B51" s="43" t="s">
+      <c r="B102" s="43" t="s">
         <v>206</v>
       </c>
-      <c r="C51" s="43" t="s">
+      <c r="C102" s="43" t="s">
         <v>213</v>
       </c>
-      <c r="D51"/>
-      <c r="E51" s="44" t="s">
+      <c r="D102"/>
+      <c r="E102" s="44" t="s">
         <v>214</v>
       </c>
-      <c r="F51"/>
-      <c r="G51"/>
-      <c r="H51"/>
-      <c r="I51"/>
-      <c r="J51"/>
-    </row>
-    <row r="52" spans="1:25" s="4" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A52" s="43" t="s">
+      <c r="F102"/>
+      <c r="G102"/>
+      <c r="H102"/>
+      <c r="I102"/>
+      <c r="J102"/>
+    </row>
+    <row r="103" spans="1:25" s="4" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A103" s="43" t="s">
         <v>50</v>
       </c>
-      <c r="B52" s="43" t="s">
+      <c r="B103" s="43" t="s">
         <v>207</v>
       </c>
-      <c r="C52" s="43" t="s">
+      <c r="C103" s="43" t="s">
         <v>208</v>
       </c>
-      <c r="D52"/>
-      <c r="E52" s="44" t="s">
+      <c r="D103"/>
+      <c r="E103" s="44" t="s">
         <v>215</v>
       </c>
-      <c r="F52"/>
-      <c r="G52"/>
-      <c r="H52"/>
-      <c r="I52"/>
-      <c r="J52"/>
-    </row>
-    <row r="53" spans="1:25" s="4" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A53" s="42" t="s">
+      <c r="F103"/>
+      <c r="G103"/>
+      <c r="H103"/>
+      <c r="I103"/>
+      <c r="J103"/>
+    </row>
+    <row r="104" spans="1:25" s="4" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A104" s="42" t="s">
         <v>29</v>
       </c>
-      <c r="B53" s="42"/>
-      <c r="C53" s="42"/>
-      <c r="D53"/>
-      <c r="E53"/>
-      <c r="F53"/>
-      <c r="G53"/>
-      <c r="H53"/>
-      <c r="I53"/>
-      <c r="J53"/>
-    </row>
-    <row r="54" spans="1:25" s="4" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A54" s="43"/>
-      <c r="B54" s="43"/>
-      <c r="C54" s="43"/>
-      <c r="D54"/>
-      <c r="E54"/>
-      <c r="F54"/>
-      <c r="G54"/>
-      <c r="H54"/>
-      <c r="I54"/>
-      <c r="J54"/>
-    </row>
-    <row r="55" spans="1:25" s="4" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A55" s="42" t="s">
+      <c r="B104" s="42"/>
+      <c r="C104" s="42"/>
+      <c r="D104"/>
+      <c r="E104"/>
+      <c r="F104"/>
+      <c r="G104"/>
+      <c r="H104"/>
+      <c r="I104"/>
+      <c r="J104"/>
+    </row>
+    <row r="105" spans="1:25" s="4" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A105" s="43"/>
+      <c r="B105" s="43"/>
+      <c r="C105" s="43"/>
+      <c r="D105"/>
+      <c r="E105"/>
+      <c r="F105"/>
+      <c r="G105"/>
+      <c r="H105"/>
+      <c r="I105"/>
+      <c r="J105"/>
+    </row>
+    <row r="106" spans="1:25" s="4" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A106" s="42" t="s">
         <v>17</v>
       </c>
-      <c r="B55" s="42" t="s">
+      <c r="B106" s="42" t="s">
         <v>210</v>
       </c>
-      <c r="C55" s="42" t="s">
+      <c r="C106" s="42" t="s">
         <v>209</v>
       </c>
-      <c r="D55"/>
-      <c r="E55"/>
-      <c r="F55"/>
-      <c r="G55"/>
-      <c r="H55"/>
-      <c r="I55"/>
-      <c r="J55"/>
-    </row>
-    <row r="56" spans="1:25" s="4" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A56" s="43" t="s">
+      <c r="D106"/>
+      <c r="E106"/>
+      <c r="F106"/>
+      <c r="G106"/>
+      <c r="H106"/>
+      <c r="I106"/>
+      <c r="J106"/>
+    </row>
+    <row r="107" spans="1:25" s="4" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A107" s="43" t="s">
         <v>50</v>
       </c>
-      <c r="B56" s="43" t="s">
+      <c r="B107" s="43" t="s">
         <v>247</v>
       </c>
-      <c r="C56" s="43" t="s">
+      <c r="C107" s="43" t="s">
         <v>211</v>
       </c>
-      <c r="D56"/>
-      <c r="E56" s="44" t="s">
+      <c r="D107"/>
+      <c r="E107" s="44" t="s">
         <v>216</v>
       </c>
-      <c r="F56"/>
-      <c r="G56"/>
-      <c r="H56"/>
-      <c r="I56"/>
-      <c r="J56"/>
-    </row>
-    <row r="57" spans="1:25" s="4" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A57" s="42" t="s">
+      <c r="F107"/>
+      <c r="G107"/>
+      <c r="H107"/>
+      <c r="I107"/>
+      <c r="J107"/>
+    </row>
+    <row r="108" spans="1:25" s="4" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A108" s="42" t="s">
         <v>29</v>
       </c>
-      <c r="B57" s="42"/>
-      <c r="C57" s="42"/>
-      <c r="D57"/>
-      <c r="E57"/>
-      <c r="F57"/>
-      <c r="G57"/>
-      <c r="H57"/>
-      <c r="I57"/>
-      <c r="J57"/>
-    </row>
-    <row r="58" spans="1:25" s="4" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A58"/>
-      <c r="B58"/>
-      <c r="C58"/>
-      <c r="D58"/>
-      <c r="E58"/>
-      <c r="F58"/>
-      <c r="G58"/>
-      <c r="H58"/>
-      <c r="I58"/>
-      <c r="J58"/>
-    </row>
-    <row r="59" spans="1:25" s="15" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A59" s="5" t="s">
+      <c r="B108" s="42"/>
+      <c r="C108" s="42"/>
+      <c r="D108"/>
+      <c r="E108"/>
+      <c r="F108"/>
+      <c r="G108"/>
+      <c r="H108"/>
+      <c r="I108"/>
+      <c r="J108"/>
+    </row>
+    <row r="109" spans="1:25" s="4" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A109"/>
+      <c r="B109"/>
+      <c r="C109"/>
+      <c r="D109"/>
+      <c r="E109"/>
+      <c r="F109"/>
+      <c r="G109"/>
+      <c r="H109"/>
+      <c r="I109"/>
+      <c r="J109"/>
+    </row>
+    <row r="110" spans="1:25" s="15" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A110" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="B59" s="5" t="s">
+      <c r="B110" s="5" t="s">
         <v>69</v>
       </c>
-      <c r="C59" s="5" t="s">
+      <c r="C110" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="D59" s="5"/>
-      <c r="E59" s="4"/>
-      <c r="F59" s="19" t="s">
+      <c r="D110" s="5"/>
+      <c r="E110" s="4"/>
+      <c r="F110" s="19" t="s">
         <v>70</v>
       </c>
-      <c r="G59" s="5"/>
-      <c r="H59" s="5"/>
-      <c r="I59" s="5"/>
-      <c r="J59" s="5"/>
-      <c r="K59" s="5"/>
-      <c r="L59" s="5"/>
-      <c r="M59" s="5"/>
-      <c r="N59" s="16"/>
-      <c r="O59" s="16"/>
-      <c r="P59" s="16"/>
-      <c r="Q59" s="16"/>
-      <c r="R59" s="16"/>
-      <c r="S59" s="16"/>
-      <c r="T59" s="16"/>
-      <c r="U59" s="16"/>
-      <c r="V59" s="16"/>
-      <c r="W59" s="16"/>
-      <c r="X59" s="16"/>
-      <c r="Y59" s="16"/>
-    </row>
-    <row r="60" spans="1:25" s="15" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A60" s="16" t="s">
+      <c r="G110" s="5"/>
+      <c r="H110" s="5"/>
+      <c r="I110" s="5"/>
+      <c r="J110" s="5"/>
+      <c r="K110" s="5"/>
+      <c r="L110" s="5"/>
+      <c r="M110" s="5"/>
+      <c r="N110" s="16"/>
+      <c r="O110" s="16"/>
+      <c r="P110" s="16"/>
+      <c r="Q110" s="16"/>
+      <c r="R110" s="16"/>
+      <c r="S110" s="16"/>
+      <c r="T110" s="16"/>
+      <c r="U110" s="16"/>
+      <c r="V110" s="16"/>
+      <c r="W110" s="16"/>
+      <c r="X110" s="16"/>
+      <c r="Y110" s="16"/>
+    </row>
+    <row r="111" spans="1:25" s="15" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A111" s="16" t="s">
         <v>50</v>
       </c>
-      <c r="B60" s="24" t="s">
+      <c r="B111" s="24" t="s">
         <v>71</v>
       </c>
-      <c r="C60" s="3" t="s">
+      <c r="C111" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="D60" s="6" t="s">
+      <c r="D111" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="E60" s="3"/>
-      <c r="F60" s="16"/>
-      <c r="G60" s="16"/>
-      <c r="H60" s="16"/>
-      <c r="I60" s="16"/>
-      <c r="J60" s="16"/>
-      <c r="K60" s="16"/>
-      <c r="L60" s="16"/>
-      <c r="M60" s="16"/>
-      <c r="N60" s="16"/>
-      <c r="O60" s="16"/>
-      <c r="P60" s="16"/>
-      <c r="Q60" s="16"/>
-      <c r="R60" s="16"/>
-      <c r="S60" s="16"/>
-      <c r="T60" s="16"/>
-      <c r="U60" s="16"/>
-      <c r="V60" s="16"/>
-      <c r="W60" s="16"/>
-      <c r="X60" s="16"/>
-      <c r="Y60" s="16"/>
-    </row>
-    <row r="61" spans="1:25" s="15" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A61" s="25" t="s">
+      <c r="E111" s="3"/>
+      <c r="F111" s="16"/>
+      <c r="G111" s="16"/>
+      <c r="H111" s="16"/>
+      <c r="I111" s="16"/>
+      <c r="J111" s="16"/>
+      <c r="K111" s="16"/>
+      <c r="L111" s="16"/>
+      <c r="M111" s="16"/>
+      <c r="N111" s="16"/>
+      <c r="O111" s="16"/>
+      <c r="P111" s="16"/>
+      <c r="Q111" s="16"/>
+      <c r="R111" s="16"/>
+      <c r="S111" s="16"/>
+      <c r="T111" s="16"/>
+      <c r="U111" s="16"/>
+      <c r="V111" s="16"/>
+      <c r="W111" s="16"/>
+      <c r="X111" s="16"/>
+      <c r="Y111" s="16"/>
+    </row>
+    <row r="112" spans="1:25" s="15" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A112" s="25" t="s">
         <v>50</v>
       </c>
-      <c r="B61" s="25" t="s">
+      <c r="B112" s="25" t="s">
         <v>69</v>
       </c>
-      <c r="C61" s="26" t="s">
+      <c r="C112" s="26" t="s">
         <v>73</v>
       </c>
-      <c r="D61" s="25"/>
-      <c r="E61" s="25"/>
-      <c r="F61" s="25" t="s">
+      <c r="D112" s="25"/>
+      <c r="E112" s="25"/>
+      <c r="F112" s="25" t="s">
         <v>74</v>
       </c>
-      <c r="G61" s="25"/>
-      <c r="H61" s="25"/>
-      <c r="I61" s="25"/>
-      <c r="J61" s="25"/>
-      <c r="K61" s="25"/>
-      <c r="L61" s="25"/>
-      <c r="M61" s="25"/>
-      <c r="N61" s="25"/>
-      <c r="O61" s="25"/>
-      <c r="P61" s="25"/>
-      <c r="Q61" s="25"/>
-      <c r="R61" s="25"/>
-      <c r="S61" s="25"/>
-      <c r="T61" s="25"/>
-      <c r="U61" s="25"/>
-      <c r="V61" s="25"/>
-      <c r="W61" s="25"/>
-      <c r="X61" s="25"/>
-      <c r="Y61" s="25"/>
-    </row>
-    <row r="62" spans="1:25" s="15" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A62" s="3" t="s">
+      <c r="G112" s="25"/>
+      <c r="H112" s="25"/>
+      <c r="I112" s="25"/>
+      <c r="J112" s="25"/>
+      <c r="K112" s="25"/>
+      <c r="L112" s="25"/>
+      <c r="M112" s="25"/>
+      <c r="N112" s="25"/>
+      <c r="O112" s="25"/>
+      <c r="P112" s="25"/>
+      <c r="Q112" s="25"/>
+      <c r="R112" s="25"/>
+      <c r="S112" s="25"/>
+      <c r="T112" s="25"/>
+      <c r="U112" s="25"/>
+      <c r="V112" s="25"/>
+      <c r="W112" s="25"/>
+      <c r="X112" s="25"/>
+      <c r="Y112" s="25"/>
+    </row>
+    <row r="113" spans="1:25" s="15" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A113" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="B62" s="3" t="s">
+      <c r="B113" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="C62" s="24" t="s">
+      <c r="C113" s="24" t="s">
         <v>76</v>
       </c>
-      <c r="D62" s="3"/>
-      <c r="E62" s="3"/>
-      <c r="F62" s="3"/>
-      <c r="G62" s="3"/>
-      <c r="H62" s="3"/>
-      <c r="I62" s="16"/>
-      <c r="J62" s="3"/>
-      <c r="K62" s="3"/>
-      <c r="L62" s="3"/>
-      <c r="M62" s="3"/>
-      <c r="N62" s="3"/>
-      <c r="O62" s="3"/>
-      <c r="P62" s="3"/>
-      <c r="Q62" s="3"/>
-      <c r="R62" s="3"/>
-      <c r="S62" s="3"/>
-      <c r="T62" s="3"/>
-      <c r="U62" s="3"/>
-      <c r="V62" s="3"/>
-      <c r="W62" s="3"/>
-      <c r="X62" s="3"/>
-      <c r="Y62" s="3"/>
-    </row>
-    <row r="63" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A63" s="6" t="s">
+      <c r="D113" s="3"/>
+      <c r="E113" s="3"/>
+      <c r="F113" s="3"/>
+      <c r="G113" s="3"/>
+      <c r="H113" s="3"/>
+      <c r="I113" s="16"/>
+      <c r="J113" s="3"/>
+      <c r="K113" s="3"/>
+      <c r="L113" s="3"/>
+      <c r="M113" s="3"/>
+      <c r="N113" s="3"/>
+      <c r="O113" s="3"/>
+      <c r="P113" s="3"/>
+      <c r="Q113" s="3"/>
+      <c r="R113" s="3"/>
+      <c r="S113" s="3"/>
+      <c r="T113" s="3"/>
+      <c r="U113" s="3"/>
+      <c r="V113" s="3"/>
+      <c r="W113" s="3"/>
+      <c r="X113" s="3"/>
+      <c r="Y113" s="3"/>
+    </row>
+    <row r="114" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A114" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="B63" s="6" t="s">
+      <c r="B114" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="C63" s="27" t="s">
+      <c r="C114" s="27" t="s">
         <v>77</v>
       </c>
-      <c r="E63" t="s">
+      <c r="E114" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="64" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A64" s="6" t="s">
+    <row r="115" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A115" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="B64" s="6" t="s">
+      <c r="B115" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="C64" s="27" t="s">
+      <c r="C115" s="27" t="s">
         <v>78</v>
       </c>
-      <c r="E64" t="s">
+      <c r="E115" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="65" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A65" s="6" t="s">
+    <row r="116" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A116" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="B65" s="6" t="s">
+      <c r="B116" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="C65" s="27" t="s">
+      <c r="C116" s="27" t="s">
         <v>79</v>
       </c>
-      <c r="E65" t="s">
+      <c r="E116" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="66" spans="1:25" s="15" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A66" s="28" t="s">
+    <row r="117" spans="1:25" s="15" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A117" s="28" t="s">
         <v>50</v>
       </c>
-      <c r="B66" s="29" t="s">
+      <c r="B117" s="29" t="s">
         <v>80</v>
       </c>
-      <c r="C66" s="30" t="s">
+      <c r="C117" s="30" t="s">
         <v>81</v>
       </c>
-      <c r="D66" s="28"/>
-      <c r="E66" s="28"/>
-      <c r="F66" s="28" t="s">
+      <c r="D117" s="28"/>
+      <c r="E117" s="28"/>
+      <c r="F117" s="28" t="s">
         <v>82</v>
       </c>
-      <c r="G66" s="28"/>
-      <c r="H66" s="28"/>
-      <c r="I66" s="28"/>
-      <c r="J66" s="28"/>
-      <c r="K66" s="28"/>
-      <c r="L66" s="28"/>
-      <c r="M66" s="28"/>
-      <c r="N66" s="28"/>
-      <c r="O66" s="28"/>
-      <c r="P66" s="28"/>
-      <c r="Q66" s="28"/>
-      <c r="R66" s="28"/>
-      <c r="S66" s="28"/>
-      <c r="T66" s="28"/>
-      <c r="U66" s="28"/>
-      <c r="V66" s="28"/>
-      <c r="W66" s="28"/>
-      <c r="X66" s="28"/>
-      <c r="Y66" s="28"/>
-    </row>
-    <row r="67" spans="1:25" s="15" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A67" s="24" t="s">
+      <c r="G117" s="28"/>
+      <c r="H117" s="28"/>
+      <c r="I117" s="28"/>
+      <c r="J117" s="28"/>
+      <c r="K117" s="28"/>
+      <c r="L117" s="28"/>
+      <c r="M117" s="28"/>
+      <c r="N117" s="28"/>
+      <c r="O117" s="28"/>
+      <c r="P117" s="28"/>
+      <c r="Q117" s="28"/>
+      <c r="R117" s="28"/>
+      <c r="S117" s="28"/>
+      <c r="T117" s="28"/>
+      <c r="U117" s="28"/>
+      <c r="V117" s="28"/>
+      <c r="W117" s="28"/>
+      <c r="X117" s="28"/>
+      <c r="Y117" s="28"/>
+    </row>
+    <row r="118" spans="1:25" s="15" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A118" s="24" t="s">
         <v>50</v>
       </c>
-      <c r="B67" s="43" t="s">
+      <c r="B118" s="43" t="s">
         <v>100</v>
       </c>
-      <c r="C67" s="43" t="s">
+      <c r="C118" s="43" t="s">
         <v>168</v>
       </c>
-      <c r="D67" s="6"/>
-      <c r="E67" s="17" t="s">
+      <c r="D118" s="6"/>
+      <c r="E118" s="17" t="s">
         <v>226</v>
       </c>
-      <c r="F67" s="15" t="s">
+      <c r="F118" s="15" t="s">
         <v>83</v>
       </c>
-      <c r="G67" s="16"/>
-      <c r="H67" s="16"/>
-      <c r="I67" s="16"/>
-      <c r="J67" s="16"/>
-      <c r="K67" s="16"/>
-      <c r="L67" s="16"/>
-      <c r="M67" s="16"/>
-      <c r="N67" s="16"/>
-      <c r="O67" s="16"/>
-      <c r="P67" s="16"/>
-      <c r="Q67" s="16"/>
-      <c r="R67" s="16"/>
-      <c r="S67" s="16"/>
-      <c r="T67" s="16"/>
-      <c r="U67" s="16"/>
-      <c r="V67" s="16"/>
-      <c r="W67" s="16"/>
-      <c r="X67" s="16"/>
-      <c r="Y67" s="16"/>
-    </row>
-    <row r="68" spans="1:25" s="15" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A68" s="24" t="s">
+      <c r="G118" s="16"/>
+      <c r="H118" s="16"/>
+      <c r="I118" s="16"/>
+      <c r="J118" s="16"/>
+      <c r="K118" s="16"/>
+      <c r="L118" s="16"/>
+      <c r="M118" s="16"/>
+      <c r="N118" s="16"/>
+      <c r="O118" s="16"/>
+      <c r="P118" s="16"/>
+      <c r="Q118" s="16"/>
+      <c r="R118" s="16"/>
+      <c r="S118" s="16"/>
+      <c r="T118" s="16"/>
+      <c r="U118" s="16"/>
+      <c r="V118" s="16"/>
+      <c r="W118" s="16"/>
+      <c r="X118" s="16"/>
+      <c r="Y118" s="16"/>
+    </row>
+    <row r="119" spans="1:25" s="15" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A119" s="24" t="s">
         <v>50</v>
       </c>
-      <c r="B68" s="43" t="s">
+      <c r="B119" s="43" t="s">
         <v>169</v>
       </c>
-      <c r="C68" s="43" t="s">
+      <c r="C119" s="43" t="s">
         <v>170</v>
       </c>
-      <c r="D68" s="6"/>
-      <c r="E68" s="17" t="s">
+      <c r="D119" s="6"/>
+      <c r="E119" s="17" t="s">
         <v>227</v>
       </c>
-      <c r="F68" s="16" t="s">
+      <c r="F119" s="16" t="s">
         <v>83</v>
       </c>
-      <c r="G68" s="16"/>
-      <c r="H68" s="16"/>
-      <c r="I68" s="16"/>
-      <c r="J68" s="16"/>
-      <c r="K68" s="16"/>
-      <c r="L68" s="16"/>
-      <c r="M68" s="16"/>
-      <c r="N68" s="16"/>
-      <c r="O68" s="16"/>
-      <c r="P68" s="16"/>
-      <c r="Q68" s="16"/>
-      <c r="R68" s="16"/>
-      <c r="S68" s="16"/>
-      <c r="T68" s="16"/>
-      <c r="U68" s="16"/>
-      <c r="V68" s="16"/>
-      <c r="W68" s="16"/>
-      <c r="X68" s="16"/>
-      <c r="Y68" s="16"/>
-    </row>
-    <row r="69" spans="1:25" s="15" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A69" s="24" t="s">
+      <c r="G119" s="16"/>
+      <c r="H119" s="16"/>
+      <c r="I119" s="16"/>
+      <c r="J119" s="16"/>
+      <c r="K119" s="16"/>
+      <c r="L119" s="16"/>
+      <c r="M119" s="16"/>
+      <c r="N119" s="16"/>
+      <c r="O119" s="16"/>
+      <c r="P119" s="16"/>
+      <c r="Q119" s="16"/>
+      <c r="R119" s="16"/>
+      <c r="S119" s="16"/>
+      <c r="T119" s="16"/>
+      <c r="U119" s="16"/>
+      <c r="V119" s="16"/>
+      <c r="W119" s="16"/>
+      <c r="X119" s="16"/>
+      <c r="Y119" s="16"/>
+    </row>
+    <row r="120" spans="1:25" s="15" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A120" s="24" t="s">
         <v>50</v>
       </c>
-      <c r="B69" s="43" t="s">
+      <c r="B120" s="43" t="s">
         <v>106</v>
       </c>
-      <c r="C69" s="43" t="s">
+      <c r="C120" s="43" t="s">
         <v>171</v>
       </c>
-      <c r="D69" s="6"/>
-      <c r="E69" s="17" t="s">
+      <c r="D120" s="6"/>
+      <c r="E120" s="17" t="s">
         <v>228</v>
       </c>
-      <c r="F69" s="16" t="s">
+      <c r="F120" s="16" t="s">
         <v>83</v>
       </c>
-      <c r="G69" s="16"/>
-      <c r="H69" s="16"/>
-      <c r="I69" s="16"/>
-      <c r="J69" s="16"/>
-      <c r="K69" s="16"/>
-      <c r="L69" s="16"/>
-      <c r="M69" s="16"/>
-      <c r="N69" s="16"/>
-      <c r="O69" s="16"/>
-      <c r="P69" s="16"/>
-      <c r="Q69" s="16"/>
-      <c r="R69" s="16"/>
-      <c r="S69" s="16"/>
-      <c r="T69" s="16"/>
-      <c r="U69" s="16"/>
-      <c r="V69" s="16"/>
-      <c r="W69" s="16"/>
-      <c r="X69" s="16"/>
-      <c r="Y69" s="16"/>
-    </row>
-    <row r="70" spans="1:25" s="15" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A70" s="24" t="s">
+      <c r="G120" s="16"/>
+      <c r="H120" s="16"/>
+      <c r="I120" s="16"/>
+      <c r="J120" s="16"/>
+      <c r="K120" s="16"/>
+      <c r="L120" s="16"/>
+      <c r="M120" s="16"/>
+      <c r="N120" s="16"/>
+      <c r="O120" s="16"/>
+      <c r="P120" s="16"/>
+      <c r="Q120" s="16"/>
+      <c r="R120" s="16"/>
+      <c r="S120" s="16"/>
+      <c r="T120" s="16"/>
+      <c r="U120" s="16"/>
+      <c r="V120" s="16"/>
+      <c r="W120" s="16"/>
+      <c r="X120" s="16"/>
+      <c r="Y120" s="16"/>
+    </row>
+    <row r="121" spans="1:25" s="15" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A121" s="24" t="s">
         <v>50</v>
       </c>
-      <c r="B70" s="43" t="s">
+      <c r="B121" s="43" t="s">
         <v>173</v>
       </c>
-      <c r="C70" s="43" t="s">
+      <c r="C121" s="43" t="s">
         <v>174</v>
       </c>
-      <c r="D70" s="6"/>
-      <c r="E70" s="17" t="s">
+      <c r="D121" s="6"/>
+      <c r="E121" s="17" t="s">
         <v>229</v>
       </c>
-      <c r="F70" s="16" t="s">
+      <c r="F121" s="16" t="s">
         <v>83</v>
       </c>
-      <c r="G70" s="16"/>
-      <c r="H70" s="16"/>
-      <c r="I70" s="16"/>
-      <c r="J70" s="16"/>
-      <c r="K70" s="16"/>
-      <c r="L70" s="16"/>
-      <c r="M70" s="16"/>
-      <c r="N70" s="16"/>
-      <c r="O70" s="16"/>
-      <c r="P70" s="16"/>
-      <c r="Q70" s="16"/>
-      <c r="R70" s="16"/>
-      <c r="S70" s="16"/>
-      <c r="T70" s="16"/>
-      <c r="U70" s="16"/>
-      <c r="V70" s="16"/>
-      <c r="W70" s="16"/>
-      <c r="X70" s="16"/>
-      <c r="Y70" s="16"/>
-    </row>
-    <row r="71" spans="1:25" s="15" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A71" s="24" t="s">
+      <c r="G121" s="16"/>
+      <c r="H121" s="16"/>
+      <c r="I121" s="16"/>
+      <c r="J121" s="16"/>
+      <c r="K121" s="16"/>
+      <c r="L121" s="16"/>
+      <c r="M121" s="16"/>
+      <c r="N121" s="16"/>
+      <c r="O121" s="16"/>
+      <c r="P121" s="16"/>
+      <c r="Q121" s="16"/>
+      <c r="R121" s="16"/>
+      <c r="S121" s="16"/>
+      <c r="T121" s="16"/>
+      <c r="U121" s="16"/>
+      <c r="V121" s="16"/>
+      <c r="W121" s="16"/>
+      <c r="X121" s="16"/>
+      <c r="Y121" s="16"/>
+    </row>
+    <row r="122" spans="1:25" s="15" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A122" s="24" t="s">
         <v>50</v>
       </c>
-      <c r="B71" s="43" t="s">
+      <c r="B122" s="43" t="s">
         <v>175</v>
       </c>
-      <c r="C71" s="43" t="s">
+      <c r="C122" s="43" t="s">
         <v>176</v>
       </c>
-      <c r="D71" s="6"/>
-      <c r="E71" s="17" t="s">
+      <c r="D122" s="6"/>
+      <c r="E122" s="17" t="s">
         <v>230</v>
       </c>
-      <c r="F71" s="16" t="s">
+      <c r="F122" s="16" t="s">
         <v>83</v>
       </c>
-      <c r="G71" s="16"/>
-      <c r="H71" s="16"/>
-      <c r="I71" s="16"/>
-      <c r="J71" s="16"/>
-      <c r="K71" s="16"/>
-      <c r="L71" s="16"/>
-      <c r="M71" s="16"/>
-      <c r="N71" s="16"/>
-      <c r="O71" s="16"/>
-      <c r="P71" s="16"/>
-      <c r="Q71" s="16"/>
-      <c r="R71" s="16"/>
-      <c r="S71" s="16"/>
-      <c r="T71" s="16"/>
-      <c r="U71" s="16"/>
-      <c r="V71" s="16"/>
-      <c r="W71" s="16"/>
-      <c r="X71" s="16"/>
-      <c r="Y71" s="16"/>
-    </row>
-    <row r="72" spans="1:25" s="15" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A72" s="24" t="s">
+      <c r="G122" s="16"/>
+      <c r="H122" s="16"/>
+      <c r="I122" s="16"/>
+      <c r="J122" s="16"/>
+      <c r="K122" s="16"/>
+      <c r="L122" s="16"/>
+      <c r="M122" s="16"/>
+      <c r="N122" s="16"/>
+      <c r="O122" s="16"/>
+      <c r="P122" s="16"/>
+      <c r="Q122" s="16"/>
+      <c r="R122" s="16"/>
+      <c r="S122" s="16"/>
+      <c r="T122" s="16"/>
+      <c r="U122" s="16"/>
+      <c r="V122" s="16"/>
+      <c r="W122" s="16"/>
+      <c r="X122" s="16"/>
+      <c r="Y122" s="16"/>
+    </row>
+    <row r="123" spans="1:25" s="15" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A123" s="24" t="s">
         <v>50</v>
       </c>
-      <c r="B72" s="43" t="s">
+      <c r="B123" s="43" t="s">
         <v>177</v>
       </c>
-      <c r="C72" s="43" t="s">
+      <c r="C123" s="43" t="s">
         <v>178</v>
       </c>
-      <c r="D72" s="6"/>
-      <c r="E72" s="17" t="s">
+      <c r="D123" s="6"/>
+      <c r="E123" s="17" t="s">
         <v>231</v>
       </c>
-      <c r="F72" s="16" t="s">
+      <c r="F123" s="16" t="s">
         <v>83</v>
       </c>
-      <c r="G72" s="16"/>
-      <c r="H72" s="16"/>
-      <c r="I72" s="16"/>
-      <c r="J72" s="16"/>
-      <c r="K72" s="16"/>
-      <c r="L72" s="16"/>
-      <c r="M72" s="16"/>
-      <c r="N72" s="16"/>
-      <c r="O72" s="16"/>
-      <c r="P72" s="16"/>
-      <c r="Q72" s="16"/>
-      <c r="R72" s="16"/>
-      <c r="S72" s="16"/>
-      <c r="T72" s="16"/>
-      <c r="U72" s="16"/>
-      <c r="V72" s="16"/>
-      <c r="W72" s="16"/>
-      <c r="X72" s="16"/>
-      <c r="Y72" s="16"/>
-    </row>
-    <row r="73" spans="1:25" s="15" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A73" s="24" t="s">
+      <c r="G123" s="16"/>
+      <c r="H123" s="16"/>
+      <c r="I123" s="16"/>
+      <c r="J123" s="16"/>
+      <c r="K123" s="16"/>
+      <c r="L123" s="16"/>
+      <c r="M123" s="16"/>
+      <c r="N123" s="16"/>
+      <c r="O123" s="16"/>
+      <c r="P123" s="16"/>
+      <c r="Q123" s="16"/>
+      <c r="R123" s="16"/>
+      <c r="S123" s="16"/>
+      <c r="T123" s="16"/>
+      <c r="U123" s="16"/>
+      <c r="V123" s="16"/>
+      <c r="W123" s="16"/>
+      <c r="X123" s="16"/>
+      <c r="Y123" s="16"/>
+    </row>
+    <row r="124" spans="1:25" s="15" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A124" s="24" t="s">
         <v>50</v>
       </c>
-      <c r="B73" s="43" t="s">
+      <c r="B124" s="43" t="s">
         <v>102</v>
       </c>
-      <c r="C73" s="43" t="s">
+      <c r="C124" s="43" t="s">
         <v>179</v>
       </c>
-      <c r="D73" s="6"/>
-      <c r="E73" s="17" t="s">
+      <c r="D124" s="6"/>
+      <c r="E124" s="17" t="s">
         <v>232</v>
       </c>
-      <c r="F73" s="16" t="s">
+      <c r="F124" s="16" t="s">
         <v>83</v>
       </c>
-      <c r="G73" s="16"/>
-      <c r="H73" s="16"/>
-      <c r="I73" s="16"/>
-      <c r="J73" s="16"/>
-      <c r="K73" s="16"/>
-      <c r="L73" s="16"/>
-      <c r="M73" s="16"/>
-      <c r="N73" s="16"/>
-      <c r="O73" s="16"/>
-      <c r="P73" s="16"/>
-      <c r="Q73" s="16"/>
-      <c r="R73" s="16"/>
-      <c r="S73" s="16"/>
-      <c r="T73" s="16"/>
-      <c r="U73" s="16"/>
-      <c r="V73" s="16"/>
-      <c r="W73" s="16"/>
-      <c r="X73" s="16"/>
-      <c r="Y73" s="16"/>
-    </row>
-    <row r="74" spans="1:25" s="15" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A74" s="24" t="s">
+      <c r="G124" s="16"/>
+      <c r="H124" s="16"/>
+      <c r="I124" s="16"/>
+      <c r="J124" s="16"/>
+      <c r="K124" s="16"/>
+      <c r="L124" s="16"/>
+      <c r="M124" s="16"/>
+      <c r="N124" s="16"/>
+      <c r="O124" s="16"/>
+      <c r="P124" s="16"/>
+      <c r="Q124" s="16"/>
+      <c r="R124" s="16"/>
+      <c r="S124" s="16"/>
+      <c r="T124" s="16"/>
+      <c r="U124" s="16"/>
+      <c r="V124" s="16"/>
+      <c r="W124" s="16"/>
+      <c r="X124" s="16"/>
+      <c r="Y124" s="16"/>
+    </row>
+    <row r="125" spans="1:25" s="15" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A125" s="24" t="s">
         <v>50</v>
       </c>
-      <c r="B74" s="43" t="s">
+      <c r="B125" s="43" t="s">
         <v>180</v>
       </c>
-      <c r="C74" s="43" t="s">
+      <c r="C125" s="43" t="s">
         <v>181</v>
       </c>
-      <c r="D74" s="6"/>
-      <c r="E74" s="17" t="s">
+      <c r="D125" s="6"/>
+      <c r="E125" s="17" t="s">
         <v>233</v>
       </c>
-      <c r="F74" s="16" t="s">
+      <c r="F125" s="16" t="s">
         <v>83</v>
       </c>
-      <c r="G74" s="16"/>
-      <c r="H74" s="16"/>
-      <c r="I74" s="16"/>
-      <c r="J74" s="16"/>
-      <c r="K74" s="16"/>
-      <c r="L74" s="16"/>
-      <c r="M74" s="16"/>
-      <c r="N74" s="16"/>
-      <c r="O74" s="16"/>
-      <c r="P74" s="16"/>
-      <c r="Q74" s="16"/>
-      <c r="R74" s="16"/>
-      <c r="S74" s="16"/>
-      <c r="T74" s="16"/>
-      <c r="U74" s="16"/>
-      <c r="V74" s="16"/>
-      <c r="W74" s="16"/>
-      <c r="X74" s="16"/>
-      <c r="Y74" s="16"/>
-    </row>
-    <row r="75" spans="1:25" s="15" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A75" s="24" t="s">
+      <c r="G125" s="16"/>
+      <c r="H125" s="16"/>
+      <c r="I125" s="16"/>
+      <c r="J125" s="16"/>
+      <c r="K125" s="16"/>
+      <c r="L125" s="16"/>
+      <c r="M125" s="16"/>
+      <c r="N125" s="16"/>
+      <c r="O125" s="16"/>
+      <c r="P125" s="16"/>
+      <c r="Q125" s="16"/>
+      <c r="R125" s="16"/>
+      <c r="S125" s="16"/>
+      <c r="T125" s="16"/>
+      <c r="U125" s="16"/>
+      <c r="V125" s="16"/>
+      <c r="W125" s="16"/>
+      <c r="X125" s="16"/>
+      <c r="Y125" s="16"/>
+    </row>
+    <row r="126" spans="1:25" s="15" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A126" s="24" t="s">
         <v>50</v>
       </c>
-      <c r="B75" s="43" t="s">
+      <c r="B126" s="43" t="s">
         <v>182</v>
       </c>
-      <c r="C75" s="43" t="s">
+      <c r="C126" s="43" t="s">
         <v>84</v>
       </c>
-      <c r="D75" s="6"/>
-      <c r="E75" s="17" t="s">
+      <c r="D126" s="6"/>
+      <c r="E126" s="17" t="s">
         <v>234</v>
       </c>
-      <c r="F75" s="16" t="s">
+      <c r="F126" s="16" t="s">
         <v>83</v>
       </c>
-      <c r="G75" s="16"/>
-      <c r="H75" s="16"/>
-      <c r="I75" s="16"/>
-      <c r="J75" s="16"/>
-      <c r="K75" s="16"/>
-      <c r="L75" s="16"/>
-      <c r="M75" s="16"/>
-      <c r="N75" s="16"/>
-      <c r="O75" s="16"/>
-      <c r="P75" s="16"/>
-      <c r="Q75" s="16"/>
-      <c r="R75" s="16"/>
-      <c r="S75" s="16"/>
-      <c r="T75" s="16"/>
-      <c r="U75" s="16"/>
-      <c r="V75" s="16"/>
-      <c r="W75" s="16"/>
-      <c r="X75" s="16"/>
-      <c r="Y75" s="16"/>
-    </row>
-    <row r="76" spans="1:25" s="15" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A76" s="24" t="s">
+      <c r="G126" s="16"/>
+      <c r="H126" s="16"/>
+      <c r="I126" s="16"/>
+      <c r="J126" s="16"/>
+      <c r="K126" s="16"/>
+      <c r="L126" s="16"/>
+      <c r="M126" s="16"/>
+      <c r="N126" s="16"/>
+      <c r="O126" s="16"/>
+      <c r="P126" s="16"/>
+      <c r="Q126" s="16"/>
+      <c r="R126" s="16"/>
+      <c r="S126" s="16"/>
+      <c r="T126" s="16"/>
+      <c r="U126" s="16"/>
+      <c r="V126" s="16"/>
+      <c r="W126" s="16"/>
+      <c r="X126" s="16"/>
+      <c r="Y126" s="16"/>
+    </row>
+    <row r="127" spans="1:25" s="15" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A127" s="24" t="s">
         <v>50</v>
       </c>
-      <c r="B76" s="43" t="s">
+      <c r="B127" s="43" t="s">
         <v>183</v>
       </c>
-      <c r="C76" s="43" t="s">
+      <c r="C127" s="43" t="s">
         <v>184</v>
       </c>
-      <c r="D76" s="6"/>
-      <c r="E76" s="17" t="s">
+      <c r="D127" s="6"/>
+      <c r="E127" s="17" t="s">
         <v>235</v>
       </c>
-      <c r="F76" s="16" t="s">
+      <c r="F127" s="16" t="s">
         <v>83</v>
       </c>
-      <c r="G76" s="16"/>
-      <c r="H76" s="16"/>
-      <c r="I76" s="16"/>
-      <c r="J76" s="16"/>
-      <c r="K76" s="16"/>
-      <c r="L76" s="16"/>
-      <c r="M76" s="16"/>
-      <c r="N76" s="16"/>
-      <c r="O76" s="16"/>
-      <c r="P76" s="16"/>
-      <c r="Q76" s="16"/>
-      <c r="R76" s="16"/>
-      <c r="S76" s="16"/>
-      <c r="T76" s="16"/>
-      <c r="U76" s="16"/>
-      <c r="V76" s="16"/>
-      <c r="W76" s="16"/>
-      <c r="X76" s="16"/>
-      <c r="Y76" s="16"/>
-    </row>
-    <row r="77" spans="1:25" s="15" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A77" s="24" t="s">
+      <c r="G127" s="16"/>
+      <c r="H127" s="16"/>
+      <c r="I127" s="16"/>
+      <c r="J127" s="16"/>
+      <c r="K127" s="16"/>
+      <c r="L127" s="16"/>
+      <c r="M127" s="16"/>
+      <c r="N127" s="16"/>
+      <c r="O127" s="16"/>
+      <c r="P127" s="16"/>
+      <c r="Q127" s="16"/>
+      <c r="R127" s="16"/>
+      <c r="S127" s="16"/>
+      <c r="T127" s="16"/>
+      <c r="U127" s="16"/>
+      <c r="V127" s="16"/>
+      <c r="W127" s="16"/>
+      <c r="X127" s="16"/>
+      <c r="Y127" s="16"/>
+    </row>
+    <row r="128" spans="1:25" s="15" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A128" s="24" t="s">
         <v>50</v>
       </c>
-      <c r="B77" s="43" t="s">
+      <c r="B128" s="43" t="s">
         <v>185</v>
       </c>
-      <c r="C77" s="43" t="s">
+      <c r="C128" s="43" t="s">
         <v>186</v>
       </c>
-      <c r="D77" s="6"/>
-      <c r="E77" s="17" t="s">
+      <c r="D128" s="6"/>
+      <c r="E128" s="17" t="s">
         <v>236</v>
       </c>
-      <c r="F77" s="16" t="s">
+      <c r="F128" s="16" t="s">
         <v>83</v>
       </c>
-      <c r="G77" s="16"/>
-      <c r="H77" s="16"/>
-      <c r="I77" s="16"/>
-      <c r="J77" s="16"/>
-      <c r="K77" s="16"/>
-      <c r="L77" s="16"/>
-      <c r="M77" s="16"/>
-      <c r="N77" s="16"/>
-      <c r="O77" s="16"/>
-      <c r="P77" s="16"/>
-      <c r="Q77" s="16"/>
-      <c r="R77" s="16"/>
-      <c r="S77" s="16"/>
-      <c r="T77" s="16"/>
-      <c r="U77" s="16"/>
-      <c r="V77" s="16"/>
-      <c r="W77" s="16"/>
-      <c r="X77" s="16"/>
-      <c r="Y77" s="16"/>
-    </row>
-    <row r="78" spans="1:25" s="15" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A78" s="24" t="s">
+      <c r="G128" s="16"/>
+      <c r="H128" s="16"/>
+      <c r="I128" s="16"/>
+      <c r="J128" s="16"/>
+      <c r="K128" s="16"/>
+      <c r="L128" s="16"/>
+      <c r="M128" s="16"/>
+      <c r="N128" s="16"/>
+      <c r="O128" s="16"/>
+      <c r="P128" s="16"/>
+      <c r="Q128" s="16"/>
+      <c r="R128" s="16"/>
+      <c r="S128" s="16"/>
+      <c r="T128" s="16"/>
+      <c r="U128" s="16"/>
+      <c r="V128" s="16"/>
+      <c r="W128" s="16"/>
+      <c r="X128" s="16"/>
+      <c r="Y128" s="16"/>
+    </row>
+    <row r="129" spans="1:25" s="15" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A129" s="24" t="s">
         <v>50</v>
       </c>
-      <c r="B78" s="43" t="s">
+      <c r="B129" s="43" t="s">
         <v>101</v>
       </c>
-      <c r="C78" s="43" t="s">
+      <c r="C129" s="43" t="s">
         <v>85</v>
       </c>
-      <c r="D78" s="6"/>
-      <c r="E78" s="17" t="s">
+      <c r="D129" s="6"/>
+      <c r="E129" s="17" t="s">
         <v>237</v>
       </c>
-      <c r="F78" s="16" t="s">
+      <c r="F129" s="16" t="s">
         <v>83</v>
       </c>
-      <c r="G78" s="16"/>
-      <c r="H78" s="16"/>
-      <c r="I78" s="16"/>
-      <c r="J78" s="16"/>
-      <c r="K78" s="16"/>
-      <c r="L78" s="16"/>
-      <c r="M78" s="16"/>
-      <c r="N78" s="16"/>
-      <c r="O78" s="16"/>
-      <c r="P78" s="16"/>
-      <c r="Q78" s="16"/>
-      <c r="R78" s="16"/>
-      <c r="S78" s="16"/>
-      <c r="T78" s="16"/>
-      <c r="U78" s="16"/>
-      <c r="V78" s="16"/>
-      <c r="W78" s="16"/>
-      <c r="X78" s="16"/>
-      <c r="Y78" s="16"/>
-    </row>
-    <row r="79" spans="1:25" s="15" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A79" s="24" t="s">
+      <c r="G129" s="16"/>
+      <c r="H129" s="16"/>
+      <c r="I129" s="16"/>
+      <c r="J129" s="16"/>
+      <c r="K129" s="16"/>
+      <c r="L129" s="16"/>
+      <c r="M129" s="16"/>
+      <c r="N129" s="16"/>
+      <c r="O129" s="16"/>
+      <c r="P129" s="16"/>
+      <c r="Q129" s="16"/>
+      <c r="R129" s="16"/>
+      <c r="S129" s="16"/>
+      <c r="T129" s="16"/>
+      <c r="U129" s="16"/>
+      <c r="V129" s="16"/>
+      <c r="W129" s="16"/>
+      <c r="X129" s="16"/>
+      <c r="Y129" s="16"/>
+    </row>
+    <row r="130" spans="1:25" s="15" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A130" s="24" t="s">
         <v>50</v>
       </c>
-      <c r="B79" s="43" t="s">
+      <c r="B130" s="43" t="s">
         <v>30</v>
       </c>
-      <c r="C79" s="43" t="s">
+      <c r="C130" s="43" t="s">
         <v>187</v>
       </c>
-      <c r="D79" s="6"/>
-      <c r="E79" s="17" t="s">
+      <c r="D130" s="6"/>
+      <c r="E130" s="17" t="s">
         <v>238</v>
       </c>
-      <c r="F79" s="16" t="s">
+      <c r="F130" s="16" t="s">
         <v>83</v>
       </c>
-      <c r="G79" s="16"/>
-      <c r="H79" s="16"/>
-      <c r="I79" s="16"/>
-      <c r="J79" s="16"/>
-      <c r="K79" s="16"/>
-      <c r="L79" s="16"/>
-      <c r="M79" s="16"/>
-      <c r="N79" s="16"/>
-      <c r="O79" s="16"/>
-      <c r="P79" s="16"/>
-      <c r="Q79" s="16"/>
-      <c r="R79" s="16"/>
-      <c r="S79" s="16"/>
-      <c r="T79" s="16"/>
-      <c r="U79" s="16"/>
-      <c r="V79" s="16"/>
-      <c r="W79" s="16"/>
-      <c r="X79" s="16"/>
-      <c r="Y79" s="16"/>
-    </row>
-    <row r="80" spans="1:25" s="15" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A80" s="24" t="s">
+      <c r="G130" s="16"/>
+      <c r="H130" s="16"/>
+      <c r="I130" s="16"/>
+      <c r="J130" s="16"/>
+      <c r="K130" s="16"/>
+      <c r="L130" s="16"/>
+      <c r="M130" s="16"/>
+      <c r="N130" s="16"/>
+      <c r="O130" s="16"/>
+      <c r="P130" s="16"/>
+      <c r="Q130" s="16"/>
+      <c r="R130" s="16"/>
+      <c r="S130" s="16"/>
+      <c r="T130" s="16"/>
+      <c r="U130" s="16"/>
+      <c r="V130" s="16"/>
+      <c r="W130" s="16"/>
+      <c r="X130" s="16"/>
+      <c r="Y130" s="16"/>
+    </row>
+    <row r="131" spans="1:25" s="15" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A131" s="24" t="s">
         <v>50</v>
       </c>
-      <c r="B80" s="45" t="s">
+      <c r="B131" s="45" t="s">
         <v>189</v>
       </c>
-      <c r="C80" s="45" t="s">
+      <c r="C131" s="45" t="s">
         <v>190</v>
       </c>
-      <c r="D80" s="6"/>
-      <c r="E80" s="17" t="s">
+      <c r="D131" s="6"/>
+      <c r="E131" s="17" t="s">
         <v>239</v>
       </c>
-      <c r="F80" s="16" t="s">
+      <c r="F131" s="16" t="s">
         <v>83</v>
       </c>
-      <c r="G80" s="16"/>
-      <c r="H80" s="16"/>
-      <c r="I80" s="16"/>
-      <c r="J80" s="16"/>
-      <c r="K80" s="16"/>
-      <c r="L80" s="16"/>
-      <c r="M80" s="16"/>
-      <c r="N80" s="16"/>
-      <c r="O80" s="16"/>
-      <c r="P80" s="16"/>
-      <c r="Q80" s="16"/>
-      <c r="R80" s="16"/>
-      <c r="S80" s="16"/>
-      <c r="T80" s="16"/>
-      <c r="U80" s="16"/>
-      <c r="V80" s="16"/>
-      <c r="W80" s="16"/>
-      <c r="X80" s="16"/>
-      <c r="Y80" s="16"/>
-    </row>
-    <row r="81" spans="1:25" s="15" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A81" s="24" t="s">
+      <c r="G131" s="16"/>
+      <c r="H131" s="16"/>
+      <c r="I131" s="16"/>
+      <c r="J131" s="16"/>
+      <c r="K131" s="16"/>
+      <c r="L131" s="16"/>
+      <c r="M131" s="16"/>
+      <c r="N131" s="16"/>
+      <c r="O131" s="16"/>
+      <c r="P131" s="16"/>
+      <c r="Q131" s="16"/>
+      <c r="R131" s="16"/>
+      <c r="S131" s="16"/>
+      <c r="T131" s="16"/>
+      <c r="U131" s="16"/>
+      <c r="V131" s="16"/>
+      <c r="W131" s="16"/>
+      <c r="X131" s="16"/>
+      <c r="Y131" s="16"/>
+    </row>
+    <row r="132" spans="1:25" s="15" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A132" s="24" t="s">
         <v>50</v>
       </c>
-      <c r="B81" s="45" t="s">
+      <c r="B132" s="45" t="s">
         <v>191</v>
       </c>
-      <c r="C81" s="45" t="s">
+      <c r="C132" s="45" t="s">
         <v>192</v>
       </c>
-      <c r="D81" s="6"/>
-      <c r="E81" s="17" t="s">
+      <c r="D132" s="6"/>
+      <c r="E132" s="17" t="s">
         <v>240</v>
       </c>
-      <c r="F81" s="16" t="s">
+      <c r="F132" s="16" t="s">
         <v>83</v>
       </c>
-      <c r="G81" s="16"/>
-      <c r="H81" s="16"/>
-      <c r="I81" s="16"/>
-      <c r="J81" s="16"/>
-      <c r="K81" s="16"/>
-      <c r="L81" s="16"/>
-      <c r="M81" s="16"/>
-      <c r="N81" s="16"/>
-      <c r="O81" s="16"/>
-      <c r="P81" s="16"/>
-      <c r="Q81" s="16"/>
-      <c r="R81" s="16"/>
-      <c r="S81" s="16"/>
-      <c r="T81" s="16"/>
-      <c r="U81" s="16"/>
-      <c r="V81" s="16"/>
-      <c r="W81" s="16"/>
-      <c r="X81" s="16"/>
-      <c r="Y81" s="16"/>
-    </row>
-    <row r="82" spans="1:25" s="15" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A82" s="24" t="s">
+      <c r="G132" s="16"/>
+      <c r="H132" s="16"/>
+      <c r="I132" s="16"/>
+      <c r="J132" s="16"/>
+      <c r="K132" s="16"/>
+      <c r="L132" s="16"/>
+      <c r="M132" s="16"/>
+      <c r="N132" s="16"/>
+      <c r="O132" s="16"/>
+      <c r="P132" s="16"/>
+      <c r="Q132" s="16"/>
+      <c r="R132" s="16"/>
+      <c r="S132" s="16"/>
+      <c r="T132" s="16"/>
+      <c r="U132" s="16"/>
+      <c r="V132" s="16"/>
+      <c r="W132" s="16"/>
+      <c r="X132" s="16"/>
+      <c r="Y132" s="16"/>
+    </row>
+    <row r="133" spans="1:25" s="15" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A133" s="24" t="s">
         <v>50</v>
       </c>
-      <c r="B82" s="45" t="s">
+      <c r="B133" s="45" t="s">
         <v>193</v>
       </c>
-      <c r="C82" s="45" t="s">
+      <c r="C133" s="45" t="s">
         <v>194</v>
       </c>
-      <c r="D82" s="6"/>
-      <c r="E82" s="17" t="s">
+      <c r="D133" s="6"/>
+      <c r="E133" s="17" t="s">
         <v>241</v>
       </c>
-      <c r="F82" s="16" t="s">
+      <c r="F133" s="16" t="s">
         <v>83</v>
       </c>
-      <c r="G82" s="16"/>
-      <c r="H82" s="16"/>
-      <c r="I82" s="16"/>
-      <c r="J82" s="16"/>
-      <c r="K82" s="16"/>
-      <c r="L82" s="16"/>
-      <c r="M82" s="16"/>
-      <c r="N82" s="16"/>
-      <c r="O82" s="16"/>
-      <c r="P82" s="16"/>
-      <c r="Q82" s="16"/>
-      <c r="R82" s="16"/>
-      <c r="S82" s="16"/>
-      <c r="T82" s="16"/>
-      <c r="U82" s="16"/>
-      <c r="V82" s="16"/>
-      <c r="W82" s="16"/>
-      <c r="X82" s="16"/>
-      <c r="Y82" s="16"/>
-    </row>
-    <row r="83" spans="1:25" s="15" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A83" s="24" t="s">
+      <c r="G133" s="16"/>
+      <c r="H133" s="16"/>
+      <c r="I133" s="16"/>
+      <c r="J133" s="16"/>
+      <c r="K133" s="16"/>
+      <c r="L133" s="16"/>
+      <c r="M133" s="16"/>
+      <c r="N133" s="16"/>
+      <c r="O133" s="16"/>
+      <c r="P133" s="16"/>
+      <c r="Q133" s="16"/>
+      <c r="R133" s="16"/>
+      <c r="S133" s="16"/>
+      <c r="T133" s="16"/>
+      <c r="U133" s="16"/>
+      <c r="V133" s="16"/>
+      <c r="W133" s="16"/>
+      <c r="X133" s="16"/>
+      <c r="Y133" s="16"/>
+    </row>
+    <row r="134" spans="1:25" s="15" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A134" s="24" t="s">
         <v>50</v>
       </c>
-      <c r="B83" s="24"/>
-      <c r="C83" s="31"/>
-      <c r="D83" s="6"/>
-      <c r="E83" s="17"/>
-      <c r="F83" s="16"/>
-      <c r="G83" s="16"/>
-      <c r="H83" s="16"/>
-      <c r="I83" s="16"/>
-      <c r="J83" s="16"/>
-      <c r="K83" s="16"/>
-      <c r="L83" s="16"/>
-      <c r="M83" s="16"/>
-      <c r="N83" s="16"/>
-      <c r="O83" s="16"/>
-      <c r="P83" s="16"/>
-      <c r="Q83" s="16"/>
-      <c r="R83" s="16"/>
-      <c r="S83" s="16"/>
-      <c r="T83" s="16"/>
-      <c r="U83" s="16"/>
-      <c r="V83" s="16"/>
-      <c r="W83" s="16"/>
-      <c r="X83" s="16"/>
-      <c r="Y83" s="16"/>
-    </row>
-    <row r="84" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A84" s="24" t="s">
+      <c r="B134" s="24"/>
+      <c r="C134" s="31"/>
+      <c r="D134" s="6"/>
+      <c r="E134" s="17"/>
+      <c r="F134" s="16"/>
+      <c r="G134" s="16"/>
+      <c r="H134" s="16"/>
+      <c r="I134" s="16"/>
+      <c r="J134" s="16"/>
+      <c r="K134" s="16"/>
+      <c r="L134" s="16"/>
+      <c r="M134" s="16"/>
+      <c r="N134" s="16"/>
+      <c r="O134" s="16"/>
+      <c r="P134" s="16"/>
+      <c r="Q134" s="16"/>
+      <c r="R134" s="16"/>
+      <c r="S134" s="16"/>
+      <c r="T134" s="16"/>
+      <c r="U134" s="16"/>
+      <c r="V134" s="16"/>
+      <c r="W134" s="16"/>
+      <c r="X134" s="16"/>
+      <c r="Y134" s="16"/>
+    </row>
+    <row r="135" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A135" s="24" t="s">
         <v>50</v>
       </c>
-      <c r="B84" s="24" t="s">
+      <c r="B135" s="24" t="s">
         <v>86</v>
       </c>
-      <c r="C84" s="17" t="s">
+      <c r="C135" s="17" t="s">
         <v>87</v>
       </c>
-      <c r="D84" s="6"/>
-      <c r="E84" s="17"/>
-      <c r="F84" s="32"/>
-      <c r="G84" s="32"/>
-      <c r="H84" s="32"/>
-      <c r="I84" s="24"/>
-      <c r="J84" s="32"/>
-      <c r="K84" s="32"/>
-      <c r="L84" s="32"/>
-      <c r="M84" s="32"/>
-      <c r="N84" s="32"/>
-      <c r="O84" s="32"/>
-      <c r="P84" s="32"/>
-      <c r="Q84" s="32"/>
-      <c r="R84" s="32"/>
-      <c r="S84" s="32"/>
-      <c r="T84" s="32"/>
-      <c r="U84" s="32"/>
-      <c r="V84" s="32"/>
-      <c r="W84" s="32"/>
-      <c r="X84" s="32"/>
-      <c r="Y84" s="32"/>
-    </row>
-    <row r="85" spans="1:25" s="15" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A85" s="33" t="s">
+      <c r="D135" s="6"/>
+      <c r="E135" s="17"/>
+      <c r="F135" s="32"/>
+      <c r="G135" s="32"/>
+      <c r="H135" s="32"/>
+      <c r="I135" s="24"/>
+      <c r="J135" s="32"/>
+      <c r="K135" s="32"/>
+      <c r="L135" s="32"/>
+      <c r="M135" s="32"/>
+      <c r="N135" s="32"/>
+      <c r="O135" s="32"/>
+      <c r="P135" s="32"/>
+      <c r="Q135" s="32"/>
+      <c r="R135" s="32"/>
+      <c r="S135" s="32"/>
+      <c r="T135" s="32"/>
+      <c r="U135" s="32"/>
+      <c r="V135" s="32"/>
+      <c r="W135" s="32"/>
+      <c r="X135" s="32"/>
+      <c r="Y135" s="32"/>
+    </row>
+    <row r="136" spans="1:25" s="15" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A136" s="33" t="s">
         <v>50</v>
       </c>
-      <c r="B85" s="33" t="s">
+      <c r="B136" s="33" t="s">
         <v>88</v>
       </c>
-      <c r="C85" s="34" t="s">
+      <c r="C136" s="34" t="s">
         <v>89</v>
       </c>
-      <c r="D85" s="33"/>
-      <c r="E85" s="33" t="s">
+      <c r="D136" s="33"/>
+      <c r="E136" s="33" t="s">
         <v>62</v>
       </c>
-      <c r="F85" s="33" t="s">
+      <c r="F136" s="33" t="s">
         <v>90</v>
       </c>
-      <c r="G85" s="33"/>
-      <c r="H85" s="33"/>
-      <c r="I85" s="33"/>
-      <c r="J85" s="33"/>
-      <c r="K85" s="33"/>
-      <c r="L85" s="33"/>
-      <c r="M85" s="33"/>
-      <c r="N85" s="33"/>
-      <c r="O85" s="33"/>
-      <c r="P85" s="33"/>
-      <c r="Q85" s="33"/>
-      <c r="R85" s="33"/>
-      <c r="S85" s="33"/>
-      <c r="T85" s="33"/>
-      <c r="U85" s="33"/>
-      <c r="V85" s="33"/>
-      <c r="W85" s="33"/>
-      <c r="X85" s="33"/>
-      <c r="Y85" s="33"/>
-    </row>
-    <row r="86" spans="1:25" s="15" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A86" s="5" t="s">
+      <c r="G136" s="33"/>
+      <c r="H136" s="33"/>
+      <c r="I136" s="33"/>
+      <c r="J136" s="33"/>
+      <c r="K136" s="33"/>
+      <c r="L136" s="33"/>
+      <c r="M136" s="33"/>
+      <c r="N136" s="33"/>
+      <c r="O136" s="33"/>
+      <c r="P136" s="33"/>
+      <c r="Q136" s="33"/>
+      <c r="R136" s="33"/>
+      <c r="S136" s="33"/>
+      <c r="T136" s="33"/>
+      <c r="U136" s="33"/>
+      <c r="V136" s="33"/>
+      <c r="W136" s="33"/>
+      <c r="X136" s="33"/>
+      <c r="Y136" s="33"/>
+    </row>
+    <row r="137" spans="1:25" s="15" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A137" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="B86" s="5"/>
-      <c r="C86" s="5"/>
-      <c r="D86" s="5"/>
-      <c r="E86" s="5"/>
-      <c r="F86" s="5"/>
-      <c r="G86" s="5"/>
-      <c r="H86" s="5"/>
-      <c r="I86" s="5"/>
-      <c r="J86" s="5"/>
-      <c r="K86" s="5"/>
-      <c r="L86" s="5"/>
-      <c r="M86" s="5"/>
-      <c r="N86" s="16"/>
-      <c r="O86" s="16"/>
-      <c r="P86" s="16"/>
-      <c r="Q86" s="16"/>
-      <c r="R86" s="16"/>
-      <c r="S86" s="16"/>
-      <c r="T86" s="16"/>
-      <c r="U86" s="16"/>
-      <c r="V86" s="16"/>
-      <c r="W86" s="16"/>
-      <c r="X86" s="16"/>
-      <c r="Y86" s="16"/>
-    </row>
-    <row r="87" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="88" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="89" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="90" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="91" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="92" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A92" s="51"/>
-      <c r="B92" s="51"/>
-      <c r="C92" s="51"/>
-      <c r="D92" s="51"/>
-      <c r="E92" s="51"/>
-      <c r="F92" s="51"/>
-    </row>
-    <row r="93" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="94" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="95" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="96" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="97" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="98" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="99" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="100" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="101" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="102" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="103" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="104" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="105" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="106" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="107" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="108" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="109" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="110" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="111" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="112" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="113" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="114" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="115" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="116" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="117" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="118" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="119" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="120" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="121" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="122" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="123" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="124" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="125" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="126" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="127" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="128" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="129" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="130" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="131" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="132" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="133" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="134" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="135" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="136" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="137" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="138" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="139" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="140" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="141" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="142" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="143" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="144" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+      <c r="B137" s="5"/>
+      <c r="C137" s="5"/>
+      <c r="D137" s="5"/>
+      <c r="E137" s="5"/>
+      <c r="F137" s="5"/>
+      <c r="G137" s="5"/>
+      <c r="H137" s="5"/>
+      <c r="I137" s="5"/>
+      <c r="J137" s="5"/>
+      <c r="K137" s="5"/>
+      <c r="L137" s="5"/>
+      <c r="M137" s="5"/>
+      <c r="N137" s="16"/>
+      <c r="O137" s="16"/>
+      <c r="P137" s="16"/>
+      <c r="Q137" s="16"/>
+      <c r="R137" s="16"/>
+      <c r="S137" s="16"/>
+      <c r="T137" s="16"/>
+      <c r="U137" s="16"/>
+      <c r="V137" s="16"/>
+      <c r="W137" s="16"/>
+      <c r="X137" s="16"/>
+      <c r="Y137" s="16"/>
+    </row>
+    <row r="138" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="139" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="140" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="141" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="142" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="143" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A143" s="51"/>
+      <c r="B143" s="51"/>
+      <c r="C143" s="51"/>
+      <c r="D143" s="51"/>
+      <c r="E143" s="51"/>
+      <c r="F143" s="51"/>
+    </row>
+    <row r="144" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="145" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="146" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="147" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -4496,25 +5795,76 @@
     <row r="618" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="619" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="620" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="621" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="622" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="623" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="624" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="625" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="626" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="627" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="628" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="629" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="630" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="631" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="632" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="633" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="634" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="635" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="636" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="637" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="638" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="639" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="640" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="641" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="642" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="643" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="644" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="645" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="646" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="647" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="648" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="649" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="650" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="651" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="652" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="653" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="654" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="655" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="656" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="657" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="658" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="659" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="660" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="661" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="662" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="663" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="664" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="665" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="666" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="667" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="668" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="669" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="670" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="671" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
   </sheetData>
-  <conditionalFormatting sqref="A61">
+  <conditionalFormatting sqref="A112">
     <cfRule type="cellIs" dxfId="2" priority="2" operator="equal">
       <formula>"begin group"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A62">
+  <conditionalFormatting sqref="A113">
     <cfRule type="cellIs" dxfId="1" priority="3" operator="equal">
       <formula>"begin group"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A66">
+  <conditionalFormatting sqref="A117">
     <cfRule type="cellIs" dxfId="0" priority="4" operator="equal">
       <formula>"begin group"</formula>
     </cfRule>
   </conditionalFormatting>
   <hyperlinks>
-    <hyperlink ref="C30" r:id="rId1" display="mailto:info@agra.org"/>
-    <hyperlink ref="A9" r:id="rId2"/>
+    <hyperlink ref="C81" r:id="rId1" display="mailto:info@agra.org"/>
+    <hyperlink ref="A11" r:id="rId2"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId3"/>

--- a/config-boda-moh-ke-master/forms/app/case_investigation.xlsx
+++ b/config-boda-moh-ke-master/forms/app/case_investigation.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="581" uniqueCount="338">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="580" uniqueCount="338">
   <si>
     <t>type</t>
   </si>
@@ -1230,7 +1230,7 @@
       <charset val="1"/>
     </font>
   </fonts>
-  <fills count="12">
+  <fills count="13">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1297,6 +1297,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor rgb="FFCC99FF"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -1311,7 +1317,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="53">
+  <cellXfs count="55">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1383,6 +1389,8 @@
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Explanatory Text" xfId="1" builtinId="53" customBuiltin="1"/>
@@ -1785,11 +1793,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Z671"/>
+  <dimension ref="A1:Z670"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I17" sqref="I17"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A47" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C56" sqref="C56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2139,26 +2147,26 @@
       <c r="Y9" s="3"/>
       <c r="Z9" s="3"/>
     </row>
-    <row r="10" spans="1:26" s="50" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="4" t="s">
+    <row r="10" spans="1:26" s="54" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="53" t="s">
         <v>17</v>
       </c>
-      <c r="B10" s="4" t="s">
+      <c r="B10" s="53" t="s">
         <v>30</v>
       </c>
-      <c r="C10" s="4" t="s">
+      <c r="C10" s="53" t="s">
         <v>249</v>
       </c>
-      <c r="D10" s="4"/>
-      <c r="E10" s="4"/>
-      <c r="F10" s="4"/>
-      <c r="G10" s="4"/>
-      <c r="H10" s="4"/>
-      <c r="I10" s="4"/>
-      <c r="J10" s="4"/>
-      <c r="K10" s="4"/>
-      <c r="L10" s="4"/>
-      <c r="M10" s="4"/>
+      <c r="D10" s="53"/>
+      <c r="E10" s="53"/>
+      <c r="F10" s="53"/>
+      <c r="G10" s="53"/>
+      <c r="H10" s="53"/>
+      <c r="I10" s="53"/>
+      <c r="J10" s="53"/>
+      <c r="K10" s="53"/>
+      <c r="L10" s="53"/>
+      <c r="M10" s="53"/>
     </row>
     <row r="11" spans="1:26" s="50" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="51" t="s">
@@ -3161,27 +3169,25 @@
       <c r="L57" s="51"/>
       <c r="M57" s="51"/>
     </row>
-    <row r="58" spans="1:26" s="50" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A58" s="4" t="s">
+    <row r="58" spans="1:26" s="54" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A58" s="53" t="s">
         <v>29</v>
       </c>
-      <c r="B58" s="4"/>
-      <c r="C58" s="4"/>
-      <c r="D58" s="4"/>
-      <c r="E58" s="4"/>
-      <c r="F58" s="4"/>
-      <c r="G58" s="4"/>
-      <c r="H58" s="4"/>
-      <c r="I58" s="4"/>
-      <c r="J58" s="4"/>
-      <c r="K58" s="4"/>
-      <c r="L58" s="4"/>
-      <c r="M58" s="4"/>
+      <c r="B58" s="53"/>
+      <c r="C58" s="53"/>
+      <c r="D58" s="53"/>
+      <c r="E58" s="53"/>
+      <c r="F58" s="53"/>
+      <c r="G58" s="53"/>
+      <c r="H58" s="53"/>
+      <c r="I58" s="53"/>
+      <c r="J58" s="53"/>
+      <c r="K58" s="53"/>
+      <c r="L58" s="53"/>
+      <c r="M58" s="53"/>
     </row>
     <row r="59" spans="1:26" s="50" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A59" s="4" t="s">
-        <v>29</v>
-      </c>
+      <c r="A59" s="51"/>
       <c r="B59" s="51"/>
       <c r="C59" s="51"/>
       <c r="D59" s="51"/>
@@ -3189,21 +3195,46 @@
       <c r="F59" s="51"/>
       <c r="K59" s="51"/>
     </row>
-    <row r="60" spans="1:26" s="50" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A60" s="51"/>
-      <c r="B60" s="51"/>
-      <c r="C60" s="51"/>
-      <c r="D60" s="51"/>
-      <c r="E60" s="51"/>
-      <c r="F60" s="51"/>
-      <c r="K60" s="51"/>
+    <row r="60" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A60" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="B60" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="C60" s="11"/>
+      <c r="D60" s="11"/>
+      <c r="E60" s="11"/>
+      <c r="F60" s="11"/>
+      <c r="G60" s="11"/>
+      <c r="H60" s="11"/>
+      <c r="I60" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="J60" s="11"/>
+      <c r="K60" s="11"/>
+      <c r="L60" s="11"/>
+      <c r="M60" s="11"/>
+      <c r="N60" s="11"/>
+      <c r="O60" s="11"/>
+      <c r="P60" s="11"/>
+      <c r="Q60" s="11"/>
+      <c r="R60" s="11"/>
+      <c r="S60" s="11"/>
+      <c r="T60" s="11"/>
+      <c r="U60" s="11"/>
+      <c r="V60" s="11"/>
+      <c r="W60" s="11"/>
+      <c r="X60" s="11"/>
+      <c r="Y60" s="11"/>
+      <c r="Z60" s="11"/>
     </row>
     <row r="61" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A61" s="11" t="s">
         <v>32</v>
       </c>
       <c r="B61" s="11" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="C61" s="11"/>
       <c r="D61" s="11"/>
@@ -3212,7 +3243,7 @@
       <c r="G61" s="11"/>
       <c r="H61" s="11"/>
       <c r="I61" s="11" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="J61" s="11"/>
       <c r="K61" s="11"/>
@@ -3232,49 +3263,26 @@
       <c r="Y61" s="11"/>
       <c r="Z61" s="11"/>
     </row>
-    <row r="62" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:26" s="11" customFormat="1" ht="12.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A62" s="11" t="s">
         <v>32</v>
       </c>
       <c r="B62" s="11" t="s">
-        <v>35</v>
-      </c>
-      <c r="C62" s="11"/>
-      <c r="D62" s="11"/>
-      <c r="E62" s="11"/>
-      <c r="F62" s="11"/>
-      <c r="G62" s="11"/>
-      <c r="H62" s="11"/>
-      <c r="I62" s="11" t="s">
-        <v>36</v>
-      </c>
-      <c r="J62" s="11"/>
-      <c r="K62" s="11"/>
-      <c r="L62" s="11"/>
-      <c r="M62" s="11"/>
-      <c r="N62" s="11"/>
-      <c r="O62" s="11"/>
-      <c r="P62" s="11"/>
-      <c r="Q62" s="11"/>
-      <c r="R62" s="11"/>
-      <c r="S62" s="11"/>
-      <c r="T62" s="11"/>
-      <c r="U62" s="11"/>
-      <c r="V62" s="11"/>
-      <c r="W62" s="11"/>
-      <c r="X62" s="11"/>
-      <c r="Y62" s="11"/>
-      <c r="Z62" s="11"/>
+        <v>38</v>
+      </c>
+      <c r="I62" s="12" t="s">
+        <v>39</v>
+      </c>
     </row>
     <row r="63" spans="1:26" s="11" customFormat="1" ht="12.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A63" s="11" t="s">
         <v>32</v>
       </c>
       <c r="B63" s="11" t="s">
-        <v>38</v>
-      </c>
-      <c r="I63" s="12" t="s">
-        <v>39</v>
+        <v>40</v>
+      </c>
+      <c r="I63" s="13" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="64" spans="1:26" s="11" customFormat="1" ht="12.9" customHeight="1" x14ac:dyDescent="0.3">
@@ -3282,71 +3290,74 @@
         <v>32</v>
       </c>
       <c r="B64" s="11" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="I64" s="13" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="65" spans="1:26" s="11" customFormat="1" ht="12.9" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A65" s="11" t="s">
-        <v>32</v>
-      </c>
-      <c r="B65" s="11" t="s">
-        <v>42</v>
-      </c>
-      <c r="I65" s="13" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="66" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A66" s="4" t="s">
+    <row r="65" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A65" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="B66" s="4" t="s">
+      <c r="B65" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="C66" s="4" t="s">
+      <c r="C65" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="D66" s="4"/>
-      <c r="E66" s="4"/>
-      <c r="F66" s="4" t="s">
+      <c r="D65" s="4"/>
+      <c r="E65" s="4"/>
+      <c r="F65" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="G66" s="4"/>
-      <c r="H66" s="4"/>
-      <c r="I66" s="4"/>
-      <c r="J66" s="4"/>
-      <c r="K66" s="4"/>
-      <c r="L66" s="4"/>
-      <c r="M66" s="4"/>
-      <c r="N66" s="4"/>
-      <c r="O66" s="4"/>
-      <c r="P66" s="4"/>
-      <c r="Q66" s="4"/>
-      <c r="R66" s="4"/>
-      <c r="S66" s="4"/>
-      <c r="T66" s="4"/>
-      <c r="U66" s="4"/>
-      <c r="V66" s="4"/>
-      <c r="W66" s="4"/>
-      <c r="X66" s="4"/>
-      <c r="Y66" s="4"/>
-      <c r="Z66" s="4"/>
+      <c r="G65" s="4"/>
+      <c r="H65" s="4"/>
+      <c r="I65" s="4"/>
+      <c r="J65" s="4"/>
+      <c r="K65" s="4"/>
+      <c r="L65" s="4"/>
+      <c r="M65" s="4"/>
+      <c r="N65" s="4"/>
+      <c r="O65" s="4"/>
+      <c r="P65" s="4"/>
+      <c r="Q65" s="4"/>
+      <c r="R65" s="4"/>
+      <c r="S65" s="4"/>
+      <c r="T65" s="4"/>
+      <c r="U65" s="4"/>
+      <c r="V65" s="4"/>
+      <c r="W65" s="4"/>
+      <c r="X65" s="4"/>
+      <c r="Y65" s="4"/>
+      <c r="Z65" s="4"/>
+    </row>
+    <row r="66" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A66" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="B66" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="C66" t="s">
+        <v>52</v>
+      </c>
+      <c r="E66" t="s">
+        <v>53</v>
+      </c>
     </row>
     <row r="67" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A67" s="6" t="s">
         <v>50</v>
       </c>
       <c r="B67" s="6" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="C67" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="E67" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
     </row>
     <row r="68" spans="1:26" x14ac:dyDescent="0.3">
@@ -3354,132 +3365,151 @@
         <v>50</v>
       </c>
       <c r="B68" s="6" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="C68" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="E68" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="69" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A69" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="B69" s="6" t="s">
-        <v>57</v>
-      </c>
-      <c r="C69" t="s">
-        <v>58</v>
-      </c>
-      <c r="E69" t="s">
         <v>59</v>
       </c>
     </row>
+    <row r="69" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A69" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="B69" s="4"/>
+      <c r="C69" s="4"/>
+      <c r="D69" s="4"/>
+      <c r="E69" s="4"/>
+      <c r="F69" s="4"/>
+      <c r="G69" s="4"/>
+      <c r="H69" s="4"/>
+      <c r="I69" s="4"/>
+      <c r="J69" s="4"/>
+      <c r="K69" s="4"/>
+      <c r="L69" s="4"/>
+      <c r="M69" s="4"/>
+      <c r="N69" s="4"/>
+      <c r="O69" s="4"/>
+      <c r="P69" s="4"/>
+      <c r="Q69" s="4"/>
+      <c r="R69" s="4"/>
+      <c r="S69" s="4"/>
+      <c r="T69" s="4"/>
+      <c r="U69" s="4"/>
+      <c r="V69" s="4"/>
+      <c r="W69" s="4"/>
+      <c r="X69" s="4"/>
+      <c r="Y69" s="4"/>
+      <c r="Z69" s="4"/>
+    </row>
     <row r="70" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A70" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="B70" s="4"/>
-      <c r="C70" s="4"/>
-      <c r="D70" s="4"/>
-      <c r="E70" s="4"/>
-      <c r="F70" s="4"/>
-      <c r="G70" s="4"/>
-      <c r="H70" s="4"/>
-      <c r="I70" s="4"/>
-      <c r="J70" s="4"/>
-      <c r="K70" s="4"/>
-      <c r="L70" s="4"/>
-      <c r="M70" s="4"/>
-      <c r="N70" s="4"/>
-      <c r="O70" s="4"/>
-      <c r="P70" s="4"/>
-      <c r="Q70" s="4"/>
-      <c r="R70" s="4"/>
-      <c r="S70" s="4"/>
-      <c r="T70" s="4"/>
-      <c r="U70" s="4"/>
-      <c r="V70" s="4"/>
+      <c r="A70" s="6"/>
+      <c r="B70" s="6"/>
+      <c r="C70" s="6"/>
+      <c r="D70" s="6"/>
+      <c r="E70" s="6"/>
+      <c r="F70" s="6"/>
+      <c r="G70" s="6"/>
+      <c r="H70" s="6"/>
+      <c r="I70" s="6"/>
+      <c r="J70" s="6"/>
+      <c r="K70" s="6"/>
+      <c r="L70" s="6"/>
+      <c r="M70" s="6"/>
+      <c r="N70" s="6"/>
+      <c r="O70" s="6"/>
+      <c r="P70" s="6"/>
+      <c r="Q70" s="6"/>
+      <c r="R70" s="6"/>
+      <c r="S70" s="6"/>
+      <c r="T70" s="6"/>
+      <c r="U70" s="6"/>
+      <c r="V70" s="6"/>
       <c r="W70" s="4"/>
       <c r="X70" s="4"/>
       <c r="Y70" s="4"/>
       <c r="Z70" s="4"/>
     </row>
     <row r="71" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A71" s="6"/>
-      <c r="B71" s="6"/>
-      <c r="C71" s="6"/>
-      <c r="D71" s="6"/>
-      <c r="E71" s="6"/>
-      <c r="F71" s="6"/>
-      <c r="G71" s="6"/>
-      <c r="H71" s="6"/>
-      <c r="I71" s="6"/>
-      <c r="J71" s="6"/>
-      <c r="K71" s="6"/>
-      <c r="L71" s="6"/>
-      <c r="M71" s="6"/>
-      <c r="N71" s="6"/>
-      <c r="O71" s="6"/>
-      <c r="P71" s="6"/>
-      <c r="Q71" s="6"/>
-      <c r="R71" s="6"/>
-      <c r="S71" s="6"/>
-      <c r="T71" s="6"/>
-      <c r="U71" s="6"/>
-      <c r="V71" s="6"/>
+      <c r="A71" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B71" s="4" t="s">
+        <v>157</v>
+      </c>
+      <c r="C71" s="4" t="s">
+        <v>156</v>
+      </c>
+      <c r="D71" s="4"/>
+      <c r="E71" s="4"/>
+      <c r="F71" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="G71" s="4"/>
+      <c r="H71" s="4"/>
+      <c r="I71" s="4"/>
+      <c r="J71" s="4"/>
+      <c r="K71" s="4"/>
+      <c r="L71" s="4"/>
+      <c r="M71" s="4"/>
+      <c r="N71" s="4"/>
+      <c r="O71" s="4"/>
+      <c r="P71" s="4"/>
+      <c r="Q71" s="4"/>
+      <c r="R71" s="4"/>
+      <c r="S71" s="4"/>
+      <c r="T71" s="4"/>
+      <c r="U71" s="4"/>
+      <c r="V71" s="4"/>
       <c r="W71" s="4"/>
       <c r="X71" s="4"/>
       <c r="Y71" s="4"/>
       <c r="Z71" s="4"/>
     </row>
-    <row r="72" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A72" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="B72" s="4" t="s">
-        <v>157</v>
-      </c>
-      <c r="C72" s="4" t="s">
-        <v>156</v>
-      </c>
-      <c r="D72" s="4"/>
-      <c r="E72" s="4"/>
-      <c r="F72" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="G72" s="4"/>
-      <c r="H72" s="4"/>
-      <c r="I72" s="4"/>
-      <c r="J72" s="4"/>
-      <c r="K72" s="4"/>
-      <c r="L72" s="4"/>
-      <c r="M72" s="4"/>
-      <c r="N72" s="4"/>
-      <c r="O72" s="4"/>
-      <c r="P72" s="4"/>
-      <c r="Q72" s="4"/>
-      <c r="R72" s="4"/>
-      <c r="S72" s="4"/>
-      <c r="T72" s="4"/>
-      <c r="U72" s="4"/>
-      <c r="V72" s="4"/>
-      <c r="W72" s="4"/>
-      <c r="X72" s="4"/>
-      <c r="Y72" s="4"/>
-      <c r="Z72" s="4"/>
+    <row r="72" spans="1:26" ht="15.9" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A72" s="43" t="s">
+        <v>142</v>
+      </c>
+      <c r="B72" s="43" t="s">
+        <v>143</v>
+      </c>
+      <c r="C72" s="43" t="s">
+        <v>158</v>
+      </c>
+      <c r="D72" s="6"/>
+      <c r="F72" s="45" t="s">
+        <v>166</v>
+      </c>
+      <c r="I72" s="6"/>
+      <c r="J72" s="6"/>
+      <c r="K72" s="6"/>
+      <c r="L72" s="6"/>
+      <c r="M72" s="6"/>
+      <c r="N72" s="6"/>
+      <c r="O72" s="6"/>
+      <c r="P72" s="6"/>
+      <c r="Q72" s="6"/>
+      <c r="R72" s="6"/>
+      <c r="S72" s="6"/>
+      <c r="T72" s="6"/>
+      <c r="U72" s="6"/>
+      <c r="V72" s="6"/>
+      <c r="W72" s="6"/>
+      <c r="X72" s="6"/>
+      <c r="Y72" s="6"/>
+      <c r="Z72" s="6"/>
     </row>
     <row r="73" spans="1:26" ht="15.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A73" s="43" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="B73" s="43" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="C73" s="43" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="D73" s="6"/>
       <c r="F73" s="45" t="s">
@@ -3506,13 +3536,13 @@
     </row>
     <row r="74" spans="1:26" ht="15.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A74" s="43" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="B74" s="43" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="C74" s="43" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="D74" s="6"/>
       <c r="F74" s="45" t="s">
@@ -3539,18 +3569,21 @@
     </row>
     <row r="75" spans="1:26" ht="15.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A75" s="43" t="s">
-        <v>146</v>
+        <v>50</v>
       </c>
       <c r="B75" s="43" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="C75" s="43" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="D75" s="6"/>
-      <c r="F75" s="45" t="s">
-        <v>166</v>
-      </c>
+      <c r="E75" s="44" t="s">
+        <v>149</v>
+      </c>
+      <c r="F75" s="45"/>
+      <c r="G75" s="45"/>
+      <c r="H75" s="45"/>
       <c r="I75" s="6"/>
       <c r="J75" s="6"/>
       <c r="K75" s="6"/>
@@ -3575,18 +3608,18 @@
         <v>50</v>
       </c>
       <c r="B76" s="43" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="C76" s="43" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="D76" s="6"/>
       <c r="E76" s="44" t="s">
-        <v>149</v>
-      </c>
-      <c r="F76" s="45"/>
-      <c r="G76" s="45"/>
-      <c r="H76" s="45"/>
+        <v>151</v>
+      </c>
+      <c r="F76" s="43"/>
+      <c r="G76" s="43"/>
+      <c r="H76" s="43"/>
       <c r="I76" s="6"/>
       <c r="J76" s="6"/>
       <c r="K76" s="6"/>
@@ -3611,14 +3644,14 @@
         <v>50</v>
       </c>
       <c r="B77" s="43" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="C77" s="43" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="D77" s="6"/>
       <c r="E77" s="44" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="F77" s="43"/>
       <c r="G77" s="43"/>
@@ -3647,14 +3680,14 @@
         <v>50</v>
       </c>
       <c r="B78" s="43" t="s">
-        <v>152</v>
+        <v>103</v>
       </c>
       <c r="C78" s="43" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="D78" s="6"/>
       <c r="E78" s="44" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="F78" s="43"/>
       <c r="G78" s="43"/>
@@ -3686,11 +3719,11 @@
         <v>103</v>
       </c>
       <c r="C79" s="43" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="D79" s="6"/>
       <c r="E79" s="44" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="F79" s="43"/>
       <c r="G79" s="43"/>
@@ -3719,14 +3752,13 @@
         <v>50</v>
       </c>
       <c r="B80" s="43" t="s">
-        <v>103</v>
-      </c>
-      <c r="C80" s="43" t="s">
-        <v>165</v>
-      </c>
-      <c r="D80" s="6"/>
-      <c r="E80" s="44" t="s">
-        <v>155</v>
+        <v>50</v>
+      </c>
+      <c r="C80" s="48" t="s">
+        <v>217</v>
+      </c>
+      <c r="E80" s="49" t="s">
+        <v>218</v>
       </c>
       <c r="F80" s="43"/>
       <c r="G80" s="43"/>
@@ -3750,53 +3782,46 @@
       <c r="Y80" s="6"/>
       <c r="Z80" s="6"/>
     </row>
-    <row r="81" spans="1:26" ht="15.9" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A81" s="43" t="s">
-        <v>50</v>
-      </c>
-      <c r="B81" s="43" t="s">
-        <v>50</v>
-      </c>
-      <c r="C81" s="48" t="s">
-        <v>217</v>
-      </c>
-      <c r="E81" s="49" t="s">
-        <v>218</v>
-      </c>
-      <c r="F81" s="43"/>
-      <c r="G81" s="43"/>
-      <c r="H81" s="43"/>
-      <c r="I81" s="6"/>
-      <c r="J81" s="6"/>
-      <c r="K81" s="6"/>
-      <c r="L81" s="6"/>
-      <c r="M81" s="6"/>
-      <c r="N81" s="6"/>
-      <c r="O81" s="6"/>
-      <c r="P81" s="6"/>
-      <c r="Q81" s="6"/>
-      <c r="R81" s="6"/>
-      <c r="S81" s="6"/>
-      <c r="T81" s="6"/>
-      <c r="U81" s="6"/>
-      <c r="V81" s="6"/>
-      <c r="W81" s="6"/>
-      <c r="X81" s="6"/>
-      <c r="Y81" s="6"/>
-      <c r="Z81" s="6"/>
+    <row r="81" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A81" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="B81" s="4"/>
+      <c r="C81" s="4"/>
+      <c r="D81" s="4"/>
+      <c r="E81" s="4"/>
+      <c r="F81" s="4"/>
+      <c r="G81" s="4"/>
+      <c r="H81" s="4"/>
+      <c r="I81" s="4"/>
+      <c r="J81" s="4"/>
+      <c r="K81" s="4"/>
+      <c r="L81" s="4"/>
+      <c r="M81" s="4"/>
+      <c r="N81" s="4"/>
+      <c r="O81" s="4"/>
+      <c r="P81" s="4"/>
+      <c r="Q81" s="4"/>
+      <c r="R81" s="4"/>
+      <c r="S81" s="4"/>
+      <c r="T81" s="4"/>
+      <c r="U81" s="4"/>
+      <c r="V81" s="4"/>
+      <c r="W81" s="4"/>
+      <c r="X81" s="4"/>
+      <c r="Y81" s="4"/>
+      <c r="Z81" s="4"/>
     </row>
     <row r="82" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A82" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="B82" s="4"/>
-      <c r="C82" s="4"/>
-      <c r="D82" s="4"/>
-      <c r="E82" s="4"/>
-      <c r="F82" s="4"/>
-      <c r="G82" s="4"/>
-      <c r="H82" s="4"/>
-      <c r="I82" s="4"/>
+      <c r="A82" s="22"/>
+      <c r="B82" s="22"/>
+      <c r="C82" s="22"/>
+      <c r="D82" s="22"/>
+      <c r="E82" s="22"/>
+      <c r="F82" s="22"/>
+      <c r="G82" s="22"/>
+      <c r="H82" s="22"/>
+      <c r="I82" s="22"/>
       <c r="J82" s="4"/>
       <c r="K82" s="4"/>
       <c r="L82" s="4"/>
@@ -3825,28 +3850,34 @@
       <c r="G83" s="22"/>
       <c r="H83" s="22"/>
       <c r="I83" s="22"/>
-      <c r="J83" s="4"/>
-      <c r="K83" s="4"/>
-      <c r="L83" s="4"/>
-      <c r="M83" s="4"/>
-      <c r="N83" s="4"/>
-      <c r="O83" s="4"/>
-      <c r="P83" s="4"/>
-      <c r="Q83" s="4"/>
-      <c r="R83" s="4"/>
-      <c r="S83" s="4"/>
-      <c r="T83" s="4"/>
-      <c r="U83" s="4"/>
-      <c r="V83" s="4"/>
-      <c r="W83" s="4"/>
-      <c r="X83" s="4"/>
-      <c r="Y83" s="4"/>
-      <c r="Z83" s="4"/>
+      <c r="J83" s="22"/>
+      <c r="K83" s="22"/>
+      <c r="L83" s="22"/>
+      <c r="M83" s="22"/>
+      <c r="N83" s="22"/>
+      <c r="O83" s="22"/>
+      <c r="P83" s="22"/>
+      <c r="Q83" s="22"/>
+      <c r="R83" s="22"/>
+      <c r="S83" s="22"/>
+      <c r="T83" s="22"/>
+      <c r="U83" s="22"/>
+      <c r="V83" s="22"/>
+      <c r="W83" s="22"/>
+      <c r="X83" s="22"/>
+      <c r="Y83" s="22"/>
+      <c r="Z83" s="22"/>
     </row>
     <row r="84" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A84" s="22"/>
-      <c r="B84" s="22"/>
-      <c r="C84" s="22"/>
+      <c r="A84" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B84" s="4" t="s">
+        <v>201</v>
+      </c>
+      <c r="C84" s="4" t="s">
+        <v>197</v>
+      </c>
       <c r="D84" s="22"/>
       <c r="E84" s="22"/>
       <c r="F84" s="22"/>
@@ -3872,17 +3903,19 @@
       <c r="Z84" s="22"/>
     </row>
     <row r="85" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A85" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="B85" s="4" t="s">
-        <v>201</v>
-      </c>
-      <c r="C85" s="4" t="s">
-        <v>197</v>
+      <c r="A85" s="43" t="s">
+        <v>50</v>
+      </c>
+      <c r="B85" s="43" t="s">
+        <v>198</v>
+      </c>
+      <c r="C85" s="43" t="s">
+        <v>202</v>
       </c>
       <c r="D85" s="22"/>
-      <c r="E85" s="22"/>
+      <c r="E85" s="44" t="s">
+        <v>149</v>
+      </c>
       <c r="F85" s="22"/>
       <c r="G85" s="22"/>
       <c r="H85" s="22"/>
@@ -3910,14 +3943,14 @@
         <v>50</v>
       </c>
       <c r="B86" s="43" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="C86" s="43" t="s">
         <v>202</v>
       </c>
       <c r="D86" s="22"/>
       <c r="E86" s="44" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="F86" s="22"/>
       <c r="G86" s="22"/>
@@ -3946,14 +3979,14 @@
         <v>50</v>
       </c>
       <c r="B87" s="43" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="C87" s="43" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="D87" s="22"/>
       <c r="E87" s="44" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="F87" s="22"/>
       <c r="G87" s="22"/>
@@ -3978,19 +4011,13 @@
       <c r="Z87" s="22"/>
     </row>
     <row r="88" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A88" s="43" t="s">
-        <v>50</v>
-      </c>
-      <c r="B88" s="43" t="s">
-        <v>200</v>
-      </c>
-      <c r="C88" s="43" t="s">
-        <v>203</v>
-      </c>
+      <c r="A88" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="B88" s="4"/>
+      <c r="C88" s="4"/>
       <c r="D88" s="22"/>
-      <c r="E88" s="44" t="s">
-        <v>153</v>
-      </c>
+      <c r="E88" s="22"/>
       <c r="F88" s="22"/>
       <c r="G88" s="22"/>
       <c r="H88" s="22"/>
@@ -4014,11 +4041,9 @@
       <c r="Z88" s="22"/>
     </row>
     <row r="89" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A89" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="B89" s="4"/>
-      <c r="C89" s="4"/>
+      <c r="A89" s="22"/>
+      <c r="B89" s="22"/>
+      <c r="C89" s="22"/>
       <c r="D89" s="22"/>
       <c r="E89" s="22"/>
       <c r="F89" s="22"/>
@@ -4071,46 +4096,34 @@
       <c r="Y90" s="22"/>
       <c r="Z90" s="22"/>
     </row>
-    <row r="91" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A91" s="22"/>
-      <c r="B91" s="22"/>
-      <c r="C91" s="22"/>
-      <c r="D91" s="22"/>
-      <c r="E91" s="22"/>
-      <c r="F91" s="22"/>
-      <c r="G91" s="22"/>
-      <c r="H91" s="22"/>
-      <c r="I91" s="22"/>
-      <c r="J91" s="22"/>
-      <c r="K91" s="22"/>
-      <c r="L91" s="22"/>
-      <c r="M91" s="22"/>
-      <c r="N91" s="22"/>
-      <c r="O91" s="22"/>
-      <c r="P91" s="22"/>
-      <c r="Q91" s="22"/>
-      <c r="R91" s="22"/>
-      <c r="S91" s="22"/>
-      <c r="T91" s="22"/>
-      <c r="U91" s="22"/>
-      <c r="V91" s="22"/>
-      <c r="W91" s="22"/>
-      <c r="X91" s="22"/>
-      <c r="Y91" s="22"/>
-      <c r="Z91" s="22"/>
-    </row>
-    <row r="92" spans="1:26" s="4" customFormat="1" ht="12.9" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A92" s="4" t="s">
+    <row r="91" spans="1:26" s="4" customFormat="1" ht="12.9" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A91" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="B92" s="4" t="s">
+      <c r="B91" s="4" t="s">
         <v>219</v>
       </c>
-      <c r="C92" s="4" t="s">
+      <c r="C91" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="F92" s="19" t="s">
+      <c r="F91" s="19" t="s">
         <v>21</v>
+      </c>
+    </row>
+    <row r="92" spans="1:26" s="6" customFormat="1" ht="12.9" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A92" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="B92" s="9" t="s">
+        <v>221</v>
+      </c>
+      <c r="C92" s="17"/>
+      <c r="D92" s="9"/>
+      <c r="E92" s="17"/>
+      <c r="G92" s="22"/>
+      <c r="H92" s="22"/>
+      <c r="I92" s="6" t="s">
+        <v>222</v>
       </c>
     </row>
     <row r="93" spans="1:26" s="6" customFormat="1" ht="12.9" customHeight="1" x14ac:dyDescent="0.3">
@@ -4118,7 +4131,7 @@
         <v>32</v>
       </c>
       <c r="B93" s="9" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="C93" s="17"/>
       <c r="D93" s="9"/>
@@ -4126,94 +4139,96 @@
       <c r="G93" s="22"/>
       <c r="H93" s="22"/>
       <c r="I93" s="6" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
     </row>
     <row r="94" spans="1:26" s="6" customFormat="1" ht="12.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A94" s="9" t="s">
-        <v>32</v>
+        <v>50</v>
       </c>
       <c r="B94" s="9" t="s">
-        <v>223</v>
-      </c>
-      <c r="C94" s="17"/>
+        <v>63</v>
+      </c>
+      <c r="C94" s="17" t="s">
+        <v>242</v>
+      </c>
       <c r="D94" s="9"/>
       <c r="E94" s="17"/>
       <c r="G94" s="22"/>
       <c r="H94" s="22"/>
-      <c r="I94" s="6" t="s">
-        <v>224</v>
-      </c>
     </row>
     <row r="95" spans="1:26" s="6" customFormat="1" ht="12.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A95" s="9" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="B95" s="9" t="s">
-        <v>63</v>
-      </c>
-      <c r="C95" s="17" t="s">
-        <v>242</v>
-      </c>
-      <c r="D95" s="9"/>
-      <c r="E95" s="17"/>
-      <c r="G95" s="22"/>
-      <c r="H95" s="22"/>
+        <v>225</v>
+      </c>
+      <c r="C95" s="10" t="s">
+        <v>64</v>
+      </c>
+      <c r="D95" s="21" t="s">
+        <v>45</v>
+      </c>
+      <c r="E95" s="9"/>
+      <c r="G95" s="22" t="s">
+        <v>65</v>
+      </c>
+      <c r="H95" s="22" t="s">
+        <v>46</v>
+      </c>
     </row>
     <row r="96" spans="1:26" s="6" customFormat="1" ht="12.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A96" s="9" t="s">
-        <v>44</v>
+        <v>66</v>
       </c>
       <c r="B96" s="9" t="s">
-        <v>225</v>
-      </c>
-      <c r="C96" s="10" t="s">
-        <v>64</v>
-      </c>
-      <c r="D96" s="21" t="s">
-        <v>45</v>
-      </c>
+        <v>67</v>
+      </c>
+      <c r="C96" s="23" t="s">
+        <v>68</v>
+      </c>
+      <c r="D96" s="21"/>
       <c r="E96" s="9"/>
-      <c r="G96" s="22" t="s">
-        <v>65</v>
-      </c>
-      <c r="H96" s="22" t="s">
-        <v>46</v>
-      </c>
+      <c r="G96" s="22"/>
+      <c r="H96" s="22"/>
     </row>
     <row r="97" spans="1:25" s="6" customFormat="1" ht="12.9" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A97" s="9" t="s">
-        <v>66</v>
-      </c>
-      <c r="B97" s="9" t="s">
-        <v>67</v>
-      </c>
-      <c r="C97" s="23" t="s">
-        <v>68</v>
-      </c>
+      <c r="A97" s="9"/>
+      <c r="B97" s="9"/>
+      <c r="C97" s="23"/>
       <c r="D97" s="21"/>
       <c r="E97" s="9"/>
       <c r="G97" s="22"/>
       <c r="H97" s="22"/>
     </row>
-    <row r="98" spans="1:25" s="6" customFormat="1" ht="12.9" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A98" s="9"/>
-      <c r="B98" s="9"/>
-      <c r="C98" s="23"/>
-      <c r="D98" s="21"/>
-      <c r="E98" s="9"/>
-      <c r="G98" s="22"/>
-      <c r="H98" s="22"/>
+    <row r="98" spans="1:25" s="4" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A98" s="4" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="99" spans="1:25" s="4" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A99" s="4" t="s">
-        <v>29</v>
-      </c>
+      <c r="A99"/>
+      <c r="B99"/>
+      <c r="C99"/>
+      <c r="D99"/>
+      <c r="E99"/>
+      <c r="F99"/>
+      <c r="G99"/>
+      <c r="H99"/>
+      <c r="I99"/>
+      <c r="J99"/>
     </row>
     <row r="100" spans="1:25" s="4" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A100"/>
-      <c r="B100"/>
-      <c r="C100"/>
+      <c r="A100" s="42" t="s">
+        <v>17</v>
+      </c>
+      <c r="B100" s="42" t="s">
+        <v>212</v>
+      </c>
+      <c r="C100" s="42" t="s">
+        <v>204</v>
+      </c>
       <c r="D100"/>
       <c r="E100"/>
       <c r="F100"/>
@@ -4223,17 +4238,19 @@
       <c r="J100"/>
     </row>
     <row r="101" spans="1:25" s="4" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A101" s="42" t="s">
-        <v>17</v>
-      </c>
-      <c r="B101" s="42" t="s">
-        <v>212</v>
-      </c>
-      <c r="C101" s="42" t="s">
-        <v>204</v>
+      <c r="A101" s="43" t="s">
+        <v>205</v>
+      </c>
+      <c r="B101" s="43" t="s">
+        <v>206</v>
+      </c>
+      <c r="C101" s="43" t="s">
+        <v>213</v>
       </c>
       <c r="D101"/>
-      <c r="E101"/>
+      <c r="E101" s="44" t="s">
+        <v>214</v>
+      </c>
       <c r="F101"/>
       <c r="G101"/>
       <c r="H101"/>
@@ -4242,17 +4259,17 @@
     </row>
     <row r="102" spans="1:25" s="4" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A102" s="43" t="s">
-        <v>205</v>
+        <v>50</v>
       </c>
       <c r="B102" s="43" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="C102" s="43" t="s">
-        <v>213</v>
+        <v>208</v>
       </c>
       <c r="D102"/>
       <c r="E102" s="44" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="F102"/>
       <c r="G102"/>
@@ -4261,19 +4278,13 @@
       <c r="J102"/>
     </row>
     <row r="103" spans="1:25" s="4" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A103" s="43" t="s">
-        <v>50</v>
-      </c>
-      <c r="B103" s="43" t="s">
-        <v>207</v>
-      </c>
-      <c r="C103" s="43" t="s">
-        <v>208</v>
-      </c>
+      <c r="A103" s="42" t="s">
+        <v>29</v>
+      </c>
+      <c r="B103" s="42"/>
+      <c r="C103" s="42"/>
       <c r="D103"/>
-      <c r="E103" s="44" t="s">
-        <v>215</v>
-      </c>
+      <c r="E103"/>
       <c r="F103"/>
       <c r="G103"/>
       <c r="H103"/>
@@ -4281,11 +4292,9 @@
       <c r="J103"/>
     </row>
     <row r="104" spans="1:25" s="4" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A104" s="42" t="s">
-        <v>29</v>
-      </c>
-      <c r="B104" s="42"/>
-      <c r="C104" s="42"/>
+      <c r="A104" s="43"/>
+      <c r="B104" s="43"/>
+      <c r="C104" s="43"/>
       <c r="D104"/>
       <c r="E104"/>
       <c r="F104"/>
@@ -4295,9 +4304,15 @@
       <c r="J104"/>
     </row>
     <row r="105" spans="1:25" s="4" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A105" s="43"/>
-      <c r="B105" s="43"/>
-      <c r="C105" s="43"/>
+      <c r="A105" s="42" t="s">
+        <v>17</v>
+      </c>
+      <c r="B105" s="42" t="s">
+        <v>210</v>
+      </c>
+      <c r="C105" s="42" t="s">
+        <v>209</v>
+      </c>
       <c r="D105"/>
       <c r="E105"/>
       <c r="F105"/>
@@ -4307,17 +4322,19 @@
       <c r="J105"/>
     </row>
     <row r="106" spans="1:25" s="4" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A106" s="42" t="s">
-        <v>17</v>
-      </c>
-      <c r="B106" s="42" t="s">
-        <v>210</v>
-      </c>
-      <c r="C106" s="42" t="s">
-        <v>209</v>
+      <c r="A106" s="43" t="s">
+        <v>50</v>
+      </c>
+      <c r="B106" s="43" t="s">
+        <v>247</v>
+      </c>
+      <c r="C106" s="43" t="s">
+        <v>211</v>
       </c>
       <c r="D106"/>
-      <c r="E106"/>
+      <c r="E106" s="44" t="s">
+        <v>216</v>
+      </c>
       <c r="F106"/>
       <c r="G106"/>
       <c r="H106"/>
@@ -4325,19 +4342,13 @@
       <c r="J106"/>
     </row>
     <row r="107" spans="1:25" s="4" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A107" s="43" t="s">
-        <v>50</v>
-      </c>
-      <c r="B107" s="43" t="s">
-        <v>247</v>
-      </c>
-      <c r="C107" s="43" t="s">
-        <v>211</v>
-      </c>
+      <c r="A107" s="42" t="s">
+        <v>29</v>
+      </c>
+      <c r="B107" s="42"/>
+      <c r="C107" s="42"/>
       <c r="D107"/>
-      <c r="E107" s="44" t="s">
-        <v>216</v>
-      </c>
+      <c r="E107"/>
       <c r="F107"/>
       <c r="G107"/>
       <c r="H107"/>
@@ -4345,11 +4356,9 @@
       <c r="J107"/>
     </row>
     <row r="108" spans="1:25" s="4" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A108" s="42" t="s">
-        <v>29</v>
-      </c>
-      <c r="B108" s="42"/>
-      <c r="C108" s="42"/>
+      <c r="A108"/>
+      <c r="B108"/>
+      <c r="C108"/>
       <c r="D108"/>
       <c r="E108"/>
       <c r="F108"/>
@@ -4358,40 +4367,63 @@
       <c r="I108"/>
       <c r="J108"/>
     </row>
-    <row r="109" spans="1:25" s="4" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A109"/>
-      <c r="B109"/>
-      <c r="C109"/>
-      <c r="D109"/>
-      <c r="E109"/>
-      <c r="F109"/>
-      <c r="G109"/>
-      <c r="H109"/>
-      <c r="I109"/>
-      <c r="J109"/>
+    <row r="109" spans="1:25" s="15" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A109" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="B109" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="C109" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="D109" s="5"/>
+      <c r="E109" s="4"/>
+      <c r="F109" s="19" t="s">
+        <v>70</v>
+      </c>
+      <c r="G109" s="5"/>
+      <c r="H109" s="5"/>
+      <c r="I109" s="5"/>
+      <c r="J109" s="5"/>
+      <c r="K109" s="5"/>
+      <c r="L109" s="5"/>
+      <c r="M109" s="5"/>
+      <c r="N109" s="16"/>
+      <c r="O109" s="16"/>
+      <c r="P109" s="16"/>
+      <c r="Q109" s="16"/>
+      <c r="R109" s="16"/>
+      <c r="S109" s="16"/>
+      <c r="T109" s="16"/>
+      <c r="U109" s="16"/>
+      <c r="V109" s="16"/>
+      <c r="W109" s="16"/>
+      <c r="X109" s="16"/>
+      <c r="Y109" s="16"/>
     </row>
     <row r="110" spans="1:25" s="15" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A110" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="B110" s="5" t="s">
-        <v>69</v>
-      </c>
-      <c r="C110" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="D110" s="5"/>
-      <c r="E110" s="4"/>
-      <c r="F110" s="19" t="s">
-        <v>70</v>
-      </c>
-      <c r="G110" s="5"/>
-      <c r="H110" s="5"/>
-      <c r="I110" s="5"/>
-      <c r="J110" s="5"/>
-      <c r="K110" s="5"/>
-      <c r="L110" s="5"/>
-      <c r="M110" s="5"/>
+      <c r="A110" s="16" t="s">
+        <v>50</v>
+      </c>
+      <c r="B110" s="24" t="s">
+        <v>71</v>
+      </c>
+      <c r="C110" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="D110" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="E110" s="3"/>
+      <c r="F110" s="16"/>
+      <c r="G110" s="16"/>
+      <c r="H110" s="16"/>
+      <c r="I110" s="16"/>
+      <c r="J110" s="16"/>
+      <c r="K110" s="16"/>
+      <c r="L110" s="16"/>
+      <c r="M110" s="16"/>
       <c r="N110" s="16"/>
       <c r="O110" s="16"/>
       <c r="P110" s="16"/>
@@ -4406,120 +4438,99 @@
       <c r="Y110" s="16"/>
     </row>
     <row r="111" spans="1:25" s="15" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A111" s="16" t="s">
+      <c r="A111" s="25" t="s">
         <v>50</v>
       </c>
-      <c r="B111" s="24" t="s">
-        <v>71</v>
-      </c>
-      <c r="C111" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="D111" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="E111" s="3"/>
-      <c r="F111" s="16"/>
-      <c r="G111" s="16"/>
-      <c r="H111" s="16"/>
-      <c r="I111" s="16"/>
-      <c r="J111" s="16"/>
-      <c r="K111" s="16"/>
-      <c r="L111" s="16"/>
-      <c r="M111" s="16"/>
-      <c r="N111" s="16"/>
-      <c r="O111" s="16"/>
-      <c r="P111" s="16"/>
-      <c r="Q111" s="16"/>
-      <c r="R111" s="16"/>
-      <c r="S111" s="16"/>
-      <c r="T111" s="16"/>
-      <c r="U111" s="16"/>
-      <c r="V111" s="16"/>
-      <c r="W111" s="16"/>
-      <c r="X111" s="16"/>
-      <c r="Y111" s="16"/>
-    </row>
-    <row r="112" spans="1:25" s="15" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A112" s="25" t="s">
+      <c r="B111" s="25" t="s">
+        <v>69</v>
+      </c>
+      <c r="C111" s="26" t="s">
+        <v>73</v>
+      </c>
+      <c r="D111" s="25"/>
+      <c r="E111" s="25"/>
+      <c r="F111" s="25" t="s">
+        <v>74</v>
+      </c>
+      <c r="G111" s="25"/>
+      <c r="H111" s="25"/>
+      <c r="I111" s="25"/>
+      <c r="J111" s="25"/>
+      <c r="K111" s="25"/>
+      <c r="L111" s="25"/>
+      <c r="M111" s="25"/>
+      <c r="N111" s="25"/>
+      <c r="O111" s="25"/>
+      <c r="P111" s="25"/>
+      <c r="Q111" s="25"/>
+      <c r="R111" s="25"/>
+      <c r="S111" s="25"/>
+      <c r="T111" s="25"/>
+      <c r="U111" s="25"/>
+      <c r="V111" s="25"/>
+      <c r="W111" s="25"/>
+      <c r="X111" s="25"/>
+      <c r="Y111" s="25"/>
+    </row>
+    <row r="112" spans="1:25" s="15" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A112" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="B112" s="25" t="s">
-        <v>69</v>
-      </c>
-      <c r="C112" s="26" t="s">
-        <v>73</v>
-      </c>
-      <c r="D112" s="25"/>
-      <c r="E112" s="25"/>
-      <c r="F112" s="25" t="s">
-        <v>74</v>
-      </c>
-      <c r="G112" s="25"/>
-      <c r="H112" s="25"/>
-      <c r="I112" s="25"/>
-      <c r="J112" s="25"/>
-      <c r="K112" s="25"/>
-      <c r="L112" s="25"/>
-      <c r="M112" s="25"/>
-      <c r="N112" s="25"/>
-      <c r="O112" s="25"/>
-      <c r="P112" s="25"/>
-      <c r="Q112" s="25"/>
-      <c r="R112" s="25"/>
-      <c r="S112" s="25"/>
-      <c r="T112" s="25"/>
-      <c r="U112" s="25"/>
-      <c r="V112" s="25"/>
-      <c r="W112" s="25"/>
-      <c r="X112" s="25"/>
-      <c r="Y112" s="25"/>
-    </row>
-    <row r="113" spans="1:25" s="15" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A113" s="3" t="s">
+      <c r="B112" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="C112" s="24" t="s">
+        <v>76</v>
+      </c>
+      <c r="D112" s="3"/>
+      <c r="E112" s="3"/>
+      <c r="F112" s="3"/>
+      <c r="G112" s="3"/>
+      <c r="H112" s="3"/>
+      <c r="I112" s="16"/>
+      <c r="J112" s="3"/>
+      <c r="K112" s="3"/>
+      <c r="L112" s="3"/>
+      <c r="M112" s="3"/>
+      <c r="N112" s="3"/>
+      <c r="O112" s="3"/>
+      <c r="P112" s="3"/>
+      <c r="Q112" s="3"/>
+      <c r="R112" s="3"/>
+      <c r="S112" s="3"/>
+      <c r="T112" s="3"/>
+      <c r="U112" s="3"/>
+      <c r="V112" s="3"/>
+      <c r="W112" s="3"/>
+      <c r="X112" s="3"/>
+      <c r="Y112" s="3"/>
+    </row>
+    <row r="113" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A113" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="B113" s="3" t="s">
-        <v>75</v>
-      </c>
-      <c r="C113" s="24" t="s">
-        <v>76</v>
-      </c>
-      <c r="D113" s="3"/>
-      <c r="E113" s="3"/>
-      <c r="F113" s="3"/>
-      <c r="G113" s="3"/>
-      <c r="H113" s="3"/>
-      <c r="I113" s="16"/>
-      <c r="J113" s="3"/>
-      <c r="K113" s="3"/>
-      <c r="L113" s="3"/>
-      <c r="M113" s="3"/>
-      <c r="N113" s="3"/>
-      <c r="O113" s="3"/>
-      <c r="P113" s="3"/>
-      <c r="Q113" s="3"/>
-      <c r="R113" s="3"/>
-      <c r="S113" s="3"/>
-      <c r="T113" s="3"/>
-      <c r="U113" s="3"/>
-      <c r="V113" s="3"/>
-      <c r="W113" s="3"/>
-      <c r="X113" s="3"/>
-      <c r="Y113" s="3"/>
+      <c r="B113" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="C113" s="27" t="s">
+        <v>77</v>
+      </c>
+      <c r="E113" t="s">
+        <v>53</v>
+      </c>
     </row>
     <row r="114" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A114" s="6" t="s">
         <v>50</v>
       </c>
       <c r="B114" s="6" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="C114" s="27" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="E114" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
     </row>
     <row r="115" spans="1:25" x14ac:dyDescent="0.3">
@@ -4527,79 +4538,102 @@
         <v>50</v>
       </c>
       <c r="B115" s="6" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="C115" s="27" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="E115" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="116" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A116" s="6" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="116" spans="1:25" s="15" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A116" s="28" t="s">
         <v>50</v>
       </c>
-      <c r="B116" s="6" t="s">
-        <v>57</v>
-      </c>
-      <c r="C116" s="27" t="s">
-        <v>79</v>
-      </c>
-      <c r="E116" t="s">
-        <v>59</v>
-      </c>
+      <c r="B116" s="29" t="s">
+        <v>80</v>
+      </c>
+      <c r="C116" s="30" t="s">
+        <v>81</v>
+      </c>
+      <c r="D116" s="28"/>
+      <c r="E116" s="28"/>
+      <c r="F116" s="28" t="s">
+        <v>82</v>
+      </c>
+      <c r="G116" s="28"/>
+      <c r="H116" s="28"/>
+      <c r="I116" s="28"/>
+      <c r="J116" s="28"/>
+      <c r="K116" s="28"/>
+      <c r="L116" s="28"/>
+      <c r="M116" s="28"/>
+      <c r="N116" s="28"/>
+      <c r="O116" s="28"/>
+      <c r="P116" s="28"/>
+      <c r="Q116" s="28"/>
+      <c r="R116" s="28"/>
+      <c r="S116" s="28"/>
+      <c r="T116" s="28"/>
+      <c r="U116" s="28"/>
+      <c r="V116" s="28"/>
+      <c r="W116" s="28"/>
+      <c r="X116" s="28"/>
+      <c r="Y116" s="28"/>
     </row>
     <row r="117" spans="1:25" s="15" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A117" s="28" t="s">
+      <c r="A117" s="24" t="s">
         <v>50</v>
       </c>
-      <c r="B117" s="29" t="s">
-        <v>80</v>
-      </c>
-      <c r="C117" s="30" t="s">
-        <v>81</v>
-      </c>
-      <c r="D117" s="28"/>
-      <c r="E117" s="28"/>
-      <c r="F117" s="28" t="s">
-        <v>82</v>
-      </c>
-      <c r="G117" s="28"/>
-      <c r="H117" s="28"/>
-      <c r="I117" s="28"/>
-      <c r="J117" s="28"/>
-      <c r="K117" s="28"/>
-      <c r="L117" s="28"/>
-      <c r="M117" s="28"/>
-      <c r="N117" s="28"/>
-      <c r="O117" s="28"/>
-      <c r="P117" s="28"/>
-      <c r="Q117" s="28"/>
-      <c r="R117" s="28"/>
-      <c r="S117" s="28"/>
-      <c r="T117" s="28"/>
-      <c r="U117" s="28"/>
-      <c r="V117" s="28"/>
-      <c r="W117" s="28"/>
-      <c r="X117" s="28"/>
-      <c r="Y117" s="28"/>
+      <c r="B117" s="43" t="s">
+        <v>100</v>
+      </c>
+      <c r="C117" s="43" t="s">
+        <v>168</v>
+      </c>
+      <c r="D117" s="6"/>
+      <c r="E117" s="17" t="s">
+        <v>226</v>
+      </c>
+      <c r="F117" s="15" t="s">
+        <v>83</v>
+      </c>
+      <c r="G117" s="16"/>
+      <c r="H117" s="16"/>
+      <c r="I117" s="16"/>
+      <c r="J117" s="16"/>
+      <c r="K117" s="16"/>
+      <c r="L117" s="16"/>
+      <c r="M117" s="16"/>
+      <c r="N117" s="16"/>
+      <c r="O117" s="16"/>
+      <c r="P117" s="16"/>
+      <c r="Q117" s="16"/>
+      <c r="R117" s="16"/>
+      <c r="S117" s="16"/>
+      <c r="T117" s="16"/>
+      <c r="U117" s="16"/>
+      <c r="V117" s="16"/>
+      <c r="W117" s="16"/>
+      <c r="X117" s="16"/>
+      <c r="Y117" s="16"/>
     </row>
     <row r="118" spans="1:25" s="15" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A118" s="24" t="s">
         <v>50</v>
       </c>
       <c r="B118" s="43" t="s">
-        <v>100</v>
+        <v>169</v>
       </c>
       <c r="C118" s="43" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="D118" s="6"/>
       <c r="E118" s="17" t="s">
-        <v>226</v>
-      </c>
-      <c r="F118" s="15" t="s">
+        <v>227</v>
+      </c>
+      <c r="F118" s="16" t="s">
         <v>83</v>
       </c>
       <c r="G118" s="16"/>
@@ -4627,14 +4661,14 @@
         <v>50</v>
       </c>
       <c r="B119" s="43" t="s">
-        <v>169</v>
+        <v>106</v>
       </c>
       <c r="C119" s="43" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="D119" s="6"/>
       <c r="E119" s="17" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="F119" s="16" t="s">
         <v>83</v>
@@ -4664,14 +4698,14 @@
         <v>50</v>
       </c>
       <c r="B120" s="43" t="s">
-        <v>106</v>
+        <v>173</v>
       </c>
       <c r="C120" s="43" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="D120" s="6"/>
       <c r="E120" s="17" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="F120" s="16" t="s">
         <v>83</v>
@@ -4701,14 +4735,14 @@
         <v>50</v>
       </c>
       <c r="B121" s="43" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="C121" s="43" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="D121" s="6"/>
       <c r="E121" s="17" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="F121" s="16" t="s">
         <v>83</v>
@@ -4738,14 +4772,14 @@
         <v>50</v>
       </c>
       <c r="B122" s="43" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="C122" s="43" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="D122" s="6"/>
       <c r="E122" s="17" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="F122" s="16" t="s">
         <v>83</v>
@@ -4775,14 +4809,14 @@
         <v>50</v>
       </c>
       <c r="B123" s="43" t="s">
-        <v>177</v>
+        <v>102</v>
       </c>
       <c r="C123" s="43" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="D123" s="6"/>
       <c r="E123" s="17" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="F123" s="16" t="s">
         <v>83</v>
@@ -4812,14 +4846,14 @@
         <v>50</v>
       </c>
       <c r="B124" s="43" t="s">
-        <v>102</v>
+        <v>180</v>
       </c>
       <c r="C124" s="43" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="D124" s="6"/>
       <c r="E124" s="17" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="F124" s="16" t="s">
         <v>83</v>
@@ -4849,14 +4883,14 @@
         <v>50</v>
       </c>
       <c r="B125" s="43" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="C125" s="43" t="s">
-        <v>181</v>
+        <v>84</v>
       </c>
       <c r="D125" s="6"/>
       <c r="E125" s="17" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="F125" s="16" t="s">
         <v>83</v>
@@ -4886,14 +4920,14 @@
         <v>50</v>
       </c>
       <c r="B126" s="43" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="C126" s="43" t="s">
-        <v>84</v>
+        <v>184</v>
       </c>
       <c r="D126" s="6"/>
       <c r="E126" s="17" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="F126" s="16" t="s">
         <v>83</v>
@@ -4923,14 +4957,14 @@
         <v>50</v>
       </c>
       <c r="B127" s="43" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="C127" s="43" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="D127" s="6"/>
       <c r="E127" s="17" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="F127" s="16" t="s">
         <v>83</v>
@@ -4960,14 +4994,14 @@
         <v>50</v>
       </c>
       <c r="B128" s="43" t="s">
-        <v>185</v>
+        <v>101</v>
       </c>
       <c r="C128" s="43" t="s">
-        <v>186</v>
+        <v>85</v>
       </c>
       <c r="D128" s="6"/>
       <c r="E128" s="17" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="F128" s="16" t="s">
         <v>83</v>
@@ -4997,14 +5031,14 @@
         <v>50</v>
       </c>
       <c r="B129" s="43" t="s">
-        <v>101</v>
+        <v>30</v>
       </c>
       <c r="C129" s="43" t="s">
-        <v>85</v>
+        <v>187</v>
       </c>
       <c r="D129" s="6"/>
       <c r="E129" s="17" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="F129" s="16" t="s">
         <v>83</v>
@@ -5033,15 +5067,15 @@
       <c r="A130" s="24" t="s">
         <v>50</v>
       </c>
-      <c r="B130" s="43" t="s">
-        <v>30</v>
-      </c>
-      <c r="C130" s="43" t="s">
-        <v>187</v>
+      <c r="B130" s="45" t="s">
+        <v>189</v>
+      </c>
+      <c r="C130" s="45" t="s">
+        <v>190</v>
       </c>
       <c r="D130" s="6"/>
       <c r="E130" s="17" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="F130" s="16" t="s">
         <v>83</v>
@@ -5071,14 +5105,14 @@
         <v>50</v>
       </c>
       <c r="B131" s="45" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="C131" s="45" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="D131" s="6"/>
       <c r="E131" s="17" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="F131" s="16" t="s">
         <v>83</v>
@@ -5108,14 +5142,14 @@
         <v>50</v>
       </c>
       <c r="B132" s="45" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="C132" s="45" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="D132" s="6"/>
       <c r="E132" s="17" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="F132" s="16" t="s">
         <v>83</v>
@@ -5144,19 +5178,11 @@
       <c r="A133" s="24" t="s">
         <v>50</v>
       </c>
-      <c r="B133" s="45" t="s">
-        <v>193</v>
-      </c>
-      <c r="C133" s="45" t="s">
-        <v>194</v>
-      </c>
+      <c r="B133" s="24"/>
+      <c r="C133" s="31"/>
       <c r="D133" s="6"/>
-      <c r="E133" s="17" t="s">
-        <v>241</v>
-      </c>
-      <c r="F133" s="16" t="s">
-        <v>83</v>
-      </c>
+      <c r="E133" s="17"/>
+      <c r="F133" s="16"/>
       <c r="G133" s="16"/>
       <c r="H133" s="16"/>
       <c r="I133" s="16"/>
@@ -5177,147 +5203,119 @@
       <c r="X133" s="16"/>
       <c r="Y133" s="16"/>
     </row>
-    <row r="134" spans="1:25" s="15" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A134" s="24" t="s">
         <v>50</v>
       </c>
-      <c r="B134" s="24"/>
-      <c r="C134" s="31"/>
+      <c r="B134" s="24" t="s">
+        <v>86</v>
+      </c>
+      <c r="C134" s="17" t="s">
+        <v>87</v>
+      </c>
       <c r="D134" s="6"/>
       <c r="E134" s="17"/>
-      <c r="F134" s="16"/>
-      <c r="G134" s="16"/>
-      <c r="H134" s="16"/>
-      <c r="I134" s="16"/>
-      <c r="J134" s="16"/>
-      <c r="K134" s="16"/>
-      <c r="L134" s="16"/>
-      <c r="M134" s="16"/>
-      <c r="N134" s="16"/>
-      <c r="O134" s="16"/>
-      <c r="P134" s="16"/>
-      <c r="Q134" s="16"/>
-      <c r="R134" s="16"/>
-      <c r="S134" s="16"/>
-      <c r="T134" s="16"/>
-      <c r="U134" s="16"/>
-      <c r="V134" s="16"/>
-      <c r="W134" s="16"/>
-      <c r="X134" s="16"/>
-      <c r="Y134" s="16"/>
-    </row>
-    <row r="135" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A135" s="24" t="s">
+      <c r="F134" s="32"/>
+      <c r="G134" s="32"/>
+      <c r="H134" s="32"/>
+      <c r="I134" s="24"/>
+      <c r="J134" s="32"/>
+      <c r="K134" s="32"/>
+      <c r="L134" s="32"/>
+      <c r="M134" s="32"/>
+      <c r="N134" s="32"/>
+      <c r="O134" s="32"/>
+      <c r="P134" s="32"/>
+      <c r="Q134" s="32"/>
+      <c r="R134" s="32"/>
+      <c r="S134" s="32"/>
+      <c r="T134" s="32"/>
+      <c r="U134" s="32"/>
+      <c r="V134" s="32"/>
+      <c r="W134" s="32"/>
+      <c r="X134" s="32"/>
+      <c r="Y134" s="32"/>
+    </row>
+    <row r="135" spans="1:25" s="15" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A135" s="33" t="s">
         <v>50</v>
       </c>
-      <c r="B135" s="24" t="s">
-        <v>86</v>
-      </c>
-      <c r="C135" s="17" t="s">
-        <v>87</v>
-      </c>
-      <c r="D135" s="6"/>
-      <c r="E135" s="17"/>
-      <c r="F135" s="32"/>
-      <c r="G135" s="32"/>
-      <c r="H135" s="32"/>
-      <c r="I135" s="24"/>
-      <c r="J135" s="32"/>
-      <c r="K135" s="32"/>
-      <c r="L135" s="32"/>
-      <c r="M135" s="32"/>
-      <c r="N135" s="32"/>
-      <c r="O135" s="32"/>
-      <c r="P135" s="32"/>
-      <c r="Q135" s="32"/>
-      <c r="R135" s="32"/>
-      <c r="S135" s="32"/>
-      <c r="T135" s="32"/>
-      <c r="U135" s="32"/>
-      <c r="V135" s="32"/>
-      <c r="W135" s="32"/>
-      <c r="X135" s="32"/>
-      <c r="Y135" s="32"/>
+      <c r="B135" s="33" t="s">
+        <v>88</v>
+      </c>
+      <c r="C135" s="34" t="s">
+        <v>89</v>
+      </c>
+      <c r="D135" s="33"/>
+      <c r="E135" s="33" t="s">
+        <v>62</v>
+      </c>
+      <c r="F135" s="33" t="s">
+        <v>90</v>
+      </c>
+      <c r="G135" s="33"/>
+      <c r="H135" s="33"/>
+      <c r="I135" s="33"/>
+      <c r="J135" s="33"/>
+      <c r="K135" s="33"/>
+      <c r="L135" s="33"/>
+      <c r="M135" s="33"/>
+      <c r="N135" s="33"/>
+      <c r="O135" s="33"/>
+      <c r="P135" s="33"/>
+      <c r="Q135" s="33"/>
+      <c r="R135" s="33"/>
+      <c r="S135" s="33"/>
+      <c r="T135" s="33"/>
+      <c r="U135" s="33"/>
+      <c r="V135" s="33"/>
+      <c r="W135" s="33"/>
+      <c r="X135" s="33"/>
+      <c r="Y135" s="33"/>
     </row>
     <row r="136" spans="1:25" s="15" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A136" s="33" t="s">
-        <v>50</v>
-      </c>
-      <c r="B136" s="33" t="s">
-        <v>88</v>
-      </c>
-      <c r="C136" s="34" t="s">
-        <v>89</v>
-      </c>
-      <c r="D136" s="33"/>
-      <c r="E136" s="33" t="s">
-        <v>62</v>
-      </c>
-      <c r="F136" s="33" t="s">
-        <v>90</v>
-      </c>
-      <c r="G136" s="33"/>
-      <c r="H136" s="33"/>
-      <c r="I136" s="33"/>
-      <c r="J136" s="33"/>
-      <c r="K136" s="33"/>
-      <c r="L136" s="33"/>
-      <c r="M136" s="33"/>
-      <c r="N136" s="33"/>
-      <c r="O136" s="33"/>
-      <c r="P136" s="33"/>
-      <c r="Q136" s="33"/>
-      <c r="R136" s="33"/>
-      <c r="S136" s="33"/>
-      <c r="T136" s="33"/>
-      <c r="U136" s="33"/>
-      <c r="V136" s="33"/>
-      <c r="W136" s="33"/>
-      <c r="X136" s="33"/>
-      <c r="Y136" s="33"/>
-    </row>
-    <row r="137" spans="1:25" s="15" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A137" s="5" t="s">
+      <c r="A136" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="B137" s="5"/>
-      <c r="C137" s="5"/>
-      <c r="D137" s="5"/>
-      <c r="E137" s="5"/>
-      <c r="F137" s="5"/>
-      <c r="G137" s="5"/>
-      <c r="H137" s="5"/>
-      <c r="I137" s="5"/>
-      <c r="J137" s="5"/>
-      <c r="K137" s="5"/>
-      <c r="L137" s="5"/>
-      <c r="M137" s="5"/>
-      <c r="N137" s="16"/>
-      <c r="O137" s="16"/>
-      <c r="P137" s="16"/>
-      <c r="Q137" s="16"/>
-      <c r="R137" s="16"/>
-      <c r="S137" s="16"/>
-      <c r="T137" s="16"/>
-      <c r="U137" s="16"/>
-      <c r="V137" s="16"/>
-      <c r="W137" s="16"/>
-      <c r="X137" s="16"/>
-      <c r="Y137" s="16"/>
-    </row>
+      <c r="B136" s="5"/>
+      <c r="C136" s="5"/>
+      <c r="D136" s="5"/>
+      <c r="E136" s="5"/>
+      <c r="F136" s="5"/>
+      <c r="G136" s="5"/>
+      <c r="H136" s="5"/>
+      <c r="I136" s="5"/>
+      <c r="J136" s="5"/>
+      <c r="K136" s="5"/>
+      <c r="L136" s="5"/>
+      <c r="M136" s="5"/>
+      <c r="N136" s="16"/>
+      <c r="O136" s="16"/>
+      <c r="P136" s="16"/>
+      <c r="Q136" s="16"/>
+      <c r="R136" s="16"/>
+      <c r="S136" s="16"/>
+      <c r="T136" s="16"/>
+      <c r="U136" s="16"/>
+      <c r="V136" s="16"/>
+      <c r="W136" s="16"/>
+      <c r="X136" s="16"/>
+      <c r="Y136" s="16"/>
+    </row>
+    <row r="137" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="138" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="139" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="140" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="141" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="142" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="143" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A143" s="51"/>
-      <c r="B143" s="51"/>
-      <c r="C143" s="51"/>
-      <c r="D143" s="51"/>
-      <c r="E143" s="51"/>
-      <c r="F143" s="51"/>
-    </row>
+    <row r="142" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A142" s="51"/>
+      <c r="B142" s="51"/>
+      <c r="C142" s="51"/>
+      <c r="D142" s="51"/>
+      <c r="E142" s="51"/>
+      <c r="F142" s="51"/>
+    </row>
+    <row r="143" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="144" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="145" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="146" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -5845,25 +5843,24 @@
     <row r="668" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="669" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="670" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="671" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
   </sheetData>
-  <conditionalFormatting sqref="A112">
+  <conditionalFormatting sqref="A111">
     <cfRule type="cellIs" dxfId="2" priority="2" operator="equal">
       <formula>"begin group"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A113">
+  <conditionalFormatting sqref="A112">
     <cfRule type="cellIs" dxfId="1" priority="3" operator="equal">
       <formula>"begin group"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A117">
+  <conditionalFormatting sqref="A116">
     <cfRule type="cellIs" dxfId="0" priority="4" operator="equal">
       <formula>"begin group"</formula>
     </cfRule>
   </conditionalFormatting>
   <hyperlinks>
-    <hyperlink ref="C81" r:id="rId1" display="mailto:info@agra.org"/>
+    <hyperlink ref="C80" r:id="rId1" display="mailto:info@agra.org"/>
     <hyperlink ref="A11" r:id="rId2"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>

--- a/config-boda-moh-ke-master/forms/app/case_investigation.xlsx
+++ b/config-boda-moh-ke-master/forms/app/case_investigation.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\config-covid-moh-ke-master\forms\app\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin\Dropbox\PC (2)\Desktop\newforms\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12228" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9072" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="survey" sheetId="1" r:id="rId1"/>
@@ -18,11 +18,23 @@
     <sheet name="legend" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="162913" iterateDelta="1E-4"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+    <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
+      <loext:extCalcPr stringRefSyntax="ExcelA1"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="580" uniqueCount="338">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="532" uniqueCount="309">
   <si>
     <t>type</t>
   </si>
@@ -843,15 +855,6 @@
     <t>db-object</t>
   </si>
   <si>
-    <t>pcr_test</t>
-  </si>
-  <si>
-    <t>Select a person from list</t>
-  </si>
-  <si>
-    <t>Contact</t>
-  </si>
-  <si>
     <t>Type</t>
   </si>
   <si>
@@ -870,7 +873,7 @@
     <t>role</t>
   </si>
   <si>
-    <t>Type of contact</t>
+    <t>Type of Contact</t>
   </si>
   <si>
     <t>case_id</t>
@@ -885,18 +888,6 @@
     <t>Case Name</t>
   </si>
   <si>
-    <t>type_of_contact</t>
-  </si>
-  <si>
-    <t>Close Contact</t>
-  </si>
-  <si>
-    <t>relation_to_case</t>
-  </si>
-  <si>
-    <t>Relation to Case</t>
-  </si>
-  <si>
     <t>national_id</t>
   </si>
   <si>
@@ -918,22 +909,22 @@
     <t>s_name</t>
   </si>
   <si>
+    <t>f_name</t>
+  </si>
+  <si>
+    <t>o_name</t>
+  </si>
+  <si>
     <t>Surname</t>
   </si>
   <si>
-    <t>f_name</t>
-  </si>
-  <si>
     <t>First name</t>
   </si>
   <si>
-    <t>o_name</t>
-  </si>
-  <si>
     <t>Other name(s)</t>
   </si>
   <si>
-    <t>Full Name</t>
+    <t>Full name</t>
   </si>
   <si>
     <t>sex</t>
@@ -951,49 +942,13 @@
     <t>date_of_birth</t>
   </si>
   <si>
-    <t>Date of Birth</t>
+    <t>Date of birth</t>
   </si>
   <si>
     <t>marital_status</t>
   </si>
   <si>
-    <t>Marital Status</t>
-  </si>
-  <si>
-    <t>head_of_household</t>
-  </si>
-  <si>
-    <t>Head of household</t>
-  </si>
-  <si>
-    <t>date_of_last_contact</t>
-  </si>
-  <si>
-    <t>Occupation</t>
-  </si>
-  <si>
-    <t>occupation</t>
-  </si>
-  <si>
-    <t>Date of last contact</t>
-  </si>
-  <si>
-    <t>occupation_other</t>
-  </si>
-  <si>
-    <t>Other (specify)</t>
-  </si>
-  <si>
-    <t>health_care_worker</t>
-  </si>
-  <si>
-    <t>Is the contact a health care worker</t>
-  </si>
-  <si>
-    <t>facility</t>
-  </si>
-  <si>
-    <t>If contact is health worker</t>
+    <t>Marital status</t>
   </si>
   <si>
     <t>education</t>
@@ -1002,18 +957,6 @@
     <t>Education</t>
   </si>
   <si>
-    <t>deceased</t>
-  </si>
-  <si>
-    <t>Deceased</t>
-  </si>
-  <si>
-    <t>date_of_death</t>
-  </si>
-  <si>
-    <t>Date of death</t>
-  </si>
-  <si>
     <t>nationality</t>
   </si>
   <si>
@@ -1029,19 +972,7 @@
     <t>alternate_phone</t>
   </si>
   <si>
-    <t>Alternate phone</t>
-  </si>
-  <si>
-    <t>postal_address</t>
-  </si>
-  <si>
-    <t>Postal address</t>
-  </si>
-  <si>
-    <t>email_address</t>
-  </si>
-  <si>
-    <t>Email address</t>
+    <t>Alternate Phone</t>
   </si>
   <si>
     <t>County</t>
@@ -1059,28 +990,16 @@
     <t>Ward</t>
   </si>
   <si>
-    <t>location</t>
-  </si>
-  <si>
-    <t>Location</t>
-  </si>
-  <si>
-    <t>sub_location</t>
-  </si>
-  <si>
-    <t>Sub Location</t>
-  </si>
-  <si>
     <t>village</t>
   </si>
   <si>
-    <t>Village</t>
-  </si>
-  <si>
-    <t>landmark</t>
-  </si>
-  <si>
-    <t>Landmark</t>
+    <t>Village/ township of residence</t>
+  </si>
+  <si>
+    <t>pick_up</t>
+  </si>
+  <si>
+    <t>Pick up point</t>
   </si>
   <si>
     <t>residence</t>
@@ -1092,13 +1011,16 @@
     <t>nearest_health_center</t>
   </si>
   <si>
-    <t>Nearest health center</t>
+    <t>Nearest Health Centre</t>
   </si>
   <si>
     <t>kin_name</t>
   </si>
   <si>
-    <t>Next of kin name</t>
+    <t>Next of Kin Name</t>
+  </si>
+  <si>
+    <t>kin_phone_number</t>
   </si>
   <si>
     <t>kin_relationship</t>
@@ -1107,13 +1029,16 @@
     <t>Relationship</t>
   </si>
   <si>
-    <t>kin_phone_number</t>
-  </si>
-  <si>
-    <t>Phone number</t>
-  </si>
-  <si>
-    <t>kin_postal_address</t>
+    <t>Phone Nember</t>
+  </si>
+  <si>
+    <t>nhif_cover</t>
+  </si>
+  <si>
+    <t>NHIF cover</t>
+  </si>
+  <si>
+    <t>rtpcr</t>
   </si>
 </sst>
 </file>
@@ -1123,7 +1048,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="&quot;TRUE&quot;;&quot;TRUE&quot;;&quot;FALSE&quot;"/>
   </numFmts>
-  <fonts count="16" x14ac:knownFonts="1">
+  <fonts count="15" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -1223,14 +1148,8 @@
       <name val="Century Schoolbook"/>
       <family val="1"/>
     </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
-      <charset val="1"/>
-    </font>
   </fonts>
-  <fills count="13">
+  <fills count="12">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1297,12 +1216,6 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor rgb="FFCC99FF"/>
-      </patternFill>
-    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -1317,7 +1230,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="55">
+  <cellXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1384,13 +1297,6 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Explanatory Text" xfId="1" builtinId="53" customBuiltin="1"/>
@@ -1793,11 +1699,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Z670"/>
+  <dimension ref="A1:Z653"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A47" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C56" sqref="C56"/>
+      <pane ySplit="1" topLeftCell="A75" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B88" sqref="B88"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2002,9 +1908,7 @@
       <c r="B5" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="C5" s="5" t="s">
-        <v>37</v>
-      </c>
+      <c r="C5" s="7"/>
       <c r="D5" s="7"/>
       <c r="E5" s="7"/>
       <c r="F5" s="7"/>
@@ -2089,1231 +1993,1792 @@
       <c r="X7" s="8"/>
       <c r="Y7" s="8"/>
     </row>
-    <row r="8" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="4" t="s">
+    <row r="8" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="11" t="s">
+        <v>243</v>
+      </c>
+      <c r="B8" s="11" t="s">
+        <v>244</v>
+      </c>
+      <c r="C8" s="11" t="s">
+        <v>245</v>
+      </c>
+      <c r="D8" s="11"/>
+      <c r="E8" s="11"/>
+      <c r="F8" s="11" t="s">
+        <v>246</v>
+      </c>
+      <c r="G8" s="7"/>
+      <c r="H8" s="7"/>
+      <c r="I8" s="7"/>
+      <c r="J8" s="7"/>
+      <c r="K8" s="7"/>
+      <c r="L8" s="7"/>
+      <c r="M8" s="7"/>
+      <c r="N8" s="7"/>
+      <c r="O8" s="7"/>
+      <c r="P8" s="8"/>
+      <c r="Q8" s="8"/>
+      <c r="R8" s="8"/>
+      <c r="S8" s="8"/>
+      <c r="T8" s="8"/>
+      <c r="U8" s="8"/>
+      <c r="V8" s="8"/>
+      <c r="W8" s="8"/>
+      <c r="X8" s="8"/>
+      <c r="Y8" s="8"/>
+    </row>
+    <row r="9" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="B9" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="C9" s="11" t="s">
+        <v>247</v>
+      </c>
+      <c r="D9" s="11"/>
+      <c r="E9" s="11"/>
+      <c r="F9" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="G9" s="7"/>
+      <c r="H9" s="7"/>
+      <c r="I9" s="7"/>
+      <c r="J9" s="7"/>
+      <c r="K9" s="7"/>
+      <c r="L9" s="7"/>
+      <c r="M9" s="7"/>
+      <c r="N9" s="7"/>
+      <c r="O9" s="7"/>
+      <c r="P9" s="8"/>
+      <c r="Q9" s="8"/>
+      <c r="R9" s="8"/>
+      <c r="S9" s="8"/>
+      <c r="T9" s="8"/>
+      <c r="U9" s="8"/>
+      <c r="V9" s="8"/>
+      <c r="W9" s="8"/>
+      <c r="X9" s="8"/>
+      <c r="Y9" s="8"/>
+    </row>
+    <row r="10" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="B10" s="11" t="s">
+        <v>248</v>
+      </c>
+      <c r="C10" s="11" t="s">
+        <v>249</v>
+      </c>
+      <c r="D10" s="11"/>
+      <c r="E10" s="11"/>
+      <c r="F10" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="G10" s="7"/>
+      <c r="H10" s="7"/>
+      <c r="I10" s="7"/>
+      <c r="J10" s="7"/>
+      <c r="K10" s="7"/>
+      <c r="L10" s="7"/>
+      <c r="M10" s="7"/>
+      <c r="N10" s="7"/>
+      <c r="O10" s="7"/>
+      <c r="P10" s="8"/>
+      <c r="Q10" s="8"/>
+      <c r="R10" s="8"/>
+      <c r="S10" s="8"/>
+      <c r="T10" s="8"/>
+      <c r="U10" s="8"/>
+      <c r="V10" s="8"/>
+      <c r="W10" s="8"/>
+      <c r="X10" s="8"/>
+      <c r="Y10" s="8"/>
+    </row>
+    <row r="11" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="B11" s="11" t="s">
+        <v>250</v>
+      </c>
+      <c r="C11" s="11" t="s">
+        <v>251</v>
+      </c>
+      <c r="D11" s="11"/>
+      <c r="E11" s="11"/>
+      <c r="F11" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="G11" s="7"/>
+      <c r="H11" s="7"/>
+      <c r="I11" s="7"/>
+      <c r="J11" s="7"/>
+      <c r="K11" s="7"/>
+      <c r="L11" s="7"/>
+      <c r="M11" s="7"/>
+      <c r="N11" s="7"/>
+      <c r="O11" s="7"/>
+      <c r="P11" s="8"/>
+      <c r="Q11" s="8"/>
+      <c r="R11" s="8"/>
+      <c r="S11" s="8"/>
+      <c r="T11" s="8"/>
+      <c r="U11" s="8"/>
+      <c r="V11" s="8"/>
+      <c r="W11" s="8"/>
+      <c r="X11" s="8"/>
+      <c r="Y11" s="8"/>
+    </row>
+    <row r="12" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="B12" s="11" t="s">
+        <v>252</v>
+      </c>
+      <c r="C12" s="11" t="s">
+        <v>253</v>
+      </c>
+      <c r="D12" s="11"/>
+      <c r="E12" s="11"/>
+      <c r="F12" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="G12" s="7"/>
+      <c r="H12" s="7"/>
+      <c r="I12" s="7"/>
+      <c r="J12" s="7"/>
+      <c r="K12" s="7"/>
+      <c r="L12" s="7"/>
+      <c r="M12" s="7"/>
+      <c r="N12" s="7"/>
+      <c r="O12" s="7"/>
+      <c r="P12" s="8"/>
+      <c r="Q12" s="8"/>
+      <c r="R12" s="8"/>
+      <c r="S12" s="8"/>
+      <c r="T12" s="8"/>
+      <c r="U12" s="8"/>
+      <c r="V12" s="8"/>
+      <c r="W12" s="8"/>
+      <c r="X12" s="8"/>
+      <c r="Y12" s="8"/>
+    </row>
+    <row r="13" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="B13" s="11" t="s">
+        <v>254</v>
+      </c>
+      <c r="C13" s="11" t="s">
+        <v>255</v>
+      </c>
+      <c r="D13" s="11"/>
+      <c r="E13" s="11"/>
+      <c r="F13" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="G13" s="7"/>
+      <c r="H13" s="7"/>
+      <c r="I13" s="7"/>
+      <c r="J13" s="7"/>
+      <c r="K13" s="7"/>
+      <c r="L13" s="7"/>
+      <c r="M13" s="7"/>
+      <c r="N13" s="7"/>
+      <c r="O13" s="7"/>
+      <c r="P13" s="8"/>
+      <c r="Q13" s="8"/>
+      <c r="R13" s="8"/>
+      <c r="S13" s="8"/>
+      <c r="T13" s="8"/>
+      <c r="U13" s="8"/>
+      <c r="V13" s="8"/>
+      <c r="W13" s="8"/>
+      <c r="X13" s="8"/>
+      <c r="Y13" s="8"/>
+    </row>
+    <row r="14" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="B14" s="11" t="s">
+        <v>256</v>
+      </c>
+      <c r="C14" s="11" t="s">
+        <v>257</v>
+      </c>
+      <c r="D14" s="11"/>
+      <c r="E14" s="11"/>
+      <c r="F14" s="11"/>
+      <c r="G14" s="7"/>
+      <c r="H14" s="7"/>
+      <c r="I14" s="7"/>
+      <c r="J14" s="7"/>
+      <c r="K14" s="7"/>
+      <c r="L14" s="7"/>
+      <c r="M14" s="7"/>
+      <c r="N14" s="7"/>
+      <c r="O14" s="7"/>
+      <c r="P14" s="8"/>
+      <c r="Q14" s="8"/>
+      <c r="R14" s="8"/>
+      <c r="S14" s="8"/>
+      <c r="T14" s="8"/>
+      <c r="U14" s="8"/>
+      <c r="V14" s="8"/>
+      <c r="W14" s="8"/>
+      <c r="X14" s="8"/>
+      <c r="Y14" s="8"/>
+    </row>
+    <row r="15" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="B15" s="11" t="s">
+        <v>258</v>
+      </c>
+      <c r="C15" s="11" t="s">
+        <v>259</v>
+      </c>
+      <c r="D15" s="11"/>
+      <c r="E15" s="11"/>
+      <c r="F15" s="11"/>
+      <c r="G15" s="7"/>
+      <c r="H15" s="7"/>
+      <c r="I15" s="7"/>
+      <c r="J15" s="7"/>
+      <c r="K15" s="7"/>
+      <c r="L15" s="7"/>
+      <c r="M15" s="7"/>
+      <c r="N15" s="7"/>
+      <c r="O15" s="7"/>
+      <c r="P15" s="8"/>
+      <c r="Q15" s="8"/>
+      <c r="R15" s="8"/>
+      <c r="S15" s="8"/>
+      <c r="T15" s="8"/>
+      <c r="U15" s="8"/>
+      <c r="V15" s="8"/>
+      <c r="W15" s="8"/>
+      <c r="X15" s="8"/>
+      <c r="Y15" s="8"/>
+    </row>
+    <row r="16" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="B16" s="11" t="s">
+        <v>260</v>
+      </c>
+      <c r="C16" s="11" t="s">
+        <v>261</v>
+      </c>
+      <c r="D16" s="11"/>
+      <c r="E16" s="11"/>
+      <c r="F16" s="11"/>
+      <c r="G16" s="7"/>
+      <c r="H16" s="7"/>
+      <c r="I16" s="7"/>
+      <c r="J16" s="7"/>
+      <c r="K16" s="7"/>
+      <c r="L16" s="7"/>
+      <c r="M16" s="7"/>
+      <c r="N16" s="7"/>
+      <c r="O16" s="7"/>
+      <c r="P16" s="8"/>
+      <c r="Q16" s="8"/>
+      <c r="R16" s="8"/>
+      <c r="S16" s="8"/>
+      <c r="T16" s="8"/>
+      <c r="U16" s="8"/>
+      <c r="V16" s="8"/>
+      <c r="W16" s="8"/>
+      <c r="X16" s="8"/>
+      <c r="Y16" s="8"/>
+    </row>
+    <row r="17" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="B17" s="11" t="s">
+        <v>262</v>
+      </c>
+      <c r="C17" s="11" t="s">
+        <v>263</v>
+      </c>
+      <c r="D17" s="11"/>
+      <c r="E17" s="11"/>
+      <c r="F17" s="11"/>
+      <c r="G17" s="7"/>
+      <c r="H17" s="7"/>
+      <c r="I17" s="7"/>
+      <c r="J17" s="7"/>
+      <c r="K17" s="7"/>
+      <c r="L17" s="7"/>
+      <c r="M17" s="7"/>
+      <c r="N17" s="7"/>
+      <c r="O17" s="7"/>
+      <c r="P17" s="8"/>
+      <c r="Q17" s="8"/>
+      <c r="R17" s="8"/>
+      <c r="S17" s="8"/>
+      <c r="T17" s="8"/>
+      <c r="U17" s="8"/>
+      <c r="V17" s="8"/>
+      <c r="W17" s="8"/>
+      <c r="X17" s="8"/>
+      <c r="Y17" s="8"/>
+    </row>
+    <row r="18" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="B18" s="11" t="s">
+        <v>264</v>
+      </c>
+      <c r="C18" s="11" t="s">
+        <v>267</v>
+      </c>
+      <c r="D18" s="11"/>
+      <c r="E18" s="11"/>
+      <c r="F18" s="11"/>
+      <c r="G18" s="7"/>
+      <c r="H18" s="7"/>
+      <c r="I18" s="7"/>
+      <c r="J18" s="7"/>
+      <c r="K18" s="7"/>
+      <c r="L18" s="7"/>
+      <c r="M18" s="7"/>
+      <c r="N18" s="7"/>
+      <c r="O18" s="7"/>
+      <c r="P18" s="8"/>
+      <c r="Q18" s="8"/>
+      <c r="R18" s="8"/>
+      <c r="S18" s="8"/>
+      <c r="T18" s="8"/>
+      <c r="U18" s="8"/>
+      <c r="V18" s="8"/>
+      <c r="W18" s="8"/>
+      <c r="X18" s="8"/>
+      <c r="Y18" s="8"/>
+    </row>
+    <row r="19" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="B19" s="11" t="s">
+        <v>265</v>
+      </c>
+      <c r="C19" s="11" t="s">
+        <v>268</v>
+      </c>
+      <c r="D19" s="11"/>
+      <c r="E19" s="11"/>
+      <c r="F19" s="11"/>
+      <c r="G19" s="7"/>
+      <c r="H19" s="7"/>
+      <c r="I19" s="7"/>
+      <c r="J19" s="7"/>
+      <c r="K19" s="7"/>
+      <c r="L19" s="7"/>
+      <c r="M19" s="7"/>
+      <c r="N19" s="7"/>
+      <c r="O19" s="7"/>
+      <c r="P19" s="8"/>
+      <c r="Q19" s="8"/>
+      <c r="R19" s="8"/>
+      <c r="S19" s="8"/>
+      <c r="T19" s="8"/>
+      <c r="U19" s="8"/>
+      <c r="V19" s="8"/>
+      <c r="W19" s="8"/>
+      <c r="X19" s="8"/>
+      <c r="Y19" s="8"/>
+    </row>
+    <row r="20" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="B20" s="11" t="s">
+        <v>266</v>
+      </c>
+      <c r="C20" s="11" t="s">
+        <v>269</v>
+      </c>
+      <c r="D20" s="11"/>
+      <c r="E20" s="11"/>
+      <c r="F20" s="11"/>
+      <c r="G20" s="7"/>
+      <c r="H20" s="7"/>
+      <c r="I20" s="7"/>
+      <c r="J20" s="7"/>
+      <c r="K20" s="7"/>
+      <c r="L20" s="7"/>
+      <c r="M20" s="7"/>
+      <c r="N20" s="7"/>
+      <c r="O20" s="7"/>
+      <c r="P20" s="8"/>
+      <c r="Q20" s="8"/>
+      <c r="R20" s="8"/>
+      <c r="S20" s="8"/>
+      <c r="T20" s="8"/>
+      <c r="U20" s="8"/>
+      <c r="V20" s="8"/>
+      <c r="W20" s="8"/>
+      <c r="X20" s="8"/>
+      <c r="Y20" s="8"/>
+    </row>
+    <row r="21" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="B21" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="C21" s="11" t="s">
+        <v>270</v>
+      </c>
+      <c r="D21" s="11"/>
+      <c r="E21" s="11"/>
+      <c r="F21" s="11"/>
+      <c r="G21" s="7"/>
+      <c r="H21" s="7"/>
+      <c r="I21" s="7"/>
+      <c r="J21" s="7"/>
+      <c r="K21" s="7"/>
+      <c r="L21" s="7"/>
+      <c r="M21" s="7"/>
+      <c r="N21" s="7"/>
+      <c r="O21" s="7"/>
+      <c r="P21" s="8"/>
+      <c r="Q21" s="8"/>
+      <c r="R21" s="8"/>
+      <c r="S21" s="8"/>
+      <c r="T21" s="8"/>
+      <c r="U21" s="8"/>
+      <c r="V21" s="8"/>
+      <c r="W21" s="8"/>
+      <c r="X21" s="8"/>
+      <c r="Y21" s="8"/>
+    </row>
+    <row r="22" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="B22" s="11" t="s">
+        <v>271</v>
+      </c>
+      <c r="C22" s="11" t="s">
+        <v>272</v>
+      </c>
+      <c r="D22" s="11"/>
+      <c r="E22" s="11"/>
+      <c r="F22" s="11"/>
+      <c r="G22" s="7"/>
+      <c r="H22" s="7"/>
+      <c r="I22" s="7"/>
+      <c r="J22" s="7"/>
+      <c r="K22" s="7"/>
+      <c r="L22" s="7"/>
+      <c r="M22" s="7"/>
+      <c r="N22" s="7"/>
+      <c r="O22" s="7"/>
+      <c r="P22" s="8"/>
+      <c r="Q22" s="8"/>
+      <c r="R22" s="8"/>
+      <c r="S22" s="8"/>
+      <c r="T22" s="8"/>
+      <c r="U22" s="8"/>
+      <c r="V22" s="8"/>
+      <c r="W22" s="8"/>
+      <c r="X22" s="8"/>
+      <c r="Y22" s="8"/>
+    </row>
+    <row r="23" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="B23" s="11" t="s">
+        <v>273</v>
+      </c>
+      <c r="C23" s="11" t="s">
+        <v>274</v>
+      </c>
+      <c r="D23" s="11"/>
+      <c r="E23" s="11"/>
+      <c r="F23" s="11"/>
+      <c r="G23" s="7"/>
+      <c r="H23" s="7"/>
+      <c r="I23" s="7"/>
+      <c r="J23" s="7"/>
+      <c r="K23" s="7"/>
+      <c r="L23" s="7"/>
+      <c r="M23" s="7"/>
+      <c r="N23" s="7"/>
+      <c r="O23" s="7"/>
+      <c r="P23" s="8"/>
+      <c r="Q23" s="8"/>
+      <c r="R23" s="8"/>
+      <c r="S23" s="8"/>
+      <c r="T23" s="8"/>
+      <c r="U23" s="8"/>
+      <c r="V23" s="8"/>
+      <c r="W23" s="8"/>
+      <c r="X23" s="8"/>
+      <c r="Y23" s="8"/>
+    </row>
+    <row r="24" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="B24" s="11" t="s">
+        <v>275</v>
+      </c>
+      <c r="C24" s="11" t="s">
+        <v>276</v>
+      </c>
+      <c r="D24" s="11"/>
+      <c r="E24" s="11"/>
+      <c r="F24" s="11"/>
+      <c r="G24" s="7"/>
+      <c r="H24" s="7"/>
+      <c r="I24" s="7"/>
+      <c r="J24" s="7"/>
+      <c r="K24" s="7"/>
+      <c r="L24" s="7"/>
+      <c r="M24" s="7"/>
+      <c r="N24" s="7"/>
+      <c r="O24" s="7"/>
+      <c r="P24" s="8"/>
+      <c r="Q24" s="8"/>
+      <c r="R24" s="8"/>
+      <c r="S24" s="8"/>
+      <c r="T24" s="8"/>
+      <c r="U24" s="8"/>
+      <c r="V24" s="8"/>
+      <c r="W24" s="8"/>
+      <c r="X24" s="8"/>
+      <c r="Y24" s="8"/>
+    </row>
+    <row r="25" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="B25" s="11" t="s">
+        <v>277</v>
+      </c>
+      <c r="C25" s="11" t="s">
+        <v>278</v>
+      </c>
+      <c r="D25" s="11"/>
+      <c r="E25" s="11"/>
+      <c r="F25" s="11"/>
+      <c r="G25" s="7"/>
+      <c r="H25" s="7"/>
+      <c r="I25" s="7"/>
+      <c r="J25" s="7"/>
+      <c r="K25" s="7"/>
+      <c r="L25" s="7"/>
+      <c r="M25" s="7"/>
+      <c r="N25" s="7"/>
+      <c r="O25" s="7"/>
+      <c r="P25" s="8"/>
+      <c r="Q25" s="8"/>
+      <c r="R25" s="8"/>
+      <c r="S25" s="8"/>
+      <c r="T25" s="8"/>
+      <c r="U25" s="8"/>
+      <c r="V25" s="8"/>
+      <c r="W25" s="8"/>
+      <c r="X25" s="8"/>
+      <c r="Y25" s="8"/>
+    </row>
+    <row r="26" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="B26" s="11" t="s">
+        <v>279</v>
+      </c>
+      <c r="C26" s="11" t="s">
+        <v>280</v>
+      </c>
+      <c r="D26" s="11"/>
+      <c r="E26" s="11"/>
+      <c r="F26" s="11"/>
+      <c r="G26" s="7"/>
+      <c r="H26" s="7"/>
+      <c r="I26" s="7"/>
+      <c r="J26" s="7"/>
+      <c r="K26" s="7"/>
+      <c r="L26" s="7"/>
+      <c r="M26" s="7"/>
+      <c r="N26" s="7"/>
+      <c r="O26" s="7"/>
+      <c r="P26" s="8"/>
+      <c r="Q26" s="8"/>
+      <c r="R26" s="8"/>
+      <c r="S26" s="8"/>
+      <c r="T26" s="8"/>
+      <c r="U26" s="8"/>
+      <c r="V26" s="8"/>
+      <c r="W26" s="8"/>
+      <c r="X26" s="8"/>
+      <c r="Y26" s="8"/>
+    </row>
+    <row r="27" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="B27" s="11" t="s">
+        <v>281</v>
+      </c>
+      <c r="C27" s="11" t="s">
+        <v>282</v>
+      </c>
+      <c r="D27" s="11"/>
+      <c r="E27" s="11"/>
+      <c r="F27" s="11"/>
+      <c r="G27" s="7"/>
+      <c r="H27" s="7"/>
+      <c r="I27" s="7"/>
+      <c r="J27" s="7"/>
+      <c r="K27" s="7"/>
+      <c r="L27" s="7"/>
+      <c r="M27" s="7"/>
+      <c r="N27" s="7"/>
+      <c r="O27" s="7"/>
+      <c r="P27" s="8"/>
+      <c r="Q27" s="8"/>
+      <c r="R27" s="8"/>
+      <c r="S27" s="8"/>
+      <c r="T27" s="8"/>
+      <c r="U27" s="8"/>
+      <c r="V27" s="8"/>
+      <c r="W27" s="8"/>
+      <c r="X27" s="8"/>
+      <c r="Y27" s="8"/>
+    </row>
+    <row r="28" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="B28" s="11" t="s">
+        <v>283</v>
+      </c>
+      <c r="C28" s="11" t="s">
+        <v>284</v>
+      </c>
+      <c r="D28" s="11"/>
+      <c r="E28" s="11"/>
+      <c r="F28" s="11"/>
+      <c r="G28" s="7"/>
+      <c r="H28" s="7"/>
+      <c r="I28" s="7"/>
+      <c r="J28" s="7"/>
+      <c r="K28" s="7"/>
+      <c r="L28" s="7"/>
+      <c r="M28" s="7"/>
+      <c r="N28" s="7"/>
+      <c r="O28" s="7"/>
+      <c r="P28" s="8"/>
+      <c r="Q28" s="8"/>
+      <c r="R28" s="8"/>
+      <c r="S28" s="8"/>
+      <c r="T28" s="8"/>
+      <c r="U28" s="8"/>
+      <c r="V28" s="8"/>
+      <c r="W28" s="8"/>
+      <c r="X28" s="8"/>
+      <c r="Y28" s="8"/>
+    </row>
+    <row r="29" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="B29" s="11" t="s">
+        <v>285</v>
+      </c>
+      <c r="C29" s="11" t="s">
+        <v>286</v>
+      </c>
+      <c r="D29" s="11"/>
+      <c r="E29" s="11"/>
+      <c r="F29" s="11"/>
+      <c r="G29" s="7"/>
+      <c r="H29" s="7"/>
+      <c r="I29" s="7"/>
+      <c r="J29" s="7"/>
+      <c r="K29" s="7"/>
+      <c r="L29" s="7"/>
+      <c r="M29" s="7"/>
+      <c r="N29" s="7"/>
+      <c r="O29" s="7"/>
+      <c r="P29" s="8"/>
+      <c r="Q29" s="8"/>
+      <c r="R29" s="8"/>
+      <c r="S29" s="8"/>
+      <c r="T29" s="8"/>
+      <c r="U29" s="8"/>
+      <c r="V29" s="8"/>
+      <c r="W29" s="8"/>
+      <c r="X29" s="8"/>
+      <c r="Y29" s="8"/>
+    </row>
+    <row r="30" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="B30" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="C30" s="11" t="s">
+        <v>287</v>
+      </c>
+      <c r="D30" s="11"/>
+      <c r="E30" s="11"/>
+      <c r="F30" s="11"/>
+      <c r="G30" s="7"/>
+      <c r="H30" s="7"/>
+      <c r="I30" s="7"/>
+      <c r="J30" s="7"/>
+      <c r="K30" s="7"/>
+      <c r="L30" s="7"/>
+      <c r="M30" s="7"/>
+      <c r="N30" s="7"/>
+      <c r="O30" s="7"/>
+      <c r="P30" s="8"/>
+      <c r="Q30" s="8"/>
+      <c r="R30" s="8"/>
+      <c r="S30" s="8"/>
+      <c r="T30" s="8"/>
+      <c r="U30" s="8"/>
+      <c r="V30" s="8"/>
+      <c r="W30" s="8"/>
+      <c r="X30" s="8"/>
+      <c r="Y30" s="8"/>
+    </row>
+    <row r="31" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="B31" s="11" t="s">
+        <v>288</v>
+      </c>
+      <c r="C31" s="11" t="s">
+        <v>289</v>
+      </c>
+      <c r="D31" s="11"/>
+      <c r="E31" s="11"/>
+      <c r="F31" s="11"/>
+      <c r="G31" s="7"/>
+      <c r="H31" s="7"/>
+      <c r="I31" s="7"/>
+      <c r="J31" s="7"/>
+      <c r="K31" s="7"/>
+      <c r="L31" s="7"/>
+      <c r="M31" s="7"/>
+      <c r="N31" s="7"/>
+      <c r="O31" s="7"/>
+      <c r="P31" s="8"/>
+      <c r="Q31" s="8"/>
+      <c r="R31" s="8"/>
+      <c r="S31" s="8"/>
+      <c r="T31" s="8"/>
+      <c r="U31" s="8"/>
+      <c r="V31" s="8"/>
+      <c r="W31" s="8"/>
+      <c r="X31" s="8"/>
+      <c r="Y31" s="8"/>
+    </row>
+    <row r="32" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="B32" s="11" t="s">
+        <v>290</v>
+      </c>
+      <c r="C32" s="11" t="s">
+        <v>291</v>
+      </c>
+      <c r="D32" s="11"/>
+      <c r="E32" s="11"/>
+      <c r="F32" s="11"/>
+      <c r="G32" s="7"/>
+      <c r="H32" s="7"/>
+      <c r="I32" s="7"/>
+      <c r="J32" s="7"/>
+      <c r="K32" s="7"/>
+      <c r="L32" s="7"/>
+      <c r="M32" s="7"/>
+      <c r="N32" s="7"/>
+      <c r="O32" s="7"/>
+      <c r="P32" s="8"/>
+      <c r="Q32" s="8"/>
+      <c r="R32" s="8"/>
+      <c r="S32" s="8"/>
+      <c r="T32" s="8"/>
+      <c r="U32" s="8"/>
+      <c r="V32" s="8"/>
+      <c r="W32" s="8"/>
+      <c r="X32" s="8"/>
+      <c r="Y32" s="8"/>
+    </row>
+    <row r="33" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="B33" s="11" t="s">
+        <v>292</v>
+      </c>
+      <c r="C33" s="11" t="s">
+        <v>293</v>
+      </c>
+      <c r="D33" s="11"/>
+      <c r="E33" s="11"/>
+      <c r="F33" s="11"/>
+      <c r="G33" s="7"/>
+      <c r="H33" s="7"/>
+      <c r="I33" s="7"/>
+      <c r="J33" s="7"/>
+      <c r="K33" s="7"/>
+      <c r="L33" s="7"/>
+      <c r="M33" s="7"/>
+      <c r="N33" s="7"/>
+      <c r="O33" s="7"/>
+      <c r="P33" s="8"/>
+      <c r="Q33" s="8"/>
+      <c r="R33" s="8"/>
+      <c r="S33" s="8"/>
+      <c r="T33" s="8"/>
+      <c r="U33" s="8"/>
+      <c r="V33" s="8"/>
+      <c r="W33" s="8"/>
+      <c r="X33" s="8"/>
+      <c r="Y33" s="8"/>
+    </row>
+    <row r="34" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="B34" s="11" t="s">
+        <v>294</v>
+      </c>
+      <c r="C34" s="11" t="s">
+        <v>295</v>
+      </c>
+      <c r="D34" s="11"/>
+      <c r="E34" s="11"/>
+      <c r="F34" s="11"/>
+      <c r="G34" s="7"/>
+      <c r="H34" s="7"/>
+      <c r="I34" s="7"/>
+      <c r="J34" s="7"/>
+      <c r="K34" s="7"/>
+      <c r="L34" s="7"/>
+      <c r="M34" s="7"/>
+      <c r="N34" s="7"/>
+      <c r="O34" s="7"/>
+      <c r="P34" s="8"/>
+      <c r="Q34" s="8"/>
+      <c r="R34" s="8"/>
+      <c r="S34" s="8"/>
+      <c r="T34" s="8"/>
+      <c r="U34" s="8"/>
+      <c r="V34" s="8"/>
+      <c r="W34" s="8"/>
+      <c r="X34" s="8"/>
+      <c r="Y34" s="8"/>
+    </row>
+    <row r="35" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A35" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="B35" s="11" t="s">
+        <v>296</v>
+      </c>
+      <c r="C35" s="11" t="s">
+        <v>297</v>
+      </c>
+      <c r="D35" s="11"/>
+      <c r="E35" s="11"/>
+      <c r="F35" s="11"/>
+      <c r="G35" s="7"/>
+      <c r="H35" s="7"/>
+      <c r="I35" s="7"/>
+      <c r="J35" s="7"/>
+      <c r="K35" s="7"/>
+      <c r="L35" s="7"/>
+      <c r="M35" s="7"/>
+      <c r="N35" s="7"/>
+      <c r="O35" s="7"/>
+      <c r="P35" s="8"/>
+      <c r="Q35" s="8"/>
+      <c r="R35" s="8"/>
+      <c r="S35" s="8"/>
+      <c r="T35" s="8"/>
+      <c r="U35" s="8"/>
+      <c r="V35" s="8"/>
+      <c r="W35" s="8"/>
+      <c r="X35" s="8"/>
+      <c r="Y35" s="8"/>
+    </row>
+    <row r="36" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A36" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="B36" s="11" t="s">
+        <v>298</v>
+      </c>
+      <c r="C36" s="11" t="s">
+        <v>299</v>
+      </c>
+      <c r="D36" s="11"/>
+      <c r="E36" s="11"/>
+      <c r="F36" s="11"/>
+      <c r="G36" s="7"/>
+      <c r="H36" s="7"/>
+      <c r="I36" s="7"/>
+      <c r="J36" s="7"/>
+      <c r="K36" s="7"/>
+      <c r="L36" s="7"/>
+      <c r="M36" s="7"/>
+      <c r="N36" s="7"/>
+      <c r="O36" s="7"/>
+      <c r="P36" s="8"/>
+      <c r="Q36" s="8"/>
+      <c r="R36" s="8"/>
+      <c r="S36" s="8"/>
+      <c r="T36" s="8"/>
+      <c r="U36" s="8"/>
+      <c r="V36" s="8"/>
+      <c r="W36" s="8"/>
+      <c r="X36" s="8"/>
+      <c r="Y36" s="8"/>
+    </row>
+    <row r="37" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A37" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="B37" s="11" t="s">
+        <v>300</v>
+      </c>
+      <c r="C37" s="11" t="s">
+        <v>301</v>
+      </c>
+      <c r="D37" s="11"/>
+      <c r="E37" s="11"/>
+      <c r="F37" s="11"/>
+      <c r="G37" s="7"/>
+      <c r="H37" s="7"/>
+      <c r="I37" s="7"/>
+      <c r="J37" s="7"/>
+      <c r="K37" s="7"/>
+      <c r="L37" s="7"/>
+      <c r="M37" s="7"/>
+      <c r="N37" s="7"/>
+      <c r="O37" s="7"/>
+      <c r="P37" s="8"/>
+      <c r="Q37" s="8"/>
+      <c r="R37" s="8"/>
+      <c r="S37" s="8"/>
+      <c r="T37" s="8"/>
+      <c r="U37" s="8"/>
+      <c r="V37" s="8"/>
+      <c r="W37" s="8"/>
+      <c r="X37" s="8"/>
+      <c r="Y37" s="8"/>
+    </row>
+    <row r="38" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A38" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="B38" s="11" t="s">
+        <v>303</v>
+      </c>
+      <c r="C38" s="11" t="s">
+        <v>304</v>
+      </c>
+      <c r="D38" s="11"/>
+      <c r="E38" s="11"/>
+      <c r="F38" s="11"/>
+      <c r="G38" s="7"/>
+      <c r="H38" s="7"/>
+      <c r="I38" s="7"/>
+      <c r="J38" s="7"/>
+      <c r="K38" s="7"/>
+      <c r="L38" s="7"/>
+      <c r="M38" s="7"/>
+      <c r="N38" s="7"/>
+      <c r="O38" s="7"/>
+      <c r="P38" s="8"/>
+      <c r="Q38" s="8"/>
+      <c r="R38" s="8"/>
+      <c r="S38" s="8"/>
+      <c r="T38" s="8"/>
+      <c r="U38" s="8"/>
+      <c r="V38" s="8"/>
+      <c r="W38" s="8"/>
+      <c r="X38" s="8"/>
+      <c r="Y38" s="8"/>
+    </row>
+    <row r="39" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A39" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="B39" s="11" t="s">
+        <v>302</v>
+      </c>
+      <c r="C39" s="11" t="s">
+        <v>305</v>
+      </c>
+      <c r="D39" s="11"/>
+      <c r="E39" s="11"/>
+      <c r="F39" s="11"/>
+      <c r="G39" s="7"/>
+      <c r="H39" s="7"/>
+      <c r="I39" s="7"/>
+      <c r="J39" s="7"/>
+      <c r="K39" s="7"/>
+      <c r="L39" s="7"/>
+      <c r="M39" s="7"/>
+      <c r="N39" s="7"/>
+      <c r="O39" s="7"/>
+      <c r="P39" s="8"/>
+      <c r="Q39" s="8"/>
+      <c r="R39" s="8"/>
+      <c r="S39" s="8"/>
+      <c r="T39" s="8"/>
+      <c r="U39" s="8"/>
+      <c r="V39" s="8"/>
+      <c r="W39" s="8"/>
+      <c r="X39" s="8"/>
+      <c r="Y39" s="8"/>
+    </row>
+    <row r="40" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A40" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="B40" s="11" t="s">
+        <v>306</v>
+      </c>
+      <c r="C40" s="11" t="s">
+        <v>307</v>
+      </c>
+      <c r="D40" s="11"/>
+      <c r="E40" s="11"/>
+      <c r="F40" s="11"/>
+      <c r="G40" s="7"/>
+      <c r="H40" s="7"/>
+      <c r="I40" s="7"/>
+      <c r="J40" s="7"/>
+      <c r="K40" s="7"/>
+      <c r="L40" s="7"/>
+      <c r="M40" s="7"/>
+      <c r="N40" s="7"/>
+      <c r="O40" s="7"/>
+      <c r="P40" s="8"/>
+      <c r="Q40" s="8"/>
+      <c r="R40" s="8"/>
+      <c r="S40" s="8"/>
+      <c r="T40" s="8"/>
+      <c r="U40" s="8"/>
+      <c r="V40" s="8"/>
+      <c r="W40" s="8"/>
+      <c r="X40" s="8"/>
+      <c r="Y40" s="8"/>
+    </row>
+    <row r="41" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A41" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="B8" s="4"/>
-      <c r="C8" s="4"/>
-      <c r="D8" s="4"/>
-      <c r="E8" s="4"/>
-      <c r="F8" s="4"/>
-      <c r="G8" s="4"/>
-      <c r="H8" s="4"/>
-      <c r="I8" s="4"/>
-      <c r="J8" s="4"/>
-      <c r="K8" s="4"/>
-      <c r="L8" s="4"/>
-      <c r="M8" s="4"/>
-      <c r="N8" s="4"/>
-      <c r="O8" s="4"/>
-      <c r="P8" s="5"/>
-      <c r="Q8" s="5"/>
-      <c r="R8" s="5"/>
-      <c r="S8" s="5"/>
-      <c r="T8" s="5"/>
-      <c r="U8" s="5"/>
-      <c r="V8" s="5"/>
-      <c r="W8" s="3"/>
-      <c r="X8" s="3"/>
-      <c r="Y8" s="3"/>
-      <c r="Z8" s="3"/>
-    </row>
-    <row r="9" spans="1:26" s="50" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="4"/>
-      <c r="B9" s="4"/>
-      <c r="C9" s="4"/>
-      <c r="D9" s="4"/>
-      <c r="E9" s="4"/>
-      <c r="F9" s="4"/>
-      <c r="G9" s="4"/>
-      <c r="H9" s="4"/>
-      <c r="I9" s="4"/>
-      <c r="J9" s="4"/>
-      <c r="K9" s="4"/>
-      <c r="L9" s="4"/>
-      <c r="M9" s="4"/>
-      <c r="N9" s="4"/>
-      <c r="O9" s="4"/>
-      <c r="P9" s="5"/>
-      <c r="Q9" s="5"/>
-      <c r="R9" s="5"/>
-      <c r="S9" s="5"/>
-      <c r="T9" s="5"/>
-      <c r="U9" s="5"/>
-      <c r="V9" s="5"/>
-      <c r="W9" s="3"/>
-      <c r="X9" s="3"/>
-      <c r="Y9" s="3"/>
-      <c r="Z9" s="3"/>
-    </row>
-    <row r="10" spans="1:26" s="54" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="53" t="s">
+      <c r="B41" s="4"/>
+      <c r="C41" s="4"/>
+      <c r="D41" s="4"/>
+      <c r="E41" s="4"/>
+      <c r="F41" s="4"/>
+      <c r="G41" s="4"/>
+      <c r="H41" s="4"/>
+      <c r="I41" s="4"/>
+      <c r="J41" s="4"/>
+      <c r="K41" s="4"/>
+      <c r="L41" s="4"/>
+      <c r="M41" s="4"/>
+      <c r="N41" s="4"/>
+      <c r="O41" s="4"/>
+      <c r="P41" s="5"/>
+      <c r="Q41" s="5"/>
+      <c r="R41" s="5"/>
+      <c r="S41" s="5"/>
+      <c r="T41" s="5"/>
+      <c r="U41" s="5"/>
+      <c r="V41" s="5"/>
+      <c r="W41" s="3"/>
+      <c r="X41" s="3"/>
+      <c r="Y41" s="3"/>
+      <c r="Z41" s="3"/>
+    </row>
+    <row r="42" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A42" s="4"/>
+      <c r="B42" s="4"/>
+      <c r="C42" s="4"/>
+      <c r="D42" s="4"/>
+      <c r="E42" s="4"/>
+      <c r="F42" s="4"/>
+      <c r="G42" s="4"/>
+      <c r="H42" s="4"/>
+      <c r="I42" s="4"/>
+      <c r="J42" s="4"/>
+      <c r="K42" s="4"/>
+      <c r="L42" s="4"/>
+      <c r="M42" s="4"/>
+      <c r="N42" s="4"/>
+      <c r="O42" s="4"/>
+      <c r="P42" s="5"/>
+      <c r="Q42" s="5"/>
+      <c r="R42" s="5"/>
+      <c r="S42" s="5"/>
+      <c r="T42" s="5"/>
+      <c r="U42" s="5"/>
+      <c r="V42" s="5"/>
+      <c r="W42" s="3"/>
+      <c r="X42" s="3"/>
+      <c r="Y42" s="3"/>
+      <c r="Z42" s="3"/>
+    </row>
+    <row r="43" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A43" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="B43" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="C43" s="11"/>
+      <c r="D43" s="11"/>
+      <c r="E43" s="11"/>
+      <c r="F43" s="11"/>
+      <c r="G43" s="11"/>
+      <c r="H43" s="11"/>
+      <c r="I43" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="J43" s="11"/>
+      <c r="K43" s="11"/>
+      <c r="L43" s="11"/>
+      <c r="M43" s="11"/>
+      <c r="N43" s="11"/>
+      <c r="O43" s="11"/>
+      <c r="P43" s="11"/>
+      <c r="Q43" s="11"/>
+      <c r="R43" s="11"/>
+      <c r="S43" s="11"/>
+      <c r="T43" s="11"/>
+      <c r="U43" s="11"/>
+      <c r="V43" s="11"/>
+      <c r="W43" s="11"/>
+      <c r="X43" s="11"/>
+      <c r="Y43" s="11"/>
+      <c r="Z43" s="11"/>
+    </row>
+    <row r="44" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A44" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="B44" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="C44" s="11"/>
+      <c r="D44" s="11"/>
+      <c r="E44" s="11"/>
+      <c r="F44" s="11"/>
+      <c r="G44" s="11"/>
+      <c r="H44" s="11"/>
+      <c r="I44" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="J44" s="11"/>
+      <c r="K44" s="11"/>
+      <c r="L44" s="11"/>
+      <c r="M44" s="11"/>
+      <c r="N44" s="11"/>
+      <c r="O44" s="11"/>
+      <c r="P44" s="11"/>
+      <c r="Q44" s="11"/>
+      <c r="R44" s="11"/>
+      <c r="S44" s="11"/>
+      <c r="T44" s="11"/>
+      <c r="U44" s="11"/>
+      <c r="V44" s="11"/>
+      <c r="W44" s="11"/>
+      <c r="X44" s="11"/>
+      <c r="Y44" s="11"/>
+      <c r="Z44" s="11"/>
+    </row>
+    <row r="45" spans="1:26" s="11" customFormat="1" ht="12.9" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A45" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="B45" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="I45" s="12" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="46" spans="1:26" s="11" customFormat="1" ht="12.9" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A46" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="B46" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="I46" s="13" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="47" spans="1:26" s="11" customFormat="1" ht="12.9" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A47" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="B47" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="I47" s="13" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="48" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A48" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="B10" s="53" t="s">
-        <v>30</v>
-      </c>
-      <c r="C10" s="53" t="s">
-        <v>249</v>
-      </c>
-      <c r="D10" s="53"/>
-      <c r="E10" s="53"/>
-      <c r="F10" s="53"/>
-      <c r="G10" s="53"/>
-      <c r="H10" s="53"/>
-      <c r="I10" s="53"/>
-      <c r="J10" s="53"/>
-      <c r="K10" s="53"/>
-      <c r="L10" s="53"/>
-      <c r="M10" s="53"/>
-    </row>
-    <row r="11" spans="1:26" s="50" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="51" t="s">
-        <v>243</v>
-      </c>
-      <c r="B11" s="51" t="s">
-        <v>244</v>
-      </c>
-      <c r="C11" s="51" t="s">
-        <v>245</v>
-      </c>
-      <c r="D11" s="51"/>
-      <c r="E11" s="51"/>
-      <c r="F11" s="51" t="s">
-        <v>246</v>
-      </c>
-      <c r="G11" s="51"/>
-      <c r="H11" s="51"/>
-      <c r="I11" s="51"/>
-      <c r="J11" s="51"/>
-      <c r="K11" s="51" t="s">
-        <v>248</v>
-      </c>
-      <c r="L11" s="51"/>
-      <c r="M11" s="51"/>
-    </row>
-    <row r="12" spans="1:26" s="50" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="51" t="s">
-        <v>25</v>
-      </c>
-      <c r="B12" s="51" t="s">
-        <v>0</v>
-      </c>
-      <c r="C12" s="51" t="s">
-        <v>250</v>
-      </c>
-      <c r="D12" s="51"/>
-      <c r="E12" s="51"/>
-      <c r="F12" s="51" t="s">
-        <v>25</v>
-      </c>
-      <c r="G12" s="51"/>
-      <c r="H12" s="51"/>
-      <c r="I12" s="51"/>
-      <c r="J12" s="51"/>
-      <c r="K12" s="51"/>
-      <c r="L12" s="51"/>
-      <c r="M12" s="51"/>
-    </row>
-    <row r="13" spans="1:26" s="50" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="51" t="s">
-        <v>25</v>
-      </c>
-      <c r="B13" s="51" t="s">
-        <v>251</v>
-      </c>
-      <c r="C13" s="51" t="s">
-        <v>252</v>
-      </c>
-      <c r="D13" s="51"/>
-      <c r="E13" s="51"/>
-      <c r="F13" s="51" t="s">
-        <v>25</v>
-      </c>
-      <c r="G13" s="51"/>
-      <c r="H13" s="51"/>
-      <c r="I13" s="51"/>
-      <c r="J13" s="51"/>
-      <c r="K13" s="51"/>
-      <c r="L13" s="51"/>
-      <c r="M13" s="51"/>
-    </row>
-    <row r="14" spans="1:26" s="50" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="51" t="s">
-        <v>25</v>
-      </c>
-      <c r="B14" s="51" t="s">
-        <v>253</v>
-      </c>
-      <c r="C14" s="51" t="s">
-        <v>254</v>
-      </c>
-      <c r="D14" s="51"/>
-      <c r="E14" s="51"/>
-      <c r="F14" s="51" t="s">
-        <v>25</v>
-      </c>
-      <c r="G14" s="51"/>
-      <c r="H14" s="51"/>
-      <c r="I14" s="51"/>
-      <c r="J14" s="51"/>
-      <c r="K14" s="51"/>
-      <c r="L14" s="51"/>
-      <c r="M14" s="51"/>
-    </row>
-    <row r="15" spans="1:26" s="50" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="51" t="s">
-        <v>25</v>
-      </c>
-      <c r="B15" s="51" t="s">
-        <v>255</v>
-      </c>
-      <c r="C15" s="52" t="s">
-        <v>256</v>
-      </c>
-      <c r="D15" s="51"/>
-      <c r="E15" s="51"/>
-      <c r="F15" s="51" t="s">
-        <v>25</v>
-      </c>
-      <c r="G15" s="51"/>
-      <c r="H15" s="51"/>
-      <c r="I15" s="51"/>
-      <c r="J15" s="51"/>
-      <c r="K15" s="51"/>
-      <c r="L15" s="51"/>
-      <c r="M15" s="51"/>
-    </row>
-    <row r="16" spans="1:26" s="50" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="51" t="s">
-        <v>25</v>
-      </c>
-      <c r="B16" s="51" t="s">
-        <v>257</v>
-      </c>
-      <c r="C16" s="52" t="s">
-        <v>258</v>
-      </c>
-      <c r="D16" s="51"/>
-      <c r="E16" s="51"/>
-      <c r="F16" s="51" t="s">
-        <v>25</v>
-      </c>
-      <c r="G16" s="51"/>
-      <c r="H16" s="51"/>
-      <c r="I16" s="51"/>
-      <c r="J16" s="51"/>
-      <c r="K16" s="51"/>
-      <c r="L16" s="51"/>
-      <c r="M16" s="51"/>
-    </row>
-    <row r="17" spans="1:13" s="50" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="51" t="s">
-        <v>25</v>
-      </c>
-      <c r="B17" s="10" t="s">
-        <v>259</v>
-      </c>
-      <c r="C17" s="52" t="s">
-        <v>260</v>
-      </c>
-      <c r="D17" s="51"/>
-      <c r="E17" s="51"/>
-      <c r="F17" s="51"/>
-      <c r="G17" s="51"/>
-      <c r="H17" s="51"/>
-      <c r="I17" s="51"/>
-      <c r="J17" s="51"/>
-      <c r="K17" s="51"/>
-      <c r="L17" s="51"/>
-      <c r="M17" s="51"/>
-    </row>
-    <row r="18" spans="1:13" s="50" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="51" t="s">
-        <v>25</v>
-      </c>
-      <c r="B18" s="10" t="s">
-        <v>261</v>
-      </c>
-      <c r="C18" s="52" t="s">
-        <v>262</v>
-      </c>
-      <c r="D18" s="51"/>
-      <c r="E18" s="51"/>
-      <c r="F18" s="51"/>
-      <c r="G18" s="51"/>
-      <c r="H18" s="51"/>
-      <c r="I18" s="51"/>
-      <c r="J18" s="51"/>
-      <c r="K18" s="51"/>
-      <c r="L18" s="51"/>
-      <c r="M18" s="51"/>
-    </row>
-    <row r="19" spans="1:13" s="50" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="51" t="s">
-        <v>25</v>
-      </c>
-      <c r="B19" s="10" t="s">
-        <v>263</v>
-      </c>
-      <c r="C19" s="52" t="s">
-        <v>264</v>
-      </c>
-      <c r="D19" s="51"/>
-      <c r="E19" s="51"/>
-      <c r="F19" s="51"/>
-      <c r="G19" s="51"/>
-      <c r="H19" s="51"/>
-      <c r="I19" s="51"/>
-      <c r="J19" s="51"/>
-      <c r="K19" s="51"/>
-      <c r="L19" s="51"/>
-      <c r="M19" s="51"/>
-    </row>
-    <row r="20" spans="1:13" s="50" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="51" t="s">
-        <v>25</v>
-      </c>
-      <c r="B20" s="10" t="s">
-        <v>265</v>
-      </c>
-      <c r="C20" s="52" t="s">
-        <v>266</v>
-      </c>
-      <c r="D20" s="51"/>
-      <c r="E20" s="51"/>
-      <c r="F20" s="51"/>
-      <c r="G20" s="51"/>
-      <c r="H20" s="51"/>
-      <c r="I20" s="51"/>
-      <c r="J20" s="51"/>
-      <c r="K20" s="51"/>
-      <c r="L20" s="51"/>
-      <c r="M20" s="51"/>
-    </row>
-    <row r="21" spans="1:13" s="50" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="51" t="s">
-        <v>25</v>
-      </c>
-      <c r="B21" s="10" t="s">
-        <v>267</v>
-      </c>
-      <c r="C21" s="52" t="s">
-        <v>268</v>
-      </c>
-      <c r="D21" s="51"/>
-      <c r="E21" s="51"/>
-      <c r="F21" s="51"/>
-      <c r="G21" s="51"/>
-      <c r="H21" s="51"/>
-      <c r="I21" s="51"/>
-      <c r="J21" s="51"/>
-      <c r="K21" s="51"/>
-      <c r="L21" s="51"/>
-      <c r="M21" s="51"/>
-    </row>
-    <row r="22" spans="1:13" s="50" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="51" t="s">
-        <v>25</v>
-      </c>
-      <c r="B22" s="10" t="s">
-        <v>269</v>
-      </c>
-      <c r="C22" s="52" t="s">
-        <v>270</v>
-      </c>
-      <c r="D22" s="51"/>
-      <c r="E22" s="51"/>
-      <c r="F22" s="51"/>
-      <c r="G22" s="51"/>
-      <c r="H22" s="51"/>
-      <c r="I22" s="51"/>
-      <c r="J22" s="51"/>
-      <c r="K22" s="51"/>
-      <c r="L22" s="51"/>
-      <c r="M22" s="51"/>
-    </row>
-    <row r="23" spans="1:13" s="50" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="51" t="s">
-        <v>25</v>
-      </c>
-      <c r="B23" s="10" t="s">
-        <v>271</v>
-      </c>
-      <c r="C23" s="52" t="s">
-        <v>272</v>
-      </c>
-      <c r="D23" s="51"/>
-      <c r="E23" s="51"/>
-      <c r="F23" s="51"/>
-      <c r="G23" s="51"/>
-      <c r="H23" s="51"/>
-      <c r="I23" s="51"/>
-      <c r="J23" s="51"/>
-      <c r="K23" s="51"/>
-      <c r="L23" s="51"/>
-      <c r="M23" s="51"/>
-    </row>
-    <row r="24" spans="1:13" s="50" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="51" t="s">
-        <v>25</v>
-      </c>
-      <c r="B24" s="10" t="s">
-        <v>273</v>
-      </c>
-      <c r="C24" s="52" t="s">
-        <v>274</v>
-      </c>
-      <c r="D24" s="51"/>
-      <c r="E24" s="51"/>
-      <c r="F24" s="51"/>
-      <c r="G24" s="51"/>
-      <c r="H24" s="51"/>
-      <c r="I24" s="51"/>
-      <c r="J24" s="51"/>
-      <c r="K24" s="51"/>
-      <c r="L24" s="51"/>
-      <c r="M24" s="51"/>
-    </row>
-    <row r="25" spans="1:13" s="50" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="51" t="s">
-        <v>25</v>
-      </c>
-      <c r="B25" s="10" t="s">
-        <v>275</v>
-      </c>
-      <c r="C25" s="52" t="s">
-        <v>276</v>
-      </c>
-      <c r="D25" s="51"/>
-      <c r="E25" s="51"/>
-      <c r="F25" s="51"/>
-      <c r="G25" s="51"/>
-      <c r="H25" s="51"/>
-      <c r="I25" s="51"/>
-      <c r="J25" s="51"/>
-      <c r="K25" s="51"/>
-      <c r="L25" s="51"/>
-      <c r="M25" s="51"/>
-    </row>
-    <row r="26" spans="1:13" s="50" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="51" t="s">
-        <v>25</v>
-      </c>
-      <c r="B26" s="10" t="s">
-        <v>1</v>
-      </c>
-      <c r="C26" s="10" t="s">
-        <v>277</v>
-      </c>
-      <c r="D26" s="51"/>
-      <c r="E26" s="51"/>
-      <c r="F26" s="51"/>
-      <c r="G26" s="51"/>
-      <c r="H26" s="51"/>
-      <c r="I26" s="51"/>
-      <c r="J26" s="51"/>
-      <c r="K26" s="51"/>
-      <c r="L26" s="51"/>
-      <c r="M26" s="51"/>
-    </row>
-    <row r="27" spans="1:13" s="50" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="51" t="s">
-        <v>25</v>
-      </c>
-      <c r="B27" s="10" t="s">
-        <v>278</v>
-      </c>
-      <c r="C27" s="50" t="s">
-        <v>279</v>
-      </c>
-      <c r="D27" s="51"/>
-      <c r="E27" s="51"/>
-      <c r="F27" s="51"/>
-      <c r="G27" s="51"/>
-      <c r="H27" s="51"/>
-      <c r="I27" s="51"/>
-      <c r="J27" s="51"/>
-      <c r="K27" s="51"/>
-      <c r="L27" s="51"/>
-      <c r="M27" s="51"/>
-    </row>
-    <row r="28" spans="1:13" s="50" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="51" t="s">
-        <v>25</v>
-      </c>
-      <c r="B28" s="10" t="s">
-        <v>280</v>
-      </c>
-      <c r="C28" s="52" t="s">
-        <v>281</v>
-      </c>
-      <c r="D28" s="51"/>
-      <c r="E28" s="51"/>
-      <c r="F28" s="51"/>
-      <c r="G28" s="51"/>
-      <c r="H28" s="51"/>
-      <c r="I28" s="51"/>
-      <c r="J28" s="51"/>
-      <c r="K28" s="51"/>
-      <c r="L28" s="51"/>
-      <c r="M28" s="51"/>
-    </row>
-    <row r="29" spans="1:13" s="50" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="51" t="s">
-        <v>25</v>
-      </c>
-      <c r="B29" s="10" t="s">
-        <v>282</v>
-      </c>
-      <c r="C29" s="52" t="s">
-        <v>283</v>
-      </c>
-      <c r="D29" s="51"/>
-      <c r="E29" s="51"/>
-      <c r="F29" s="51"/>
-      <c r="G29" s="51"/>
-      <c r="H29" s="51"/>
-      <c r="I29" s="51"/>
-      <c r="J29" s="51"/>
-      <c r="K29" s="51"/>
-      <c r="L29" s="51"/>
-      <c r="M29" s="51"/>
-    </row>
-    <row r="30" spans="1:13" s="50" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="51" t="s">
-        <v>25</v>
-      </c>
-      <c r="B30" s="10" t="s">
-        <v>284</v>
-      </c>
-      <c r="C30" s="52" t="s">
-        <v>285</v>
-      </c>
-      <c r="D30" s="51"/>
-      <c r="E30" s="51"/>
-      <c r="F30" s="51"/>
-      <c r="G30" s="51"/>
-      <c r="H30" s="51"/>
-      <c r="I30" s="51"/>
-      <c r="J30" s="51"/>
-      <c r="K30" s="51"/>
-      <c r="L30" s="51"/>
-      <c r="M30" s="51"/>
-    </row>
-    <row r="31" spans="1:13" s="50" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="51" t="s">
-        <v>25</v>
-      </c>
-      <c r="B31" s="10" t="s">
-        <v>286</v>
-      </c>
-      <c r="C31" s="52" t="s">
-        <v>287</v>
-      </c>
-      <c r="D31" s="51"/>
-      <c r="E31" s="51"/>
-      <c r="F31" s="51"/>
-      <c r="G31" s="51"/>
-      <c r="H31" s="51"/>
-      <c r="I31" s="51"/>
-      <c r="J31" s="51"/>
-      <c r="K31" s="51"/>
-      <c r="L31" s="51"/>
-      <c r="M31" s="51"/>
-    </row>
-    <row r="32" spans="1:13" s="50" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="51" t="s">
-        <v>25</v>
-      </c>
-      <c r="B32" s="10" t="s">
-        <v>288</v>
-      </c>
-      <c r="C32" s="52" t="s">
-        <v>289</v>
-      </c>
-      <c r="D32" s="51"/>
-      <c r="E32" s="51"/>
-      <c r="F32" s="51"/>
-      <c r="G32" s="51"/>
-      <c r="H32" s="51"/>
-      <c r="I32" s="51"/>
-      <c r="J32" s="51"/>
-      <c r="K32" s="51"/>
-      <c r="L32" s="51"/>
-      <c r="M32" s="51"/>
-    </row>
-    <row r="33" spans="1:13" s="50" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="51" t="s">
-        <v>25</v>
-      </c>
-      <c r="B33" s="10" t="s">
-        <v>290</v>
-      </c>
-      <c r="C33" s="52" t="s">
-        <v>291</v>
-      </c>
-      <c r="D33" s="51"/>
-      <c r="E33" s="51"/>
-      <c r="F33" s="51"/>
-      <c r="G33" s="51"/>
-      <c r="H33" s="51"/>
-      <c r="I33" s="51"/>
-      <c r="J33" s="51"/>
-      <c r="K33" s="51"/>
-      <c r="L33" s="51"/>
-      <c r="M33" s="51"/>
-    </row>
-    <row r="34" spans="1:13" s="50" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="51" t="s">
-        <v>25</v>
-      </c>
-      <c r="B34" s="10" t="s">
-        <v>292</v>
-      </c>
-      <c r="C34" s="52" t="s">
-        <v>293</v>
-      </c>
-      <c r="D34" s="51"/>
-      <c r="E34" s="51"/>
-      <c r="F34" s="51"/>
-      <c r="G34" s="51"/>
-      <c r="H34" s="51"/>
-      <c r="I34" s="51"/>
-      <c r="J34" s="51"/>
-      <c r="K34" s="51"/>
-      <c r="L34" s="51"/>
-      <c r="M34" s="51"/>
-    </row>
-    <row r="35" spans="1:13" s="50" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="51" t="s">
-        <v>25</v>
-      </c>
-      <c r="B35" s="10" t="s">
-        <v>294</v>
-      </c>
-      <c r="C35" s="10" t="s">
-        <v>295</v>
-      </c>
-      <c r="D35" s="51"/>
-      <c r="E35" s="51"/>
-      <c r="F35" s="51"/>
-      <c r="G35" s="51"/>
-      <c r="H35" s="51"/>
-      <c r="I35" s="51"/>
-      <c r="J35" s="51"/>
-      <c r="K35" s="51"/>
-      <c r="L35" s="51"/>
-      <c r="M35" s="51"/>
-    </row>
-    <row r="36" spans="1:13" s="50" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="51" t="s">
-        <v>25</v>
-      </c>
-      <c r="B36" s="10" t="s">
-        <v>296</v>
-      </c>
-      <c r="C36" s="10" t="s">
-        <v>297</v>
-      </c>
-      <c r="D36" s="51"/>
-      <c r="E36" s="51"/>
-      <c r="F36" s="51"/>
-      <c r="G36" s="51"/>
-      <c r="H36" s="51"/>
-      <c r="I36" s="51"/>
-      <c r="J36" s="51"/>
-      <c r="K36" s="51"/>
-      <c r="L36" s="51"/>
-      <c r="M36" s="51"/>
-    </row>
-    <row r="37" spans="1:13" s="50" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="51" t="s">
-        <v>25</v>
-      </c>
-      <c r="B37" s="10" t="s">
-        <v>298</v>
-      </c>
-      <c r="C37" s="52" t="s">
-        <v>299</v>
-      </c>
-      <c r="D37" s="51"/>
-      <c r="E37" s="51"/>
-      <c r="F37" s="51"/>
-      <c r="G37" s="51"/>
-      <c r="H37" s="51"/>
-      <c r="I37" s="51"/>
-      <c r="J37" s="51"/>
-      <c r="K37" s="51"/>
-      <c r="L37" s="51"/>
-      <c r="M37" s="51"/>
-    </row>
-    <row r="38" spans="1:13" s="50" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="51" t="s">
-        <v>25</v>
-      </c>
-      <c r="B38" s="10" t="s">
-        <v>300</v>
-      </c>
-      <c r="C38" s="52" t="s">
-        <v>301</v>
-      </c>
-      <c r="D38" s="51"/>
-      <c r="E38" s="51"/>
-      <c r="F38" s="51"/>
-      <c r="G38" s="51"/>
-      <c r="H38" s="51"/>
-      <c r="I38" s="51"/>
-      <c r="J38" s="51"/>
-      <c r="K38" s="51"/>
-      <c r="L38" s="51"/>
-      <c r="M38" s="51"/>
-    </row>
-    <row r="39" spans="1:13" s="50" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="51" t="s">
-        <v>25</v>
-      </c>
-      <c r="B39" s="10" t="s">
-        <v>302</v>
-      </c>
-      <c r="C39" s="52" t="s">
-        <v>303</v>
-      </c>
-      <c r="D39" s="51"/>
-      <c r="E39" s="51"/>
-      <c r="F39" s="51"/>
-      <c r="G39" s="51"/>
-      <c r="H39" s="51"/>
-      <c r="I39" s="51"/>
-      <c r="J39" s="51"/>
-      <c r="K39" s="51"/>
-      <c r="L39" s="51"/>
-      <c r="M39" s="51"/>
-    </row>
-    <row r="40" spans="1:13" s="50" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="51" t="s">
-        <v>25</v>
-      </c>
-      <c r="B40" s="10" t="s">
-        <v>304</v>
-      </c>
-      <c r="C40" s="50" t="s">
-        <v>305</v>
-      </c>
-      <c r="D40" s="51"/>
-      <c r="E40" s="51"/>
-      <c r="F40" s="51"/>
-      <c r="G40" s="51"/>
-      <c r="H40" s="51"/>
-      <c r="I40" s="51"/>
-      <c r="J40" s="51"/>
-      <c r="K40" s="51"/>
-      <c r="L40" s="51"/>
-      <c r="M40" s="51"/>
-    </row>
-    <row r="41" spans="1:13" s="50" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="51" t="s">
-        <v>25</v>
-      </c>
-      <c r="B41" s="10" t="s">
-        <v>306</v>
-      </c>
-      <c r="C41" s="52" t="s">
-        <v>307</v>
-      </c>
-      <c r="D41" s="51"/>
-      <c r="E41" s="51"/>
-      <c r="F41" s="51"/>
-      <c r="G41" s="51"/>
-      <c r="H41" s="51"/>
-      <c r="I41" s="51"/>
-      <c r="J41" s="51"/>
-      <c r="K41" s="51"/>
-      <c r="L41" s="51"/>
-      <c r="M41" s="51"/>
-    </row>
-    <row r="42" spans="1:13" s="50" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="51" t="s">
-        <v>25</v>
-      </c>
-      <c r="B42" s="10" t="s">
-        <v>308</v>
-      </c>
-      <c r="C42" s="10" t="s">
-        <v>309</v>
-      </c>
-      <c r="D42" s="51"/>
-      <c r="E42" s="51"/>
-      <c r="F42" s="51"/>
-      <c r="G42" s="51"/>
-      <c r="H42" s="51"/>
-      <c r="I42" s="51"/>
-      <c r="J42" s="51"/>
-      <c r="K42" s="51"/>
-      <c r="L42" s="51"/>
-      <c r="M42" s="51"/>
-    </row>
-    <row r="43" spans="1:13" s="50" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="51" t="s">
-        <v>25</v>
-      </c>
-      <c r="B43" s="10" t="s">
-        <v>310</v>
-      </c>
-      <c r="C43" s="10" t="s">
-        <v>311</v>
-      </c>
-      <c r="D43" s="51"/>
-      <c r="E43" s="51"/>
-      <c r="F43" s="51"/>
-      <c r="G43" s="51"/>
-      <c r="H43" s="51"/>
-      <c r="I43" s="51"/>
-      <c r="J43" s="51"/>
-      <c r="K43" s="51"/>
-      <c r="L43" s="51"/>
-      <c r="M43" s="51"/>
-    </row>
-    <row r="44" spans="1:13" s="50" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="51" t="s">
-        <v>25</v>
-      </c>
-      <c r="B44" s="10" t="s">
-        <v>312</v>
-      </c>
-      <c r="C44" s="10" t="s">
-        <v>313</v>
-      </c>
-      <c r="D44" s="51"/>
-      <c r="E44" s="51"/>
-      <c r="F44" s="51"/>
-      <c r="G44" s="51"/>
-      <c r="H44" s="51"/>
-      <c r="I44" s="51"/>
-      <c r="J44" s="51"/>
-      <c r="K44" s="51"/>
-      <c r="L44" s="51"/>
-      <c r="M44" s="51"/>
-    </row>
-    <row r="45" spans="1:13" s="50" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="51" t="s">
-        <v>25</v>
-      </c>
-      <c r="B45" s="10" t="s">
-        <v>31</v>
-      </c>
-      <c r="C45" s="10" t="s">
-        <v>314</v>
-      </c>
-      <c r="D45" s="51"/>
-      <c r="E45" s="51"/>
-      <c r="F45" s="51"/>
-      <c r="G45" s="51"/>
-      <c r="H45" s="51"/>
-      <c r="I45" s="51"/>
-      <c r="J45" s="51"/>
-      <c r="K45" s="51"/>
-      <c r="L45" s="51"/>
-      <c r="M45" s="51"/>
-    </row>
-    <row r="46" spans="1:13" s="50" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A46" s="51" t="s">
-        <v>25</v>
-      </c>
-      <c r="B46" s="10" t="s">
-        <v>315</v>
-      </c>
-      <c r="C46" s="10" t="s">
-        <v>316</v>
-      </c>
-      <c r="D46" s="51"/>
-      <c r="E46" s="51"/>
-      <c r="F46" s="51"/>
-      <c r="G46" s="51"/>
-      <c r="H46" s="51"/>
-      <c r="I46" s="51"/>
-      <c r="J46" s="51"/>
-      <c r="K46" s="51"/>
-      <c r="L46" s="51"/>
-      <c r="M46" s="51"/>
-    </row>
-    <row r="47" spans="1:13" s="50" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A47" s="51" t="s">
-        <v>25</v>
-      </c>
-      <c r="B47" s="10" t="s">
-        <v>317</v>
-      </c>
-      <c r="C47" s="10" t="s">
-        <v>318</v>
-      </c>
-      <c r="D47" s="51"/>
-      <c r="E47" s="51"/>
-      <c r="F47" s="51"/>
-      <c r="G47" s="51"/>
-      <c r="H47" s="51"/>
-      <c r="I47" s="51"/>
-      <c r="J47" s="51"/>
-      <c r="K47" s="51"/>
-      <c r="L47" s="51"/>
-      <c r="M47" s="51"/>
-    </row>
-    <row r="48" spans="1:13" s="50" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A48" s="51" t="s">
-        <v>25</v>
-      </c>
-      <c r="B48" s="10" t="s">
-        <v>319</v>
-      </c>
-      <c r="C48" s="10" t="s">
-        <v>320</v>
-      </c>
-      <c r="D48" s="51"/>
-      <c r="E48" s="51"/>
-      <c r="F48" s="51"/>
-      <c r="G48" s="51"/>
-      <c r="H48" s="51"/>
-      <c r="I48" s="51"/>
-      <c r="J48" s="51"/>
-      <c r="K48" s="51"/>
-      <c r="L48" s="51"/>
-      <c r="M48" s="51"/>
-    </row>
-    <row r="49" spans="1:26" s="50" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A49" s="51" t="s">
-        <v>25</v>
-      </c>
-      <c r="B49" s="10" t="s">
-        <v>321</v>
-      </c>
-      <c r="C49" s="10" t="s">
-        <v>322</v>
-      </c>
-      <c r="D49" s="51"/>
-      <c r="E49" s="51"/>
-      <c r="F49" s="51"/>
-      <c r="G49" s="51"/>
-      <c r="H49" s="51"/>
-      <c r="I49" s="51"/>
-      <c r="J49" s="51"/>
-      <c r="K49" s="51"/>
-      <c r="L49" s="51"/>
-      <c r="M49" s="51"/>
-    </row>
-    <row r="50" spans="1:26" s="50" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A50" s="51" t="s">
-        <v>25</v>
-      </c>
-      <c r="B50" s="10" t="s">
-        <v>323</v>
-      </c>
-      <c r="C50" s="10" t="s">
-        <v>324</v>
-      </c>
-      <c r="D50" s="51"/>
-      <c r="E50" s="51"/>
-      <c r="F50" s="51"/>
-      <c r="G50" s="51"/>
-      <c r="H50" s="51"/>
-      <c r="I50" s="51"/>
-      <c r="J50" s="51"/>
-      <c r="K50" s="51"/>
-      <c r="L50" s="51"/>
-      <c r="M50" s="51"/>
-    </row>
-    <row r="51" spans="1:26" s="50" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A51" s="51" t="s">
-        <v>25</v>
-      </c>
-      <c r="B51" s="10" t="s">
-        <v>325</v>
-      </c>
-      <c r="C51" s="10" t="s">
-        <v>326</v>
-      </c>
-      <c r="D51" s="51"/>
-      <c r="E51" s="51"/>
-      <c r="F51" s="51"/>
-      <c r="G51" s="51"/>
-      <c r="H51" s="51"/>
-      <c r="I51" s="51"/>
-      <c r="J51" s="51"/>
-      <c r="K51" s="51"/>
-      <c r="L51" s="51"/>
-      <c r="M51" s="51"/>
-    </row>
-    <row r="52" spans="1:26" s="50" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A52" s="51" t="s">
-        <v>25</v>
-      </c>
-      <c r="B52" s="10" t="s">
-        <v>327</v>
-      </c>
-      <c r="C52" s="10" t="s">
-        <v>328</v>
-      </c>
-      <c r="D52" s="51"/>
-      <c r="E52" s="51"/>
-      <c r="F52" s="51"/>
-      <c r="G52" s="51"/>
-      <c r="H52" s="51"/>
-      <c r="I52" s="51"/>
-      <c r="J52" s="51"/>
-      <c r="K52" s="51"/>
-      <c r="L52" s="51"/>
-      <c r="M52" s="51"/>
-    </row>
-    <row r="53" spans="1:26" s="50" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A53" s="51" t="s">
-        <v>25</v>
-      </c>
-      <c r="B53" s="10" t="s">
-        <v>329</v>
-      </c>
-      <c r="C53" s="10" t="s">
-        <v>330</v>
-      </c>
-      <c r="D53" s="51"/>
-      <c r="E53" s="51"/>
-      <c r="F53" s="51"/>
-      <c r="G53" s="51"/>
-      <c r="H53" s="51"/>
-      <c r="I53" s="51"/>
-      <c r="J53" s="51"/>
-      <c r="K53" s="51"/>
-      <c r="L53" s="51"/>
-      <c r="M53" s="51"/>
-    </row>
-    <row r="54" spans="1:26" s="50" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A54" s="51" t="s">
-        <v>25</v>
-      </c>
-      <c r="B54" s="10" t="s">
-        <v>331</v>
-      </c>
-      <c r="C54" s="10" t="s">
-        <v>332</v>
-      </c>
-      <c r="D54" s="51"/>
-      <c r="E54" s="51"/>
-      <c r="F54" s="51"/>
-      <c r="G54" s="51"/>
-      <c r="H54" s="51"/>
-      <c r="I54" s="51"/>
-      <c r="J54" s="51"/>
-      <c r="K54" s="51"/>
-      <c r="L54" s="51"/>
-      <c r="M54" s="51"/>
-    </row>
-    <row r="55" spans="1:26" s="50" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A55" s="51" t="s">
-        <v>25</v>
-      </c>
-      <c r="B55" s="10" t="s">
-        <v>333</v>
-      </c>
-      <c r="C55" s="10" t="s">
-        <v>334</v>
-      </c>
-      <c r="D55" s="51"/>
-      <c r="E55" s="51"/>
-      <c r="F55" s="51"/>
-      <c r="G55" s="51"/>
-      <c r="H55" s="51"/>
-      <c r="I55" s="51"/>
-      <c r="J55" s="51"/>
-      <c r="K55" s="51"/>
-      <c r="L55" s="51"/>
-      <c r="M55" s="51"/>
-    </row>
-    <row r="56" spans="1:26" s="50" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A56" s="51" t="s">
-        <v>25</v>
-      </c>
-      <c r="B56" s="10" t="s">
-        <v>335</v>
-      </c>
-      <c r="C56" s="10" t="s">
-        <v>336</v>
-      </c>
-      <c r="D56" s="51"/>
-      <c r="E56" s="51"/>
-      <c r="F56" s="51"/>
-      <c r="G56" s="51"/>
-      <c r="H56" s="51"/>
-      <c r="I56" s="51"/>
-      <c r="J56" s="51"/>
-      <c r="K56" s="51"/>
-      <c r="L56" s="51"/>
-      <c r="M56" s="51"/>
-    </row>
-    <row r="57" spans="1:26" s="50" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A57" s="51" t="s">
-        <v>25</v>
-      </c>
-      <c r="B57" s="10" t="s">
-        <v>337</v>
-      </c>
-      <c r="C57" s="10" t="s">
-        <v>311</v>
-      </c>
-      <c r="D57" s="51"/>
-      <c r="E57" s="51"/>
-      <c r="F57" s="51"/>
-      <c r="G57" s="51"/>
-      <c r="H57" s="51"/>
-      <c r="I57" s="51"/>
-      <c r="J57" s="51"/>
-      <c r="K57" s="51"/>
-      <c r="L57" s="51"/>
-      <c r="M57" s="51"/>
-    </row>
-    <row r="58" spans="1:26" s="54" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A58" s="53" t="s">
+      <c r="B48" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="C48" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="D48" s="4"/>
+      <c r="E48" s="4"/>
+      <c r="F48" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="G48" s="4"/>
+      <c r="H48" s="4"/>
+      <c r="I48" s="4"/>
+      <c r="J48" s="4"/>
+      <c r="K48" s="4"/>
+      <c r="L48" s="4"/>
+      <c r="M48" s="4"/>
+      <c r="N48" s="4"/>
+      <c r="O48" s="4"/>
+      <c r="P48" s="4"/>
+      <c r="Q48" s="4"/>
+      <c r="R48" s="4"/>
+      <c r="S48" s="4"/>
+      <c r="T48" s="4"/>
+      <c r="U48" s="4"/>
+      <c r="V48" s="4"/>
+      <c r="W48" s="4"/>
+      <c r="X48" s="4"/>
+      <c r="Y48" s="4"/>
+      <c r="Z48" s="4"/>
+    </row>
+    <row r="49" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A49" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="B49" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="C49" t="s">
+        <v>52</v>
+      </c>
+      <c r="E49" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="50" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A50" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="B50" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="C50" t="s">
+        <v>55</v>
+      </c>
+      <c r="E50" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="51" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A51" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="B51" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="C51" t="s">
+        <v>58</v>
+      </c>
+      <c r="E51" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="52" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A52" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="B58" s="53"/>
-      <c r="C58" s="53"/>
-      <c r="D58" s="53"/>
-      <c r="E58" s="53"/>
-      <c r="F58" s="53"/>
-      <c r="G58" s="53"/>
-      <c r="H58" s="53"/>
-      <c r="I58" s="53"/>
-      <c r="J58" s="53"/>
-      <c r="K58" s="53"/>
-      <c r="L58" s="53"/>
-      <c r="M58" s="53"/>
-    </row>
-    <row r="59" spans="1:26" s="50" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A59" s="51"/>
-      <c r="B59" s="51"/>
-      <c r="C59" s="51"/>
-      <c r="D59" s="51"/>
-      <c r="E59" s="51"/>
-      <c r="F59" s="51"/>
-      <c r="K59" s="51"/>
-    </row>
-    <row r="60" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A60" s="11" t="s">
-        <v>32</v>
-      </c>
-      <c r="B60" s="11" t="s">
-        <v>33</v>
-      </c>
-      <c r="C60" s="11"/>
-      <c r="D60" s="11"/>
-      <c r="E60" s="11"/>
-      <c r="F60" s="11"/>
-      <c r="G60" s="11"/>
-      <c r="H60" s="11"/>
-      <c r="I60" s="11" t="s">
-        <v>34</v>
-      </c>
-      <c r="J60" s="11"/>
-      <c r="K60" s="11"/>
-      <c r="L60" s="11"/>
-      <c r="M60" s="11"/>
-      <c r="N60" s="11"/>
-      <c r="O60" s="11"/>
-      <c r="P60" s="11"/>
-      <c r="Q60" s="11"/>
-      <c r="R60" s="11"/>
-      <c r="S60" s="11"/>
-      <c r="T60" s="11"/>
-      <c r="U60" s="11"/>
-      <c r="V60" s="11"/>
-      <c r="W60" s="11"/>
-      <c r="X60" s="11"/>
-      <c r="Y60" s="11"/>
-      <c r="Z60" s="11"/>
-    </row>
-    <row r="61" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A61" s="11" t="s">
-        <v>32</v>
-      </c>
-      <c r="B61" s="11" t="s">
-        <v>35</v>
-      </c>
-      <c r="C61" s="11"/>
-      <c r="D61" s="11"/>
-      <c r="E61" s="11"/>
-      <c r="F61" s="11"/>
-      <c r="G61" s="11"/>
-      <c r="H61" s="11"/>
-      <c r="I61" s="11" t="s">
-        <v>36</v>
-      </c>
-      <c r="J61" s="11"/>
-      <c r="K61" s="11"/>
-      <c r="L61" s="11"/>
-      <c r="M61" s="11"/>
-      <c r="N61" s="11"/>
-      <c r="O61" s="11"/>
-      <c r="P61" s="11"/>
-      <c r="Q61" s="11"/>
-      <c r="R61" s="11"/>
-      <c r="S61" s="11"/>
-      <c r="T61" s="11"/>
-      <c r="U61" s="11"/>
-      <c r="V61" s="11"/>
-      <c r="W61" s="11"/>
-      <c r="X61" s="11"/>
-      <c r="Y61" s="11"/>
-      <c r="Z61" s="11"/>
-    </row>
-    <row r="62" spans="1:26" s="11" customFormat="1" ht="12.9" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A62" s="11" t="s">
-        <v>32</v>
-      </c>
-      <c r="B62" s="11" t="s">
-        <v>38</v>
-      </c>
-      <c r="I62" s="12" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="63" spans="1:26" s="11" customFormat="1" ht="12.9" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A63" s="11" t="s">
-        <v>32</v>
-      </c>
-      <c r="B63" s="11" t="s">
-        <v>40</v>
-      </c>
-      <c r="I63" s="13" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="64" spans="1:26" s="11" customFormat="1" ht="12.9" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A64" s="11" t="s">
-        <v>32</v>
-      </c>
-      <c r="B64" s="11" t="s">
-        <v>42</v>
-      </c>
-      <c r="I64" s="13" t="s">
-        <v>43</v>
-      </c>
+      <c r="B52" s="4"/>
+      <c r="C52" s="4"/>
+      <c r="D52" s="4"/>
+      <c r="E52" s="4"/>
+      <c r="F52" s="4"/>
+      <c r="G52" s="4"/>
+      <c r="H52" s="4"/>
+      <c r="I52" s="4"/>
+      <c r="J52" s="4"/>
+      <c r="K52" s="4"/>
+      <c r="L52" s="4"/>
+      <c r="M52" s="4"/>
+      <c r="N52" s="4"/>
+      <c r="O52" s="4"/>
+      <c r="P52" s="4"/>
+      <c r="Q52" s="4"/>
+      <c r="R52" s="4"/>
+      <c r="S52" s="4"/>
+      <c r="T52" s="4"/>
+      <c r="U52" s="4"/>
+      <c r="V52" s="4"/>
+      <c r="W52" s="4"/>
+      <c r="X52" s="4"/>
+      <c r="Y52" s="4"/>
+      <c r="Z52" s="4"/>
+    </row>
+    <row r="53" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A53" s="6"/>
+      <c r="B53" s="6"/>
+      <c r="C53" s="6"/>
+      <c r="D53" s="6"/>
+      <c r="E53" s="6"/>
+      <c r="F53" s="6"/>
+      <c r="G53" s="6"/>
+      <c r="H53" s="6"/>
+      <c r="I53" s="6"/>
+      <c r="J53" s="6"/>
+      <c r="K53" s="6"/>
+      <c r="L53" s="6"/>
+      <c r="M53" s="6"/>
+      <c r="N53" s="6"/>
+      <c r="O53" s="6"/>
+      <c r="P53" s="6"/>
+      <c r="Q53" s="6"/>
+      <c r="R53" s="6"/>
+      <c r="S53" s="6"/>
+      <c r="T53" s="6"/>
+      <c r="U53" s="6"/>
+      <c r="V53" s="6"/>
+      <c r="W53" s="4"/>
+      <c r="X53" s="4"/>
+      <c r="Y53" s="4"/>
+      <c r="Z53" s="4"/>
+    </row>
+    <row r="54" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A54" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B54" s="4" t="s">
+        <v>157</v>
+      </c>
+      <c r="C54" s="4" t="s">
+        <v>156</v>
+      </c>
+      <c r="D54" s="4"/>
+      <c r="E54" s="4"/>
+      <c r="F54" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="G54" s="4"/>
+      <c r="H54" s="4"/>
+      <c r="I54" s="4"/>
+      <c r="J54" s="4"/>
+      <c r="K54" s="4"/>
+      <c r="L54" s="4"/>
+      <c r="M54" s="4"/>
+      <c r="N54" s="4"/>
+      <c r="O54" s="4"/>
+      <c r="P54" s="4"/>
+      <c r="Q54" s="4"/>
+      <c r="R54" s="4"/>
+      <c r="S54" s="4"/>
+      <c r="T54" s="4"/>
+      <c r="U54" s="4"/>
+      <c r="V54" s="4"/>
+      <c r="W54" s="4"/>
+      <c r="X54" s="4"/>
+      <c r="Y54" s="4"/>
+      <c r="Z54" s="4"/>
+    </row>
+    <row r="55" spans="1:26" ht="15.9" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A55" s="43" t="s">
+        <v>142</v>
+      </c>
+      <c r="B55" s="43" t="s">
+        <v>143</v>
+      </c>
+      <c r="C55" s="43" t="s">
+        <v>158</v>
+      </c>
+      <c r="D55" s="6"/>
+      <c r="F55" s="45" t="s">
+        <v>166</v>
+      </c>
+      <c r="I55" s="6"/>
+      <c r="J55" s="6"/>
+      <c r="K55" s="6"/>
+      <c r="L55" s="6"/>
+      <c r="M55" s="6"/>
+      <c r="N55" s="6"/>
+      <c r="O55" s="6"/>
+      <c r="P55" s="6"/>
+      <c r="Q55" s="6"/>
+      <c r="R55" s="6"/>
+      <c r="S55" s="6"/>
+      <c r="T55" s="6"/>
+      <c r="U55" s="6"/>
+      <c r="V55" s="6"/>
+      <c r="W55" s="6"/>
+      <c r="X55" s="6"/>
+      <c r="Y55" s="6"/>
+      <c r="Z55" s="6"/>
+    </row>
+    <row r="56" spans="1:26" ht="15.9" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A56" s="43" t="s">
+        <v>144</v>
+      </c>
+      <c r="B56" s="43" t="s">
+        <v>145</v>
+      </c>
+      <c r="C56" s="43" t="s">
+        <v>159</v>
+      </c>
+      <c r="D56" s="6"/>
+      <c r="F56" s="45" t="s">
+        <v>166</v>
+      </c>
+      <c r="I56" s="6"/>
+      <c r="J56" s="6"/>
+      <c r="K56" s="6"/>
+      <c r="L56" s="6"/>
+      <c r="M56" s="6"/>
+      <c r="N56" s="6"/>
+      <c r="O56" s="6"/>
+      <c r="P56" s="6"/>
+      <c r="Q56" s="6"/>
+      <c r="R56" s="6"/>
+      <c r="S56" s="6"/>
+      <c r="T56" s="6"/>
+      <c r="U56" s="6"/>
+      <c r="V56" s="6"/>
+      <c r="W56" s="6"/>
+      <c r="X56" s="6"/>
+      <c r="Y56" s="6"/>
+      <c r="Z56" s="6"/>
+    </row>
+    <row r="57" spans="1:26" ht="15.9" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A57" s="43" t="s">
+        <v>146</v>
+      </c>
+      <c r="B57" s="43" t="s">
+        <v>147</v>
+      </c>
+      <c r="C57" s="43" t="s">
+        <v>160</v>
+      </c>
+      <c r="D57" s="6"/>
+      <c r="F57" s="45" t="s">
+        <v>166</v>
+      </c>
+      <c r="I57" s="6"/>
+      <c r="J57" s="6"/>
+      <c r="K57" s="6"/>
+      <c r="L57" s="6"/>
+      <c r="M57" s="6"/>
+      <c r="N57" s="6"/>
+      <c r="O57" s="6"/>
+      <c r="P57" s="6"/>
+      <c r="Q57" s="6"/>
+      <c r="R57" s="6"/>
+      <c r="S57" s="6"/>
+      <c r="T57" s="6"/>
+      <c r="U57" s="6"/>
+      <c r="V57" s="6"/>
+      <c r="W57" s="6"/>
+      <c r="X57" s="6"/>
+      <c r="Y57" s="6"/>
+      <c r="Z57" s="6"/>
+    </row>
+    <row r="58" spans="1:26" ht="15.9" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A58" s="43" t="s">
+        <v>50</v>
+      </c>
+      <c r="B58" s="43" t="s">
+        <v>148</v>
+      </c>
+      <c r="C58" s="43" t="s">
+        <v>161</v>
+      </c>
+      <c r="D58" s="6"/>
+      <c r="E58" s="44" t="s">
+        <v>149</v>
+      </c>
+      <c r="F58" s="45"/>
+      <c r="G58" s="45"/>
+      <c r="H58" s="45"/>
+      <c r="I58" s="6"/>
+      <c r="J58" s="6"/>
+      <c r="K58" s="6"/>
+      <c r="L58" s="6"/>
+      <c r="M58" s="6"/>
+      <c r="N58" s="6"/>
+      <c r="O58" s="6"/>
+      <c r="P58" s="6"/>
+      <c r="Q58" s="6"/>
+      <c r="R58" s="6"/>
+      <c r="S58" s="6"/>
+      <c r="T58" s="6"/>
+      <c r="U58" s="6"/>
+      <c r="V58" s="6"/>
+      <c r="W58" s="6"/>
+      <c r="X58" s="6"/>
+      <c r="Y58" s="6"/>
+      <c r="Z58" s="6"/>
+    </row>
+    <row r="59" spans="1:26" ht="15.9" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A59" s="43" t="s">
+        <v>50</v>
+      </c>
+      <c r="B59" s="43" t="s">
+        <v>150</v>
+      </c>
+      <c r="C59" s="43" t="s">
+        <v>162</v>
+      </c>
+      <c r="D59" s="6"/>
+      <c r="E59" s="44" t="s">
+        <v>151</v>
+      </c>
+      <c r="F59" s="43"/>
+      <c r="G59" s="43"/>
+      <c r="H59" s="43"/>
+      <c r="I59" s="6"/>
+      <c r="J59" s="6"/>
+      <c r="K59" s="6"/>
+      <c r="L59" s="6"/>
+      <c r="M59" s="6"/>
+      <c r="N59" s="6"/>
+      <c r="O59" s="6"/>
+      <c r="P59" s="6"/>
+      <c r="Q59" s="6"/>
+      <c r="R59" s="6"/>
+      <c r="S59" s="6"/>
+      <c r="T59" s="6"/>
+      <c r="U59" s="6"/>
+      <c r="V59" s="6"/>
+      <c r="W59" s="6"/>
+      <c r="X59" s="6"/>
+      <c r="Y59" s="6"/>
+      <c r="Z59" s="6"/>
+    </row>
+    <row r="60" spans="1:26" ht="15.9" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A60" s="43" t="s">
+        <v>50</v>
+      </c>
+      <c r="B60" s="43" t="s">
+        <v>152</v>
+      </c>
+      <c r="C60" s="43" t="s">
+        <v>163</v>
+      </c>
+      <c r="D60" s="6"/>
+      <c r="E60" s="44" t="s">
+        <v>153</v>
+      </c>
+      <c r="F60" s="43"/>
+      <c r="G60" s="43"/>
+      <c r="H60" s="43"/>
+      <c r="I60" s="6"/>
+      <c r="J60" s="6"/>
+      <c r="K60" s="6"/>
+      <c r="L60" s="6"/>
+      <c r="M60" s="6"/>
+      <c r="N60" s="6"/>
+      <c r="O60" s="6"/>
+      <c r="P60" s="6"/>
+      <c r="Q60" s="6"/>
+      <c r="R60" s="6"/>
+      <c r="S60" s="6"/>
+      <c r="T60" s="6"/>
+      <c r="U60" s="6"/>
+      <c r="V60" s="6"/>
+      <c r="W60" s="6"/>
+      <c r="X60" s="6"/>
+      <c r="Y60" s="6"/>
+      <c r="Z60" s="6"/>
+    </row>
+    <row r="61" spans="1:26" ht="15.9" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A61" s="43" t="s">
+        <v>50</v>
+      </c>
+      <c r="B61" s="43" t="s">
+        <v>103</v>
+      </c>
+      <c r="C61" s="43" t="s">
+        <v>164</v>
+      </c>
+      <c r="D61" s="6"/>
+      <c r="E61" s="44" t="s">
+        <v>154</v>
+      </c>
+      <c r="F61" s="43"/>
+      <c r="G61" s="43"/>
+      <c r="H61" s="43"/>
+      <c r="I61" s="6"/>
+      <c r="J61" s="6"/>
+      <c r="K61" s="6"/>
+      <c r="L61" s="6"/>
+      <c r="M61" s="6"/>
+      <c r="N61" s="6"/>
+      <c r="O61" s="6"/>
+      <c r="P61" s="6"/>
+      <c r="Q61" s="6"/>
+      <c r="R61" s="6"/>
+      <c r="S61" s="6"/>
+      <c r="T61" s="6"/>
+      <c r="U61" s="6"/>
+      <c r="V61" s="6"/>
+      <c r="W61" s="6"/>
+      <c r="X61" s="6"/>
+      <c r="Y61" s="6"/>
+      <c r="Z61" s="6"/>
+    </row>
+    <row r="62" spans="1:26" ht="15.9" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A62" s="43" t="s">
+        <v>50</v>
+      </c>
+      <c r="B62" s="43" t="s">
+        <v>103</v>
+      </c>
+      <c r="C62" s="43" t="s">
+        <v>165</v>
+      </c>
+      <c r="D62" s="6"/>
+      <c r="E62" s="44" t="s">
+        <v>155</v>
+      </c>
+      <c r="F62" s="43"/>
+      <c r="G62" s="43"/>
+      <c r="H62" s="43"/>
+      <c r="I62" s="6"/>
+      <c r="J62" s="6"/>
+      <c r="K62" s="6"/>
+      <c r="L62" s="6"/>
+      <c r="M62" s="6"/>
+      <c r="N62" s="6"/>
+      <c r="O62" s="6"/>
+      <c r="P62" s="6"/>
+      <c r="Q62" s="6"/>
+      <c r="R62" s="6"/>
+      <c r="S62" s="6"/>
+      <c r="T62" s="6"/>
+      <c r="U62" s="6"/>
+      <c r="V62" s="6"/>
+      <c r="W62" s="6"/>
+      <c r="X62" s="6"/>
+      <c r="Y62" s="6"/>
+      <c r="Z62" s="6"/>
+    </row>
+    <row r="63" spans="1:26" ht="15.9" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A63" s="43" t="s">
+        <v>50</v>
+      </c>
+      <c r="B63" s="43" t="s">
+        <v>50</v>
+      </c>
+      <c r="C63" s="48" t="s">
+        <v>217</v>
+      </c>
+      <c r="E63" s="49" t="s">
+        <v>218</v>
+      </c>
+      <c r="F63" s="43"/>
+      <c r="G63" s="43"/>
+      <c r="H63" s="43"/>
+      <c r="I63" s="6"/>
+      <c r="J63" s="6"/>
+      <c r="K63" s="6"/>
+      <c r="L63" s="6"/>
+      <c r="M63" s="6"/>
+      <c r="N63" s="6"/>
+      <c r="O63" s="6"/>
+      <c r="P63" s="6"/>
+      <c r="Q63" s="6"/>
+      <c r="R63" s="6"/>
+      <c r="S63" s="6"/>
+      <c r="T63" s="6"/>
+      <c r="U63" s="6"/>
+      <c r="V63" s="6"/>
+      <c r="W63" s="6"/>
+      <c r="X63" s="6"/>
+      <c r="Y63" s="6"/>
+      <c r="Z63" s="6"/>
+    </row>
+    <row r="64" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A64" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="B64" s="4"/>
+      <c r="C64" s="4"/>
+      <c r="D64" s="4"/>
+      <c r="E64" s="4"/>
+      <c r="F64" s="4"/>
+      <c r="G64" s="4"/>
+      <c r="H64" s="4"/>
+      <c r="I64" s="4"/>
+      <c r="J64" s="4"/>
+      <c r="K64" s="4"/>
+      <c r="L64" s="4"/>
+      <c r="M64" s="4"/>
+      <c r="N64" s="4"/>
+      <c r="O64" s="4"/>
+      <c r="P64" s="4"/>
+      <c r="Q64" s="4"/>
+      <c r="R64" s="4"/>
+      <c r="S64" s="4"/>
+      <c r="T64" s="4"/>
+      <c r="U64" s="4"/>
+      <c r="V64" s="4"/>
+      <c r="W64" s="4"/>
+      <c r="X64" s="4"/>
+      <c r="Y64" s="4"/>
+      <c r="Z64" s="4"/>
     </row>
     <row r="65" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A65" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="B65" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="C65" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="D65" s="4"/>
-      <c r="E65" s="4"/>
-      <c r="F65" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="G65" s="4"/>
-      <c r="H65" s="4"/>
-      <c r="I65" s="4"/>
+      <c r="A65" s="22"/>
+      <c r="B65" s="22"/>
+      <c r="C65" s="22"/>
+      <c r="D65" s="22"/>
+      <c r="E65" s="22"/>
+      <c r="F65" s="22"/>
+      <c r="G65" s="22"/>
+      <c r="H65" s="22"/>
+      <c r="I65" s="22"/>
       <c r="J65" s="4"/>
       <c r="K65" s="4"/>
       <c r="L65" s="4"/>
@@ -3332,1063 +3797,1105 @@
       <c r="Y65" s="4"/>
       <c r="Z65" s="4"/>
     </row>
-    <row r="66" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A66" s="6" t="s">
+    <row r="66" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A66" s="22"/>
+      <c r="B66" s="22"/>
+      <c r="C66" s="22"/>
+      <c r="D66" s="22"/>
+      <c r="E66" s="22"/>
+      <c r="F66" s="22"/>
+      <c r="G66" s="22"/>
+      <c r="H66" s="22"/>
+      <c r="I66" s="22"/>
+      <c r="J66" s="22"/>
+      <c r="K66" s="22"/>
+      <c r="L66" s="22"/>
+      <c r="M66" s="22"/>
+      <c r="N66" s="22"/>
+      <c r="O66" s="22"/>
+      <c r="P66" s="22"/>
+      <c r="Q66" s="22"/>
+      <c r="R66" s="22"/>
+      <c r="S66" s="22"/>
+      <c r="T66" s="22"/>
+      <c r="U66" s="22"/>
+      <c r="V66" s="22"/>
+      <c r="W66" s="22"/>
+      <c r="X66" s="22"/>
+      <c r="Y66" s="22"/>
+      <c r="Z66" s="22"/>
+    </row>
+    <row r="67" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A67" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B67" s="4" t="s">
+        <v>201</v>
+      </c>
+      <c r="C67" s="4" t="s">
+        <v>197</v>
+      </c>
+      <c r="D67" s="22"/>
+      <c r="E67" s="22"/>
+      <c r="F67" s="22"/>
+      <c r="G67" s="22"/>
+      <c r="H67" s="22"/>
+      <c r="I67" s="22"/>
+      <c r="J67" s="22"/>
+      <c r="K67" s="22"/>
+      <c r="L67" s="22"/>
+      <c r="M67" s="22"/>
+      <c r="N67" s="22"/>
+      <c r="O67" s="22"/>
+      <c r="P67" s="22"/>
+      <c r="Q67" s="22"/>
+      <c r="R67" s="22"/>
+      <c r="S67" s="22"/>
+      <c r="T67" s="22"/>
+      <c r="U67" s="22"/>
+      <c r="V67" s="22"/>
+      <c r="W67" s="22"/>
+      <c r="X67" s="22"/>
+      <c r="Y67" s="22"/>
+      <c r="Z67" s="22"/>
+    </row>
+    <row r="68" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A68" s="43" t="s">
         <v>50</v>
       </c>
-      <c r="B66" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="C66" t="s">
-        <v>52</v>
-      </c>
-      <c r="E66" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="67" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A67" s="6" t="s">
+      <c r="B68" s="43" t="s">
+        <v>198</v>
+      </c>
+      <c r="C68" s="43" t="s">
+        <v>202</v>
+      </c>
+      <c r="D68" s="22"/>
+      <c r="E68" s="44" t="s">
+        <v>149</v>
+      </c>
+      <c r="F68" s="22"/>
+      <c r="G68" s="22"/>
+      <c r="H68" s="22"/>
+      <c r="I68" s="22"/>
+      <c r="J68" s="22"/>
+      <c r="K68" s="22"/>
+      <c r="L68" s="22"/>
+      <c r="M68" s="22"/>
+      <c r="N68" s="22"/>
+      <c r="O68" s="22"/>
+      <c r="P68" s="22"/>
+      <c r="Q68" s="22"/>
+      <c r="R68" s="22"/>
+      <c r="S68" s="22"/>
+      <c r="T68" s="22"/>
+      <c r="U68" s="22"/>
+      <c r="V68" s="22"/>
+      <c r="W68" s="22"/>
+      <c r="X68" s="22"/>
+      <c r="Y68" s="22"/>
+      <c r="Z68" s="22"/>
+    </row>
+    <row r="69" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A69" s="43" t="s">
         <v>50</v>
       </c>
-      <c r="B67" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="C67" t="s">
-        <v>55</v>
-      </c>
-      <c r="E67" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="68" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A68" s="6" t="s">
+      <c r="B69" s="43" t="s">
+        <v>199</v>
+      </c>
+      <c r="C69" s="43" t="s">
+        <v>202</v>
+      </c>
+      <c r="D69" s="22"/>
+      <c r="E69" s="44" t="s">
+        <v>151</v>
+      </c>
+      <c r="F69" s="22"/>
+      <c r="G69" s="22"/>
+      <c r="H69" s="22"/>
+      <c r="I69" s="22"/>
+      <c r="J69" s="22"/>
+      <c r="K69" s="22"/>
+      <c r="L69" s="22"/>
+      <c r="M69" s="22"/>
+      <c r="N69" s="22"/>
+      <c r="O69" s="22"/>
+      <c r="P69" s="22"/>
+      <c r="Q69" s="22"/>
+      <c r="R69" s="22"/>
+      <c r="S69" s="22"/>
+      <c r="T69" s="22"/>
+      <c r="U69" s="22"/>
+      <c r="V69" s="22"/>
+      <c r="W69" s="22"/>
+      <c r="X69" s="22"/>
+      <c r="Y69" s="22"/>
+      <c r="Z69" s="22"/>
+    </row>
+    <row r="70" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A70" s="43" t="s">
         <v>50</v>
       </c>
-      <c r="B68" s="6" t="s">
-        <v>57</v>
-      </c>
-      <c r="C68" t="s">
-        <v>58</v>
-      </c>
-      <c r="E68" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="69" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A69" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="B69" s="4"/>
-      <c r="C69" s="4"/>
-      <c r="D69" s="4"/>
-      <c r="E69" s="4"/>
-      <c r="F69" s="4"/>
-      <c r="G69" s="4"/>
-      <c r="H69" s="4"/>
-      <c r="I69" s="4"/>
-      <c r="J69" s="4"/>
-      <c r="K69" s="4"/>
-      <c r="L69" s="4"/>
-      <c r="M69" s="4"/>
-      <c r="N69" s="4"/>
-      <c r="O69" s="4"/>
-      <c r="P69" s="4"/>
-      <c r="Q69" s="4"/>
-      <c r="R69" s="4"/>
-      <c r="S69" s="4"/>
-      <c r="T69" s="4"/>
-      <c r="U69" s="4"/>
-      <c r="V69" s="4"/>
-      <c r="W69" s="4"/>
-      <c r="X69" s="4"/>
-      <c r="Y69" s="4"/>
-      <c r="Z69" s="4"/>
-    </row>
-    <row r="70" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A70" s="6"/>
-      <c r="B70" s="6"/>
-      <c r="C70" s="6"/>
-      <c r="D70" s="6"/>
-      <c r="E70" s="6"/>
-      <c r="F70" s="6"/>
-      <c r="G70" s="6"/>
-      <c r="H70" s="6"/>
-      <c r="I70" s="6"/>
-      <c r="J70" s="6"/>
-      <c r="K70" s="6"/>
-      <c r="L70" s="6"/>
-      <c r="M70" s="6"/>
-      <c r="N70" s="6"/>
-      <c r="O70" s="6"/>
-      <c r="P70" s="6"/>
-      <c r="Q70" s="6"/>
-      <c r="R70" s="6"/>
-      <c r="S70" s="6"/>
-      <c r="T70" s="6"/>
-      <c r="U70" s="6"/>
-      <c r="V70" s="6"/>
-      <c r="W70" s="4"/>
-      <c r="X70" s="4"/>
-      <c r="Y70" s="4"/>
-      <c r="Z70" s="4"/>
+      <c r="B70" s="43" t="s">
+        <v>200</v>
+      </c>
+      <c r="C70" s="43" t="s">
+        <v>203</v>
+      </c>
+      <c r="D70" s="22"/>
+      <c r="E70" s="44" t="s">
+        <v>153</v>
+      </c>
+      <c r="F70" s="22"/>
+      <c r="G70" s="22"/>
+      <c r="H70" s="22"/>
+      <c r="I70" s="22"/>
+      <c r="J70" s="22"/>
+      <c r="K70" s="22"/>
+      <c r="L70" s="22"/>
+      <c r="M70" s="22"/>
+      <c r="N70" s="22"/>
+      <c r="O70" s="22"/>
+      <c r="P70" s="22"/>
+      <c r="Q70" s="22"/>
+      <c r="R70" s="22"/>
+      <c r="S70" s="22"/>
+      <c r="T70" s="22"/>
+      <c r="U70" s="22"/>
+      <c r="V70" s="22"/>
+      <c r="W70" s="22"/>
+      <c r="X70" s="22"/>
+      <c r="Y70" s="22"/>
+      <c r="Z70" s="22"/>
     </row>
     <row r="71" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A71" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="B71" s="4"/>
+      <c r="C71" s="4"/>
+      <c r="D71" s="22"/>
+      <c r="E71" s="22"/>
+      <c r="F71" s="22"/>
+      <c r="G71" s="22"/>
+      <c r="H71" s="22"/>
+      <c r="I71" s="22"/>
+      <c r="J71" s="22"/>
+      <c r="K71" s="22"/>
+      <c r="L71" s="22"/>
+      <c r="M71" s="22"/>
+      <c r="N71" s="22"/>
+      <c r="O71" s="22"/>
+      <c r="P71" s="22"/>
+      <c r="Q71" s="22"/>
+      <c r="R71" s="22"/>
+      <c r="S71" s="22"/>
+      <c r="T71" s="22"/>
+      <c r="U71" s="22"/>
+      <c r="V71" s="22"/>
+      <c r="W71" s="22"/>
+      <c r="X71" s="22"/>
+      <c r="Y71" s="22"/>
+      <c r="Z71" s="22"/>
+    </row>
+    <row r="72" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A72" s="22"/>
+      <c r="B72" s="22"/>
+      <c r="C72" s="22"/>
+      <c r="D72" s="22"/>
+      <c r="E72" s="22"/>
+      <c r="F72" s="22"/>
+      <c r="G72" s="22"/>
+      <c r="H72" s="22"/>
+      <c r="I72" s="22"/>
+      <c r="J72" s="22"/>
+      <c r="K72" s="22"/>
+      <c r="L72" s="22"/>
+      <c r="M72" s="22"/>
+      <c r="N72" s="22"/>
+      <c r="O72" s="22"/>
+      <c r="P72" s="22"/>
+      <c r="Q72" s="22"/>
+      <c r="R72" s="22"/>
+      <c r="S72" s="22"/>
+      <c r="T72" s="22"/>
+      <c r="U72" s="22"/>
+      <c r="V72" s="22"/>
+      <c r="W72" s="22"/>
+      <c r="X72" s="22"/>
+      <c r="Y72" s="22"/>
+      <c r="Z72" s="22"/>
+    </row>
+    <row r="73" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A73" s="22"/>
+      <c r="B73" s="22"/>
+      <c r="C73" s="22"/>
+      <c r="D73" s="22"/>
+      <c r="E73" s="22"/>
+      <c r="F73" s="22"/>
+      <c r="G73" s="22"/>
+      <c r="H73" s="22"/>
+      <c r="I73" s="22"/>
+      <c r="J73" s="22"/>
+      <c r="K73" s="22"/>
+      <c r="L73" s="22"/>
+      <c r="M73" s="22"/>
+      <c r="N73" s="22"/>
+      <c r="O73" s="22"/>
+      <c r="P73" s="22"/>
+      <c r="Q73" s="22"/>
+      <c r="R73" s="22"/>
+      <c r="S73" s="22"/>
+      <c r="T73" s="22"/>
+      <c r="U73" s="22"/>
+      <c r="V73" s="22"/>
+      <c r="W73" s="22"/>
+      <c r="X73" s="22"/>
+      <c r="Y73" s="22"/>
+      <c r="Z73" s="22"/>
+    </row>
+    <row r="74" spans="1:26" s="4" customFormat="1" ht="12.9" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A74" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="B71" s="4" t="s">
-        <v>157</v>
-      </c>
-      <c r="C71" s="4" t="s">
-        <v>156</v>
-      </c>
-      <c r="D71" s="4"/>
-      <c r="E71" s="4"/>
-      <c r="F71" s="4" t="s">
+      <c r="B74" s="4" t="s">
+        <v>219</v>
+      </c>
+      <c r="C74" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="F74" s="19" t="s">
         <v>21</v>
       </c>
-      <c r="G71" s="4"/>
-      <c r="H71" s="4"/>
-      <c r="I71" s="4"/>
-      <c r="J71" s="4"/>
-      <c r="K71" s="4"/>
-      <c r="L71" s="4"/>
-      <c r="M71" s="4"/>
-      <c r="N71" s="4"/>
-      <c r="O71" s="4"/>
-      <c r="P71" s="4"/>
-      <c r="Q71" s="4"/>
-      <c r="R71" s="4"/>
-      <c r="S71" s="4"/>
-      <c r="T71" s="4"/>
-      <c r="U71" s="4"/>
-      <c r="V71" s="4"/>
-      <c r="W71" s="4"/>
-      <c r="X71" s="4"/>
-      <c r="Y71" s="4"/>
-      <c r="Z71" s="4"/>
-    </row>
-    <row r="72" spans="1:26" ht="15.9" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A72" s="43" t="s">
-        <v>142</v>
-      </c>
-      <c r="B72" s="43" t="s">
-        <v>143</v>
-      </c>
-      <c r="C72" s="43" t="s">
-        <v>158</v>
-      </c>
-      <c r="D72" s="6"/>
-      <c r="F72" s="45" t="s">
-        <v>166</v>
-      </c>
-      <c r="I72" s="6"/>
-      <c r="J72" s="6"/>
-      <c r="K72" s="6"/>
-      <c r="L72" s="6"/>
-      <c r="M72" s="6"/>
-      <c r="N72" s="6"/>
-      <c r="O72" s="6"/>
-      <c r="P72" s="6"/>
-      <c r="Q72" s="6"/>
-      <c r="R72" s="6"/>
-      <c r="S72" s="6"/>
-      <c r="T72" s="6"/>
-      <c r="U72" s="6"/>
-      <c r="V72" s="6"/>
-      <c r="W72" s="6"/>
-      <c r="X72" s="6"/>
-      <c r="Y72" s="6"/>
-      <c r="Z72" s="6"/>
-    </row>
-    <row r="73" spans="1:26" ht="15.9" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A73" s="43" t="s">
-        <v>144</v>
-      </c>
-      <c r="B73" s="43" t="s">
-        <v>145</v>
-      </c>
-      <c r="C73" s="43" t="s">
-        <v>159</v>
-      </c>
-      <c r="D73" s="6"/>
-      <c r="F73" s="45" t="s">
-        <v>166</v>
-      </c>
-      <c r="I73" s="6"/>
-      <c r="J73" s="6"/>
-      <c r="K73" s="6"/>
-      <c r="L73" s="6"/>
-      <c r="M73" s="6"/>
-      <c r="N73" s="6"/>
-      <c r="O73" s="6"/>
-      <c r="P73" s="6"/>
-      <c r="Q73" s="6"/>
-      <c r="R73" s="6"/>
-      <c r="S73" s="6"/>
-      <c r="T73" s="6"/>
-      <c r="U73" s="6"/>
-      <c r="V73" s="6"/>
-      <c r="W73" s="6"/>
-      <c r="X73" s="6"/>
-      <c r="Y73" s="6"/>
-      <c r="Z73" s="6"/>
-    </row>
-    <row r="74" spans="1:26" ht="15.9" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A74" s="43" t="s">
-        <v>146</v>
-      </c>
-      <c r="B74" s="43" t="s">
-        <v>147</v>
-      </c>
-      <c r="C74" s="43" t="s">
-        <v>160</v>
-      </c>
-      <c r="D74" s="6"/>
-      <c r="F74" s="45" t="s">
-        <v>166</v>
-      </c>
-      <c r="I74" s="6"/>
-      <c r="J74" s="6"/>
-      <c r="K74" s="6"/>
-      <c r="L74" s="6"/>
-      <c r="M74" s="6"/>
-      <c r="N74" s="6"/>
-      <c r="O74" s="6"/>
-      <c r="P74" s="6"/>
-      <c r="Q74" s="6"/>
-      <c r="R74" s="6"/>
-      <c r="S74" s="6"/>
-      <c r="T74" s="6"/>
-      <c r="U74" s="6"/>
-      <c r="V74" s="6"/>
-      <c r="W74" s="6"/>
-      <c r="X74" s="6"/>
-      <c r="Y74" s="6"/>
-      <c r="Z74" s="6"/>
-    </row>
-    <row r="75" spans="1:26" ht="15.9" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A75" s="43" t="s">
+    </row>
+    <row r="75" spans="1:26" s="6" customFormat="1" ht="12.9" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A75" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="B75" s="9" t="s">
+        <v>221</v>
+      </c>
+      <c r="C75" s="17"/>
+      <c r="D75" s="9"/>
+      <c r="E75" s="17"/>
+      <c r="G75" s="22"/>
+      <c r="H75" s="22"/>
+      <c r="I75" s="6" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="76" spans="1:26" s="6" customFormat="1" ht="12.9" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A76" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="B76" s="9" t="s">
+        <v>223</v>
+      </c>
+      <c r="C76" s="17"/>
+      <c r="D76" s="9"/>
+      <c r="E76" s="17"/>
+      <c r="G76" s="22"/>
+      <c r="H76" s="22"/>
+      <c r="I76" s="6" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="77" spans="1:26" s="6" customFormat="1" ht="12.9" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A77" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="B75" s="43" t="s">
-        <v>148</v>
-      </c>
-      <c r="C75" s="43" t="s">
-        <v>161</v>
-      </c>
-      <c r="D75" s="6"/>
-      <c r="E75" s="44" t="s">
-        <v>149</v>
-      </c>
-      <c r="F75" s="45"/>
-      <c r="G75" s="45"/>
-      <c r="H75" s="45"/>
-      <c r="I75" s="6"/>
-      <c r="J75" s="6"/>
-      <c r="K75" s="6"/>
-      <c r="L75" s="6"/>
-      <c r="M75" s="6"/>
-      <c r="N75" s="6"/>
-      <c r="O75" s="6"/>
-      <c r="P75" s="6"/>
-      <c r="Q75" s="6"/>
-      <c r="R75" s="6"/>
-      <c r="S75" s="6"/>
-      <c r="T75" s="6"/>
-      <c r="U75" s="6"/>
-      <c r="V75" s="6"/>
-      <c r="W75" s="6"/>
-      <c r="X75" s="6"/>
-      <c r="Y75" s="6"/>
-      <c r="Z75" s="6"/>
-    </row>
-    <row r="76" spans="1:26" ht="15.9" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A76" s="43" t="s">
-        <v>50</v>
-      </c>
-      <c r="B76" s="43" t="s">
-        <v>150</v>
-      </c>
-      <c r="C76" s="43" t="s">
-        <v>162</v>
-      </c>
-      <c r="D76" s="6"/>
-      <c r="E76" s="44" t="s">
-        <v>151</v>
-      </c>
-      <c r="F76" s="43"/>
-      <c r="G76" s="43"/>
-      <c r="H76" s="43"/>
-      <c r="I76" s="6"/>
-      <c r="J76" s="6"/>
-      <c r="K76" s="6"/>
-      <c r="L76" s="6"/>
-      <c r="M76" s="6"/>
-      <c r="N76" s="6"/>
-      <c r="O76" s="6"/>
-      <c r="P76" s="6"/>
-      <c r="Q76" s="6"/>
-      <c r="R76" s="6"/>
-      <c r="S76" s="6"/>
-      <c r="T76" s="6"/>
-      <c r="U76" s="6"/>
-      <c r="V76" s="6"/>
-      <c r="W76" s="6"/>
-      <c r="X76" s="6"/>
-      <c r="Y76" s="6"/>
-      <c r="Z76" s="6"/>
-    </row>
-    <row r="77" spans="1:26" ht="15.9" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A77" s="43" t="s">
-        <v>50</v>
-      </c>
-      <c r="B77" s="43" t="s">
-        <v>152</v>
-      </c>
-      <c r="C77" s="43" t="s">
-        <v>163</v>
-      </c>
-      <c r="D77" s="6"/>
-      <c r="E77" s="44" t="s">
-        <v>153</v>
-      </c>
-      <c r="F77" s="43"/>
-      <c r="G77" s="43"/>
-      <c r="H77" s="43"/>
-      <c r="I77" s="6"/>
-      <c r="J77" s="6"/>
-      <c r="K77" s="6"/>
-      <c r="L77" s="6"/>
-      <c r="M77" s="6"/>
-      <c r="N77" s="6"/>
-      <c r="O77" s="6"/>
-      <c r="P77" s="6"/>
-      <c r="Q77" s="6"/>
-      <c r="R77" s="6"/>
-      <c r="S77" s="6"/>
-      <c r="T77" s="6"/>
-      <c r="U77" s="6"/>
-      <c r="V77" s="6"/>
-      <c r="W77" s="6"/>
-      <c r="X77" s="6"/>
-      <c r="Y77" s="6"/>
-      <c r="Z77" s="6"/>
-    </row>
-    <row r="78" spans="1:26" ht="15.9" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A78" s="43" t="s">
-        <v>50</v>
-      </c>
-      <c r="B78" s="43" t="s">
-        <v>103</v>
-      </c>
-      <c r="C78" s="43" t="s">
-        <v>164</v>
-      </c>
-      <c r="D78" s="6"/>
-      <c r="E78" s="44" t="s">
-        <v>154</v>
-      </c>
-      <c r="F78" s="43"/>
-      <c r="G78" s="43"/>
-      <c r="H78" s="43"/>
-      <c r="I78" s="6"/>
-      <c r="J78" s="6"/>
-      <c r="K78" s="6"/>
-      <c r="L78" s="6"/>
-      <c r="M78" s="6"/>
-      <c r="N78" s="6"/>
-      <c r="O78" s="6"/>
-      <c r="P78" s="6"/>
-      <c r="Q78" s="6"/>
-      <c r="R78" s="6"/>
-      <c r="S78" s="6"/>
-      <c r="T78" s="6"/>
-      <c r="U78" s="6"/>
-      <c r="V78" s="6"/>
-      <c r="W78" s="6"/>
-      <c r="X78" s="6"/>
-      <c r="Y78" s="6"/>
-      <c r="Z78" s="6"/>
-    </row>
-    <row r="79" spans="1:26" ht="15.9" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A79" s="43" t="s">
-        <v>50</v>
-      </c>
-      <c r="B79" s="43" t="s">
-        <v>103</v>
-      </c>
-      <c r="C79" s="43" t="s">
-        <v>165</v>
-      </c>
-      <c r="D79" s="6"/>
-      <c r="E79" s="44" t="s">
-        <v>155</v>
-      </c>
-      <c r="F79" s="43"/>
-      <c r="G79" s="43"/>
-      <c r="H79" s="43"/>
-      <c r="I79" s="6"/>
-      <c r="J79" s="6"/>
-      <c r="K79" s="6"/>
-      <c r="L79" s="6"/>
-      <c r="M79" s="6"/>
-      <c r="N79" s="6"/>
-      <c r="O79" s="6"/>
-      <c r="P79" s="6"/>
-      <c r="Q79" s="6"/>
-      <c r="R79" s="6"/>
-      <c r="S79" s="6"/>
-      <c r="T79" s="6"/>
-      <c r="U79" s="6"/>
-      <c r="V79" s="6"/>
-      <c r="W79" s="6"/>
-      <c r="X79" s="6"/>
-      <c r="Y79" s="6"/>
-      <c r="Z79" s="6"/>
-    </row>
-    <row r="80" spans="1:26" ht="15.9" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A80" s="43" t="s">
-        <v>50</v>
-      </c>
-      <c r="B80" s="43" t="s">
-        <v>50</v>
-      </c>
-      <c r="C80" s="48" t="s">
-        <v>217</v>
-      </c>
-      <c r="E80" s="49" t="s">
-        <v>218</v>
-      </c>
-      <c r="F80" s="43"/>
-      <c r="G80" s="43"/>
-      <c r="H80" s="43"/>
-      <c r="I80" s="6"/>
-      <c r="J80" s="6"/>
-      <c r="K80" s="6"/>
-      <c r="L80" s="6"/>
-      <c r="M80" s="6"/>
-      <c r="N80" s="6"/>
-      <c r="O80" s="6"/>
-      <c r="P80" s="6"/>
-      <c r="Q80" s="6"/>
-      <c r="R80" s="6"/>
-      <c r="S80" s="6"/>
-      <c r="T80" s="6"/>
-      <c r="U80" s="6"/>
-      <c r="V80" s="6"/>
-      <c r="W80" s="6"/>
-      <c r="X80" s="6"/>
-      <c r="Y80" s="6"/>
-      <c r="Z80" s="6"/>
-    </row>
-    <row r="81" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B77" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="C77" s="17" t="s">
+        <v>242</v>
+      </c>
+      <c r="D77" s="9"/>
+      <c r="E77" s="17"/>
+      <c r="G77" s="22"/>
+      <c r="H77" s="22"/>
+    </row>
+    <row r="78" spans="1:26" s="6" customFormat="1" ht="12.9" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A78" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="B78" s="9" t="s">
+        <v>225</v>
+      </c>
+      <c r="C78" s="10" t="s">
+        <v>64</v>
+      </c>
+      <c r="D78" s="21" t="s">
+        <v>45</v>
+      </c>
+      <c r="E78" s="9"/>
+      <c r="G78" s="22" t="s">
+        <v>65</v>
+      </c>
+      <c r="H78" s="22" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="79" spans="1:26" s="6" customFormat="1" ht="12.9" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A79" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="B79" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="C79" s="23" t="s">
+        <v>68</v>
+      </c>
+      <c r="D79" s="21"/>
+      <c r="E79" s="9"/>
+      <c r="G79" s="22"/>
+      <c r="H79" s="22"/>
+    </row>
+    <row r="80" spans="1:26" s="6" customFormat="1" ht="12.9" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A80" s="9"/>
+      <c r="B80" s="9"/>
+      <c r="C80" s="23"/>
+      <c r="D80" s="21"/>
+      <c r="E80" s="9"/>
+      <c r="G80" s="22"/>
+      <c r="H80" s="22"/>
+    </row>
+    <row r="81" spans="1:25" s="4" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A81" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="B81" s="4"/>
-      <c r="C81" s="4"/>
-      <c r="D81" s="4"/>
-      <c r="E81" s="4"/>
-      <c r="F81" s="4"/>
-      <c r="G81" s="4"/>
-      <c r="H81" s="4"/>
-      <c r="I81" s="4"/>
-      <c r="J81" s="4"/>
-      <c r="K81" s="4"/>
-      <c r="L81" s="4"/>
-      <c r="M81" s="4"/>
-      <c r="N81" s="4"/>
-      <c r="O81" s="4"/>
-      <c r="P81" s="4"/>
-      <c r="Q81" s="4"/>
-      <c r="R81" s="4"/>
-      <c r="S81" s="4"/>
-      <c r="T81" s="4"/>
-      <c r="U81" s="4"/>
-      <c r="V81" s="4"/>
-      <c r="W81" s="4"/>
-      <c r="X81" s="4"/>
-      <c r="Y81" s="4"/>
-      <c r="Z81" s="4"/>
-    </row>
-    <row r="82" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A82" s="22"/>
-      <c r="B82" s="22"/>
-      <c r="C82" s="22"/>
-      <c r="D82" s="22"/>
-      <c r="E82" s="22"/>
-      <c r="F82" s="22"/>
-      <c r="G82" s="22"/>
-      <c r="H82" s="22"/>
-      <c r="I82" s="22"/>
-      <c r="J82" s="4"/>
-      <c r="K82" s="4"/>
-      <c r="L82" s="4"/>
-      <c r="M82" s="4"/>
-      <c r="N82" s="4"/>
-      <c r="O82" s="4"/>
-      <c r="P82" s="4"/>
-      <c r="Q82" s="4"/>
-      <c r="R82" s="4"/>
-      <c r="S82" s="4"/>
-      <c r="T82" s="4"/>
-      <c r="U82" s="4"/>
-      <c r="V82" s="4"/>
-      <c r="W82" s="4"/>
-      <c r="X82" s="4"/>
-      <c r="Y82" s="4"/>
-      <c r="Z82" s="4"/>
-    </row>
-    <row r="83" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A83" s="22"/>
-      <c r="B83" s="22"/>
-      <c r="C83" s="22"/>
-      <c r="D83" s="22"/>
-      <c r="E83" s="22"/>
-      <c r="F83" s="22"/>
-      <c r="G83" s="22"/>
-      <c r="H83" s="22"/>
-      <c r="I83" s="22"/>
-      <c r="J83" s="22"/>
-      <c r="K83" s="22"/>
-      <c r="L83" s="22"/>
-      <c r="M83" s="22"/>
-      <c r="N83" s="22"/>
-      <c r="O83" s="22"/>
-      <c r="P83" s="22"/>
-      <c r="Q83" s="22"/>
-      <c r="R83" s="22"/>
-      <c r="S83" s="22"/>
-      <c r="T83" s="22"/>
-      <c r="U83" s="22"/>
-      <c r="V83" s="22"/>
-      <c r="W83" s="22"/>
-      <c r="X83" s="22"/>
-      <c r="Y83" s="22"/>
-      <c r="Z83" s="22"/>
-    </row>
-    <row r="84" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A84" s="4" t="s">
+    </row>
+    <row r="82" spans="1:25" s="4" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A82"/>
+      <c r="B82"/>
+      <c r="C82"/>
+      <c r="D82"/>
+      <c r="E82"/>
+      <c r="F82"/>
+      <c r="G82"/>
+      <c r="H82"/>
+      <c r="I82"/>
+      <c r="J82"/>
+    </row>
+    <row r="83" spans="1:25" s="4" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A83" s="42" t="s">
         <v>17</v>
       </c>
-      <c r="B84" s="4" t="s">
-        <v>201</v>
-      </c>
-      <c r="C84" s="4" t="s">
-        <v>197</v>
-      </c>
-      <c r="D84" s="22"/>
-      <c r="E84" s="22"/>
-      <c r="F84" s="22"/>
-      <c r="G84" s="22"/>
-      <c r="H84" s="22"/>
-      <c r="I84" s="22"/>
-      <c r="J84" s="22"/>
-      <c r="K84" s="22"/>
-      <c r="L84" s="22"/>
-      <c r="M84" s="22"/>
-      <c r="N84" s="22"/>
-      <c r="O84" s="22"/>
-      <c r="P84" s="22"/>
-      <c r="Q84" s="22"/>
-      <c r="R84" s="22"/>
-      <c r="S84" s="22"/>
-      <c r="T84" s="22"/>
-      <c r="U84" s="22"/>
-      <c r="V84" s="22"/>
-      <c r="W84" s="22"/>
-      <c r="X84" s="22"/>
-      <c r="Y84" s="22"/>
-      <c r="Z84" s="22"/>
-    </row>
-    <row r="85" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B83" s="42" t="s">
+        <v>212</v>
+      </c>
+      <c r="C83" s="42" t="s">
+        <v>204</v>
+      </c>
+      <c r="D83"/>
+      <c r="E83"/>
+      <c r="F83"/>
+      <c r="G83"/>
+      <c r="H83"/>
+      <c r="I83"/>
+      <c r="J83"/>
+    </row>
+    <row r="84" spans="1:25" s="4" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A84" s="43" t="s">
+        <v>205</v>
+      </c>
+      <c r="B84" s="43" t="s">
+        <v>206</v>
+      </c>
+      <c r="C84" s="43" t="s">
+        <v>213</v>
+      </c>
+      <c r="D84"/>
+      <c r="E84" s="44" t="s">
+        <v>214</v>
+      </c>
+      <c r="F84"/>
+      <c r="G84"/>
+      <c r="H84"/>
+      <c r="I84"/>
+      <c r="J84"/>
+    </row>
+    <row r="85" spans="1:25" s="4" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A85" s="43" t="s">
         <v>50</v>
       </c>
       <c r="B85" s="43" t="s">
-        <v>198</v>
+        <v>207</v>
       </c>
       <c r="C85" s="43" t="s">
-        <v>202</v>
-      </c>
-      <c r="D85" s="22"/>
+        <v>208</v>
+      </c>
+      <c r="D85"/>
       <c r="E85" s="44" t="s">
-        <v>149</v>
-      </c>
-      <c r="F85" s="22"/>
-      <c r="G85" s="22"/>
-      <c r="H85" s="22"/>
-      <c r="I85" s="22"/>
-      <c r="J85" s="22"/>
-      <c r="K85" s="22"/>
-      <c r="L85" s="22"/>
-      <c r="M85" s="22"/>
-      <c r="N85" s="22"/>
-      <c r="O85" s="22"/>
-      <c r="P85" s="22"/>
-      <c r="Q85" s="22"/>
-      <c r="R85" s="22"/>
-      <c r="S85" s="22"/>
-      <c r="T85" s="22"/>
-      <c r="U85" s="22"/>
-      <c r="V85" s="22"/>
-      <c r="W85" s="22"/>
-      <c r="X85" s="22"/>
-      <c r="Y85" s="22"/>
-      <c r="Z85" s="22"/>
-    </row>
-    <row r="86" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A86" s="43" t="s">
+        <v>215</v>
+      </c>
+      <c r="F85"/>
+      <c r="G85"/>
+      <c r="H85"/>
+      <c r="I85"/>
+      <c r="J85"/>
+    </row>
+    <row r="86" spans="1:25" s="4" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A86" s="42" t="s">
+        <v>29</v>
+      </c>
+      <c r="B86" s="42"/>
+      <c r="C86" s="42"/>
+      <c r="D86"/>
+      <c r="E86"/>
+      <c r="F86"/>
+      <c r="G86"/>
+      <c r="H86"/>
+      <c r="I86"/>
+      <c r="J86"/>
+    </row>
+    <row r="87" spans="1:25" s="4" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A87" s="43"/>
+      <c r="B87" s="43"/>
+      <c r="C87" s="43"/>
+      <c r="D87"/>
+      <c r="E87"/>
+      <c r="F87"/>
+      <c r="G87"/>
+      <c r="H87"/>
+      <c r="I87"/>
+      <c r="J87"/>
+    </row>
+    <row r="88" spans="1:25" s="4" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A88" s="42" t="s">
+        <v>17</v>
+      </c>
+      <c r="B88" s="42" t="s">
+        <v>308</v>
+      </c>
+      <c r="C88" s="42" t="s">
+        <v>209</v>
+      </c>
+      <c r="D88"/>
+      <c r="E88"/>
+      <c r="F88"/>
+      <c r="G88"/>
+      <c r="H88"/>
+      <c r="I88"/>
+      <c r="J88"/>
+    </row>
+    <row r="89" spans="1:25" s="4" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A89" s="43" t="s">
         <v>50</v>
       </c>
-      <c r="B86" s="43" t="s">
-        <v>199</v>
-      </c>
-      <c r="C86" s="43" t="s">
-        <v>202</v>
-      </c>
-      <c r="D86" s="22"/>
-      <c r="E86" s="44" t="s">
-        <v>151</v>
-      </c>
-      <c r="F86" s="22"/>
-      <c r="G86" s="22"/>
-      <c r="H86" s="22"/>
-      <c r="I86" s="22"/>
-      <c r="J86" s="22"/>
-      <c r="K86" s="22"/>
-      <c r="L86" s="22"/>
-      <c r="M86" s="22"/>
-      <c r="N86" s="22"/>
-      <c r="O86" s="22"/>
-      <c r="P86" s="22"/>
-      <c r="Q86" s="22"/>
-      <c r="R86" s="22"/>
-      <c r="S86" s="22"/>
-      <c r="T86" s="22"/>
-      <c r="U86" s="22"/>
-      <c r="V86" s="22"/>
-      <c r="W86" s="22"/>
-      <c r="X86" s="22"/>
-      <c r="Y86" s="22"/>
-      <c r="Z86" s="22"/>
-    </row>
-    <row r="87" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A87" s="43" t="s">
+      <c r="B89" s="43" t="s">
+        <v>210</v>
+      </c>
+      <c r="C89" s="43" t="s">
+        <v>211</v>
+      </c>
+      <c r="D89"/>
+      <c r="E89" s="44" t="s">
+        <v>216</v>
+      </c>
+      <c r="F89"/>
+      <c r="G89"/>
+      <c r="H89"/>
+      <c r="I89"/>
+      <c r="J89"/>
+    </row>
+    <row r="90" spans="1:25" s="4" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A90" s="42" t="s">
+        <v>29</v>
+      </c>
+      <c r="B90" s="42"/>
+      <c r="C90" s="42"/>
+      <c r="D90"/>
+      <c r="E90"/>
+      <c r="F90"/>
+      <c r="G90"/>
+      <c r="H90"/>
+      <c r="I90"/>
+      <c r="J90"/>
+    </row>
+    <row r="91" spans="1:25" s="4" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A91"/>
+      <c r="B91"/>
+      <c r="C91"/>
+      <c r="D91"/>
+      <c r="E91"/>
+      <c r="F91"/>
+      <c r="G91"/>
+      <c r="H91"/>
+      <c r="I91"/>
+      <c r="J91"/>
+    </row>
+    <row r="92" spans="1:25" s="15" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A92" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="B92" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="C92" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="D92" s="5"/>
+      <c r="E92" s="4"/>
+      <c r="F92" s="19" t="s">
+        <v>70</v>
+      </c>
+      <c r="G92" s="5"/>
+      <c r="H92" s="5"/>
+      <c r="I92" s="5"/>
+      <c r="J92" s="5"/>
+      <c r="K92" s="5"/>
+      <c r="L92" s="5"/>
+      <c r="M92" s="5"/>
+      <c r="N92" s="16"/>
+      <c r="O92" s="16"/>
+      <c r="P92" s="16"/>
+      <c r="Q92" s="16"/>
+      <c r="R92" s="16"/>
+      <c r="S92" s="16"/>
+      <c r="T92" s="16"/>
+      <c r="U92" s="16"/>
+      <c r="V92" s="16"/>
+      <c r="W92" s="16"/>
+      <c r="X92" s="16"/>
+      <c r="Y92" s="16"/>
+    </row>
+    <row r="93" spans="1:25" s="15" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A93" s="16" t="s">
         <v>50</v>
       </c>
-      <c r="B87" s="43" t="s">
-        <v>200</v>
-      </c>
-      <c r="C87" s="43" t="s">
-        <v>203</v>
-      </c>
-      <c r="D87" s="22"/>
-      <c r="E87" s="44" t="s">
-        <v>153</v>
-      </c>
-      <c r="F87" s="22"/>
-      <c r="G87" s="22"/>
-      <c r="H87" s="22"/>
-      <c r="I87" s="22"/>
-      <c r="J87" s="22"/>
-      <c r="K87" s="22"/>
-      <c r="L87" s="22"/>
-      <c r="M87" s="22"/>
-      <c r="N87" s="22"/>
-      <c r="O87" s="22"/>
-      <c r="P87" s="22"/>
-      <c r="Q87" s="22"/>
-      <c r="R87" s="22"/>
-      <c r="S87" s="22"/>
-      <c r="T87" s="22"/>
-      <c r="U87" s="22"/>
-      <c r="V87" s="22"/>
-      <c r="W87" s="22"/>
-      <c r="X87" s="22"/>
-      <c r="Y87" s="22"/>
-      <c r="Z87" s="22"/>
-    </row>
-    <row r="88" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A88" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="B88" s="4"/>
-      <c r="C88" s="4"/>
-      <c r="D88" s="22"/>
-      <c r="E88" s="22"/>
-      <c r="F88" s="22"/>
-      <c r="G88" s="22"/>
-      <c r="H88" s="22"/>
-      <c r="I88" s="22"/>
-      <c r="J88" s="22"/>
-      <c r="K88" s="22"/>
-      <c r="L88" s="22"/>
-      <c r="M88" s="22"/>
-      <c r="N88" s="22"/>
-      <c r="O88" s="22"/>
-      <c r="P88" s="22"/>
-      <c r="Q88" s="22"/>
-      <c r="R88" s="22"/>
-      <c r="S88" s="22"/>
-      <c r="T88" s="22"/>
-      <c r="U88" s="22"/>
-      <c r="V88" s="22"/>
-      <c r="W88" s="22"/>
-      <c r="X88" s="22"/>
-      <c r="Y88" s="22"/>
-      <c r="Z88" s="22"/>
-    </row>
-    <row r="89" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A89" s="22"/>
-      <c r="B89" s="22"/>
-      <c r="C89" s="22"/>
-      <c r="D89" s="22"/>
-      <c r="E89" s="22"/>
-      <c r="F89" s="22"/>
-      <c r="G89" s="22"/>
-      <c r="H89" s="22"/>
-      <c r="I89" s="22"/>
-      <c r="J89" s="22"/>
-      <c r="K89" s="22"/>
-      <c r="L89" s="22"/>
-      <c r="M89" s="22"/>
-      <c r="N89" s="22"/>
-      <c r="O89" s="22"/>
-      <c r="P89" s="22"/>
-      <c r="Q89" s="22"/>
-      <c r="R89" s="22"/>
-      <c r="S89" s="22"/>
-      <c r="T89" s="22"/>
-      <c r="U89" s="22"/>
-      <c r="V89" s="22"/>
-      <c r="W89" s="22"/>
-      <c r="X89" s="22"/>
-      <c r="Y89" s="22"/>
-      <c r="Z89" s="22"/>
-    </row>
-    <row r="90" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A90" s="22"/>
-      <c r="B90" s="22"/>
-      <c r="C90" s="22"/>
-      <c r="D90" s="22"/>
-      <c r="E90" s="22"/>
-      <c r="F90" s="22"/>
-      <c r="G90" s="22"/>
-      <c r="H90" s="22"/>
-      <c r="I90" s="22"/>
-      <c r="J90" s="22"/>
-      <c r="K90" s="22"/>
-      <c r="L90" s="22"/>
-      <c r="M90" s="22"/>
-      <c r="N90" s="22"/>
-      <c r="O90" s="22"/>
-      <c r="P90" s="22"/>
-      <c r="Q90" s="22"/>
-      <c r="R90" s="22"/>
-      <c r="S90" s="22"/>
-      <c r="T90" s="22"/>
-      <c r="U90" s="22"/>
-      <c r="V90" s="22"/>
-      <c r="W90" s="22"/>
-      <c r="X90" s="22"/>
-      <c r="Y90" s="22"/>
-      <c r="Z90" s="22"/>
-    </row>
-    <row r="91" spans="1:26" s="4" customFormat="1" ht="12.9" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A91" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="B91" s="4" t="s">
-        <v>219</v>
-      </c>
-      <c r="C91" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="F91" s="19" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="92" spans="1:26" s="6" customFormat="1" ht="12.9" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A92" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="B92" s="9" t="s">
-        <v>221</v>
-      </c>
-      <c r="C92" s="17"/>
-      <c r="D92" s="9"/>
-      <c r="E92" s="17"/>
-      <c r="G92" s="22"/>
-      <c r="H92" s="22"/>
-      <c r="I92" s="6" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="93" spans="1:26" s="6" customFormat="1" ht="12.9" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A93" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="B93" s="9" t="s">
-        <v>223</v>
-      </c>
-      <c r="C93" s="17"/>
-      <c r="D93" s="9"/>
-      <c r="E93" s="17"/>
-      <c r="G93" s="22"/>
-      <c r="H93" s="22"/>
-      <c r="I93" s="6" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="94" spans="1:26" s="6" customFormat="1" ht="12.9" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A94" s="9" t="s">
+      <c r="B93" s="24" t="s">
+        <v>71</v>
+      </c>
+      <c r="C93" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="D93" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="E93" s="3"/>
+      <c r="F93" s="16"/>
+      <c r="G93" s="16"/>
+      <c r="H93" s="16"/>
+      <c r="I93" s="16"/>
+      <c r="J93" s="16"/>
+      <c r="K93" s="16"/>
+      <c r="L93" s="16"/>
+      <c r="M93" s="16"/>
+      <c r="N93" s="16"/>
+      <c r="O93" s="16"/>
+      <c r="P93" s="16"/>
+      <c r="Q93" s="16"/>
+      <c r="R93" s="16"/>
+      <c r="S93" s="16"/>
+      <c r="T93" s="16"/>
+      <c r="U93" s="16"/>
+      <c r="V93" s="16"/>
+      <c r="W93" s="16"/>
+      <c r="X93" s="16"/>
+      <c r="Y93" s="16"/>
+    </row>
+    <row r="94" spans="1:25" s="15" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A94" s="25" t="s">
         <v>50</v>
       </c>
-      <c r="B94" s="9" t="s">
-        <v>63</v>
-      </c>
-      <c r="C94" s="17" t="s">
-        <v>242</v>
-      </c>
-      <c r="D94" s="9"/>
-      <c r="E94" s="17"/>
-      <c r="G94" s="22"/>
-      <c r="H94" s="22"/>
-    </row>
-    <row r="95" spans="1:26" s="6" customFormat="1" ht="12.9" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A95" s="9" t="s">
-        <v>44</v>
-      </c>
-      <c r="B95" s="9" t="s">
-        <v>225</v>
-      </c>
-      <c r="C95" s="10" t="s">
-        <v>64</v>
-      </c>
-      <c r="D95" s="21" t="s">
-        <v>45</v>
-      </c>
-      <c r="E95" s="9"/>
-      <c r="G95" s="22" t="s">
-        <v>65</v>
-      </c>
-      <c r="H95" s="22" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="96" spans="1:26" s="6" customFormat="1" ht="12.9" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A96" s="9" t="s">
-        <v>66</v>
-      </c>
-      <c r="B96" s="9" t="s">
-        <v>67</v>
-      </c>
-      <c r="C96" s="23" t="s">
-        <v>68</v>
-      </c>
-      <c r="D96" s="21"/>
-      <c r="E96" s="9"/>
-      <c r="G96" s="22"/>
-      <c r="H96" s="22"/>
-    </row>
-    <row r="97" spans="1:25" s="6" customFormat="1" ht="12.9" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A97" s="9"/>
-      <c r="B97" s="9"/>
-      <c r="C97" s="23"/>
-      <c r="D97" s="21"/>
-      <c r="E97" s="9"/>
-      <c r="G97" s="22"/>
-      <c r="H97" s="22"/>
-    </row>
-    <row r="98" spans="1:25" s="4" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A98" s="4" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="99" spans="1:25" s="4" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A99"/>
-      <c r="B99"/>
-      <c r="C99"/>
-      <c r="D99"/>
-      <c r="E99"/>
-      <c r="F99"/>
-      <c r="G99"/>
-      <c r="H99"/>
-      <c r="I99"/>
-      <c r="J99"/>
-    </row>
-    <row r="100" spans="1:25" s="4" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A100" s="42" t="s">
-        <v>17</v>
-      </c>
-      <c r="B100" s="42" t="s">
-        <v>212</v>
-      </c>
-      <c r="C100" s="42" t="s">
-        <v>204</v>
-      </c>
-      <c r="D100"/>
-      <c r="E100"/>
-      <c r="F100"/>
-      <c r="G100"/>
-      <c r="H100"/>
-      <c r="I100"/>
-      <c r="J100"/>
-    </row>
-    <row r="101" spans="1:25" s="4" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A101" s="43" t="s">
-        <v>205</v>
+      <c r="B94" s="25" t="s">
+        <v>69</v>
+      </c>
+      <c r="C94" s="26" t="s">
+        <v>73</v>
+      </c>
+      <c r="D94" s="25"/>
+      <c r="E94" s="25"/>
+      <c r="F94" s="25" t="s">
+        <v>74</v>
+      </c>
+      <c r="G94" s="25"/>
+      <c r="H94" s="25"/>
+      <c r="I94" s="25"/>
+      <c r="J94" s="25"/>
+      <c r="K94" s="25"/>
+      <c r="L94" s="25"/>
+      <c r="M94" s="25"/>
+      <c r="N94" s="25"/>
+      <c r="O94" s="25"/>
+      <c r="P94" s="25"/>
+      <c r="Q94" s="25"/>
+      <c r="R94" s="25"/>
+      <c r="S94" s="25"/>
+      <c r="T94" s="25"/>
+      <c r="U94" s="25"/>
+      <c r="V94" s="25"/>
+      <c r="W94" s="25"/>
+      <c r="X94" s="25"/>
+      <c r="Y94" s="25"/>
+    </row>
+    <row r="95" spans="1:25" s="15" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A95" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="B95" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="C95" s="24" t="s">
+        <v>76</v>
+      </c>
+      <c r="D95" s="3"/>
+      <c r="E95" s="3"/>
+      <c r="F95" s="3"/>
+      <c r="G95" s="3"/>
+      <c r="H95" s="3"/>
+      <c r="I95" s="16"/>
+      <c r="J95" s="3"/>
+      <c r="K95" s="3"/>
+      <c r="L95" s="3"/>
+      <c r="M95" s="3"/>
+      <c r="N95" s="3"/>
+      <c r="O95" s="3"/>
+      <c r="P95" s="3"/>
+      <c r="Q95" s="3"/>
+      <c r="R95" s="3"/>
+      <c r="S95" s="3"/>
+      <c r="T95" s="3"/>
+      <c r="U95" s="3"/>
+      <c r="V95" s="3"/>
+      <c r="W95" s="3"/>
+      <c r="X95" s="3"/>
+      <c r="Y95" s="3"/>
+    </row>
+    <row r="96" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A96" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="B96" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="C96" s="27" t="s">
+        <v>77</v>
+      </c>
+      <c r="E96" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="97" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A97" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="B97" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="C97" s="27" t="s">
+        <v>78</v>
+      </c>
+      <c r="E97" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="98" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A98" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="B98" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="C98" s="27" t="s">
+        <v>79</v>
+      </c>
+      <c r="E98" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="99" spans="1:25" s="15" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A99" s="28" t="s">
+        <v>50</v>
+      </c>
+      <c r="B99" s="29" t="s">
+        <v>80</v>
+      </c>
+      <c r="C99" s="30" t="s">
+        <v>81</v>
+      </c>
+      <c r="D99" s="28"/>
+      <c r="E99" s="28"/>
+      <c r="F99" s="28" t="s">
+        <v>82</v>
+      </c>
+      <c r="G99" s="28"/>
+      <c r="H99" s="28"/>
+      <c r="I99" s="28"/>
+      <c r="J99" s="28"/>
+      <c r="K99" s="28"/>
+      <c r="L99" s="28"/>
+      <c r="M99" s="28"/>
+      <c r="N99" s="28"/>
+      <c r="O99" s="28"/>
+      <c r="P99" s="28"/>
+      <c r="Q99" s="28"/>
+      <c r="R99" s="28"/>
+      <c r="S99" s="28"/>
+      <c r="T99" s="28"/>
+      <c r="U99" s="28"/>
+      <c r="V99" s="28"/>
+      <c r="W99" s="28"/>
+      <c r="X99" s="28"/>
+      <c r="Y99" s="28"/>
+    </row>
+    <row r="100" spans="1:25" s="15" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A100" s="24" t="s">
+        <v>50</v>
+      </c>
+      <c r="B100" s="43" t="s">
+        <v>100</v>
+      </c>
+      <c r="C100" s="43" t="s">
+        <v>168</v>
+      </c>
+      <c r="D100" s="6"/>
+      <c r="E100" s="17" t="s">
+        <v>226</v>
+      </c>
+      <c r="F100" s="15" t="s">
+        <v>83</v>
+      </c>
+      <c r="G100" s="16"/>
+      <c r="H100" s="16"/>
+      <c r="I100" s="16"/>
+      <c r="J100" s="16"/>
+      <c r="K100" s="16"/>
+      <c r="L100" s="16"/>
+      <c r="M100" s="16"/>
+      <c r="N100" s="16"/>
+      <c r="O100" s="16"/>
+      <c r="P100" s="16"/>
+      <c r="Q100" s="16"/>
+      <c r="R100" s="16"/>
+      <c r="S100" s="16"/>
+      <c r="T100" s="16"/>
+      <c r="U100" s="16"/>
+      <c r="V100" s="16"/>
+      <c r="W100" s="16"/>
+      <c r="X100" s="16"/>
+      <c r="Y100" s="16"/>
+    </row>
+    <row r="101" spans="1:25" s="15" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A101" s="24" t="s">
+        <v>50</v>
       </c>
       <c r="B101" s="43" t="s">
-        <v>206</v>
+        <v>169</v>
       </c>
       <c r="C101" s="43" t="s">
-        <v>213</v>
-      </c>
-      <c r="D101"/>
-      <c r="E101" s="44" t="s">
-        <v>214</v>
-      </c>
-      <c r="F101"/>
-      <c r="G101"/>
-      <c r="H101"/>
-      <c r="I101"/>
-      <c r="J101"/>
-    </row>
-    <row r="102" spans="1:25" s="4" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A102" s="43" t="s">
+        <v>170</v>
+      </c>
+      <c r="D101" s="6"/>
+      <c r="E101" s="17" t="s">
+        <v>227</v>
+      </c>
+      <c r="F101" s="16" t="s">
+        <v>83</v>
+      </c>
+      <c r="G101" s="16"/>
+      <c r="H101" s="16"/>
+      <c r="I101" s="16"/>
+      <c r="J101" s="16"/>
+      <c r="K101" s="16"/>
+      <c r="L101" s="16"/>
+      <c r="M101" s="16"/>
+      <c r="N101" s="16"/>
+      <c r="O101" s="16"/>
+      <c r="P101" s="16"/>
+      <c r="Q101" s="16"/>
+      <c r="R101" s="16"/>
+      <c r="S101" s="16"/>
+      <c r="T101" s="16"/>
+      <c r="U101" s="16"/>
+      <c r="V101" s="16"/>
+      <c r="W101" s="16"/>
+      <c r="X101" s="16"/>
+      <c r="Y101" s="16"/>
+    </row>
+    <row r="102" spans="1:25" s="15" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A102" s="24" t="s">
         <v>50</v>
       </c>
       <c r="B102" s="43" t="s">
-        <v>207</v>
+        <v>106</v>
       </c>
       <c r="C102" s="43" t="s">
-        <v>208</v>
-      </c>
-      <c r="D102"/>
-      <c r="E102" s="44" t="s">
-        <v>215</v>
-      </c>
-      <c r="F102"/>
-      <c r="G102"/>
-      <c r="H102"/>
-      <c r="I102"/>
-      <c r="J102"/>
-    </row>
-    <row r="103" spans="1:25" s="4" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A103" s="42" t="s">
-        <v>29</v>
-      </c>
-      <c r="B103" s="42"/>
-      <c r="C103" s="42"/>
-      <c r="D103"/>
-      <c r="E103"/>
-      <c r="F103"/>
-      <c r="G103"/>
-      <c r="H103"/>
-      <c r="I103"/>
-      <c r="J103"/>
-    </row>
-    <row r="104" spans="1:25" s="4" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A104" s="43"/>
-      <c r="B104" s="43"/>
-      <c r="C104" s="43"/>
-      <c r="D104"/>
-      <c r="E104"/>
-      <c r="F104"/>
-      <c r="G104"/>
-      <c r="H104"/>
-      <c r="I104"/>
-      <c r="J104"/>
-    </row>
-    <row r="105" spans="1:25" s="4" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A105" s="42" t="s">
-        <v>17</v>
-      </c>
-      <c r="B105" s="42" t="s">
-        <v>210</v>
-      </c>
-      <c r="C105" s="42" t="s">
-        <v>209</v>
-      </c>
-      <c r="D105"/>
-      <c r="E105"/>
-      <c r="F105"/>
-      <c r="G105"/>
-      <c r="H105"/>
-      <c r="I105"/>
-      <c r="J105"/>
-    </row>
-    <row r="106" spans="1:25" s="4" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A106" s="43" t="s">
+        <v>171</v>
+      </c>
+      <c r="D102" s="6"/>
+      <c r="E102" s="17" t="s">
+        <v>228</v>
+      </c>
+      <c r="F102" s="16" t="s">
+        <v>83</v>
+      </c>
+      <c r="G102" s="16"/>
+      <c r="H102" s="16"/>
+      <c r="I102" s="16"/>
+      <c r="J102" s="16"/>
+      <c r="K102" s="16"/>
+      <c r="L102" s="16"/>
+      <c r="M102" s="16"/>
+      <c r="N102" s="16"/>
+      <c r="O102" s="16"/>
+      <c r="P102" s="16"/>
+      <c r="Q102" s="16"/>
+      <c r="R102" s="16"/>
+      <c r="S102" s="16"/>
+      <c r="T102" s="16"/>
+      <c r="U102" s="16"/>
+      <c r="V102" s="16"/>
+      <c r="W102" s="16"/>
+      <c r="X102" s="16"/>
+      <c r="Y102" s="16"/>
+    </row>
+    <row r="103" spans="1:25" s="15" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A103" s="24" t="s">
         <v>50</v>
       </c>
+      <c r="B103" s="43" t="s">
+        <v>173</v>
+      </c>
+      <c r="C103" s="43" t="s">
+        <v>174</v>
+      </c>
+      <c r="D103" s="6"/>
+      <c r="E103" s="17" t="s">
+        <v>229</v>
+      </c>
+      <c r="F103" s="16" t="s">
+        <v>83</v>
+      </c>
+      <c r="G103" s="16"/>
+      <c r="H103" s="16"/>
+      <c r="I103" s="16"/>
+      <c r="J103" s="16"/>
+      <c r="K103" s="16"/>
+      <c r="L103" s="16"/>
+      <c r="M103" s="16"/>
+      <c r="N103" s="16"/>
+      <c r="O103" s="16"/>
+      <c r="P103" s="16"/>
+      <c r="Q103" s="16"/>
+      <c r="R103" s="16"/>
+      <c r="S103" s="16"/>
+      <c r="T103" s="16"/>
+      <c r="U103" s="16"/>
+      <c r="V103" s="16"/>
+      <c r="W103" s="16"/>
+      <c r="X103" s="16"/>
+      <c r="Y103" s="16"/>
+    </row>
+    <row r="104" spans="1:25" s="15" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A104" s="24" t="s">
+        <v>50</v>
+      </c>
+      <c r="B104" s="43" t="s">
+        <v>175</v>
+      </c>
+      <c r="C104" s="43" t="s">
+        <v>176</v>
+      </c>
+      <c r="D104" s="6"/>
+      <c r="E104" s="17" t="s">
+        <v>230</v>
+      </c>
+      <c r="F104" s="16" t="s">
+        <v>83</v>
+      </c>
+      <c r="G104" s="16"/>
+      <c r="H104" s="16"/>
+      <c r="I104" s="16"/>
+      <c r="J104" s="16"/>
+      <c r="K104" s="16"/>
+      <c r="L104" s="16"/>
+      <c r="M104" s="16"/>
+      <c r="N104" s="16"/>
+      <c r="O104" s="16"/>
+      <c r="P104" s="16"/>
+      <c r="Q104" s="16"/>
+      <c r="R104" s="16"/>
+      <c r="S104" s="16"/>
+      <c r="T104" s="16"/>
+      <c r="U104" s="16"/>
+      <c r="V104" s="16"/>
+      <c r="W104" s="16"/>
+      <c r="X104" s="16"/>
+      <c r="Y104" s="16"/>
+    </row>
+    <row r="105" spans="1:25" s="15" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A105" s="24" t="s">
+        <v>50</v>
+      </c>
+      <c r="B105" s="43" t="s">
+        <v>177</v>
+      </c>
+      <c r="C105" s="43" t="s">
+        <v>178</v>
+      </c>
+      <c r="D105" s="6"/>
+      <c r="E105" s="17" t="s">
+        <v>231</v>
+      </c>
+      <c r="F105" s="16" t="s">
+        <v>83</v>
+      </c>
+      <c r="G105" s="16"/>
+      <c r="H105" s="16"/>
+      <c r="I105" s="16"/>
+      <c r="J105" s="16"/>
+      <c r="K105" s="16"/>
+      <c r="L105" s="16"/>
+      <c r="M105" s="16"/>
+      <c r="N105" s="16"/>
+      <c r="O105" s="16"/>
+      <c r="P105" s="16"/>
+      <c r="Q105" s="16"/>
+      <c r="R105" s="16"/>
+      <c r="S105" s="16"/>
+      <c r="T105" s="16"/>
+      <c r="U105" s="16"/>
+      <c r="V105" s="16"/>
+      <c r="W105" s="16"/>
+      <c r="X105" s="16"/>
+      <c r="Y105" s="16"/>
+    </row>
+    <row r="106" spans="1:25" s="15" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A106" s="24" t="s">
+        <v>50</v>
+      </c>
       <c r="B106" s="43" t="s">
-        <v>247</v>
+        <v>102</v>
       </c>
       <c r="C106" s="43" t="s">
-        <v>211</v>
-      </c>
-      <c r="D106"/>
-      <c r="E106" s="44" t="s">
-        <v>216</v>
-      </c>
-      <c r="F106"/>
-      <c r="G106"/>
-      <c r="H106"/>
-      <c r="I106"/>
-      <c r="J106"/>
-    </row>
-    <row r="107" spans="1:25" s="4" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A107" s="42" t="s">
-        <v>29</v>
-      </c>
-      <c r="B107" s="42"/>
-      <c r="C107" s="42"/>
-      <c r="D107"/>
-      <c r="E107"/>
-      <c r="F107"/>
-      <c r="G107"/>
-      <c r="H107"/>
-      <c r="I107"/>
-      <c r="J107"/>
-    </row>
-    <row r="108" spans="1:25" s="4" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A108"/>
-      <c r="B108"/>
-      <c r="C108"/>
-      <c r="D108"/>
-      <c r="E108"/>
-      <c r="F108"/>
-      <c r="G108"/>
-      <c r="H108"/>
-      <c r="I108"/>
-      <c r="J108"/>
+        <v>179</v>
+      </c>
+      <c r="D106" s="6"/>
+      <c r="E106" s="17" t="s">
+        <v>232</v>
+      </c>
+      <c r="F106" s="16" t="s">
+        <v>83</v>
+      </c>
+      <c r="G106" s="16"/>
+      <c r="H106" s="16"/>
+      <c r="I106" s="16"/>
+      <c r="J106" s="16"/>
+      <c r="K106" s="16"/>
+      <c r="L106" s="16"/>
+      <c r="M106" s="16"/>
+      <c r="N106" s="16"/>
+      <c r="O106" s="16"/>
+      <c r="P106" s="16"/>
+      <c r="Q106" s="16"/>
+      <c r="R106" s="16"/>
+      <c r="S106" s="16"/>
+      <c r="T106" s="16"/>
+      <c r="U106" s="16"/>
+      <c r="V106" s="16"/>
+      <c r="W106" s="16"/>
+      <c r="X106" s="16"/>
+      <c r="Y106" s="16"/>
+    </row>
+    <row r="107" spans="1:25" s="15" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A107" s="24" t="s">
+        <v>50</v>
+      </c>
+      <c r="B107" s="43" t="s">
+        <v>180</v>
+      </c>
+      <c r="C107" s="43" t="s">
+        <v>181</v>
+      </c>
+      <c r="D107" s="6"/>
+      <c r="E107" s="17" t="s">
+        <v>233</v>
+      </c>
+      <c r="F107" s="16" t="s">
+        <v>83</v>
+      </c>
+      <c r="G107" s="16"/>
+      <c r="H107" s="16"/>
+      <c r="I107" s="16"/>
+      <c r="J107" s="16"/>
+      <c r="K107" s="16"/>
+      <c r="L107" s="16"/>
+      <c r="M107" s="16"/>
+      <c r="N107" s="16"/>
+      <c r="O107" s="16"/>
+      <c r="P107" s="16"/>
+      <c r="Q107" s="16"/>
+      <c r="R107" s="16"/>
+      <c r="S107" s="16"/>
+      <c r="T107" s="16"/>
+      <c r="U107" s="16"/>
+      <c r="V107" s="16"/>
+      <c r="W107" s="16"/>
+      <c r="X107" s="16"/>
+      <c r="Y107" s="16"/>
+    </row>
+    <row r="108" spans="1:25" s="15" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A108" s="24" t="s">
+        <v>50</v>
+      </c>
+      <c r="B108" s="43" t="s">
+        <v>182</v>
+      </c>
+      <c r="C108" s="43" t="s">
+        <v>84</v>
+      </c>
+      <c r="D108" s="6"/>
+      <c r="E108" s="17" t="s">
+        <v>234</v>
+      </c>
+      <c r="F108" s="16" t="s">
+        <v>83</v>
+      </c>
+      <c r="G108" s="16"/>
+      <c r="H108" s="16"/>
+      <c r="I108" s="16"/>
+      <c r="J108" s="16"/>
+      <c r="K108" s="16"/>
+      <c r="L108" s="16"/>
+      <c r="M108" s="16"/>
+      <c r="N108" s="16"/>
+      <c r="O108" s="16"/>
+      <c r="P108" s="16"/>
+      <c r="Q108" s="16"/>
+      <c r="R108" s="16"/>
+      <c r="S108" s="16"/>
+      <c r="T108" s="16"/>
+      <c r="U108" s="16"/>
+      <c r="V108" s="16"/>
+      <c r="W108" s="16"/>
+      <c r="X108" s="16"/>
+      <c r="Y108" s="16"/>
     </row>
     <row r="109" spans="1:25" s="15" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A109" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="B109" s="5" t="s">
-        <v>69</v>
-      </c>
-      <c r="C109" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="D109" s="5"/>
-      <c r="E109" s="4"/>
-      <c r="F109" s="19" t="s">
-        <v>70</v>
-      </c>
-      <c r="G109" s="5"/>
-      <c r="H109" s="5"/>
-      <c r="I109" s="5"/>
-      <c r="J109" s="5"/>
-      <c r="K109" s="5"/>
-      <c r="L109" s="5"/>
-      <c r="M109" s="5"/>
+      <c r="A109" s="24" t="s">
+        <v>50</v>
+      </c>
+      <c r="B109" s="43" t="s">
+        <v>183</v>
+      </c>
+      <c r="C109" s="43" t="s">
+        <v>184</v>
+      </c>
+      <c r="D109" s="6"/>
+      <c r="E109" s="17" t="s">
+        <v>235</v>
+      </c>
+      <c r="F109" s="16" t="s">
+        <v>83</v>
+      </c>
+      <c r="G109" s="16"/>
+      <c r="H109" s="16"/>
+      <c r="I109" s="16"/>
+      <c r="J109" s="16"/>
+      <c r="K109" s="16"/>
+      <c r="L109" s="16"/>
+      <c r="M109" s="16"/>
       <c r="N109" s="16"/>
       <c r="O109" s="16"/>
       <c r="P109" s="16"/>
@@ -4403,20 +4910,22 @@
       <c r="Y109" s="16"/>
     </row>
     <row r="110" spans="1:25" s="15" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A110" s="16" t="s">
+      <c r="A110" s="24" t="s">
         <v>50</v>
       </c>
-      <c r="B110" s="24" t="s">
-        <v>71</v>
-      </c>
-      <c r="C110" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="D110" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="E110" s="3"/>
-      <c r="F110" s="16"/>
+      <c r="B110" s="43" t="s">
+        <v>185</v>
+      </c>
+      <c r="C110" s="43" t="s">
+        <v>186</v>
+      </c>
+      <c r="D110" s="6"/>
+      <c r="E110" s="17" t="s">
+        <v>236</v>
+      </c>
+      <c r="F110" s="16" t="s">
+        <v>83</v>
+      </c>
       <c r="G110" s="16"/>
       <c r="H110" s="16"/>
       <c r="I110" s="16"/>
@@ -4438,248 +4947,305 @@
       <c r="Y110" s="16"/>
     </row>
     <row r="111" spans="1:25" s="15" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A111" s="25" t="s">
+      <c r="A111" s="24" t="s">
         <v>50</v>
       </c>
-      <c r="B111" s="25" t="s">
-        <v>69</v>
-      </c>
-      <c r="C111" s="26" t="s">
-        <v>73</v>
-      </c>
-      <c r="D111" s="25"/>
-      <c r="E111" s="25"/>
-      <c r="F111" s="25" t="s">
-        <v>74</v>
-      </c>
-      <c r="G111" s="25"/>
-      <c r="H111" s="25"/>
-      <c r="I111" s="25"/>
-      <c r="J111" s="25"/>
-      <c r="K111" s="25"/>
-      <c r="L111" s="25"/>
-      <c r="M111" s="25"/>
-      <c r="N111" s="25"/>
-      <c r="O111" s="25"/>
-      <c r="P111" s="25"/>
-      <c r="Q111" s="25"/>
-      <c r="R111" s="25"/>
-      <c r="S111" s="25"/>
-      <c r="T111" s="25"/>
-      <c r="U111" s="25"/>
-      <c r="V111" s="25"/>
-      <c r="W111" s="25"/>
-      <c r="X111" s="25"/>
-      <c r="Y111" s="25"/>
-    </row>
-    <row r="112" spans="1:25" s="15" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A112" s="3" t="s">
+      <c r="B111" s="43" t="s">
+        <v>101</v>
+      </c>
+      <c r="C111" s="43" t="s">
+        <v>85</v>
+      </c>
+      <c r="D111" s="6"/>
+      <c r="E111" s="17" t="s">
+        <v>237</v>
+      </c>
+      <c r="F111" s="16" t="s">
+        <v>83</v>
+      </c>
+      <c r="G111" s="16"/>
+      <c r="H111" s="16"/>
+      <c r="I111" s="16"/>
+      <c r="J111" s="16"/>
+      <c r="K111" s="16"/>
+      <c r="L111" s="16"/>
+      <c r="M111" s="16"/>
+      <c r="N111" s="16"/>
+      <c r="O111" s="16"/>
+      <c r="P111" s="16"/>
+      <c r="Q111" s="16"/>
+      <c r="R111" s="16"/>
+      <c r="S111" s="16"/>
+      <c r="T111" s="16"/>
+      <c r="U111" s="16"/>
+      <c r="V111" s="16"/>
+      <c r="W111" s="16"/>
+      <c r="X111" s="16"/>
+      <c r="Y111" s="16"/>
+    </row>
+    <row r="112" spans="1:25" s="15" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A112" s="24" t="s">
         <v>50</v>
       </c>
-      <c r="B112" s="3" t="s">
-        <v>75</v>
-      </c>
-      <c r="C112" s="24" t="s">
-        <v>76</v>
-      </c>
-      <c r="D112" s="3"/>
-      <c r="E112" s="3"/>
-      <c r="F112" s="3"/>
-      <c r="G112" s="3"/>
-      <c r="H112" s="3"/>
+      <c r="B112" s="43" t="s">
+        <v>30</v>
+      </c>
+      <c r="C112" s="43" t="s">
+        <v>187</v>
+      </c>
+      <c r="D112" s="6"/>
+      <c r="E112" s="17" t="s">
+        <v>238</v>
+      </c>
+      <c r="F112" s="16" t="s">
+        <v>83</v>
+      </c>
+      <c r="G112" s="16"/>
+      <c r="H112" s="16"/>
       <c r="I112" s="16"/>
-      <c r="J112" s="3"/>
-      <c r="K112" s="3"/>
-      <c r="L112" s="3"/>
-      <c r="M112" s="3"/>
-      <c r="N112" s="3"/>
-      <c r="O112" s="3"/>
-      <c r="P112" s="3"/>
-      <c r="Q112" s="3"/>
-      <c r="R112" s="3"/>
-      <c r="S112" s="3"/>
-      <c r="T112" s="3"/>
-      <c r="U112" s="3"/>
-      <c r="V112" s="3"/>
-      <c r="W112" s="3"/>
-      <c r="X112" s="3"/>
-      <c r="Y112" s="3"/>
-    </row>
-    <row r="113" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A113" s="6" t="s">
+      <c r="J112" s="16"/>
+      <c r="K112" s="16"/>
+      <c r="L112" s="16"/>
+      <c r="M112" s="16"/>
+      <c r="N112" s="16"/>
+      <c r="O112" s="16"/>
+      <c r="P112" s="16"/>
+      <c r="Q112" s="16"/>
+      <c r="R112" s="16"/>
+      <c r="S112" s="16"/>
+      <c r="T112" s="16"/>
+      <c r="U112" s="16"/>
+      <c r="V112" s="16"/>
+      <c r="W112" s="16"/>
+      <c r="X112" s="16"/>
+      <c r="Y112" s="16"/>
+    </row>
+    <row r="113" spans="1:25" s="15" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A113" s="24" t="s">
         <v>50</v>
       </c>
-      <c r="B113" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="C113" s="27" t="s">
-        <v>77</v>
-      </c>
-      <c r="E113" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="114" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A114" s="6" t="s">
+      <c r="B113" s="45" t="s">
+        <v>189</v>
+      </c>
+      <c r="C113" s="45" t="s">
+        <v>190</v>
+      </c>
+      <c r="D113" s="6"/>
+      <c r="E113" s="17" t="s">
+        <v>239</v>
+      </c>
+      <c r="F113" s="16" t="s">
+        <v>83</v>
+      </c>
+      <c r="G113" s="16"/>
+      <c r="H113" s="16"/>
+      <c r="I113" s="16"/>
+      <c r="J113" s="16"/>
+      <c r="K113" s="16"/>
+      <c r="L113" s="16"/>
+      <c r="M113" s="16"/>
+      <c r="N113" s="16"/>
+      <c r="O113" s="16"/>
+      <c r="P113" s="16"/>
+      <c r="Q113" s="16"/>
+      <c r="R113" s="16"/>
+      <c r="S113" s="16"/>
+      <c r="T113" s="16"/>
+      <c r="U113" s="16"/>
+      <c r="V113" s="16"/>
+      <c r="W113" s="16"/>
+      <c r="X113" s="16"/>
+      <c r="Y113" s="16"/>
+    </row>
+    <row r="114" spans="1:25" s="15" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A114" s="24" t="s">
         <v>50</v>
       </c>
-      <c r="B114" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="C114" s="27" t="s">
-        <v>78</v>
-      </c>
-      <c r="E114" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="115" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A115" s="6" t="s">
+      <c r="B114" s="45" t="s">
+        <v>191</v>
+      </c>
+      <c r="C114" s="45" t="s">
+        <v>192</v>
+      </c>
+      <c r="D114" s="6"/>
+      <c r="E114" s="17" t="s">
+        <v>240</v>
+      </c>
+      <c r="F114" s="16" t="s">
+        <v>83</v>
+      </c>
+      <c r="G114" s="16"/>
+      <c r="H114" s="16"/>
+      <c r="I114" s="16"/>
+      <c r="J114" s="16"/>
+      <c r="K114" s="16"/>
+      <c r="L114" s="16"/>
+      <c r="M114" s="16"/>
+      <c r="N114" s="16"/>
+      <c r="O114" s="16"/>
+      <c r="P114" s="16"/>
+      <c r="Q114" s="16"/>
+      <c r="R114" s="16"/>
+      <c r="S114" s="16"/>
+      <c r="T114" s="16"/>
+      <c r="U114" s="16"/>
+      <c r="V114" s="16"/>
+      <c r="W114" s="16"/>
+      <c r="X114" s="16"/>
+      <c r="Y114" s="16"/>
+    </row>
+    <row r="115" spans="1:25" s="15" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A115" s="24" t="s">
         <v>50</v>
       </c>
-      <c r="B115" s="6" t="s">
-        <v>57</v>
-      </c>
-      <c r="C115" s="27" t="s">
-        <v>79</v>
-      </c>
-      <c r="E115" t="s">
-        <v>59</v>
-      </c>
+      <c r="B115" s="45" t="s">
+        <v>193</v>
+      </c>
+      <c r="C115" s="45" t="s">
+        <v>194</v>
+      </c>
+      <c r="D115" s="6"/>
+      <c r="E115" s="17" t="s">
+        <v>241</v>
+      </c>
+      <c r="F115" s="16" t="s">
+        <v>83</v>
+      </c>
+      <c r="G115" s="16"/>
+      <c r="H115" s="16"/>
+      <c r="I115" s="16"/>
+      <c r="J115" s="16"/>
+      <c r="K115" s="16"/>
+      <c r="L115" s="16"/>
+      <c r="M115" s="16"/>
+      <c r="N115" s="16"/>
+      <c r="O115" s="16"/>
+      <c r="P115" s="16"/>
+      <c r="Q115" s="16"/>
+      <c r="R115" s="16"/>
+      <c r="S115" s="16"/>
+      <c r="T115" s="16"/>
+      <c r="U115" s="16"/>
+      <c r="V115" s="16"/>
+      <c r="W115" s="16"/>
+      <c r="X115" s="16"/>
+      <c r="Y115" s="16"/>
     </row>
     <row r="116" spans="1:25" s="15" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A116" s="28" t="s">
+      <c r="A116" s="24" t="s">
         <v>50</v>
       </c>
-      <c r="B116" s="29" t="s">
-        <v>80</v>
-      </c>
-      <c r="C116" s="30" t="s">
-        <v>81</v>
-      </c>
-      <c r="D116" s="28"/>
-      <c r="E116" s="28"/>
-      <c r="F116" s="28" t="s">
-        <v>82</v>
-      </c>
-      <c r="G116" s="28"/>
-      <c r="H116" s="28"/>
-      <c r="I116" s="28"/>
-      <c r="J116" s="28"/>
-      <c r="K116" s="28"/>
-      <c r="L116" s="28"/>
-      <c r="M116" s="28"/>
-      <c r="N116" s="28"/>
-      <c r="O116" s="28"/>
-      <c r="P116" s="28"/>
-      <c r="Q116" s="28"/>
-      <c r="R116" s="28"/>
-      <c r="S116" s="28"/>
-      <c r="T116" s="28"/>
-      <c r="U116" s="28"/>
-      <c r="V116" s="28"/>
-      <c r="W116" s="28"/>
-      <c r="X116" s="28"/>
-      <c r="Y116" s="28"/>
-    </row>
-    <row r="117" spans="1:25" s="15" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B116" s="24"/>
+      <c r="C116" s="31"/>
+      <c r="D116" s="6"/>
+      <c r="E116" s="17"/>
+      <c r="F116" s="16"/>
+      <c r="G116" s="16"/>
+      <c r="H116" s="16"/>
+      <c r="I116" s="16"/>
+      <c r="J116" s="16"/>
+      <c r="K116" s="16"/>
+      <c r="L116" s="16"/>
+      <c r="M116" s="16"/>
+      <c r="N116" s="16"/>
+      <c r="O116" s="16"/>
+      <c r="P116" s="16"/>
+      <c r="Q116" s="16"/>
+      <c r="R116" s="16"/>
+      <c r="S116" s="16"/>
+      <c r="T116" s="16"/>
+      <c r="U116" s="16"/>
+      <c r="V116" s="16"/>
+      <c r="W116" s="16"/>
+      <c r="X116" s="16"/>
+      <c r="Y116" s="16"/>
+    </row>
+    <row r="117" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A117" s="24" t="s">
         <v>50</v>
       </c>
-      <c r="B117" s="43" t="s">
-        <v>100</v>
-      </c>
-      <c r="C117" s="43" t="s">
-        <v>168</v>
+      <c r="B117" s="24" t="s">
+        <v>86</v>
+      </c>
+      <c r="C117" s="17" t="s">
+        <v>87</v>
       </c>
       <c r="D117" s="6"/>
-      <c r="E117" s="17" t="s">
-        <v>226</v>
-      </c>
-      <c r="F117" s="15" t="s">
-        <v>83</v>
-      </c>
-      <c r="G117" s="16"/>
-      <c r="H117" s="16"/>
-      <c r="I117" s="16"/>
-      <c r="J117" s="16"/>
-      <c r="K117" s="16"/>
-      <c r="L117" s="16"/>
-      <c r="M117" s="16"/>
-      <c r="N117" s="16"/>
-      <c r="O117" s="16"/>
-      <c r="P117" s="16"/>
-      <c r="Q117" s="16"/>
-      <c r="R117" s="16"/>
-      <c r="S117" s="16"/>
-      <c r="T117" s="16"/>
-      <c r="U117" s="16"/>
-      <c r="V117" s="16"/>
-      <c r="W117" s="16"/>
-      <c r="X117" s="16"/>
-      <c r="Y117" s="16"/>
+      <c r="E117" s="17"/>
+      <c r="F117" s="32"/>
+      <c r="G117" s="32"/>
+      <c r="H117" s="32"/>
+      <c r="I117" s="24"/>
+      <c r="J117" s="32"/>
+      <c r="K117" s="32"/>
+      <c r="L117" s="32"/>
+      <c r="M117" s="32"/>
+      <c r="N117" s="32"/>
+      <c r="O117" s="32"/>
+      <c r="P117" s="32"/>
+      <c r="Q117" s="32"/>
+      <c r="R117" s="32"/>
+      <c r="S117" s="32"/>
+      <c r="T117" s="32"/>
+      <c r="U117" s="32"/>
+      <c r="V117" s="32"/>
+      <c r="W117" s="32"/>
+      <c r="X117" s="32"/>
+      <c r="Y117" s="32"/>
     </row>
     <row r="118" spans="1:25" s="15" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A118" s="24" t="s">
+      <c r="A118" s="33" t="s">
         <v>50</v>
       </c>
-      <c r="B118" s="43" t="s">
-        <v>169</v>
-      </c>
-      <c r="C118" s="43" t="s">
-        <v>170</v>
-      </c>
-      <c r="D118" s="6"/>
-      <c r="E118" s="17" t="s">
-        <v>227</v>
-      </c>
-      <c r="F118" s="16" t="s">
-        <v>83</v>
-      </c>
-      <c r="G118" s="16"/>
-      <c r="H118" s="16"/>
-      <c r="I118" s="16"/>
-      <c r="J118" s="16"/>
-      <c r="K118" s="16"/>
-      <c r="L118" s="16"/>
-      <c r="M118" s="16"/>
-      <c r="N118" s="16"/>
-      <c r="O118" s="16"/>
-      <c r="P118" s="16"/>
-      <c r="Q118" s="16"/>
-      <c r="R118" s="16"/>
-      <c r="S118" s="16"/>
-      <c r="T118" s="16"/>
-      <c r="U118" s="16"/>
-      <c r="V118" s="16"/>
-      <c r="W118" s="16"/>
-      <c r="X118" s="16"/>
-      <c r="Y118" s="16"/>
+      <c r="B118" s="33" t="s">
+        <v>88</v>
+      </c>
+      <c r="C118" s="34" t="s">
+        <v>89</v>
+      </c>
+      <c r="D118" s="33"/>
+      <c r="E118" s="33" t="s">
+        <v>62</v>
+      </c>
+      <c r="F118" s="33" t="s">
+        <v>90</v>
+      </c>
+      <c r="G118" s="33"/>
+      <c r="H118" s="33"/>
+      <c r="I118" s="33"/>
+      <c r="J118" s="33"/>
+      <c r="K118" s="33"/>
+      <c r="L118" s="33"/>
+      <c r="M118" s="33"/>
+      <c r="N118" s="33"/>
+      <c r="O118" s="33"/>
+      <c r="P118" s="33"/>
+      <c r="Q118" s="33"/>
+      <c r="R118" s="33"/>
+      <c r="S118" s="33"/>
+      <c r="T118" s="33"/>
+      <c r="U118" s="33"/>
+      <c r="V118" s="33"/>
+      <c r="W118" s="33"/>
+      <c r="X118" s="33"/>
+      <c r="Y118" s="33"/>
     </row>
     <row r="119" spans="1:25" s="15" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A119" s="24" t="s">
-        <v>50</v>
-      </c>
-      <c r="B119" s="43" t="s">
-        <v>106</v>
-      </c>
-      <c r="C119" s="43" t="s">
-        <v>171</v>
-      </c>
-      <c r="D119" s="6"/>
-      <c r="E119" s="17" t="s">
-        <v>228</v>
-      </c>
-      <c r="F119" s="16" t="s">
-        <v>83</v>
-      </c>
-      <c r="G119" s="16"/>
-      <c r="H119" s="16"/>
-      <c r="I119" s="16"/>
-      <c r="J119" s="16"/>
-      <c r="K119" s="16"/>
-      <c r="L119" s="16"/>
-      <c r="M119" s="16"/>
+      <c r="A119" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="B119" s="5"/>
+      <c r="C119" s="5"/>
+      <c r="D119" s="5"/>
+      <c r="E119" s="5"/>
+      <c r="F119" s="5"/>
+      <c r="G119" s="5"/>
+      <c r="H119" s="5"/>
+      <c r="I119" s="5"/>
+      <c r="J119" s="5"/>
+      <c r="K119" s="5"/>
+      <c r="L119" s="5"/>
+      <c r="M119" s="5"/>
       <c r="N119" s="16"/>
       <c r="O119" s="16"/>
       <c r="P119" s="16"/>
@@ -4693,630 +5259,31 @@
       <c r="X119" s="16"/>
       <c r="Y119" s="16"/>
     </row>
-    <row r="120" spans="1:25" s="15" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A120" s="24" t="s">
-        <v>50</v>
-      </c>
-      <c r="B120" s="43" t="s">
-        <v>173</v>
-      </c>
-      <c r="C120" s="43" t="s">
-        <v>174</v>
-      </c>
-      <c r="D120" s="6"/>
-      <c r="E120" s="17" t="s">
-        <v>229</v>
-      </c>
-      <c r="F120" s="16" t="s">
-        <v>83</v>
-      </c>
-      <c r="G120" s="16"/>
-      <c r="H120" s="16"/>
-      <c r="I120" s="16"/>
-      <c r="J120" s="16"/>
-      <c r="K120" s="16"/>
-      <c r="L120" s="16"/>
-      <c r="M120" s="16"/>
-      <c r="N120" s="16"/>
-      <c r="O120" s="16"/>
-      <c r="P120" s="16"/>
-      <c r="Q120" s="16"/>
-      <c r="R120" s="16"/>
-      <c r="S120" s="16"/>
-      <c r="T120" s="16"/>
-      <c r="U120" s="16"/>
-      <c r="V120" s="16"/>
-      <c r="W120" s="16"/>
-      <c r="X120" s="16"/>
-      <c r="Y120" s="16"/>
-    </row>
-    <row r="121" spans="1:25" s="15" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A121" s="24" t="s">
-        <v>50</v>
-      </c>
-      <c r="B121" s="43" t="s">
-        <v>175</v>
-      </c>
-      <c r="C121" s="43" t="s">
-        <v>176</v>
-      </c>
-      <c r="D121" s="6"/>
-      <c r="E121" s="17" t="s">
-        <v>230</v>
-      </c>
-      <c r="F121" s="16" t="s">
-        <v>83</v>
-      </c>
-      <c r="G121" s="16"/>
-      <c r="H121" s="16"/>
-      <c r="I121" s="16"/>
-      <c r="J121" s="16"/>
-      <c r="K121" s="16"/>
-      <c r="L121" s="16"/>
-      <c r="M121" s="16"/>
-      <c r="N121" s="16"/>
-      <c r="O121" s="16"/>
-      <c r="P121" s="16"/>
-      <c r="Q121" s="16"/>
-      <c r="R121" s="16"/>
-      <c r="S121" s="16"/>
-      <c r="T121" s="16"/>
-      <c r="U121" s="16"/>
-      <c r="V121" s="16"/>
-      <c r="W121" s="16"/>
-      <c r="X121" s="16"/>
-      <c r="Y121" s="16"/>
-    </row>
-    <row r="122" spans="1:25" s="15" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A122" s="24" t="s">
-        <v>50</v>
-      </c>
-      <c r="B122" s="43" t="s">
-        <v>177</v>
-      </c>
-      <c r="C122" s="43" t="s">
-        <v>178</v>
-      </c>
-      <c r="D122" s="6"/>
-      <c r="E122" s="17" t="s">
-        <v>231</v>
-      </c>
-      <c r="F122" s="16" t="s">
-        <v>83</v>
-      </c>
-      <c r="G122" s="16"/>
-      <c r="H122" s="16"/>
-      <c r="I122" s="16"/>
-      <c r="J122" s="16"/>
-      <c r="K122" s="16"/>
-      <c r="L122" s="16"/>
-      <c r="M122" s="16"/>
-      <c r="N122" s="16"/>
-      <c r="O122" s="16"/>
-      <c r="P122" s="16"/>
-      <c r="Q122" s="16"/>
-      <c r="R122" s="16"/>
-      <c r="S122" s="16"/>
-      <c r="T122" s="16"/>
-      <c r="U122" s="16"/>
-      <c r="V122" s="16"/>
-      <c r="W122" s="16"/>
-      <c r="X122" s="16"/>
-      <c r="Y122" s="16"/>
-    </row>
-    <row r="123" spans="1:25" s="15" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A123" s="24" t="s">
-        <v>50</v>
-      </c>
-      <c r="B123" s="43" t="s">
-        <v>102</v>
-      </c>
-      <c r="C123" s="43" t="s">
-        <v>179</v>
-      </c>
-      <c r="D123" s="6"/>
-      <c r="E123" s="17" t="s">
-        <v>232</v>
-      </c>
-      <c r="F123" s="16" t="s">
-        <v>83</v>
-      </c>
-      <c r="G123" s="16"/>
-      <c r="H123" s="16"/>
-      <c r="I123" s="16"/>
-      <c r="J123" s="16"/>
-      <c r="K123" s="16"/>
-      <c r="L123" s="16"/>
-      <c r="M123" s="16"/>
-      <c r="N123" s="16"/>
-      <c r="O123" s="16"/>
-      <c r="P123" s="16"/>
-      <c r="Q123" s="16"/>
-      <c r="R123" s="16"/>
-      <c r="S123" s="16"/>
-      <c r="T123" s="16"/>
-      <c r="U123" s="16"/>
-      <c r="V123" s="16"/>
-      <c r="W123" s="16"/>
-      <c r="X123" s="16"/>
-      <c r="Y123" s="16"/>
-    </row>
-    <row r="124" spans="1:25" s="15" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A124" s="24" t="s">
-        <v>50</v>
-      </c>
-      <c r="B124" s="43" t="s">
-        <v>180</v>
-      </c>
-      <c r="C124" s="43" t="s">
-        <v>181</v>
-      </c>
-      <c r="D124" s="6"/>
-      <c r="E124" s="17" t="s">
-        <v>233</v>
-      </c>
-      <c r="F124" s="16" t="s">
-        <v>83</v>
-      </c>
-      <c r="G124" s="16"/>
-      <c r="H124" s="16"/>
-      <c r="I124" s="16"/>
-      <c r="J124" s="16"/>
-      <c r="K124" s="16"/>
-      <c r="L124" s="16"/>
-      <c r="M124" s="16"/>
-      <c r="N124" s="16"/>
-      <c r="O124" s="16"/>
-      <c r="P124" s="16"/>
-      <c r="Q124" s="16"/>
-      <c r="R124" s="16"/>
-      <c r="S124" s="16"/>
-      <c r="T124" s="16"/>
-      <c r="U124" s="16"/>
-      <c r="V124" s="16"/>
-      <c r="W124" s="16"/>
-      <c r="X124" s="16"/>
-      <c r="Y124" s="16"/>
-    </row>
-    <row r="125" spans="1:25" s="15" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A125" s="24" t="s">
-        <v>50</v>
-      </c>
-      <c r="B125" s="43" t="s">
-        <v>182</v>
-      </c>
-      <c r="C125" s="43" t="s">
-        <v>84</v>
-      </c>
-      <c r="D125" s="6"/>
-      <c r="E125" s="17" t="s">
-        <v>234</v>
-      </c>
-      <c r="F125" s="16" t="s">
-        <v>83</v>
-      </c>
-      <c r="G125" s="16"/>
-      <c r="H125" s="16"/>
-      <c r="I125" s="16"/>
-      <c r="J125" s="16"/>
-      <c r="K125" s="16"/>
-      <c r="L125" s="16"/>
-      <c r="M125" s="16"/>
-      <c r="N125" s="16"/>
-      <c r="O125" s="16"/>
-      <c r="P125" s="16"/>
-      <c r="Q125" s="16"/>
-      <c r="R125" s="16"/>
-      <c r="S125" s="16"/>
-      <c r="T125" s="16"/>
-      <c r="U125" s="16"/>
-      <c r="V125" s="16"/>
-      <c r="W125" s="16"/>
-      <c r="X125" s="16"/>
-      <c r="Y125" s="16"/>
-    </row>
-    <row r="126" spans="1:25" s="15" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A126" s="24" t="s">
-        <v>50</v>
-      </c>
-      <c r="B126" s="43" t="s">
-        <v>183</v>
-      </c>
-      <c r="C126" s="43" t="s">
-        <v>184</v>
-      </c>
-      <c r="D126" s="6"/>
-      <c r="E126" s="17" t="s">
-        <v>235</v>
-      </c>
-      <c r="F126" s="16" t="s">
-        <v>83</v>
-      </c>
-      <c r="G126" s="16"/>
-      <c r="H126" s="16"/>
-      <c r="I126" s="16"/>
-      <c r="J126" s="16"/>
-      <c r="K126" s="16"/>
-      <c r="L126" s="16"/>
-      <c r="M126" s="16"/>
-      <c r="N126" s="16"/>
-      <c r="O126" s="16"/>
-      <c r="P126" s="16"/>
-      <c r="Q126" s="16"/>
-      <c r="R126" s="16"/>
-      <c r="S126" s="16"/>
-      <c r="T126" s="16"/>
-      <c r="U126" s="16"/>
-      <c r="V126" s="16"/>
-      <c r="W126" s="16"/>
-      <c r="X126" s="16"/>
-      <c r="Y126" s="16"/>
-    </row>
-    <row r="127" spans="1:25" s="15" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A127" s="24" t="s">
-        <v>50</v>
-      </c>
-      <c r="B127" s="43" t="s">
-        <v>185</v>
-      </c>
-      <c r="C127" s="43" t="s">
-        <v>186</v>
-      </c>
-      <c r="D127" s="6"/>
-      <c r="E127" s="17" t="s">
-        <v>236</v>
-      </c>
-      <c r="F127" s="16" t="s">
-        <v>83</v>
-      </c>
-      <c r="G127" s="16"/>
-      <c r="H127" s="16"/>
-      <c r="I127" s="16"/>
-      <c r="J127" s="16"/>
-      <c r="K127" s="16"/>
-      <c r="L127" s="16"/>
-      <c r="M127" s="16"/>
-      <c r="N127" s="16"/>
-      <c r="O127" s="16"/>
-      <c r="P127" s="16"/>
-      <c r="Q127" s="16"/>
-      <c r="R127" s="16"/>
-      <c r="S127" s="16"/>
-      <c r="T127" s="16"/>
-      <c r="U127" s="16"/>
-      <c r="V127" s="16"/>
-      <c r="W127" s="16"/>
-      <c r="X127" s="16"/>
-      <c r="Y127" s="16"/>
-    </row>
-    <row r="128" spans="1:25" s="15" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A128" s="24" t="s">
-        <v>50</v>
-      </c>
-      <c r="B128" s="43" t="s">
-        <v>101</v>
-      </c>
-      <c r="C128" s="43" t="s">
-        <v>85</v>
-      </c>
-      <c r="D128" s="6"/>
-      <c r="E128" s="17" t="s">
-        <v>237</v>
-      </c>
-      <c r="F128" s="16" t="s">
-        <v>83</v>
-      </c>
-      <c r="G128" s="16"/>
-      <c r="H128" s="16"/>
-      <c r="I128" s="16"/>
-      <c r="J128" s="16"/>
-      <c r="K128" s="16"/>
-      <c r="L128" s="16"/>
-      <c r="M128" s="16"/>
-      <c r="N128" s="16"/>
-      <c r="O128" s="16"/>
-      <c r="P128" s="16"/>
-      <c r="Q128" s="16"/>
-      <c r="R128" s="16"/>
-      <c r="S128" s="16"/>
-      <c r="T128" s="16"/>
-      <c r="U128" s="16"/>
-      <c r="V128" s="16"/>
-      <c r="W128" s="16"/>
-      <c r="X128" s="16"/>
-      <c r="Y128" s="16"/>
-    </row>
-    <row r="129" spans="1:25" s="15" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A129" s="24" t="s">
-        <v>50</v>
-      </c>
-      <c r="B129" s="43" t="s">
-        <v>30</v>
-      </c>
-      <c r="C129" s="43" t="s">
-        <v>187</v>
-      </c>
-      <c r="D129" s="6"/>
-      <c r="E129" s="17" t="s">
-        <v>238</v>
-      </c>
-      <c r="F129" s="16" t="s">
-        <v>83</v>
-      </c>
-      <c r="G129" s="16"/>
-      <c r="H129" s="16"/>
-      <c r="I129" s="16"/>
-      <c r="J129" s="16"/>
-      <c r="K129" s="16"/>
-      <c r="L129" s="16"/>
-      <c r="M129" s="16"/>
-      <c r="N129" s="16"/>
-      <c r="O129" s="16"/>
-      <c r="P129" s="16"/>
-      <c r="Q129" s="16"/>
-      <c r="R129" s="16"/>
-      <c r="S129" s="16"/>
-      <c r="T129" s="16"/>
-      <c r="U129" s="16"/>
-      <c r="V129" s="16"/>
-      <c r="W129" s="16"/>
-      <c r="X129" s="16"/>
-      <c r="Y129" s="16"/>
-    </row>
-    <row r="130" spans="1:25" s="15" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A130" s="24" t="s">
-        <v>50</v>
-      </c>
-      <c r="B130" s="45" t="s">
-        <v>189</v>
-      </c>
-      <c r="C130" s="45" t="s">
-        <v>190</v>
-      </c>
-      <c r="D130" s="6"/>
-      <c r="E130" s="17" t="s">
-        <v>239</v>
-      </c>
-      <c r="F130" s="16" t="s">
-        <v>83</v>
-      </c>
-      <c r="G130" s="16"/>
-      <c r="H130" s="16"/>
-      <c r="I130" s="16"/>
-      <c r="J130" s="16"/>
-      <c r="K130" s="16"/>
-      <c r="L130" s="16"/>
-      <c r="M130" s="16"/>
-      <c r="N130" s="16"/>
-      <c r="O130" s="16"/>
-      <c r="P130" s="16"/>
-      <c r="Q130" s="16"/>
-      <c r="R130" s="16"/>
-      <c r="S130" s="16"/>
-      <c r="T130" s="16"/>
-      <c r="U130" s="16"/>
-      <c r="V130" s="16"/>
-      <c r="W130" s="16"/>
-      <c r="X130" s="16"/>
-      <c r="Y130" s="16"/>
-    </row>
-    <row r="131" spans="1:25" s="15" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A131" s="24" t="s">
-        <v>50</v>
-      </c>
-      <c r="B131" s="45" t="s">
-        <v>191</v>
-      </c>
-      <c r="C131" s="45" t="s">
-        <v>192</v>
-      </c>
-      <c r="D131" s="6"/>
-      <c r="E131" s="17" t="s">
-        <v>240</v>
-      </c>
-      <c r="F131" s="16" t="s">
-        <v>83</v>
-      </c>
-      <c r="G131" s="16"/>
-      <c r="H131" s="16"/>
-      <c r="I131" s="16"/>
-      <c r="J131" s="16"/>
-      <c r="K131" s="16"/>
-      <c r="L131" s="16"/>
-      <c r="M131" s="16"/>
-      <c r="N131" s="16"/>
-      <c r="O131" s="16"/>
-      <c r="P131" s="16"/>
-      <c r="Q131" s="16"/>
-      <c r="R131" s="16"/>
-      <c r="S131" s="16"/>
-      <c r="T131" s="16"/>
-      <c r="U131" s="16"/>
-      <c r="V131" s="16"/>
-      <c r="W131" s="16"/>
-      <c r="X131" s="16"/>
-      <c r="Y131" s="16"/>
-    </row>
-    <row r="132" spans="1:25" s="15" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A132" s="24" t="s">
-        <v>50</v>
-      </c>
-      <c r="B132" s="45" t="s">
-        <v>193</v>
-      </c>
-      <c r="C132" s="45" t="s">
-        <v>194</v>
-      </c>
-      <c r="D132" s="6"/>
-      <c r="E132" s="17" t="s">
-        <v>241</v>
-      </c>
-      <c r="F132" s="16" t="s">
-        <v>83</v>
-      </c>
-      <c r="G132" s="16"/>
-      <c r="H132" s="16"/>
-      <c r="I132" s="16"/>
-      <c r="J132" s="16"/>
-      <c r="K132" s="16"/>
-      <c r="L132" s="16"/>
-      <c r="M132" s="16"/>
-      <c r="N132" s="16"/>
-      <c r="O132" s="16"/>
-      <c r="P132" s="16"/>
-      <c r="Q132" s="16"/>
-      <c r="R132" s="16"/>
-      <c r="S132" s="16"/>
-      <c r="T132" s="16"/>
-      <c r="U132" s="16"/>
-      <c r="V132" s="16"/>
-      <c r="W132" s="16"/>
-      <c r="X132" s="16"/>
-      <c r="Y132" s="16"/>
-    </row>
-    <row r="133" spans="1:25" s="15" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A133" s="24" t="s">
-        <v>50</v>
-      </c>
-      <c r="B133" s="24"/>
-      <c r="C133" s="31"/>
-      <c r="D133" s="6"/>
-      <c r="E133" s="17"/>
-      <c r="F133" s="16"/>
-      <c r="G133" s="16"/>
-      <c r="H133" s="16"/>
-      <c r="I133" s="16"/>
-      <c r="J133" s="16"/>
-      <c r="K133" s="16"/>
-      <c r="L133" s="16"/>
-      <c r="M133" s="16"/>
-      <c r="N133" s="16"/>
-      <c r="O133" s="16"/>
-      <c r="P133" s="16"/>
-      <c r="Q133" s="16"/>
-      <c r="R133" s="16"/>
-      <c r="S133" s="16"/>
-      <c r="T133" s="16"/>
-      <c r="U133" s="16"/>
-      <c r="V133" s="16"/>
-      <c r="W133" s="16"/>
-      <c r="X133" s="16"/>
-      <c r="Y133" s="16"/>
-    </row>
-    <row r="134" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A134" s="24" t="s">
-        <v>50</v>
-      </c>
-      <c r="B134" s="24" t="s">
-        <v>86</v>
-      </c>
-      <c r="C134" s="17" t="s">
-        <v>87</v>
-      </c>
-      <c r="D134" s="6"/>
-      <c r="E134" s="17"/>
-      <c r="F134" s="32"/>
-      <c r="G134" s="32"/>
-      <c r="H134" s="32"/>
-      <c r="I134" s="24"/>
-      <c r="J134" s="32"/>
-      <c r="K134" s="32"/>
-      <c r="L134" s="32"/>
-      <c r="M134" s="32"/>
-      <c r="N134" s="32"/>
-      <c r="O134" s="32"/>
-      <c r="P134" s="32"/>
-      <c r="Q134" s="32"/>
-      <c r="R134" s="32"/>
-      <c r="S134" s="32"/>
-      <c r="T134" s="32"/>
-      <c r="U134" s="32"/>
-      <c r="V134" s="32"/>
-      <c r="W134" s="32"/>
-      <c r="X134" s="32"/>
-      <c r="Y134" s="32"/>
-    </row>
-    <row r="135" spans="1:25" s="15" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A135" s="33" t="s">
-        <v>50</v>
-      </c>
-      <c r="B135" s="33" t="s">
-        <v>88</v>
-      </c>
-      <c r="C135" s="34" t="s">
-        <v>89</v>
-      </c>
-      <c r="D135" s="33"/>
-      <c r="E135" s="33" t="s">
-        <v>62</v>
-      </c>
-      <c r="F135" s="33" t="s">
-        <v>90</v>
-      </c>
-      <c r="G135" s="33"/>
-      <c r="H135" s="33"/>
-      <c r="I135" s="33"/>
-      <c r="J135" s="33"/>
-      <c r="K135" s="33"/>
-      <c r="L135" s="33"/>
-      <c r="M135" s="33"/>
-      <c r="N135" s="33"/>
-      <c r="O135" s="33"/>
-      <c r="P135" s="33"/>
-      <c r="Q135" s="33"/>
-      <c r="R135" s="33"/>
-      <c r="S135" s="33"/>
-      <c r="T135" s="33"/>
-      <c r="U135" s="33"/>
-      <c r="V135" s="33"/>
-      <c r="W135" s="33"/>
-      <c r="X135" s="33"/>
-      <c r="Y135" s="33"/>
-    </row>
-    <row r="136" spans="1:25" s="15" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A136" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="B136" s="5"/>
-      <c r="C136" s="5"/>
-      <c r="D136" s="5"/>
-      <c r="E136" s="5"/>
-      <c r="F136" s="5"/>
-      <c r="G136" s="5"/>
-      <c r="H136" s="5"/>
-      <c r="I136" s="5"/>
-      <c r="J136" s="5"/>
-      <c r="K136" s="5"/>
-      <c r="L136" s="5"/>
-      <c r="M136" s="5"/>
-      <c r="N136" s="16"/>
-      <c r="O136" s="16"/>
-      <c r="P136" s="16"/>
-      <c r="Q136" s="16"/>
-      <c r="R136" s="16"/>
-      <c r="S136" s="16"/>
-      <c r="T136" s="16"/>
-      <c r="U136" s="16"/>
-      <c r="V136" s="16"/>
-      <c r="W136" s="16"/>
-      <c r="X136" s="16"/>
-      <c r="Y136" s="16"/>
-    </row>
-    <row r="137" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="138" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="139" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="140" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="141" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="142" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A142" s="51"/>
-      <c r="B142" s="51"/>
-      <c r="C142" s="51"/>
-      <c r="D142" s="51"/>
-      <c r="E142" s="51"/>
-      <c r="F142" s="51"/>
-    </row>
-    <row r="143" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="144" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="120" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="121" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="122" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="123" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="124" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="125" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="126" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="127" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="128" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="129" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="130" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="131" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="132" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="133" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="134" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="135" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="136" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="137" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="138" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="139" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="140" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="141" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="142" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="143" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="144" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="145" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="146" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="147" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -5826,45 +5793,27 @@
     <row r="651" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="652" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="653" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="654" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="655" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="656" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="657" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="658" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="659" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="660" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="661" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="662" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="663" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="664" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="665" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="666" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="667" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="668" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="669" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="670" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
   </sheetData>
-  <conditionalFormatting sqref="A111">
+  <conditionalFormatting sqref="A94">
     <cfRule type="cellIs" dxfId="2" priority="2" operator="equal">
       <formula>"begin group"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A112">
+  <conditionalFormatting sqref="A95">
     <cfRule type="cellIs" dxfId="1" priority="3" operator="equal">
       <formula>"begin group"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A116">
+  <conditionalFormatting sqref="A99">
     <cfRule type="cellIs" dxfId="0" priority="4" operator="equal">
       <formula>"begin group"</formula>
     </cfRule>
   </conditionalFormatting>
   <hyperlinks>
-    <hyperlink ref="C80" r:id="rId1" display="mailto:info@agra.org"/>
-    <hyperlink ref="A11" r:id="rId2"/>
+    <hyperlink ref="C63" r:id="rId1" display="mailto:info@agra.org"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
-  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId3"/>
+  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
 </worksheet>
 </file>
 

--- a/config-boda-moh-ke-master/forms/app/case_investigation.xlsx
+++ b/config-boda-moh-ke-master/forms/app/case_investigation.xlsx
@@ -1702,8 +1702,8 @@
   <dimension ref="A1:Z653"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A75" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B88" sqref="B88"/>
+      <pane ySplit="1" topLeftCell="A47" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B62" sqref="B62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3673,7 +3673,7 @@
         <v>50</v>
       </c>
       <c r="B62" s="43" t="s">
-        <v>103</v>
+        <v>50</v>
       </c>
       <c r="C62" s="43" t="s">
         <v>165</v>

--- a/config-boda-moh-ke-master/forms/app/case_investigation.xlsx
+++ b/config-boda-moh-ke-master/forms/app/case_investigation.xlsx
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="532" uniqueCount="309">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="532" uniqueCount="311">
   <si>
     <t>type</t>
   </si>
@@ -1039,6 +1039,12 @@
   </si>
   <si>
     <t>rtpcr</t>
+  </si>
+  <si>
+    <t>note_prob</t>
+  </si>
+  <si>
+    <t>note_rem</t>
   </si>
 </sst>
 </file>
@@ -1702,8 +1708,8 @@
   <dimension ref="A1:Z653"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A47" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B62" sqref="B62"/>
+      <pane ySplit="1" topLeftCell="A44" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C61" sqref="C61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3673,7 +3679,7 @@
         <v>50</v>
       </c>
       <c r="B62" s="43" t="s">
-        <v>50</v>
+        <v>309</v>
       </c>
       <c r="C62" s="43" t="s">
         <v>165</v>
@@ -3709,7 +3715,7 @@
         <v>50</v>
       </c>
       <c r="B63" s="43" t="s">
-        <v>50</v>
+        <v>310</v>
       </c>
       <c r="C63" s="48" t="s">
         <v>217</v>

--- a/config-boda-moh-ke-master/forms/app/case_investigation.xlsx
+++ b/config-boda-moh-ke-master/forms/app/case_investigation.xlsx
@@ -801,36 +801,6 @@
     <t>selected(${bi},'chest')</t>
   </si>
   <si>
-    <t>selected(${cov'},'breath')</t>
-  </si>
-  <si>
-    <t>selected(${cov'},'fatigue')</t>
-  </si>
-  <si>
-    <t>selected(${cov'},'muscle')</t>
-  </si>
-  <si>
-    <t>selected(${cov'},'headache')</t>
-  </si>
-  <si>
-    <t>selected(${cov'},'taste')</t>
-  </si>
-  <si>
-    <t>selected(${cov'},'throat')</t>
-  </si>
-  <si>
-    <t>selected(${cov'},'nose')</t>
-  </si>
-  <si>
-    <t>selected(${cov'},'vomiting')</t>
-  </si>
-  <si>
-    <t>selected(${cov'},'diarrhoea')</t>
-  </si>
-  <si>
-    <t>selected(${cov'},'contact')</t>
-  </si>
-  <si>
     <t>selected(${tb},'sweats')</t>
   </si>
   <si>
@@ -1045,6 +1015,36 @@
   </si>
   <si>
     <t>note_rem</t>
+  </si>
+  <si>
+    <t>selected(${cov},'breath')</t>
+  </si>
+  <si>
+    <t>selected(${cov},'fatigue')</t>
+  </si>
+  <si>
+    <t>selected(${cov},'muscle')</t>
+  </si>
+  <si>
+    <t>selected(${cov},'headache')</t>
+  </si>
+  <si>
+    <t>selected(${cov},'taste')</t>
+  </si>
+  <si>
+    <t>selected(${cov},'throat')</t>
+  </si>
+  <si>
+    <t>selected(${cov},'nose')</t>
+  </si>
+  <si>
+    <t>selected(${cov},'vomiting')</t>
+  </si>
+  <si>
+    <t>selected(${cov},'diarrhoea')</t>
+  </si>
+  <si>
+    <t>selected(${cov},'contact')</t>
   </si>
 </sst>
 </file>
@@ -1708,8 +1708,8 @@
   <dimension ref="A1:Z653"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A44" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C61" sqref="C61"/>
+      <pane ySplit="1" topLeftCell="A90" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E115" sqref="E115"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2001,18 +2001,18 @@
     </row>
     <row r="8" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="11" t="s">
-        <v>243</v>
+        <v>233</v>
       </c>
       <c r="B8" s="11" t="s">
-        <v>244</v>
+        <v>234</v>
       </c>
       <c r="C8" s="11" t="s">
-        <v>245</v>
+        <v>235</v>
       </c>
       <c r="D8" s="11"/>
       <c r="E8" s="11"/>
       <c r="F8" s="11" t="s">
-        <v>246</v>
+        <v>236</v>
       </c>
       <c r="G8" s="7"/>
       <c r="H8" s="7"/>
@@ -2042,7 +2042,7 @@
         <v>0</v>
       </c>
       <c r="C9" s="11" t="s">
-        <v>247</v>
+        <v>237</v>
       </c>
       <c r="D9" s="11"/>
       <c r="E9" s="11"/>
@@ -2074,10 +2074,10 @@
         <v>25</v>
       </c>
       <c r="B10" s="11" t="s">
-        <v>248</v>
+        <v>238</v>
       </c>
       <c r="C10" s="11" t="s">
-        <v>249</v>
+        <v>239</v>
       </c>
       <c r="D10" s="11"/>
       <c r="E10" s="11"/>
@@ -2109,10 +2109,10 @@
         <v>25</v>
       </c>
       <c r="B11" s="11" t="s">
-        <v>250</v>
+        <v>240</v>
       </c>
       <c r="C11" s="11" t="s">
-        <v>251</v>
+        <v>241</v>
       </c>
       <c r="D11" s="11"/>
       <c r="E11" s="11"/>
@@ -2144,10 +2144,10 @@
         <v>25</v>
       </c>
       <c r="B12" s="11" t="s">
-        <v>252</v>
+        <v>242</v>
       </c>
       <c r="C12" s="11" t="s">
-        <v>253</v>
+        <v>243</v>
       </c>
       <c r="D12" s="11"/>
       <c r="E12" s="11"/>
@@ -2179,10 +2179,10 @@
         <v>25</v>
       </c>
       <c r="B13" s="11" t="s">
-        <v>254</v>
+        <v>244</v>
       </c>
       <c r="C13" s="11" t="s">
-        <v>255</v>
+        <v>245</v>
       </c>
       <c r="D13" s="11"/>
       <c r="E13" s="11"/>
@@ -2214,10 +2214,10 @@
         <v>25</v>
       </c>
       <c r="B14" s="11" t="s">
-        <v>256</v>
+        <v>246</v>
       </c>
       <c r="C14" s="11" t="s">
-        <v>257</v>
+        <v>247</v>
       </c>
       <c r="D14" s="11"/>
       <c r="E14" s="11"/>
@@ -2247,10 +2247,10 @@
         <v>25</v>
       </c>
       <c r="B15" s="11" t="s">
-        <v>258</v>
+        <v>248</v>
       </c>
       <c r="C15" s="11" t="s">
-        <v>259</v>
+        <v>249</v>
       </c>
       <c r="D15" s="11"/>
       <c r="E15" s="11"/>
@@ -2280,10 +2280,10 @@
         <v>25</v>
       </c>
       <c r="B16" s="11" t="s">
-        <v>260</v>
+        <v>250</v>
       </c>
       <c r="C16" s="11" t="s">
-        <v>261</v>
+        <v>251</v>
       </c>
       <c r="D16" s="11"/>
       <c r="E16" s="11"/>
@@ -2313,10 +2313,10 @@
         <v>25</v>
       </c>
       <c r="B17" s="11" t="s">
-        <v>262</v>
+        <v>252</v>
       </c>
       <c r="C17" s="11" t="s">
-        <v>263</v>
+        <v>253</v>
       </c>
       <c r="D17" s="11"/>
       <c r="E17" s="11"/>
@@ -2346,10 +2346,10 @@
         <v>25</v>
       </c>
       <c r="B18" s="11" t="s">
-        <v>264</v>
+        <v>254</v>
       </c>
       <c r="C18" s="11" t="s">
-        <v>267</v>
+        <v>257</v>
       </c>
       <c r="D18" s="11"/>
       <c r="E18" s="11"/>
@@ -2379,10 +2379,10 @@
         <v>25</v>
       </c>
       <c r="B19" s="11" t="s">
-        <v>265</v>
+        <v>255</v>
       </c>
       <c r="C19" s="11" t="s">
-        <v>268</v>
+        <v>258</v>
       </c>
       <c r="D19" s="11"/>
       <c r="E19" s="11"/>
@@ -2412,10 +2412,10 @@
         <v>25</v>
       </c>
       <c r="B20" s="11" t="s">
-        <v>266</v>
+        <v>256</v>
       </c>
       <c r="C20" s="11" t="s">
-        <v>269</v>
+        <v>259</v>
       </c>
       <c r="D20" s="11"/>
       <c r="E20" s="11"/>
@@ -2448,7 +2448,7 @@
         <v>1</v>
       </c>
       <c r="C21" s="11" t="s">
-        <v>270</v>
+        <v>260</v>
       </c>
       <c r="D21" s="11"/>
       <c r="E21" s="11"/>
@@ -2478,10 +2478,10 @@
         <v>25</v>
       </c>
       <c r="B22" s="11" t="s">
-        <v>271</v>
+        <v>261</v>
       </c>
       <c r="C22" s="11" t="s">
-        <v>272</v>
+        <v>262</v>
       </c>
       <c r="D22" s="11"/>
       <c r="E22" s="11"/>
@@ -2511,10 +2511,10 @@
         <v>25</v>
       </c>
       <c r="B23" s="11" t="s">
-        <v>273</v>
+        <v>263</v>
       </c>
       <c r="C23" s="11" t="s">
-        <v>274</v>
+        <v>264</v>
       </c>
       <c r="D23" s="11"/>
       <c r="E23" s="11"/>
@@ -2544,10 +2544,10 @@
         <v>25</v>
       </c>
       <c r="B24" s="11" t="s">
-        <v>275</v>
+        <v>265</v>
       </c>
       <c r="C24" s="11" t="s">
-        <v>276</v>
+        <v>266</v>
       </c>
       <c r="D24" s="11"/>
       <c r="E24" s="11"/>
@@ -2577,10 +2577,10 @@
         <v>25</v>
       </c>
       <c r="B25" s="11" t="s">
-        <v>277</v>
+        <v>267</v>
       </c>
       <c r="C25" s="11" t="s">
-        <v>278</v>
+        <v>268</v>
       </c>
       <c r="D25" s="11"/>
       <c r="E25" s="11"/>
@@ -2610,10 +2610,10 @@
         <v>25</v>
       </c>
       <c r="B26" s="11" t="s">
-        <v>279</v>
+        <v>269</v>
       </c>
       <c r="C26" s="11" t="s">
-        <v>280</v>
+        <v>270</v>
       </c>
       <c r="D26" s="11"/>
       <c r="E26" s="11"/>
@@ -2643,10 +2643,10 @@
         <v>25</v>
       </c>
       <c r="B27" s="11" t="s">
-        <v>281</v>
+        <v>271</v>
       </c>
       <c r="C27" s="11" t="s">
-        <v>282</v>
+        <v>272</v>
       </c>
       <c r="D27" s="11"/>
       <c r="E27" s="11"/>
@@ -2676,10 +2676,10 @@
         <v>25</v>
       </c>
       <c r="B28" s="11" t="s">
-        <v>283</v>
+        <v>273</v>
       </c>
       <c r="C28" s="11" t="s">
-        <v>284</v>
+        <v>274</v>
       </c>
       <c r="D28" s="11"/>
       <c r="E28" s="11"/>
@@ -2709,10 +2709,10 @@
         <v>25</v>
       </c>
       <c r="B29" s="11" t="s">
-        <v>285</v>
+        <v>275</v>
       </c>
       <c r="C29" s="11" t="s">
-        <v>286</v>
+        <v>276</v>
       </c>
       <c r="D29" s="11"/>
       <c r="E29" s="11"/>
@@ -2745,7 +2745,7 @@
         <v>31</v>
       </c>
       <c r="C30" s="11" t="s">
-        <v>287</v>
+        <v>277</v>
       </c>
       <c r="D30" s="11"/>
       <c r="E30" s="11"/>
@@ -2775,10 +2775,10 @@
         <v>25</v>
       </c>
       <c r="B31" s="11" t="s">
-        <v>288</v>
+        <v>278</v>
       </c>
       <c r="C31" s="11" t="s">
-        <v>289</v>
+        <v>279</v>
       </c>
       <c r="D31" s="11"/>
       <c r="E31" s="11"/>
@@ -2808,10 +2808,10 @@
         <v>25</v>
       </c>
       <c r="B32" s="11" t="s">
-        <v>290</v>
+        <v>280</v>
       </c>
       <c r="C32" s="11" t="s">
-        <v>291</v>
+        <v>281</v>
       </c>
       <c r="D32" s="11"/>
       <c r="E32" s="11"/>
@@ -2841,10 +2841,10 @@
         <v>25</v>
       </c>
       <c r="B33" s="11" t="s">
-        <v>292</v>
+        <v>282</v>
       </c>
       <c r="C33" s="11" t="s">
-        <v>293</v>
+        <v>283</v>
       </c>
       <c r="D33" s="11"/>
       <c r="E33" s="11"/>
@@ -2874,10 +2874,10 @@
         <v>25</v>
       </c>
       <c r="B34" s="11" t="s">
-        <v>294</v>
+        <v>284</v>
       </c>
       <c r="C34" s="11" t="s">
-        <v>295</v>
+        <v>285</v>
       </c>
       <c r="D34" s="11"/>
       <c r="E34" s="11"/>
@@ -2907,10 +2907,10 @@
         <v>25</v>
       </c>
       <c r="B35" s="11" t="s">
-        <v>296</v>
+        <v>286</v>
       </c>
       <c r="C35" s="11" t="s">
-        <v>297</v>
+        <v>287</v>
       </c>
       <c r="D35" s="11"/>
       <c r="E35" s="11"/>
@@ -2940,10 +2940,10 @@
         <v>25</v>
       </c>
       <c r="B36" s="11" t="s">
-        <v>298</v>
+        <v>288</v>
       </c>
       <c r="C36" s="11" t="s">
-        <v>299</v>
+        <v>289</v>
       </c>
       <c r="D36" s="11"/>
       <c r="E36" s="11"/>
@@ -2973,10 +2973,10 @@
         <v>25</v>
       </c>
       <c r="B37" s="11" t="s">
-        <v>300</v>
+        <v>290</v>
       </c>
       <c r="C37" s="11" t="s">
-        <v>301</v>
+        <v>291</v>
       </c>
       <c r="D37" s="11"/>
       <c r="E37" s="11"/>
@@ -3006,10 +3006,10 @@
         <v>25</v>
       </c>
       <c r="B38" s="11" t="s">
-        <v>303</v>
+        <v>293</v>
       </c>
       <c r="C38" s="11" t="s">
-        <v>304</v>
+        <v>294</v>
       </c>
       <c r="D38" s="11"/>
       <c r="E38" s="11"/>
@@ -3039,10 +3039,10 @@
         <v>25</v>
       </c>
       <c r="B39" s="11" t="s">
-        <v>302</v>
+        <v>292</v>
       </c>
       <c r="C39" s="11" t="s">
-        <v>305</v>
+        <v>295</v>
       </c>
       <c r="D39" s="11"/>
       <c r="E39" s="11"/>
@@ -3072,10 +3072,10 @@
         <v>25</v>
       </c>
       <c r="B40" s="11" t="s">
-        <v>306</v>
+        <v>296</v>
       </c>
       <c r="C40" s="11" t="s">
-        <v>307</v>
+        <v>297</v>
       </c>
       <c r="D40" s="11"/>
       <c r="E40" s="11"/>
@@ -3679,7 +3679,7 @@
         <v>50</v>
       </c>
       <c r="B62" s="43" t="s">
-        <v>309</v>
+        <v>299</v>
       </c>
       <c r="C62" s="43" t="s">
         <v>165</v>
@@ -3715,7 +3715,7 @@
         <v>50</v>
       </c>
       <c r="B63" s="43" t="s">
-        <v>310</v>
+        <v>300</v>
       </c>
       <c r="C63" s="48" t="s">
         <v>217</v>
@@ -4113,7 +4113,7 @@
         <v>63</v>
       </c>
       <c r="C77" s="17" t="s">
-        <v>242</v>
+        <v>232</v>
       </c>
       <c r="D77" s="9"/>
       <c r="E77" s="17"/>
@@ -4271,7 +4271,7 @@
         <v>17</v>
       </c>
       <c r="B88" s="42" t="s">
-        <v>308</v>
+        <v>298</v>
       </c>
       <c r="C88" s="42" t="s">
         <v>209</v>
@@ -4668,7 +4668,7 @@
       </c>
       <c r="D103" s="6"/>
       <c r="E103" s="17" t="s">
-        <v>229</v>
+        <v>301</v>
       </c>
       <c r="F103" s="16" t="s">
         <v>83</v>
@@ -4705,7 +4705,7 @@
       </c>
       <c r="D104" s="6"/>
       <c r="E104" s="17" t="s">
-        <v>230</v>
+        <v>302</v>
       </c>
       <c r="F104" s="16" t="s">
         <v>83</v>
@@ -4742,7 +4742,7 @@
       </c>
       <c r="D105" s="6"/>
       <c r="E105" s="17" t="s">
-        <v>231</v>
+        <v>303</v>
       </c>
       <c r="F105" s="16" t="s">
         <v>83</v>
@@ -4779,7 +4779,7 @@
       </c>
       <c r="D106" s="6"/>
       <c r="E106" s="17" t="s">
-        <v>232</v>
+        <v>304</v>
       </c>
       <c r="F106" s="16" t="s">
         <v>83</v>
@@ -4816,7 +4816,7 @@
       </c>
       <c r="D107" s="6"/>
       <c r="E107" s="17" t="s">
-        <v>233</v>
+        <v>305</v>
       </c>
       <c r="F107" s="16" t="s">
         <v>83</v>
@@ -4853,7 +4853,7 @@
       </c>
       <c r="D108" s="6"/>
       <c r="E108" s="17" t="s">
-        <v>234</v>
+        <v>306</v>
       </c>
       <c r="F108" s="16" t="s">
         <v>83</v>
@@ -4890,7 +4890,7 @@
       </c>
       <c r="D109" s="6"/>
       <c r="E109" s="17" t="s">
-        <v>235</v>
+        <v>307</v>
       </c>
       <c r="F109" s="16" t="s">
         <v>83</v>
@@ -4927,7 +4927,7 @@
       </c>
       <c r="D110" s="6"/>
       <c r="E110" s="17" t="s">
-        <v>236</v>
+        <v>308</v>
       </c>
       <c r="F110" s="16" t="s">
         <v>83</v>
@@ -4964,7 +4964,7 @@
       </c>
       <c r="D111" s="6"/>
       <c r="E111" s="17" t="s">
-        <v>237</v>
+        <v>309</v>
       </c>
       <c r="F111" s="16" t="s">
         <v>83</v>
@@ -5001,7 +5001,7 @@
       </c>
       <c r="D112" s="6"/>
       <c r="E112" s="17" t="s">
-        <v>238</v>
+        <v>310</v>
       </c>
       <c r="F112" s="16" t="s">
         <v>83</v>
@@ -5038,7 +5038,7 @@
       </c>
       <c r="D113" s="6"/>
       <c r="E113" s="17" t="s">
-        <v>239</v>
+        <v>229</v>
       </c>
       <c r="F113" s="16" t="s">
         <v>83</v>
@@ -5075,7 +5075,7 @@
       </c>
       <c r="D114" s="6"/>
       <c r="E114" s="17" t="s">
-        <v>240</v>
+        <v>230</v>
       </c>
       <c r="F114" s="16" t="s">
         <v>83</v>
@@ -5112,7 +5112,7 @@
       </c>
       <c r="D115" s="6"/>
       <c r="E115" s="17" t="s">
-        <v>241</v>
+        <v>231</v>
       </c>
       <c r="F115" s="16" t="s">
         <v>83</v>

--- a/config-boda-moh-ke-master/forms/app/case_investigation.xlsx
+++ b/config-boda-moh-ke-master/forms/app/case_investigation.xlsx
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="532" uniqueCount="311">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="527" uniqueCount="307">
   <si>
     <t>type</t>
   </si>
@@ -220,9 +220,6 @@
   </si>
   <si>
     <t>Laboratory Information</t>
-  </si>
-  <si>
-    <t>${was_specimen_collected} = 'yes'</t>
   </si>
   <si>
     <t>specimen_id</t>
@@ -376,15 +373,6 @@
   </si>
   <si>
     <t>Please copy this identifier onto the specimen vial: **${specimen_id}**</t>
-  </si>
-  <si>
-    <t>r_followup</t>
-  </si>
-  <si>
-    <t>Follow Up Tasks &lt;i class="fa fa-flag"&gt;&lt;/i&gt;</t>
-  </si>
-  <si>
-    <t>h1 green</t>
   </si>
   <si>
     <t>list_name</t>
@@ -1155,7 +1143,7 @@
       <family val="1"/>
     </font>
   </fonts>
-  <fills count="12">
+  <fills count="11">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1178,12 +1166,6 @@
       <patternFill patternType="solid">
         <fgColor rgb="FF9CC2E5"/>
         <bgColor rgb="FFB4A7D6"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF99FFCC"/>
-        <bgColor rgb="FFCCFFFF"/>
       </patternFill>
     </fill>
     <fill>
@@ -1236,7 +1218,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="50">
+  <cellXfs count="48">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1282,18 +1264,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -1302,7 +1280,7 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Explanatory Text" xfId="1" builtinId="53" customBuiltin="1"/>
@@ -1705,18 +1683,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Z653"/>
+  <dimension ref="A1:Z652"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A90" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E115" sqref="E115"/>
+      <pane ySplit="1" topLeftCell="A96" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C124" sqref="C124"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="39.33203125" customWidth="1"/>
     <col min="2" max="2" width="26.33203125" customWidth="1"/>
-    <col min="3" max="3" width="55.109375" customWidth="1"/>
+    <col min="3" max="3" width="58.44140625" customWidth="1"/>
     <col min="4" max="4" width="6.6640625" customWidth="1"/>
     <col min="5" max="5" width="36.33203125" customWidth="1"/>
     <col min="6" max="6" width="14.6640625" customWidth="1"/>
@@ -2001,18 +1979,18 @@
     </row>
     <row r="8" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="11" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="B8" s="11" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="C8" s="11" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="D8" s="11"/>
       <c r="E8" s="11"/>
       <c r="F8" s="11" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="G8" s="7"/>
       <c r="H8" s="7"/>
@@ -2042,7 +2020,7 @@
         <v>0</v>
       </c>
       <c r="C9" s="11" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="D9" s="11"/>
       <c r="E9" s="11"/>
@@ -2074,10 +2052,10 @@
         <v>25</v>
       </c>
       <c r="B10" s="11" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="C10" s="11" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="D10" s="11"/>
       <c r="E10" s="11"/>
@@ -2109,10 +2087,10 @@
         <v>25</v>
       </c>
       <c r="B11" s="11" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="C11" s="11" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="D11" s="11"/>
       <c r="E11" s="11"/>
@@ -2144,10 +2122,10 @@
         <v>25</v>
       </c>
       <c r="B12" s="11" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="C12" s="11" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="D12" s="11"/>
       <c r="E12" s="11"/>
@@ -2179,10 +2157,10 @@
         <v>25</v>
       </c>
       <c r="B13" s="11" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="C13" s="11" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="D13" s="11"/>
       <c r="E13" s="11"/>
@@ -2214,10 +2192,10 @@
         <v>25</v>
       </c>
       <c r="B14" s="11" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="C14" s="11" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="D14" s="11"/>
       <c r="E14" s="11"/>
@@ -2247,10 +2225,10 @@
         <v>25</v>
       </c>
       <c r="B15" s="11" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="C15" s="11" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="D15" s="11"/>
       <c r="E15" s="11"/>
@@ -2280,10 +2258,10 @@
         <v>25</v>
       </c>
       <c r="B16" s="11" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
       <c r="C16" s="11" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="D16" s="11"/>
       <c r="E16" s="11"/>
@@ -2313,10 +2291,10 @@
         <v>25</v>
       </c>
       <c r="B17" s="11" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="C17" s="11" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="D17" s="11"/>
       <c r="E17" s="11"/>
@@ -2346,10 +2324,10 @@
         <v>25</v>
       </c>
       <c r="B18" s="11" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="C18" s="11" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="D18" s="11"/>
       <c r="E18" s="11"/>
@@ -2379,10 +2357,10 @@
         <v>25</v>
       </c>
       <c r="B19" s="11" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="C19" s="11" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="D19" s="11"/>
       <c r="E19" s="11"/>
@@ -2412,10 +2390,10 @@
         <v>25</v>
       </c>
       <c r="B20" s="11" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="C20" s="11" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="D20" s="11"/>
       <c r="E20" s="11"/>
@@ -2448,7 +2426,7 @@
         <v>1</v>
       </c>
       <c r="C21" s="11" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="D21" s="11"/>
       <c r="E21" s="11"/>
@@ -2478,10 +2456,10 @@
         <v>25</v>
       </c>
       <c r="B22" s="11" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
       <c r="C22" s="11" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="D22" s="11"/>
       <c r="E22" s="11"/>
@@ -2511,10 +2489,10 @@
         <v>25</v>
       </c>
       <c r="B23" s="11" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="C23" s="11" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
       <c r="D23" s="11"/>
       <c r="E23" s="11"/>
@@ -2544,10 +2522,10 @@
         <v>25</v>
       </c>
       <c r="B24" s="11" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
       <c r="C24" s="11" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="D24" s="11"/>
       <c r="E24" s="11"/>
@@ -2577,10 +2555,10 @@
         <v>25</v>
       </c>
       <c r="B25" s="11" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="C25" s="11" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="D25" s="11"/>
       <c r="E25" s="11"/>
@@ -2610,10 +2588,10 @@
         <v>25</v>
       </c>
       <c r="B26" s="11" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="C26" s="11" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
       <c r="D26" s="11"/>
       <c r="E26" s="11"/>
@@ -2643,10 +2621,10 @@
         <v>25</v>
       </c>
       <c r="B27" s="11" t="s">
-        <v>271</v>
+        <v>267</v>
       </c>
       <c r="C27" s="11" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
       <c r="D27" s="11"/>
       <c r="E27" s="11"/>
@@ -2676,10 +2654,10 @@
         <v>25</v>
       </c>
       <c r="B28" s="11" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="C28" s="11" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="D28" s="11"/>
       <c r="E28" s="11"/>
@@ -2709,10 +2687,10 @@
         <v>25</v>
       </c>
       <c r="B29" s="11" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="C29" s="11" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
       <c r="D29" s="11"/>
       <c r="E29" s="11"/>
@@ -2745,7 +2723,7 @@
         <v>31</v>
       </c>
       <c r="C30" s="11" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
       <c r="D30" s="11"/>
       <c r="E30" s="11"/>
@@ -2775,10 +2753,10 @@
         <v>25</v>
       </c>
       <c r="B31" s="11" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="C31" s="11" t="s">
-        <v>279</v>
+        <v>275</v>
       </c>
       <c r="D31" s="11"/>
       <c r="E31" s="11"/>
@@ -2808,10 +2786,10 @@
         <v>25</v>
       </c>
       <c r="B32" s="11" t="s">
-        <v>280</v>
+        <v>276</v>
       </c>
       <c r="C32" s="11" t="s">
-        <v>281</v>
+        <v>277</v>
       </c>
       <c r="D32" s="11"/>
       <c r="E32" s="11"/>
@@ -2841,10 +2819,10 @@
         <v>25</v>
       </c>
       <c r="B33" s="11" t="s">
-        <v>282</v>
+        <v>278</v>
       </c>
       <c r="C33" s="11" t="s">
-        <v>283</v>
+        <v>279</v>
       </c>
       <c r="D33" s="11"/>
       <c r="E33" s="11"/>
@@ -2874,10 +2852,10 @@
         <v>25</v>
       </c>
       <c r="B34" s="11" t="s">
-        <v>284</v>
+        <v>280</v>
       </c>
       <c r="C34" s="11" t="s">
-        <v>285</v>
+        <v>281</v>
       </c>
       <c r="D34" s="11"/>
       <c r="E34" s="11"/>
@@ -2907,10 +2885,10 @@
         <v>25</v>
       </c>
       <c r="B35" s="11" t="s">
-        <v>286</v>
+        <v>282</v>
       </c>
       <c r="C35" s="11" t="s">
-        <v>287</v>
+        <v>283</v>
       </c>
       <c r="D35" s="11"/>
       <c r="E35" s="11"/>
@@ -2940,10 +2918,10 @@
         <v>25</v>
       </c>
       <c r="B36" s="11" t="s">
-        <v>288</v>
+        <v>284</v>
       </c>
       <c r="C36" s="11" t="s">
-        <v>289</v>
+        <v>285</v>
       </c>
       <c r="D36" s="11"/>
       <c r="E36" s="11"/>
@@ -2973,10 +2951,10 @@
         <v>25</v>
       </c>
       <c r="B37" s="11" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
       <c r="C37" s="11" t="s">
-        <v>291</v>
+        <v>287</v>
       </c>
       <c r="D37" s="11"/>
       <c r="E37" s="11"/>
@@ -3006,10 +2984,10 @@
         <v>25</v>
       </c>
       <c r="B38" s="11" t="s">
-        <v>293</v>
+        <v>289</v>
       </c>
       <c r="C38" s="11" t="s">
-        <v>294</v>
+        <v>290</v>
       </c>
       <c r="D38" s="11"/>
       <c r="E38" s="11"/>
@@ -3039,10 +3017,10 @@
         <v>25</v>
       </c>
       <c r="B39" s="11" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
       <c r="C39" s="11" t="s">
-        <v>295</v>
+        <v>291</v>
       </c>
       <c r="D39" s="11"/>
       <c r="E39" s="11"/>
@@ -3072,10 +3050,10 @@
         <v>25</v>
       </c>
       <c r="B40" s="11" t="s">
-        <v>296</v>
+        <v>292</v>
       </c>
       <c r="C40" s="11" t="s">
-        <v>297</v>
+        <v>293</v>
       </c>
       <c r="D40" s="11"/>
       <c r="E40" s="11"/>
@@ -3400,10 +3378,10 @@
         <v>17</v>
       </c>
       <c r="B54" s="4" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="C54" s="4" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="D54" s="4"/>
       <c r="E54" s="4"/>
@@ -3432,18 +3410,18 @@
       <c r="Z54" s="4"/>
     </row>
     <row r="55" spans="1:26" ht="15.9" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A55" s="43" t="s">
-        <v>142</v>
-      </c>
-      <c r="B55" s="43" t="s">
-        <v>143</v>
-      </c>
-      <c r="C55" s="43" t="s">
-        <v>158</v>
+      <c r="A55" s="41" t="s">
+        <v>138</v>
+      </c>
+      <c r="B55" s="41" t="s">
+        <v>139</v>
+      </c>
+      <c r="C55" s="41" t="s">
+        <v>154</v>
       </c>
       <c r="D55" s="6"/>
-      <c r="F55" s="45" t="s">
-        <v>166</v>
+      <c r="F55" s="43" t="s">
+        <v>162</v>
       </c>
       <c r="I55" s="6"/>
       <c r="J55" s="6"/>
@@ -3465,18 +3443,18 @@
       <c r="Z55" s="6"/>
     </row>
     <row r="56" spans="1:26" ht="15.9" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A56" s="43" t="s">
-        <v>144</v>
-      </c>
-      <c r="B56" s="43" t="s">
-        <v>145</v>
-      </c>
-      <c r="C56" s="43" t="s">
-        <v>159</v>
+      <c r="A56" s="41" t="s">
+        <v>140</v>
+      </c>
+      <c r="B56" s="41" t="s">
+        <v>141</v>
+      </c>
+      <c r="C56" s="41" t="s">
+        <v>155</v>
       </c>
       <c r="D56" s="6"/>
-      <c r="F56" s="45" t="s">
-        <v>166</v>
+      <c r="F56" s="43" t="s">
+        <v>162</v>
       </c>
       <c r="I56" s="6"/>
       <c r="J56" s="6"/>
@@ -3498,18 +3476,18 @@
       <c r="Z56" s="6"/>
     </row>
     <row r="57" spans="1:26" ht="15.9" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A57" s="43" t="s">
-        <v>146</v>
-      </c>
-      <c r="B57" s="43" t="s">
-        <v>147</v>
-      </c>
-      <c r="C57" s="43" t="s">
-        <v>160</v>
+      <c r="A57" s="41" t="s">
+        <v>142</v>
+      </c>
+      <c r="B57" s="41" t="s">
+        <v>143</v>
+      </c>
+      <c r="C57" s="41" t="s">
+        <v>156</v>
       </c>
       <c r="D57" s="6"/>
-      <c r="F57" s="45" t="s">
-        <v>166</v>
+      <c r="F57" s="43" t="s">
+        <v>162</v>
       </c>
       <c r="I57" s="6"/>
       <c r="J57" s="6"/>
@@ -3531,22 +3509,22 @@
       <c r="Z57" s="6"/>
     </row>
     <row r="58" spans="1:26" ht="15.9" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A58" s="43" t="s">
+      <c r="A58" s="41" t="s">
         <v>50</v>
       </c>
-      <c r="B58" s="43" t="s">
-        <v>148</v>
-      </c>
-      <c r="C58" s="43" t="s">
-        <v>161</v>
+      <c r="B58" s="41" t="s">
+        <v>144</v>
+      </c>
+      <c r="C58" s="41" t="s">
+        <v>157</v>
       </c>
       <c r="D58" s="6"/>
-      <c r="E58" s="44" t="s">
-        <v>149</v>
-      </c>
-      <c r="F58" s="45"/>
-      <c r="G58" s="45"/>
-      <c r="H58" s="45"/>
+      <c r="E58" s="42" t="s">
+        <v>145</v>
+      </c>
+      <c r="F58" s="43"/>
+      <c r="G58" s="43"/>
+      <c r="H58" s="43"/>
       <c r="I58" s="6"/>
       <c r="J58" s="6"/>
       <c r="K58" s="6"/>
@@ -3567,22 +3545,22 @@
       <c r="Z58" s="6"/>
     </row>
     <row r="59" spans="1:26" ht="15.9" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A59" s="43" t="s">
+      <c r="A59" s="41" t="s">
         <v>50</v>
       </c>
-      <c r="B59" s="43" t="s">
-        <v>150</v>
-      </c>
-      <c r="C59" s="43" t="s">
-        <v>162</v>
+      <c r="B59" s="41" t="s">
+        <v>146</v>
+      </c>
+      <c r="C59" s="41" t="s">
+        <v>158</v>
       </c>
       <c r="D59" s="6"/>
-      <c r="E59" s="44" t="s">
-        <v>151</v>
-      </c>
-      <c r="F59" s="43"/>
-      <c r="G59" s="43"/>
-      <c r="H59" s="43"/>
+      <c r="E59" s="42" t="s">
+        <v>147</v>
+      </c>
+      <c r="F59" s="41"/>
+      <c r="G59" s="41"/>
+      <c r="H59" s="41"/>
       <c r="I59" s="6"/>
       <c r="J59" s="6"/>
       <c r="K59" s="6"/>
@@ -3603,22 +3581,22 @@
       <c r="Z59" s="6"/>
     </row>
     <row r="60" spans="1:26" ht="15.9" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A60" s="43" t="s">
+      <c r="A60" s="41" t="s">
         <v>50</v>
       </c>
-      <c r="B60" s="43" t="s">
-        <v>152</v>
-      </c>
-      <c r="C60" s="43" t="s">
-        <v>163</v>
+      <c r="B60" s="41" t="s">
+        <v>148</v>
+      </c>
+      <c r="C60" s="41" t="s">
+        <v>159</v>
       </c>
       <c r="D60" s="6"/>
-      <c r="E60" s="44" t="s">
-        <v>153</v>
-      </c>
-      <c r="F60" s="43"/>
-      <c r="G60" s="43"/>
-      <c r="H60" s="43"/>
+      <c r="E60" s="42" t="s">
+        <v>149</v>
+      </c>
+      <c r="F60" s="41"/>
+      <c r="G60" s="41"/>
+      <c r="H60" s="41"/>
       <c r="I60" s="6"/>
       <c r="J60" s="6"/>
       <c r="K60" s="6"/>
@@ -3639,22 +3617,22 @@
       <c r="Z60" s="6"/>
     </row>
     <row r="61" spans="1:26" ht="15.9" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A61" s="43" t="s">
+      <c r="A61" s="41" t="s">
         <v>50</v>
       </c>
-      <c r="B61" s="43" t="s">
-        <v>103</v>
-      </c>
-      <c r="C61" s="43" t="s">
-        <v>164</v>
+      <c r="B61" s="41" t="s">
+        <v>99</v>
+      </c>
+      <c r="C61" s="41" t="s">
+        <v>160</v>
       </c>
       <c r="D61" s="6"/>
-      <c r="E61" s="44" t="s">
-        <v>154</v>
-      </c>
-      <c r="F61" s="43"/>
-      <c r="G61" s="43"/>
-      <c r="H61" s="43"/>
+      <c r="E61" s="42" t="s">
+        <v>150</v>
+      </c>
+      <c r="F61" s="41"/>
+      <c r="G61" s="41"/>
+      <c r="H61" s="41"/>
       <c r="I61" s="6"/>
       <c r="J61" s="6"/>
       <c r="K61" s="6"/>
@@ -3675,22 +3653,22 @@
       <c r="Z61" s="6"/>
     </row>
     <row r="62" spans="1:26" ht="15.9" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A62" s="43" t="s">
+      <c r="A62" s="41" t="s">
         <v>50</v>
       </c>
-      <c r="B62" s="43" t="s">
-        <v>299</v>
-      </c>
-      <c r="C62" s="43" t="s">
-        <v>165</v>
+      <c r="B62" s="41" t="s">
+        <v>295</v>
+      </c>
+      <c r="C62" s="41" t="s">
+        <v>161</v>
       </c>
       <c r="D62" s="6"/>
-      <c r="E62" s="44" t="s">
-        <v>155</v>
-      </c>
-      <c r="F62" s="43"/>
-      <c r="G62" s="43"/>
-      <c r="H62" s="43"/>
+      <c r="E62" s="42" t="s">
+        <v>151</v>
+      </c>
+      <c r="F62" s="41"/>
+      <c r="G62" s="41"/>
+      <c r="H62" s="41"/>
       <c r="I62" s="6"/>
       <c r="J62" s="6"/>
       <c r="K62" s="6"/>
@@ -3711,21 +3689,21 @@
       <c r="Z62" s="6"/>
     </row>
     <row r="63" spans="1:26" ht="15.9" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A63" s="43" t="s">
+      <c r="A63" s="41" t="s">
         <v>50</v>
       </c>
-      <c r="B63" s="43" t="s">
-        <v>300</v>
-      </c>
-      <c r="C63" s="48" t="s">
-        <v>217</v>
-      </c>
-      <c r="E63" s="49" t="s">
-        <v>218</v>
-      </c>
-      <c r="F63" s="43"/>
-      <c r="G63" s="43"/>
-      <c r="H63" s="43"/>
+      <c r="B63" s="41" t="s">
+        <v>296</v>
+      </c>
+      <c r="C63" s="46" t="s">
+        <v>213</v>
+      </c>
+      <c r="E63" s="47" t="s">
+        <v>214</v>
+      </c>
+      <c r="F63" s="41"/>
+      <c r="G63" s="41"/>
+      <c r="H63" s="41"/>
       <c r="I63" s="6"/>
       <c r="J63" s="6"/>
       <c r="K63" s="6"/>
@@ -3836,10 +3814,10 @@
         <v>17</v>
       </c>
       <c r="B67" s="4" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="C67" s="4" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="D67" s="22"/>
       <c r="E67" s="22"/>
@@ -3866,18 +3844,18 @@
       <c r="Z67" s="22"/>
     </row>
     <row r="68" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A68" s="43" t="s">
+      <c r="A68" s="41" t="s">
         <v>50</v>
       </c>
-      <c r="B68" s="43" t="s">
+      <c r="B68" s="41" t="s">
+        <v>194</v>
+      </c>
+      <c r="C68" s="41" t="s">
         <v>198</v>
       </c>
-      <c r="C68" s="43" t="s">
-        <v>202</v>
-      </c>
       <c r="D68" s="22"/>
-      <c r="E68" s="44" t="s">
-        <v>149</v>
+      <c r="E68" s="42" t="s">
+        <v>145</v>
       </c>
       <c r="F68" s="22"/>
       <c r="G68" s="22"/>
@@ -3902,18 +3880,18 @@
       <c r="Z68" s="22"/>
     </row>
     <row r="69" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A69" s="43" t="s">
+      <c r="A69" s="41" t="s">
         <v>50</v>
       </c>
-      <c r="B69" s="43" t="s">
-        <v>199</v>
-      </c>
-      <c r="C69" s="43" t="s">
-        <v>202</v>
+      <c r="B69" s="41" t="s">
+        <v>195</v>
+      </c>
+      <c r="C69" s="41" t="s">
+        <v>198</v>
       </c>
       <c r="D69" s="22"/>
-      <c r="E69" s="44" t="s">
-        <v>151</v>
+      <c r="E69" s="42" t="s">
+        <v>147</v>
       </c>
       <c r="F69" s="22"/>
       <c r="G69" s="22"/>
@@ -3938,18 +3916,18 @@
       <c r="Z69" s="22"/>
     </row>
     <row r="70" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A70" s="43" t="s">
+      <c r="A70" s="41" t="s">
         <v>50</v>
       </c>
-      <c r="B70" s="43" t="s">
-        <v>200</v>
-      </c>
-      <c r="C70" s="43" t="s">
-        <v>203</v>
+      <c r="B70" s="41" t="s">
+        <v>196</v>
+      </c>
+      <c r="C70" s="41" t="s">
+        <v>199</v>
       </c>
       <c r="D70" s="22"/>
-      <c r="E70" s="44" t="s">
-        <v>153</v>
+      <c r="E70" s="42" t="s">
+        <v>149</v>
       </c>
       <c r="F70" s="22"/>
       <c r="G70" s="22"/>
@@ -4064,7 +4042,7 @@
         <v>17</v>
       </c>
       <c r="B74" s="4" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="C74" s="4" t="s">
         <v>61</v>
@@ -4078,7 +4056,7 @@
         <v>32</v>
       </c>
       <c r="B75" s="9" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="C75" s="17"/>
       <c r="D75" s="9"/>
@@ -4086,7 +4064,7 @@
       <c r="G75" s="22"/>
       <c r="H75" s="22"/>
       <c r="I75" s="6" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
     </row>
     <row r="76" spans="1:26" s="6" customFormat="1" ht="12.9" customHeight="1" x14ac:dyDescent="0.3">
@@ -4094,7 +4072,7 @@
         <v>32</v>
       </c>
       <c r="B76" s="9" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="C76" s="17"/>
       <c r="D76" s="9"/>
@@ -4102,7 +4080,7 @@
       <c r="G76" s="22"/>
       <c r="H76" s="22"/>
       <c r="I76" s="6" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
     </row>
     <row r="77" spans="1:26" s="6" customFormat="1" ht="12.9" customHeight="1" x14ac:dyDescent="0.3">
@@ -4110,10 +4088,10 @@
         <v>50</v>
       </c>
       <c r="B77" s="9" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C77" s="17" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="D77" s="9"/>
       <c r="E77" s="17"/>
@@ -4125,17 +4103,17 @@
         <v>44</v>
       </c>
       <c r="B78" s="9" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="C78" s="10" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D78" s="21" t="s">
         <v>45</v>
       </c>
       <c r="E78" s="9"/>
       <c r="G78" s="22" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="H78" s="22" t="s">
         <v>46</v>
@@ -4143,13 +4121,13 @@
     </row>
     <row r="79" spans="1:26" s="6" customFormat="1" ht="12.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A79" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="B79" s="9" t="s">
         <v>66</v>
       </c>
-      <c r="B79" s="9" t="s">
+      <c r="C79" s="23" t="s">
         <v>67</v>
-      </c>
-      <c r="C79" s="23" t="s">
-        <v>68</v>
       </c>
       <c r="D79" s="21"/>
       <c r="E79" s="9"/>
@@ -4183,14 +4161,14 @@
       <c r="J82"/>
     </row>
     <row r="83" spans="1:25" s="4" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A83" s="42" t="s">
+      <c r="A83" s="40" t="s">
         <v>17</v>
       </c>
-      <c r="B83" s="42" t="s">
-        <v>212</v>
-      </c>
-      <c r="C83" s="42" t="s">
-        <v>204</v>
+      <c r="B83" s="40" t="s">
+        <v>208</v>
+      </c>
+      <c r="C83" s="40" t="s">
+        <v>200</v>
       </c>
       <c r="D83"/>
       <c r="E83"/>
@@ -4201,18 +4179,18 @@
       <c r="J83"/>
     </row>
     <row r="84" spans="1:25" s="4" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A84" s="43" t="s">
-        <v>205</v>
-      </c>
-      <c r="B84" s="43" t="s">
-        <v>206</v>
-      </c>
-      <c r="C84" s="43" t="s">
-        <v>213</v>
+      <c r="A84" s="41" t="s">
+        <v>201</v>
+      </c>
+      <c r="B84" s="41" t="s">
+        <v>202</v>
+      </c>
+      <c r="C84" s="41" t="s">
+        <v>209</v>
       </c>
       <c r="D84"/>
-      <c r="E84" s="44" t="s">
-        <v>214</v>
+      <c r="E84" s="42" t="s">
+        <v>210</v>
       </c>
       <c r="F84"/>
       <c r="G84"/>
@@ -4221,18 +4199,18 @@
       <c r="J84"/>
     </row>
     <row r="85" spans="1:25" s="4" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A85" s="43" t="s">
+      <c r="A85" s="41" t="s">
         <v>50</v>
       </c>
-      <c r="B85" s="43" t="s">
-        <v>207</v>
-      </c>
-      <c r="C85" s="43" t="s">
-        <v>208</v>
+      <c r="B85" s="41" t="s">
+        <v>203</v>
+      </c>
+      <c r="C85" s="41" t="s">
+        <v>204</v>
       </c>
       <c r="D85"/>
-      <c r="E85" s="44" t="s">
-        <v>215</v>
+      <c r="E85" s="42" t="s">
+        <v>211</v>
       </c>
       <c r="F85"/>
       <c r="G85"/>
@@ -4241,11 +4219,11 @@
       <c r="J85"/>
     </row>
     <row r="86" spans="1:25" s="4" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A86" s="42" t="s">
+      <c r="A86" s="40" t="s">
         <v>29</v>
       </c>
-      <c r="B86" s="42"/>
-      <c r="C86" s="42"/>
+      <c r="B86" s="40"/>
+      <c r="C86" s="40"/>
       <c r="D86"/>
       <c r="E86"/>
       <c r="F86"/>
@@ -4255,9 +4233,9 @@
       <c r="J86"/>
     </row>
     <row r="87" spans="1:25" s="4" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A87" s="43"/>
-      <c r="B87" s="43"/>
-      <c r="C87" s="43"/>
+      <c r="A87" s="41"/>
+      <c r="B87" s="41"/>
+      <c r="C87" s="41"/>
       <c r="D87"/>
       <c r="E87"/>
       <c r="F87"/>
@@ -4267,14 +4245,14 @@
       <c r="J87"/>
     </row>
     <row r="88" spans="1:25" s="4" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A88" s="42" t="s">
+      <c r="A88" s="40" t="s">
         <v>17</v>
       </c>
-      <c r="B88" s="42" t="s">
-        <v>298</v>
-      </c>
-      <c r="C88" s="42" t="s">
-        <v>209</v>
+      <c r="B88" s="40" t="s">
+        <v>294</v>
+      </c>
+      <c r="C88" s="40" t="s">
+        <v>205</v>
       </c>
       <c r="D88"/>
       <c r="E88"/>
@@ -4285,18 +4263,18 @@
       <c r="J88"/>
     </row>
     <row r="89" spans="1:25" s="4" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A89" s="43" t="s">
+      <c r="A89" s="41" t="s">
         <v>50</v>
       </c>
-      <c r="B89" s="43" t="s">
-        <v>210</v>
-      </c>
-      <c r="C89" s="43" t="s">
-        <v>211</v>
+      <c r="B89" s="41" t="s">
+        <v>206</v>
+      </c>
+      <c r="C89" s="41" t="s">
+        <v>207</v>
       </c>
       <c r="D89"/>
-      <c r="E89" s="44" t="s">
-        <v>216</v>
+      <c r="E89" s="42" t="s">
+        <v>212</v>
       </c>
       <c r="F89"/>
       <c r="G89"/>
@@ -4305,11 +4283,11 @@
       <c r="J89"/>
     </row>
     <row r="90" spans="1:25" s="4" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A90" s="42" t="s">
+      <c r="A90" s="40" t="s">
         <v>29</v>
       </c>
-      <c r="B90" s="42"/>
-      <c r="C90" s="42"/>
+      <c r="B90" s="40"/>
+      <c r="C90" s="40"/>
       <c r="D90"/>
       <c r="E90"/>
       <c r="F90"/>
@@ -4335,7 +4313,7 @@
         <v>17</v>
       </c>
       <c r="B92" s="5" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C92" s="5" t="s">
         <v>37</v>
@@ -4343,7 +4321,7 @@
       <c r="D92" s="5"/>
       <c r="E92" s="4"/>
       <c r="F92" s="19" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="G92" s="5"/>
       <c r="H92" s="5"/>
@@ -4370,10 +4348,10 @@
         <v>50</v>
       </c>
       <c r="B93" s="24" t="s">
+        <v>70</v>
+      </c>
+      <c r="C93" s="3" t="s">
         <v>71</v>
-      </c>
-      <c r="C93" s="3" t="s">
-        <v>72</v>
       </c>
       <c r="D93" s="6" t="s">
         <v>45</v>
@@ -4405,15 +4383,15 @@
         <v>50</v>
       </c>
       <c r="B94" s="25" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C94" s="26" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D94" s="25"/>
       <c r="E94" s="25"/>
       <c r="F94" s="25" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="G94" s="25"/>
       <c r="H94" s="25"/>
@@ -4440,10 +4418,10 @@
         <v>50</v>
       </c>
       <c r="B95" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="C95" s="24" t="s">
         <v>75</v>
-      </c>
-      <c r="C95" s="24" t="s">
-        <v>76</v>
       </c>
       <c r="D95" s="3"/>
       <c r="E95" s="3"/>
@@ -4476,7 +4454,7 @@
         <v>51</v>
       </c>
       <c r="C96" s="27" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E96" t="s">
         <v>53</v>
@@ -4490,7 +4468,7 @@
         <v>54</v>
       </c>
       <c r="C97" s="27" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E97" t="s">
         <v>56</v>
@@ -4504,7 +4482,7 @@
         <v>57</v>
       </c>
       <c r="C98" s="27" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E98" t="s">
         <v>59</v>
@@ -4515,15 +4493,15 @@
         <v>50</v>
       </c>
       <c r="B99" s="29" t="s">
+        <v>79</v>
+      </c>
+      <c r="C99" s="30" t="s">
         <v>80</v>
-      </c>
-      <c r="C99" s="30" t="s">
-        <v>81</v>
       </c>
       <c r="D99" s="28"/>
       <c r="E99" s="28"/>
       <c r="F99" s="28" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="G99" s="28"/>
       <c r="H99" s="28"/>
@@ -4549,18 +4527,18 @@
       <c r="A100" s="24" t="s">
         <v>50</v>
       </c>
-      <c r="B100" s="43" t="s">
-        <v>100</v>
-      </c>
-      <c r="C100" s="43" t="s">
-        <v>168</v>
+      <c r="B100" s="41" t="s">
+        <v>96</v>
+      </c>
+      <c r="C100" s="41" t="s">
+        <v>164</v>
       </c>
       <c r="D100" s="6"/>
       <c r="E100" s="17" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="F100" s="15" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="G100" s="16"/>
       <c r="H100" s="16"/>
@@ -4586,18 +4564,18 @@
       <c r="A101" s="24" t="s">
         <v>50</v>
       </c>
-      <c r="B101" s="43" t="s">
-        <v>169</v>
-      </c>
-      <c r="C101" s="43" t="s">
-        <v>170</v>
+      <c r="B101" s="41" t="s">
+        <v>165</v>
+      </c>
+      <c r="C101" s="41" t="s">
+        <v>166</v>
       </c>
       <c r="D101" s="6"/>
       <c r="E101" s="17" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="F101" s="16" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="G101" s="16"/>
       <c r="H101" s="16"/>
@@ -4623,18 +4601,18 @@
       <c r="A102" s="24" t="s">
         <v>50</v>
       </c>
-      <c r="B102" s="43" t="s">
-        <v>106</v>
-      </c>
-      <c r="C102" s="43" t="s">
-        <v>171</v>
+      <c r="B102" s="41" t="s">
+        <v>102</v>
+      </c>
+      <c r="C102" s="41" t="s">
+        <v>167</v>
       </c>
       <c r="D102" s="6"/>
       <c r="E102" s="17" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="F102" s="16" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="G102" s="16"/>
       <c r="H102" s="16"/>
@@ -4660,18 +4638,18 @@
       <c r="A103" s="24" t="s">
         <v>50</v>
       </c>
-      <c r="B103" s="43" t="s">
-        <v>173</v>
-      </c>
-      <c r="C103" s="43" t="s">
-        <v>174</v>
+      <c r="B103" s="41" t="s">
+        <v>169</v>
+      </c>
+      <c r="C103" s="41" t="s">
+        <v>170</v>
       </c>
       <c r="D103" s="6"/>
       <c r="E103" s="17" t="s">
-        <v>301</v>
+        <v>297</v>
       </c>
       <c r="F103" s="16" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="G103" s="16"/>
       <c r="H103" s="16"/>
@@ -4697,18 +4675,18 @@
       <c r="A104" s="24" t="s">
         <v>50</v>
       </c>
-      <c r="B104" s="43" t="s">
-        <v>175</v>
-      </c>
-      <c r="C104" s="43" t="s">
-        <v>176</v>
+      <c r="B104" s="41" t="s">
+        <v>171</v>
+      </c>
+      <c r="C104" s="41" t="s">
+        <v>172</v>
       </c>
       <c r="D104" s="6"/>
       <c r="E104" s="17" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="F104" s="16" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="G104" s="16"/>
       <c r="H104" s="16"/>
@@ -4734,18 +4712,18 @@
       <c r="A105" s="24" t="s">
         <v>50</v>
       </c>
-      <c r="B105" s="43" t="s">
-        <v>177</v>
-      </c>
-      <c r="C105" s="43" t="s">
-        <v>178</v>
+      <c r="B105" s="41" t="s">
+        <v>173</v>
+      </c>
+      <c r="C105" s="41" t="s">
+        <v>174</v>
       </c>
       <c r="D105" s="6"/>
       <c r="E105" s="17" t="s">
-        <v>303</v>
+        <v>299</v>
       </c>
       <c r="F105" s="16" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="G105" s="16"/>
       <c r="H105" s="16"/>
@@ -4771,18 +4749,18 @@
       <c r="A106" s="24" t="s">
         <v>50</v>
       </c>
-      <c r="B106" s="43" t="s">
-        <v>102</v>
-      </c>
-      <c r="C106" s="43" t="s">
-        <v>179</v>
+      <c r="B106" s="41" t="s">
+        <v>98</v>
+      </c>
+      <c r="C106" s="41" t="s">
+        <v>175</v>
       </c>
       <c r="D106" s="6"/>
       <c r="E106" s="17" t="s">
-        <v>304</v>
+        <v>300</v>
       </c>
       <c r="F106" s="16" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="G106" s="16"/>
       <c r="H106" s="16"/>
@@ -4808,18 +4786,18 @@
       <c r="A107" s="24" t="s">
         <v>50</v>
       </c>
-      <c r="B107" s="43" t="s">
-        <v>180</v>
-      </c>
-      <c r="C107" s="43" t="s">
-        <v>181</v>
+      <c r="B107" s="41" t="s">
+        <v>176</v>
+      </c>
+      <c r="C107" s="41" t="s">
+        <v>177</v>
       </c>
       <c r="D107" s="6"/>
       <c r="E107" s="17" t="s">
-        <v>305</v>
+        <v>301</v>
       </c>
       <c r="F107" s="16" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="G107" s="16"/>
       <c r="H107" s="16"/>
@@ -4845,18 +4823,18 @@
       <c r="A108" s="24" t="s">
         <v>50</v>
       </c>
-      <c r="B108" s="43" t="s">
-        <v>182</v>
-      </c>
-      <c r="C108" s="43" t="s">
-        <v>84</v>
+      <c r="B108" s="41" t="s">
+        <v>178</v>
+      </c>
+      <c r="C108" s="41" t="s">
+        <v>83</v>
       </c>
       <c r="D108" s="6"/>
       <c r="E108" s="17" t="s">
-        <v>306</v>
+        <v>302</v>
       </c>
       <c r="F108" s="16" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="G108" s="16"/>
       <c r="H108" s="16"/>
@@ -4882,18 +4860,18 @@
       <c r="A109" s="24" t="s">
         <v>50</v>
       </c>
-      <c r="B109" s="43" t="s">
-        <v>183</v>
-      </c>
-      <c r="C109" s="43" t="s">
-        <v>184</v>
+      <c r="B109" s="41" t="s">
+        <v>179</v>
+      </c>
+      <c r="C109" s="41" t="s">
+        <v>180</v>
       </c>
       <c r="D109" s="6"/>
       <c r="E109" s="17" t="s">
-        <v>307</v>
+        <v>303</v>
       </c>
       <c r="F109" s="16" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="G109" s="16"/>
       <c r="H109" s="16"/>
@@ -4919,18 +4897,18 @@
       <c r="A110" s="24" t="s">
         <v>50</v>
       </c>
-      <c r="B110" s="43" t="s">
-        <v>185</v>
-      </c>
-      <c r="C110" s="43" t="s">
-        <v>186</v>
+      <c r="B110" s="41" t="s">
+        <v>181</v>
+      </c>
+      <c r="C110" s="41" t="s">
+        <v>182</v>
       </c>
       <c r="D110" s="6"/>
       <c r="E110" s="17" t="s">
-        <v>308</v>
+        <v>304</v>
       </c>
       <c r="F110" s="16" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="G110" s="16"/>
       <c r="H110" s="16"/>
@@ -4956,18 +4934,18 @@
       <c r="A111" s="24" t="s">
         <v>50</v>
       </c>
-      <c r="B111" s="43" t="s">
-        <v>101</v>
-      </c>
-      <c r="C111" s="43" t="s">
-        <v>85</v>
+      <c r="B111" s="41" t="s">
+        <v>97</v>
+      </c>
+      <c r="C111" s="41" t="s">
+        <v>84</v>
       </c>
       <c r="D111" s="6"/>
       <c r="E111" s="17" t="s">
-        <v>309</v>
+        <v>305</v>
       </c>
       <c r="F111" s="16" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="G111" s="16"/>
       <c r="H111" s="16"/>
@@ -4993,18 +4971,18 @@
       <c r="A112" s="24" t="s">
         <v>50</v>
       </c>
-      <c r="B112" s="43" t="s">
+      <c r="B112" s="41" t="s">
         <v>30</v>
       </c>
-      <c r="C112" s="43" t="s">
-        <v>187</v>
+      <c r="C112" s="41" t="s">
+        <v>183</v>
       </c>
       <c r="D112" s="6"/>
       <c r="E112" s="17" t="s">
-        <v>310</v>
+        <v>306</v>
       </c>
       <c r="F112" s="16" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="G112" s="16"/>
       <c r="H112" s="16"/>
@@ -5030,18 +5008,18 @@
       <c r="A113" s="24" t="s">
         <v>50</v>
       </c>
-      <c r="B113" s="45" t="s">
-        <v>189</v>
-      </c>
-      <c r="C113" s="45" t="s">
-        <v>190</v>
+      <c r="B113" s="43" t="s">
+        <v>185</v>
+      </c>
+      <c r="C113" s="43" t="s">
+        <v>186</v>
       </c>
       <c r="D113" s="6"/>
       <c r="E113" s="17" t="s">
-        <v>229</v>
+        <v>225</v>
       </c>
       <c r="F113" s="16" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="G113" s="16"/>
       <c r="H113" s="16"/>
@@ -5067,18 +5045,18 @@
       <c r="A114" s="24" t="s">
         <v>50</v>
       </c>
-      <c r="B114" s="45" t="s">
-        <v>191</v>
-      </c>
-      <c r="C114" s="45" t="s">
-        <v>192</v>
+      <c r="B114" s="43" t="s">
+        <v>187</v>
+      </c>
+      <c r="C114" s="43" t="s">
+        <v>188</v>
       </c>
       <c r="D114" s="6"/>
       <c r="E114" s="17" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="F114" s="16" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="G114" s="16"/>
       <c r="H114" s="16"/>
@@ -5104,18 +5082,18 @@
       <c r="A115" s="24" t="s">
         <v>50</v>
       </c>
-      <c r="B115" s="45" t="s">
-        <v>193</v>
-      </c>
-      <c r="C115" s="45" t="s">
-        <v>194</v>
+      <c r="B115" s="43" t="s">
+        <v>189</v>
+      </c>
+      <c r="C115" s="43" t="s">
+        <v>190</v>
       </c>
       <c r="D115" s="6"/>
       <c r="E115" s="17" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="F115" s="16" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="G115" s="16"/>
       <c r="H115" s="16"/>
@@ -5171,10 +5149,10 @@
         <v>50</v>
       </c>
       <c r="B117" s="24" t="s">
+        <v>85</v>
+      </c>
+      <c r="C117" s="17" t="s">
         <v>86</v>
-      </c>
-      <c r="C117" s="17" t="s">
-        <v>87</v>
       </c>
       <c r="D117" s="6"/>
       <c r="E117" s="17"/>
@@ -5200,71 +5178,35 @@
       <c r="Y117" s="32"/>
     </row>
     <row r="118" spans="1:25" s="15" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A118" s="33" t="s">
-        <v>50</v>
-      </c>
-      <c r="B118" s="33" t="s">
-        <v>88</v>
-      </c>
-      <c r="C118" s="34" t="s">
-        <v>89</v>
-      </c>
-      <c r="D118" s="33"/>
-      <c r="E118" s="33" t="s">
-        <v>62</v>
-      </c>
-      <c r="F118" s="33" t="s">
-        <v>90</v>
-      </c>
-      <c r="G118" s="33"/>
-      <c r="H118" s="33"/>
-      <c r="I118" s="33"/>
-      <c r="J118" s="33"/>
-      <c r="K118" s="33"/>
-      <c r="L118" s="33"/>
-      <c r="M118" s="33"/>
-      <c r="N118" s="33"/>
-      <c r="O118" s="33"/>
-      <c r="P118" s="33"/>
-      <c r="Q118" s="33"/>
-      <c r="R118" s="33"/>
-      <c r="S118" s="33"/>
-      <c r="T118" s="33"/>
-      <c r="U118" s="33"/>
-      <c r="V118" s="33"/>
-      <c r="W118" s="33"/>
-      <c r="X118" s="33"/>
-      <c r="Y118" s="33"/>
-    </row>
-    <row r="119" spans="1:25" s="15" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A119" s="5" t="s">
+      <c r="A118" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="B119" s="5"/>
-      <c r="C119" s="5"/>
-      <c r="D119" s="5"/>
-      <c r="E119" s="5"/>
-      <c r="F119" s="5"/>
-      <c r="G119" s="5"/>
-      <c r="H119" s="5"/>
-      <c r="I119" s="5"/>
-      <c r="J119" s="5"/>
-      <c r="K119" s="5"/>
-      <c r="L119" s="5"/>
-      <c r="M119" s="5"/>
-      <c r="N119" s="16"/>
-      <c r="O119" s="16"/>
-      <c r="P119" s="16"/>
-      <c r="Q119" s="16"/>
-      <c r="R119" s="16"/>
-      <c r="S119" s="16"/>
-      <c r="T119" s="16"/>
-      <c r="U119" s="16"/>
-      <c r="V119" s="16"/>
-      <c r="W119" s="16"/>
-      <c r="X119" s="16"/>
-      <c r="Y119" s="16"/>
-    </row>
+      <c r="B118" s="5"/>
+      <c r="C118" s="5"/>
+      <c r="D118" s="5"/>
+      <c r="E118" s="5"/>
+      <c r="F118" s="5"/>
+      <c r="G118" s="5"/>
+      <c r="H118" s="5"/>
+      <c r="I118" s="5"/>
+      <c r="J118" s="5"/>
+      <c r="K118" s="5"/>
+      <c r="L118" s="5"/>
+      <c r="M118" s="5"/>
+      <c r="N118" s="16"/>
+      <c r="O118" s="16"/>
+      <c r="P118" s="16"/>
+      <c r="Q118" s="16"/>
+      <c r="R118" s="16"/>
+      <c r="S118" s="16"/>
+      <c r="T118" s="16"/>
+      <c r="U118" s="16"/>
+      <c r="V118" s="16"/>
+      <c r="W118" s="16"/>
+      <c r="X118" s="16"/>
+      <c r="Y118" s="16"/>
+    </row>
+    <row r="119" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="120" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="121" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="122" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -5798,7 +5740,6 @@
     <row r="650" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="651" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="652" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="653" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <conditionalFormatting sqref="A94">
     <cfRule type="cellIs" dxfId="2" priority="2" operator="equal">
@@ -5844,50 +5785,50 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="35" t="s">
-        <v>91</v>
-      </c>
-      <c r="B1" s="35" t="s">
+      <c r="A1" s="33" t="s">
+        <v>87</v>
+      </c>
+      <c r="B1" s="33" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="35" t="s">
+      <c r="C1" s="33" t="s">
         <v>2</v>
       </c>
       <c r="D1" s="20" t="s">
         <v>31</v>
       </c>
-      <c r="E1" s="36" t="s">
+      <c r="E1" s="34" t="s">
         <v>60</v>
       </c>
-      <c r="F1" s="36"/>
-      <c r="G1" s="36"/>
-      <c r="H1" s="36"/>
-      <c r="I1" s="36"/>
-      <c r="J1" s="36"/>
-      <c r="K1" s="36"/>
-      <c r="L1" s="36"/>
-      <c r="M1" s="36"/>
-      <c r="N1" s="36"/>
-      <c r="O1" s="36"/>
-      <c r="P1" s="36"/>
-      <c r="Q1" s="36"/>
-      <c r="R1" s="36"/>
-      <c r="S1" s="36"/>
-      <c r="T1" s="36"/>
-      <c r="U1" s="36"/>
-      <c r="V1" s="36"/>
-      <c r="W1" s="36"/>
-      <c r="X1" s="36"/>
+      <c r="F1" s="34"/>
+      <c r="G1" s="34"/>
+      <c r="H1" s="34"/>
+      <c r="I1" s="34"/>
+      <c r="J1" s="34"/>
+      <c r="K1" s="34"/>
+      <c r="L1" s="34"/>
+      <c r="M1" s="34"/>
+      <c r="N1" s="34"/>
+      <c r="O1" s="34"/>
+      <c r="P1" s="34"/>
+      <c r="Q1" s="34"/>
+      <c r="R1" s="34"/>
+      <c r="S1" s="34"/>
+      <c r="T1" s="34"/>
+      <c r="U1" s="34"/>
+      <c r="V1" s="34"/>
+      <c r="W1" s="34"/>
+      <c r="X1" s="34"/>
     </row>
     <row r="2" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="18" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="B2" s="18" t="s">
         <v>45</v>
       </c>
       <c r="C2" s="18" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="D2" s="6"/>
       <c r="E2" s="6"/>
@@ -5913,13 +5854,13 @@
     </row>
     <row r="3" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="18" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="B3" s="18" t="s">
         <v>47</v>
       </c>
       <c r="C3" s="18" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="D3" s="6"/>
       <c r="E3" s="6"/>
@@ -5945,13 +5886,13 @@
     </row>
     <row r="4" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="18" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="B4" s="18" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="C4" s="18" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="D4" s="6"/>
       <c r="E4" s="6"/>
@@ -5979,13 +5920,13 @@
     </row>
     <row r="5" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="18" t="s">
+        <v>91</v>
+      </c>
+      <c r="B5" s="18" t="s">
+        <v>94</v>
+      </c>
+      <c r="C5" s="18" t="s">
         <v>95</v>
-      </c>
-      <c r="B5" s="18" t="s">
-        <v>98</v>
-      </c>
-      <c r="C5" s="18" t="s">
-        <v>99</v>
       </c>
       <c r="D5" s="6"/>
       <c r="E5" s="6"/>
@@ -6013,13 +5954,13 @@
     </row>
     <row r="6" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="18" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="B6" s="18" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="C6" s="18" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="D6" s="6"/>
       <c r="E6" s="6"/>
@@ -6047,359 +5988,359 @@
     </row>
     <row r="7" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="B7" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="C7" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
     </row>
     <row r="8" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="B8" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="C8" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
     </row>
     <row r="9" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="B9" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="C9" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
     </row>
     <row r="10" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
+        <v>103</v>
+      </c>
+      <c r="B10" t="s">
         <v>107</v>
       </c>
-      <c r="B10" t="s">
-        <v>111</v>
-      </c>
       <c r="C10" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
     </row>
     <row r="11" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="B11" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="C11" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
     </row>
     <row r="12" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="B12" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="C12" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
     </row>
     <row r="13" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="B13" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="C13" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
     </row>
     <row r="14" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="B14" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="C14" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
     </row>
     <row r="15" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="B15" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="C15" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
     </row>
     <row r="16" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="B16" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="C16" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="B17" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="C17" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="B18" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="C18" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="B19" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="C19" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A22" s="46" t="s">
+      <c r="A22" s="44" t="s">
+        <v>163</v>
+      </c>
+      <c r="B22" s="41" t="s">
+        <v>96</v>
+      </c>
+      <c r="C22" s="41" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A23" s="44" t="s">
+        <v>163</v>
+      </c>
+      <c r="B23" s="41" t="s">
+        <v>165</v>
+      </c>
+      <c r="C23" s="41" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A24" s="44" t="s">
+        <v>163</v>
+      </c>
+      <c r="B24" s="41" t="s">
+        <v>102</v>
+      </c>
+      <c r="C24" s="41" t="s">
         <v>167</v>
       </c>
-      <c r="B22" s="43" t="s">
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A25" s="44" t="s">
+        <v>168</v>
+      </c>
+      <c r="B25" s="41" t="s">
+        <v>169</v>
+      </c>
+      <c r="C25" s="41" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A26" s="44" t="s">
+        <v>168</v>
+      </c>
+      <c r="B26" s="41" t="s">
+        <v>171</v>
+      </c>
+      <c r="C26" s="41" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A27" s="44" t="s">
+        <v>168</v>
+      </c>
+      <c r="B27" s="41" t="s">
+        <v>173</v>
+      </c>
+      <c r="C27" s="41" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A28" s="44" t="s">
+        <v>168</v>
+      </c>
+      <c r="B28" s="41" t="s">
+        <v>98</v>
+      </c>
+      <c r="C28" s="41" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A29" s="44" t="s">
+        <v>168</v>
+      </c>
+      <c r="B29" s="41" t="s">
+        <v>176</v>
+      </c>
+      <c r="C29" s="41" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A30" s="44" t="s">
+        <v>168</v>
+      </c>
+      <c r="B30" s="41" t="s">
+        <v>178</v>
+      </c>
+      <c r="C30" s="41" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A31" s="44" t="s">
+        <v>168</v>
+      </c>
+      <c r="B31" s="41" t="s">
+        <v>179</v>
+      </c>
+      <c r="C31" s="41" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A32" s="44" t="s">
+        <v>168</v>
+      </c>
+      <c r="B32" s="41" t="s">
+        <v>181</v>
+      </c>
+      <c r="C32" s="41" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A33" s="44" t="s">
+        <v>168</v>
+      </c>
+      <c r="B33" s="41" t="s">
+        <v>97</v>
+      </c>
+      <c r="C33" s="41" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A34" s="44" t="s">
+        <v>168</v>
+      </c>
+      <c r="B34" s="41" t="s">
+        <v>30</v>
+      </c>
+      <c r="C34" s="41" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A35" s="44" t="s">
+        <v>184</v>
+      </c>
+      <c r="B35" s="43" t="s">
+        <v>185</v>
+      </c>
+      <c r="C35" s="43" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A36" s="44" t="s">
+        <v>184</v>
+      </c>
+      <c r="B36" s="43" t="s">
+        <v>187</v>
+      </c>
+      <c r="C36" s="43" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A37" s="44" t="s">
+        <v>184</v>
+      </c>
+      <c r="B37" s="43" t="s">
+        <v>189</v>
+      </c>
+      <c r="C37" s="43" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A38" s="45"/>
+      <c r="B38" s="45"/>
+      <c r="C38" s="45"/>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A39" s="45" t="s">
+        <v>191</v>
+      </c>
+      <c r="B39" s="45" t="s">
         <v>100</v>
       </c>
-      <c r="C22" s="43" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A23" s="46" t="s">
-        <v>167</v>
-      </c>
-      <c r="B23" s="43" t="s">
-        <v>169</v>
-      </c>
-      <c r="C23" s="43" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A24" s="46" t="s">
-        <v>167</v>
-      </c>
-      <c r="B24" s="43" t="s">
-        <v>106</v>
-      </c>
-      <c r="C24" s="43" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A25" s="46" t="s">
-        <v>172</v>
-      </c>
-      <c r="B25" s="43" t="s">
-        <v>173</v>
-      </c>
-      <c r="C25" s="43" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A26" s="46" t="s">
-        <v>172</v>
-      </c>
-      <c r="B26" s="43" t="s">
-        <v>175</v>
-      </c>
-      <c r="C26" s="43" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A27" s="46" t="s">
-        <v>172</v>
-      </c>
-      <c r="B27" s="43" t="s">
-        <v>177</v>
-      </c>
-      <c r="C27" s="43" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A28" s="46" t="s">
-        <v>172</v>
-      </c>
-      <c r="B28" s="43" t="s">
-        <v>102</v>
-      </c>
-      <c r="C28" s="43" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A29" s="46" t="s">
-        <v>172</v>
-      </c>
-      <c r="B29" s="43" t="s">
-        <v>180</v>
-      </c>
-      <c r="C29" s="43" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A30" s="46" t="s">
-        <v>172</v>
-      </c>
-      <c r="B30" s="43" t="s">
-        <v>182</v>
-      </c>
-      <c r="C30" s="43" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A31" s="46" t="s">
-        <v>172</v>
-      </c>
-      <c r="B31" s="43" t="s">
-        <v>183</v>
-      </c>
-      <c r="C31" s="43" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A32" s="46" t="s">
-        <v>172</v>
-      </c>
-      <c r="B32" s="43" t="s">
-        <v>185</v>
-      </c>
-      <c r="C32" s="43" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A33" s="46" t="s">
-        <v>172</v>
-      </c>
-      <c r="B33" s="43" t="s">
+      <c r="C39" s="45" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A40" s="45" t="s">
+        <v>191</v>
+      </c>
+      <c r="B40" s="45" t="s">
         <v>101</v>
       </c>
-      <c r="C33" s="43" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A34" s="46" t="s">
-        <v>172</v>
-      </c>
-      <c r="B34" s="43" t="s">
-        <v>30</v>
-      </c>
-      <c r="C34" s="43" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A35" s="46" t="s">
-        <v>188</v>
-      </c>
-      <c r="B35" s="45" t="s">
-        <v>189</v>
-      </c>
-      <c r="C35" s="45" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A36" s="46" t="s">
-        <v>188</v>
-      </c>
-      <c r="B36" s="45" t="s">
+      <c r="C40" s="45" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A41" s="45" t="s">
         <v>191</v>
       </c>
-      <c r="C36" s="45" t="s">
+      <c r="B41" s="45" t="s">
         <v>192</v>
       </c>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A37" s="46" t="s">
-        <v>188</v>
-      </c>
-      <c r="B37" s="45" t="s">
-        <v>193</v>
-      </c>
-      <c r="C37" s="45" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A38" s="47"/>
-      <c r="B38" s="47"/>
-      <c r="C38" s="47"/>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A39" s="47" t="s">
-        <v>195</v>
-      </c>
-      <c r="B39" s="47" t="s">
-        <v>104</v>
-      </c>
-      <c r="C39" s="47" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A40" s="47" t="s">
-        <v>195</v>
-      </c>
-      <c r="B40" s="47" t="s">
-        <v>105</v>
-      </c>
-      <c r="C40" s="47" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A41" s="47" t="s">
-        <v>195</v>
-      </c>
-      <c r="B41" s="47" t="s">
-        <v>196</v>
-      </c>
-      <c r="C41" s="47" t="s">
-        <v>196</v>
+      <c r="C41" s="45" t="s">
+        <v>192</v>
       </c>
     </row>
   </sheetData>
@@ -6431,25 +6372,25 @@
   <sheetData>
     <row r="1" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>122</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>123</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>127</v>
       </c>
       <c r="H1" s="1"/>
       <c r="I1" s="1"/>
@@ -6473,23 +6414,23 @@
     </row>
     <row r="2" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>126</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="E2" s="3" t="s">
         <v>128</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>129</v>
-      </c>
-      <c r="C2" s="6" t="s">
-        <v>130</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>131</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>132</v>
       </c>
       <c r="F2" s="3"/>
       <c r="G2" s="3" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="H2" s="3"/>
       <c r="I2" s="3"/>
@@ -7506,18 +7447,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="37" t="s">
-        <v>134</v>
-      </c>
-      <c r="B1" s="37"/>
-      <c r="C1" s="37" t="s">
-        <v>135</v>
-      </c>
-      <c r="D1" s="37"/>
-      <c r="E1" s="37" t="s">
-        <v>136</v>
-      </c>
-      <c r="F1" s="37"/>
+      <c r="A1" s="35" t="s">
+        <v>130</v>
+      </c>
+      <c r="B1" s="35"/>
+      <c r="C1" s="35" t="s">
+        <v>131</v>
+      </c>
+      <c r="D1" s="35"/>
+      <c r="E1" s="35" t="s">
+        <v>132</v>
+      </c>
+      <c r="F1" s="35"/>
       <c r="G1" s="14"/>
       <c r="H1" s="14"/>
       <c r="I1" s="14"/>
@@ -7547,7 +7488,7 @@
     </row>
     <row r="3" spans="1:15" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="14" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="B3" s="14"/>
       <c r="C3" s="5"/>
@@ -7566,10 +7507,10 @@
     </row>
     <row r="4" spans="1:15" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="14" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="B4" s="14"/>
-      <c r="C4" s="38"/>
+      <c r="C4" s="36"/>
       <c r="D4" s="14"/>
       <c r="E4" s="14"/>
       <c r="F4" s="14"/>
@@ -7585,10 +7526,10 @@
     </row>
     <row r="5" spans="1:15" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="14" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="B5" s="14"/>
-      <c r="C5" s="39"/>
+      <c r="C5" s="37"/>
       <c r="D5" s="14"/>
       <c r="E5" s="14"/>
       <c r="F5" s="14"/>
@@ -7604,10 +7545,10 @@
     </row>
     <row r="6" spans="1:15" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="14" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="B6" s="14"/>
-      <c r="C6" s="40"/>
+      <c r="C6" s="38"/>
       <c r="D6" s="14"/>
       <c r="E6" s="14"/>
       <c r="F6" s="14"/>
@@ -7623,10 +7564,10 @@
     </row>
     <row r="7" spans="1:15" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="14" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="B7" s="14"/>
-      <c r="C7" s="41"/>
+      <c r="C7" s="39"/>
       <c r="D7" s="14"/>
       <c r="E7" s="14"/>
       <c r="F7" s="14"/>

--- a/config-boda-moh-ke-master/forms/app/case_investigation.xlsx
+++ b/config-boda-moh-ke-master/forms/app/case_investigation.xlsx
@@ -261,9 +261,6 @@
     <t>r_patient_info</t>
   </si>
   <si>
-    <t xml:space="preserve">&lt;h4 style="text-align:center;"&gt;${patient_name}&lt;/h4&gt;&lt;h5 style="text-align:center;"&gt;${patient_age_display} &lt;/h5&gt;  </t>
-  </si>
-  <si>
     <r>
       <rPr>
         <sz val="11"/>
@@ -1033,6 +1030,9 @@
   </si>
   <si>
     <t>selected(${cov},'contact')</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;h4 style="text-align:center;"&gt;${patient_name}&lt;/h4&gt; </t>
   </si>
 </sst>
 </file>
@@ -1686,15 +1686,15 @@
   <dimension ref="A1:Z652"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A96" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C124" sqref="C124"/>
+      <pane ySplit="1" topLeftCell="A76" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C97" sqref="C97"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="39.33203125" customWidth="1"/>
-    <col min="2" max="2" width="26.33203125" customWidth="1"/>
-    <col min="3" max="3" width="58.44140625" customWidth="1"/>
+    <col min="1" max="1" width="25.88671875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="23.44140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="115.44140625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="6.6640625" customWidth="1"/>
     <col min="5" max="5" width="36.33203125" customWidth="1"/>
     <col min="6" max="6" width="14.6640625" customWidth="1"/>
@@ -1979,18 +1979,18 @@
     </row>
     <row r="8" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="11" t="s">
+        <v>228</v>
+      </c>
+      <c r="B8" s="11" t="s">
         <v>229</v>
       </c>
-      <c r="B8" s="11" t="s">
+      <c r="C8" s="11" t="s">
         <v>230</v>
-      </c>
-      <c r="C8" s="11" t="s">
-        <v>231</v>
       </c>
       <c r="D8" s="11"/>
       <c r="E8" s="11"/>
       <c r="F8" s="11" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="G8" s="7"/>
       <c r="H8" s="7"/>
@@ -2020,7 +2020,7 @@
         <v>0</v>
       </c>
       <c r="C9" s="11" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="D9" s="11"/>
       <c r="E9" s="11"/>
@@ -2052,10 +2052,10 @@
         <v>25</v>
       </c>
       <c r="B10" s="11" t="s">
+        <v>233</v>
+      </c>
+      <c r="C10" s="11" t="s">
         <v>234</v>
-      </c>
-      <c r="C10" s="11" t="s">
-        <v>235</v>
       </c>
       <c r="D10" s="11"/>
       <c r="E10" s="11"/>
@@ -2087,10 +2087,10 @@
         <v>25</v>
       </c>
       <c r="B11" s="11" t="s">
+        <v>235</v>
+      </c>
+      <c r="C11" s="11" t="s">
         <v>236</v>
-      </c>
-      <c r="C11" s="11" t="s">
-        <v>237</v>
       </c>
       <c r="D11" s="11"/>
       <c r="E11" s="11"/>
@@ -2122,10 +2122,10 @@
         <v>25</v>
       </c>
       <c r="B12" s="11" t="s">
+        <v>237</v>
+      </c>
+      <c r="C12" s="11" t="s">
         <v>238</v>
-      </c>
-      <c r="C12" s="11" t="s">
-        <v>239</v>
       </c>
       <c r="D12" s="11"/>
       <c r="E12" s="11"/>
@@ -2157,10 +2157,10 @@
         <v>25</v>
       </c>
       <c r="B13" s="11" t="s">
+        <v>239</v>
+      </c>
+      <c r="C13" s="11" t="s">
         <v>240</v>
-      </c>
-      <c r="C13" s="11" t="s">
-        <v>241</v>
       </c>
       <c r="D13" s="11"/>
       <c r="E13" s="11"/>
@@ -2192,10 +2192,10 @@
         <v>25</v>
       </c>
       <c r="B14" s="11" t="s">
+        <v>241</v>
+      </c>
+      <c r="C14" s="11" t="s">
         <v>242</v>
-      </c>
-      <c r="C14" s="11" t="s">
-        <v>243</v>
       </c>
       <c r="D14" s="11"/>
       <c r="E14" s="11"/>
@@ -2225,10 +2225,10 @@
         <v>25</v>
       </c>
       <c r="B15" s="11" t="s">
+        <v>243</v>
+      </c>
+      <c r="C15" s="11" t="s">
         <v>244</v>
-      </c>
-      <c r="C15" s="11" t="s">
-        <v>245</v>
       </c>
       <c r="D15" s="11"/>
       <c r="E15" s="11"/>
@@ -2258,10 +2258,10 @@
         <v>25</v>
       </c>
       <c r="B16" s="11" t="s">
+        <v>245</v>
+      </c>
+      <c r="C16" s="11" t="s">
         <v>246</v>
-      </c>
-      <c r="C16" s="11" t="s">
-        <v>247</v>
       </c>
       <c r="D16" s="11"/>
       <c r="E16" s="11"/>
@@ -2291,10 +2291,10 @@
         <v>25</v>
       </c>
       <c r="B17" s="11" t="s">
+        <v>247</v>
+      </c>
+      <c r="C17" s="11" t="s">
         <v>248</v>
-      </c>
-      <c r="C17" s="11" t="s">
-        <v>249</v>
       </c>
       <c r="D17" s="11"/>
       <c r="E17" s="11"/>
@@ -2324,10 +2324,10 @@
         <v>25</v>
       </c>
       <c r="B18" s="11" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="C18" s="11" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="D18" s="11"/>
       <c r="E18" s="11"/>
@@ -2357,10 +2357,10 @@
         <v>25</v>
       </c>
       <c r="B19" s="11" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="C19" s="11" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="D19" s="11"/>
       <c r="E19" s="11"/>
@@ -2390,10 +2390,10 @@
         <v>25</v>
       </c>
       <c r="B20" s="11" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="C20" s="11" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="D20" s="11"/>
       <c r="E20" s="11"/>
@@ -2426,7 +2426,7 @@
         <v>1</v>
       </c>
       <c r="C21" s="11" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="D21" s="11"/>
       <c r="E21" s="11"/>
@@ -2456,10 +2456,10 @@
         <v>25</v>
       </c>
       <c r="B22" s="11" t="s">
+        <v>256</v>
+      </c>
+      <c r="C22" s="11" t="s">
         <v>257</v>
-      </c>
-      <c r="C22" s="11" t="s">
-        <v>258</v>
       </c>
       <c r="D22" s="11"/>
       <c r="E22" s="11"/>
@@ -2489,10 +2489,10 @@
         <v>25</v>
       </c>
       <c r="B23" s="11" t="s">
+        <v>258</v>
+      </c>
+      <c r="C23" s="11" t="s">
         <v>259</v>
-      </c>
-      <c r="C23" s="11" t="s">
-        <v>260</v>
       </c>
       <c r="D23" s="11"/>
       <c r="E23" s="11"/>
@@ -2522,10 +2522,10 @@
         <v>25</v>
       </c>
       <c r="B24" s="11" t="s">
+        <v>260</v>
+      </c>
+      <c r="C24" s="11" t="s">
         <v>261</v>
-      </c>
-      <c r="C24" s="11" t="s">
-        <v>262</v>
       </c>
       <c r="D24" s="11"/>
       <c r="E24" s="11"/>
@@ -2555,10 +2555,10 @@
         <v>25</v>
       </c>
       <c r="B25" s="11" t="s">
+        <v>262</v>
+      </c>
+      <c r="C25" s="11" t="s">
         <v>263</v>
-      </c>
-      <c r="C25" s="11" t="s">
-        <v>264</v>
       </c>
       <c r="D25" s="11"/>
       <c r="E25" s="11"/>
@@ -2588,10 +2588,10 @@
         <v>25</v>
       </c>
       <c r="B26" s="11" t="s">
+        <v>264</v>
+      </c>
+      <c r="C26" s="11" t="s">
         <v>265</v>
-      </c>
-      <c r="C26" s="11" t="s">
-        <v>266</v>
       </c>
       <c r="D26" s="11"/>
       <c r="E26" s="11"/>
@@ -2621,10 +2621,10 @@
         <v>25</v>
       </c>
       <c r="B27" s="11" t="s">
+        <v>266</v>
+      </c>
+      <c r="C27" s="11" t="s">
         <v>267</v>
-      </c>
-      <c r="C27" s="11" t="s">
-        <v>268</v>
       </c>
       <c r="D27" s="11"/>
       <c r="E27" s="11"/>
@@ -2654,10 +2654,10 @@
         <v>25</v>
       </c>
       <c r="B28" s="11" t="s">
+        <v>268</v>
+      </c>
+      <c r="C28" s="11" t="s">
         <v>269</v>
-      </c>
-      <c r="C28" s="11" t="s">
-        <v>270</v>
       </c>
       <c r="D28" s="11"/>
       <c r="E28" s="11"/>
@@ -2687,10 +2687,10 @@
         <v>25</v>
       </c>
       <c r="B29" s="11" t="s">
+        <v>270</v>
+      </c>
+      <c r="C29" s="11" t="s">
         <v>271</v>
-      </c>
-      <c r="C29" s="11" t="s">
-        <v>272</v>
       </c>
       <c r="D29" s="11"/>
       <c r="E29" s="11"/>
@@ -2723,7 +2723,7 @@
         <v>31</v>
       </c>
       <c r="C30" s="11" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="D30" s="11"/>
       <c r="E30" s="11"/>
@@ -2753,10 +2753,10 @@
         <v>25</v>
       </c>
       <c r="B31" s="11" t="s">
+        <v>273</v>
+      </c>
+      <c r="C31" s="11" t="s">
         <v>274</v>
-      </c>
-      <c r="C31" s="11" t="s">
-        <v>275</v>
       </c>
       <c r="D31" s="11"/>
       <c r="E31" s="11"/>
@@ -2786,10 +2786,10 @@
         <v>25</v>
       </c>
       <c r="B32" s="11" t="s">
+        <v>275</v>
+      </c>
+      <c r="C32" s="11" t="s">
         <v>276</v>
-      </c>
-      <c r="C32" s="11" t="s">
-        <v>277</v>
       </c>
       <c r="D32" s="11"/>
       <c r="E32" s="11"/>
@@ -2819,10 +2819,10 @@
         <v>25</v>
       </c>
       <c r="B33" s="11" t="s">
+        <v>277</v>
+      </c>
+      <c r="C33" s="11" t="s">
         <v>278</v>
-      </c>
-      <c r="C33" s="11" t="s">
-        <v>279</v>
       </c>
       <c r="D33" s="11"/>
       <c r="E33" s="11"/>
@@ -2852,10 +2852,10 @@
         <v>25</v>
       </c>
       <c r="B34" s="11" t="s">
+        <v>279</v>
+      </c>
+      <c r="C34" s="11" t="s">
         <v>280</v>
-      </c>
-      <c r="C34" s="11" t="s">
-        <v>281</v>
       </c>
       <c r="D34" s="11"/>
       <c r="E34" s="11"/>
@@ -2885,10 +2885,10 @@
         <v>25</v>
       </c>
       <c r="B35" s="11" t="s">
+        <v>281</v>
+      </c>
+      <c r="C35" s="11" t="s">
         <v>282</v>
-      </c>
-      <c r="C35" s="11" t="s">
-        <v>283</v>
       </c>
       <c r="D35" s="11"/>
       <c r="E35" s="11"/>
@@ -2918,10 +2918,10 @@
         <v>25</v>
       </c>
       <c r="B36" s="11" t="s">
+        <v>283</v>
+      </c>
+      <c r="C36" s="11" t="s">
         <v>284</v>
-      </c>
-      <c r="C36" s="11" t="s">
-        <v>285</v>
       </c>
       <c r="D36" s="11"/>
       <c r="E36" s="11"/>
@@ -2951,10 +2951,10 @@
         <v>25</v>
       </c>
       <c r="B37" s="11" t="s">
+        <v>285</v>
+      </c>
+      <c r="C37" s="11" t="s">
         <v>286</v>
-      </c>
-      <c r="C37" s="11" t="s">
-        <v>287</v>
       </c>
       <c r="D37" s="11"/>
       <c r="E37" s="11"/>
@@ -2984,10 +2984,10 @@
         <v>25</v>
       </c>
       <c r="B38" s="11" t="s">
+        <v>288</v>
+      </c>
+      <c r="C38" s="11" t="s">
         <v>289</v>
-      </c>
-      <c r="C38" s="11" t="s">
-        <v>290</v>
       </c>
       <c r="D38" s="11"/>
       <c r="E38" s="11"/>
@@ -3017,10 +3017,10 @@
         <v>25</v>
       </c>
       <c r="B39" s="11" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="C39" s="11" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="D39" s="11"/>
       <c r="E39" s="11"/>
@@ -3050,10 +3050,10 @@
         <v>25</v>
       </c>
       <c r="B40" s="11" t="s">
+        <v>291</v>
+      </c>
+      <c r="C40" s="11" t="s">
         <v>292</v>
-      </c>
-      <c r="C40" s="11" t="s">
-        <v>293</v>
       </c>
       <c r="D40" s="11"/>
       <c r="E40" s="11"/>
@@ -3378,10 +3378,10 @@
         <v>17</v>
       </c>
       <c r="B54" s="4" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C54" s="4" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D54" s="4"/>
       <c r="E54" s="4"/>
@@ -3411,17 +3411,17 @@
     </row>
     <row r="55" spans="1:26" ht="15.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A55" s="41" t="s">
+        <v>137</v>
+      </c>
+      <c r="B55" s="41" t="s">
         <v>138</v>
       </c>
-      <c r="B55" s="41" t="s">
-        <v>139</v>
-      </c>
       <c r="C55" s="41" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="D55" s="6"/>
       <c r="F55" s="43" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="I55" s="6"/>
       <c r="J55" s="6"/>
@@ -3444,17 +3444,17 @@
     </row>
     <row r="56" spans="1:26" ht="15.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A56" s="41" t="s">
+        <v>139</v>
+      </c>
+      <c r="B56" s="41" t="s">
         <v>140</v>
       </c>
-      <c r="B56" s="41" t="s">
-        <v>141</v>
-      </c>
       <c r="C56" s="41" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="D56" s="6"/>
       <c r="F56" s="43" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="I56" s="6"/>
       <c r="J56" s="6"/>
@@ -3477,17 +3477,17 @@
     </row>
     <row r="57" spans="1:26" ht="15.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A57" s="41" t="s">
+        <v>141</v>
+      </c>
+      <c r="B57" s="41" t="s">
         <v>142</v>
       </c>
-      <c r="B57" s="41" t="s">
-        <v>143</v>
-      </c>
       <c r="C57" s="41" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="D57" s="6"/>
       <c r="F57" s="43" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="I57" s="6"/>
       <c r="J57" s="6"/>
@@ -3513,14 +3513,14 @@
         <v>50</v>
       </c>
       <c r="B58" s="41" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C58" s="41" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D58" s="6"/>
       <c r="E58" s="42" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="F58" s="43"/>
       <c r="G58" s="43"/>
@@ -3549,14 +3549,14 @@
         <v>50</v>
       </c>
       <c r="B59" s="41" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C59" s="41" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D59" s="6"/>
       <c r="E59" s="42" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="F59" s="41"/>
       <c r="G59" s="41"/>
@@ -3585,14 +3585,14 @@
         <v>50</v>
       </c>
       <c r="B60" s="41" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C60" s="41" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D60" s="6"/>
       <c r="E60" s="42" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="F60" s="41"/>
       <c r="G60" s="41"/>
@@ -3621,14 +3621,14 @@
         <v>50</v>
       </c>
       <c r="B61" s="41" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C61" s="41" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D61" s="6"/>
       <c r="E61" s="42" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="F61" s="41"/>
       <c r="G61" s="41"/>
@@ -3657,14 +3657,14 @@
         <v>50</v>
       </c>
       <c r="B62" s="41" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="C62" s="41" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D62" s="6"/>
       <c r="E62" s="42" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="F62" s="41"/>
       <c r="G62" s="41"/>
@@ -3693,13 +3693,13 @@
         <v>50</v>
       </c>
       <c r="B63" s="41" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="C63" s="46" t="s">
+        <v>212</v>
+      </c>
+      <c r="E63" s="47" t="s">
         <v>213</v>
-      </c>
-      <c r="E63" s="47" t="s">
-        <v>214</v>
       </c>
       <c r="F63" s="41"/>
       <c r="G63" s="41"/>
@@ -3814,10 +3814,10 @@
         <v>17</v>
       </c>
       <c r="B67" s="4" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C67" s="4" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="D67" s="22"/>
       <c r="E67" s="22"/>
@@ -3848,14 +3848,14 @@
         <v>50</v>
       </c>
       <c r="B68" s="41" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C68" s="41" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="D68" s="22"/>
       <c r="E68" s="42" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="F68" s="22"/>
       <c r="G68" s="22"/>
@@ -3884,14 +3884,14 @@
         <v>50</v>
       </c>
       <c r="B69" s="41" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C69" s="41" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="D69" s="22"/>
       <c r="E69" s="42" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="F69" s="22"/>
       <c r="G69" s="22"/>
@@ -3920,14 +3920,14 @@
         <v>50</v>
       </c>
       <c r="B70" s="41" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C70" s="41" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="D70" s="22"/>
       <c r="E70" s="42" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="F70" s="22"/>
       <c r="G70" s="22"/>
@@ -4042,7 +4042,7 @@
         <v>17</v>
       </c>
       <c r="B74" s="4" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C74" s="4" t="s">
         <v>61</v>
@@ -4056,7 +4056,7 @@
         <v>32</v>
       </c>
       <c r="B75" s="9" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C75" s="17"/>
       <c r="D75" s="9"/>
@@ -4064,7 +4064,7 @@
       <c r="G75" s="22"/>
       <c r="H75" s="22"/>
       <c r="I75" s="6" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="76" spans="1:26" s="6" customFormat="1" ht="12.9" customHeight="1" x14ac:dyDescent="0.3">
@@ -4072,7 +4072,7 @@
         <v>32</v>
       </c>
       <c r="B76" s="9" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C76" s="17"/>
       <c r="D76" s="9"/>
@@ -4080,7 +4080,7 @@
       <c r="G76" s="22"/>
       <c r="H76" s="22"/>
       <c r="I76" s="6" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="77" spans="1:26" s="6" customFormat="1" ht="12.9" customHeight="1" x14ac:dyDescent="0.3">
@@ -4091,7 +4091,7 @@
         <v>62</v>
       </c>
       <c r="C77" s="17" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="D77" s="9"/>
       <c r="E77" s="17"/>
@@ -4103,7 +4103,7 @@
         <v>44</v>
       </c>
       <c r="B78" s="9" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="C78" s="10" t="s">
         <v>63</v>
@@ -4165,10 +4165,10 @@
         <v>17</v>
       </c>
       <c r="B83" s="40" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C83" s="40" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="D83"/>
       <c r="E83"/>
@@ -4180,17 +4180,17 @@
     </row>
     <row r="84" spans="1:25" s="4" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A84" s="41" t="s">
+        <v>200</v>
+      </c>
+      <c r="B84" s="41" t="s">
         <v>201</v>
       </c>
-      <c r="B84" s="41" t="s">
-        <v>202</v>
-      </c>
       <c r="C84" s="41" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="D84"/>
       <c r="E84" s="42" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="F84"/>
       <c r="G84"/>
@@ -4203,14 +4203,14 @@
         <v>50</v>
       </c>
       <c r="B85" s="41" t="s">
+        <v>202</v>
+      </c>
+      <c r="C85" s="41" t="s">
         <v>203</v>
-      </c>
-      <c r="C85" s="41" t="s">
-        <v>204</v>
       </c>
       <c r="D85"/>
       <c r="E85" s="42" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="F85"/>
       <c r="G85"/>
@@ -4249,10 +4249,10 @@
         <v>17</v>
       </c>
       <c r="B88" s="40" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="C88" s="40" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="D88"/>
       <c r="E88"/>
@@ -4267,14 +4267,14 @@
         <v>50</v>
       </c>
       <c r="B89" s="41" t="s">
+        <v>205</v>
+      </c>
+      <c r="C89" s="41" t="s">
         <v>206</v>
-      </c>
-      <c r="C89" s="41" t="s">
-        <v>207</v>
       </c>
       <c r="D89"/>
       <c r="E89" s="42" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="F89"/>
       <c r="G89"/>
@@ -4421,7 +4421,7 @@
         <v>74</v>
       </c>
       <c r="C95" s="24" t="s">
-        <v>75</v>
+        <v>306</v>
       </c>
       <c r="D95" s="3"/>
       <c r="E95" s="3"/>
@@ -4454,7 +4454,7 @@
         <v>51</v>
       </c>
       <c r="C96" s="27" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E96" t="s">
         <v>53</v>
@@ -4468,7 +4468,7 @@
         <v>54</v>
       </c>
       <c r="C97" s="27" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E97" t="s">
         <v>56</v>
@@ -4482,7 +4482,7 @@
         <v>57</v>
       </c>
       <c r="C98" s="27" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E98" t="s">
         <v>59</v>
@@ -4493,15 +4493,15 @@
         <v>50</v>
       </c>
       <c r="B99" s="29" t="s">
+        <v>78</v>
+      </c>
+      <c r="C99" s="30" t="s">
         <v>79</v>
-      </c>
-      <c r="C99" s="30" t="s">
-        <v>80</v>
       </c>
       <c r="D99" s="28"/>
       <c r="E99" s="28"/>
       <c r="F99" s="28" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G99" s="28"/>
       <c r="H99" s="28"/>
@@ -4528,17 +4528,17 @@
         <v>50</v>
       </c>
       <c r="B100" s="41" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C100" s="41" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="D100" s="6"/>
       <c r="E100" s="17" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="F100" s="15" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="G100" s="16"/>
       <c r="H100" s="16"/>
@@ -4565,17 +4565,17 @@
         <v>50</v>
       </c>
       <c r="B101" s="41" t="s">
+        <v>164</v>
+      </c>
+      <c r="C101" s="41" t="s">
         <v>165</v>
-      </c>
-      <c r="C101" s="41" t="s">
-        <v>166</v>
       </c>
       <c r="D101" s="6"/>
       <c r="E101" s="17" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="F101" s="16" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="G101" s="16"/>
       <c r="H101" s="16"/>
@@ -4602,17 +4602,17 @@
         <v>50</v>
       </c>
       <c r="B102" s="41" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C102" s="41" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="D102" s="6"/>
       <c r="E102" s="17" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="F102" s="16" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="G102" s="16"/>
       <c r="H102" s="16"/>
@@ -4639,17 +4639,17 @@
         <v>50</v>
       </c>
       <c r="B103" s="41" t="s">
+        <v>168</v>
+      </c>
+      <c r="C103" s="41" t="s">
         <v>169</v>
-      </c>
-      <c r="C103" s="41" t="s">
-        <v>170</v>
       </c>
       <c r="D103" s="6"/>
       <c r="E103" s="17" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="F103" s="16" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="G103" s="16"/>
       <c r="H103" s="16"/>
@@ -4676,17 +4676,17 @@
         <v>50</v>
       </c>
       <c r="B104" s="41" t="s">
+        <v>170</v>
+      </c>
+      <c r="C104" s="41" t="s">
         <v>171</v>
-      </c>
-      <c r="C104" s="41" t="s">
-        <v>172</v>
       </c>
       <c r="D104" s="6"/>
       <c r="E104" s="17" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="F104" s="16" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="G104" s="16"/>
       <c r="H104" s="16"/>
@@ -4713,17 +4713,17 @@
         <v>50</v>
       </c>
       <c r="B105" s="41" t="s">
+        <v>172</v>
+      </c>
+      <c r="C105" s="41" t="s">
         <v>173</v>
-      </c>
-      <c r="C105" s="41" t="s">
-        <v>174</v>
       </c>
       <c r="D105" s="6"/>
       <c r="E105" s="17" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="F105" s="16" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="G105" s="16"/>
       <c r="H105" s="16"/>
@@ -4750,17 +4750,17 @@
         <v>50</v>
       </c>
       <c r="B106" s="41" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C106" s="41" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D106" s="6"/>
       <c r="E106" s="17" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="F106" s="16" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="G106" s="16"/>
       <c r="H106" s="16"/>
@@ -4787,17 +4787,17 @@
         <v>50</v>
       </c>
       <c r="B107" s="41" t="s">
+        <v>175</v>
+      </c>
+      <c r="C107" s="41" t="s">
         <v>176</v>
-      </c>
-      <c r="C107" s="41" t="s">
-        <v>177</v>
       </c>
       <c r="D107" s="6"/>
       <c r="E107" s="17" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="F107" s="16" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="G107" s="16"/>
       <c r="H107" s="16"/>
@@ -4824,17 +4824,17 @@
         <v>50</v>
       </c>
       <c r="B108" s="41" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C108" s="41" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D108" s="6"/>
       <c r="E108" s="17" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="F108" s="16" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="G108" s="16"/>
       <c r="H108" s="16"/>
@@ -4861,17 +4861,17 @@
         <v>50</v>
       </c>
       <c r="B109" s="41" t="s">
+        <v>178</v>
+      </c>
+      <c r="C109" s="41" t="s">
         <v>179</v>
-      </c>
-      <c r="C109" s="41" t="s">
-        <v>180</v>
       </c>
       <c r="D109" s="6"/>
       <c r="E109" s="17" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="F109" s="16" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="G109" s="16"/>
       <c r="H109" s="16"/>
@@ -4898,17 +4898,17 @@
         <v>50</v>
       </c>
       <c r="B110" s="41" t="s">
+        <v>180</v>
+      </c>
+      <c r="C110" s="41" t="s">
         <v>181</v>
-      </c>
-      <c r="C110" s="41" t="s">
-        <v>182</v>
       </c>
       <c r="D110" s="6"/>
       <c r="E110" s="17" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="F110" s="16" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="G110" s="16"/>
       <c r="H110" s="16"/>
@@ -4935,17 +4935,17 @@
         <v>50</v>
       </c>
       <c r="B111" s="41" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C111" s="41" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D111" s="6"/>
       <c r="E111" s="17" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="F111" s="16" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="G111" s="16"/>
       <c r="H111" s="16"/>
@@ -4975,14 +4975,14 @@
         <v>30</v>
       </c>
       <c r="C112" s="41" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="D112" s="6"/>
       <c r="E112" s="17" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="F112" s="16" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="G112" s="16"/>
       <c r="H112" s="16"/>
@@ -5009,17 +5009,17 @@
         <v>50</v>
       </c>
       <c r="B113" s="43" t="s">
+        <v>184</v>
+      </c>
+      <c r="C113" s="43" t="s">
         <v>185</v>
-      </c>
-      <c r="C113" s="43" t="s">
-        <v>186</v>
       </c>
       <c r="D113" s="6"/>
       <c r="E113" s="17" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="F113" s="16" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="G113" s="16"/>
       <c r="H113" s="16"/>
@@ -5046,17 +5046,17 @@
         <v>50</v>
       </c>
       <c r="B114" s="43" t="s">
+        <v>186</v>
+      </c>
+      <c r="C114" s="43" t="s">
         <v>187</v>
-      </c>
-      <c r="C114" s="43" t="s">
-        <v>188</v>
       </c>
       <c r="D114" s="6"/>
       <c r="E114" s="17" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="F114" s="16" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="G114" s="16"/>
       <c r="H114" s="16"/>
@@ -5083,17 +5083,17 @@
         <v>50</v>
       </c>
       <c r="B115" s="43" t="s">
+        <v>188</v>
+      </c>
+      <c r="C115" s="43" t="s">
         <v>189</v>
-      </c>
-      <c r="C115" s="43" t="s">
-        <v>190</v>
       </c>
       <c r="D115" s="6"/>
       <c r="E115" s="17" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="F115" s="16" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="G115" s="16"/>
       <c r="H115" s="16"/>
@@ -5149,10 +5149,10 @@
         <v>50</v>
       </c>
       <c r="B117" s="24" t="s">
+        <v>84</v>
+      </c>
+      <c r="C117" s="17" t="s">
         <v>85</v>
-      </c>
-      <c r="C117" s="17" t="s">
-        <v>86</v>
       </c>
       <c r="D117" s="6"/>
       <c r="E117" s="17"/>
@@ -5786,7 +5786,7 @@
   <sheetData>
     <row r="1" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="33" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B1" s="33" t="s">
         <v>1</v>
@@ -5822,13 +5822,13 @@
     </row>
     <row r="2" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="18" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B2" s="18" t="s">
         <v>45</v>
       </c>
       <c r="C2" s="18" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D2" s="6"/>
       <c r="E2" s="6"/>
@@ -5854,13 +5854,13 @@
     </row>
     <row r="3" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="18" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B3" s="18" t="s">
         <v>47</v>
       </c>
       <c r="C3" s="18" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D3" s="6"/>
       <c r="E3" s="6"/>
@@ -5886,13 +5886,13 @@
     </row>
     <row r="4" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="18" t="s">
+        <v>90</v>
+      </c>
+      <c r="B4" s="18" t="s">
         <v>91</v>
       </c>
-      <c r="B4" s="18" t="s">
+      <c r="C4" s="18" t="s">
         <v>92</v>
-      </c>
-      <c r="C4" s="18" t="s">
-        <v>93</v>
       </c>
       <c r="D4" s="6"/>
       <c r="E4" s="6"/>
@@ -5920,13 +5920,13 @@
     </row>
     <row r="5" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="18" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B5" s="18" t="s">
+        <v>93</v>
+      </c>
+      <c r="C5" s="18" t="s">
         <v>94</v>
-      </c>
-      <c r="C5" s="18" t="s">
-        <v>95</v>
       </c>
       <c r="D5" s="6"/>
       <c r="E5" s="6"/>
@@ -5954,13 +5954,13 @@
     </row>
     <row r="6" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="18" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B6" s="18" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C6" s="18" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="D6" s="6"/>
       <c r="E6" s="6"/>
@@ -5988,321 +5988,321 @@
     </row>
     <row r="7" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
+        <v>102</v>
+      </c>
+      <c r="B7" t="s">
         <v>103</v>
       </c>
-      <c r="B7" t="s">
-        <v>104</v>
-      </c>
       <c r="C7" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="8" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B8" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C8" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="9" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B9" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C9" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="10" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B10" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C10" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="11" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B11" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C11" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="12" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B12" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C12" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="13" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B13" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C13" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="14" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B14" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C14" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="15" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B15" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C15" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="16" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B16" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C16" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B17" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C17" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B18" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C18" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B19" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C19" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A22" s="44" t="s">
+        <v>162</v>
+      </c>
+      <c r="B22" s="41" t="s">
+        <v>95</v>
+      </c>
+      <c r="C22" s="41" t="s">
         <v>163</v>
-      </c>
-      <c r="B22" s="41" t="s">
-        <v>96</v>
-      </c>
-      <c r="C22" s="41" t="s">
-        <v>164</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A23" s="44" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B23" s="41" t="s">
+        <v>164</v>
+      </c>
+      <c r="C23" s="41" t="s">
         <v>165</v>
-      </c>
-      <c r="C23" s="41" t="s">
-        <v>166</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A24" s="44" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B24" s="41" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C24" s="41" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A25" s="44" t="s">
+        <v>167</v>
+      </c>
+      <c r="B25" s="41" t="s">
         <v>168</v>
       </c>
-      <c r="B25" s="41" t="s">
+      <c r="C25" s="41" t="s">
         <v>169</v>
-      </c>
-      <c r="C25" s="41" t="s">
-        <v>170</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A26" s="44" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B26" s="41" t="s">
+        <v>170</v>
+      </c>
+      <c r="C26" s="41" t="s">
         <v>171</v>
-      </c>
-      <c r="C26" s="41" t="s">
-        <v>172</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A27" s="44" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B27" s="41" t="s">
+        <v>172</v>
+      </c>
+      <c r="C27" s="41" t="s">
         <v>173</v>
-      </c>
-      <c r="C27" s="41" t="s">
-        <v>174</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A28" s="44" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B28" s="41" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C28" s="41" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A29" s="44" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B29" s="41" t="s">
+        <v>175</v>
+      </c>
+      <c r="C29" s="41" t="s">
         <v>176</v>
-      </c>
-      <c r="C29" s="41" t="s">
-        <v>177</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A30" s="44" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B30" s="41" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C30" s="41" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A31" s="44" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B31" s="41" t="s">
+        <v>178</v>
+      </c>
+      <c r="C31" s="41" t="s">
         <v>179</v>
-      </c>
-      <c r="C31" s="41" t="s">
-        <v>180</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A32" s="44" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B32" s="41" t="s">
+        <v>180</v>
+      </c>
+      <c r="C32" s="41" t="s">
         <v>181</v>
-      </c>
-      <c r="C32" s="41" t="s">
-        <v>182</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A33" s="44" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B33" s="41" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C33" s="41" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A34" s="44" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B34" s="41" t="s">
         <v>30</v>
       </c>
       <c r="C34" s="41" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A35" s="44" t="s">
+        <v>183</v>
+      </c>
+      <c r="B35" s="43" t="s">
         <v>184</v>
       </c>
-      <c r="B35" s="43" t="s">
+      <c r="C35" s="43" t="s">
         <v>185</v>
-      </c>
-      <c r="C35" s="43" t="s">
-        <v>186</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A36" s="44" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B36" s="43" t="s">
+        <v>186</v>
+      </c>
+      <c r="C36" s="43" t="s">
         <v>187</v>
-      </c>
-      <c r="C36" s="43" t="s">
-        <v>188</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A37" s="44" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B37" s="43" t="s">
+        <v>188</v>
+      </c>
+      <c r="C37" s="43" t="s">
         <v>189</v>
-      </c>
-      <c r="C37" s="43" t="s">
-        <v>190</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.3">
@@ -6312,35 +6312,35 @@
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A39" s="45" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B39" s="45" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C39" s="45" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A40" s="45" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B40" s="45" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C40" s="45" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A41" s="45" t="s">
+        <v>190</v>
+      </c>
+      <c r="B41" s="45" t="s">
         <v>191</v>
       </c>
-      <c r="B41" s="45" t="s">
-        <v>192</v>
-      </c>
       <c r="C41" s="45" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
   </sheetData>
@@ -6372,25 +6372,25 @@
   <sheetData>
     <row r="1" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>118</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>119</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>122</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>123</v>
       </c>
       <c r="H1" s="1"/>
       <c r="I1" s="1"/>
@@ -6414,23 +6414,23 @@
     </row>
     <row r="2" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="B2" s="3" t="s">
         <v>124</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="C2" s="6" t="s">
         <v>125</v>
       </c>
-      <c r="C2" s="6" t="s">
+      <c r="D2" s="3" t="s">
         <v>126</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="E2" s="3" t="s">
         <v>127</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>128</v>
       </c>
       <c r="F2" s="3"/>
       <c r="G2" s="3" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="H2" s="3"/>
       <c r="I2" s="3"/>
@@ -7448,15 +7448,15 @@
   <sheetData>
     <row r="1" spans="1:15" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="35" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B1" s="35"/>
       <c r="C1" s="35" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D1" s="35"/>
       <c r="E1" s="35" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="F1" s="35"/>
       <c r="G1" s="14"/>
@@ -7488,7 +7488,7 @@
     </row>
     <row r="3" spans="1:15" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="14" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B3" s="14"/>
       <c r="C3" s="5"/>
@@ -7507,7 +7507,7 @@
     </row>
     <row r="4" spans="1:15" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="14" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B4" s="14"/>
       <c r="C4" s="36"/>
@@ -7526,7 +7526,7 @@
     </row>
     <row r="5" spans="1:15" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="14" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B5" s="14"/>
       <c r="C5" s="37"/>
@@ -7545,7 +7545,7 @@
     </row>
     <row r="6" spans="1:15" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="14" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B6" s="14"/>
       <c r="C6" s="38"/>
@@ -7564,7 +7564,7 @@
     </row>
     <row r="7" spans="1:15" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="14" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B7" s="14"/>
       <c r="C7" s="39"/>

--- a/config-boda-moh-ke-master/forms/app/case_investigation.xlsx
+++ b/config-boda-moh-ke-master/forms/app/case_investigation.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21126"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lab\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin\Dropbox\PC (2)\Desktop\newforms\Revised\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EBD35EC8-810C-4211-89D2-065122244314}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12228" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="survey" sheetId="1" r:id="rId1"/>
@@ -18,7 +17,7 @@
     <sheet name="settings" sheetId="3" r:id="rId3"/>
     <sheet name="legend" sheetId="4" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="191029" iterateDelta="1E-4"/>
+  <calcPr calcId="162913" iterateDelta="1E-4"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="ExcelA1"/>
@@ -1050,7 +1049,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="&quot;TRUE&quot;;&quot;TRUE&quot;;&quot;FALSE&quot;"/>
   </numFmts>
@@ -1694,40 +1693,40 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Z655"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A80" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C81" sqref="C81"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A68" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B87" sqref="B87"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="25.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="23.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="115.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="6.7109375" hidden="1" customWidth="1"/>
-    <col min="5" max="5" width="36.28515625" hidden="1" customWidth="1"/>
-    <col min="6" max="6" width="14.7109375" hidden="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" hidden="1" customWidth="1"/>
+    <col min="1" max="1" width="25.88671875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="23.44140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="115.44140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="6.6640625" hidden="1" customWidth="1"/>
+    <col min="5" max="5" width="36.33203125" hidden="1" customWidth="1"/>
+    <col min="6" max="6" width="14.6640625" hidden="1" customWidth="1"/>
+    <col min="7" max="7" width="14.44140625" hidden="1" customWidth="1"/>
     <col min="8" max="8" width="20" hidden="1" customWidth="1"/>
-    <col min="9" max="9" width="43.140625" customWidth="1"/>
-    <col min="10" max="10" width="9.85546875" customWidth="1"/>
+    <col min="9" max="9" width="43.109375" customWidth="1"/>
+    <col min="10" max="10" width="9.88671875" customWidth="1"/>
     <col min="11" max="11" width="16" customWidth="1"/>
-    <col min="12" max="12" width="9.42578125" customWidth="1"/>
-    <col min="13" max="13" width="5.85546875" customWidth="1"/>
-    <col min="14" max="15" width="6.7109375" customWidth="1"/>
+    <col min="12" max="12" width="9.44140625" customWidth="1"/>
+    <col min="13" max="13" width="5.88671875" customWidth="1"/>
+    <col min="14" max="15" width="6.6640625" customWidth="1"/>
     <col min="16" max="16" width="14" customWidth="1"/>
-    <col min="17" max="17" width="15.7109375" customWidth="1"/>
-    <col min="18" max="18" width="11.7109375" customWidth="1"/>
-    <col min="19" max="20" width="6.7109375" customWidth="1"/>
-    <col min="21" max="22" width="13.28515625" customWidth="1"/>
-    <col min="23" max="23" width="14.7109375" customWidth="1"/>
-    <col min="24" max="1025" width="14.42578125" customWidth="1"/>
+    <col min="17" max="17" width="15.6640625" customWidth="1"/>
+    <col min="18" max="18" width="11.6640625" customWidth="1"/>
+    <col min="19" max="20" width="6.6640625" customWidth="1"/>
+    <col min="21" max="22" width="13.33203125" customWidth="1"/>
+    <col min="23" max="23" width="14.6640625" customWidth="1"/>
+    <col min="24" max="1025" width="14.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1785,7 +1784,7 @@
       <c r="U1" s="3"/>
       <c r="V1" s="3"/>
     </row>
-    <row r="2" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
         <v>17</v>
       </c>
@@ -1823,7 +1822,7 @@
       <c r="Y2" s="3"/>
       <c r="Z2" s="3"/>
     </row>
-    <row r="3" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="6" t="s">
         <v>22</v>
       </c>
@@ -1861,7 +1860,7 @@
       <c r="Y3" s="6"/>
       <c r="Z3" s="6"/>
     </row>
-    <row r="4" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="6" t="s">
         <v>22</v>
       </c>
@@ -1897,7 +1896,7 @@
       <c r="Y4" s="6"/>
       <c r="Z4" s="6"/>
     </row>
-    <row r="5" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="7" t="s">
         <v>17</v>
       </c>
@@ -1928,7 +1927,7 @@
       <c r="X5" s="8"/>
       <c r="Y5" s="8"/>
     </row>
-    <row r="6" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="6" t="s">
         <v>25</v>
       </c>
@@ -1960,7 +1959,7 @@
       <c r="Y6" s="6"/>
       <c r="Z6" s="6"/>
     </row>
-    <row r="7" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="7" t="s">
         <v>29</v>
       </c>
@@ -1989,7 +1988,7 @@
       <c r="X7" s="8"/>
       <c r="Y7" s="8"/>
     </row>
-    <row r="8" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="11" t="s">
         <v>226</v>
       </c>
@@ -2024,7 +2023,7 @@
       <c r="X8" s="8"/>
       <c r="Y8" s="8"/>
     </row>
-    <row r="9" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="11" t="s">
         <v>25</v>
       </c>
@@ -2059,7 +2058,7 @@
       <c r="X9" s="8"/>
       <c r="Y9" s="8"/>
     </row>
-    <row r="10" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="11" t="s">
         <v>25</v>
       </c>
@@ -2094,7 +2093,7 @@
       <c r="X10" s="8"/>
       <c r="Y10" s="8"/>
     </row>
-    <row r="11" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="11" t="s">
         <v>25</v>
       </c>
@@ -2129,7 +2128,7 @@
       <c r="X11" s="8"/>
       <c r="Y11" s="8"/>
     </row>
-    <row r="12" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="11" t="s">
         <v>25</v>
       </c>
@@ -2164,7 +2163,7 @@
       <c r="X12" s="8"/>
       <c r="Y12" s="8"/>
     </row>
-    <row r="13" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="11" t="s">
         <v>25</v>
       </c>
@@ -2199,7 +2198,7 @@
       <c r="X13" s="8"/>
       <c r="Y13" s="8"/>
     </row>
-    <row r="14" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="11" t="s">
         <v>25</v>
       </c>
@@ -2232,7 +2231,7 @@
       <c r="X14" s="8"/>
       <c r="Y14" s="8"/>
     </row>
-    <row r="15" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="11" t="s">
         <v>25</v>
       </c>
@@ -2265,7 +2264,7 @@
       <c r="X15" s="8"/>
       <c r="Y15" s="8"/>
     </row>
-    <row r="16" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="11" t="s">
         <v>25</v>
       </c>
@@ -2298,7 +2297,7 @@
       <c r="X16" s="8"/>
       <c r="Y16" s="8"/>
     </row>
-    <row r="17" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="11" t="s">
         <v>25</v>
       </c>
@@ -2331,7 +2330,7 @@
       <c r="X17" s="8"/>
       <c r="Y17" s="8"/>
     </row>
-    <row r="18" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="11" t="s">
         <v>25</v>
       </c>
@@ -2364,7 +2363,7 @@
       <c r="X18" s="8"/>
       <c r="Y18" s="8"/>
     </row>
-    <row r="19" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="11" t="s">
         <v>25</v>
       </c>
@@ -2397,7 +2396,7 @@
       <c r="X19" s="8"/>
       <c r="Y19" s="8"/>
     </row>
-    <row r="20" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="11" t="s">
         <v>25</v>
       </c>
@@ -2430,7 +2429,7 @@
       <c r="X20" s="8"/>
       <c r="Y20" s="8"/>
     </row>
-    <row r="21" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="11" t="s">
         <v>25</v>
       </c>
@@ -2463,7 +2462,7 @@
       <c r="X21" s="8"/>
       <c r="Y21" s="8"/>
     </row>
-    <row r="22" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="11" t="s">
         <v>25</v>
       </c>
@@ -2496,7 +2495,7 @@
       <c r="X22" s="8"/>
       <c r="Y22" s="8"/>
     </row>
-    <row r="23" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="11" t="s">
         <v>25</v>
       </c>
@@ -2529,7 +2528,7 @@
       <c r="X23" s="8"/>
       <c r="Y23" s="8"/>
     </row>
-    <row r="24" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="11" t="s">
         <v>25</v>
       </c>
@@ -2562,7 +2561,7 @@
       <c r="X24" s="8"/>
       <c r="Y24" s="8"/>
     </row>
-    <row r="25" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="11" t="s">
         <v>25</v>
       </c>
@@ -2595,7 +2594,7 @@
       <c r="X25" s="8"/>
       <c r="Y25" s="8"/>
     </row>
-    <row r="26" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="11" t="s">
         <v>25</v>
       </c>
@@ -2628,7 +2627,7 @@
       <c r="X26" s="8"/>
       <c r="Y26" s="8"/>
     </row>
-    <row r="27" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="11" t="s">
         <v>25</v>
       </c>
@@ -2661,7 +2660,7 @@
       <c r="X27" s="8"/>
       <c r="Y27" s="8"/>
     </row>
-    <row r="28" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="11" t="s">
         <v>25</v>
       </c>
@@ -2694,7 +2693,7 @@
       <c r="X28" s="8"/>
       <c r="Y28" s="8"/>
     </row>
-    <row r="29" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="11" t="s">
         <v>25</v>
       </c>
@@ -2727,7 +2726,7 @@
       <c r="X29" s="8"/>
       <c r="Y29" s="8"/>
     </row>
-    <row r="30" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" s="11" t="s">
         <v>25</v>
       </c>
@@ -2760,7 +2759,7 @@
       <c r="X30" s="8"/>
       <c r="Y30" s="8"/>
     </row>
-    <row r="31" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" s="11" t="s">
         <v>25</v>
       </c>
@@ -2793,7 +2792,7 @@
       <c r="X31" s="8"/>
       <c r="Y31" s="8"/>
     </row>
-    <row r="32" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" s="11" t="s">
         <v>25</v>
       </c>
@@ -2826,7 +2825,7 @@
       <c r="X32" s="8"/>
       <c r="Y32" s="8"/>
     </row>
-    <row r="33" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" s="11" t="s">
         <v>25</v>
       </c>
@@ -2859,7 +2858,7 @@
       <c r="X33" s="8"/>
       <c r="Y33" s="8"/>
     </row>
-    <row r="34" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A34" s="11" t="s">
         <v>25</v>
       </c>
@@ -2892,7 +2891,7 @@
       <c r="X34" s="8"/>
       <c r="Y34" s="8"/>
     </row>
-    <row r="35" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A35" s="11" t="s">
         <v>25</v>
       </c>
@@ -2925,7 +2924,7 @@
       <c r="X35" s="8"/>
       <c r="Y35" s="8"/>
     </row>
-    <row r="36" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A36" s="11" t="s">
         <v>25</v>
       </c>
@@ -2958,7 +2957,7 @@
       <c r="X36" s="8"/>
       <c r="Y36" s="8"/>
     </row>
-    <row r="37" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A37" s="11" t="s">
         <v>25</v>
       </c>
@@ -2991,7 +2990,7 @@
       <c r="X37" s="8"/>
       <c r="Y37" s="8"/>
     </row>
-    <row r="38" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A38" s="11" t="s">
         <v>25</v>
       </c>
@@ -3024,7 +3023,7 @@
       <c r="X38" s="8"/>
       <c r="Y38" s="8"/>
     </row>
-    <row r="39" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A39" s="11" t="s">
         <v>25</v>
       </c>
@@ -3057,7 +3056,7 @@
       <c r="X39" s="8"/>
       <c r="Y39" s="8"/>
     </row>
-    <row r="40" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A40" s="11" t="s">
         <v>25</v>
       </c>
@@ -3090,7 +3089,7 @@
       <c r="X40" s="8"/>
       <c r="Y40" s="8"/>
     </row>
-    <row r="41" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A41" s="4" t="s">
         <v>29</v>
       </c>
@@ -3120,7 +3119,7 @@
       <c r="Y41" s="3"/>
       <c r="Z41" s="3"/>
     </row>
-    <row r="42" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A42" s="4"/>
       <c r="B42" s="4"/>
       <c r="C42" s="4"/>
@@ -3148,7 +3147,7 @@
       <c r="Y42" s="3"/>
       <c r="Z42" s="3"/>
     </row>
-    <row r="43" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A43" s="11" t="s">
         <v>32</v>
       </c>
@@ -3182,7 +3181,7 @@
       <c r="Y43" s="11"/>
       <c r="Z43" s="11"/>
     </row>
-    <row r="44" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A44" s="11" t="s">
         <v>32</v>
       </c>
@@ -3216,7 +3215,7 @@
       <c r="Y44" s="11"/>
       <c r="Z44" s="11"/>
     </row>
-    <row r="45" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A45" s="11" t="s">
         <v>32</v>
       </c>
@@ -3250,7 +3249,7 @@
       <c r="Y45" s="11"/>
       <c r="Z45" s="11"/>
     </row>
-    <row r="46" spans="1:26" s="11" customFormat="1" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:26" s="11" customFormat="1" ht="12.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A46" s="11" t="s">
         <v>32</v>
       </c>
@@ -3261,7 +3260,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="47" spans="1:26" s="11" customFormat="1" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:26" s="11" customFormat="1" ht="12.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A47" s="11" t="s">
         <v>32</v>
       </c>
@@ -3272,7 +3271,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="48" spans="1:26" s="11" customFormat="1" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:26" s="11" customFormat="1" ht="12.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A48" s="11" t="s">
         <v>32</v>
       </c>
@@ -3283,7 +3282,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="49" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A49" s="4" t="s">
         <v>17</v>
       </c>
@@ -3319,7 +3318,7 @@
       <c r="Y49" s="4"/>
       <c r="Z49" s="4"/>
     </row>
-    <row r="50" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A50" s="4" t="s">
         <v>48</v>
       </c>
@@ -3353,7 +3352,7 @@
       <c r="Y50" s="4"/>
       <c r="Z50" s="4"/>
     </row>
-    <row r="51" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A51" s="6" t="s">
         <v>48</v>
       </c>
@@ -3367,7 +3366,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="52" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A52" s="6" t="s">
         <v>48</v>
       </c>
@@ -3381,7 +3380,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="53" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A53" s="6" t="s">
         <v>48</v>
       </c>
@@ -3395,7 +3394,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="54" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A54" s="4" t="s">
         <v>29</v>
       </c>
@@ -3425,7 +3424,7 @@
       <c r="Y54" s="4"/>
       <c r="Z54" s="4"/>
     </row>
-    <row r="55" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A55" s="6"/>
       <c r="B55" s="6"/>
       <c r="C55" s="6"/>
@@ -3453,7 +3452,7 @@
       <c r="Y55" s="4"/>
       <c r="Z55" s="4"/>
     </row>
-    <row r="56" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A56" s="4" t="s">
         <v>17</v>
       </c>
@@ -3489,7 +3488,7 @@
       <c r="Y56" s="4"/>
       <c r="Z56" s="4"/>
     </row>
-    <row r="57" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A57" s="4" t="s">
         <v>48</v>
       </c>
@@ -3523,7 +3522,7 @@
       <c r="Y57" s="4"/>
       <c r="Z57" s="4"/>
     </row>
-    <row r="58" spans="1:26" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:26" ht="15.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A58" s="41" t="s">
         <v>135</v>
       </c>
@@ -3556,7 +3555,7 @@
       <c r="Y58" s="6"/>
       <c r="Z58" s="6"/>
     </row>
-    <row r="59" spans="1:26" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:26" ht="15.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A59" s="41" t="s">
         <v>137</v>
       </c>
@@ -3589,7 +3588,7 @@
       <c r="Y59" s="6"/>
       <c r="Z59" s="6"/>
     </row>
-    <row r="60" spans="1:26" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:26" ht="15.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A60" s="41" t="s">
         <v>139</v>
       </c>
@@ -3622,7 +3621,7 @@
       <c r="Y60" s="6"/>
       <c r="Z60" s="6"/>
     </row>
-    <row r="61" spans="1:26" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:26" ht="15.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A61" s="41" t="s">
         <v>48</v>
       </c>
@@ -3658,7 +3657,7 @@
       <c r="Y61" s="6"/>
       <c r="Z61" s="6"/>
     </row>
-    <row r="62" spans="1:26" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:26" ht="15.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A62" s="41" t="s">
         <v>48</v>
       </c>
@@ -3694,7 +3693,7 @@
       <c r="Y62" s="6"/>
       <c r="Z62" s="6"/>
     </row>
-    <row r="63" spans="1:26" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:26" ht="15.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A63" s="41" t="s">
         <v>48</v>
       </c>
@@ -3730,7 +3729,7 @@
       <c r="Y63" s="6"/>
       <c r="Z63" s="6"/>
     </row>
-    <row r="64" spans="1:26" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:26" ht="15.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A64" s="41" t="s">
         <v>48</v>
       </c>
@@ -3766,7 +3765,7 @@
       <c r="Y64" s="6"/>
       <c r="Z64" s="6"/>
     </row>
-    <row r="65" spans="1:26" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:26" ht="15.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A65" s="41" t="s">
         <v>48</v>
       </c>
@@ -3802,7 +3801,7 @@
       <c r="Y65" s="6"/>
       <c r="Z65" s="6"/>
     </row>
-    <row r="66" spans="1:26" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:26" ht="15.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A66" s="41" t="s">
         <v>48</v>
       </c>
@@ -3837,7 +3836,7 @@
       <c r="Y66" s="6"/>
       <c r="Z66" s="6"/>
     </row>
-    <row r="67" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A67" s="4" t="s">
         <v>29</v>
       </c>
@@ -3867,7 +3866,7 @@
       <c r="Y67" s="4"/>
       <c r="Z67" s="4"/>
     </row>
-    <row r="68" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A68" s="22"/>
       <c r="B68" s="22"/>
       <c r="C68" s="22"/>
@@ -3895,7 +3894,7 @@
       <c r="Y68" s="4"/>
       <c r="Z68" s="4"/>
     </row>
-    <row r="69" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A69" s="22"/>
       <c r="B69" s="22"/>
       <c r="C69" s="22"/>
@@ -3923,7 +3922,7 @@
       <c r="Y69" s="22"/>
       <c r="Z69" s="22"/>
     </row>
-    <row r="70" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A70" s="4" t="s">
         <v>17</v>
       </c>
@@ -3957,7 +3956,7 @@
       <c r="Y70" s="22"/>
       <c r="Z70" s="22"/>
     </row>
-    <row r="71" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A71" s="41" t="s">
         <v>48</v>
       </c>
@@ -3993,7 +3992,7 @@
       <c r="Y71" s="22"/>
       <c r="Z71" s="22"/>
     </row>
-    <row r="72" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A72" s="41" t="s">
         <v>48</v>
       </c>
@@ -4029,7 +4028,7 @@
       <c r="Y72" s="22"/>
       <c r="Z72" s="22"/>
     </row>
-    <row r="73" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A73" s="41" t="s">
         <v>48</v>
       </c>
@@ -4065,7 +4064,7 @@
       <c r="Y73" s="22"/>
       <c r="Z73" s="22"/>
     </row>
-    <row r="74" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A74" s="4" t="s">
         <v>29</v>
       </c>
@@ -4095,7 +4094,7 @@
       <c r="Y74" s="22"/>
       <c r="Z74" s="22"/>
     </row>
-    <row r="75" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A75" s="22"/>
       <c r="B75" s="22"/>
       <c r="C75" s="22"/>
@@ -4123,7 +4122,7 @@
       <c r="Y75" s="22"/>
       <c r="Z75" s="22"/>
     </row>
-    <row r="76" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A76" s="22"/>
       <c r="B76" s="22"/>
       <c r="C76" s="22"/>
@@ -4151,7 +4150,7 @@
       <c r="Y76" s="22"/>
       <c r="Z76" s="22"/>
     </row>
-    <row r="77" spans="1:26" s="4" customFormat="1" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:26" s="4" customFormat="1" ht="12.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A77" s="4" t="s">
         <v>17</v>
       </c>
@@ -4165,7 +4164,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="78" spans="1:26" s="6" customFormat="1" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:26" s="6" customFormat="1" ht="12.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A78" s="9" t="s">
         <v>32</v>
       </c>
@@ -4183,7 +4182,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="79" spans="1:26" s="6" customFormat="1" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:26" s="6" customFormat="1" ht="12.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A79" s="9" t="s">
         <v>32</v>
       </c>
@@ -4201,7 +4200,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="80" spans="1:26" s="6" customFormat="1" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:26" s="6" customFormat="1" ht="12.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A80" s="9" t="s">
         <v>48</v>
       </c>
@@ -4216,7 +4215,7 @@
       <c r="G80" s="22"/>
       <c r="H80" s="22"/>
     </row>
-    <row r="81" spans="1:25" s="6" customFormat="1" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:25" s="6" customFormat="1" ht="12.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A81" s="9" t="s">
         <v>43</v>
       </c>
@@ -4237,7 +4236,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="82" spans="1:25" s="6" customFormat="1" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:25" s="6" customFormat="1" ht="12.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A82" s="9" t="s">
         <v>63</v>
       </c>
@@ -4252,7 +4251,7 @@
       <c r="G82" s="22"/>
       <c r="H82" s="22"/>
     </row>
-    <row r="83" spans="1:25" s="6" customFormat="1" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:25" s="6" customFormat="1" ht="12.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A83" s="9"/>
       <c r="B83" s="9"/>
       <c r="C83" s="23"/>
@@ -4261,12 +4260,12 @@
       <c r="G83" s="22"/>
       <c r="H83" s="22"/>
     </row>
-    <row r="84" spans="1:25" s="4" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:25" s="4" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A84" s="4" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="85" spans="1:25" s="4" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:25" s="4" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A85"/>
       <c r="B85"/>
       <c r="C85"/>
@@ -4278,7 +4277,7 @@
       <c r="I85"/>
       <c r="J85"/>
     </row>
-    <row r="86" spans="1:25" s="4" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:25" s="4" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A86" s="40" t="s">
         <v>17</v>
       </c>
@@ -4296,7 +4295,7 @@
       <c r="I86"/>
       <c r="J86"/>
     </row>
-    <row r="87" spans="1:25" s="4" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:25" s="4" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A87" s="41" t="s">
         <v>198</v>
       </c>
@@ -4316,7 +4315,7 @@
       <c r="I87"/>
       <c r="J87"/>
     </row>
-    <row r="88" spans="1:25" s="4" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:25" s="4" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A88" s="41" t="s">
         <v>48</v>
       </c>
@@ -4336,7 +4335,7 @@
       <c r="I88"/>
       <c r="J88"/>
     </row>
-    <row r="89" spans="1:25" s="4" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:25" s="4" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A89" s="40" t="s">
         <v>29</v>
       </c>
@@ -4350,7 +4349,7 @@
       <c r="I89"/>
       <c r="J89"/>
     </row>
-    <row r="90" spans="1:25" s="4" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:25" s="4" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A90" s="41"/>
       <c r="B90" s="41"/>
       <c r="C90" s="41"/>
@@ -4362,7 +4361,7 @@
       <c r="I90"/>
       <c r="J90"/>
     </row>
-    <row r="91" spans="1:25" s="4" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:25" s="4" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A91" s="40" t="s">
         <v>17</v>
       </c>
@@ -4380,7 +4379,7 @@
       <c r="I91"/>
       <c r="J91"/>
     </row>
-    <row r="92" spans="1:25" s="4" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:25" s="4" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A92" s="41" t="s">
         <v>48</v>
       </c>
@@ -4400,7 +4399,7 @@
       <c r="I92"/>
       <c r="J92"/>
     </row>
-    <row r="93" spans="1:25" s="4" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:25" s="4" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A93" s="40" t="s">
         <v>29</v>
       </c>
@@ -4414,7 +4413,7 @@
       <c r="I93"/>
       <c r="J93"/>
     </row>
-    <row r="94" spans="1:25" s="4" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:25" s="4" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A94"/>
       <c r="B94"/>
       <c r="C94"/>
@@ -4426,7 +4425,7 @@
       <c r="I94"/>
       <c r="J94"/>
     </row>
-    <row r="95" spans="1:25" s="15" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:25" s="15" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A95" s="5" t="s">
         <v>17</v>
       </c>
@@ -4461,7 +4460,7 @@
       <c r="X95" s="16"/>
       <c r="Y95" s="16"/>
     </row>
-    <row r="96" spans="1:25" s="15" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:25" s="15" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A96" s="16" t="s">
         <v>48</v>
       </c>
@@ -4496,7 +4495,7 @@
       <c r="X96" s="16"/>
       <c r="Y96" s="16"/>
     </row>
-    <row r="97" spans="1:25" s="15" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:25" s="15" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A97" s="25" t="s">
         <v>48</v>
       </c>
@@ -4531,7 +4530,7 @@
       <c r="X97" s="25"/>
       <c r="Y97" s="25"/>
     </row>
-    <row r="98" spans="1:25" s="15" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:25" s="15" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A98" s="3" t="s">
         <v>48</v>
       </c>
@@ -4564,7 +4563,7 @@
       <c r="X98" s="3"/>
       <c r="Y98" s="3"/>
     </row>
-    <row r="99" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A99" s="6" t="s">
         <v>48</v>
       </c>
@@ -4578,7 +4577,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="100" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A100" s="6" t="s">
         <v>48</v>
       </c>
@@ -4592,7 +4591,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="101" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A101" s="6" t="s">
         <v>48</v>
       </c>
@@ -4606,7 +4605,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="102" spans="1:25" s="15" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:25" s="15" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A102" s="28" t="s">
         <v>48</v>
       </c>
@@ -4641,7 +4640,7 @@
       <c r="X102" s="28"/>
       <c r="Y102" s="28"/>
     </row>
-    <row r="103" spans="1:25" s="15" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:25" s="15" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A103" s="24" t="s">
         <v>48</v>
       </c>
@@ -4678,7 +4677,7 @@
       <c r="X103" s="16"/>
       <c r="Y103" s="16"/>
     </row>
-    <row r="104" spans="1:25" s="15" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:25" s="15" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A104" s="24" t="s">
         <v>48</v>
       </c>
@@ -4715,7 +4714,7 @@
       <c r="X104" s="16"/>
       <c r="Y104" s="16"/>
     </row>
-    <row r="105" spans="1:25" s="15" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:25" s="15" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A105" s="24" t="s">
         <v>48</v>
       </c>
@@ -4752,7 +4751,7 @@
       <c r="X105" s="16"/>
       <c r="Y105" s="16"/>
     </row>
-    <row r="106" spans="1:25" s="15" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:25" s="15" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A106" s="24" t="s">
         <v>48</v>
       </c>
@@ -4789,7 +4788,7 @@
       <c r="X106" s="16"/>
       <c r="Y106" s="16"/>
     </row>
-    <row r="107" spans="1:25" s="15" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:25" s="15" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A107" s="24" t="s">
         <v>48</v>
       </c>
@@ -4826,7 +4825,7 @@
       <c r="X107" s="16"/>
       <c r="Y107" s="16"/>
     </row>
-    <row r="108" spans="1:25" s="15" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:25" s="15" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A108" s="24" t="s">
         <v>48</v>
       </c>
@@ -4863,7 +4862,7 @@
       <c r="X108" s="16"/>
       <c r="Y108" s="16"/>
     </row>
-    <row r="109" spans="1:25" s="15" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:25" s="15" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A109" s="24" t="s">
         <v>48</v>
       </c>
@@ -4900,7 +4899,7 @@
       <c r="X109" s="16"/>
       <c r="Y109" s="16"/>
     </row>
-    <row r="110" spans="1:25" s="15" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:25" s="15" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A110" s="24" t="s">
         <v>48</v>
       </c>
@@ -4937,7 +4936,7 @@
       <c r="X110" s="16"/>
       <c r="Y110" s="16"/>
     </row>
-    <row r="111" spans="1:25" s="15" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:25" s="15" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A111" s="24" t="s">
         <v>48</v>
       </c>
@@ -4974,7 +4973,7 @@
       <c r="X111" s="16"/>
       <c r="Y111" s="16"/>
     </row>
-    <row r="112" spans="1:25" s="15" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:25" s="15" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A112" s="24" t="s">
         <v>48</v>
       </c>
@@ -5011,7 +5010,7 @@
       <c r="X112" s="16"/>
       <c r="Y112" s="16"/>
     </row>
-    <row r="113" spans="1:25" s="15" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:25" s="15" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A113" s="24" t="s">
         <v>48</v>
       </c>
@@ -5048,7 +5047,7 @@
       <c r="X113" s="16"/>
       <c r="Y113" s="16"/>
     </row>
-    <row r="114" spans="1:25" s="15" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:25" s="15" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A114" s="24" t="s">
         <v>48</v>
       </c>
@@ -5085,7 +5084,7 @@
       <c r="X114" s="16"/>
       <c r="Y114" s="16"/>
     </row>
-    <row r="115" spans="1:25" s="15" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:25" s="15" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A115" s="24" t="s">
         <v>48</v>
       </c>
@@ -5122,7 +5121,7 @@
       <c r="X115" s="16"/>
       <c r="Y115" s="16"/>
     </row>
-    <row r="116" spans="1:25" s="15" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:25" s="15" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A116" s="24" t="s">
         <v>48</v>
       </c>
@@ -5159,7 +5158,7 @@
       <c r="X116" s="16"/>
       <c r="Y116" s="16"/>
     </row>
-    <row r="117" spans="1:25" s="15" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:25" s="15" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A117" s="24" t="s">
         <v>48</v>
       </c>
@@ -5196,7 +5195,7 @@
       <c r="X117" s="16"/>
       <c r="Y117" s="16"/>
     </row>
-    <row r="118" spans="1:25" s="15" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:25" s="15" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A118" s="24" t="s">
         <v>48</v>
       </c>
@@ -5233,7 +5232,7 @@
       <c r="X118" s="16"/>
       <c r="Y118" s="16"/>
     </row>
-    <row r="119" spans="1:25" s="15" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:25" s="15" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A119" s="24" t="s">
         <v>48</v>
       </c>
@@ -5262,7 +5261,7 @@
       <c r="X119" s="16"/>
       <c r="Y119" s="16"/>
     </row>
-    <row r="120" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A120" s="24" t="s">
         <v>48</v>
       </c>
@@ -5295,7 +5294,7 @@
       <c r="X120" s="32"/>
       <c r="Y120" s="32"/>
     </row>
-    <row r="121" spans="1:25" s="15" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:25" s="15" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A121" s="5" t="s">
         <v>29</v>
       </c>
@@ -5324,540 +5323,540 @@
       <c r="X121" s="16"/>
       <c r="Y121" s="16"/>
     </row>
-    <row r="122" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="123" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="124" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="125" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="126" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="127" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="128" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="129" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="130" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="131" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="132" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="133" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="134" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="135" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="136" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="137" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="138" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="139" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="140" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="141" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="142" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="143" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="144" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="145" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="146" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="147" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="148" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="149" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="150" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="151" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="152" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="153" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="154" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="155" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="156" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="157" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="158" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="159" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="160" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="161" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="162" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="163" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="164" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="165" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="166" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="167" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="168" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="169" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="170" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="171" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="172" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="173" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="174" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="175" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="176" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="177" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="178" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="179" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="180" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="181" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="182" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="183" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="184" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="185" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="186" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="187" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="188" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="189" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="190" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="191" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="192" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="193" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="194" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="195" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="196" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="197" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="198" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="199" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="200" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="201" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="202" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="203" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="204" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="205" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="206" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="207" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="208" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="209" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="210" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="211" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="212" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="213" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="214" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="215" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="216" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="217" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="218" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="219" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="220" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="221" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="222" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="223" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="224" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="225" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="226" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="227" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="228" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="229" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="230" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="231" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="232" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="233" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="234" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="235" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="236" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="237" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="238" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="239" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="240" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="241" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="242" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="243" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="244" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="245" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="246" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="247" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="248" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="249" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="250" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="251" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="252" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="253" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="254" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="255" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="256" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="257" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="258" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="259" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="260" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="261" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="262" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="263" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="264" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="265" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="266" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="267" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="268" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="269" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="270" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="271" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="272" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="273" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="274" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="275" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="276" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="277" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="278" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="279" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="280" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="281" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="282" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="283" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="284" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="285" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="286" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="287" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="288" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="289" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="290" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="291" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="292" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="293" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="294" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="295" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="296" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="297" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="298" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="299" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="300" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="301" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="302" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="303" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="304" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="305" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="306" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="307" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="308" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="309" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="310" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="311" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="312" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="313" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="314" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="315" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="316" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="317" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="318" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="319" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="320" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="321" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="322" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="323" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="324" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="325" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="326" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="327" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="328" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="329" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="330" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="331" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="332" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="333" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="334" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="335" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="336" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="337" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="338" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="339" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="340" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="341" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="342" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="343" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="344" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="345" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="346" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="347" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="348" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="349" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="350" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="351" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="352" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="353" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="354" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="355" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="356" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="357" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="358" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="359" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="360" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="361" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="362" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="363" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="364" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="365" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="366" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="367" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="368" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="369" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="370" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="371" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="372" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="373" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="374" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="375" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="376" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="377" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="378" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="379" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="380" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="381" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="382" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="383" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="384" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="385" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="386" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="387" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="388" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="389" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="390" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="391" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="392" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="393" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="394" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="395" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="396" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="397" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="398" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="399" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="400" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="401" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="402" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="403" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="404" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="405" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="406" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="407" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="408" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="409" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="410" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="411" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="412" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="413" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="414" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="415" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="416" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="417" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="418" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="419" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="420" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="421" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="422" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="423" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="424" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="425" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="426" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="427" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="428" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="429" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="430" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="431" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="432" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="433" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="434" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="435" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="436" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="437" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="438" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="439" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="440" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="441" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="442" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="443" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="444" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="445" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="446" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="447" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="448" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="449" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="450" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="451" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="452" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="453" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="454" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="455" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="456" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="457" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="458" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="459" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="460" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="461" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="462" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="463" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="464" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="465" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="466" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="467" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="468" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="469" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="470" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="471" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="472" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="473" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="474" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="475" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="476" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="477" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="478" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="479" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="480" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="481" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="482" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="483" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="484" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="485" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="486" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="487" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="488" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="489" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="490" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="491" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="492" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="493" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="494" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="495" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="496" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="497" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="498" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="499" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="500" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="501" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="502" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="503" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="504" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="505" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="506" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="507" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="508" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="509" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="510" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="511" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="512" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="513" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="514" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="515" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="516" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="517" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="518" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="519" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="520" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="521" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="522" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="523" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="524" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="525" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="526" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="527" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="528" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="529" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="530" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="531" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="532" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="533" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="534" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="535" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="536" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="537" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="538" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="539" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="540" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="541" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="542" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="543" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="544" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="545" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="546" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="547" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="548" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="549" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="550" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="551" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="552" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="553" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="554" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="555" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="556" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="557" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="558" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="559" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="560" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="561" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="562" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="563" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="564" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="565" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="566" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="567" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="568" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="569" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="570" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="571" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="572" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="573" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="574" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="575" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="576" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="577" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="578" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="579" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="580" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="581" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="582" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="583" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="584" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="585" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="586" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="587" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="588" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="589" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="590" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="591" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="592" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="593" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="594" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="595" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="596" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="597" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="598" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="599" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="600" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="601" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="602" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="603" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="604" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="605" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="606" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="607" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="608" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="609" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="610" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="611" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="612" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="613" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="614" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="615" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="616" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="617" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="618" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="619" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="620" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="621" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="622" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="623" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="624" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="625" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="626" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="627" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="628" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="629" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="630" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="631" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="632" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="633" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="634" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="635" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="636" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="637" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="638" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="639" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="640" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="641" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="642" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="643" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="644" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="645" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="646" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="647" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="648" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="649" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="650" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="651" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="652" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="653" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="654" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="655" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="122" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="123" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="124" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="125" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="126" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="127" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="128" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="129" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="130" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="131" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="132" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="133" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="134" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="135" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="136" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="137" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="138" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="139" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="140" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="141" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="142" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="143" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="144" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="145" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="146" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="147" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="148" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="149" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="150" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="151" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="152" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="153" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="154" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="155" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="156" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="157" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="158" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="159" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="160" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="161" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="162" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="163" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="164" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="165" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="166" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="167" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="168" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="169" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="170" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="171" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="172" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="173" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="174" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="175" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="176" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="177" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="178" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="179" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="180" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="181" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="182" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="183" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="184" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="185" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="186" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="187" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="188" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="189" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="190" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="191" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="192" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="193" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="194" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="195" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="196" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="197" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="198" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="199" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="200" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="201" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="202" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="203" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="204" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="205" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="206" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="207" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="208" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="209" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="210" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="211" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="212" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="213" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="214" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="215" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="216" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="217" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="218" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="219" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="220" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="221" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="222" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="223" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="224" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="225" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="226" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="227" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="228" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="229" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="230" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="231" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="232" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="233" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="234" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="235" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="236" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="237" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="238" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="239" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="240" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="241" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="242" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="243" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="244" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="245" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="246" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="247" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="248" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="249" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="250" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="251" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="252" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="253" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="254" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="255" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="256" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="257" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="258" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="259" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="260" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="261" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="262" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="263" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="264" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="265" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="266" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="267" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="268" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="269" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="270" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="271" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="272" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="273" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="274" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="275" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="276" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="277" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="278" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="279" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="280" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="281" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="282" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="283" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="284" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="285" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="286" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="287" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="288" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="289" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="290" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="291" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="292" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="293" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="294" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="295" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="296" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="297" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="298" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="299" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="300" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="301" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="302" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="303" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="304" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="305" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="306" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="307" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="308" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="309" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="310" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="311" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="312" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="313" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="314" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="315" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="316" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="317" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="318" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="319" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="320" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="321" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="322" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="323" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="324" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="325" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="326" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="327" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="328" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="329" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="330" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="331" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="332" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="333" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="334" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="335" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="336" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="337" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="338" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="339" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="340" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="341" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="342" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="343" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="344" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="345" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="346" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="347" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="348" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="349" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="350" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="351" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="352" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="353" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="354" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="355" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="356" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="357" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="358" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="359" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="360" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="361" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="362" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="363" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="364" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="365" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="366" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="367" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="368" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="369" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="370" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="371" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="372" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="373" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="374" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="375" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="376" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="377" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="378" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="379" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="380" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="381" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="382" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="383" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="384" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="385" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="386" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="387" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="388" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="389" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="390" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="391" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="392" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="393" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="394" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="395" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="396" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="397" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="398" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="399" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="400" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="401" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="402" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="403" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="404" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="405" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="406" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="407" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="408" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="409" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="410" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="411" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="412" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="413" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="414" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="415" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="416" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="417" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="418" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="419" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="420" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="421" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="422" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="423" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="424" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="425" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="426" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="427" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="428" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="429" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="430" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="431" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="432" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="433" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="434" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="435" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="436" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="437" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="438" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="439" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="440" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="441" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="442" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="443" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="444" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="445" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="446" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="447" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="448" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="449" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="450" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="451" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="452" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="453" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="454" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="455" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="456" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="457" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="458" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="459" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="460" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="461" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="462" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="463" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="464" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="465" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="466" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="467" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="468" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="469" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="470" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="471" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="472" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="473" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="474" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="475" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="476" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="477" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="478" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="479" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="480" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="481" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="482" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="483" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="484" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="485" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="486" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="487" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="488" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="489" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="490" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="491" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="492" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="493" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="494" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="495" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="496" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="497" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="498" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="499" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="500" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="501" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="502" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="503" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="504" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="505" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="506" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="507" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="508" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="509" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="510" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="511" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="512" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="513" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="514" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="515" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="516" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="517" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="518" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="519" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="520" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="521" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="522" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="523" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="524" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="525" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="526" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="527" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="528" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="529" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="530" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="531" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="532" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="533" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="534" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="535" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="536" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="537" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="538" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="539" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="540" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="541" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="542" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="543" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="544" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="545" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="546" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="547" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="548" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="549" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="550" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="551" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="552" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="553" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="554" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="555" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="556" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="557" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="558" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="559" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="560" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="561" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="562" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="563" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="564" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="565" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="566" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="567" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="568" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="569" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="570" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="571" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="572" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="573" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="574" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="575" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="576" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="577" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="578" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="579" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="580" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="581" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="582" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="583" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="584" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="585" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="586" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="587" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="588" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="589" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="590" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="591" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="592" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="593" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="594" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="595" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="596" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="597" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="598" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="599" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="600" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="601" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="602" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="603" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="604" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="605" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="606" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="607" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="608" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="609" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="610" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="611" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="612" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="613" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="614" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="615" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="616" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="617" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="618" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="619" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="620" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="621" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="622" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="623" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="624" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="625" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="626" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="627" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="628" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="629" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="630" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="631" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="632" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="633" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="634" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="635" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="636" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="637" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="638" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="639" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="640" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="641" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="642" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="643" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="644" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="645" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="646" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="647" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="648" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="649" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="650" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="651" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="652" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="653" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="654" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="655" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <conditionalFormatting sqref="A97">
     <cfRule type="cellIs" dxfId="2" priority="2" operator="equal">
@@ -5875,7 +5874,7 @@
     </cfRule>
   </conditionalFormatting>
   <hyperlinks>
-    <hyperlink ref="C66" r:id="rId1" display="mailto:info@agra.org" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="C66" r:id="rId1" display="mailto:info@agra.org"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
@@ -5883,26 +5882,25 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:Z41"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:Z42"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B22" sqref="B22:B37"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A7" sqref="A7:C20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="28.42578125" customWidth="1"/>
-    <col min="2" max="2" width="37" customWidth="1"/>
-    <col min="3" max="3" width="26" customWidth="1"/>
-    <col min="4" max="4" width="16.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="11" width="6.7109375" customWidth="1"/>
-    <col min="12" max="24" width="8.85546875" customWidth="1"/>
-    <col min="25" max="1025" width="14.42578125" customWidth="1"/>
+    <col min="1" max="1" width="12.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="40.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="11" width="6.6640625" customWidth="1"/>
+    <col min="12" max="24" width="8.88671875" customWidth="1"/>
+    <col min="25" max="1025" width="14.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="33" t="s">
         <v>84</v>
       </c>
@@ -5938,7 +5936,7 @@
       <c r="W1" s="34"/>
       <c r="X1" s="34"/>
     </row>
-    <row r="2" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="18" t="s">
         <v>85</v>
       </c>
@@ -5970,7 +5968,7 @@
       <c r="W2" s="6"/>
       <c r="X2" s="6"/>
     </row>
-    <row r="3" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="18" t="s">
         <v>85</v>
       </c>
@@ -6002,7 +6000,7 @@
       <c r="W3" s="6"/>
       <c r="X3" s="6"/>
     </row>
-    <row r="4" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="18" t="s">
         <v>88</v>
       </c>
@@ -6036,7 +6034,7 @@
       <c r="Y4" s="3"/>
       <c r="Z4" s="3"/>
     </row>
-    <row r="5" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="18" t="s">
         <v>88</v>
       </c>
@@ -6070,16 +6068,10 @@
       <c r="Y5" s="3"/>
       <c r="Z5" s="3"/>
     </row>
-    <row r="6" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="18" t="s">
-        <v>100</v>
-      </c>
-      <c r="B6" s="18" t="s">
-        <v>213</v>
-      </c>
-      <c r="C6" s="18" t="s">
-        <v>213</v>
-      </c>
+    <row r="6" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="18"/>
+      <c r="B6" s="18"/>
+      <c r="C6" s="18"/>
       <c r="D6" s="6"/>
       <c r="E6" s="6"/>
       <c r="F6" s="6"/>
@@ -6104,360 +6096,394 @@
       <c r="Y6" s="3"/>
       <c r="Z6" s="3"/>
     </row>
-    <row r="7" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
+    <row r="7" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="18" t="s">
         <v>100</v>
       </c>
-      <c r="B7" t="s">
-        <v>101</v>
-      </c>
-      <c r="C7" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="8" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="B7" s="18" t="s">
+        <v>213</v>
+      </c>
+      <c r="C7" s="18" t="s">
+        <v>213</v>
+      </c>
+      <c r="D7" s="6"/>
+      <c r="E7" s="6"/>
+      <c r="F7" s="6"/>
+      <c r="G7" s="6"/>
+      <c r="H7" s="6"/>
+      <c r="I7" s="6"/>
+      <c r="J7" s="6"/>
+      <c r="K7" s="6"/>
+      <c r="L7" s="6"/>
+      <c r="M7" s="6"/>
+      <c r="N7" s="6"/>
+      <c r="O7" s="6"/>
+      <c r="P7" s="6"/>
+      <c r="Q7" s="6"/>
+      <c r="R7" s="6"/>
+      <c r="S7" s="6"/>
+      <c r="T7" s="6"/>
+      <c r="U7" s="6"/>
+      <c r="V7" s="6"/>
+      <c r="W7" s="6"/>
+      <c r="X7" s="6"/>
+      <c r="Y7" s="3"/>
+      <c r="Z7" s="3"/>
+    </row>
+    <row r="8" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>100</v>
       </c>
       <c r="B8" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C8" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="9" spans="1:26" x14ac:dyDescent="0.25">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="9" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>100</v>
       </c>
       <c r="B9" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C9" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="10" spans="1:26" x14ac:dyDescent="0.25">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="10" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>100</v>
       </c>
       <c r="B10" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C10" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="11" spans="1:26" x14ac:dyDescent="0.25">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="11" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>100</v>
       </c>
       <c r="B11" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C11" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="12" spans="1:26" x14ac:dyDescent="0.25">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="12" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>100</v>
       </c>
       <c r="B12" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C12" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="13" spans="1:26" x14ac:dyDescent="0.25">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="13" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>100</v>
       </c>
       <c r="B13" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C13" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="14" spans="1:26" x14ac:dyDescent="0.25">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="14" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>100</v>
       </c>
       <c r="B14" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C14" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="15" spans="1:26" x14ac:dyDescent="0.25">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="15" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>100</v>
       </c>
       <c r="B15" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C15" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="16" spans="1:26" x14ac:dyDescent="0.25">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="16" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>100</v>
       </c>
       <c r="B16" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C16" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>100</v>
       </c>
       <c r="B17" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C17" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>100</v>
       </c>
       <c r="B18" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C18" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>100</v>
       </c>
       <c r="B19" t="s">
+        <v>112</v>
+      </c>
+      <c r="C19" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>100</v>
+      </c>
+      <c r="B20" t="s">
         <v>113</v>
       </c>
-      <c r="C19" t="s">
+      <c r="C20" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A22" s="44" t="s">
-        <v>160</v>
-      </c>
-      <c r="B22" s="41" t="s">
-        <v>93</v>
-      </c>
-      <c r="C22" s="41" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A23" s="44" t="s">
         <v>160</v>
       </c>
       <c r="B23" s="41" t="s">
-        <v>162</v>
+        <v>93</v>
       </c>
       <c r="C23" s="41" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A24" s="44" t="s">
         <v>160</v>
       </c>
       <c r="B24" s="41" t="s">
+        <v>162</v>
+      </c>
+      <c r="C24" s="41" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A25" s="44" t="s">
+        <v>160</v>
+      </c>
+      <c r="B25" s="41" t="s">
         <v>99</v>
       </c>
-      <c r="C24" s="41" t="s">
+      <c r="C25" s="41" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A25" s="44" t="s">
-        <v>165</v>
-      </c>
-      <c r="B25" s="41" t="s">
-        <v>166</v>
-      </c>
-      <c r="C25" s="41" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A26" s="44" t="s">
         <v>165</v>
       </c>
       <c r="B26" s="41" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="C26" s="41" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A27" s="44" t="s">
         <v>165</v>
       </c>
       <c r="B27" s="41" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="C27" s="41" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A28" s="44" t="s">
         <v>165</v>
       </c>
       <c r="B28" s="41" t="s">
-        <v>95</v>
+        <v>170</v>
       </c>
       <c r="C28" s="41" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A29" s="44" t="s">
         <v>165</v>
       </c>
       <c r="B29" s="41" t="s">
-        <v>173</v>
+        <v>95</v>
       </c>
       <c r="C29" s="41" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A30" s="44" t="s">
         <v>165</v>
       </c>
       <c r="B30" s="41" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="C30" s="41" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A31" s="44" t="s">
         <v>165</v>
       </c>
       <c r="B31" s="41" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C31" s="41" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A32" s="44" t="s">
         <v>165</v>
       </c>
       <c r="B32" s="41" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="C32" s="41" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A33" s="44" t="s">
         <v>165</v>
       </c>
       <c r="B33" s="41" t="s">
-        <v>94</v>
+        <v>178</v>
       </c>
       <c r="C33" s="41" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A34" s="44" t="s">
         <v>165</v>
       </c>
       <c r="B34" s="41" t="s">
+        <v>94</v>
+      </c>
+      <c r="C34" s="41" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A35" s="44" t="s">
+        <v>165</v>
+      </c>
+      <c r="B35" s="41" t="s">
         <v>30</v>
       </c>
-      <c r="C34" s="41" t="s">
+      <c r="C35" s="41" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A35" s="44" t="s">
-        <v>181</v>
-      </c>
-      <c r="B35" s="43" t="s">
-        <v>182</v>
-      </c>
-      <c r="C35" s="43" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A36" s="44" t="s">
         <v>181</v>
       </c>
       <c r="B36" s="43" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="C36" s="43" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A37" s="44" t="s">
         <v>181</v>
       </c>
       <c r="B37" s="43" t="s">
+        <v>184</v>
+      </c>
+      <c r="C37" s="43" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A38" s="44" t="s">
+        <v>181</v>
+      </c>
+      <c r="B38" s="43" t="s">
         <v>186</v>
       </c>
-      <c r="C37" s="43" t="s">
+      <c r="C38" s="43" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A38" s="45"/>
-      <c r="B38" s="45"/>
-      <c r="C38" s="45"/>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A39" s="45" t="s">
-        <v>188</v>
-      </c>
-      <c r="B39" s="45" t="s">
-        <v>97</v>
-      </c>
-      <c r="C39" s="45" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A39" s="45"/>
+      <c r="B39" s="45"/>
+      <c r="C39" s="45"/>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A40" s="45" t="s">
         <v>188</v>
       </c>
       <c r="B40" s="45" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C40" s="45" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A41" s="45" t="s">
         <v>188</v>
       </c>
       <c r="B41" s="45" t="s">
+        <v>98</v>
+      </c>
+      <c r="C41" s="45" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A42" s="45" t="s">
+        <v>188</v>
+      </c>
+      <c r="B42" s="45" t="s">
         <v>189</v>
       </c>
-      <c r="C41" s="45" t="s">
+      <c r="C42" s="45" t="s">
         <v>189</v>
       </c>
     </row>
@@ -6468,27 +6494,27 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Z1000"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="25.140625" customWidth="1"/>
+    <col min="1" max="1" width="25.109375" customWidth="1"/>
     <col min="2" max="2" width="19" customWidth="1"/>
-    <col min="3" max="3" width="10.28515625" customWidth="1"/>
-    <col min="4" max="4" width="12.28515625" customWidth="1"/>
-    <col min="5" max="5" width="12.42578125" customWidth="1"/>
-    <col min="6" max="6" width="30.140625" customWidth="1"/>
-    <col min="7" max="16" width="6.7109375" customWidth="1"/>
-    <col min="17" max="26" width="8.85546875" customWidth="1"/>
-    <col min="27" max="1025" width="14.42578125" customWidth="1"/>
+    <col min="3" max="3" width="10.33203125" customWidth="1"/>
+    <col min="4" max="4" width="12.33203125" customWidth="1"/>
+    <col min="5" max="5" width="12.44140625" customWidth="1"/>
+    <col min="6" max="6" width="30.109375" customWidth="1"/>
+    <col min="7" max="16" width="6.6640625" customWidth="1"/>
+    <col min="17" max="26" width="8.88671875" customWidth="1"/>
+    <col min="27" max="1025" width="14.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>114</v>
       </c>
@@ -6530,7 +6556,7 @@
       <c r="Y1" s="1"/>
       <c r="Z1" s="1"/>
     </row>
-    <row r="2" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
         <v>121</v>
       </c>
@@ -6560,986 +6586,986 @@
       <c r="O2" s="3"/>
       <c r="P2" s="3"/>
     </row>
-    <row r="21" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="29" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="30" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="31" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="32" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="33" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="34" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="37" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="38" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="39" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="40" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="41" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="42" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="43" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="44" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="46" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="47" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="48" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="49" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="51" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="52" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="53" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="54" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="55" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="56" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="57" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="59" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="60" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="61" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="62" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="63" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="64" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="65" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="66" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="67" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="68" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="69" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="70" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="71" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="72" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="73" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="74" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="75" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="76" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="77" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="78" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="79" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="80" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="81" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="82" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="83" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="84" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="85" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="86" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="87" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="88" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="89" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="90" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="91" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="92" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="93" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="94" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="95" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="96" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="97" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="98" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="99" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="100" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="101" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="102" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="103" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="104" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="105" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="106" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="107" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="108" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="109" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="110" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="111" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="112" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="113" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="114" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="115" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="116" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="117" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="118" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="119" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="120" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="121" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="122" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="123" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="124" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="125" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="126" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="127" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="128" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="129" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="130" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="131" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="132" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="133" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="134" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="135" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="136" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="137" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="138" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="139" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="140" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="141" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="142" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="143" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="144" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="145" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="146" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="147" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="148" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="149" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="150" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="151" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="152" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="153" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="154" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="155" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="156" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="157" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="158" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="159" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="160" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="161" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="162" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="163" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="164" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="165" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="166" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="167" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="168" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="169" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="170" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="171" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="172" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="173" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="174" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="175" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="176" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="177" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="178" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="179" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="180" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="181" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="182" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="183" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="184" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="185" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="186" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="187" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="188" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="189" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="190" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="191" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="192" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="193" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="194" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="195" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="196" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="197" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="198" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="199" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="200" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="201" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="202" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="203" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="204" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="205" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="206" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="207" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="208" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="209" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="210" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="211" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="212" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="213" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="214" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="215" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="216" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="217" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="218" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="219" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="220" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="221" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="222" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="223" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="224" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="225" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="226" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="227" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="228" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="229" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="230" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="231" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="232" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="233" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="234" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="235" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="236" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="237" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="238" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="239" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="240" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="241" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="242" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="243" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="244" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="245" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="246" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="247" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="248" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="249" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="250" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="251" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="252" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="253" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="254" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="255" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="256" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="257" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="258" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="259" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="260" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="261" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="262" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="263" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="264" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="265" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="266" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="267" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="268" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="269" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="270" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="271" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="272" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="273" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="274" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="275" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="276" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="277" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="278" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="279" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="280" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="281" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="282" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="283" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="284" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="285" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="286" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="287" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="288" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="289" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="290" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="291" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="292" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="293" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="294" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="295" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="296" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="297" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="298" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="299" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="300" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="301" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="302" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="303" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="304" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="305" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="306" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="307" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="308" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="309" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="310" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="311" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="312" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="313" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="314" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="315" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="316" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="317" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="318" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="319" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="320" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="321" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="322" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="323" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="324" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="325" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="326" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="327" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="328" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="329" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="330" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="331" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="332" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="333" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="334" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="335" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="336" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="337" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="338" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="339" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="340" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="341" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="342" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="343" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="344" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="345" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="346" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="347" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="348" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="349" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="350" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="351" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="352" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="353" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="354" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="355" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="356" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="357" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="358" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="359" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="360" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="361" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="362" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="363" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="364" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="365" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="366" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="367" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="368" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="369" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="370" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="371" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="372" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="373" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="374" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="375" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="376" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="377" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="378" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="379" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="380" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="381" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="382" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="383" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="384" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="385" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="386" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="387" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="388" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="389" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="390" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="391" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="392" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="393" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="394" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="395" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="396" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="397" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="398" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="399" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="400" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="401" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="402" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="403" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="404" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="405" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="406" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="407" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="408" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="409" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="410" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="411" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="412" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="413" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="414" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="415" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="416" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="417" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="418" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="419" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="420" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="421" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="422" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="423" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="424" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="425" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="426" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="427" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="428" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="429" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="430" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="431" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="432" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="433" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="434" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="435" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="436" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="437" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="438" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="439" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="440" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="441" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="442" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="443" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="444" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="445" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="446" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="447" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="448" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="449" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="450" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="451" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="452" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="453" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="454" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="455" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="456" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="457" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="458" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="459" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="460" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="461" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="462" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="463" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="464" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="465" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="466" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="467" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="468" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="469" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="470" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="471" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="472" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="473" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="474" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="475" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="476" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="477" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="478" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="479" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="480" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="481" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="482" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="483" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="484" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="485" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="486" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="487" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="488" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="489" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="490" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="491" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="492" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="493" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="494" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="495" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="496" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="497" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="498" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="499" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="500" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="501" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="502" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="503" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="504" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="505" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="506" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="507" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="508" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="509" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="510" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="511" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="512" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="513" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="514" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="515" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="516" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="517" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="518" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="519" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="520" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="521" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="522" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="523" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="524" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="525" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="526" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="527" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="528" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="529" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="530" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="531" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="532" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="533" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="534" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="535" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="536" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="537" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="538" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="539" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="540" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="541" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="542" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="543" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="544" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="545" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="546" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="547" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="548" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="549" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="550" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="551" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="552" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="553" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="554" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="555" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="556" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="557" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="558" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="559" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="560" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="561" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="562" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="563" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="564" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="565" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="566" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="567" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="568" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="569" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="570" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="571" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="572" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="573" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="574" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="575" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="576" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="577" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="578" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="579" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="580" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="581" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="582" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="583" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="584" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="585" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="586" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="587" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="588" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="589" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="590" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="591" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="592" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="593" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="594" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="595" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="596" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="597" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="598" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="599" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="600" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="601" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="602" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="603" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="604" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="605" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="606" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="607" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="608" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="609" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="610" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="611" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="612" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="613" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="614" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="615" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="616" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="617" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="618" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="619" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="620" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="621" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="622" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="623" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="624" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="625" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="626" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="627" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="628" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="629" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="630" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="631" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="632" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="633" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="634" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="635" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="636" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="637" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="638" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="639" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="640" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="641" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="642" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="643" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="644" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="645" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="646" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="647" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="648" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="649" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="650" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="651" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="652" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="653" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="654" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="655" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="656" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="657" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="658" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="659" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="660" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="661" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="662" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="663" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="664" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="665" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="666" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="667" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="668" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="669" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="670" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="671" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="672" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="673" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="674" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="675" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="676" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="677" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="678" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="679" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="680" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="681" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="682" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="683" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="684" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="685" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="686" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="687" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="688" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="689" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="690" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="691" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="692" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="693" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="694" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="695" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="696" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="697" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="698" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="699" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="700" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="701" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="702" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="703" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="704" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="705" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="706" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="707" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="708" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="709" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="710" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="711" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="712" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="713" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="714" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="715" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="716" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="717" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="718" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="719" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="720" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="721" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="722" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="723" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="724" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="725" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="726" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="727" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="728" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="729" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="730" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="731" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="732" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="733" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="734" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="735" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="736" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="737" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="738" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="739" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="740" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="741" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="742" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="743" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="744" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="745" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="746" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="747" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="748" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="749" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="750" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="751" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="752" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="753" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="754" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="755" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="756" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="757" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="758" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="759" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="760" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="761" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="762" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="763" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="764" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="765" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="766" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="767" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="768" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="769" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="770" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="771" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="772" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="773" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="774" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="775" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="776" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="777" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="778" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="779" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="780" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="781" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="782" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="783" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="784" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="785" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="786" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="787" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="788" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="789" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="790" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="791" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="792" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="793" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="794" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="795" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="796" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="797" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="798" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="799" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="800" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="801" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="802" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="803" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="804" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="805" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="806" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="807" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="808" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="809" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="810" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="811" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="812" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="813" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="814" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="815" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="816" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="817" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="818" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="819" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="820" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="821" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="822" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="823" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="824" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="825" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="826" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="827" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="828" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="829" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="830" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="831" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="832" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="833" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="834" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="835" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="836" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="837" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="838" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="839" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="840" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="841" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="842" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="843" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="844" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="845" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="846" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="847" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="848" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="849" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="850" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="851" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="852" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="853" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="854" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="855" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="856" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="857" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="858" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="859" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="860" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="861" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="862" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="863" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="864" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="865" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="866" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="867" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="868" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="869" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="870" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="871" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="872" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="873" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="874" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="875" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="876" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="877" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="878" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="879" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="880" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="881" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="882" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="883" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="884" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="885" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="886" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="887" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="888" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="889" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="890" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="891" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="892" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="893" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="894" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="895" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="896" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="897" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="898" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="899" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="900" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="901" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="902" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="903" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="904" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="905" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="906" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="907" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="908" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="909" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="910" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="911" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="912" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="913" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="914" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="915" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="916" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="917" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="918" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="919" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="920" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="921" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="922" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="923" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="924" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="925" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="926" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="927" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="928" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="929" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="930" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="931" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="932" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="933" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="934" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="935" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="936" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="937" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="938" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="939" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="940" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="941" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="942" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="943" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="944" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="945" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="946" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="947" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="948" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="949" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="950" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="951" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="952" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="953" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="954" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="955" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="956" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="957" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="958" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="959" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="960" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="961" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="962" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="963" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="964" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="965" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="966" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="967" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="968" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="969" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="970" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="971" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="972" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="973" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="974" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="975" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="976" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="977" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="978" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="979" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="980" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="981" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="982" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="983" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="984" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="985" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="986" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="987" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="988" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="989" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="990" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="991" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="992" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="993" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="994" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="995" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="996" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="997" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="998" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="999" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="1000" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="21" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="22" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="23" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="27" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="29" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="30" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="32" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="33" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="34" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="36" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="37" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="38" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="39" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="40" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="41" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="42" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="43" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="44" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="45" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="47" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="48" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="49" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="51" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="52" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="53" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="54" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="55" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="56" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="57" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="59" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="60" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="61" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="62" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="63" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="64" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="65" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="66" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="67" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="68" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="69" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="70" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="71" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="72" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="73" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="74" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="75" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="76" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="77" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="78" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="79" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="80" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="81" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="82" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="83" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="84" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="85" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="86" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="87" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="88" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="89" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="90" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="91" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="92" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="93" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="94" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="95" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="96" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="97" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="98" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="99" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="100" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="101" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="102" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="103" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="104" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="105" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="106" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="107" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="108" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="109" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="110" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="111" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="112" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="113" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="114" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="115" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="116" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="117" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="118" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="119" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="120" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="121" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="122" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="123" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="124" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="125" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="126" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="127" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="128" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="129" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="130" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="131" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="132" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="133" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="134" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="135" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="136" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="137" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="138" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="139" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="140" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="141" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="142" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="143" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="144" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="145" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="146" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="147" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="148" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="149" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="150" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="151" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="152" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="153" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="154" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="155" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="156" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="157" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="158" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="159" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="160" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="161" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="162" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="163" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="164" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="165" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="166" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="167" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="168" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="169" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="170" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="171" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="172" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="173" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="174" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="175" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="176" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="177" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="178" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="179" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="180" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="181" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="182" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="183" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="184" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="185" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="186" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="187" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="188" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="189" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="190" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="191" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="192" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="193" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="194" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="195" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="196" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="197" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="198" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="199" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="200" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="201" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="202" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="203" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="204" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="205" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="206" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="207" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="208" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="209" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="210" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="211" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="212" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="213" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="214" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="215" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="216" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="217" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="218" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="219" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="220" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="221" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="222" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="223" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="224" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="225" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="226" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="227" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="228" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="229" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="230" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="231" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="232" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="233" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="234" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="235" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="236" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="237" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="238" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="239" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="240" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="241" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="242" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="243" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="244" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="245" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="246" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="247" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="248" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="249" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="250" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="251" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="252" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="253" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="254" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="255" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="256" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="257" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="258" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="259" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="260" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="261" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="262" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="263" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="264" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="265" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="266" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="267" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="268" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="269" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="270" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="271" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="272" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="273" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="274" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="275" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="276" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="277" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="278" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="279" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="280" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="281" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="282" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="283" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="284" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="285" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="286" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="287" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="288" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="289" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="290" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="291" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="292" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="293" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="294" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="295" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="296" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="297" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="298" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="299" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="300" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="301" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="302" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="303" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="304" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="305" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="306" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="307" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="308" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="309" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="310" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="311" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="312" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="313" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="314" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="315" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="316" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="317" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="318" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="319" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="320" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="321" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="322" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="323" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="324" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="325" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="326" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="327" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="328" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="329" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="330" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="331" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="332" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="333" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="334" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="335" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="336" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="337" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="338" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="339" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="340" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="341" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="342" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="343" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="344" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="345" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="346" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="347" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="348" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="349" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="350" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="351" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="352" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="353" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="354" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="355" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="356" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="357" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="358" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="359" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="360" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="361" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="362" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="363" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="364" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="365" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="366" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="367" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="368" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="369" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="370" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="371" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="372" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="373" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="374" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="375" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="376" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="377" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="378" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="379" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="380" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="381" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="382" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="383" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="384" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="385" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="386" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="387" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="388" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="389" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="390" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="391" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="392" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="393" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="394" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="395" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="396" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="397" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="398" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="399" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="400" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="401" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="402" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="403" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="404" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="405" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="406" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="407" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="408" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="409" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="410" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="411" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="412" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="413" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="414" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="415" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="416" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="417" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="418" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="419" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="420" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="421" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="422" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="423" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="424" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="425" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="426" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="427" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="428" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="429" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="430" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="431" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="432" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="433" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="434" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="435" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="436" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="437" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="438" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="439" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="440" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="441" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="442" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="443" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="444" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="445" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="446" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="447" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="448" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="449" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="450" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="451" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="452" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="453" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="454" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="455" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="456" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="457" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="458" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="459" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="460" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="461" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="462" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="463" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="464" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="465" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="466" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="467" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="468" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="469" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="470" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="471" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="472" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="473" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="474" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="475" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="476" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="477" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="478" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="479" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="480" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="481" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="482" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="483" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="484" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="485" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="486" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="487" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="488" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="489" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="490" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="491" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="492" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="493" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="494" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="495" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="496" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="497" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="498" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="499" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="500" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="501" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="502" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="503" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="504" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="505" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="506" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="507" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="508" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="509" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="510" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="511" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="512" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="513" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="514" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="515" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="516" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="517" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="518" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="519" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="520" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="521" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="522" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="523" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="524" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="525" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="526" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="527" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="528" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="529" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="530" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="531" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="532" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="533" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="534" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="535" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="536" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="537" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="538" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="539" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="540" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="541" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="542" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="543" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="544" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="545" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="546" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="547" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="548" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="549" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="550" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="551" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="552" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="553" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="554" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="555" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="556" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="557" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="558" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="559" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="560" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="561" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="562" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="563" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="564" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="565" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="566" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="567" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="568" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="569" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="570" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="571" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="572" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="573" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="574" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="575" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="576" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="577" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="578" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="579" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="580" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="581" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="582" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="583" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="584" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="585" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="586" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="587" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="588" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="589" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="590" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="591" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="592" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="593" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="594" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="595" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="596" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="597" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="598" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="599" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="600" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="601" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="602" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="603" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="604" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="605" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="606" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="607" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="608" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="609" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="610" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="611" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="612" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="613" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="614" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="615" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="616" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="617" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="618" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="619" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="620" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="621" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="622" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="623" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="624" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="625" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="626" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="627" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="628" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="629" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="630" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="631" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="632" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="633" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="634" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="635" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="636" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="637" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="638" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="639" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="640" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="641" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="642" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="643" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="644" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="645" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="646" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="647" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="648" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="649" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="650" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="651" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="652" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="653" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="654" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="655" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="656" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="657" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="658" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="659" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="660" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="661" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="662" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="663" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="664" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="665" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="666" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="667" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="668" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="669" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="670" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="671" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="672" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="673" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="674" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="675" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="676" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="677" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="678" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="679" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="680" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="681" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="682" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="683" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="684" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="685" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="686" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="687" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="688" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="689" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="690" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="691" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="692" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="693" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="694" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="695" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="696" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="697" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="698" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="699" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="700" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="701" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="702" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="703" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="704" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="705" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="706" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="707" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="708" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="709" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="710" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="711" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="712" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="713" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="714" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="715" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="716" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="717" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="718" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="719" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="720" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="721" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="722" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="723" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="724" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="725" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="726" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="727" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="728" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="729" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="730" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="731" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="732" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="733" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="734" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="735" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="736" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="737" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="738" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="739" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="740" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="741" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="742" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="743" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="744" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="745" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="746" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="747" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="748" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="749" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="750" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="751" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="752" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="753" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="754" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="755" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="756" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="757" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="758" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="759" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="760" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="761" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="762" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="763" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="764" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="765" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="766" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="767" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="768" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="769" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="770" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="771" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="772" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="773" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="774" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="775" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="776" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="777" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="778" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="779" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="780" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="781" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="782" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="783" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="784" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="785" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="786" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="787" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="788" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="789" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="790" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="791" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="792" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="793" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="794" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="795" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="796" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="797" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="798" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="799" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="800" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="801" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="802" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="803" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="804" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="805" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="806" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="807" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="808" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="809" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="810" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="811" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="812" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="813" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="814" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="815" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="816" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="817" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="818" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="819" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="820" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="821" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="822" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="823" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="824" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="825" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="826" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="827" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="828" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="829" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="830" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="831" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="832" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="833" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="834" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="835" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="836" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="837" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="838" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="839" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="840" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="841" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="842" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="843" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="844" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="845" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="846" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="847" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="848" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="849" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="850" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="851" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="852" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="853" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="854" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="855" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="856" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="857" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="858" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="859" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="860" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="861" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="862" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="863" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="864" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="865" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="866" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="867" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="868" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="869" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="870" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="871" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="872" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="873" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="874" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="875" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="876" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="877" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="878" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="879" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="880" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="881" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="882" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="883" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="884" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="885" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="886" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="887" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="888" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="889" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="890" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="891" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="892" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="893" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="894" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="895" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="896" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="897" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="898" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="899" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="900" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="901" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="902" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="903" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="904" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="905" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="906" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="907" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="908" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="909" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="910" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="911" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="912" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="913" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="914" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="915" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="916" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="917" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="918" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="919" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="920" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="921" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="922" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="923" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="924" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="925" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="926" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="927" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="928" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="929" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="930" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="931" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="932" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="933" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="934" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="935" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="936" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="937" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="938" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="939" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="940" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="941" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="942" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="943" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="944" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="945" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="946" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="947" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="948" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="949" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="950" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="951" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="952" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="953" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="954" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="955" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="956" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="957" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="958" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="959" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="960" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="961" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="962" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="963" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="964" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="965" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="966" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="967" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="968" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="969" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="970" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="971" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="972" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="973" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="974" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="975" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="976" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="977" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="978" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="979" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="980" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="981" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="982" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="983" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="984" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="985" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="986" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="987" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="988" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="989" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="990" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="991" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="992" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="993" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="994" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="995" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="996" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="997" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="998" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="999" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="1000" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
@@ -7547,24 +7573,24 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O1000"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="39.28515625" customWidth="1"/>
-    <col min="2" max="2" width="1.7109375" customWidth="1"/>
-    <col min="3" max="3" width="59.140625" customWidth="1"/>
-    <col min="4" max="4" width="1.85546875" customWidth="1"/>
-    <col min="5" max="5" width="103.140625" customWidth="1"/>
-    <col min="6" max="15" width="14.42578125" customWidth="1"/>
-    <col min="16" max="26" width="8.85546875" customWidth="1"/>
-    <col min="27" max="1025" width="14.42578125" customWidth="1"/>
+    <col min="1" max="1" width="39.33203125" customWidth="1"/>
+    <col min="2" max="2" width="1.6640625" customWidth="1"/>
+    <col min="3" max="3" width="59.109375" customWidth="1"/>
+    <col min="4" max="4" width="1.88671875" customWidth="1"/>
+    <col min="5" max="5" width="103.109375" customWidth="1"/>
+    <col min="6" max="15" width="14.44140625" customWidth="1"/>
+    <col min="16" max="26" width="8.88671875" customWidth="1"/>
+    <col min="27" max="1025" width="14.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="35" t="s">
         <v>127</v>
       </c>
@@ -7587,7 +7613,7 @@
       <c r="N1" s="14"/>
       <c r="O1" s="14"/>
     </row>
-    <row r="2" spans="1:15" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:15" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="14"/>
       <c r="B2" s="14"/>
       <c r="C2" s="14"/>
@@ -7604,7 +7630,7 @@
       <c r="N2" s="14"/>
       <c r="O2" s="14"/>
     </row>
-    <row r="3" spans="1:15" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:15" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="14" t="s">
         <v>130</v>
       </c>
@@ -7623,7 +7649,7 @@
       <c r="N3" s="14"/>
       <c r="O3" s="14"/>
     </row>
-    <row r="4" spans="1:15" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:15" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="14" t="s">
         <v>131</v>
       </c>
@@ -7642,7 +7668,7 @@
       <c r="N4" s="14"/>
       <c r="O4" s="14"/>
     </row>
-    <row r="5" spans="1:15" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:15" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="14" t="s">
         <v>132</v>
       </c>
@@ -7661,7 +7687,7 @@
       <c r="N5" s="14"/>
       <c r="O5" s="14"/>
     </row>
-    <row r="6" spans="1:15" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:15" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="14" t="s">
         <v>133</v>
       </c>
@@ -7680,7 +7706,7 @@
       <c r="N6" s="14"/>
       <c r="O6" s="14"/>
     </row>
-    <row r="7" spans="1:15" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:15" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="14" t="s">
         <v>134</v>
       </c>
@@ -7699,986 +7725,986 @@
       <c r="N7" s="14"/>
       <c r="O7" s="14"/>
     </row>
-    <row r="21" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="29" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="30" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="31" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="32" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="33" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="34" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="37" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="38" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="39" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="40" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="41" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="42" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="43" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="44" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="46" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="47" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="48" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="49" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="51" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="52" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="53" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="54" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="55" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="56" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="57" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="59" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="60" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="61" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="62" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="63" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="64" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="65" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="66" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="67" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="68" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="69" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="70" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="71" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="72" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="73" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="74" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="75" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="76" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="77" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="78" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="79" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="80" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="81" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="82" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="83" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="84" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="85" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="86" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="87" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="88" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="89" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="90" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="91" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="92" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="93" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="94" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="95" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="96" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="97" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="98" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="99" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="100" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="101" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="102" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="103" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="104" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="105" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="106" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="107" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="108" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="109" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="110" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="111" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="112" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="113" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="114" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="115" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="116" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="117" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="118" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="119" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="120" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="121" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="122" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="123" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="124" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="125" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="126" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="127" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="128" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="129" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="130" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="131" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="132" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="133" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="134" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="135" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="136" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="137" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="138" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="139" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="140" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="141" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="142" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="143" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="144" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="145" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="146" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="147" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="148" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="149" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="150" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="151" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="152" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="153" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="154" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="155" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="156" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="157" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="158" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="159" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="160" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="161" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="162" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="163" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="164" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="165" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="166" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="167" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="168" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="169" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="170" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="171" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="172" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="173" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="174" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="175" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="176" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="177" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="178" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="179" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="180" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="181" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="182" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="183" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="184" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="185" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="186" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="187" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="188" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="189" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="190" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="191" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="192" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="193" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="194" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="195" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="196" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="197" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="198" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="199" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="200" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="201" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="202" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="203" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="204" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="205" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="206" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="207" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="208" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="209" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="210" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="211" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="212" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="213" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="214" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="215" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="216" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="217" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="218" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="219" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="220" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="221" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="222" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="223" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="224" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="225" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="226" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="227" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="228" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="229" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="230" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="231" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="232" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="233" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="234" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="235" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="236" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="237" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="238" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="239" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="240" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="241" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="242" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="243" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="244" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="245" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="246" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="247" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="248" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="249" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="250" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="251" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="252" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="253" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="254" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="255" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="256" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="257" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="258" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="259" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="260" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="261" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="262" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="263" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="264" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="265" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="266" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="267" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="268" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="269" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="270" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="271" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="272" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="273" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="274" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="275" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="276" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="277" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="278" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="279" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="280" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="281" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="282" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="283" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="284" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="285" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="286" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="287" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="288" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="289" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="290" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="291" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="292" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="293" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="294" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="295" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="296" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="297" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="298" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="299" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="300" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="301" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="302" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="303" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="304" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="305" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="306" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="307" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="308" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="309" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="310" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="311" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="312" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="313" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="314" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="315" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="316" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="317" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="318" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="319" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="320" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="321" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="322" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="323" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="324" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="325" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="326" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="327" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="328" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="329" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="330" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="331" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="332" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="333" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="334" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="335" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="336" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="337" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="338" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="339" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="340" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="341" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="342" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="343" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="344" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="345" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="346" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="347" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="348" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="349" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="350" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="351" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="352" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="353" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="354" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="355" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="356" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="357" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="358" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="359" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="360" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="361" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="362" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="363" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="364" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="365" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="366" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="367" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="368" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="369" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="370" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="371" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="372" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="373" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="374" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="375" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="376" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="377" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="378" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="379" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="380" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="381" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="382" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="383" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="384" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="385" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="386" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="387" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="388" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="389" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="390" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="391" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="392" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="393" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="394" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="395" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="396" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="397" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="398" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="399" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="400" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="401" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="402" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="403" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="404" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="405" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="406" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="407" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="408" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="409" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="410" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="411" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="412" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="413" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="414" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="415" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="416" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="417" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="418" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="419" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="420" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="421" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="422" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="423" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="424" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="425" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="426" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="427" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="428" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="429" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="430" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="431" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="432" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="433" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="434" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="435" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="436" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="437" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="438" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="439" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="440" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="441" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="442" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="443" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="444" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="445" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="446" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="447" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="448" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="449" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="450" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="451" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="452" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="453" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="454" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="455" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="456" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="457" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="458" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="459" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="460" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="461" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="462" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="463" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="464" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="465" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="466" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="467" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="468" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="469" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="470" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="471" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="472" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="473" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="474" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="475" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="476" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="477" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="478" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="479" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="480" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="481" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="482" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="483" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="484" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="485" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="486" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="487" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="488" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="489" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="490" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="491" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="492" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="493" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="494" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="495" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="496" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="497" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="498" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="499" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="500" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="501" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="502" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="503" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="504" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="505" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="506" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="507" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="508" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="509" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="510" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="511" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="512" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="513" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="514" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="515" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="516" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="517" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="518" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="519" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="520" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="521" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="522" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="523" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="524" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="525" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="526" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="527" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="528" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="529" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="530" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="531" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="532" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="533" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="534" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="535" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="536" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="537" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="538" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="539" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="540" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="541" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="542" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="543" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="544" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="545" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="546" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="547" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="548" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="549" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="550" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="551" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="552" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="553" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="554" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="555" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="556" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="557" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="558" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="559" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="560" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="561" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="562" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="563" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="564" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="565" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="566" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="567" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="568" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="569" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="570" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="571" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="572" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="573" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="574" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="575" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="576" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="577" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="578" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="579" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="580" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="581" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="582" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="583" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="584" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="585" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="586" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="587" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="588" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="589" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="590" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="591" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="592" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="593" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="594" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="595" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="596" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="597" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="598" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="599" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="600" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="601" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="602" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="603" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="604" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="605" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="606" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="607" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="608" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="609" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="610" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="611" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="612" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="613" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="614" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="615" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="616" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="617" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="618" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="619" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="620" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="621" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="622" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="623" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="624" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="625" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="626" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="627" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="628" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="629" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="630" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="631" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="632" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="633" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="634" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="635" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="636" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="637" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="638" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="639" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="640" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="641" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="642" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="643" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="644" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="645" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="646" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="647" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="648" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="649" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="650" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="651" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="652" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="653" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="654" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="655" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="656" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="657" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="658" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="659" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="660" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="661" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="662" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="663" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="664" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="665" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="666" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="667" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="668" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="669" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="670" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="671" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="672" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="673" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="674" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="675" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="676" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="677" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="678" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="679" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="680" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="681" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="682" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="683" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="684" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="685" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="686" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="687" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="688" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="689" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="690" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="691" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="692" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="693" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="694" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="695" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="696" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="697" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="698" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="699" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="700" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="701" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="702" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="703" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="704" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="705" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="706" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="707" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="708" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="709" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="710" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="711" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="712" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="713" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="714" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="715" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="716" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="717" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="718" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="719" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="720" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="721" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="722" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="723" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="724" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="725" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="726" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="727" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="728" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="729" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="730" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="731" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="732" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="733" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="734" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="735" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="736" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="737" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="738" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="739" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="740" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="741" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="742" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="743" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="744" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="745" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="746" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="747" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="748" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="749" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="750" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="751" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="752" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="753" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="754" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="755" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="756" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="757" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="758" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="759" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="760" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="761" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="762" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="763" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="764" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="765" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="766" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="767" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="768" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="769" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="770" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="771" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="772" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="773" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="774" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="775" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="776" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="777" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="778" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="779" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="780" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="781" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="782" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="783" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="784" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="785" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="786" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="787" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="788" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="789" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="790" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="791" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="792" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="793" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="794" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="795" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="796" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="797" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="798" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="799" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="800" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="801" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="802" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="803" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="804" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="805" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="806" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="807" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="808" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="809" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="810" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="811" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="812" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="813" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="814" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="815" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="816" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="817" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="818" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="819" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="820" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="821" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="822" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="823" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="824" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="825" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="826" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="827" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="828" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="829" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="830" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="831" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="832" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="833" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="834" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="835" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="836" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="837" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="838" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="839" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="840" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="841" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="842" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="843" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="844" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="845" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="846" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="847" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="848" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="849" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="850" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="851" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="852" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="853" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="854" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="855" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="856" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="857" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="858" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="859" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="860" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="861" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="862" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="863" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="864" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="865" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="866" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="867" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="868" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="869" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="870" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="871" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="872" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="873" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="874" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="875" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="876" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="877" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="878" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="879" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="880" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="881" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="882" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="883" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="884" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="885" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="886" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="887" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="888" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="889" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="890" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="891" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="892" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="893" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="894" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="895" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="896" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="897" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="898" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="899" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="900" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="901" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="902" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="903" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="904" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="905" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="906" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="907" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="908" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="909" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="910" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="911" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="912" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="913" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="914" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="915" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="916" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="917" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="918" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="919" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="920" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="921" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="922" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="923" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="924" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="925" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="926" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="927" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="928" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="929" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="930" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="931" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="932" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="933" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="934" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="935" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="936" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="937" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="938" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="939" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="940" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="941" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="942" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="943" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="944" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="945" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="946" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="947" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="948" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="949" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="950" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="951" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="952" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="953" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="954" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="955" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="956" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="957" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="958" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="959" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="960" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="961" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="962" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="963" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="964" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="965" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="966" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="967" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="968" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="969" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="970" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="971" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="972" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="973" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="974" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="975" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="976" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="977" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="978" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="979" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="980" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="981" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="982" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="983" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="984" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="985" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="986" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="987" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="988" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="989" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="990" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="991" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="992" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="993" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="994" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="995" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="996" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="997" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="998" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="999" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="1000" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="21" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="22" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="23" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="27" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="29" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="30" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="32" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="33" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="34" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="36" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="37" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="38" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="39" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="40" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="41" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="42" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="43" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="44" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="45" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="47" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="48" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="49" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="51" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="52" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="53" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="54" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="55" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="56" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="57" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="59" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="60" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="61" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="62" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="63" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="64" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="65" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="66" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="67" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="68" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="69" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="70" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="71" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="72" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="73" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="74" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="75" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="76" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="77" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="78" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="79" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="80" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="81" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="82" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="83" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="84" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="85" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="86" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="87" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="88" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="89" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="90" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="91" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="92" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="93" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="94" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="95" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="96" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="97" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="98" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="99" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="100" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="101" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="102" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="103" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="104" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="105" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="106" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="107" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="108" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="109" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="110" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="111" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="112" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="113" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="114" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="115" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="116" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="117" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="118" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="119" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="120" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="121" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="122" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="123" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="124" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="125" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="126" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="127" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="128" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="129" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="130" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="131" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="132" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="133" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="134" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="135" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="136" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="137" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="138" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="139" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="140" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="141" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="142" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="143" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="144" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="145" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="146" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="147" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="148" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="149" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="150" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="151" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="152" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="153" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="154" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="155" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="156" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="157" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="158" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="159" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="160" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="161" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="162" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="163" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="164" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="165" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="166" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="167" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="168" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="169" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="170" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="171" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="172" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="173" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="174" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="175" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="176" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="177" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="178" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="179" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="180" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="181" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="182" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="183" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="184" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="185" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="186" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="187" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="188" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="189" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="190" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="191" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="192" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="193" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="194" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="195" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="196" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="197" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="198" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="199" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="200" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="201" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="202" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="203" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="204" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="205" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="206" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="207" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="208" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="209" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="210" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="211" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="212" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="213" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="214" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="215" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="216" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="217" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="218" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="219" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="220" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="221" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="222" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="223" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="224" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="225" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="226" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="227" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="228" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="229" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="230" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="231" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="232" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="233" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="234" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="235" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="236" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="237" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="238" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="239" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="240" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="241" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="242" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="243" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="244" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="245" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="246" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="247" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="248" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="249" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="250" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="251" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="252" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="253" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="254" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="255" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="256" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="257" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="258" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="259" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="260" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="261" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="262" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="263" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="264" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="265" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="266" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="267" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="268" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="269" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="270" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="271" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="272" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="273" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="274" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="275" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="276" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="277" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="278" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="279" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="280" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="281" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="282" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="283" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="284" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="285" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="286" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="287" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="288" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="289" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="290" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="291" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="292" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="293" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="294" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="295" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="296" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="297" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="298" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="299" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="300" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="301" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="302" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="303" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="304" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="305" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="306" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="307" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="308" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="309" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="310" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="311" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="312" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="313" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="314" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="315" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="316" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="317" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="318" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="319" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="320" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="321" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="322" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="323" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="324" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="325" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="326" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="327" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="328" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="329" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="330" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="331" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="332" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="333" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="334" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="335" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="336" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="337" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="338" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="339" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="340" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="341" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="342" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="343" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="344" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="345" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="346" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="347" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="348" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="349" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="350" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="351" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="352" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="353" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="354" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="355" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="356" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="357" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="358" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="359" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="360" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="361" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="362" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="363" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="364" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="365" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="366" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="367" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="368" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="369" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="370" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="371" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="372" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="373" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="374" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="375" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="376" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="377" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="378" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="379" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="380" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="381" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="382" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="383" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="384" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="385" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="386" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="387" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="388" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="389" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="390" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="391" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="392" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="393" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="394" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="395" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="396" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="397" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="398" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="399" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="400" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="401" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="402" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="403" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="404" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="405" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="406" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="407" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="408" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="409" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="410" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="411" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="412" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="413" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="414" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="415" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="416" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="417" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="418" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="419" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="420" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="421" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="422" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="423" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="424" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="425" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="426" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="427" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="428" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="429" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="430" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="431" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="432" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="433" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="434" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="435" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="436" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="437" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="438" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="439" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="440" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="441" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="442" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="443" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="444" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="445" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="446" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="447" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="448" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="449" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="450" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="451" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="452" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="453" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="454" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="455" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="456" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="457" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="458" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="459" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="460" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="461" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="462" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="463" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="464" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="465" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="466" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="467" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="468" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="469" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="470" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="471" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="472" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="473" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="474" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="475" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="476" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="477" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="478" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="479" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="480" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="481" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="482" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="483" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="484" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="485" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="486" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="487" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="488" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="489" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="490" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="491" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="492" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="493" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="494" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="495" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="496" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="497" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="498" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="499" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="500" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="501" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="502" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="503" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="504" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="505" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="506" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="507" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="508" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="509" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="510" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="511" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="512" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="513" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="514" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="515" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="516" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="517" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="518" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="519" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="520" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="521" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="522" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="523" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="524" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="525" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="526" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="527" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="528" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="529" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="530" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="531" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="532" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="533" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="534" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="535" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="536" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="537" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="538" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="539" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="540" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="541" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="542" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="543" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="544" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="545" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="546" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="547" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="548" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="549" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="550" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="551" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="552" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="553" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="554" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="555" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="556" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="557" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="558" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="559" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="560" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="561" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="562" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="563" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="564" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="565" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="566" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="567" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="568" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="569" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="570" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="571" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="572" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="573" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="574" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="575" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="576" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="577" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="578" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="579" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="580" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="581" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="582" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="583" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="584" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="585" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="586" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="587" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="588" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="589" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="590" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="591" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="592" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="593" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="594" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="595" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="596" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="597" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="598" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="599" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="600" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="601" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="602" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="603" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="604" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="605" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="606" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="607" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="608" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="609" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="610" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="611" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="612" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="613" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="614" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="615" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="616" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="617" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="618" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="619" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="620" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="621" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="622" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="623" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="624" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="625" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="626" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="627" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="628" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="629" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="630" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="631" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="632" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="633" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="634" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="635" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="636" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="637" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="638" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="639" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="640" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="641" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="642" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="643" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="644" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="645" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="646" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="647" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="648" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="649" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="650" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="651" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="652" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="653" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="654" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="655" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="656" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="657" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="658" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="659" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="660" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="661" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="662" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="663" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="664" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="665" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="666" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="667" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="668" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="669" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="670" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="671" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="672" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="673" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="674" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="675" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="676" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="677" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="678" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="679" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="680" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="681" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="682" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="683" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="684" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="685" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="686" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="687" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="688" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="689" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="690" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="691" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="692" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="693" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="694" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="695" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="696" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="697" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="698" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="699" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="700" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="701" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="702" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="703" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="704" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="705" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="706" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="707" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="708" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="709" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="710" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="711" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="712" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="713" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="714" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="715" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="716" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="717" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="718" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="719" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="720" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="721" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="722" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="723" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="724" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="725" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="726" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="727" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="728" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="729" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="730" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="731" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="732" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="733" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="734" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="735" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="736" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="737" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="738" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="739" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="740" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="741" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="742" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="743" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="744" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="745" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="746" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="747" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="748" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="749" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="750" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="751" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="752" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="753" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="754" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="755" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="756" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="757" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="758" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="759" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="760" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="761" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="762" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="763" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="764" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="765" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="766" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="767" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="768" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="769" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="770" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="771" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="772" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="773" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="774" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="775" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="776" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="777" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="778" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="779" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="780" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="781" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="782" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="783" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="784" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="785" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="786" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="787" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="788" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="789" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="790" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="791" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="792" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="793" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="794" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="795" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="796" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="797" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="798" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="799" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="800" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="801" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="802" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="803" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="804" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="805" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="806" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="807" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="808" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="809" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="810" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="811" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="812" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="813" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="814" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="815" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="816" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="817" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="818" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="819" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="820" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="821" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="822" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="823" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="824" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="825" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="826" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="827" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="828" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="829" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="830" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="831" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="832" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="833" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="834" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="835" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="836" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="837" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="838" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="839" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="840" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="841" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="842" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="843" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="844" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="845" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="846" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="847" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="848" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="849" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="850" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="851" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="852" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="853" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="854" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="855" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="856" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="857" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="858" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="859" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="860" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="861" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="862" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="863" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="864" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="865" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="866" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="867" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="868" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="869" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="870" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="871" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="872" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="873" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="874" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="875" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="876" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="877" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="878" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="879" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="880" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="881" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="882" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="883" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="884" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="885" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="886" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="887" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="888" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="889" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="890" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="891" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="892" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="893" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="894" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="895" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="896" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="897" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="898" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="899" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="900" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="901" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="902" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="903" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="904" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="905" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="906" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="907" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="908" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="909" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="910" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="911" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="912" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="913" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="914" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="915" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="916" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="917" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="918" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="919" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="920" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="921" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="922" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="923" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="924" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="925" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="926" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="927" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="928" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="929" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="930" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="931" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="932" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="933" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="934" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="935" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="936" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="937" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="938" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="939" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="940" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="941" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="942" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="943" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="944" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="945" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="946" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="947" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="948" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="949" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="950" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="951" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="952" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="953" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="954" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="955" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="956" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="957" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="958" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="959" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="960" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="961" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="962" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="963" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="964" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="965" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="966" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="967" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="968" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="969" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="970" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="971" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="972" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="973" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="974" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="975" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="976" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="977" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="978" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="979" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="980" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="981" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="982" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="983" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="984" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="985" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="986" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="987" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="988" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="989" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="990" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="991" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="992" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="993" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="994" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="995" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="996" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="997" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="998" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="999" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="1000" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>

--- a/config-boda-moh-ke-master/forms/app/case_investigation.xlsx
+++ b/config-boda-moh-ke-master/forms/app/case_investigation.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin\Dropbox\PC (2)\Desktop\newforms\Revised\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin\Dropbox\PC (2)\Desktop\newforms\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12228" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9072" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="survey" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="538" uniqueCount="313">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="550" uniqueCount="313">
   <si>
     <t>type</t>
   </si>
@@ -1694,11 +1694,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Z655"/>
+  <dimension ref="A1:Z660"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A68" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B87" sqref="B87"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A74" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A89" sqref="A89"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1823,52 +1823,46 @@
       <c r="Z2" s="3"/>
     </row>
     <row r="3" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="B3" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="C3" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="D3" s="6"/>
-      <c r="E3" s="6"/>
-      <c r="F3" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="G3" s="6"/>
-      <c r="H3" s="6"/>
-      <c r="I3" s="6"/>
-      <c r="J3" s="6"/>
-      <c r="K3" s="6"/>
-      <c r="L3" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="M3" s="6"/>
-      <c r="N3" s="6"/>
-      <c r="O3" s="6"/>
-      <c r="P3" s="6"/>
-      <c r="Q3" s="6"/>
-      <c r="R3" s="6"/>
-      <c r="S3" s="6"/>
-      <c r="T3" s="6"/>
-      <c r="U3" s="6"/>
-      <c r="V3" s="6"/>
-      <c r="W3" s="6"/>
-      <c r="X3" s="6"/>
-      <c r="Y3" s="6"/>
-      <c r="Z3" s="6"/>
+      <c r="A3" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="C3" s="4"/>
+      <c r="D3" s="4"/>
+      <c r="E3" s="4"/>
+      <c r="F3" s="4"/>
+      <c r="G3" s="4"/>
+      <c r="H3" s="4"/>
+      <c r="I3" s="4"/>
+      <c r="J3" s="4"/>
+      <c r="K3" s="4"/>
+      <c r="L3" s="4"/>
+      <c r="M3" s="4"/>
+      <c r="N3" s="4"/>
+      <c r="O3" s="4"/>
+      <c r="P3" s="5"/>
+      <c r="Q3" s="5"/>
+      <c r="R3" s="5"/>
+      <c r="S3" s="5"/>
+      <c r="T3" s="5"/>
+      <c r="U3" s="5"/>
+      <c r="V3" s="5"/>
+      <c r="W3" s="3"/>
+      <c r="X3" s="3"/>
+      <c r="Y3" s="3"/>
+      <c r="Z3" s="3"/>
     </row>
     <row r="4" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="6" t="s">
         <v>22</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="D4" s="6"/>
       <c r="E4" s="6"/>
@@ -1880,7 +1874,9 @@
       <c r="I4" s="6"/>
       <c r="J4" s="6"/>
       <c r="K4" s="6"/>
-      <c r="L4" s="6"/>
+      <c r="L4" s="6" t="s">
+        <v>26</v>
+      </c>
       <c r="M4" s="6"/>
       <c r="N4" s="6"/>
       <c r="O4" s="6"/>
@@ -1896,45 +1892,52 @@
       <c r="Y4" s="6"/>
       <c r="Z4" s="6"/>
     </row>
-    <row r="5" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="B5" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="C5" s="7"/>
-      <c r="D5" s="7"/>
-      <c r="E5" s="7"/>
-      <c r="F5" s="7"/>
-      <c r="G5" s="7"/>
-      <c r="H5" s="7"/>
-      <c r="I5" s="7"/>
-      <c r="J5" s="7"/>
-      <c r="K5" s="7"/>
-      <c r="L5" s="7"/>
-      <c r="M5" s="7"/>
-      <c r="N5" s="7"/>
-      <c r="O5" s="7"/>
-      <c r="P5" s="8"/>
-      <c r="Q5" s="8"/>
-      <c r="R5" s="8"/>
-      <c r="S5" s="8"/>
-      <c r="T5" s="8"/>
-      <c r="U5" s="8"/>
-      <c r="V5" s="8"/>
-      <c r="W5" s="8"/>
-      <c r="X5" s="8"/>
-      <c r="Y5" s="8"/>
+    <row r="5" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="B5" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="C5" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="D5" s="6"/>
+      <c r="E5" s="6"/>
+      <c r="F5" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="G5" s="6"/>
+      <c r="H5" s="6"/>
+      <c r="I5" s="6"/>
+      <c r="J5" s="6"/>
+      <c r="K5" s="6"/>
+      <c r="L5" s="6"/>
+      <c r="M5" s="6"/>
+      <c r="N5" s="6"/>
+      <c r="O5" s="6"/>
+      <c r="P5" s="6"/>
+      <c r="Q5" s="6"/>
+      <c r="R5" s="6"/>
+      <c r="S5" s="6"/>
+      <c r="T5" s="6"/>
+      <c r="U5" s="6"/>
+      <c r="V5" s="6"/>
+      <c r="W5" s="6"/>
+      <c r="X5" s="6"/>
+      <c r="Y5" s="6"/>
+      <c r="Z5" s="6"/>
     </row>
     <row r="6" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="6" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="C6" s="6"/>
+        <v>237</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>36</v>
+      </c>
       <c r="D6" s="6"/>
       <c r="E6" s="6"/>
       <c r="F6" s="6"/>
@@ -1959,155 +1962,145 @@
       <c r="Y6" s="6"/>
       <c r="Z6" s="6"/>
     </row>
-    <row r="7" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="7" t="s">
+    <row r="7" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="B7" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="D7" s="6"/>
+      <c r="E7" s="6"/>
+      <c r="F7" s="6"/>
+      <c r="G7" s="6"/>
+      <c r="H7" s="6"/>
+      <c r="I7" s="6"/>
+      <c r="J7" s="6"/>
+      <c r="K7" s="6"/>
+      <c r="L7" s="6"/>
+      <c r="M7" s="6"/>
+      <c r="N7" s="6"/>
+      <c r="O7" s="6"/>
+      <c r="P7" s="6"/>
+      <c r="Q7" s="6"/>
+      <c r="R7" s="6"/>
+      <c r="S7" s="6"/>
+      <c r="T7" s="6"/>
+      <c r="U7" s="6"/>
+      <c r="V7" s="6"/>
+      <c r="W7" s="6"/>
+      <c r="X7" s="6"/>
+      <c r="Y7" s="6"/>
+      <c r="Z7" s="6"/>
+    </row>
+    <row r="8" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="B8" s="6" t="s">
+        <v>254</v>
+      </c>
+      <c r="C8" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="D8" s="6"/>
+      <c r="E8" s="6"/>
+      <c r="F8" s="6"/>
+      <c r="G8" s="6"/>
+      <c r="H8" s="6"/>
+      <c r="I8" s="6"/>
+      <c r="J8" s="6"/>
+      <c r="K8" s="6"/>
+      <c r="L8" s="6"/>
+      <c r="M8" s="6"/>
+      <c r="N8" s="6"/>
+      <c r="O8" s="6"/>
+      <c r="P8" s="6"/>
+      <c r="Q8" s="6"/>
+      <c r="R8" s="6"/>
+      <c r="S8" s="6"/>
+      <c r="T8" s="6"/>
+      <c r="U8" s="6"/>
+      <c r="V8" s="6"/>
+      <c r="W8" s="6"/>
+      <c r="X8" s="6"/>
+      <c r="Y8" s="6"/>
+      <c r="Z8" s="6"/>
+    </row>
+    <row r="9" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="B7" s="7"/>
-      <c r="C7" s="7"/>
-      <c r="D7" s="7"/>
-      <c r="E7" s="7"/>
-      <c r="F7" s="7"/>
-      <c r="G7" s="7"/>
-      <c r="H7" s="7"/>
-      <c r="I7" s="7"/>
-      <c r="J7" s="7"/>
-      <c r="K7" s="7"/>
-      <c r="L7" s="7"/>
-      <c r="M7" s="7"/>
-      <c r="N7" s="7"/>
-      <c r="O7" s="7"/>
-      <c r="P7" s="8"/>
-      <c r="Q7" s="8"/>
-      <c r="R7" s="8"/>
-      <c r="S7" s="8"/>
-      <c r="T7" s="8"/>
-      <c r="U7" s="8"/>
-      <c r="V7" s="8"/>
-      <c r="W7" s="8"/>
-      <c r="X7" s="8"/>
-      <c r="Y7" s="8"/>
-    </row>
-    <row r="8" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="11" t="s">
-        <v>226</v>
-      </c>
-      <c r="B8" s="11" t="s">
-        <v>227</v>
-      </c>
-      <c r="C8" s="11" t="s">
-        <v>228</v>
-      </c>
-      <c r="D8" s="11"/>
-      <c r="E8" s="11"/>
-      <c r="F8" s="11" t="s">
-        <v>229</v>
-      </c>
-      <c r="G8" s="7"/>
-      <c r="H8" s="7"/>
-      <c r="I8" s="7"/>
-      <c r="J8" s="7"/>
-      <c r="K8" s="7"/>
-      <c r="L8" s="7"/>
-      <c r="M8" s="7"/>
-      <c r="N8" s="7"/>
-      <c r="O8" s="7"/>
-      <c r="P8" s="8"/>
-      <c r="Q8" s="8"/>
-      <c r="R8" s="8"/>
-      <c r="S8" s="8"/>
-      <c r="T8" s="8"/>
-      <c r="U8" s="8"/>
-      <c r="V8" s="8"/>
-      <c r="W8" s="8"/>
-      <c r="X8" s="8"/>
-      <c r="Y8" s="8"/>
-    </row>
-    <row r="9" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="11" t="s">
-        <v>25</v>
-      </c>
-      <c r="B9" s="11" t="s">
-        <v>0</v>
-      </c>
-      <c r="C9" s="11" t="s">
-        <v>230</v>
-      </c>
-      <c r="D9" s="11"/>
-      <c r="E9" s="11"/>
-      <c r="F9" s="11" t="s">
-        <v>25</v>
-      </c>
-      <c r="G9" s="7"/>
-      <c r="H9" s="7"/>
-      <c r="I9" s="7"/>
-      <c r="J9" s="7"/>
-      <c r="K9" s="7"/>
-      <c r="L9" s="7"/>
-      <c r="M9" s="7"/>
-      <c r="N9" s="7"/>
-      <c r="O9" s="7"/>
-      <c r="P9" s="8"/>
-      <c r="Q9" s="8"/>
-      <c r="R9" s="8"/>
-      <c r="S9" s="8"/>
-      <c r="T9" s="8"/>
-      <c r="U9" s="8"/>
-      <c r="V9" s="8"/>
-      <c r="W9" s="8"/>
-      <c r="X9" s="8"/>
-      <c r="Y9" s="8"/>
-    </row>
-    <row r="10" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="11" t="s">
-        <v>25</v>
-      </c>
-      <c r="B10" s="11" t="s">
-        <v>231</v>
-      </c>
-      <c r="C10" s="11" t="s">
-        <v>232</v>
-      </c>
-      <c r="D10" s="11"/>
-      <c r="E10" s="11"/>
-      <c r="F10" s="11" t="s">
-        <v>25</v>
-      </c>
-      <c r="G10" s="7"/>
-      <c r="H10" s="7"/>
-      <c r="I10" s="7"/>
-      <c r="J10" s="7"/>
-      <c r="K10" s="7"/>
-      <c r="L10" s="7"/>
-      <c r="M10" s="7"/>
-      <c r="N10" s="7"/>
-      <c r="O10" s="7"/>
-      <c r="P10" s="8"/>
-      <c r="Q10" s="8"/>
-      <c r="R10" s="8"/>
-      <c r="S10" s="8"/>
-      <c r="T10" s="8"/>
-      <c r="U10" s="8"/>
-      <c r="V10" s="8"/>
-      <c r="W10" s="8"/>
-      <c r="X10" s="8"/>
-      <c r="Y10" s="8"/>
+      <c r="B9" s="6"/>
+      <c r="C9" s="6"/>
+      <c r="D9" s="6"/>
+      <c r="E9" s="6"/>
+      <c r="F9" s="6"/>
+      <c r="G9" s="6"/>
+      <c r="H9" s="6"/>
+      <c r="I9" s="6"/>
+      <c r="J9" s="6"/>
+      <c r="K9" s="6"/>
+      <c r="L9" s="6"/>
+      <c r="M9" s="6"/>
+      <c r="N9" s="6"/>
+      <c r="O9" s="6"/>
+      <c r="P9" s="6"/>
+      <c r="Q9" s="6"/>
+      <c r="R9" s="6"/>
+      <c r="S9" s="6"/>
+      <c r="T9" s="6"/>
+      <c r="U9" s="6"/>
+      <c r="V9" s="6"/>
+      <c r="W9" s="6"/>
+      <c r="X9" s="6"/>
+      <c r="Y9" s="6"/>
+      <c r="Z9" s="6"/>
+    </row>
+    <row r="10" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="B10" s="6"/>
+      <c r="C10" s="6"/>
+      <c r="D10" s="6"/>
+      <c r="E10" s="6"/>
+      <c r="F10" s="6"/>
+      <c r="G10" s="6"/>
+      <c r="H10" s="6"/>
+      <c r="I10" s="6"/>
+      <c r="J10" s="6"/>
+      <c r="K10" s="6"/>
+      <c r="L10" s="6"/>
+      <c r="M10" s="6"/>
+      <c r="N10" s="6"/>
+      <c r="O10" s="6"/>
+      <c r="P10" s="6"/>
+      <c r="Q10" s="6"/>
+      <c r="R10" s="6"/>
+      <c r="S10" s="6"/>
+      <c r="T10" s="6"/>
+      <c r="U10" s="6"/>
+      <c r="V10" s="6"/>
+      <c r="W10" s="6"/>
+      <c r="X10" s="6"/>
+      <c r="Y10" s="6"/>
+      <c r="Z10" s="6"/>
     </row>
     <row r="11" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="11" t="s">
-        <v>25</v>
-      </c>
-      <c r="B11" s="11" t="s">
-        <v>233</v>
-      </c>
-      <c r="C11" s="11" t="s">
-        <v>234</v>
-      </c>
-      <c r="D11" s="11"/>
-      <c r="E11" s="11"/>
-      <c r="F11" s="11" t="s">
-        <v>25</v>
-      </c>
+      <c r="A11" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="B11" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="C11" s="7"/>
+      <c r="D11" s="7"/>
+      <c r="E11" s="7"/>
+      <c r="F11" s="7"/>
       <c r="G11" s="7"/>
       <c r="H11" s="7"/>
       <c r="I11" s="7"/>
@@ -2128,55 +2121,52 @@
       <c r="X11" s="8"/>
       <c r="Y11" s="8"/>
     </row>
-    <row r="12" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="11" t="s">
+    <row r="12" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="B12" s="11" t="s">
-        <v>235</v>
-      </c>
-      <c r="C12" s="11" t="s">
-        <v>236</v>
-      </c>
-      <c r="D12" s="11"/>
-      <c r="E12" s="11"/>
-      <c r="F12" s="11" t="s">
-        <v>25</v>
-      </c>
-      <c r="G12" s="7"/>
-      <c r="H12" s="7"/>
-      <c r="I12" s="7"/>
-      <c r="J12" s="7"/>
-      <c r="K12" s="7"/>
-      <c r="L12" s="7"/>
-      <c r="M12" s="7"/>
-      <c r="N12" s="7"/>
-      <c r="O12" s="7"/>
-      <c r="P12" s="8"/>
-      <c r="Q12" s="8"/>
-      <c r="R12" s="8"/>
-      <c r="S12" s="8"/>
-      <c r="T12" s="8"/>
-      <c r="U12" s="8"/>
-      <c r="V12" s="8"/>
-      <c r="W12" s="8"/>
-      <c r="X12" s="8"/>
-      <c r="Y12" s="8"/>
+      <c r="B12" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="C12" s="6"/>
+      <c r="D12" s="6"/>
+      <c r="E12" s="6"/>
+      <c r="F12" s="6"/>
+      <c r="G12" s="6"/>
+      <c r="H12" s="6"/>
+      <c r="I12" s="6"/>
+      <c r="J12" s="6"/>
+      <c r="K12" s="6"/>
+      <c r="L12" s="6"/>
+      <c r="M12" s="6"/>
+      <c r="N12" s="6"/>
+      <c r="O12" s="6"/>
+      <c r="P12" s="6"/>
+      <c r="Q12" s="6"/>
+      <c r="R12" s="6"/>
+      <c r="S12" s="6"/>
+      <c r="T12" s="6"/>
+      <c r="U12" s="6"/>
+      <c r="V12" s="6"/>
+      <c r="W12" s="6"/>
+      <c r="X12" s="6"/>
+      <c r="Y12" s="6"/>
+      <c r="Z12" s="6"/>
     </row>
     <row r="13" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="11" t="s">
-        <v>25</v>
+        <v>226</v>
       </c>
       <c r="B13" s="11" t="s">
-        <v>237</v>
+        <v>227</v>
       </c>
       <c r="C13" s="11" t="s">
-        <v>238</v>
+        <v>228</v>
       </c>
       <c r="D13" s="11"/>
       <c r="E13" s="11"/>
       <c r="F13" s="11" t="s">
-        <v>25</v>
+        <v>229</v>
       </c>
       <c r="G13" s="7"/>
       <c r="H13" s="7"/>
@@ -2203,14 +2193,16 @@
         <v>25</v>
       </c>
       <c r="B14" s="11" t="s">
-        <v>239</v>
+        <v>0</v>
       </c>
       <c r="C14" s="11" t="s">
-        <v>240</v>
+        <v>230</v>
       </c>
       <c r="D14" s="11"/>
       <c r="E14" s="11"/>
-      <c r="F14" s="11"/>
+      <c r="F14" s="11" t="s">
+        <v>25</v>
+      </c>
       <c r="G14" s="7"/>
       <c r="H14" s="7"/>
       <c r="I14" s="7"/>
@@ -2236,14 +2228,16 @@
         <v>25</v>
       </c>
       <c r="B15" s="11" t="s">
-        <v>241</v>
+        <v>231</v>
       </c>
       <c r="C15" s="11" t="s">
-        <v>242</v>
+        <v>232</v>
       </c>
       <c r="D15" s="11"/>
       <c r="E15" s="11"/>
-      <c r="F15" s="11"/>
+      <c r="F15" s="11" t="s">
+        <v>25</v>
+      </c>
       <c r="G15" s="7"/>
       <c r="H15" s="7"/>
       <c r="I15" s="7"/>
@@ -2269,14 +2263,16 @@
         <v>25</v>
       </c>
       <c r="B16" s="11" t="s">
-        <v>243</v>
+        <v>233</v>
       </c>
       <c r="C16" s="11" t="s">
-        <v>244</v>
+        <v>234</v>
       </c>
       <c r="D16" s="11"/>
       <c r="E16" s="11"/>
-      <c r="F16" s="11"/>
+      <c r="F16" s="11" t="s">
+        <v>25</v>
+      </c>
       <c r="G16" s="7"/>
       <c r="H16" s="7"/>
       <c r="I16" s="7"/>
@@ -2302,14 +2298,16 @@
         <v>25</v>
       </c>
       <c r="B17" s="11" t="s">
-        <v>245</v>
+        <v>235</v>
       </c>
       <c r="C17" s="11" t="s">
-        <v>246</v>
+        <v>236</v>
       </c>
       <c r="D17" s="11"/>
       <c r="E17" s="11"/>
-      <c r="F17" s="11"/>
+      <c r="F17" s="11" t="s">
+        <v>25</v>
+      </c>
       <c r="G17" s="7"/>
       <c r="H17" s="7"/>
       <c r="I17" s="7"/>
@@ -2335,14 +2333,16 @@
         <v>25</v>
       </c>
       <c r="B18" s="11" t="s">
-        <v>247</v>
+        <v>237</v>
       </c>
       <c r="C18" s="11" t="s">
-        <v>250</v>
+        <v>238</v>
       </c>
       <c r="D18" s="11"/>
       <c r="E18" s="11"/>
-      <c r="F18" s="11"/>
+      <c r="F18" s="11" t="s">
+        <v>25</v>
+      </c>
       <c r="G18" s="7"/>
       <c r="H18" s="7"/>
       <c r="I18" s="7"/>
@@ -2368,10 +2368,10 @@
         <v>25</v>
       </c>
       <c r="B19" s="11" t="s">
-        <v>248</v>
+        <v>239</v>
       </c>
       <c r="C19" s="11" t="s">
-        <v>251</v>
+        <v>240</v>
       </c>
       <c r="D19" s="11"/>
       <c r="E19" s="11"/>
@@ -2401,10 +2401,10 @@
         <v>25</v>
       </c>
       <c r="B20" s="11" t="s">
-        <v>249</v>
+        <v>241</v>
       </c>
       <c r="C20" s="11" t="s">
-        <v>252</v>
+        <v>242</v>
       </c>
       <c r="D20" s="11"/>
       <c r="E20" s="11"/>
@@ -2434,10 +2434,10 @@
         <v>25</v>
       </c>
       <c r="B21" s="11" t="s">
-        <v>1</v>
+        <v>243</v>
       </c>
       <c r="C21" s="11" t="s">
-        <v>253</v>
+        <v>244</v>
       </c>
       <c r="D21" s="11"/>
       <c r="E21" s="11"/>
@@ -2467,10 +2467,10 @@
         <v>25</v>
       </c>
       <c r="B22" s="11" t="s">
-        <v>254</v>
+        <v>245</v>
       </c>
       <c r="C22" s="11" t="s">
-        <v>255</v>
+        <v>246</v>
       </c>
       <c r="D22" s="11"/>
       <c r="E22" s="11"/>
@@ -2500,10 +2500,10 @@
         <v>25</v>
       </c>
       <c r="B23" s="11" t="s">
-        <v>256</v>
+        <v>247</v>
       </c>
       <c r="C23" s="11" t="s">
-        <v>257</v>
+        <v>250</v>
       </c>
       <c r="D23" s="11"/>
       <c r="E23" s="11"/>
@@ -2533,10 +2533,10 @@
         <v>25</v>
       </c>
       <c r="B24" s="11" t="s">
-        <v>258</v>
+        <v>248</v>
       </c>
       <c r="C24" s="11" t="s">
-        <v>259</v>
+        <v>251</v>
       </c>
       <c r="D24" s="11"/>
       <c r="E24" s="11"/>
@@ -2566,10 +2566,10 @@
         <v>25</v>
       </c>
       <c r="B25" s="11" t="s">
-        <v>260</v>
+        <v>249</v>
       </c>
       <c r="C25" s="11" t="s">
-        <v>261</v>
+        <v>252</v>
       </c>
       <c r="D25" s="11"/>
       <c r="E25" s="11"/>
@@ -2599,10 +2599,10 @@
         <v>25</v>
       </c>
       <c r="B26" s="11" t="s">
-        <v>262</v>
+        <v>1</v>
       </c>
       <c r="C26" s="11" t="s">
-        <v>263</v>
+        <v>253</v>
       </c>
       <c r="D26" s="11"/>
       <c r="E26" s="11"/>
@@ -2632,10 +2632,10 @@
         <v>25</v>
       </c>
       <c r="B27" s="11" t="s">
-        <v>264</v>
+        <v>254</v>
       </c>
       <c r="C27" s="11" t="s">
-        <v>265</v>
+        <v>255</v>
       </c>
       <c r="D27" s="11"/>
       <c r="E27" s="11"/>
@@ -2665,10 +2665,10 @@
         <v>25</v>
       </c>
       <c r="B28" s="11" t="s">
-        <v>266</v>
+        <v>256</v>
       </c>
       <c r="C28" s="11" t="s">
-        <v>267</v>
+        <v>257</v>
       </c>
       <c r="D28" s="11"/>
       <c r="E28" s="11"/>
@@ -2698,10 +2698,10 @@
         <v>25</v>
       </c>
       <c r="B29" s="11" t="s">
-        <v>268</v>
+        <v>258</v>
       </c>
       <c r="C29" s="11" t="s">
-        <v>269</v>
+        <v>259</v>
       </c>
       <c r="D29" s="11"/>
       <c r="E29" s="11"/>
@@ -2731,10 +2731,10 @@
         <v>25</v>
       </c>
       <c r="B30" s="11" t="s">
-        <v>31</v>
+        <v>260</v>
       </c>
       <c r="C30" s="11" t="s">
-        <v>270</v>
+        <v>261</v>
       </c>
       <c r="D30" s="11"/>
       <c r="E30" s="11"/>
@@ -2764,10 +2764,10 @@
         <v>25</v>
       </c>
       <c r="B31" s="11" t="s">
-        <v>271</v>
+        <v>262</v>
       </c>
       <c r="C31" s="11" t="s">
-        <v>272</v>
+        <v>263</v>
       </c>
       <c r="D31" s="11"/>
       <c r="E31" s="11"/>
@@ -2797,10 +2797,10 @@
         <v>25</v>
       </c>
       <c r="B32" s="11" t="s">
-        <v>273</v>
+        <v>264</v>
       </c>
       <c r="C32" s="11" t="s">
-        <v>274</v>
+        <v>265</v>
       </c>
       <c r="D32" s="11"/>
       <c r="E32" s="11"/>
@@ -2830,10 +2830,10 @@
         <v>25</v>
       </c>
       <c r="B33" s="11" t="s">
-        <v>275</v>
+        <v>266</v>
       </c>
       <c r="C33" s="11" t="s">
-        <v>276</v>
+        <v>267</v>
       </c>
       <c r="D33" s="11"/>
       <c r="E33" s="11"/>
@@ -2863,10 +2863,10 @@
         <v>25</v>
       </c>
       <c r="B34" s="11" t="s">
-        <v>277</v>
+        <v>268</v>
       </c>
       <c r="C34" s="11" t="s">
-        <v>278</v>
+        <v>269</v>
       </c>
       <c r="D34" s="11"/>
       <c r="E34" s="11"/>
@@ -2896,10 +2896,10 @@
         <v>25</v>
       </c>
       <c r="B35" s="11" t="s">
-        <v>279</v>
+        <v>31</v>
       </c>
       <c r="C35" s="11" t="s">
-        <v>280</v>
+        <v>270</v>
       </c>
       <c r="D35" s="11"/>
       <c r="E35" s="11"/>
@@ -2929,10 +2929,10 @@
         <v>25</v>
       </c>
       <c r="B36" s="11" t="s">
-        <v>281</v>
+        <v>271</v>
       </c>
       <c r="C36" s="11" t="s">
-        <v>282</v>
+        <v>272</v>
       </c>
       <c r="D36" s="11"/>
       <c r="E36" s="11"/>
@@ -2962,10 +2962,10 @@
         <v>25</v>
       </c>
       <c r="B37" s="11" t="s">
-        <v>283</v>
+        <v>273</v>
       </c>
       <c r="C37" s="11" t="s">
-        <v>284</v>
+        <v>274</v>
       </c>
       <c r="D37" s="11"/>
       <c r="E37" s="11"/>
@@ -2995,10 +2995,10 @@
         <v>25</v>
       </c>
       <c r="B38" s="11" t="s">
-        <v>286</v>
+        <v>275</v>
       </c>
       <c r="C38" s="11" t="s">
-        <v>287</v>
+        <v>276</v>
       </c>
       <c r="D38" s="11"/>
       <c r="E38" s="11"/>
@@ -3028,10 +3028,10 @@
         <v>25</v>
       </c>
       <c r="B39" s="11" t="s">
-        <v>285</v>
+        <v>277</v>
       </c>
       <c r="C39" s="11" t="s">
-        <v>288</v>
+        <v>278</v>
       </c>
       <c r="D39" s="11"/>
       <c r="E39" s="11"/>
@@ -3061,10 +3061,10 @@
         <v>25</v>
       </c>
       <c r="B40" s="11" t="s">
-        <v>289</v>
+        <v>279</v>
       </c>
       <c r="C40" s="11" t="s">
-        <v>290</v>
+        <v>280</v>
       </c>
       <c r="D40" s="11"/>
       <c r="E40" s="11"/>
@@ -3089,320 +3089,379 @@
       <c r="X40" s="8"/>
       <c r="Y40" s="8"/>
     </row>
-    <row r="41" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="B41" s="4"/>
-      <c r="C41" s="4"/>
-      <c r="D41" s="4"/>
-      <c r="E41" s="4"/>
-      <c r="F41" s="4"/>
-      <c r="G41" s="4"/>
-      <c r="H41" s="4"/>
-      <c r="I41" s="4"/>
-      <c r="J41" s="4"/>
-      <c r="K41" s="4"/>
-      <c r="L41" s="4"/>
-      <c r="M41" s="4"/>
-      <c r="N41" s="4"/>
-      <c r="O41" s="4"/>
-      <c r="P41" s="5"/>
-      <c r="Q41" s="5"/>
-      <c r="R41" s="5"/>
-      <c r="S41" s="5"/>
-      <c r="T41" s="5"/>
-      <c r="U41" s="5"/>
-      <c r="V41" s="5"/>
-      <c r="W41" s="3"/>
-      <c r="X41" s="3"/>
-      <c r="Y41" s="3"/>
-      <c r="Z41" s="3"/>
-    </row>
-    <row r="42" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="4"/>
-      <c r="B42" s="4"/>
-      <c r="C42" s="4"/>
-      <c r="D42" s="4"/>
-      <c r="E42" s="4"/>
-      <c r="F42" s="4"/>
-      <c r="G42" s="4"/>
-      <c r="H42" s="4"/>
-      <c r="I42" s="4"/>
-      <c r="J42" s="4"/>
-      <c r="K42" s="4"/>
-      <c r="L42" s="4"/>
-      <c r="M42" s="4"/>
-      <c r="N42" s="4"/>
-      <c r="O42" s="4"/>
-      <c r="P42" s="5"/>
-      <c r="Q42" s="5"/>
-      <c r="R42" s="5"/>
-      <c r="S42" s="5"/>
-      <c r="T42" s="5"/>
-      <c r="U42" s="5"/>
-      <c r="V42" s="5"/>
-      <c r="W42" s="3"/>
-      <c r="X42" s="3"/>
-      <c r="Y42" s="3"/>
-      <c r="Z42" s="3"/>
-    </row>
-    <row r="43" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A41" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="B41" s="11" t="s">
+        <v>281</v>
+      </c>
+      <c r="C41" s="11" t="s">
+        <v>282</v>
+      </c>
+      <c r="D41" s="11"/>
+      <c r="E41" s="11"/>
+      <c r="F41" s="11"/>
+      <c r="G41" s="7"/>
+      <c r="H41" s="7"/>
+      <c r="I41" s="7"/>
+      <c r="J41" s="7"/>
+      <c r="K41" s="7"/>
+      <c r="L41" s="7"/>
+      <c r="M41" s="7"/>
+      <c r="N41" s="7"/>
+      <c r="O41" s="7"/>
+      <c r="P41" s="8"/>
+      <c r="Q41" s="8"/>
+      <c r="R41" s="8"/>
+      <c r="S41" s="8"/>
+      <c r="T41" s="8"/>
+      <c r="U41" s="8"/>
+      <c r="V41" s="8"/>
+      <c r="W41" s="8"/>
+      <c r="X41" s="8"/>
+      <c r="Y41" s="8"/>
+    </row>
+    <row r="42" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A42" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="B42" s="11" t="s">
+        <v>283</v>
+      </c>
+      <c r="C42" s="11" t="s">
+        <v>284</v>
+      </c>
+      <c r="D42" s="11"/>
+      <c r="E42" s="11"/>
+      <c r="F42" s="11"/>
+      <c r="G42" s="7"/>
+      <c r="H42" s="7"/>
+      <c r="I42" s="7"/>
+      <c r="J42" s="7"/>
+      <c r="K42" s="7"/>
+      <c r="L42" s="7"/>
+      <c r="M42" s="7"/>
+      <c r="N42" s="7"/>
+      <c r="O42" s="7"/>
+      <c r="P42" s="8"/>
+      <c r="Q42" s="8"/>
+      <c r="R42" s="8"/>
+      <c r="S42" s="8"/>
+      <c r="T42" s="8"/>
+      <c r="U42" s="8"/>
+      <c r="V42" s="8"/>
+      <c r="W42" s="8"/>
+      <c r="X42" s="8"/>
+      <c r="Y42" s="8"/>
+    </row>
+    <row r="43" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A43" s="11" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="B43" s="11" t="s">
-        <v>33</v>
-      </c>
-      <c r="C43" s="11"/>
+        <v>286</v>
+      </c>
+      <c r="C43" s="11" t="s">
+        <v>287</v>
+      </c>
       <c r="D43" s="11"/>
       <c r="E43" s="11"/>
       <c r="F43" s="11"/>
-      <c r="G43" s="11"/>
-      <c r="H43" s="11"/>
-      <c r="I43" s="11" t="s">
-        <v>310</v>
-      </c>
-      <c r="J43" s="11"/>
-      <c r="K43" s="11"/>
-      <c r="L43" s="11"/>
-      <c r="M43" s="11"/>
-      <c r="N43" s="11"/>
-      <c r="O43" s="11"/>
-      <c r="P43" s="11"/>
-      <c r="Q43" s="11"/>
-      <c r="R43" s="11"/>
-      <c r="S43" s="11"/>
-      <c r="T43" s="11"/>
-      <c r="U43" s="11"/>
-      <c r="V43" s="11"/>
-      <c r="W43" s="11"/>
-      <c r="X43" s="11"/>
-      <c r="Y43" s="11"/>
-      <c r="Z43" s="11"/>
-    </row>
-    <row r="44" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G43" s="7"/>
+      <c r="H43" s="7"/>
+      <c r="I43" s="7"/>
+      <c r="J43" s="7"/>
+      <c r="K43" s="7"/>
+      <c r="L43" s="7"/>
+      <c r="M43" s="7"/>
+      <c r="N43" s="7"/>
+      <c r="O43" s="7"/>
+      <c r="P43" s="8"/>
+      <c r="Q43" s="8"/>
+      <c r="R43" s="8"/>
+      <c r="S43" s="8"/>
+      <c r="T43" s="8"/>
+      <c r="U43" s="8"/>
+      <c r="V43" s="8"/>
+      <c r="W43" s="8"/>
+      <c r="X43" s="8"/>
+      <c r="Y43" s="8"/>
+    </row>
+    <row r="44" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A44" s="11" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="B44" s="11" t="s">
-        <v>34</v>
-      </c>
-      <c r="C44" s="11"/>
+        <v>285</v>
+      </c>
+      <c r="C44" s="11" t="s">
+        <v>288</v>
+      </c>
       <c r="D44" s="11"/>
       <c r="E44" s="11"/>
       <c r="F44" s="11"/>
-      <c r="G44" s="11"/>
-      <c r="H44" s="11"/>
-      <c r="I44" s="11" t="s">
-        <v>35</v>
-      </c>
-      <c r="J44" s="11"/>
-      <c r="K44" s="11"/>
-      <c r="L44" s="11"/>
-      <c r="M44" s="11"/>
-      <c r="N44" s="11"/>
-      <c r="O44" s="11"/>
-      <c r="P44" s="11"/>
-      <c r="Q44" s="11"/>
-      <c r="R44" s="11"/>
-      <c r="S44" s="11"/>
-      <c r="T44" s="11"/>
-      <c r="U44" s="11"/>
-      <c r="V44" s="11"/>
-      <c r="W44" s="11"/>
-      <c r="X44" s="11"/>
-      <c r="Y44" s="11"/>
-      <c r="Z44" s="11"/>
-    </row>
-    <row r="45" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G44" s="7"/>
+      <c r="H44" s="7"/>
+      <c r="I44" s="7"/>
+      <c r="J44" s="7"/>
+      <c r="K44" s="7"/>
+      <c r="L44" s="7"/>
+      <c r="M44" s="7"/>
+      <c r="N44" s="7"/>
+      <c r="O44" s="7"/>
+      <c r="P44" s="8"/>
+      <c r="Q44" s="8"/>
+      <c r="R44" s="8"/>
+      <c r="S44" s="8"/>
+      <c r="T44" s="8"/>
+      <c r="U44" s="8"/>
+      <c r="V44" s="8"/>
+      <c r="W44" s="8"/>
+      <c r="X44" s="8"/>
+      <c r="Y44" s="8"/>
+    </row>
+    <row r="45" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A45" s="11" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="B45" s="11" t="s">
-        <v>311</v>
-      </c>
-      <c r="C45" s="11"/>
+        <v>289</v>
+      </c>
+      <c r="C45" s="11" t="s">
+        <v>290</v>
+      </c>
       <c r="D45" s="11"/>
       <c r="E45" s="11"/>
       <c r="F45" s="11"/>
-      <c r="G45" s="11"/>
-      <c r="H45" s="11"/>
-      <c r="I45" s="11" t="s">
-        <v>312</v>
-      </c>
-      <c r="J45" s="11"/>
-      <c r="K45" s="11"/>
-      <c r="L45" s="11"/>
-      <c r="M45" s="11"/>
-      <c r="N45" s="11"/>
-      <c r="O45" s="11"/>
-      <c r="P45" s="11"/>
-      <c r="Q45" s="11"/>
-      <c r="R45" s="11"/>
-      <c r="S45" s="11"/>
-      <c r="T45" s="11"/>
-      <c r="U45" s="11"/>
-      <c r="V45" s="11"/>
-      <c r="W45" s="11"/>
-      <c r="X45" s="11"/>
-      <c r="Y45" s="11"/>
-      <c r="Z45" s="11"/>
-    </row>
-    <row r="46" spans="1:26" s="11" customFormat="1" ht="12.9" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A46" s="11" t="s">
-        <v>32</v>
-      </c>
-      <c r="B46" s="11" t="s">
-        <v>37</v>
-      </c>
-      <c r="I46" s="12" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="47" spans="1:26" s="11" customFormat="1" ht="12.9" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A47" s="11" t="s">
-        <v>32</v>
-      </c>
-      <c r="B47" s="11" t="s">
-        <v>39</v>
-      </c>
-      <c r="I47" s="13" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="48" spans="1:26" s="11" customFormat="1" ht="12.9" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G45" s="7"/>
+      <c r="H45" s="7"/>
+      <c r="I45" s="7"/>
+      <c r="J45" s="7"/>
+      <c r="K45" s="7"/>
+      <c r="L45" s="7"/>
+      <c r="M45" s="7"/>
+      <c r="N45" s="7"/>
+      <c r="O45" s="7"/>
+      <c r="P45" s="8"/>
+      <c r="Q45" s="8"/>
+      <c r="R45" s="8"/>
+      <c r="S45" s="8"/>
+      <c r="T45" s="8"/>
+      <c r="U45" s="8"/>
+      <c r="V45" s="8"/>
+      <c r="W45" s="8"/>
+      <c r="X45" s="8"/>
+      <c r="Y45" s="8"/>
+    </row>
+    <row r="46" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A46" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="B46" s="4"/>
+      <c r="C46" s="4"/>
+      <c r="D46" s="4"/>
+      <c r="E46" s="4"/>
+      <c r="F46" s="4"/>
+      <c r="G46" s="4"/>
+      <c r="H46" s="4"/>
+      <c r="I46" s="4"/>
+      <c r="J46" s="4"/>
+      <c r="K46" s="4"/>
+      <c r="L46" s="4"/>
+      <c r="M46" s="4"/>
+      <c r="N46" s="4"/>
+      <c r="O46" s="4"/>
+      <c r="P46" s="5"/>
+      <c r="Q46" s="5"/>
+      <c r="R46" s="5"/>
+      <c r="S46" s="5"/>
+      <c r="T46" s="5"/>
+      <c r="U46" s="5"/>
+      <c r="V46" s="5"/>
+      <c r="W46" s="3"/>
+      <c r="X46" s="3"/>
+      <c r="Y46" s="3"/>
+      <c r="Z46" s="3"/>
+    </row>
+    <row r="47" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A47" s="4"/>
+      <c r="B47" s="4"/>
+      <c r="C47" s="4"/>
+      <c r="D47" s="4"/>
+      <c r="E47" s="4"/>
+      <c r="F47" s="4"/>
+      <c r="G47" s="4"/>
+      <c r="H47" s="4"/>
+      <c r="I47" s="4"/>
+      <c r="J47" s="4"/>
+      <c r="K47" s="4"/>
+      <c r="L47" s="4"/>
+      <c r="M47" s="4"/>
+      <c r="N47" s="4"/>
+      <c r="O47" s="4"/>
+      <c r="P47" s="5"/>
+      <c r="Q47" s="5"/>
+      <c r="R47" s="5"/>
+      <c r="S47" s="5"/>
+      <c r="T47" s="5"/>
+      <c r="U47" s="5"/>
+      <c r="V47" s="5"/>
+      <c r="W47" s="3"/>
+      <c r="X47" s="3"/>
+      <c r="Y47" s="3"/>
+      <c r="Z47" s="3"/>
+    </row>
+    <row r="48" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A48" s="11" t="s">
         <v>32</v>
       </c>
       <c r="B48" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="C48" s="11"/>
+      <c r="D48" s="11"/>
+      <c r="E48" s="11"/>
+      <c r="F48" s="11"/>
+      <c r="G48" s="11"/>
+      <c r="H48" s="11"/>
+      <c r="I48" s="11" t="s">
+        <v>310</v>
+      </c>
+      <c r="J48" s="11"/>
+      <c r="K48" s="11"/>
+      <c r="L48" s="11"/>
+      <c r="M48" s="11"/>
+      <c r="N48" s="11"/>
+      <c r="O48" s="11"/>
+      <c r="P48" s="11"/>
+      <c r="Q48" s="11"/>
+      <c r="R48" s="11"/>
+      <c r="S48" s="11"/>
+      <c r="T48" s="11"/>
+      <c r="U48" s="11"/>
+      <c r="V48" s="11"/>
+      <c r="W48" s="11"/>
+      <c r="X48" s="11"/>
+      <c r="Y48" s="11"/>
+      <c r="Z48" s="11"/>
+    </row>
+    <row r="49" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A49" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="B49" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="C49" s="11"/>
+      <c r="D49" s="11"/>
+      <c r="E49" s="11"/>
+      <c r="F49" s="11"/>
+      <c r="G49" s="11"/>
+      <c r="H49" s="11"/>
+      <c r="I49" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="J49" s="11"/>
+      <c r="K49" s="11"/>
+      <c r="L49" s="11"/>
+      <c r="M49" s="11"/>
+      <c r="N49" s="11"/>
+      <c r="O49" s="11"/>
+      <c r="P49" s="11"/>
+      <c r="Q49" s="11"/>
+      <c r="R49" s="11"/>
+      <c r="S49" s="11"/>
+      <c r="T49" s="11"/>
+      <c r="U49" s="11"/>
+      <c r="V49" s="11"/>
+      <c r="W49" s="11"/>
+      <c r="X49" s="11"/>
+      <c r="Y49" s="11"/>
+      <c r="Z49" s="11"/>
+    </row>
+    <row r="50" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A50" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="B50" s="11" t="s">
+        <v>311</v>
+      </c>
+      <c r="C50" s="11"/>
+      <c r="D50" s="11"/>
+      <c r="E50" s="11"/>
+      <c r="F50" s="11"/>
+      <c r="G50" s="11"/>
+      <c r="H50" s="11"/>
+      <c r="I50" s="11" t="s">
+        <v>312</v>
+      </c>
+      <c r="J50" s="11"/>
+      <c r="K50" s="11"/>
+      <c r="L50" s="11"/>
+      <c r="M50" s="11"/>
+      <c r="N50" s="11"/>
+      <c r="O50" s="11"/>
+      <c r="P50" s="11"/>
+      <c r="Q50" s="11"/>
+      <c r="R50" s="11"/>
+      <c r="S50" s="11"/>
+      <c r="T50" s="11"/>
+      <c r="U50" s="11"/>
+      <c r="V50" s="11"/>
+      <c r="W50" s="11"/>
+      <c r="X50" s="11"/>
+      <c r="Y50" s="11"/>
+      <c r="Z50" s="11"/>
+    </row>
+    <row r="51" spans="1:26" s="11" customFormat="1" ht="12.9" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A51" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="B51" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="I51" s="12" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="52" spans="1:26" s="11" customFormat="1" ht="12.9" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A52" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="B52" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="I52" s="13" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="53" spans="1:26" s="11" customFormat="1" ht="12.9" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A53" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="B53" s="11" t="s">
         <v>41</v>
       </c>
-      <c r="I48" s="13" t="s">
+      <c r="I53" s="13" t="s">
         <v>42</v>
-      </c>
-    </row>
-    <row r="49" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A49" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="B49" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="C49" t="s">
-        <v>306</v>
-      </c>
-      <c r="D49" s="4"/>
-      <c r="E49" s="4"/>
-      <c r="F49" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="G49" s="4"/>
-      <c r="H49" s="4"/>
-      <c r="I49" s="4"/>
-      <c r="J49" s="4"/>
-      <c r="K49" s="4"/>
-      <c r="L49" s="4"/>
-      <c r="M49" s="4"/>
-      <c r="N49" s="4"/>
-      <c r="O49" s="4"/>
-      <c r="P49" s="4"/>
-      <c r="Q49" s="4"/>
-      <c r="R49" s="4"/>
-      <c r="S49" s="4"/>
-      <c r="T49" s="4"/>
-      <c r="U49" s="4"/>
-      <c r="V49" s="4"/>
-      <c r="W49" s="4"/>
-      <c r="X49" s="4"/>
-      <c r="Y49" s="4"/>
-      <c r="Z49" s="4"/>
-    </row>
-    <row r="50" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A50" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="B50" s="4" t="s">
-        <v>308</v>
-      </c>
-      <c r="C50" s="4" t="s">
-        <v>309</v>
-      </c>
-      <c r="D50" s="4"/>
-      <c r="E50" s="4"/>
-      <c r="F50" s="4"/>
-      <c r="G50" s="4"/>
-      <c r="H50" s="4"/>
-      <c r="I50" s="4"/>
-      <c r="J50" s="4"/>
-      <c r="K50" s="4"/>
-      <c r="L50" s="4"/>
-      <c r="M50" s="4"/>
-      <c r="N50" s="4"/>
-      <c r="O50" s="4"/>
-      <c r="P50" s="4"/>
-      <c r="Q50" s="4"/>
-      <c r="R50" s="4"/>
-      <c r="S50" s="4"/>
-      <c r="T50" s="4"/>
-      <c r="U50" s="4"/>
-      <c r="V50" s="4"/>
-      <c r="W50" s="4"/>
-      <c r="X50" s="4"/>
-      <c r="Y50" s="4"/>
-      <c r="Z50" s="4"/>
-    </row>
-    <row r="51" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A51" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="B51" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="C51" t="s">
-        <v>50</v>
-      </c>
-      <c r="E51" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="52" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A52" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="B52" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="C52" t="s">
-        <v>53</v>
-      </c>
-      <c r="E52" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="53" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A53" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="B53" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="C53" t="s">
-        <v>56</v>
-      </c>
-      <c r="E53" t="s">
-        <v>57</v>
       </c>
     </row>
     <row r="54" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A54" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="B54" s="4"/>
-      <c r="C54" s="4"/>
+        <v>17</v>
+      </c>
+      <c r="B54" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="C54" t="s">
+        <v>306</v>
+      </c>
       <c r="D54" s="4"/>
       <c r="E54" s="4"/>
-      <c r="F54" s="4"/>
+      <c r="F54" s="4" t="s">
+        <v>21</v>
+      </c>
       <c r="G54" s="4"/>
       <c r="H54" s="4"/>
       <c r="I54" s="4"/>
@@ -3425,183 +3484,120 @@
       <c r="Z54" s="4"/>
     </row>
     <row r="55" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A55" s="6"/>
-      <c r="B55" s="6"/>
-      <c r="C55" s="6"/>
-      <c r="D55" s="6"/>
-      <c r="E55" s="6"/>
-      <c r="F55" s="6"/>
-      <c r="G55" s="6"/>
-      <c r="H55" s="6"/>
-      <c r="I55" s="6"/>
-      <c r="J55" s="6"/>
-      <c r="K55" s="6"/>
-      <c r="L55" s="6"/>
-      <c r="M55" s="6"/>
-      <c r="N55" s="6"/>
-      <c r="O55" s="6"/>
-      <c r="P55" s="6"/>
-      <c r="Q55" s="6"/>
-      <c r="R55" s="6"/>
-      <c r="S55" s="6"/>
-      <c r="T55" s="6"/>
-      <c r="U55" s="6"/>
-      <c r="V55" s="6"/>
+      <c r="A55" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="B55" s="4" t="s">
+        <v>308</v>
+      </c>
+      <c r="C55" s="4" t="s">
+        <v>309</v>
+      </c>
+      <c r="D55" s="4"/>
+      <c r="E55" s="4"/>
+      <c r="F55" s="4"/>
+      <c r="G55" s="4"/>
+      <c r="H55" s="4"/>
+      <c r="I55" s="4"/>
+      <c r="J55" s="4"/>
+      <c r="K55" s="4"/>
+      <c r="L55" s="4"/>
+      <c r="M55" s="4"/>
+      <c r="N55" s="4"/>
+      <c r="O55" s="4"/>
+      <c r="P55" s="4"/>
+      <c r="Q55" s="4"/>
+      <c r="R55" s="4"/>
+      <c r="S55" s="4"/>
+      <c r="T55" s="4"/>
+      <c r="U55" s="4"/>
+      <c r="V55" s="4"/>
       <c r="W55" s="4"/>
       <c r="X55" s="4"/>
       <c r="Y55" s="4"/>
       <c r="Z55" s="4"/>
     </row>
-    <row r="56" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A56" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="B56" s="4" t="s">
-        <v>150</v>
+    <row r="56" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A56" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="B56" s="6" t="s">
+        <v>49</v>
       </c>
       <c r="C56" t="s">
-        <v>305</v>
-      </c>
-      <c r="D56" s="4"/>
-      <c r="E56" s="4"/>
-      <c r="F56" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="G56" s="4"/>
-      <c r="H56" s="4"/>
-      <c r="I56" s="4"/>
-      <c r="J56" s="4"/>
-      <c r="K56" s="4"/>
-      <c r="L56" s="4"/>
-      <c r="M56" s="4"/>
-      <c r="N56" s="4"/>
-      <c r="O56" s="4"/>
-      <c r="P56" s="4"/>
-      <c r="Q56" s="4"/>
-      <c r="R56" s="4"/>
-      <c r="S56" s="4"/>
-      <c r="T56" s="4"/>
-      <c r="U56" s="4"/>
-      <c r="V56" s="4"/>
-      <c r="W56" s="4"/>
-      <c r="X56" s="4"/>
-      <c r="Y56" s="4"/>
-      <c r="Z56" s="4"/>
-    </row>
-    <row r="57" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A57" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="E56" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="57" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A57" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="B57" s="4" t="s">
-        <v>307</v>
-      </c>
-      <c r="C57" s="4" t="s">
-        <v>149</v>
-      </c>
-      <c r="D57" s="4"/>
-      <c r="E57" s="4"/>
-      <c r="F57" s="4"/>
-      <c r="G57" s="4"/>
-      <c r="H57" s="4"/>
-      <c r="I57" s="4"/>
-      <c r="J57" s="4"/>
-      <c r="K57" s="4"/>
-      <c r="L57" s="4"/>
-      <c r="M57" s="4"/>
-      <c r="N57" s="4"/>
-      <c r="O57" s="4"/>
-      <c r="P57" s="4"/>
-      <c r="Q57" s="4"/>
-      <c r="R57" s="4"/>
-      <c r="S57" s="4"/>
-      <c r="T57" s="4"/>
-      <c r="U57" s="4"/>
-      <c r="V57" s="4"/>
-      <c r="W57" s="4"/>
-      <c r="X57" s="4"/>
-      <c r="Y57" s="4"/>
-      <c r="Z57" s="4"/>
-    </row>
-    <row r="58" spans="1:26" ht="15.9" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A58" s="41" t="s">
-        <v>135</v>
-      </c>
-      <c r="B58" s="41" t="s">
-        <v>136</v>
-      </c>
-      <c r="C58" s="41" t="s">
-        <v>151</v>
-      </c>
-      <c r="D58" s="6"/>
-      <c r="F58" s="43" t="s">
-        <v>159</v>
-      </c>
-      <c r="I58" s="6"/>
-      <c r="J58" s="6"/>
-      <c r="K58" s="6"/>
-      <c r="L58" s="6"/>
-      <c r="M58" s="6"/>
-      <c r="N58" s="6"/>
-      <c r="O58" s="6"/>
-      <c r="P58" s="6"/>
-      <c r="Q58" s="6"/>
-      <c r="R58" s="6"/>
-      <c r="S58" s="6"/>
-      <c r="T58" s="6"/>
-      <c r="U58" s="6"/>
-      <c r="V58" s="6"/>
-      <c r="W58" s="6"/>
-      <c r="X58" s="6"/>
-      <c r="Y58" s="6"/>
-      <c r="Z58" s="6"/>
-    </row>
-    <row r="59" spans="1:26" ht="15.9" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A59" s="41" t="s">
-        <v>137</v>
-      </c>
-      <c r="B59" s="41" t="s">
-        <v>138</v>
-      </c>
-      <c r="C59" s="41" t="s">
-        <v>152</v>
-      </c>
-      <c r="D59" s="6"/>
-      <c r="F59" s="43" t="s">
-        <v>159</v>
-      </c>
-      <c r="I59" s="6"/>
-      <c r="J59" s="6"/>
-      <c r="K59" s="6"/>
-      <c r="L59" s="6"/>
-      <c r="M59" s="6"/>
-      <c r="N59" s="6"/>
-      <c r="O59" s="6"/>
-      <c r="P59" s="6"/>
-      <c r="Q59" s="6"/>
-      <c r="R59" s="6"/>
-      <c r="S59" s="6"/>
-      <c r="T59" s="6"/>
-      <c r="U59" s="6"/>
-      <c r="V59" s="6"/>
-      <c r="W59" s="6"/>
-      <c r="X59" s="6"/>
-      <c r="Y59" s="6"/>
-      <c r="Z59" s="6"/>
-    </row>
-    <row r="60" spans="1:26" ht="15.9" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A60" s="41" t="s">
-        <v>139</v>
-      </c>
-      <c r="B60" s="41" t="s">
-        <v>140</v>
-      </c>
-      <c r="C60" s="41" t="s">
-        <v>153</v>
-      </c>
+      <c r="B57" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="C57" t="s">
+        <v>53</v>
+      </c>
+      <c r="E57" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="58" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A58" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="B58" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="C58" t="s">
+        <v>56</v>
+      </c>
+      <c r="E58" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="59" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A59" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="B59" s="4"/>
+      <c r="C59" s="4"/>
+      <c r="D59" s="4"/>
+      <c r="E59" s="4"/>
+      <c r="F59" s="4"/>
+      <c r="G59" s="4"/>
+      <c r="H59" s="4"/>
+      <c r="I59" s="4"/>
+      <c r="J59" s="4"/>
+      <c r="K59" s="4"/>
+      <c r="L59" s="4"/>
+      <c r="M59" s="4"/>
+      <c r="N59" s="4"/>
+      <c r="O59" s="4"/>
+      <c r="P59" s="4"/>
+      <c r="Q59" s="4"/>
+      <c r="R59" s="4"/>
+      <c r="S59" s="4"/>
+      <c r="T59" s="4"/>
+      <c r="U59" s="4"/>
+      <c r="V59" s="4"/>
+      <c r="W59" s="4"/>
+      <c r="X59" s="4"/>
+      <c r="Y59" s="4"/>
+      <c r="Z59" s="4"/>
+    </row>
+    <row r="60" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A60" s="6"/>
+      <c r="B60" s="6"/>
+      <c r="C60" s="6"/>
       <c r="D60" s="6"/>
-      <c r="F60" s="43" t="s">
-        <v>159</v>
-      </c>
+      <c r="E60" s="6"/>
+      <c r="F60" s="6"/>
+      <c r="G60" s="6"/>
+      <c r="H60" s="6"/>
       <c r="I60" s="6"/>
       <c r="J60" s="6"/>
       <c r="K60" s="6"/>
@@ -3616,100 +3612,95 @@
       <c r="T60" s="6"/>
       <c r="U60" s="6"/>
       <c r="V60" s="6"/>
-      <c r="W60" s="6"/>
-      <c r="X60" s="6"/>
-      <c r="Y60" s="6"/>
-      <c r="Z60" s="6"/>
-    </row>
-    <row r="61" spans="1:26" ht="15.9" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A61" s="41" t="s">
+      <c r="W60" s="4"/>
+      <c r="X60" s="4"/>
+      <c r="Y60" s="4"/>
+      <c r="Z60" s="4"/>
+    </row>
+    <row r="61" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A61" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B61" s="4" t="s">
+        <v>150</v>
+      </c>
+      <c r="C61" t="s">
+        <v>305</v>
+      </c>
+      <c r="D61" s="4"/>
+      <c r="E61" s="4"/>
+      <c r="F61" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="G61" s="4"/>
+      <c r="H61" s="4"/>
+      <c r="I61" s="4"/>
+      <c r="J61" s="4"/>
+      <c r="K61" s="4"/>
+      <c r="L61" s="4"/>
+      <c r="M61" s="4"/>
+      <c r="N61" s="4"/>
+      <c r="O61" s="4"/>
+      <c r="P61" s="4"/>
+      <c r="Q61" s="4"/>
+      <c r="R61" s="4"/>
+      <c r="S61" s="4"/>
+      <c r="T61" s="4"/>
+      <c r="U61" s="4"/>
+      <c r="V61" s="4"/>
+      <c r="W61" s="4"/>
+      <c r="X61" s="4"/>
+      <c r="Y61" s="4"/>
+      <c r="Z61" s="4"/>
+    </row>
+    <row r="62" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A62" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="B61" s="41" t="s">
-        <v>141</v>
-      </c>
-      <c r="C61" s="41" t="s">
-        <v>154</v>
-      </c>
-      <c r="D61" s="6"/>
-      <c r="E61" s="42" t="s">
-        <v>142</v>
-      </c>
-      <c r="F61" s="43"/>
-      <c r="G61" s="43"/>
-      <c r="H61" s="43"/>
-      <c r="I61" s="6"/>
-      <c r="J61" s="6"/>
-      <c r="K61" s="6"/>
-      <c r="L61" s="6"/>
-      <c r="M61" s="6"/>
-      <c r="N61" s="6"/>
-      <c r="O61" s="6"/>
-      <c r="P61" s="6"/>
-      <c r="Q61" s="6"/>
-      <c r="R61" s="6"/>
-      <c r="S61" s="6"/>
-      <c r="T61" s="6"/>
-      <c r="U61" s="6"/>
-      <c r="V61" s="6"/>
-      <c r="W61" s="6"/>
-      <c r="X61" s="6"/>
-      <c r="Y61" s="6"/>
-      <c r="Z61" s="6"/>
-    </row>
-    <row r="62" spans="1:26" ht="15.9" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A62" s="41" t="s">
-        <v>48</v>
-      </c>
-      <c r="B62" s="41" t="s">
-        <v>143</v>
-      </c>
-      <c r="C62" s="41" t="s">
-        <v>155</v>
-      </c>
-      <c r="D62" s="6"/>
-      <c r="E62" s="42" t="s">
-        <v>144</v>
-      </c>
-      <c r="F62" s="41"/>
-      <c r="G62" s="41"/>
-      <c r="H62" s="41"/>
-      <c r="I62" s="6"/>
-      <c r="J62" s="6"/>
-      <c r="K62" s="6"/>
-      <c r="L62" s="6"/>
-      <c r="M62" s="6"/>
-      <c r="N62" s="6"/>
-      <c r="O62" s="6"/>
-      <c r="P62" s="6"/>
-      <c r="Q62" s="6"/>
-      <c r="R62" s="6"/>
-      <c r="S62" s="6"/>
-      <c r="T62" s="6"/>
-      <c r="U62" s="6"/>
-      <c r="V62" s="6"/>
-      <c r="W62" s="6"/>
-      <c r="X62" s="6"/>
-      <c r="Y62" s="6"/>
-      <c r="Z62" s="6"/>
+      <c r="B62" s="4" t="s">
+        <v>307</v>
+      </c>
+      <c r="C62" s="4" t="s">
+        <v>149</v>
+      </c>
+      <c r="D62" s="4"/>
+      <c r="E62" s="4"/>
+      <c r="F62" s="4"/>
+      <c r="G62" s="4"/>
+      <c r="H62" s="4"/>
+      <c r="I62" s="4"/>
+      <c r="J62" s="4"/>
+      <c r="K62" s="4"/>
+      <c r="L62" s="4"/>
+      <c r="M62" s="4"/>
+      <c r="N62" s="4"/>
+      <c r="O62" s="4"/>
+      <c r="P62" s="4"/>
+      <c r="Q62" s="4"/>
+      <c r="R62" s="4"/>
+      <c r="S62" s="4"/>
+      <c r="T62" s="4"/>
+      <c r="U62" s="4"/>
+      <c r="V62" s="4"/>
+      <c r="W62" s="4"/>
+      <c r="X62" s="4"/>
+      <c r="Y62" s="4"/>
+      <c r="Z62" s="4"/>
     </row>
     <row r="63" spans="1:26" ht="15.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A63" s="41" t="s">
-        <v>48</v>
+        <v>135</v>
       </c>
       <c r="B63" s="41" t="s">
-        <v>145</v>
+        <v>136</v>
       </c>
       <c r="C63" s="41" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="D63" s="6"/>
-      <c r="E63" s="42" t="s">
-        <v>146</v>
-      </c>
-      <c r="F63" s="41"/>
-      <c r="G63" s="41"/>
-      <c r="H63" s="41"/>
+      <c r="F63" s="43" t="s">
+        <v>159</v>
+      </c>
       <c r="I63" s="6"/>
       <c r="J63" s="6"/>
       <c r="K63" s="6"/>
@@ -3731,21 +3722,18 @@
     </row>
     <row r="64" spans="1:26" ht="15.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A64" s="41" t="s">
-        <v>48</v>
+        <v>137</v>
       </c>
       <c r="B64" s="41" t="s">
-        <v>96</v>
+        <v>138</v>
       </c>
       <c r="C64" s="41" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
       <c r="D64" s="6"/>
-      <c r="E64" s="42" t="s">
-        <v>147</v>
-      </c>
-      <c r="F64" s="41"/>
-      <c r="G64" s="41"/>
-      <c r="H64" s="41"/>
+      <c r="F64" s="43" t="s">
+        <v>159</v>
+      </c>
       <c r="I64" s="6"/>
       <c r="J64" s="6"/>
       <c r="K64" s="6"/>
@@ -3767,21 +3755,18 @@
     </row>
     <row r="65" spans="1:26" ht="15.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A65" s="41" t="s">
-        <v>48</v>
+        <v>139</v>
       </c>
       <c r="B65" s="41" t="s">
-        <v>292</v>
+        <v>140</v>
       </c>
       <c r="C65" s="41" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="D65" s="6"/>
-      <c r="E65" s="42" t="s">
-        <v>148</v>
-      </c>
-      <c r="F65" s="41"/>
-      <c r="G65" s="41"/>
-      <c r="H65" s="41"/>
+      <c r="F65" s="43" t="s">
+        <v>159</v>
+      </c>
       <c r="I65" s="6"/>
       <c r="J65" s="6"/>
       <c r="K65" s="6"/>
@@ -3806,17 +3791,18 @@
         <v>48</v>
       </c>
       <c r="B66" s="41" t="s">
-        <v>293</v>
-      </c>
-      <c r="C66" s="46" t="s">
-        <v>210</v>
-      </c>
-      <c r="E66" s="47" t="s">
-        <v>211</v>
-      </c>
-      <c r="F66" s="41"/>
-      <c r="G66" s="41"/>
-      <c r="H66" s="41"/>
+        <v>141</v>
+      </c>
+      <c r="C66" s="41" t="s">
+        <v>154</v>
+      </c>
+      <c r="D66" s="6"/>
+      <c r="E66" s="42" t="s">
+        <v>142</v>
+      </c>
+      <c r="F66" s="43"/>
+      <c r="G66" s="43"/>
+      <c r="H66" s="43"/>
       <c r="I66" s="6"/>
       <c r="J66" s="6"/>
       <c r="K66" s="6"/>
@@ -3836,240 +3822,247 @@
       <c r="Y66" s="6"/>
       <c r="Z66" s="6"/>
     </row>
-    <row r="67" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A67" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="B67" s="4"/>
-      <c r="C67" s="4"/>
-      <c r="D67" s="4"/>
-      <c r="E67" s="4"/>
-      <c r="F67" s="4"/>
-      <c r="G67" s="4"/>
-      <c r="H67" s="4"/>
-      <c r="I67" s="4"/>
-      <c r="J67" s="4"/>
-      <c r="K67" s="4"/>
-      <c r="L67" s="4"/>
-      <c r="M67" s="4"/>
-      <c r="N67" s="4"/>
-      <c r="O67" s="4"/>
-      <c r="P67" s="4"/>
-      <c r="Q67" s="4"/>
-      <c r="R67" s="4"/>
-      <c r="S67" s="4"/>
-      <c r="T67" s="4"/>
-      <c r="U67" s="4"/>
-      <c r="V67" s="4"/>
-      <c r="W67" s="4"/>
-      <c r="X67" s="4"/>
-      <c r="Y67" s="4"/>
-      <c r="Z67" s="4"/>
-    </row>
-    <row r="68" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A68" s="22"/>
-      <c r="B68" s="22"/>
-      <c r="C68" s="22"/>
-      <c r="D68" s="22"/>
-      <c r="E68" s="22"/>
-      <c r="F68" s="22"/>
-      <c r="G68" s="22"/>
-      <c r="H68" s="22"/>
-      <c r="I68" s="22"/>
-      <c r="J68" s="4"/>
-      <c r="K68" s="4"/>
-      <c r="L68" s="4"/>
-      <c r="M68" s="4"/>
-      <c r="N68" s="4"/>
-      <c r="O68" s="4"/>
-      <c r="P68" s="4"/>
-      <c r="Q68" s="4"/>
-      <c r="R68" s="4"/>
-      <c r="S68" s="4"/>
-      <c r="T68" s="4"/>
-      <c r="U68" s="4"/>
-      <c r="V68" s="4"/>
-      <c r="W68" s="4"/>
-      <c r="X68" s="4"/>
-      <c r="Y68" s="4"/>
-      <c r="Z68" s="4"/>
-    </row>
-    <row r="69" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A69" s="22"/>
-      <c r="B69" s="22"/>
-      <c r="C69" s="22"/>
-      <c r="D69" s="22"/>
-      <c r="E69" s="22"/>
-      <c r="F69" s="22"/>
-      <c r="G69" s="22"/>
-      <c r="H69" s="22"/>
-      <c r="I69" s="22"/>
-      <c r="J69" s="22"/>
-      <c r="K69" s="22"/>
-      <c r="L69" s="22"/>
-      <c r="M69" s="22"/>
-      <c r="N69" s="22"/>
-      <c r="O69" s="22"/>
-      <c r="P69" s="22"/>
-      <c r="Q69" s="22"/>
-      <c r="R69" s="22"/>
-      <c r="S69" s="22"/>
-      <c r="T69" s="22"/>
-      <c r="U69" s="22"/>
-      <c r="V69" s="22"/>
-      <c r="W69" s="22"/>
-      <c r="X69" s="22"/>
-      <c r="Y69" s="22"/>
-      <c r="Z69" s="22"/>
-    </row>
-    <row r="70" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A70" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="B70" s="4" t="s">
-        <v>194</v>
-      </c>
-      <c r="C70" s="4" t="s">
-        <v>190</v>
-      </c>
-      <c r="D70" s="22"/>
-      <c r="E70" s="22"/>
-      <c r="F70" s="22"/>
-      <c r="G70" s="22"/>
-      <c r="H70" s="22"/>
-      <c r="I70" s="22"/>
-      <c r="J70" s="22"/>
-      <c r="K70" s="22"/>
-      <c r="L70" s="22"/>
-      <c r="M70" s="22"/>
-      <c r="N70" s="22"/>
-      <c r="O70" s="22"/>
-      <c r="P70" s="22"/>
-      <c r="Q70" s="22"/>
-      <c r="R70" s="22"/>
-      <c r="S70" s="22"/>
-      <c r="T70" s="22"/>
-      <c r="U70" s="22"/>
-      <c r="V70" s="22"/>
-      <c r="W70" s="22"/>
-      <c r="X70" s="22"/>
-      <c r="Y70" s="22"/>
-      <c r="Z70" s="22"/>
-    </row>
-    <row r="71" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:26" ht="15.9" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A67" s="41" t="s">
+        <v>48</v>
+      </c>
+      <c r="B67" s="41" t="s">
+        <v>143</v>
+      </c>
+      <c r="C67" s="41" t="s">
+        <v>155</v>
+      </c>
+      <c r="D67" s="6"/>
+      <c r="E67" s="42" t="s">
+        <v>144</v>
+      </c>
+      <c r="F67" s="41"/>
+      <c r="G67" s="41"/>
+      <c r="H67" s="41"/>
+      <c r="I67" s="6"/>
+      <c r="J67" s="6"/>
+      <c r="K67" s="6"/>
+      <c r="L67" s="6"/>
+      <c r="M67" s="6"/>
+      <c r="N67" s="6"/>
+      <c r="O67" s="6"/>
+      <c r="P67" s="6"/>
+      <c r="Q67" s="6"/>
+      <c r="R67" s="6"/>
+      <c r="S67" s="6"/>
+      <c r="T67" s="6"/>
+      <c r="U67" s="6"/>
+      <c r="V67" s="6"/>
+      <c r="W67" s="6"/>
+      <c r="X67" s="6"/>
+      <c r="Y67" s="6"/>
+      <c r="Z67" s="6"/>
+    </row>
+    <row r="68" spans="1:26" ht="15.9" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A68" s="41" t="s">
+        <v>48</v>
+      </c>
+      <c r="B68" s="41" t="s">
+        <v>145</v>
+      </c>
+      <c r="C68" s="41" t="s">
+        <v>156</v>
+      </c>
+      <c r="D68" s="6"/>
+      <c r="E68" s="42" t="s">
+        <v>146</v>
+      </c>
+      <c r="F68" s="41"/>
+      <c r="G68" s="41"/>
+      <c r="H68" s="41"/>
+      <c r="I68" s="6"/>
+      <c r="J68" s="6"/>
+      <c r="K68" s="6"/>
+      <c r="L68" s="6"/>
+      <c r="M68" s="6"/>
+      <c r="N68" s="6"/>
+      <c r="O68" s="6"/>
+      <c r="P68" s="6"/>
+      <c r="Q68" s="6"/>
+      <c r="R68" s="6"/>
+      <c r="S68" s="6"/>
+      <c r="T68" s="6"/>
+      <c r="U68" s="6"/>
+      <c r="V68" s="6"/>
+      <c r="W68" s="6"/>
+      <c r="X68" s="6"/>
+      <c r="Y68" s="6"/>
+      <c r="Z68" s="6"/>
+    </row>
+    <row r="69" spans="1:26" ht="15.9" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A69" s="41" t="s">
+        <v>48</v>
+      </c>
+      <c r="B69" s="41" t="s">
+        <v>96</v>
+      </c>
+      <c r="C69" s="41" t="s">
+        <v>157</v>
+      </c>
+      <c r="D69" s="6"/>
+      <c r="E69" s="42" t="s">
+        <v>147</v>
+      </c>
+      <c r="F69" s="41"/>
+      <c r="G69" s="41"/>
+      <c r="H69" s="41"/>
+      <c r="I69" s="6"/>
+      <c r="J69" s="6"/>
+      <c r="K69" s="6"/>
+      <c r="L69" s="6"/>
+      <c r="M69" s="6"/>
+      <c r="N69" s="6"/>
+      <c r="O69" s="6"/>
+      <c r="P69" s="6"/>
+      <c r="Q69" s="6"/>
+      <c r="R69" s="6"/>
+      <c r="S69" s="6"/>
+      <c r="T69" s="6"/>
+      <c r="U69" s="6"/>
+      <c r="V69" s="6"/>
+      <c r="W69" s="6"/>
+      <c r="X69" s="6"/>
+      <c r="Y69" s="6"/>
+      <c r="Z69" s="6"/>
+    </row>
+    <row r="70" spans="1:26" ht="15.9" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A70" s="41" t="s">
+        <v>48</v>
+      </c>
+      <c r="B70" s="41" t="s">
+        <v>292</v>
+      </c>
+      <c r="C70" s="41" t="s">
+        <v>158</v>
+      </c>
+      <c r="D70" s="6"/>
+      <c r="E70" s="42" t="s">
+        <v>148</v>
+      </c>
+      <c r="F70" s="41"/>
+      <c r="G70" s="41"/>
+      <c r="H70" s="41"/>
+      <c r="I70" s="6"/>
+      <c r="J70" s="6"/>
+      <c r="K70" s="6"/>
+      <c r="L70" s="6"/>
+      <c r="M70" s="6"/>
+      <c r="N70" s="6"/>
+      <c r="O70" s="6"/>
+      <c r="P70" s="6"/>
+      <c r="Q70" s="6"/>
+      <c r="R70" s="6"/>
+      <c r="S70" s="6"/>
+      <c r="T70" s="6"/>
+      <c r="U70" s="6"/>
+      <c r="V70" s="6"/>
+      <c r="W70" s="6"/>
+      <c r="X70" s="6"/>
+      <c r="Y70" s="6"/>
+      <c r="Z70" s="6"/>
+    </row>
+    <row r="71" spans="1:26" ht="15.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A71" s="41" t="s">
         <v>48</v>
       </c>
       <c r="B71" s="41" t="s">
-        <v>191</v>
-      </c>
-      <c r="C71" s="41" t="s">
-        <v>195</v>
-      </c>
-      <c r="D71" s="22"/>
-      <c r="E71" s="42" t="s">
-        <v>142</v>
-      </c>
-      <c r="F71" s="22"/>
-      <c r="G71" s="22"/>
-      <c r="H71" s="22"/>
-      <c r="I71" s="22"/>
-      <c r="J71" s="22"/>
-      <c r="K71" s="22"/>
-      <c r="L71" s="22"/>
-      <c r="M71" s="22"/>
-      <c r="N71" s="22"/>
-      <c r="O71" s="22"/>
-      <c r="P71" s="22"/>
-      <c r="Q71" s="22"/>
-      <c r="R71" s="22"/>
-      <c r="S71" s="22"/>
-      <c r="T71" s="22"/>
-      <c r="U71" s="22"/>
-      <c r="V71" s="22"/>
-      <c r="W71" s="22"/>
-      <c r="X71" s="22"/>
-      <c r="Y71" s="22"/>
-      <c r="Z71" s="22"/>
+        <v>293</v>
+      </c>
+      <c r="C71" s="46" t="s">
+        <v>210</v>
+      </c>
+      <c r="E71" s="47" t="s">
+        <v>211</v>
+      </c>
+      <c r="F71" s="41"/>
+      <c r="G71" s="41"/>
+      <c r="H71" s="41"/>
+      <c r="I71" s="6"/>
+      <c r="J71" s="6"/>
+      <c r="K71" s="6"/>
+      <c r="L71" s="6"/>
+      <c r="M71" s="6"/>
+      <c r="N71" s="6"/>
+      <c r="O71" s="6"/>
+      <c r="P71" s="6"/>
+      <c r="Q71" s="6"/>
+      <c r="R71" s="6"/>
+      <c r="S71" s="6"/>
+      <c r="T71" s="6"/>
+      <c r="U71" s="6"/>
+      <c r="V71" s="6"/>
+      <c r="W71" s="6"/>
+      <c r="X71" s="6"/>
+      <c r="Y71" s="6"/>
+      <c r="Z71" s="6"/>
     </row>
     <row r="72" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A72" s="41" t="s">
-        <v>48</v>
-      </c>
-      <c r="B72" s="41" t="s">
-        <v>192</v>
-      </c>
-      <c r="C72" s="41" t="s">
-        <v>195</v>
-      </c>
-      <c r="D72" s="22"/>
-      <c r="E72" s="42" t="s">
-        <v>144</v>
-      </c>
-      <c r="F72" s="22"/>
-      <c r="G72" s="22"/>
-      <c r="H72" s="22"/>
-      <c r="I72" s="22"/>
-      <c r="J72" s="22"/>
-      <c r="K72" s="22"/>
-      <c r="L72" s="22"/>
-      <c r="M72" s="22"/>
-      <c r="N72" s="22"/>
-      <c r="O72" s="22"/>
-      <c r="P72" s="22"/>
-      <c r="Q72" s="22"/>
-      <c r="R72" s="22"/>
-      <c r="S72" s="22"/>
-      <c r="T72" s="22"/>
-      <c r="U72" s="22"/>
-      <c r="V72" s="22"/>
-      <c r="W72" s="22"/>
-      <c r="X72" s="22"/>
-      <c r="Y72" s="22"/>
-      <c r="Z72" s="22"/>
+      <c r="A72" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="B72" s="4"/>
+      <c r="C72" s="4"/>
+      <c r="D72" s="4"/>
+      <c r="E72" s="4"/>
+      <c r="F72" s="4"/>
+      <c r="G72" s="4"/>
+      <c r="H72" s="4"/>
+      <c r="I72" s="4"/>
+      <c r="J72" s="4"/>
+      <c r="K72" s="4"/>
+      <c r="L72" s="4"/>
+      <c r="M72" s="4"/>
+      <c r="N72" s="4"/>
+      <c r="O72" s="4"/>
+      <c r="P72" s="4"/>
+      <c r="Q72" s="4"/>
+      <c r="R72" s="4"/>
+      <c r="S72" s="4"/>
+      <c r="T72" s="4"/>
+      <c r="U72" s="4"/>
+      <c r="V72" s="4"/>
+      <c r="W72" s="4"/>
+      <c r="X72" s="4"/>
+      <c r="Y72" s="4"/>
+      <c r="Z72" s="4"/>
     </row>
     <row r="73" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A73" s="41" t="s">
-        <v>48</v>
-      </c>
-      <c r="B73" s="41" t="s">
-        <v>193</v>
-      </c>
-      <c r="C73" s="41" t="s">
-        <v>196</v>
-      </c>
+      <c r="A73" s="22"/>
+      <c r="B73" s="22"/>
+      <c r="C73" s="22"/>
       <c r="D73" s="22"/>
-      <c r="E73" s="42" t="s">
-        <v>146</v>
-      </c>
+      <c r="E73" s="22"/>
       <c r="F73" s="22"/>
       <c r="G73" s="22"/>
       <c r="H73" s="22"/>
       <c r="I73" s="22"/>
-      <c r="J73" s="22"/>
-      <c r="K73" s="22"/>
-      <c r="L73" s="22"/>
-      <c r="M73" s="22"/>
-      <c r="N73" s="22"/>
-      <c r="O73" s="22"/>
-      <c r="P73" s="22"/>
-      <c r="Q73" s="22"/>
-      <c r="R73" s="22"/>
-      <c r="S73" s="22"/>
-      <c r="T73" s="22"/>
-      <c r="U73" s="22"/>
-      <c r="V73" s="22"/>
-      <c r="W73" s="22"/>
-      <c r="X73" s="22"/>
-      <c r="Y73" s="22"/>
-      <c r="Z73" s="22"/>
+      <c r="J73" s="4"/>
+      <c r="K73" s="4"/>
+      <c r="L73" s="4"/>
+      <c r="M73" s="4"/>
+      <c r="N73" s="4"/>
+      <c r="O73" s="4"/>
+      <c r="P73" s="4"/>
+      <c r="Q73" s="4"/>
+      <c r="R73" s="4"/>
+      <c r="S73" s="4"/>
+      <c r="T73" s="4"/>
+      <c r="U73" s="4"/>
+      <c r="V73" s="4"/>
+      <c r="W73" s="4"/>
+      <c r="X73" s="4"/>
+      <c r="Y73" s="4"/>
+      <c r="Z73" s="4"/>
     </row>
     <row r="74" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A74" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="B74" s="4"/>
-      <c r="C74" s="4"/>
+      <c r="A74" s="22"/>
+      <c r="B74" s="22"/>
+      <c r="C74" s="22"/>
       <c r="D74" s="22"/>
       <c r="E74" s="22"/>
       <c r="F74" s="22"/>
@@ -4095,9 +4088,15 @@
       <c r="Z74" s="22"/>
     </row>
     <row r="75" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A75" s="22"/>
-      <c r="B75" s="22"/>
-      <c r="C75" s="22"/>
+      <c r="A75" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B75" s="4" t="s">
+        <v>194</v>
+      </c>
+      <c r="C75" s="4" t="s">
+        <v>190</v>
+      </c>
       <c r="D75" s="22"/>
       <c r="E75" s="22"/>
       <c r="F75" s="22"/>
@@ -4123,11 +4122,19 @@
       <c r="Z75" s="22"/>
     </row>
     <row r="76" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A76" s="22"/>
-      <c r="B76" s="22"/>
-      <c r="C76" s="22"/>
+      <c r="A76" s="41" t="s">
+        <v>48</v>
+      </c>
+      <c r="B76" s="41" t="s">
+        <v>191</v>
+      </c>
+      <c r="C76" s="41" t="s">
+        <v>195</v>
+      </c>
       <c r="D76" s="22"/>
-      <c r="E76" s="22"/>
+      <c r="E76" s="42" t="s">
+        <v>142</v>
+      </c>
       <c r="F76" s="22"/>
       <c r="G76" s="22"/>
       <c r="H76" s="22"/>
@@ -4150,209 +4157,283 @@
       <c r="Y76" s="22"/>
       <c r="Z76" s="22"/>
     </row>
-    <row r="77" spans="1:26" s="4" customFormat="1" ht="12.9" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A77" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="B77" s="4" t="s">
-        <v>212</v>
-      </c>
-      <c r="C77" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="F77" s="19" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="78" spans="1:26" s="6" customFormat="1" ht="12.9" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A78" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="B78" s="9" t="s">
-        <v>214</v>
-      </c>
-      <c r="C78" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="D78" s="9"/>
-      <c r="E78" s="17"/>
+    <row r="77" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A77" s="41" t="s">
+        <v>48</v>
+      </c>
+      <c r="B77" s="41" t="s">
+        <v>192</v>
+      </c>
+      <c r="C77" s="41" t="s">
+        <v>195</v>
+      </c>
+      <c r="D77" s="22"/>
+      <c r="E77" s="42" t="s">
+        <v>144</v>
+      </c>
+      <c r="F77" s="22"/>
+      <c r="G77" s="22"/>
+      <c r="H77" s="22"/>
+      <c r="I77" s="22"/>
+      <c r="J77" s="22"/>
+      <c r="K77" s="22"/>
+      <c r="L77" s="22"/>
+      <c r="M77" s="22"/>
+      <c r="N77" s="22"/>
+      <c r="O77" s="22"/>
+      <c r="P77" s="22"/>
+      <c r="Q77" s="22"/>
+      <c r="R77" s="22"/>
+      <c r="S77" s="22"/>
+      <c r="T77" s="22"/>
+      <c r="U77" s="22"/>
+      <c r="V77" s="22"/>
+      <c r="W77" s="22"/>
+      <c r="X77" s="22"/>
+      <c r="Y77" s="22"/>
+      <c r="Z77" s="22"/>
+    </row>
+    <row r="78" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A78" s="41" t="s">
+        <v>48</v>
+      </c>
+      <c r="B78" s="41" t="s">
+        <v>193</v>
+      </c>
+      <c r="C78" s="41" t="s">
+        <v>196</v>
+      </c>
+      <c r="D78" s="22"/>
+      <c r="E78" s="42" t="s">
+        <v>146</v>
+      </c>
+      <c r="F78" s="22"/>
       <c r="G78" s="22"/>
       <c r="H78" s="22"/>
-      <c r="I78" s="6" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="79" spans="1:26" s="6" customFormat="1" ht="12.9" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A79" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="B79" s="9" t="s">
-        <v>216</v>
-      </c>
-      <c r="C79" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="D79" s="9"/>
-      <c r="E79" s="17"/>
+      <c r="I78" s="22"/>
+      <c r="J78" s="22"/>
+      <c r="K78" s="22"/>
+      <c r="L78" s="22"/>
+      <c r="M78" s="22"/>
+      <c r="N78" s="22"/>
+      <c r="O78" s="22"/>
+      <c r="P78" s="22"/>
+      <c r="Q78" s="22"/>
+      <c r="R78" s="22"/>
+      <c r="S78" s="22"/>
+      <c r="T78" s="22"/>
+      <c r="U78" s="22"/>
+      <c r="V78" s="22"/>
+      <c r="W78" s="22"/>
+      <c r="X78" s="22"/>
+      <c r="Y78" s="22"/>
+      <c r="Z78" s="22"/>
+    </row>
+    <row r="79" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A79" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="B79" s="4"/>
+      <c r="C79" s="4"/>
+      <c r="D79" s="22"/>
+      <c r="E79" s="22"/>
+      <c r="F79" s="22"/>
       <c r="G79" s="22"/>
       <c r="H79" s="22"/>
-      <c r="I79" s="6" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="80" spans="1:26" s="6" customFormat="1" ht="12.9" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A80" s="9" t="s">
-        <v>48</v>
-      </c>
-      <c r="B80" s="9" t="s">
-        <v>60</v>
-      </c>
-      <c r="C80" s="17" t="s">
-        <v>225</v>
-      </c>
-      <c r="D80" s="9"/>
-      <c r="E80" s="17"/>
+      <c r="I79" s="22"/>
+      <c r="J79" s="22"/>
+      <c r="K79" s="22"/>
+      <c r="L79" s="22"/>
+      <c r="M79" s="22"/>
+      <c r="N79" s="22"/>
+      <c r="O79" s="22"/>
+      <c r="P79" s="22"/>
+      <c r="Q79" s="22"/>
+      <c r="R79" s="22"/>
+      <c r="S79" s="22"/>
+      <c r="T79" s="22"/>
+      <c r="U79" s="22"/>
+      <c r="V79" s="22"/>
+      <c r="W79" s="22"/>
+      <c r="X79" s="22"/>
+      <c r="Y79" s="22"/>
+      <c r="Z79" s="22"/>
+    </row>
+    <row r="80" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A80" s="22"/>
+      <c r="B80" s="22"/>
+      <c r="C80" s="22"/>
+      <c r="D80" s="22"/>
+      <c r="E80" s="22"/>
+      <c r="F80" s="22"/>
       <c r="G80" s="22"/>
       <c r="H80" s="22"/>
-    </row>
-    <row r="81" spans="1:25" s="6" customFormat="1" ht="12.9" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A81" s="9" t="s">
-        <v>43</v>
-      </c>
-      <c r="B81" s="9" t="s">
-        <v>218</v>
-      </c>
-      <c r="C81" s="10" t="s">
-        <v>61</v>
-      </c>
-      <c r="D81" s="21" t="s">
-        <v>44</v>
-      </c>
-      <c r="E81" s="9"/>
-      <c r="G81" s="22" t="s">
-        <v>62</v>
-      </c>
-      <c r="H81" s="22" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="82" spans="1:25" s="6" customFormat="1" ht="12.9" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A82" s="9" t="s">
-        <v>63</v>
-      </c>
-      <c r="B82" s="9" t="s">
-        <v>64</v>
-      </c>
-      <c r="C82" s="23" t="s">
-        <v>65</v>
-      </c>
-      <c r="D82" s="21"/>
-      <c r="E82" s="9"/>
-      <c r="G82" s="22"/>
-      <c r="H82" s="22"/>
-    </row>
-    <row r="83" spans="1:25" s="6" customFormat="1" ht="12.9" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A83" s="9"/>
-      <c r="B83" s="9"/>
-      <c r="C83" s="23"/>
-      <c r="D83" s="21"/>
-      <c r="E83" s="9"/>
+      <c r="I80" s="22"/>
+      <c r="J80" s="22"/>
+      <c r="K80" s="22"/>
+      <c r="L80" s="22"/>
+      <c r="M80" s="22"/>
+      <c r="N80" s="22"/>
+      <c r="O80" s="22"/>
+      <c r="P80" s="22"/>
+      <c r="Q80" s="22"/>
+      <c r="R80" s="22"/>
+      <c r="S80" s="22"/>
+      <c r="T80" s="22"/>
+      <c r="U80" s="22"/>
+      <c r="V80" s="22"/>
+      <c r="W80" s="22"/>
+      <c r="X80" s="22"/>
+      <c r="Y80" s="22"/>
+      <c r="Z80" s="22"/>
+    </row>
+    <row r="81" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A81" s="22"/>
+      <c r="B81" s="22"/>
+      <c r="C81" s="22"/>
+      <c r="D81" s="22"/>
+      <c r="E81" s="22"/>
+      <c r="F81" s="22"/>
+      <c r="G81" s="22"/>
+      <c r="H81" s="22"/>
+      <c r="I81" s="22"/>
+      <c r="J81" s="22"/>
+      <c r="K81" s="22"/>
+      <c r="L81" s="22"/>
+      <c r="M81" s="22"/>
+      <c r="N81" s="22"/>
+      <c r="O81" s="22"/>
+      <c r="P81" s="22"/>
+      <c r="Q81" s="22"/>
+      <c r="R81" s="22"/>
+      <c r="S81" s="22"/>
+      <c r="T81" s="22"/>
+      <c r="U81" s="22"/>
+      <c r="V81" s="22"/>
+      <c r="W81" s="22"/>
+      <c r="X81" s="22"/>
+      <c r="Y81" s="22"/>
+      <c r="Z81" s="22"/>
+    </row>
+    <row r="82" spans="1:26" s="4" customFormat="1" ht="12.9" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A82" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B82" s="4" t="s">
+        <v>212</v>
+      </c>
+      <c r="C82" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="F82" s="19" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="83" spans="1:26" s="6" customFormat="1" ht="12.9" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A83" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="B83" s="9" t="s">
+        <v>214</v>
+      </c>
+      <c r="C83" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="D83" s="9"/>
+      <c r="E83" s="17"/>
       <c r="G83" s="22"/>
       <c r="H83" s="22"/>
-    </row>
-    <row r="84" spans="1:25" s="4" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A84" s="4" t="s">
+      <c r="I83" s="6" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="84" spans="1:26" s="6" customFormat="1" ht="12.9" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A84" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="B84" s="9" t="s">
+        <v>216</v>
+      </c>
+      <c r="C84" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="D84" s="9"/>
+      <c r="E84" s="17"/>
+      <c r="G84" s="22"/>
+      <c r="H84" s="22"/>
+      <c r="I84" s="6" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="85" spans="1:26" s="6" customFormat="1" ht="12.9" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A85" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="B85" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="C85" s="17" t="s">
+        <v>225</v>
+      </c>
+      <c r="D85" s="9"/>
+      <c r="E85" s="17"/>
+      <c r="G85" s="22"/>
+      <c r="H85" s="22"/>
+    </row>
+    <row r="86" spans="1:26" s="6" customFormat="1" ht="12.9" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A86" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="B86" s="9" t="s">
+        <v>218</v>
+      </c>
+      <c r="C86" s="10" t="s">
+        <v>61</v>
+      </c>
+      <c r="D86" s="21" t="s">
+        <v>44</v>
+      </c>
+      <c r="E86" s="9"/>
+      <c r="G86" s="22" t="s">
+        <v>62</v>
+      </c>
+      <c r="H86" s="22" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="87" spans="1:26" s="6" customFormat="1" ht="12.9" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A87" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="B87" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="C87" s="23" t="s">
+        <v>65</v>
+      </c>
+      <c r="D87" s="21"/>
+      <c r="E87" s="9"/>
+      <c r="G87" s="22"/>
+      <c r="H87" s="22"/>
+    </row>
+    <row r="88" spans="1:26" s="6" customFormat="1" ht="12.9" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A88" s="9"/>
+      <c r="B88" s="9"/>
+      <c r="C88" s="23"/>
+      <c r="D88" s="21"/>
+      <c r="E88" s="9"/>
+      <c r="G88" s="22"/>
+      <c r="H88" s="22"/>
+    </row>
+    <row r="89" spans="1:26" s="4" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A89" s="4" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="85" spans="1:25" s="4" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A85"/>
-      <c r="B85"/>
-      <c r="C85"/>
-      <c r="D85"/>
-      <c r="E85"/>
-      <c r="F85"/>
-      <c r="G85"/>
-      <c r="H85"/>
-      <c r="I85"/>
-      <c r="J85"/>
-    </row>
-    <row r="86" spans="1:25" s="4" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A86" s="40" t="s">
-        <v>17</v>
-      </c>
-      <c r="B86" s="40" t="s">
-        <v>205</v>
-      </c>
-      <c r="C86" s="40" t="s">
-        <v>197</v>
-      </c>
-      <c r="D86"/>
-      <c r="E86"/>
-      <c r="F86"/>
-      <c r="G86"/>
-      <c r="H86"/>
-      <c r="I86"/>
-      <c r="J86"/>
-    </row>
-    <row r="87" spans="1:25" s="4" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A87" s="41" t="s">
-        <v>198</v>
-      </c>
-      <c r="B87" s="41" t="s">
-        <v>199</v>
-      </c>
-      <c r="C87" s="41" t="s">
-        <v>206</v>
-      </c>
-      <c r="D87"/>
-      <c r="E87" s="42" t="s">
-        <v>207</v>
-      </c>
-      <c r="F87"/>
-      <c r="G87"/>
-      <c r="H87"/>
-      <c r="I87"/>
-      <c r="J87"/>
-    </row>
-    <row r="88" spans="1:25" s="4" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A88" s="41" t="s">
-        <v>48</v>
-      </c>
-      <c r="B88" s="41" t="s">
-        <v>200</v>
-      </c>
-      <c r="C88" s="41" t="s">
-        <v>201</v>
-      </c>
-      <c r="D88"/>
-      <c r="E88" s="42" t="s">
-        <v>208</v>
-      </c>
-      <c r="F88"/>
-      <c r="G88"/>
-      <c r="H88"/>
-      <c r="I88"/>
-      <c r="J88"/>
-    </row>
-    <row r="89" spans="1:25" s="4" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A89" s="40" t="s">
-        <v>29</v>
-      </c>
-      <c r="B89" s="40"/>
-      <c r="C89" s="40"/>
-      <c r="D89"/>
-      <c r="E89"/>
-      <c r="F89"/>
-      <c r="G89"/>
-      <c r="H89"/>
-      <c r="I89"/>
-      <c r="J89"/>
-    </row>
-    <row r="90" spans="1:25" s="4" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A90" s="41"/>
-      <c r="B90" s="41"/>
-      <c r="C90" s="41"/>
+    <row r="90" spans="1:26" s="4" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A90"/>
+      <c r="B90"/>
+      <c r="C90"/>
       <c r="D90"/>
       <c r="E90"/>
       <c r="F90"/>
@@ -4361,15 +4442,15 @@
       <c r="I90"/>
       <c r="J90"/>
     </row>
-    <row r="91" spans="1:25" s="4" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:26" s="4" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A91" s="40" t="s">
         <v>17</v>
       </c>
       <c r="B91" s="40" t="s">
-        <v>291</v>
+        <v>205</v>
       </c>
       <c r="C91" s="40" t="s">
-        <v>202</v>
+        <v>197</v>
       </c>
       <c r="D91"/>
       <c r="E91"/>
@@ -4379,19 +4460,19 @@
       <c r="I91"/>
       <c r="J91"/>
     </row>
-    <row r="92" spans="1:25" s="4" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:26" s="4" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A92" s="41" t="s">
-        <v>48</v>
+        <v>198</v>
       </c>
       <c r="B92" s="41" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="C92" s="41" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="D92"/>
       <c r="E92" s="42" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="F92"/>
       <c r="G92"/>
@@ -4399,24 +4480,32 @@
       <c r="I92"/>
       <c r="J92"/>
     </row>
-    <row r="93" spans="1:25" s="4" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A93" s="40" t="s">
-        <v>29</v>
-      </c>
-      <c r="B93" s="40"/>
-      <c r="C93" s="40"/>
+    <row r="93" spans="1:26" s="4" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A93" s="41" t="s">
+        <v>48</v>
+      </c>
+      <c r="B93" s="41" t="s">
+        <v>200</v>
+      </c>
+      <c r="C93" s="41" t="s">
+        <v>201</v>
+      </c>
       <c r="D93"/>
-      <c r="E93"/>
+      <c r="E93" s="42" t="s">
+        <v>208</v>
+      </c>
       <c r="F93"/>
       <c r="G93"/>
       <c r="H93"/>
       <c r="I93"/>
       <c r="J93"/>
     </row>
-    <row r="94" spans="1:25" s="4" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A94"/>
-      <c r="B94"/>
-      <c r="C94"/>
+    <row r="94" spans="1:26" s="4" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A94" s="40" t="s">
+        <v>29</v>
+      </c>
+      <c r="B94" s="40"/>
+      <c r="C94" s="40"/>
       <c r="D94"/>
       <c r="E94"/>
       <c r="F94"/>
@@ -4425,421 +4514,312 @@
       <c r="I94"/>
       <c r="J94"/>
     </row>
-    <row r="95" spans="1:25" s="15" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A95" s="5" t="s">
+    <row r="95" spans="1:26" s="4" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A95" s="41"/>
+      <c r="B95" s="41"/>
+      <c r="C95" s="41"/>
+      <c r="D95"/>
+      <c r="E95"/>
+      <c r="F95"/>
+      <c r="G95"/>
+      <c r="H95"/>
+      <c r="I95"/>
+      <c r="J95"/>
+    </row>
+    <row r="96" spans="1:26" s="4" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A96" s="40" t="s">
         <v>17</v>
       </c>
-      <c r="B95" s="5" t="s">
+      <c r="B96" s="40" t="s">
+        <v>291</v>
+      </c>
+      <c r="C96" s="40" t="s">
+        <v>202</v>
+      </c>
+      <c r="D96"/>
+      <c r="E96"/>
+      <c r="F96"/>
+      <c r="G96"/>
+      <c r="H96"/>
+      <c r="I96"/>
+      <c r="J96"/>
+    </row>
+    <row r="97" spans="1:25" s="4" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A97" s="41" t="s">
+        <v>48</v>
+      </c>
+      <c r="B97" s="41" t="s">
+        <v>203</v>
+      </c>
+      <c r="C97" s="41" t="s">
+        <v>204</v>
+      </c>
+      <c r="D97"/>
+      <c r="E97" s="42" t="s">
+        <v>209</v>
+      </c>
+      <c r="F97"/>
+      <c r="G97"/>
+      <c r="H97"/>
+      <c r="I97"/>
+      <c r="J97"/>
+    </row>
+    <row r="98" spans="1:25" s="4" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A98" s="40" t="s">
+        <v>29</v>
+      </c>
+      <c r="B98" s="40"/>
+      <c r="C98" s="40"/>
+      <c r="D98"/>
+      <c r="E98"/>
+      <c r="F98"/>
+      <c r="G98"/>
+      <c r="H98"/>
+      <c r="I98"/>
+      <c r="J98"/>
+    </row>
+    <row r="99" spans="1:25" s="4" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A99"/>
+      <c r="B99"/>
+      <c r="C99"/>
+      <c r="D99"/>
+      <c r="E99"/>
+      <c r="F99"/>
+      <c r="G99"/>
+      <c r="H99"/>
+      <c r="I99"/>
+      <c r="J99"/>
+    </row>
+    <row r="100" spans="1:25" s="15" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A100" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="B100" s="5" t="s">
         <v>66</v>
       </c>
-      <c r="C95" s="5" t="s">
+      <c r="C100" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="D95" s="5"/>
-      <c r="E95" s="4"/>
-      <c r="F95" s="19" t="s">
+      <c r="D100" s="5"/>
+      <c r="E100" s="4"/>
+      <c r="F100" s="19" t="s">
         <v>67</v>
       </c>
-      <c r="G95" s="5"/>
-      <c r="H95" s="5"/>
-      <c r="I95" s="5"/>
-      <c r="J95" s="5"/>
-      <c r="K95" s="5"/>
-      <c r="L95" s="5"/>
-      <c r="M95" s="5"/>
-      <c r="N95" s="16"/>
-      <c r="O95" s="16"/>
-      <c r="P95" s="16"/>
-      <c r="Q95" s="16"/>
-      <c r="R95" s="16"/>
-      <c r="S95" s="16"/>
-      <c r="T95" s="16"/>
-      <c r="U95" s="16"/>
-      <c r="V95" s="16"/>
-      <c r="W95" s="16"/>
-      <c r="X95" s="16"/>
-      <c r="Y95" s="16"/>
-    </row>
-    <row r="96" spans="1:25" s="15" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A96" s="16" t="s">
+      <c r="G100" s="5"/>
+      <c r="H100" s="5"/>
+      <c r="I100" s="5"/>
+      <c r="J100" s="5"/>
+      <c r="K100" s="5"/>
+      <c r="L100" s="5"/>
+      <c r="M100" s="5"/>
+      <c r="N100" s="16"/>
+      <c r="O100" s="16"/>
+      <c r="P100" s="16"/>
+      <c r="Q100" s="16"/>
+      <c r="R100" s="16"/>
+      <c r="S100" s="16"/>
+      <c r="T100" s="16"/>
+      <c r="U100" s="16"/>
+      <c r="V100" s="16"/>
+      <c r="W100" s="16"/>
+      <c r="X100" s="16"/>
+      <c r="Y100" s="16"/>
+    </row>
+    <row r="101" spans="1:25" s="15" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A101" s="16" t="s">
         <v>48</v>
       </c>
-      <c r="B96" s="24" t="s">
+      <c r="B101" s="24" t="s">
         <v>68</v>
       </c>
-      <c r="C96" s="3" t="s">
+      <c r="C101" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="D96" s="6" t="s">
+      <c r="D101" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="E96" s="3"/>
-      <c r="F96" s="16"/>
-      <c r="G96" s="16"/>
-      <c r="H96" s="16"/>
-      <c r="I96" s="16"/>
-      <c r="J96" s="16"/>
-      <c r="K96" s="16"/>
-      <c r="L96" s="16"/>
-      <c r="M96" s="16"/>
-      <c r="N96" s="16"/>
-      <c r="O96" s="16"/>
-      <c r="P96" s="16"/>
-      <c r="Q96" s="16"/>
-      <c r="R96" s="16"/>
-      <c r="S96" s="16"/>
-      <c r="T96" s="16"/>
-      <c r="U96" s="16"/>
-      <c r="V96" s="16"/>
-      <c r="W96" s="16"/>
-      <c r="X96" s="16"/>
-      <c r="Y96" s="16"/>
-    </row>
-    <row r="97" spans="1:25" s="15" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A97" s="25" t="s">
+      <c r="E101" s="3"/>
+      <c r="F101" s="16"/>
+      <c r="G101" s="16"/>
+      <c r="H101" s="16"/>
+      <c r="I101" s="16"/>
+      <c r="J101" s="16"/>
+      <c r="K101" s="16"/>
+      <c r="L101" s="16"/>
+      <c r="M101" s="16"/>
+      <c r="N101" s="16"/>
+      <c r="O101" s="16"/>
+      <c r="P101" s="16"/>
+      <c r="Q101" s="16"/>
+      <c r="R101" s="16"/>
+      <c r="S101" s="16"/>
+      <c r="T101" s="16"/>
+      <c r="U101" s="16"/>
+      <c r="V101" s="16"/>
+      <c r="W101" s="16"/>
+      <c r="X101" s="16"/>
+      <c r="Y101" s="16"/>
+    </row>
+    <row r="102" spans="1:25" s="15" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A102" s="25" t="s">
         <v>48</v>
       </c>
-      <c r="B97" s="25" t="s">
+      <c r="B102" s="25" t="s">
         <v>66</v>
       </c>
-      <c r="C97" s="26" t="s">
+      <c r="C102" s="26" t="s">
         <v>70</v>
       </c>
-      <c r="D97" s="25"/>
-      <c r="E97" s="25"/>
-      <c r="F97" s="25" t="s">
+      <c r="D102" s="25"/>
+      <c r="E102" s="25"/>
+      <c r="F102" s="25" t="s">
         <v>71</v>
       </c>
-      <c r="G97" s="25"/>
-      <c r="H97" s="25"/>
-      <c r="I97" s="25"/>
-      <c r="J97" s="25"/>
-      <c r="K97" s="25"/>
-      <c r="L97" s="25"/>
-      <c r="M97" s="25"/>
-      <c r="N97" s="25"/>
-      <c r="O97" s="25"/>
-      <c r="P97" s="25"/>
-      <c r="Q97" s="25"/>
-      <c r="R97" s="25"/>
-      <c r="S97" s="25"/>
-      <c r="T97" s="25"/>
-      <c r="U97" s="25"/>
-      <c r="V97" s="25"/>
-      <c r="W97" s="25"/>
-      <c r="X97" s="25"/>
-      <c r="Y97" s="25"/>
-    </row>
-    <row r="98" spans="1:25" s="15" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A98" s="3" t="s">
+      <c r="G102" s="25"/>
+      <c r="H102" s="25"/>
+      <c r="I102" s="25"/>
+      <c r="J102" s="25"/>
+      <c r="K102" s="25"/>
+      <c r="L102" s="25"/>
+      <c r="M102" s="25"/>
+      <c r="N102" s="25"/>
+      <c r="O102" s="25"/>
+      <c r="P102" s="25"/>
+      <c r="Q102" s="25"/>
+      <c r="R102" s="25"/>
+      <c r="S102" s="25"/>
+      <c r="T102" s="25"/>
+      <c r="U102" s="25"/>
+      <c r="V102" s="25"/>
+      <c r="W102" s="25"/>
+      <c r="X102" s="25"/>
+      <c r="Y102" s="25"/>
+    </row>
+    <row r="103" spans="1:25" s="15" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A103" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="B98" s="3" t="s">
+      <c r="B103" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="C98" s="24" t="s">
+      <c r="C103" s="24" t="s">
         <v>304</v>
       </c>
-      <c r="D98" s="3"/>
-      <c r="E98" s="3"/>
-      <c r="F98" s="3"/>
-      <c r="G98" s="3"/>
-      <c r="H98" s="3"/>
-      <c r="I98" s="16"/>
-      <c r="J98" s="3"/>
-      <c r="K98" s="3"/>
-      <c r="L98" s="3"/>
-      <c r="M98" s="3"/>
-      <c r="N98" s="3"/>
-      <c r="O98" s="3"/>
-      <c r="P98" s="3"/>
-      <c r="Q98" s="3"/>
-      <c r="R98" s="3"/>
-      <c r="S98" s="3"/>
-      <c r="T98" s="3"/>
-      <c r="U98" s="3"/>
-      <c r="V98" s="3"/>
-      <c r="W98" s="3"/>
-      <c r="X98" s="3"/>
-      <c r="Y98" s="3"/>
-    </row>
-    <row r="99" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A99" s="6" t="s">
+      <c r="D103" s="3"/>
+      <c r="E103" s="3"/>
+      <c r="F103" s="3"/>
+      <c r="G103" s="3"/>
+      <c r="H103" s="3"/>
+      <c r="I103" s="16"/>
+      <c r="J103" s="3"/>
+      <c r="K103" s="3"/>
+      <c r="L103" s="3"/>
+      <c r="M103" s="3"/>
+      <c r="N103" s="3"/>
+      <c r="O103" s="3"/>
+      <c r="P103" s="3"/>
+      <c r="Q103" s="3"/>
+      <c r="R103" s="3"/>
+      <c r="S103" s="3"/>
+      <c r="T103" s="3"/>
+      <c r="U103" s="3"/>
+      <c r="V103" s="3"/>
+      <c r="W103" s="3"/>
+      <c r="X103" s="3"/>
+      <c r="Y103" s="3"/>
+    </row>
+    <row r="104" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A104" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="B99" s="6" t="s">
+      <c r="B104" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="C99" s="27" t="s">
+      <c r="C104" s="27" t="s">
         <v>73</v>
       </c>
-      <c r="E99" t="s">
+      <c r="E104" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="100" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A100" s="6" t="s">
+    <row r="105" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A105" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="B100" s="6" t="s">
+      <c r="B105" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="C100" s="27" t="s">
+      <c r="C105" s="27" t="s">
         <v>74</v>
       </c>
-      <c r="E100" t="s">
+      <c r="E105" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="101" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A101" s="6" t="s">
+    <row r="106" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A106" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="B101" s="6" t="s">
+      <c r="B106" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="C101" s="27" t="s">
+      <c r="C106" s="27" t="s">
         <v>75</v>
       </c>
-      <c r="E101" t="s">
+      <c r="E106" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="102" spans="1:25" s="15" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A102" s="28" t="s">
+    <row r="107" spans="1:25" s="15" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A107" s="28" t="s">
         <v>48</v>
       </c>
-      <c r="B102" s="29" t="s">
+      <c r="B107" s="29" t="s">
         <v>76</v>
       </c>
-      <c r="C102" s="30" t="s">
+      <c r="C107" s="30" t="s">
         <v>77</v>
       </c>
-      <c r="D102" s="28"/>
-      <c r="E102" s="28"/>
-      <c r="F102" s="28" t="s">
+      <c r="D107" s="28"/>
+      <c r="E107" s="28"/>
+      <c r="F107" s="28" t="s">
         <v>78</v>
       </c>
-      <c r="G102" s="28"/>
-      <c r="H102" s="28"/>
-      <c r="I102" s="28"/>
-      <c r="J102" s="28"/>
-      <c r="K102" s="28"/>
-      <c r="L102" s="28"/>
-      <c r="M102" s="28"/>
-      <c r="N102" s="28"/>
-      <c r="O102" s="28"/>
-      <c r="P102" s="28"/>
-      <c r="Q102" s="28"/>
-      <c r="R102" s="28"/>
-      <c r="S102" s="28"/>
-      <c r="T102" s="28"/>
-      <c r="U102" s="28"/>
-      <c r="V102" s="28"/>
-      <c r="W102" s="28"/>
-      <c r="X102" s="28"/>
-      <c r="Y102" s="28"/>
-    </row>
-    <row r="103" spans="1:25" s="15" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A103" s="24" t="s">
-        <v>48</v>
-      </c>
-      <c r="B103" s="41" t="s">
-        <v>93</v>
-      </c>
-      <c r="C103" s="41" t="s">
-        <v>161</v>
-      </c>
-      <c r="D103" s="6"/>
-      <c r="E103" s="17" t="s">
-        <v>219</v>
-      </c>
-      <c r="F103" s="15" t="s">
-        <v>79</v>
-      </c>
-      <c r="G103" s="16"/>
-      <c r="H103" s="16"/>
-      <c r="I103" s="16"/>
-      <c r="J103" s="16"/>
-      <c r="K103" s="16"/>
-      <c r="L103" s="16"/>
-      <c r="M103" s="16"/>
-      <c r="N103" s="16"/>
-      <c r="O103" s="16"/>
-      <c r="P103" s="16"/>
-      <c r="Q103" s="16"/>
-      <c r="R103" s="16"/>
-      <c r="S103" s="16"/>
-      <c r="T103" s="16"/>
-      <c r="U103" s="16"/>
-      <c r="V103" s="16"/>
-      <c r="W103" s="16"/>
-      <c r="X103" s="16"/>
-      <c r="Y103" s="16"/>
-    </row>
-    <row r="104" spans="1:25" s="15" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A104" s="24" t="s">
-        <v>48</v>
-      </c>
-      <c r="B104" s="41" t="s">
-        <v>162</v>
-      </c>
-      <c r="C104" s="41" t="s">
-        <v>163</v>
-      </c>
-      <c r="D104" s="6"/>
-      <c r="E104" s="17" t="s">
-        <v>220</v>
-      </c>
-      <c r="F104" s="16" t="s">
-        <v>79</v>
-      </c>
-      <c r="G104" s="16"/>
-      <c r="H104" s="16"/>
-      <c r="I104" s="16"/>
-      <c r="J104" s="16"/>
-      <c r="K104" s="16"/>
-      <c r="L104" s="16"/>
-      <c r="M104" s="16"/>
-      <c r="N104" s="16"/>
-      <c r="O104" s="16"/>
-      <c r="P104" s="16"/>
-      <c r="Q104" s="16"/>
-      <c r="R104" s="16"/>
-      <c r="S104" s="16"/>
-      <c r="T104" s="16"/>
-      <c r="U104" s="16"/>
-      <c r="V104" s="16"/>
-      <c r="W104" s="16"/>
-      <c r="X104" s="16"/>
-      <c r="Y104" s="16"/>
-    </row>
-    <row r="105" spans="1:25" s="15" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A105" s="24" t="s">
-        <v>48</v>
-      </c>
-      <c r="B105" s="41" t="s">
-        <v>99</v>
-      </c>
-      <c r="C105" s="41" t="s">
-        <v>164</v>
-      </c>
-      <c r="D105" s="6"/>
-      <c r="E105" s="17" t="s">
-        <v>221</v>
-      </c>
-      <c r="F105" s="16" t="s">
-        <v>79</v>
-      </c>
-      <c r="G105" s="16"/>
-      <c r="H105" s="16"/>
-      <c r="I105" s="16"/>
-      <c r="J105" s="16"/>
-      <c r="K105" s="16"/>
-      <c r="L105" s="16"/>
-      <c r="M105" s="16"/>
-      <c r="N105" s="16"/>
-      <c r="O105" s="16"/>
-      <c r="P105" s="16"/>
-      <c r="Q105" s="16"/>
-      <c r="R105" s="16"/>
-      <c r="S105" s="16"/>
-      <c r="T105" s="16"/>
-      <c r="U105" s="16"/>
-      <c r="V105" s="16"/>
-      <c r="W105" s="16"/>
-      <c r="X105" s="16"/>
-      <c r="Y105" s="16"/>
-    </row>
-    <row r="106" spans="1:25" s="15" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A106" s="24" t="s">
-        <v>48</v>
-      </c>
-      <c r="B106" s="41" t="s">
-        <v>166</v>
-      </c>
-      <c r="C106" s="41" t="s">
-        <v>167</v>
-      </c>
-      <c r="D106" s="6"/>
-      <c r="E106" s="17" t="s">
-        <v>294</v>
-      </c>
-      <c r="F106" s="16" t="s">
-        <v>79</v>
-      </c>
-      <c r="G106" s="16"/>
-      <c r="H106" s="16"/>
-      <c r="I106" s="16"/>
-      <c r="J106" s="16"/>
-      <c r="K106" s="16"/>
-      <c r="L106" s="16"/>
-      <c r="M106" s="16"/>
-      <c r="N106" s="16"/>
-      <c r="O106" s="16"/>
-      <c r="P106" s="16"/>
-      <c r="Q106" s="16"/>
-      <c r="R106" s="16"/>
-      <c r="S106" s="16"/>
-      <c r="T106" s="16"/>
-      <c r="U106" s="16"/>
-      <c r="V106" s="16"/>
-      <c r="W106" s="16"/>
-      <c r="X106" s="16"/>
-      <c r="Y106" s="16"/>
-    </row>
-    <row r="107" spans="1:25" s="15" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A107" s="24" t="s">
-        <v>48</v>
-      </c>
-      <c r="B107" s="41" t="s">
-        <v>168</v>
-      </c>
-      <c r="C107" s="41" t="s">
-        <v>169</v>
-      </c>
-      <c r="D107" s="6"/>
-      <c r="E107" s="17" t="s">
-        <v>295</v>
-      </c>
-      <c r="F107" s="16" t="s">
-        <v>79</v>
-      </c>
-      <c r="G107" s="16"/>
-      <c r="H107" s="16"/>
-      <c r="I107" s="16"/>
-      <c r="J107" s="16"/>
-      <c r="K107" s="16"/>
-      <c r="L107" s="16"/>
-      <c r="M107" s="16"/>
-      <c r="N107" s="16"/>
-      <c r="O107" s="16"/>
-      <c r="P107" s="16"/>
-      <c r="Q107" s="16"/>
-      <c r="R107" s="16"/>
-      <c r="S107" s="16"/>
-      <c r="T107" s="16"/>
-      <c r="U107" s="16"/>
-      <c r="V107" s="16"/>
-      <c r="W107" s="16"/>
-      <c r="X107" s="16"/>
-      <c r="Y107" s="16"/>
+      <c r="G107" s="28"/>
+      <c r="H107" s="28"/>
+      <c r="I107" s="28"/>
+      <c r="J107" s="28"/>
+      <c r="K107" s="28"/>
+      <c r="L107" s="28"/>
+      <c r="M107" s="28"/>
+      <c r="N107" s="28"/>
+      <c r="O107" s="28"/>
+      <c r="P107" s="28"/>
+      <c r="Q107" s="28"/>
+      <c r="R107" s="28"/>
+      <c r="S107" s="28"/>
+      <c r="T107" s="28"/>
+      <c r="U107" s="28"/>
+      <c r="V107" s="28"/>
+      <c r="W107" s="28"/>
+      <c r="X107" s="28"/>
+      <c r="Y107" s="28"/>
     </row>
     <row r="108" spans="1:25" s="15" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A108" s="24" t="s">
         <v>48</v>
       </c>
       <c r="B108" s="41" t="s">
-        <v>170</v>
+        <v>93</v>
       </c>
       <c r="C108" s="41" t="s">
-        <v>171</v>
+        <v>161</v>
       </c>
       <c r="D108" s="6"/>
       <c r="E108" s="17" t="s">
-        <v>296</v>
-      </c>
-      <c r="F108" s="16" t="s">
+        <v>219</v>
+      </c>
+      <c r="F108" s="15" t="s">
         <v>79</v>
       </c>
       <c r="G108" s="16"/>
@@ -4867,14 +4847,14 @@
         <v>48</v>
       </c>
       <c r="B109" s="41" t="s">
-        <v>95</v>
+        <v>162</v>
       </c>
       <c r="C109" s="41" t="s">
-        <v>172</v>
+        <v>163</v>
       </c>
       <c r="D109" s="6"/>
       <c r="E109" s="17" t="s">
-        <v>297</v>
+        <v>220</v>
       </c>
       <c r="F109" s="16" t="s">
         <v>79</v>
@@ -4904,14 +4884,14 @@
         <v>48</v>
       </c>
       <c r="B110" s="41" t="s">
-        <v>173</v>
+        <v>99</v>
       </c>
       <c r="C110" s="41" t="s">
-        <v>174</v>
+        <v>164</v>
       </c>
       <c r="D110" s="6"/>
       <c r="E110" s="17" t="s">
-        <v>298</v>
+        <v>221</v>
       </c>
       <c r="F110" s="16" t="s">
         <v>79</v>
@@ -4941,14 +4921,14 @@
         <v>48</v>
       </c>
       <c r="B111" s="41" t="s">
-        <v>175</v>
+        <v>166</v>
       </c>
       <c r="C111" s="41" t="s">
-        <v>80</v>
+        <v>167</v>
       </c>
       <c r="D111" s="6"/>
       <c r="E111" s="17" t="s">
-        <v>299</v>
+        <v>294</v>
       </c>
       <c r="F111" s="16" t="s">
         <v>79</v>
@@ -4978,14 +4958,14 @@
         <v>48</v>
       </c>
       <c r="B112" s="41" t="s">
-        <v>176</v>
+        <v>168</v>
       </c>
       <c r="C112" s="41" t="s">
-        <v>177</v>
+        <v>169</v>
       </c>
       <c r="D112" s="6"/>
       <c r="E112" s="17" t="s">
-        <v>300</v>
+        <v>295</v>
       </c>
       <c r="F112" s="16" t="s">
         <v>79</v>
@@ -5015,14 +4995,14 @@
         <v>48</v>
       </c>
       <c r="B113" s="41" t="s">
-        <v>178</v>
+        <v>170</v>
       </c>
       <c r="C113" s="41" t="s">
-        <v>179</v>
+        <v>171</v>
       </c>
       <c r="D113" s="6"/>
       <c r="E113" s="17" t="s">
-        <v>301</v>
+        <v>296</v>
       </c>
       <c r="F113" s="16" t="s">
         <v>79</v>
@@ -5052,14 +5032,14 @@
         <v>48</v>
       </c>
       <c r="B114" s="41" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="C114" s="41" t="s">
-        <v>81</v>
+        <v>172</v>
       </c>
       <c r="D114" s="6"/>
       <c r="E114" s="17" t="s">
-        <v>302</v>
+        <v>297</v>
       </c>
       <c r="F114" s="16" t="s">
         <v>79</v>
@@ -5089,14 +5069,14 @@
         <v>48</v>
       </c>
       <c r="B115" s="41" t="s">
-        <v>30</v>
+        <v>173</v>
       </c>
       <c r="C115" s="41" t="s">
-        <v>180</v>
+        <v>174</v>
       </c>
       <c r="D115" s="6"/>
       <c r="E115" s="17" t="s">
-        <v>303</v>
+        <v>298</v>
       </c>
       <c r="F115" s="16" t="s">
         <v>79</v>
@@ -5125,15 +5105,15 @@
       <c r="A116" s="24" t="s">
         <v>48</v>
       </c>
-      <c r="B116" s="43" t="s">
-        <v>182</v>
-      </c>
-      <c r="C116" s="43" t="s">
-        <v>183</v>
+      <c r="B116" s="41" t="s">
+        <v>175</v>
+      </c>
+      <c r="C116" s="41" t="s">
+        <v>80</v>
       </c>
       <c r="D116" s="6"/>
       <c r="E116" s="17" t="s">
-        <v>222</v>
+        <v>299</v>
       </c>
       <c r="F116" s="16" t="s">
         <v>79</v>
@@ -5162,15 +5142,15 @@
       <c r="A117" s="24" t="s">
         <v>48</v>
       </c>
-      <c r="B117" s="43" t="s">
-        <v>184</v>
-      </c>
-      <c r="C117" s="43" t="s">
-        <v>185</v>
+      <c r="B117" s="41" t="s">
+        <v>176</v>
+      </c>
+      <c r="C117" s="41" t="s">
+        <v>177</v>
       </c>
       <c r="D117" s="6"/>
       <c r="E117" s="17" t="s">
-        <v>223</v>
+        <v>300</v>
       </c>
       <c r="F117" s="16" t="s">
         <v>79</v>
@@ -5199,15 +5179,15 @@
       <c r="A118" s="24" t="s">
         <v>48</v>
       </c>
-      <c r="B118" s="43" t="s">
-        <v>186</v>
-      </c>
-      <c r="C118" s="43" t="s">
-        <v>187</v>
+      <c r="B118" s="41" t="s">
+        <v>178</v>
+      </c>
+      <c r="C118" s="41" t="s">
+        <v>179</v>
       </c>
       <c r="D118" s="6"/>
       <c r="E118" s="17" t="s">
-        <v>224</v>
+        <v>301</v>
       </c>
       <c r="F118" s="16" t="s">
         <v>79</v>
@@ -5236,11 +5216,19 @@
       <c r="A119" s="24" t="s">
         <v>48</v>
       </c>
-      <c r="B119" s="24"/>
-      <c r="C119" s="31"/>
+      <c r="B119" s="41" t="s">
+        <v>94</v>
+      </c>
+      <c r="C119" s="41" t="s">
+        <v>81</v>
+      </c>
       <c r="D119" s="6"/>
-      <c r="E119" s="17"/>
-      <c r="F119" s="16"/>
+      <c r="E119" s="17" t="s">
+        <v>302</v>
+      </c>
+      <c r="F119" s="16" t="s">
+        <v>79</v>
+      </c>
       <c r="G119" s="16"/>
       <c r="H119" s="16"/>
       <c r="I119" s="16"/>
@@ -5261,55 +5249,67 @@
       <c r="X119" s="16"/>
       <c r="Y119" s="16"/>
     </row>
-    <row r="120" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:25" s="15" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A120" s="24" t="s">
         <v>48</v>
       </c>
-      <c r="B120" s="24" t="s">
-        <v>82</v>
-      </c>
-      <c r="C120" s="17" t="s">
-        <v>83</v>
+      <c r="B120" s="41" t="s">
+        <v>30</v>
+      </c>
+      <c r="C120" s="41" t="s">
+        <v>180</v>
       </c>
       <c r="D120" s="6"/>
-      <c r="E120" s="17"/>
-      <c r="F120" s="32"/>
-      <c r="G120" s="32"/>
-      <c r="H120" s="32"/>
-      <c r="I120" s="24"/>
-      <c r="J120" s="32"/>
-      <c r="K120" s="32"/>
-      <c r="L120" s="32"/>
-      <c r="M120" s="32"/>
-      <c r="N120" s="32"/>
-      <c r="O120" s="32"/>
-      <c r="P120" s="32"/>
-      <c r="Q120" s="32"/>
-      <c r="R120" s="32"/>
-      <c r="S120" s="32"/>
-      <c r="T120" s="32"/>
-      <c r="U120" s="32"/>
-      <c r="V120" s="32"/>
-      <c r="W120" s="32"/>
-      <c r="X120" s="32"/>
-      <c r="Y120" s="32"/>
+      <c r="E120" s="17" t="s">
+        <v>303</v>
+      </c>
+      <c r="F120" s="16" t="s">
+        <v>79</v>
+      </c>
+      <c r="G120" s="16"/>
+      <c r="H120" s="16"/>
+      <c r="I120" s="16"/>
+      <c r="J120" s="16"/>
+      <c r="K120" s="16"/>
+      <c r="L120" s="16"/>
+      <c r="M120" s="16"/>
+      <c r="N120" s="16"/>
+      <c r="O120" s="16"/>
+      <c r="P120" s="16"/>
+      <c r="Q120" s="16"/>
+      <c r="R120" s="16"/>
+      <c r="S120" s="16"/>
+      <c r="T120" s="16"/>
+      <c r="U120" s="16"/>
+      <c r="V120" s="16"/>
+      <c r="W120" s="16"/>
+      <c r="X120" s="16"/>
+      <c r="Y120" s="16"/>
     </row>
     <row r="121" spans="1:25" s="15" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A121" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="B121" s="5"/>
-      <c r="C121" s="5"/>
-      <c r="D121" s="5"/>
-      <c r="E121" s="5"/>
-      <c r="F121" s="5"/>
-      <c r="G121" s="5"/>
-      <c r="H121" s="5"/>
-      <c r="I121" s="5"/>
-      <c r="J121" s="5"/>
-      <c r="K121" s="5"/>
-      <c r="L121" s="5"/>
-      <c r="M121" s="5"/>
+      <c r="A121" s="24" t="s">
+        <v>48</v>
+      </c>
+      <c r="B121" s="43" t="s">
+        <v>182</v>
+      </c>
+      <c r="C121" s="43" t="s">
+        <v>183</v>
+      </c>
+      <c r="D121" s="6"/>
+      <c r="E121" s="17" t="s">
+        <v>222</v>
+      </c>
+      <c r="F121" s="16" t="s">
+        <v>79</v>
+      </c>
+      <c r="G121" s="16"/>
+      <c r="H121" s="16"/>
+      <c r="I121" s="16"/>
+      <c r="J121" s="16"/>
+      <c r="K121" s="16"/>
+      <c r="L121" s="16"/>
+      <c r="M121" s="16"/>
       <c r="N121" s="16"/>
       <c r="O121" s="16"/>
       <c r="P121" s="16"/>
@@ -5323,11 +5323,171 @@
       <c r="X121" s="16"/>
       <c r="Y121" s="16"/>
     </row>
-    <row r="122" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="123" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="124" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="125" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="126" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="122" spans="1:25" s="15" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A122" s="24" t="s">
+        <v>48</v>
+      </c>
+      <c r="B122" s="43" t="s">
+        <v>184</v>
+      </c>
+      <c r="C122" s="43" t="s">
+        <v>185</v>
+      </c>
+      <c r="D122" s="6"/>
+      <c r="E122" s="17" t="s">
+        <v>223</v>
+      </c>
+      <c r="F122" s="16" t="s">
+        <v>79</v>
+      </c>
+      <c r="G122" s="16"/>
+      <c r="H122" s="16"/>
+      <c r="I122" s="16"/>
+      <c r="J122" s="16"/>
+      <c r="K122" s="16"/>
+      <c r="L122" s="16"/>
+      <c r="M122" s="16"/>
+      <c r="N122" s="16"/>
+      <c r="O122" s="16"/>
+      <c r="P122" s="16"/>
+      <c r="Q122" s="16"/>
+      <c r="R122" s="16"/>
+      <c r="S122" s="16"/>
+      <c r="T122" s="16"/>
+      <c r="U122" s="16"/>
+      <c r="V122" s="16"/>
+      <c r="W122" s="16"/>
+      <c r="X122" s="16"/>
+      <c r="Y122" s="16"/>
+    </row>
+    <row r="123" spans="1:25" s="15" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A123" s="24" t="s">
+        <v>48</v>
+      </c>
+      <c r="B123" s="43" t="s">
+        <v>186</v>
+      </c>
+      <c r="C123" s="43" t="s">
+        <v>187</v>
+      </c>
+      <c r="D123" s="6"/>
+      <c r="E123" s="17" t="s">
+        <v>224</v>
+      </c>
+      <c r="F123" s="16" t="s">
+        <v>79</v>
+      </c>
+      <c r="G123" s="16"/>
+      <c r="H123" s="16"/>
+      <c r="I123" s="16"/>
+      <c r="J123" s="16"/>
+      <c r="K123" s="16"/>
+      <c r="L123" s="16"/>
+      <c r="M123" s="16"/>
+      <c r="N123" s="16"/>
+      <c r="O123" s="16"/>
+      <c r="P123" s="16"/>
+      <c r="Q123" s="16"/>
+      <c r="R123" s="16"/>
+      <c r="S123" s="16"/>
+      <c r="T123" s="16"/>
+      <c r="U123" s="16"/>
+      <c r="V123" s="16"/>
+      <c r="W123" s="16"/>
+      <c r="X123" s="16"/>
+      <c r="Y123" s="16"/>
+    </row>
+    <row r="124" spans="1:25" s="15" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A124" s="24" t="s">
+        <v>48</v>
+      </c>
+      <c r="B124" s="24"/>
+      <c r="C124" s="31"/>
+      <c r="D124" s="6"/>
+      <c r="E124" s="17"/>
+      <c r="F124" s="16"/>
+      <c r="G124" s="16"/>
+      <c r="H124" s="16"/>
+      <c r="I124" s="16"/>
+      <c r="J124" s="16"/>
+      <c r="K124" s="16"/>
+      <c r="L124" s="16"/>
+      <c r="M124" s="16"/>
+      <c r="N124" s="16"/>
+      <c r="O124" s="16"/>
+      <c r="P124" s="16"/>
+      <c r="Q124" s="16"/>
+      <c r="R124" s="16"/>
+      <c r="S124" s="16"/>
+      <c r="T124" s="16"/>
+      <c r="U124" s="16"/>
+      <c r="V124" s="16"/>
+      <c r="W124" s="16"/>
+      <c r="X124" s="16"/>
+      <c r="Y124" s="16"/>
+    </row>
+    <row r="125" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A125" s="24" t="s">
+        <v>48</v>
+      </c>
+      <c r="B125" s="24" t="s">
+        <v>82</v>
+      </c>
+      <c r="C125" s="17" t="s">
+        <v>83</v>
+      </c>
+      <c r="D125" s="6"/>
+      <c r="E125" s="17"/>
+      <c r="F125" s="32"/>
+      <c r="G125" s="32"/>
+      <c r="H125" s="32"/>
+      <c r="I125" s="24"/>
+      <c r="J125" s="32"/>
+      <c r="K125" s="32"/>
+      <c r="L125" s="32"/>
+      <c r="M125" s="32"/>
+      <c r="N125" s="32"/>
+      <c r="O125" s="32"/>
+      <c r="P125" s="32"/>
+      <c r="Q125" s="32"/>
+      <c r="R125" s="32"/>
+      <c r="S125" s="32"/>
+      <c r="T125" s="32"/>
+      <c r="U125" s="32"/>
+      <c r="V125" s="32"/>
+      <c r="W125" s="32"/>
+      <c r="X125" s="32"/>
+      <c r="Y125" s="32"/>
+    </row>
+    <row r="126" spans="1:25" s="15" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A126" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="B126" s="5"/>
+      <c r="C126" s="5"/>
+      <c r="D126" s="5"/>
+      <c r="E126" s="5"/>
+      <c r="F126" s="5"/>
+      <c r="G126" s="5"/>
+      <c r="H126" s="5"/>
+      <c r="I126" s="5"/>
+      <c r="J126" s="5"/>
+      <c r="K126" s="5"/>
+      <c r="L126" s="5"/>
+      <c r="M126" s="5"/>
+      <c r="N126" s="16"/>
+      <c r="O126" s="16"/>
+      <c r="P126" s="16"/>
+      <c r="Q126" s="16"/>
+      <c r="R126" s="16"/>
+      <c r="S126" s="16"/>
+      <c r="T126" s="16"/>
+      <c r="U126" s="16"/>
+      <c r="V126" s="16"/>
+      <c r="W126" s="16"/>
+      <c r="X126" s="16"/>
+      <c r="Y126" s="16"/>
+    </row>
     <row r="127" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="128" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="129" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -5857,24 +6017,29 @@
     <row r="653" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="654" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="655" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="656" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="657" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="658" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="659" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="660" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
   </sheetData>
-  <conditionalFormatting sqref="A97">
+  <conditionalFormatting sqref="A102">
     <cfRule type="cellIs" dxfId="2" priority="2" operator="equal">
       <formula>"begin group"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A98">
+  <conditionalFormatting sqref="A103">
     <cfRule type="cellIs" dxfId="1" priority="3" operator="equal">
       <formula>"begin group"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A102">
+  <conditionalFormatting sqref="A107">
     <cfRule type="cellIs" dxfId="0" priority="4" operator="equal">
       <formula>"begin group"</formula>
     </cfRule>
   </conditionalFormatting>
   <hyperlinks>
-    <hyperlink ref="C66" r:id="rId1" display="mailto:info@agra.org"/>
+    <hyperlink ref="C71" r:id="rId1" display="mailto:info@agra.org"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
@@ -5883,16 +6048,17 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Z42"/>
+  <dimension ref="A1:Z41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7:C20"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B22" sqref="B22:B37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="12.5546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="40.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="28.44140625" customWidth="1"/>
+    <col min="2" max="2" width="37" customWidth="1"/>
+    <col min="3" max="3" width="26" customWidth="1"/>
     <col min="4" max="4" width="16.33203125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="9.6640625" bestFit="1" customWidth="1"/>
     <col min="6" max="11" width="6.6640625" customWidth="1"/>
@@ -6069,9 +6235,15 @@
       <c r="Z5" s="3"/>
     </row>
     <row r="6" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="18"/>
-      <c r="B6" s="18"/>
-      <c r="C6" s="18"/>
+      <c r="A6" s="18" t="s">
+        <v>100</v>
+      </c>
+      <c r="B6" s="18" t="s">
+        <v>213</v>
+      </c>
+      <c r="C6" s="18" t="s">
+        <v>213</v>
+      </c>
       <c r="D6" s="6"/>
       <c r="E6" s="6"/>
       <c r="F6" s="6"/>
@@ -6096,49 +6268,26 @@
       <c r="Y6" s="3"/>
       <c r="Z6" s="3"/>
     </row>
-    <row r="7" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="18" t="s">
+    <row r="7" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
         <v>100</v>
       </c>
-      <c r="B7" s="18" t="s">
-        <v>213</v>
-      </c>
-      <c r="C7" s="18" t="s">
-        <v>213</v>
-      </c>
-      <c r="D7" s="6"/>
-      <c r="E7" s="6"/>
-      <c r="F7" s="6"/>
-      <c r="G7" s="6"/>
-      <c r="H7" s="6"/>
-      <c r="I7" s="6"/>
-      <c r="J7" s="6"/>
-      <c r="K7" s="6"/>
-      <c r="L7" s="6"/>
-      <c r="M7" s="6"/>
-      <c r="N7" s="6"/>
-      <c r="O7" s="6"/>
-      <c r="P7" s="6"/>
-      <c r="Q7" s="6"/>
-      <c r="R7" s="6"/>
-      <c r="S7" s="6"/>
-      <c r="T7" s="6"/>
-      <c r="U7" s="6"/>
-      <c r="V7" s="6"/>
-      <c r="W7" s="6"/>
-      <c r="X7" s="6"/>
-      <c r="Y7" s="3"/>
-      <c r="Z7" s="3"/>
+      <c r="B7" t="s">
+        <v>101</v>
+      </c>
+      <c r="C7" t="s">
+        <v>101</v>
+      </c>
     </row>
     <row r="8" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>100</v>
       </c>
       <c r="B8" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="C8" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
     </row>
     <row r="9" spans="1:26" x14ac:dyDescent="0.3">
@@ -6146,10 +6295,10 @@
         <v>100</v>
       </c>
       <c r="B9" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="C9" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
     </row>
     <row r="10" spans="1:26" x14ac:dyDescent="0.3">
@@ -6157,10 +6306,10 @@
         <v>100</v>
       </c>
       <c r="B10" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="C10" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
     </row>
     <row r="11" spans="1:26" x14ac:dyDescent="0.3">
@@ -6168,10 +6317,10 @@
         <v>100</v>
       </c>
       <c r="B11" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="C11" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
     </row>
     <row r="12" spans="1:26" x14ac:dyDescent="0.3">
@@ -6179,10 +6328,10 @@
         <v>100</v>
       </c>
       <c r="B12" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="C12" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
     </row>
     <row r="13" spans="1:26" x14ac:dyDescent="0.3">
@@ -6190,10 +6339,10 @@
         <v>100</v>
       </c>
       <c r="B13" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="C13" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
     </row>
     <row r="14" spans="1:26" x14ac:dyDescent="0.3">
@@ -6201,10 +6350,10 @@
         <v>100</v>
       </c>
       <c r="B14" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C14" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
     </row>
     <row r="15" spans="1:26" x14ac:dyDescent="0.3">
@@ -6212,10 +6361,10 @@
         <v>100</v>
       </c>
       <c r="B15" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="C15" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
     </row>
     <row r="16" spans="1:26" x14ac:dyDescent="0.3">
@@ -6223,10 +6372,10 @@
         <v>100</v>
       </c>
       <c r="B16" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="C16" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.3">
@@ -6234,10 +6383,10 @@
         <v>100</v>
       </c>
       <c r="B17" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="C17" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.3">
@@ -6245,10 +6394,10 @@
         <v>100</v>
       </c>
       <c r="B18" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="C18" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.3">
@@ -6256,21 +6405,21 @@
         <v>100</v>
       </c>
       <c r="B19" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="C19" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A20" t="s">
-        <v>100</v>
-      </c>
-      <c r="B20" t="s">
         <v>113</v>
       </c>
-      <c r="C20" t="s">
-        <v>113</v>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A22" s="44" t="s">
+        <v>160</v>
+      </c>
+      <c r="B22" s="41" t="s">
+        <v>93</v>
+      </c>
+      <c r="C22" s="41" t="s">
+        <v>161</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.3">
@@ -6278,10 +6427,10 @@
         <v>160</v>
       </c>
       <c r="B23" s="41" t="s">
-        <v>93</v>
+        <v>162</v>
       </c>
       <c r="C23" s="41" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.3">
@@ -6289,21 +6438,21 @@
         <v>160</v>
       </c>
       <c r="B24" s="41" t="s">
-        <v>162</v>
+        <v>99</v>
       </c>
       <c r="C24" s="41" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A25" s="44" t="s">
-        <v>160</v>
+        <v>165</v>
       </c>
       <c r="B25" s="41" t="s">
-        <v>99</v>
+        <v>166</v>
       </c>
       <c r="C25" s="41" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.3">
@@ -6311,10 +6460,10 @@
         <v>165</v>
       </c>
       <c r="B26" s="41" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="C26" s="41" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.3">
@@ -6322,10 +6471,10 @@
         <v>165</v>
       </c>
       <c r="B27" s="41" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="C27" s="41" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.3">
@@ -6333,10 +6482,10 @@
         <v>165</v>
       </c>
       <c r="B28" s="41" t="s">
-        <v>170</v>
+        <v>95</v>
       </c>
       <c r="C28" s="41" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.3">
@@ -6344,10 +6493,10 @@
         <v>165</v>
       </c>
       <c r="B29" s="41" t="s">
-        <v>95</v>
+        <v>173</v>
       </c>
       <c r="C29" s="41" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.3">
@@ -6355,10 +6504,10 @@
         <v>165</v>
       </c>
       <c r="B30" s="41" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="C30" s="41" t="s">
-        <v>174</v>
+        <v>80</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.3">
@@ -6366,10 +6515,10 @@
         <v>165</v>
       </c>
       <c r="B31" s="41" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="C31" s="41" t="s">
-        <v>80</v>
+        <v>177</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.3">
@@ -6377,10 +6526,10 @@
         <v>165</v>
       </c>
       <c r="B32" s="41" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="C32" s="41" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.3">
@@ -6388,10 +6537,10 @@
         <v>165</v>
       </c>
       <c r="B33" s="41" t="s">
-        <v>178</v>
+        <v>94</v>
       </c>
       <c r="C33" s="41" t="s">
-        <v>179</v>
+        <v>81</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.3">
@@ -6399,21 +6548,21 @@
         <v>165</v>
       </c>
       <c r="B34" s="41" t="s">
-        <v>94</v>
+        <v>30</v>
       </c>
       <c r="C34" s="41" t="s">
-        <v>81</v>
+        <v>180</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A35" s="44" t="s">
-        <v>165</v>
-      </c>
-      <c r="B35" s="41" t="s">
-        <v>30</v>
-      </c>
-      <c r="C35" s="41" t="s">
-        <v>180</v>
+        <v>181</v>
+      </c>
+      <c r="B35" s="43" t="s">
+        <v>182</v>
+      </c>
+      <c r="C35" s="43" t="s">
+        <v>183</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.3">
@@ -6421,10 +6570,10 @@
         <v>181</v>
       </c>
       <c r="B36" s="43" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="C36" s="43" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.3">
@@ -6432,37 +6581,37 @@
         <v>181</v>
       </c>
       <c r="B37" s="43" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="C37" s="43" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A38" s="44" t="s">
-        <v>181</v>
-      </c>
-      <c r="B38" s="43" t="s">
-        <v>186</v>
-      </c>
-      <c r="C38" s="43" t="s">
-        <v>187</v>
-      </c>
+      <c r="A38" s="45"/>
+      <c r="B38" s="45"/>
+      <c r="C38" s="45"/>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A39" s="45"/>
-      <c r="B39" s="45"/>
-      <c r="C39" s="45"/>
+      <c r="A39" s="45" t="s">
+        <v>188</v>
+      </c>
+      <c r="B39" s="45" t="s">
+        <v>97</v>
+      </c>
+      <c r="C39" s="45" t="s">
+        <v>97</v>
+      </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A40" s="45" t="s">
         <v>188</v>
       </c>
       <c r="B40" s="45" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="C40" s="45" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.3">
@@ -6470,20 +6619,9 @@
         <v>188</v>
       </c>
       <c r="B41" s="45" t="s">
-        <v>98</v>
+        <v>189</v>
       </c>
       <c r="C41" s="45" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A42" s="45" t="s">
-        <v>188</v>
-      </c>
-      <c r="B42" s="45" t="s">
-        <v>189</v>
-      </c>
-      <c r="C42" s="45" t="s">
         <v>189</v>
       </c>
     </row>

--- a/config-boda-moh-ke-master/forms/app/case_investigation.xlsx
+++ b/config-boda-moh-ke-master/forms/app/case_investigation.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="550" uniqueCount="313">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="550" uniqueCount="314">
   <si>
     <t>type</t>
   </si>
@@ -1044,6 +1044,9 @@
   </si>
   <si>
     <t>../inputs/contact/sex</t>
+  </si>
+  <si>
+    <t>c_name</t>
   </si>
 </sst>
 </file>
@@ -1697,8 +1700,8 @@
   <dimension ref="A1:Z660"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A74" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A89" sqref="A89"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2126,7 +2129,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>1</v>
+        <v>313</v>
       </c>
       <c r="C12" s="6"/>
       <c r="D12" s="6"/>

--- a/config-boda-moh-ke-master/forms/app/case_investigation.xlsx
+++ b/config-boda-moh-ke-master/forms/app/case_investigation.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin\Dropbox\PC (2)\Desktop\newforms\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin\Dropbox\PC (2)\Desktop\CHT Forms\Original\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="550" uniqueCount="314">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="535" uniqueCount="309">
   <si>
     <t>type</t>
   </si>
@@ -353,12 +353,6 @@
     <t>Diarrhoea</t>
   </si>
   <si>
-    <t>r_specimen_id</t>
-  </si>
-  <si>
-    <t>Please copy this identifier onto the specimen vial: **${specimen_id}**</t>
-  </si>
-  <si>
     <t>list_name</t>
   </si>
   <si>
@@ -1037,16 +1031,7 @@
     <t>&lt;b&gt;Patient information&lt;/b&gt;</t>
   </si>
   <si>
-    <t>../inputs/contact/case_id</t>
-  </si>
-  <si>
-    <t>patient_sex</t>
-  </si>
-  <si>
-    <t>../inputs/contact/sex</t>
-  </si>
-  <si>
-    <t>c_name</t>
+    <t>../inputs/contact/_id</t>
   </si>
 </sst>
 </file>
@@ -1232,7 +1217,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="48">
+  <cellXfs count="46">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1272,10 +1257,6 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -1697,11 +1678,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Z660"/>
+  <dimension ref="A1:Z652"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B12" sqref="B12"/>
+      <selection pane="bottomLeft" activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1709,11 +1690,11 @@
     <col min="1" max="1" width="25.88671875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="23.44140625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="115.44140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="6.6640625" hidden="1" customWidth="1"/>
-    <col min="5" max="5" width="36.33203125" hidden="1" customWidth="1"/>
-    <col min="6" max="6" width="14.6640625" hidden="1" customWidth="1"/>
-    <col min="7" max="7" width="14.44140625" hidden="1" customWidth="1"/>
-    <col min="8" max="8" width="20" hidden="1" customWidth="1"/>
+    <col min="4" max="4" width="6.6640625" customWidth="1"/>
+    <col min="5" max="5" width="36.33203125" customWidth="1"/>
+    <col min="6" max="6" width="14.6640625" customWidth="1"/>
+    <col min="7" max="7" width="14.44140625" customWidth="1"/>
+    <col min="8" max="8" width="20" customWidth="1"/>
     <col min="9" max="9" width="43.109375" customWidth="1"/>
     <col min="10" max="10" width="9.88671875" customWidth="1"/>
     <col min="11" max="11" width="16" customWidth="1"/>
@@ -1826,46 +1807,52 @@
       <c r="Z2" s="3"/>
     </row>
     <row r="3" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="B3" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="C3" s="4"/>
-      <c r="D3" s="4"/>
-      <c r="E3" s="4"/>
-      <c r="F3" s="4"/>
-      <c r="G3" s="4"/>
-      <c r="H3" s="4"/>
-      <c r="I3" s="4"/>
-      <c r="J3" s="4"/>
-      <c r="K3" s="4"/>
-      <c r="L3" s="4"/>
-      <c r="M3" s="4"/>
-      <c r="N3" s="4"/>
-      <c r="O3" s="4"/>
-      <c r="P3" s="5"/>
-      <c r="Q3" s="5"/>
-      <c r="R3" s="5"/>
-      <c r="S3" s="5"/>
-      <c r="T3" s="5"/>
-      <c r="U3" s="5"/>
-      <c r="V3" s="5"/>
-      <c r="W3" s="3"/>
-      <c r="X3" s="3"/>
-      <c r="Y3" s="3"/>
-      <c r="Z3" s="3"/>
+      <c r="A3" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="D3" s="6"/>
+      <c r="E3" s="6"/>
+      <c r="F3" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="G3" s="6"/>
+      <c r="H3" s="6"/>
+      <c r="I3" s="6"/>
+      <c r="J3" s="6"/>
+      <c r="K3" s="6"/>
+      <c r="L3" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="M3" s="6"/>
+      <c r="N3" s="6"/>
+      <c r="O3" s="6"/>
+      <c r="P3" s="6"/>
+      <c r="Q3" s="6"/>
+      <c r="R3" s="6"/>
+      <c r="S3" s="6"/>
+      <c r="T3" s="6"/>
+      <c r="U3" s="6"/>
+      <c r="V3" s="6"/>
+      <c r="W3" s="6"/>
+      <c r="X3" s="6"/>
+      <c r="Y3" s="6"/>
+      <c r="Z3" s="6"/>
     </row>
     <row r="4" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="6" t="s">
         <v>22</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="D4" s="6"/>
       <c r="E4" s="6"/>
@@ -1877,9 +1864,7 @@
       <c r="I4" s="6"/>
       <c r="J4" s="6"/>
       <c r="K4" s="6"/>
-      <c r="L4" s="6" t="s">
-        <v>26</v>
-      </c>
+      <c r="L4" s="6"/>
       <c r="M4" s="6"/>
       <c r="N4" s="6"/>
       <c r="O4" s="6"/>
@@ -1895,52 +1880,45 @@
       <c r="Y4" s="6"/>
       <c r="Z4" s="6"/>
     </row>
-    <row r="5" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="B5" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="C5" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="D5" s="6"/>
-      <c r="E5" s="6"/>
-      <c r="F5" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="G5" s="6"/>
-      <c r="H5" s="6"/>
-      <c r="I5" s="6"/>
-      <c r="J5" s="6"/>
-      <c r="K5" s="6"/>
-      <c r="L5" s="6"/>
-      <c r="M5" s="6"/>
-      <c r="N5" s="6"/>
-      <c r="O5" s="6"/>
-      <c r="P5" s="6"/>
-      <c r="Q5" s="6"/>
-      <c r="R5" s="6"/>
-      <c r="S5" s="6"/>
-      <c r="T5" s="6"/>
-      <c r="U5" s="6"/>
-      <c r="V5" s="6"/>
-      <c r="W5" s="6"/>
-      <c r="X5" s="6"/>
-      <c r="Y5" s="6"/>
-      <c r="Z5" s="6"/>
+    <row r="5" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="B5" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="C5" s="7"/>
+      <c r="D5" s="7"/>
+      <c r="E5" s="7"/>
+      <c r="F5" s="7"/>
+      <c r="G5" s="7"/>
+      <c r="H5" s="7"/>
+      <c r="I5" s="7"/>
+      <c r="J5" s="7"/>
+      <c r="K5" s="7"/>
+      <c r="L5" s="7"/>
+      <c r="M5" s="7"/>
+      <c r="N5" s="7"/>
+      <c r="O5" s="7"/>
+      <c r="P5" s="8"/>
+      <c r="Q5" s="8"/>
+      <c r="R5" s="8"/>
+      <c r="S5" s="8"/>
+      <c r="T5" s="8"/>
+      <c r="U5" s="8"/>
+      <c r="V5" s="8"/>
+      <c r="W5" s="8"/>
+      <c r="X5" s="8"/>
+      <c r="Y5" s="8"/>
     </row>
     <row r="6" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="6" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>237</v>
-      </c>
-      <c r="C6" s="6" t="s">
-        <v>36</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="C6" s="6"/>
       <c r="D6" s="6"/>
       <c r="E6" s="6"/>
       <c r="F6" s="6"/>
@@ -1967,14 +1945,10 @@
     </row>
     <row r="7" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="B7" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="C7" s="6" t="s">
-        <v>36</v>
-      </c>
+        <v>29</v>
+      </c>
+      <c r="B7" s="6"/>
+      <c r="C7" s="6"/>
       <c r="D7" s="6"/>
       <c r="E7" s="6"/>
       <c r="F7" s="6"/>
@@ -2000,14 +1974,14 @@
       <c r="Z7" s="6"/>
     </row>
     <row r="8" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="B8" s="6" t="s">
-        <v>254</v>
-      </c>
-      <c r="C8" s="6" t="s">
-        <v>36</v>
+      <c r="A8" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="B8" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="C8" s="7" t="s">
+        <v>30</v>
       </c>
       <c r="D8" s="6"/>
       <c r="E8" s="6"/>
@@ -2033,77 +2007,91 @@
       <c r="Y8" s="6"/>
       <c r="Z8" s="6"/>
     </row>
-    <row r="9" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="B9" s="6"/>
-      <c r="C9" s="6"/>
-      <c r="D9" s="6"/>
-      <c r="E9" s="6"/>
-      <c r="F9" s="6"/>
-      <c r="G9" s="6"/>
-      <c r="H9" s="6"/>
-      <c r="I9" s="6"/>
-      <c r="J9" s="6"/>
-      <c r="K9" s="6"/>
-      <c r="L9" s="6"/>
-      <c r="M9" s="6"/>
-      <c r="N9" s="6"/>
-      <c r="O9" s="6"/>
-      <c r="P9" s="6"/>
-      <c r="Q9" s="6"/>
-      <c r="R9" s="6"/>
-      <c r="S9" s="6"/>
-      <c r="T9" s="6"/>
-      <c r="U9" s="6"/>
-      <c r="V9" s="6"/>
-      <c r="W9" s="6"/>
-      <c r="X9" s="6"/>
-      <c r="Y9" s="6"/>
-      <c r="Z9" s="6"/>
-    </row>
-    <row r="10" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="B10" s="6"/>
-      <c r="C10" s="6"/>
-      <c r="D10" s="6"/>
-      <c r="E10" s="6"/>
-      <c r="F10" s="6"/>
-      <c r="G10" s="6"/>
-      <c r="H10" s="6"/>
-      <c r="I10" s="6"/>
-      <c r="J10" s="6"/>
-      <c r="K10" s="6"/>
-      <c r="L10" s="6"/>
-      <c r="M10" s="6"/>
-      <c r="N10" s="6"/>
-      <c r="O10" s="6"/>
-      <c r="P10" s="6"/>
-      <c r="Q10" s="6"/>
-      <c r="R10" s="6"/>
-      <c r="S10" s="6"/>
-      <c r="T10" s="6"/>
-      <c r="U10" s="6"/>
-      <c r="V10" s="6"/>
-      <c r="W10" s="6"/>
-      <c r="X10" s="6"/>
-      <c r="Y10" s="6"/>
-      <c r="Z10" s="6"/>
+    <row r="9" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="11" t="s">
+        <v>224</v>
+      </c>
+      <c r="B9" s="11" t="s">
+        <v>225</v>
+      </c>
+      <c r="C9" s="11" t="s">
+        <v>226</v>
+      </c>
+      <c r="D9" s="11"/>
+      <c r="E9" s="11"/>
+      <c r="F9" s="11" t="s">
+        <v>227</v>
+      </c>
+      <c r="G9" s="7"/>
+      <c r="H9" s="7"/>
+      <c r="I9" s="7"/>
+      <c r="J9" s="7"/>
+      <c r="K9" s="7"/>
+      <c r="L9" s="7"/>
+      <c r="M9" s="7"/>
+      <c r="N9" s="7"/>
+      <c r="O9" s="7"/>
+      <c r="P9" s="8"/>
+      <c r="Q9" s="8"/>
+      <c r="R9" s="8"/>
+      <c r="S9" s="8"/>
+      <c r="T9" s="8"/>
+      <c r="U9" s="8"/>
+      <c r="V9" s="8"/>
+      <c r="W9" s="8"/>
+      <c r="X9" s="8"/>
+      <c r="Y9" s="8"/>
+    </row>
+    <row r="10" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="B10" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="C10" s="11" t="s">
+        <v>228</v>
+      </c>
+      <c r="D10" s="11"/>
+      <c r="E10" s="11"/>
+      <c r="F10" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="G10" s="7"/>
+      <c r="H10" s="7"/>
+      <c r="I10" s="7"/>
+      <c r="J10" s="7"/>
+      <c r="K10" s="7"/>
+      <c r="L10" s="7"/>
+      <c r="M10" s="7"/>
+      <c r="N10" s="7"/>
+      <c r="O10" s="7"/>
+      <c r="P10" s="8"/>
+      <c r="Q10" s="8"/>
+      <c r="R10" s="8"/>
+      <c r="S10" s="8"/>
+      <c r="T10" s="8"/>
+      <c r="U10" s="8"/>
+      <c r="V10" s="8"/>
+      <c r="W10" s="8"/>
+      <c r="X10" s="8"/>
+      <c r="Y10" s="8"/>
     </row>
     <row r="11" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="B11" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="C11" s="7"/>
-      <c r="D11" s="7"/>
-      <c r="E11" s="7"/>
-      <c r="F11" s="7"/>
+      <c r="A11" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="B11" s="11" t="s">
+        <v>229</v>
+      </c>
+      <c r="C11" s="11" t="s">
+        <v>230</v>
+      </c>
+      <c r="D11" s="11"/>
+      <c r="E11" s="11"/>
+      <c r="F11" s="11" t="s">
+        <v>25</v>
+      </c>
       <c r="G11" s="7"/>
       <c r="H11" s="7"/>
       <c r="I11" s="7"/>
@@ -2124,52 +2112,55 @@
       <c r="X11" s="8"/>
       <c r="Y11" s="8"/>
     </row>
-    <row r="12" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="6" t="s">
+    <row r="12" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="B12" s="6" t="s">
-        <v>313</v>
-      </c>
-      <c r="C12" s="6"/>
-      <c r="D12" s="6"/>
-      <c r="E12" s="6"/>
-      <c r="F12" s="6"/>
-      <c r="G12" s="6"/>
-      <c r="H12" s="6"/>
-      <c r="I12" s="6"/>
-      <c r="J12" s="6"/>
-      <c r="K12" s="6"/>
-      <c r="L12" s="6"/>
-      <c r="M12" s="6"/>
-      <c r="N12" s="6"/>
-      <c r="O12" s="6"/>
-      <c r="P12" s="6"/>
-      <c r="Q12" s="6"/>
-      <c r="R12" s="6"/>
-      <c r="S12" s="6"/>
-      <c r="T12" s="6"/>
-      <c r="U12" s="6"/>
-      <c r="V12" s="6"/>
-      <c r="W12" s="6"/>
-      <c r="X12" s="6"/>
-      <c r="Y12" s="6"/>
-      <c r="Z12" s="6"/>
+      <c r="B12" s="11" t="s">
+        <v>231</v>
+      </c>
+      <c r="C12" s="11" t="s">
+        <v>232</v>
+      </c>
+      <c r="D12" s="11"/>
+      <c r="E12" s="11"/>
+      <c r="F12" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="G12" s="7"/>
+      <c r="H12" s="7"/>
+      <c r="I12" s="7"/>
+      <c r="J12" s="7"/>
+      <c r="K12" s="7"/>
+      <c r="L12" s="7"/>
+      <c r="M12" s="7"/>
+      <c r="N12" s="7"/>
+      <c r="O12" s="7"/>
+      <c r="P12" s="8"/>
+      <c r="Q12" s="8"/>
+      <c r="R12" s="8"/>
+      <c r="S12" s="8"/>
+      <c r="T12" s="8"/>
+      <c r="U12" s="8"/>
+      <c r="V12" s="8"/>
+      <c r="W12" s="8"/>
+      <c r="X12" s="8"/>
+      <c r="Y12" s="8"/>
     </row>
     <row r="13" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="11" t="s">
-        <v>226</v>
+        <v>25</v>
       </c>
       <c r="B13" s="11" t="s">
-        <v>227</v>
+        <v>233</v>
       </c>
       <c r="C13" s="11" t="s">
-        <v>228</v>
+        <v>234</v>
       </c>
       <c r="D13" s="11"/>
       <c r="E13" s="11"/>
       <c r="F13" s="11" t="s">
-        <v>229</v>
+        <v>25</v>
       </c>
       <c r="G13" s="7"/>
       <c r="H13" s="7"/>
@@ -2196,10 +2187,10 @@
         <v>25</v>
       </c>
       <c r="B14" s="11" t="s">
-        <v>0</v>
+        <v>235</v>
       </c>
       <c r="C14" s="11" t="s">
-        <v>230</v>
+        <v>236</v>
       </c>
       <c r="D14" s="11"/>
       <c r="E14" s="11"/>
@@ -2231,16 +2222,14 @@
         <v>25</v>
       </c>
       <c r="B15" s="11" t="s">
-        <v>231</v>
+        <v>237</v>
       </c>
       <c r="C15" s="11" t="s">
-        <v>232</v>
+        <v>238</v>
       </c>
       <c r="D15" s="11"/>
       <c r="E15" s="11"/>
-      <c r="F15" s="11" t="s">
-        <v>25</v>
-      </c>
+      <c r="F15" s="11"/>
       <c r="G15" s="7"/>
       <c r="H15" s="7"/>
       <c r="I15" s="7"/>
@@ -2266,16 +2255,14 @@
         <v>25</v>
       </c>
       <c r="B16" s="11" t="s">
-        <v>233</v>
+        <v>239</v>
       </c>
       <c r="C16" s="11" t="s">
-        <v>234</v>
+        <v>240</v>
       </c>
       <c r="D16" s="11"/>
       <c r="E16" s="11"/>
-      <c r="F16" s="11" t="s">
-        <v>25</v>
-      </c>
+      <c r="F16" s="11"/>
       <c r="G16" s="7"/>
       <c r="H16" s="7"/>
       <c r="I16" s="7"/>
@@ -2301,16 +2288,14 @@
         <v>25</v>
       </c>
       <c r="B17" s="11" t="s">
-        <v>235</v>
+        <v>241</v>
       </c>
       <c r="C17" s="11" t="s">
-        <v>236</v>
+        <v>242</v>
       </c>
       <c r="D17" s="11"/>
       <c r="E17" s="11"/>
-      <c r="F17" s="11" t="s">
-        <v>25</v>
-      </c>
+      <c r="F17" s="11"/>
       <c r="G17" s="7"/>
       <c r="H17" s="7"/>
       <c r="I17" s="7"/>
@@ -2336,16 +2321,14 @@
         <v>25</v>
       </c>
       <c r="B18" s="11" t="s">
-        <v>237</v>
+        <v>243</v>
       </c>
       <c r="C18" s="11" t="s">
-        <v>238</v>
+        <v>244</v>
       </c>
       <c r="D18" s="11"/>
       <c r="E18" s="11"/>
-      <c r="F18" s="11" t="s">
-        <v>25</v>
-      </c>
+      <c r="F18" s="11"/>
       <c r="G18" s="7"/>
       <c r="H18" s="7"/>
       <c r="I18" s="7"/>
@@ -2371,10 +2354,10 @@
         <v>25</v>
       </c>
       <c r="B19" s="11" t="s">
-        <v>239</v>
+        <v>245</v>
       </c>
       <c r="C19" s="11" t="s">
-        <v>240</v>
+        <v>248</v>
       </c>
       <c r="D19" s="11"/>
       <c r="E19" s="11"/>
@@ -2404,10 +2387,10 @@
         <v>25</v>
       </c>
       <c r="B20" s="11" t="s">
-        <v>241</v>
+        <v>246</v>
       </c>
       <c r="C20" s="11" t="s">
-        <v>242</v>
+        <v>249</v>
       </c>
       <c r="D20" s="11"/>
       <c r="E20" s="11"/>
@@ -2437,10 +2420,10 @@
         <v>25</v>
       </c>
       <c r="B21" s="11" t="s">
-        <v>243</v>
+        <v>247</v>
       </c>
       <c r="C21" s="11" t="s">
-        <v>244</v>
+        <v>250</v>
       </c>
       <c r="D21" s="11"/>
       <c r="E21" s="11"/>
@@ -2470,10 +2453,10 @@
         <v>25</v>
       </c>
       <c r="B22" s="11" t="s">
-        <v>245</v>
+        <v>1</v>
       </c>
       <c r="C22" s="11" t="s">
-        <v>246</v>
+        <v>251</v>
       </c>
       <c r="D22" s="11"/>
       <c r="E22" s="11"/>
@@ -2503,10 +2486,10 @@
         <v>25</v>
       </c>
       <c r="B23" s="11" t="s">
-        <v>247</v>
+        <v>252</v>
       </c>
       <c r="C23" s="11" t="s">
-        <v>250</v>
+        <v>253</v>
       </c>
       <c r="D23" s="11"/>
       <c r="E23" s="11"/>
@@ -2536,10 +2519,10 @@
         <v>25</v>
       </c>
       <c r="B24" s="11" t="s">
-        <v>248</v>
+        <v>254</v>
       </c>
       <c r="C24" s="11" t="s">
-        <v>251</v>
+        <v>255</v>
       </c>
       <c r="D24" s="11"/>
       <c r="E24" s="11"/>
@@ -2569,10 +2552,10 @@
         <v>25</v>
       </c>
       <c r="B25" s="11" t="s">
-        <v>249</v>
+        <v>256</v>
       </c>
       <c r="C25" s="11" t="s">
-        <v>252</v>
+        <v>257</v>
       </c>
       <c r="D25" s="11"/>
       <c r="E25" s="11"/>
@@ -2602,10 +2585,10 @@
         <v>25</v>
       </c>
       <c r="B26" s="11" t="s">
-        <v>1</v>
+        <v>258</v>
       </c>
       <c r="C26" s="11" t="s">
-        <v>253</v>
+        <v>259</v>
       </c>
       <c r="D26" s="11"/>
       <c r="E26" s="11"/>
@@ -2635,10 +2618,10 @@
         <v>25</v>
       </c>
       <c r="B27" s="11" t="s">
-        <v>254</v>
+        <v>260</v>
       </c>
       <c r="C27" s="11" t="s">
-        <v>255</v>
+        <v>261</v>
       </c>
       <c r="D27" s="11"/>
       <c r="E27" s="11"/>
@@ -2668,10 +2651,10 @@
         <v>25</v>
       </c>
       <c r="B28" s="11" t="s">
-        <v>256</v>
+        <v>262</v>
       </c>
       <c r="C28" s="11" t="s">
-        <v>257</v>
+        <v>263</v>
       </c>
       <c r="D28" s="11"/>
       <c r="E28" s="11"/>
@@ -2701,10 +2684,10 @@
         <v>25</v>
       </c>
       <c r="B29" s="11" t="s">
-        <v>258</v>
+        <v>264</v>
       </c>
       <c r="C29" s="11" t="s">
-        <v>259</v>
+        <v>265</v>
       </c>
       <c r="D29" s="11"/>
       <c r="E29" s="11"/>
@@ -2734,10 +2717,10 @@
         <v>25</v>
       </c>
       <c r="B30" s="11" t="s">
-        <v>260</v>
+        <v>266</v>
       </c>
       <c r="C30" s="11" t="s">
-        <v>261</v>
+        <v>267</v>
       </c>
       <c r="D30" s="11"/>
       <c r="E30" s="11"/>
@@ -2767,10 +2750,10 @@
         <v>25</v>
       </c>
       <c r="B31" s="11" t="s">
-        <v>262</v>
+        <v>31</v>
       </c>
       <c r="C31" s="11" t="s">
-        <v>263</v>
+        <v>268</v>
       </c>
       <c r="D31" s="11"/>
       <c r="E31" s="11"/>
@@ -2800,10 +2783,10 @@
         <v>25</v>
       </c>
       <c r="B32" s="11" t="s">
-        <v>264</v>
+        <v>269</v>
       </c>
       <c r="C32" s="11" t="s">
-        <v>265</v>
+        <v>270</v>
       </c>
       <c r="D32" s="11"/>
       <c r="E32" s="11"/>
@@ -2833,10 +2816,10 @@
         <v>25</v>
       </c>
       <c r="B33" s="11" t="s">
-        <v>266</v>
+        <v>271</v>
       </c>
       <c r="C33" s="11" t="s">
-        <v>267</v>
+        <v>272</v>
       </c>
       <c r="D33" s="11"/>
       <c r="E33" s="11"/>
@@ -2866,10 +2849,10 @@
         <v>25</v>
       </c>
       <c r="B34" s="11" t="s">
-        <v>268</v>
+        <v>273</v>
       </c>
       <c r="C34" s="11" t="s">
-        <v>269</v>
+        <v>274</v>
       </c>
       <c r="D34" s="11"/>
       <c r="E34" s="11"/>
@@ -2899,10 +2882,10 @@
         <v>25</v>
       </c>
       <c r="B35" s="11" t="s">
-        <v>31</v>
+        <v>275</v>
       </c>
       <c r="C35" s="11" t="s">
-        <v>270</v>
+        <v>276</v>
       </c>
       <c r="D35" s="11"/>
       <c r="E35" s="11"/>
@@ -2932,10 +2915,10 @@
         <v>25</v>
       </c>
       <c r="B36" s="11" t="s">
-        <v>271</v>
+        <v>277</v>
       </c>
       <c r="C36" s="11" t="s">
-        <v>272</v>
+        <v>278</v>
       </c>
       <c r="D36" s="11"/>
       <c r="E36" s="11"/>
@@ -2965,10 +2948,10 @@
         <v>25</v>
       </c>
       <c r="B37" s="11" t="s">
-        <v>273</v>
+        <v>279</v>
       </c>
       <c r="C37" s="11" t="s">
-        <v>274</v>
+        <v>280</v>
       </c>
       <c r="D37" s="11"/>
       <c r="E37" s="11"/>
@@ -2998,10 +2981,10 @@
         <v>25</v>
       </c>
       <c r="B38" s="11" t="s">
-        <v>275</v>
+        <v>281</v>
       </c>
       <c r="C38" s="11" t="s">
-        <v>276</v>
+        <v>282</v>
       </c>
       <c r="D38" s="11"/>
       <c r="E38" s="11"/>
@@ -3031,10 +3014,10 @@
         <v>25</v>
       </c>
       <c r="B39" s="11" t="s">
-        <v>277</v>
+        <v>284</v>
       </c>
       <c r="C39" s="11" t="s">
-        <v>278</v>
+        <v>285</v>
       </c>
       <c r="D39" s="11"/>
       <c r="E39" s="11"/>
@@ -3064,10 +3047,10 @@
         <v>25</v>
       </c>
       <c r="B40" s="11" t="s">
-        <v>279</v>
+        <v>283</v>
       </c>
       <c r="C40" s="11" t="s">
-        <v>280</v>
+        <v>286</v>
       </c>
       <c r="D40" s="11"/>
       <c r="E40" s="11"/>
@@ -3097,10 +3080,10 @@
         <v>25</v>
       </c>
       <c r="B41" s="11" t="s">
-        <v>281</v>
+        <v>287</v>
       </c>
       <c r="C41" s="11" t="s">
-        <v>282</v>
+        <v>288</v>
       </c>
       <c r="D41" s="11"/>
       <c r="E41" s="11"/>
@@ -3125,346 +3108,288 @@
       <c r="X41" s="8"/>
       <c r="Y41" s="8"/>
     </row>
-    <row r="42" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="11" t="s">
-        <v>25</v>
-      </c>
-      <c r="B42" s="11" t="s">
-        <v>283</v>
-      </c>
-      <c r="C42" s="11" t="s">
-        <v>284</v>
-      </c>
-      <c r="D42" s="11"/>
-      <c r="E42" s="11"/>
-      <c r="F42" s="11"/>
-      <c r="G42" s="7"/>
-      <c r="H42" s="7"/>
-      <c r="I42" s="7"/>
-      <c r="J42" s="7"/>
-      <c r="K42" s="7"/>
-      <c r="L42" s="7"/>
-      <c r="M42" s="7"/>
-      <c r="N42" s="7"/>
-      <c r="O42" s="7"/>
-      <c r="P42" s="8"/>
-      <c r="Q42" s="8"/>
-      <c r="R42" s="8"/>
-      <c r="S42" s="8"/>
-      <c r="T42" s="8"/>
-      <c r="U42" s="8"/>
-      <c r="V42" s="8"/>
-      <c r="W42" s="8"/>
-      <c r="X42" s="8"/>
-      <c r="Y42" s="8"/>
-    </row>
-    <row r="43" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="11" t="s">
-        <v>25</v>
-      </c>
-      <c r="B43" s="11" t="s">
-        <v>286</v>
-      </c>
-      <c r="C43" s="11" t="s">
-        <v>287</v>
-      </c>
-      <c r="D43" s="11"/>
-      <c r="E43" s="11"/>
-      <c r="F43" s="11"/>
-      <c r="G43" s="7"/>
-      <c r="H43" s="7"/>
-      <c r="I43" s="7"/>
-      <c r="J43" s="7"/>
-      <c r="K43" s="7"/>
-      <c r="L43" s="7"/>
-      <c r="M43" s="7"/>
-      <c r="N43" s="7"/>
-      <c r="O43" s="7"/>
-      <c r="P43" s="8"/>
-      <c r="Q43" s="8"/>
-      <c r="R43" s="8"/>
-      <c r="S43" s="8"/>
-      <c r="T43" s="8"/>
-      <c r="U43" s="8"/>
-      <c r="V43" s="8"/>
-      <c r="W43" s="8"/>
-      <c r="X43" s="8"/>
-      <c r="Y43" s="8"/>
-    </row>
-    <row r="44" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A42" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="B42" s="4"/>
+      <c r="C42" s="4"/>
+      <c r="D42" s="4"/>
+      <c r="E42" s="4"/>
+      <c r="F42" s="4"/>
+      <c r="G42" s="4"/>
+      <c r="H42" s="4"/>
+      <c r="I42" s="4"/>
+      <c r="J42" s="4"/>
+      <c r="K42" s="4"/>
+      <c r="L42" s="4"/>
+      <c r="M42" s="4"/>
+      <c r="N42" s="4"/>
+      <c r="O42" s="4"/>
+      <c r="P42" s="5"/>
+      <c r="Q42" s="5"/>
+      <c r="R42" s="5"/>
+      <c r="S42" s="5"/>
+      <c r="T42" s="5"/>
+      <c r="U42" s="5"/>
+      <c r="V42" s="5"/>
+      <c r="W42" s="3"/>
+      <c r="X42" s="3"/>
+      <c r="Y42" s="3"/>
+      <c r="Z42" s="3"/>
+    </row>
+    <row r="43" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A43" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="B43" s="4"/>
+      <c r="C43" s="4"/>
+      <c r="D43" s="4"/>
+      <c r="E43" s="4"/>
+      <c r="F43" s="4"/>
+      <c r="G43" s="4"/>
+      <c r="H43" s="4"/>
+      <c r="I43" s="4"/>
+      <c r="J43" s="4"/>
+      <c r="K43" s="4"/>
+      <c r="L43" s="4"/>
+      <c r="M43" s="4"/>
+      <c r="N43" s="4"/>
+      <c r="O43" s="4"/>
+      <c r="P43" s="5"/>
+      <c r="Q43" s="5"/>
+      <c r="R43" s="5"/>
+      <c r="S43" s="5"/>
+      <c r="T43" s="5"/>
+      <c r="U43" s="5"/>
+      <c r="V43" s="5"/>
+      <c r="W43" s="3"/>
+      <c r="X43" s="3"/>
+      <c r="Y43" s="3"/>
+      <c r="Z43" s="3"/>
+    </row>
+    <row r="44" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A44" s="11" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="B44" s="11" t="s">
-        <v>285</v>
-      </c>
-      <c r="C44" s="11" t="s">
-        <v>288</v>
-      </c>
+        <v>33</v>
+      </c>
+      <c r="C44" s="11"/>
       <c r="D44" s="11"/>
       <c r="E44" s="11"/>
       <c r="F44" s="11"/>
-      <c r="G44" s="7"/>
-      <c r="H44" s="7"/>
-      <c r="I44" s="7"/>
-      <c r="J44" s="7"/>
-      <c r="K44" s="7"/>
-      <c r="L44" s="7"/>
-      <c r="M44" s="7"/>
-      <c r="N44" s="7"/>
-      <c r="O44" s="7"/>
-      <c r="P44" s="8"/>
-      <c r="Q44" s="8"/>
-      <c r="R44" s="8"/>
-      <c r="S44" s="8"/>
-      <c r="T44" s="8"/>
-      <c r="U44" s="8"/>
-      <c r="V44" s="8"/>
-      <c r="W44" s="8"/>
-      <c r="X44" s="8"/>
-      <c r="Y44" s="8"/>
-    </row>
-    <row r="45" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G44" s="11"/>
+      <c r="H44" s="11"/>
+      <c r="I44" s="11" t="s">
+        <v>308</v>
+      </c>
+      <c r="J44" s="11"/>
+      <c r="K44" s="11"/>
+      <c r="L44" s="11"/>
+      <c r="M44" s="11"/>
+      <c r="N44" s="11"/>
+      <c r="O44" s="11"/>
+      <c r="P44" s="11"/>
+      <c r="Q44" s="11"/>
+      <c r="R44" s="11"/>
+      <c r="S44" s="11"/>
+      <c r="T44" s="11"/>
+      <c r="U44" s="11"/>
+      <c r="V44" s="11"/>
+      <c r="W44" s="11"/>
+      <c r="X44" s="11"/>
+      <c r="Y44" s="11"/>
+      <c r="Z44" s="11"/>
+    </row>
+    <row r="45" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A45" s="11" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="B45" s="11" t="s">
-        <v>289</v>
-      </c>
-      <c r="C45" s="11" t="s">
-        <v>290</v>
-      </c>
+        <v>34</v>
+      </c>
+      <c r="C45" s="11"/>
       <c r="D45" s="11"/>
       <c r="E45" s="11"/>
       <c r="F45" s="11"/>
-      <c r="G45" s="7"/>
-      <c r="H45" s="7"/>
-      <c r="I45" s="7"/>
-      <c r="J45" s="7"/>
-      <c r="K45" s="7"/>
-      <c r="L45" s="7"/>
-      <c r="M45" s="7"/>
-      <c r="N45" s="7"/>
-      <c r="O45" s="7"/>
-      <c r="P45" s="8"/>
-      <c r="Q45" s="8"/>
-      <c r="R45" s="8"/>
-      <c r="S45" s="8"/>
-      <c r="T45" s="8"/>
-      <c r="U45" s="8"/>
-      <c r="V45" s="8"/>
-      <c r="W45" s="8"/>
-      <c r="X45" s="8"/>
-      <c r="Y45" s="8"/>
-    </row>
-    <row r="46" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A46" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="B46" s="4"/>
-      <c r="C46" s="4"/>
-      <c r="D46" s="4"/>
-      <c r="E46" s="4"/>
-      <c r="F46" s="4"/>
-      <c r="G46" s="4"/>
-      <c r="H46" s="4"/>
-      <c r="I46" s="4"/>
-      <c r="J46" s="4"/>
-      <c r="K46" s="4"/>
-      <c r="L46" s="4"/>
-      <c r="M46" s="4"/>
-      <c r="N46" s="4"/>
-      <c r="O46" s="4"/>
-      <c r="P46" s="5"/>
-      <c r="Q46" s="5"/>
-      <c r="R46" s="5"/>
-      <c r="S46" s="5"/>
-      <c r="T46" s="5"/>
-      <c r="U46" s="5"/>
-      <c r="V46" s="5"/>
-      <c r="W46" s="3"/>
-      <c r="X46" s="3"/>
-      <c r="Y46" s="3"/>
-      <c r="Z46" s="3"/>
-    </row>
-    <row r="47" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A47" s="4"/>
-      <c r="B47" s="4"/>
-      <c r="C47" s="4"/>
-      <c r="D47" s="4"/>
-      <c r="E47" s="4"/>
-      <c r="F47" s="4"/>
-      <c r="G47" s="4"/>
-      <c r="H47" s="4"/>
-      <c r="I47" s="4"/>
-      <c r="J47" s="4"/>
-      <c r="K47" s="4"/>
-      <c r="L47" s="4"/>
-      <c r="M47" s="4"/>
-      <c r="N47" s="4"/>
-      <c r="O47" s="4"/>
-      <c r="P47" s="5"/>
-      <c r="Q47" s="5"/>
-      <c r="R47" s="5"/>
-      <c r="S47" s="5"/>
-      <c r="T47" s="5"/>
-      <c r="U47" s="5"/>
-      <c r="V47" s="5"/>
-      <c r="W47" s="3"/>
-      <c r="X47" s="3"/>
-      <c r="Y47" s="3"/>
-      <c r="Z47" s="3"/>
-    </row>
-    <row r="48" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G45" s="11"/>
+      <c r="H45" s="11"/>
+      <c r="I45" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="J45" s="11"/>
+      <c r="K45" s="11"/>
+      <c r="L45" s="11"/>
+      <c r="M45" s="11"/>
+      <c r="N45" s="11"/>
+      <c r="O45" s="11"/>
+      <c r="P45" s="11"/>
+      <c r="Q45" s="11"/>
+      <c r="R45" s="11"/>
+      <c r="S45" s="11"/>
+      <c r="T45" s="11"/>
+      <c r="U45" s="11"/>
+      <c r="V45" s="11"/>
+      <c r="W45" s="11"/>
+      <c r="X45" s="11"/>
+      <c r="Y45" s="11"/>
+      <c r="Z45" s="11"/>
+    </row>
+    <row r="46" spans="1:26" s="11" customFormat="1" ht="12.9" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A46" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="B46" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="I46" s="12" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="47" spans="1:26" s="11" customFormat="1" ht="12.9" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A47" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="B47" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="I47" s="13" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="48" spans="1:26" s="11" customFormat="1" ht="12.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A48" s="11" t="s">
         <v>32</v>
       </c>
       <c r="B48" s="11" t="s">
-        <v>33</v>
-      </c>
-      <c r="C48" s="11"/>
-      <c r="D48" s="11"/>
-      <c r="E48" s="11"/>
-      <c r="F48" s="11"/>
-      <c r="G48" s="11"/>
-      <c r="H48" s="11"/>
-      <c r="I48" s="11" t="s">
-        <v>310</v>
-      </c>
-      <c r="J48" s="11"/>
-      <c r="K48" s="11"/>
-      <c r="L48" s="11"/>
-      <c r="M48" s="11"/>
-      <c r="N48" s="11"/>
-      <c r="O48" s="11"/>
-      <c r="P48" s="11"/>
-      <c r="Q48" s="11"/>
-      <c r="R48" s="11"/>
-      <c r="S48" s="11"/>
-      <c r="T48" s="11"/>
-      <c r="U48" s="11"/>
-      <c r="V48" s="11"/>
-      <c r="W48" s="11"/>
-      <c r="X48" s="11"/>
-      <c r="Y48" s="11"/>
-      <c r="Z48" s="11"/>
-    </row>
-    <row r="49" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A49" s="11" t="s">
-        <v>32</v>
-      </c>
-      <c r="B49" s="11" t="s">
-        <v>34</v>
-      </c>
-      <c r="C49" s="11"/>
-      <c r="D49" s="11"/>
-      <c r="E49" s="11"/>
-      <c r="F49" s="11"/>
-      <c r="G49" s="11"/>
-      <c r="H49" s="11"/>
-      <c r="I49" s="11" t="s">
-        <v>35</v>
-      </c>
-      <c r="J49" s="11"/>
-      <c r="K49" s="11"/>
-      <c r="L49" s="11"/>
-      <c r="M49" s="11"/>
-      <c r="N49" s="11"/>
-      <c r="O49" s="11"/>
-      <c r="P49" s="11"/>
-      <c r="Q49" s="11"/>
-      <c r="R49" s="11"/>
-      <c r="S49" s="11"/>
-      <c r="T49" s="11"/>
-      <c r="U49" s="11"/>
-      <c r="V49" s="11"/>
-      <c r="W49" s="11"/>
-      <c r="X49" s="11"/>
-      <c r="Y49" s="11"/>
-      <c r="Z49" s="11"/>
-    </row>
-    <row r="50" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A50" s="11" t="s">
-        <v>32</v>
-      </c>
-      <c r="B50" s="11" t="s">
-        <v>311</v>
-      </c>
-      <c r="C50" s="11"/>
-      <c r="D50" s="11"/>
-      <c r="E50" s="11"/>
-      <c r="F50" s="11"/>
-      <c r="G50" s="11"/>
-      <c r="H50" s="11"/>
-      <c r="I50" s="11" t="s">
-        <v>312</v>
-      </c>
-      <c r="J50" s="11"/>
-      <c r="K50" s="11"/>
-      <c r="L50" s="11"/>
-      <c r="M50" s="11"/>
-      <c r="N50" s="11"/>
-      <c r="O50" s="11"/>
-      <c r="P50" s="11"/>
-      <c r="Q50" s="11"/>
-      <c r="R50" s="11"/>
-      <c r="S50" s="11"/>
-      <c r="T50" s="11"/>
-      <c r="U50" s="11"/>
-      <c r="V50" s="11"/>
-      <c r="W50" s="11"/>
-      <c r="X50" s="11"/>
-      <c r="Y50" s="11"/>
-      <c r="Z50" s="11"/>
-    </row>
-    <row r="51" spans="1:26" s="11" customFormat="1" ht="12.9" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A51" s="11" t="s">
-        <v>32</v>
-      </c>
-      <c r="B51" s="11" t="s">
-        <v>37</v>
-      </c>
-      <c r="I51" s="12" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="52" spans="1:26" s="11" customFormat="1" ht="12.9" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A52" s="11" t="s">
-        <v>32</v>
-      </c>
-      <c r="B52" s="11" t="s">
-        <v>39</v>
-      </c>
-      <c r="I52" s="13" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="53" spans="1:26" s="11" customFormat="1" ht="12.9" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A53" s="11" t="s">
-        <v>32</v>
-      </c>
-      <c r="B53" s="11" t="s">
         <v>41</v>
       </c>
-      <c r="I53" s="13" t="s">
+      <c r="I48" s="13" t="s">
         <v>42</v>
+      </c>
+    </row>
+    <row r="49" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A49" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B49" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="C49" t="s">
+        <v>304</v>
+      </c>
+      <c r="D49" s="4"/>
+      <c r="E49" s="4"/>
+      <c r="F49" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="G49" s="4"/>
+      <c r="H49" s="4"/>
+      <c r="I49" s="4"/>
+      <c r="J49" s="4"/>
+      <c r="K49" s="4"/>
+      <c r="L49" s="4"/>
+      <c r="M49" s="4"/>
+      <c r="N49" s="4"/>
+      <c r="O49" s="4"/>
+      <c r="P49" s="4"/>
+      <c r="Q49" s="4"/>
+      <c r="R49" s="4"/>
+      <c r="S49" s="4"/>
+      <c r="T49" s="4"/>
+      <c r="U49" s="4"/>
+      <c r="V49" s="4"/>
+      <c r="W49" s="4"/>
+      <c r="X49" s="4"/>
+      <c r="Y49" s="4"/>
+      <c r="Z49" s="4"/>
+    </row>
+    <row r="50" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A50" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="B50" s="4" t="s">
+        <v>306</v>
+      </c>
+      <c r="C50" s="4" t="s">
+        <v>307</v>
+      </c>
+      <c r="D50" s="4"/>
+      <c r="E50" s="4"/>
+      <c r="F50" s="4"/>
+      <c r="G50" s="4"/>
+      <c r="H50" s="4"/>
+      <c r="I50" s="4"/>
+      <c r="J50" s="4"/>
+      <c r="K50" s="4"/>
+      <c r="L50" s="4"/>
+      <c r="M50" s="4"/>
+      <c r="N50" s="4"/>
+      <c r="O50" s="4"/>
+      <c r="P50" s="4"/>
+      <c r="Q50" s="4"/>
+      <c r="R50" s="4"/>
+      <c r="S50" s="4"/>
+      <c r="T50" s="4"/>
+      <c r="U50" s="4"/>
+      <c r="V50" s="4"/>
+      <c r="W50" s="4"/>
+      <c r="X50" s="4"/>
+      <c r="Y50" s="4"/>
+      <c r="Z50" s="4"/>
+    </row>
+    <row r="51" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A51" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="B51" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="C51" t="s">
+        <v>50</v>
+      </c>
+      <c r="E51" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="52" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A52" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="B52" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="C52" t="s">
+        <v>53</v>
+      </c>
+      <c r="E52" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="53" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A53" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="B53" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="C53" t="s">
+        <v>56</v>
+      </c>
+      <c r="E53" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="54" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A54" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="B54" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="C54" t="s">
-        <v>306</v>
-      </c>
+        <v>29</v>
+      </c>
+      <c r="B54" s="4"/>
+      <c r="C54" s="4"/>
       <c r="D54" s="4"/>
       <c r="E54" s="4"/>
-      <c r="F54" s="4" t="s">
-        <v>21</v>
-      </c>
+      <c r="F54" s="4"/>
       <c r="G54" s="4"/>
       <c r="H54" s="4"/>
       <c r="I54" s="4"/>
@@ -3487,120 +3412,183 @@
       <c r="Z54" s="4"/>
     </row>
     <row r="55" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A55" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="B55" s="4" t="s">
-        <v>308</v>
-      </c>
-      <c r="C55" s="4" t="s">
-        <v>309</v>
-      </c>
-      <c r="D55" s="4"/>
-      <c r="E55" s="4"/>
-      <c r="F55" s="4"/>
-      <c r="G55" s="4"/>
-      <c r="H55" s="4"/>
-      <c r="I55" s="4"/>
-      <c r="J55" s="4"/>
-      <c r="K55" s="4"/>
-      <c r="L55" s="4"/>
-      <c r="M55" s="4"/>
-      <c r="N55" s="4"/>
-      <c r="O55" s="4"/>
-      <c r="P55" s="4"/>
-      <c r="Q55" s="4"/>
-      <c r="R55" s="4"/>
-      <c r="S55" s="4"/>
-      <c r="T55" s="4"/>
-      <c r="U55" s="4"/>
-      <c r="V55" s="4"/>
+      <c r="A55" s="6"/>
+      <c r="B55" s="6"/>
+      <c r="C55" s="6"/>
+      <c r="D55" s="6"/>
+      <c r="E55" s="6"/>
+      <c r="F55" s="6"/>
+      <c r="G55" s="6"/>
+      <c r="H55" s="6"/>
+      <c r="I55" s="6"/>
+      <c r="J55" s="6"/>
+      <c r="K55" s="6"/>
+      <c r="L55" s="6"/>
+      <c r="M55" s="6"/>
+      <c r="N55" s="6"/>
+      <c r="O55" s="6"/>
+      <c r="P55" s="6"/>
+      <c r="Q55" s="6"/>
+      <c r="R55" s="6"/>
+      <c r="S55" s="6"/>
+      <c r="T55" s="6"/>
+      <c r="U55" s="6"/>
+      <c r="V55" s="6"/>
       <c r="W55" s="4"/>
       <c r="X55" s="4"/>
       <c r="Y55" s="4"/>
       <c r="Z55" s="4"/>
     </row>
-    <row r="56" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A56" s="6" t="s">
+    <row r="56" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A56" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B56" s="4" t="s">
+        <v>148</v>
+      </c>
+      <c r="C56" t="s">
+        <v>303</v>
+      </c>
+      <c r="D56" s="4"/>
+      <c r="E56" s="4"/>
+      <c r="F56" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="G56" s="4"/>
+      <c r="H56" s="4"/>
+      <c r="I56" s="4"/>
+      <c r="J56" s="4"/>
+      <c r="K56" s="4"/>
+      <c r="L56" s="4"/>
+      <c r="M56" s="4"/>
+      <c r="N56" s="4"/>
+      <c r="O56" s="4"/>
+      <c r="P56" s="4"/>
+      <c r="Q56" s="4"/>
+      <c r="R56" s="4"/>
+      <c r="S56" s="4"/>
+      <c r="T56" s="4"/>
+      <c r="U56" s="4"/>
+      <c r="V56" s="4"/>
+      <c r="W56" s="4"/>
+      <c r="X56" s="4"/>
+      <c r="Y56" s="4"/>
+      <c r="Z56" s="4"/>
+    </row>
+    <row r="57" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A57" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="B56" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="C56" t="s">
-        <v>50</v>
-      </c>
-      <c r="E56" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="57" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A57" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="B57" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="C57" t="s">
-        <v>53</v>
-      </c>
-      <c r="E57" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="58" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A58" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="B58" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="C58" t="s">
-        <v>56</v>
-      </c>
-      <c r="E58" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="59" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A59" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="B59" s="4"/>
-      <c r="C59" s="4"/>
-      <c r="D59" s="4"/>
-      <c r="E59" s="4"/>
-      <c r="F59" s="4"/>
-      <c r="G59" s="4"/>
-      <c r="H59" s="4"/>
-      <c r="I59" s="4"/>
-      <c r="J59" s="4"/>
-      <c r="K59" s="4"/>
-      <c r="L59" s="4"/>
-      <c r="M59" s="4"/>
-      <c r="N59" s="4"/>
-      <c r="O59" s="4"/>
-      <c r="P59" s="4"/>
-      <c r="Q59" s="4"/>
-      <c r="R59" s="4"/>
-      <c r="S59" s="4"/>
-      <c r="T59" s="4"/>
-      <c r="U59" s="4"/>
-      <c r="V59" s="4"/>
-      <c r="W59" s="4"/>
-      <c r="X59" s="4"/>
-      <c r="Y59" s="4"/>
-      <c r="Z59" s="4"/>
-    </row>
-    <row r="60" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A60" s="6"/>
-      <c r="B60" s="6"/>
-      <c r="C60" s="6"/>
+      <c r="B57" s="4" t="s">
+        <v>305</v>
+      </c>
+      <c r="C57" s="4" t="s">
+        <v>147</v>
+      </c>
+      <c r="D57" s="4"/>
+      <c r="E57" s="4"/>
+      <c r="F57" s="4"/>
+      <c r="G57" s="4"/>
+      <c r="H57" s="4"/>
+      <c r="I57" s="4"/>
+      <c r="J57" s="4"/>
+      <c r="K57" s="4"/>
+      <c r="L57" s="4"/>
+      <c r="M57" s="4"/>
+      <c r="N57" s="4"/>
+      <c r="O57" s="4"/>
+      <c r="P57" s="4"/>
+      <c r="Q57" s="4"/>
+      <c r="R57" s="4"/>
+      <c r="S57" s="4"/>
+      <c r="T57" s="4"/>
+      <c r="U57" s="4"/>
+      <c r="V57" s="4"/>
+      <c r="W57" s="4"/>
+      <c r="X57" s="4"/>
+      <c r="Y57" s="4"/>
+      <c r="Z57" s="4"/>
+    </row>
+    <row r="58" spans="1:26" ht="15.9" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A58" s="39" t="s">
+        <v>133</v>
+      </c>
+      <c r="B58" s="39" t="s">
+        <v>134</v>
+      </c>
+      <c r="C58" s="39" t="s">
+        <v>149</v>
+      </c>
+      <c r="D58" s="6"/>
+      <c r="F58" s="41" t="s">
+        <v>157</v>
+      </c>
+      <c r="I58" s="6"/>
+      <c r="J58" s="6"/>
+      <c r="K58" s="6"/>
+      <c r="L58" s="6"/>
+      <c r="M58" s="6"/>
+      <c r="N58" s="6"/>
+      <c r="O58" s="6"/>
+      <c r="P58" s="6"/>
+      <c r="Q58" s="6"/>
+      <c r="R58" s="6"/>
+      <c r="S58" s="6"/>
+      <c r="T58" s="6"/>
+      <c r="U58" s="6"/>
+      <c r="V58" s="6"/>
+      <c r="W58" s="6"/>
+      <c r="X58" s="6"/>
+      <c r="Y58" s="6"/>
+      <c r="Z58" s="6"/>
+    </row>
+    <row r="59" spans="1:26" ht="15.9" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A59" s="39" t="s">
+        <v>135</v>
+      </c>
+      <c r="B59" s="39" t="s">
+        <v>136</v>
+      </c>
+      <c r="C59" s="39" t="s">
+        <v>150</v>
+      </c>
+      <c r="D59" s="6"/>
+      <c r="F59" s="41" t="s">
+        <v>157</v>
+      </c>
+      <c r="I59" s="6"/>
+      <c r="J59" s="6"/>
+      <c r="K59" s="6"/>
+      <c r="L59" s="6"/>
+      <c r="M59" s="6"/>
+      <c r="N59" s="6"/>
+      <c r="O59" s="6"/>
+      <c r="P59" s="6"/>
+      <c r="Q59" s="6"/>
+      <c r="R59" s="6"/>
+      <c r="S59" s="6"/>
+      <c r="T59" s="6"/>
+      <c r="U59" s="6"/>
+      <c r="V59" s="6"/>
+      <c r="W59" s="6"/>
+      <c r="X59" s="6"/>
+      <c r="Y59" s="6"/>
+      <c r="Z59" s="6"/>
+    </row>
+    <row r="60" spans="1:26" ht="15.9" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A60" s="39" t="s">
+        <v>137</v>
+      </c>
+      <c r="B60" s="39" t="s">
+        <v>138</v>
+      </c>
+      <c r="C60" s="39" t="s">
+        <v>151</v>
+      </c>
       <c r="D60" s="6"/>
-      <c r="E60" s="6"/>
-      <c r="F60" s="6"/>
-      <c r="G60" s="6"/>
-      <c r="H60" s="6"/>
+      <c r="F60" s="41" t="s">
+        <v>157</v>
+      </c>
       <c r="I60" s="6"/>
       <c r="J60" s="6"/>
       <c r="K60" s="6"/>
@@ -3615,95 +3603,100 @@
       <c r="T60" s="6"/>
       <c r="U60" s="6"/>
       <c r="V60" s="6"/>
-      <c r="W60" s="4"/>
-      <c r="X60" s="4"/>
-      <c r="Y60" s="4"/>
-      <c r="Z60" s="4"/>
-    </row>
-    <row r="61" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A61" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="B61" s="4" t="s">
-        <v>150</v>
-      </c>
-      <c r="C61" t="s">
-        <v>305</v>
-      </c>
-      <c r="D61" s="4"/>
-      <c r="E61" s="4"/>
-      <c r="F61" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="G61" s="4"/>
-      <c r="H61" s="4"/>
-      <c r="I61" s="4"/>
-      <c r="J61" s="4"/>
-      <c r="K61" s="4"/>
-      <c r="L61" s="4"/>
-      <c r="M61" s="4"/>
-      <c r="N61" s="4"/>
-      <c r="O61" s="4"/>
-      <c r="P61" s="4"/>
-      <c r="Q61" s="4"/>
-      <c r="R61" s="4"/>
-      <c r="S61" s="4"/>
-      <c r="T61" s="4"/>
-      <c r="U61" s="4"/>
-      <c r="V61" s="4"/>
-      <c r="W61" s="4"/>
-      <c r="X61" s="4"/>
-      <c r="Y61" s="4"/>
-      <c r="Z61" s="4"/>
-    </row>
-    <row r="62" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A62" s="4" t="s">
+      <c r="W60" s="6"/>
+      <c r="X60" s="6"/>
+      <c r="Y60" s="6"/>
+      <c r="Z60" s="6"/>
+    </row>
+    <row r="61" spans="1:26" ht="15.9" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A61" s="39" t="s">
         <v>48</v>
       </c>
-      <c r="B62" s="4" t="s">
-        <v>307</v>
-      </c>
-      <c r="C62" s="4" t="s">
-        <v>149</v>
-      </c>
-      <c r="D62" s="4"/>
-      <c r="E62" s="4"/>
-      <c r="F62" s="4"/>
-      <c r="G62" s="4"/>
-      <c r="H62" s="4"/>
-      <c r="I62" s="4"/>
-      <c r="J62" s="4"/>
-      <c r="K62" s="4"/>
-      <c r="L62" s="4"/>
-      <c r="M62" s="4"/>
-      <c r="N62" s="4"/>
-      <c r="O62" s="4"/>
-      <c r="P62" s="4"/>
-      <c r="Q62" s="4"/>
-      <c r="R62" s="4"/>
-      <c r="S62" s="4"/>
-      <c r="T62" s="4"/>
-      <c r="U62" s="4"/>
-      <c r="V62" s="4"/>
-      <c r="W62" s="4"/>
-      <c r="X62" s="4"/>
-      <c r="Y62" s="4"/>
-      <c r="Z62" s="4"/>
+      <c r="B61" s="39" t="s">
+        <v>139</v>
+      </c>
+      <c r="C61" s="39" t="s">
+        <v>152</v>
+      </c>
+      <c r="D61" s="6"/>
+      <c r="E61" s="40" t="s">
+        <v>140</v>
+      </c>
+      <c r="F61" s="41"/>
+      <c r="G61" s="41"/>
+      <c r="H61" s="41"/>
+      <c r="I61" s="6"/>
+      <c r="J61" s="6"/>
+      <c r="K61" s="6"/>
+      <c r="L61" s="6"/>
+      <c r="M61" s="6"/>
+      <c r="N61" s="6"/>
+      <c r="O61" s="6"/>
+      <c r="P61" s="6"/>
+      <c r="Q61" s="6"/>
+      <c r="R61" s="6"/>
+      <c r="S61" s="6"/>
+      <c r="T61" s="6"/>
+      <c r="U61" s="6"/>
+      <c r="V61" s="6"/>
+      <c r="W61" s="6"/>
+      <c r="X61" s="6"/>
+      <c r="Y61" s="6"/>
+      <c r="Z61" s="6"/>
+    </row>
+    <row r="62" spans="1:26" ht="15.9" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A62" s="39" t="s">
+        <v>48</v>
+      </c>
+      <c r="B62" s="39" t="s">
+        <v>141</v>
+      </c>
+      <c r="C62" s="39" t="s">
+        <v>153</v>
+      </c>
+      <c r="D62" s="6"/>
+      <c r="E62" s="40" t="s">
+        <v>142</v>
+      </c>
+      <c r="F62" s="39"/>
+      <c r="G62" s="39"/>
+      <c r="H62" s="39"/>
+      <c r="I62" s="6"/>
+      <c r="J62" s="6"/>
+      <c r="K62" s="6"/>
+      <c r="L62" s="6"/>
+      <c r="M62" s="6"/>
+      <c r="N62" s="6"/>
+      <c r="O62" s="6"/>
+      <c r="P62" s="6"/>
+      <c r="Q62" s="6"/>
+      <c r="R62" s="6"/>
+      <c r="S62" s="6"/>
+      <c r="T62" s="6"/>
+      <c r="U62" s="6"/>
+      <c r="V62" s="6"/>
+      <c r="W62" s="6"/>
+      <c r="X62" s="6"/>
+      <c r="Y62" s="6"/>
+      <c r="Z62" s="6"/>
     </row>
     <row r="63" spans="1:26" ht="15.9" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A63" s="41" t="s">
-        <v>135</v>
-      </c>
-      <c r="B63" s="41" t="s">
-        <v>136</v>
-      </c>
-      <c r="C63" s="41" t="s">
-        <v>151</v>
+      <c r="A63" s="39" t="s">
+        <v>48</v>
+      </c>
+      <c r="B63" s="39" t="s">
+        <v>143</v>
+      </c>
+      <c r="C63" s="39" t="s">
+        <v>154</v>
       </c>
       <c r="D63" s="6"/>
-      <c r="F63" s="43" t="s">
-        <v>159</v>
-      </c>
+      <c r="E63" s="40" t="s">
+        <v>144</v>
+      </c>
+      <c r="F63" s="39"/>
+      <c r="G63" s="39"/>
+      <c r="H63" s="39"/>
       <c r="I63" s="6"/>
       <c r="J63" s="6"/>
       <c r="K63" s="6"/>
@@ -3724,19 +3717,22 @@
       <c r="Z63" s="6"/>
     </row>
     <row r="64" spans="1:26" ht="15.9" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A64" s="41" t="s">
-        <v>137</v>
-      </c>
-      <c r="B64" s="41" t="s">
-        <v>138</v>
-      </c>
-      <c r="C64" s="41" t="s">
-        <v>152</v>
+      <c r="A64" s="39" t="s">
+        <v>48</v>
+      </c>
+      <c r="B64" s="39" t="s">
+        <v>94</v>
+      </c>
+      <c r="C64" s="39" t="s">
+        <v>155</v>
       </c>
       <c r="D64" s="6"/>
-      <c r="F64" s="43" t="s">
-        <v>159</v>
-      </c>
+      <c r="E64" s="40" t="s">
+        <v>145</v>
+      </c>
+      <c r="F64" s="39"/>
+      <c r="G64" s="39"/>
+      <c r="H64" s="39"/>
       <c r="I64" s="6"/>
       <c r="J64" s="6"/>
       <c r="K64" s="6"/>
@@ -3757,19 +3753,22 @@
       <c r="Z64" s="6"/>
     </row>
     <row r="65" spans="1:26" ht="15.9" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A65" s="41" t="s">
-        <v>139</v>
-      </c>
-      <c r="B65" s="41" t="s">
-        <v>140</v>
-      </c>
-      <c r="C65" s="41" t="s">
-        <v>153</v>
+      <c r="A65" s="39" t="s">
+        <v>48</v>
+      </c>
+      <c r="B65" s="39" t="s">
+        <v>290</v>
+      </c>
+      <c r="C65" s="39" t="s">
+        <v>156</v>
       </c>
       <c r="D65" s="6"/>
-      <c r="F65" s="43" t="s">
-        <v>159</v>
-      </c>
+      <c r="E65" s="40" t="s">
+        <v>146</v>
+      </c>
+      <c r="F65" s="39"/>
+      <c r="G65" s="39"/>
+      <c r="H65" s="39"/>
       <c r="I65" s="6"/>
       <c r="J65" s="6"/>
       <c r="K65" s="6"/>
@@ -3790,22 +3789,21 @@
       <c r="Z65" s="6"/>
     </row>
     <row r="66" spans="1:26" ht="15.9" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A66" s="41" t="s">
+      <c r="A66" s="39" t="s">
         <v>48</v>
       </c>
-      <c r="B66" s="41" t="s">
-        <v>141</v>
-      </c>
-      <c r="C66" s="41" t="s">
-        <v>154</v>
-      </c>
-      <c r="D66" s="6"/>
-      <c r="E66" s="42" t="s">
-        <v>142</v>
-      </c>
-      <c r="F66" s="43"/>
-      <c r="G66" s="43"/>
-      <c r="H66" s="43"/>
+      <c r="B66" s="39" t="s">
+        <v>291</v>
+      </c>
+      <c r="C66" s="44" t="s">
+        <v>208</v>
+      </c>
+      <c r="E66" s="45" t="s">
+        <v>209</v>
+      </c>
+      <c r="F66" s="39"/>
+      <c r="G66" s="39"/>
+      <c r="H66" s="39"/>
       <c r="I66" s="6"/>
       <c r="J66" s="6"/>
       <c r="K66" s="6"/>
@@ -3825,247 +3823,240 @@
       <c r="Y66" s="6"/>
       <c r="Z66" s="6"/>
     </row>
-    <row r="67" spans="1:26" ht="15.9" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A67" s="41" t="s">
+    <row r="67" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A67" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="B67" s="4"/>
+      <c r="C67" s="4"/>
+      <c r="D67" s="4"/>
+      <c r="E67" s="4"/>
+      <c r="F67" s="4"/>
+      <c r="G67" s="4"/>
+      <c r="H67" s="4"/>
+      <c r="I67" s="4"/>
+      <c r="J67" s="4"/>
+      <c r="K67" s="4"/>
+      <c r="L67" s="4"/>
+      <c r="M67" s="4"/>
+      <c r="N67" s="4"/>
+      <c r="O67" s="4"/>
+      <c r="P67" s="4"/>
+      <c r="Q67" s="4"/>
+      <c r="R67" s="4"/>
+      <c r="S67" s="4"/>
+      <c r="T67" s="4"/>
+      <c r="U67" s="4"/>
+      <c r="V67" s="4"/>
+      <c r="W67" s="4"/>
+      <c r="X67" s="4"/>
+      <c r="Y67" s="4"/>
+      <c r="Z67" s="4"/>
+    </row>
+    <row r="68" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A68" s="22"/>
+      <c r="B68" s="22"/>
+      <c r="C68" s="22"/>
+      <c r="D68" s="22"/>
+      <c r="E68" s="22"/>
+      <c r="F68" s="22"/>
+      <c r="G68" s="22"/>
+      <c r="H68" s="22"/>
+      <c r="I68" s="22"/>
+      <c r="J68" s="4"/>
+      <c r="K68" s="4"/>
+      <c r="L68" s="4"/>
+      <c r="M68" s="4"/>
+      <c r="N68" s="4"/>
+      <c r="O68" s="4"/>
+      <c r="P68" s="4"/>
+      <c r="Q68" s="4"/>
+      <c r="R68" s="4"/>
+      <c r="S68" s="4"/>
+      <c r="T68" s="4"/>
+      <c r="U68" s="4"/>
+      <c r="V68" s="4"/>
+      <c r="W68" s="4"/>
+      <c r="X68" s="4"/>
+      <c r="Y68" s="4"/>
+      <c r="Z68" s="4"/>
+    </row>
+    <row r="69" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A69" s="22"/>
+      <c r="B69" s="22"/>
+      <c r="C69" s="22"/>
+      <c r="D69" s="22"/>
+      <c r="E69" s="22"/>
+      <c r="F69" s="22"/>
+      <c r="G69" s="22"/>
+      <c r="H69" s="22"/>
+      <c r="I69" s="22"/>
+      <c r="J69" s="22"/>
+      <c r="K69" s="22"/>
+      <c r="L69" s="22"/>
+      <c r="M69" s="22"/>
+      <c r="N69" s="22"/>
+      <c r="O69" s="22"/>
+      <c r="P69" s="22"/>
+      <c r="Q69" s="22"/>
+      <c r="R69" s="22"/>
+      <c r="S69" s="22"/>
+      <c r="T69" s="22"/>
+      <c r="U69" s="22"/>
+      <c r="V69" s="22"/>
+      <c r="W69" s="22"/>
+      <c r="X69" s="22"/>
+      <c r="Y69" s="22"/>
+      <c r="Z69" s="22"/>
+    </row>
+    <row r="70" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A70" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B70" s="4" t="s">
+        <v>192</v>
+      </c>
+      <c r="C70" s="4" t="s">
+        <v>188</v>
+      </c>
+      <c r="D70" s="22"/>
+      <c r="E70" s="22"/>
+      <c r="F70" s="22"/>
+      <c r="G70" s="22"/>
+      <c r="H70" s="22"/>
+      <c r="I70" s="22"/>
+      <c r="J70" s="22"/>
+      <c r="K70" s="22"/>
+      <c r="L70" s="22"/>
+      <c r="M70" s="22"/>
+      <c r="N70" s="22"/>
+      <c r="O70" s="22"/>
+      <c r="P70" s="22"/>
+      <c r="Q70" s="22"/>
+      <c r="R70" s="22"/>
+      <c r="S70" s="22"/>
+      <c r="T70" s="22"/>
+      <c r="U70" s="22"/>
+      <c r="V70" s="22"/>
+      <c r="W70" s="22"/>
+      <c r="X70" s="22"/>
+      <c r="Y70" s="22"/>
+      <c r="Z70" s="22"/>
+    </row>
+    <row r="71" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A71" s="39" t="s">
         <v>48</v>
       </c>
-      <c r="B67" s="41" t="s">
-        <v>143</v>
-      </c>
-      <c r="C67" s="41" t="s">
-        <v>155</v>
-      </c>
-      <c r="D67" s="6"/>
-      <c r="E67" s="42" t="s">
+      <c r="B71" s="39" t="s">
+        <v>189</v>
+      </c>
+      <c r="C71" s="39" t="s">
+        <v>193</v>
+      </c>
+      <c r="D71" s="22"/>
+      <c r="E71" s="40" t="s">
+        <v>140</v>
+      </c>
+      <c r="F71" s="22"/>
+      <c r="G71" s="22"/>
+      <c r="H71" s="22"/>
+      <c r="I71" s="22"/>
+      <c r="J71" s="22"/>
+      <c r="K71" s="22"/>
+      <c r="L71" s="22"/>
+      <c r="M71" s="22"/>
+      <c r="N71" s="22"/>
+      <c r="O71" s="22"/>
+      <c r="P71" s="22"/>
+      <c r="Q71" s="22"/>
+      <c r="R71" s="22"/>
+      <c r="S71" s="22"/>
+      <c r="T71" s="22"/>
+      <c r="U71" s="22"/>
+      <c r="V71" s="22"/>
+      <c r="W71" s="22"/>
+      <c r="X71" s="22"/>
+      <c r="Y71" s="22"/>
+      <c r="Z71" s="22"/>
+    </row>
+    <row r="72" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A72" s="39" t="s">
+        <v>48</v>
+      </c>
+      <c r="B72" s="39" t="s">
+        <v>190</v>
+      </c>
+      <c r="C72" s="39" t="s">
+        <v>193</v>
+      </c>
+      <c r="D72" s="22"/>
+      <c r="E72" s="40" t="s">
+        <v>142</v>
+      </c>
+      <c r="F72" s="22"/>
+      <c r="G72" s="22"/>
+      <c r="H72" s="22"/>
+      <c r="I72" s="22"/>
+      <c r="J72" s="22"/>
+      <c r="K72" s="22"/>
+      <c r="L72" s="22"/>
+      <c r="M72" s="22"/>
+      <c r="N72" s="22"/>
+      <c r="O72" s="22"/>
+      <c r="P72" s="22"/>
+      <c r="Q72" s="22"/>
+      <c r="R72" s="22"/>
+      <c r="S72" s="22"/>
+      <c r="T72" s="22"/>
+      <c r="U72" s="22"/>
+      <c r="V72" s="22"/>
+      <c r="W72" s="22"/>
+      <c r="X72" s="22"/>
+      <c r="Y72" s="22"/>
+      <c r="Z72" s="22"/>
+    </row>
+    <row r="73" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A73" s="39" t="s">
+        <v>48</v>
+      </c>
+      <c r="B73" s="39" t="s">
+        <v>191</v>
+      </c>
+      <c r="C73" s="39" t="s">
+        <v>194</v>
+      </c>
+      <c r="D73" s="22"/>
+      <c r="E73" s="40" t="s">
         <v>144</v>
       </c>
-      <c r="F67" s="41"/>
-      <c r="G67" s="41"/>
-      <c r="H67" s="41"/>
-      <c r="I67" s="6"/>
-      <c r="J67" s="6"/>
-      <c r="K67" s="6"/>
-      <c r="L67" s="6"/>
-      <c r="M67" s="6"/>
-      <c r="N67" s="6"/>
-      <c r="O67" s="6"/>
-      <c r="P67" s="6"/>
-      <c r="Q67" s="6"/>
-      <c r="R67" s="6"/>
-      <c r="S67" s="6"/>
-      <c r="T67" s="6"/>
-      <c r="U67" s="6"/>
-      <c r="V67" s="6"/>
-      <c r="W67" s="6"/>
-      <c r="X67" s="6"/>
-      <c r="Y67" s="6"/>
-      <c r="Z67" s="6"/>
-    </row>
-    <row r="68" spans="1:26" ht="15.9" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A68" s="41" t="s">
-        <v>48</v>
-      </c>
-      <c r="B68" s="41" t="s">
-        <v>145</v>
-      </c>
-      <c r="C68" s="41" t="s">
-        <v>156</v>
-      </c>
-      <c r="D68" s="6"/>
-      <c r="E68" s="42" t="s">
-        <v>146</v>
-      </c>
-      <c r="F68" s="41"/>
-      <c r="G68" s="41"/>
-      <c r="H68" s="41"/>
-      <c r="I68" s="6"/>
-      <c r="J68" s="6"/>
-      <c r="K68" s="6"/>
-      <c r="L68" s="6"/>
-      <c r="M68" s="6"/>
-      <c r="N68" s="6"/>
-      <c r="O68" s="6"/>
-      <c r="P68" s="6"/>
-      <c r="Q68" s="6"/>
-      <c r="R68" s="6"/>
-      <c r="S68" s="6"/>
-      <c r="T68" s="6"/>
-      <c r="U68" s="6"/>
-      <c r="V68" s="6"/>
-      <c r="W68" s="6"/>
-      <c r="X68" s="6"/>
-      <c r="Y68" s="6"/>
-      <c r="Z68" s="6"/>
-    </row>
-    <row r="69" spans="1:26" ht="15.9" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A69" s="41" t="s">
-        <v>48</v>
-      </c>
-      <c r="B69" s="41" t="s">
-        <v>96</v>
-      </c>
-      <c r="C69" s="41" t="s">
-        <v>157</v>
-      </c>
-      <c r="D69" s="6"/>
-      <c r="E69" s="42" t="s">
-        <v>147</v>
-      </c>
-      <c r="F69" s="41"/>
-      <c r="G69" s="41"/>
-      <c r="H69" s="41"/>
-      <c r="I69" s="6"/>
-      <c r="J69" s="6"/>
-      <c r="K69" s="6"/>
-      <c r="L69" s="6"/>
-      <c r="M69" s="6"/>
-      <c r="N69" s="6"/>
-      <c r="O69" s="6"/>
-      <c r="P69" s="6"/>
-      <c r="Q69" s="6"/>
-      <c r="R69" s="6"/>
-      <c r="S69" s="6"/>
-      <c r="T69" s="6"/>
-      <c r="U69" s="6"/>
-      <c r="V69" s="6"/>
-      <c r="W69" s="6"/>
-      <c r="X69" s="6"/>
-      <c r="Y69" s="6"/>
-      <c r="Z69" s="6"/>
-    </row>
-    <row r="70" spans="1:26" ht="15.9" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A70" s="41" t="s">
-        <v>48</v>
-      </c>
-      <c r="B70" s="41" t="s">
-        <v>292</v>
-      </c>
-      <c r="C70" s="41" t="s">
-        <v>158</v>
-      </c>
-      <c r="D70" s="6"/>
-      <c r="E70" s="42" t="s">
-        <v>148</v>
-      </c>
-      <c r="F70" s="41"/>
-      <c r="G70" s="41"/>
-      <c r="H70" s="41"/>
-      <c r="I70" s="6"/>
-      <c r="J70" s="6"/>
-      <c r="K70" s="6"/>
-      <c r="L70" s="6"/>
-      <c r="M70" s="6"/>
-      <c r="N70" s="6"/>
-      <c r="O70" s="6"/>
-      <c r="P70" s="6"/>
-      <c r="Q70" s="6"/>
-      <c r="R70" s="6"/>
-      <c r="S70" s="6"/>
-      <c r="T70" s="6"/>
-      <c r="U70" s="6"/>
-      <c r="V70" s="6"/>
-      <c r="W70" s="6"/>
-      <c r="X70" s="6"/>
-      <c r="Y70" s="6"/>
-      <c r="Z70" s="6"/>
-    </row>
-    <row r="71" spans="1:26" ht="15.9" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A71" s="41" t="s">
-        <v>48</v>
-      </c>
-      <c r="B71" s="41" t="s">
-        <v>293</v>
-      </c>
-      <c r="C71" s="46" t="s">
-        <v>210</v>
-      </c>
-      <c r="E71" s="47" t="s">
-        <v>211</v>
-      </c>
-      <c r="F71" s="41"/>
-      <c r="G71" s="41"/>
-      <c r="H71" s="41"/>
-      <c r="I71" s="6"/>
-      <c r="J71" s="6"/>
-      <c r="K71" s="6"/>
-      <c r="L71" s="6"/>
-      <c r="M71" s="6"/>
-      <c r="N71" s="6"/>
-      <c r="O71" s="6"/>
-      <c r="P71" s="6"/>
-      <c r="Q71" s="6"/>
-      <c r="R71" s="6"/>
-      <c r="S71" s="6"/>
-      <c r="T71" s="6"/>
-      <c r="U71" s="6"/>
-      <c r="V71" s="6"/>
-      <c r="W71" s="6"/>
-      <c r="X71" s="6"/>
-      <c r="Y71" s="6"/>
-      <c r="Z71" s="6"/>
-    </row>
-    <row r="72" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A72" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="B72" s="4"/>
-      <c r="C72" s="4"/>
-      <c r="D72" s="4"/>
-      <c r="E72" s="4"/>
-      <c r="F72" s="4"/>
-      <c r="G72" s="4"/>
-      <c r="H72" s="4"/>
-      <c r="I72" s="4"/>
-      <c r="J72" s="4"/>
-      <c r="K72" s="4"/>
-      <c r="L72" s="4"/>
-      <c r="M72" s="4"/>
-      <c r="N72" s="4"/>
-      <c r="O72" s="4"/>
-      <c r="P72" s="4"/>
-      <c r="Q72" s="4"/>
-      <c r="R72" s="4"/>
-      <c r="S72" s="4"/>
-      <c r="T72" s="4"/>
-      <c r="U72" s="4"/>
-      <c r="V72" s="4"/>
-      <c r="W72" s="4"/>
-      <c r="X72" s="4"/>
-      <c r="Y72" s="4"/>
-      <c r="Z72" s="4"/>
-    </row>
-    <row r="73" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A73" s="22"/>
-      <c r="B73" s="22"/>
-      <c r="C73" s="22"/>
-      <c r="D73" s="22"/>
-      <c r="E73" s="22"/>
       <c r="F73" s="22"/>
       <c r="G73" s="22"/>
       <c r="H73" s="22"/>
       <c r="I73" s="22"/>
-      <c r="J73" s="4"/>
-      <c r="K73" s="4"/>
-      <c r="L73" s="4"/>
-      <c r="M73" s="4"/>
-      <c r="N73" s="4"/>
-      <c r="O73" s="4"/>
-      <c r="P73" s="4"/>
-      <c r="Q73" s="4"/>
-      <c r="R73" s="4"/>
-      <c r="S73" s="4"/>
-      <c r="T73" s="4"/>
-      <c r="U73" s="4"/>
-      <c r="V73" s="4"/>
-      <c r="W73" s="4"/>
-      <c r="X73" s="4"/>
-      <c r="Y73" s="4"/>
-      <c r="Z73" s="4"/>
+      <c r="J73" s="22"/>
+      <c r="K73" s="22"/>
+      <c r="L73" s="22"/>
+      <c r="M73" s="22"/>
+      <c r="N73" s="22"/>
+      <c r="O73" s="22"/>
+      <c r="P73" s="22"/>
+      <c r="Q73" s="22"/>
+      <c r="R73" s="22"/>
+      <c r="S73" s="22"/>
+      <c r="T73" s="22"/>
+      <c r="U73" s="22"/>
+      <c r="V73" s="22"/>
+      <c r="W73" s="22"/>
+      <c r="X73" s="22"/>
+      <c r="Y73" s="22"/>
+      <c r="Z73" s="22"/>
     </row>
     <row r="74" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A74" s="22"/>
-      <c r="B74" s="22"/>
-      <c r="C74" s="22"/>
+      <c r="A74" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="B74" s="4"/>
+      <c r="C74" s="4"/>
       <c r="D74" s="22"/>
       <c r="E74" s="22"/>
       <c r="F74" s="22"/>
@@ -4091,15 +4082,9 @@
       <c r="Z74" s="22"/>
     </row>
     <row r="75" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A75" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="B75" s="4" t="s">
-        <v>194</v>
-      </c>
-      <c r="C75" s="4" t="s">
-        <v>190</v>
-      </c>
+      <c r="A75" s="22"/>
+      <c r="B75" s="22"/>
+      <c r="C75" s="22"/>
       <c r="D75" s="22"/>
       <c r="E75" s="22"/>
       <c r="F75" s="22"/>
@@ -4125,19 +4110,11 @@
       <c r="Z75" s="22"/>
     </row>
     <row r="76" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A76" s="41" t="s">
-        <v>48</v>
-      </c>
-      <c r="B76" s="41" t="s">
-        <v>191</v>
-      </c>
-      <c r="C76" s="41" t="s">
-        <v>195</v>
-      </c>
+      <c r="A76" s="22"/>
+      <c r="B76" s="22"/>
+      <c r="C76" s="22"/>
       <c r="D76" s="22"/>
-      <c r="E76" s="42" t="s">
-        <v>142</v>
-      </c>
+      <c r="E76" s="22"/>
       <c r="F76" s="22"/>
       <c r="G76" s="22"/>
       <c r="H76" s="22"/>
@@ -4160,283 +4137,218 @@
       <c r="Y76" s="22"/>
       <c r="Z76" s="22"/>
     </row>
-    <row r="77" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A77" s="41" t="s">
-        <v>48</v>
-      </c>
-      <c r="B77" s="41" t="s">
-        <v>192</v>
-      </c>
-      <c r="C77" s="41" t="s">
-        <v>195</v>
-      </c>
-      <c r="D77" s="22"/>
-      <c r="E77" s="42" t="s">
-        <v>144</v>
-      </c>
-      <c r="F77" s="22"/>
-      <c r="G77" s="22"/>
-      <c r="H77" s="22"/>
-      <c r="I77" s="22"/>
-      <c r="J77" s="22"/>
-      <c r="K77" s="22"/>
-      <c r="L77" s="22"/>
-      <c r="M77" s="22"/>
-      <c r="N77" s="22"/>
-      <c r="O77" s="22"/>
-      <c r="P77" s="22"/>
-      <c r="Q77" s="22"/>
-      <c r="R77" s="22"/>
-      <c r="S77" s="22"/>
-      <c r="T77" s="22"/>
-      <c r="U77" s="22"/>
-      <c r="V77" s="22"/>
-      <c r="W77" s="22"/>
-      <c r="X77" s="22"/>
-      <c r="Y77" s="22"/>
-      <c r="Z77" s="22"/>
-    </row>
-    <row r="78" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A78" s="41" t="s">
-        <v>48</v>
-      </c>
-      <c r="B78" s="41" t="s">
-        <v>193</v>
-      </c>
-      <c r="C78" s="41" t="s">
-        <v>196</v>
-      </c>
-      <c r="D78" s="22"/>
-      <c r="E78" s="42" t="s">
-        <v>146</v>
-      </c>
-      <c r="F78" s="22"/>
+    <row r="77" spans="1:26" s="4" customFormat="1" ht="12.9" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A77" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B77" s="4" t="s">
+        <v>210</v>
+      </c>
+      <c r="C77" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="F77" s="19" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="78" spans="1:26" s="6" customFormat="1" ht="12.9" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A78" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="B78" s="9" t="s">
+        <v>212</v>
+      </c>
+      <c r="C78" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="D78" s="9"/>
+      <c r="E78" s="17"/>
       <c r="G78" s="22"/>
       <c r="H78" s="22"/>
-      <c r="I78" s="22"/>
-      <c r="J78" s="22"/>
-      <c r="K78" s="22"/>
-      <c r="L78" s="22"/>
-      <c r="M78" s="22"/>
-      <c r="N78" s="22"/>
-      <c r="O78" s="22"/>
-      <c r="P78" s="22"/>
-      <c r="Q78" s="22"/>
-      <c r="R78" s="22"/>
-      <c r="S78" s="22"/>
-      <c r="T78" s="22"/>
-      <c r="U78" s="22"/>
-      <c r="V78" s="22"/>
-      <c r="W78" s="22"/>
-      <c r="X78" s="22"/>
-      <c r="Y78" s="22"/>
-      <c r="Z78" s="22"/>
-    </row>
-    <row r="79" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A79" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="B79" s="4"/>
-      <c r="C79" s="4"/>
-      <c r="D79" s="22"/>
-      <c r="E79" s="22"/>
-      <c r="F79" s="22"/>
+      <c r="I78" s="6" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="79" spans="1:26" s="6" customFormat="1" ht="12.9" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A79" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="B79" s="9" t="s">
+        <v>214</v>
+      </c>
+      <c r="C79" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="D79" s="9"/>
+      <c r="E79" s="17"/>
       <c r="G79" s="22"/>
       <c r="H79" s="22"/>
-      <c r="I79" s="22"/>
-      <c r="J79" s="22"/>
-      <c r="K79" s="22"/>
-      <c r="L79" s="22"/>
-      <c r="M79" s="22"/>
-      <c r="N79" s="22"/>
-      <c r="O79" s="22"/>
-      <c r="P79" s="22"/>
-      <c r="Q79" s="22"/>
-      <c r="R79" s="22"/>
-      <c r="S79" s="22"/>
-      <c r="T79" s="22"/>
-      <c r="U79" s="22"/>
-      <c r="V79" s="22"/>
-      <c r="W79" s="22"/>
-      <c r="X79" s="22"/>
-      <c r="Y79" s="22"/>
-      <c r="Z79" s="22"/>
-    </row>
-    <row r="80" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A80" s="22"/>
-      <c r="B80" s="22"/>
-      <c r="C80" s="22"/>
-      <c r="D80" s="22"/>
-      <c r="E80" s="22"/>
-      <c r="F80" s="22"/>
+      <c r="I79" s="6" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="80" spans="1:26" s="6" customFormat="1" ht="12.9" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A80" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="B80" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="C80" s="17" t="s">
+        <v>223</v>
+      </c>
+      <c r="D80" s="9"/>
+      <c r="E80" s="17"/>
       <c r="G80" s="22"/>
       <c r="H80" s="22"/>
-      <c r="I80" s="22"/>
-      <c r="J80" s="22"/>
-      <c r="K80" s="22"/>
-      <c r="L80" s="22"/>
-      <c r="M80" s="22"/>
-      <c r="N80" s="22"/>
-      <c r="O80" s="22"/>
-      <c r="P80" s="22"/>
-      <c r="Q80" s="22"/>
-      <c r="R80" s="22"/>
-      <c r="S80" s="22"/>
-      <c r="T80" s="22"/>
-      <c r="U80" s="22"/>
-      <c r="V80" s="22"/>
-      <c r="W80" s="22"/>
-      <c r="X80" s="22"/>
-      <c r="Y80" s="22"/>
-      <c r="Z80" s="22"/>
-    </row>
-    <row r="81" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A81" s="22"/>
-      <c r="B81" s="22"/>
-      <c r="C81" s="22"/>
-      <c r="D81" s="22"/>
-      <c r="E81" s="22"/>
-      <c r="F81" s="22"/>
-      <c r="G81" s="22"/>
-      <c r="H81" s="22"/>
-      <c r="I81" s="22"/>
-      <c r="J81" s="22"/>
-      <c r="K81" s="22"/>
-      <c r="L81" s="22"/>
-      <c r="M81" s="22"/>
-      <c r="N81" s="22"/>
-      <c r="O81" s="22"/>
-      <c r="P81" s="22"/>
-      <c r="Q81" s="22"/>
-      <c r="R81" s="22"/>
-      <c r="S81" s="22"/>
-      <c r="T81" s="22"/>
-      <c r="U81" s="22"/>
-      <c r="V81" s="22"/>
-      <c r="W81" s="22"/>
-      <c r="X81" s="22"/>
-      <c r="Y81" s="22"/>
-      <c r="Z81" s="22"/>
-    </row>
-    <row r="82" spans="1:26" s="4" customFormat="1" ht="12.9" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A82" s="4" t="s">
+    </row>
+    <row r="81" spans="1:25" s="6" customFormat="1" ht="12.9" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A81" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="B81" s="9" t="s">
+        <v>216</v>
+      </c>
+      <c r="C81" s="10" t="s">
+        <v>61</v>
+      </c>
+      <c r="D81" s="21" t="s">
+        <v>44</v>
+      </c>
+      <c r="E81" s="9"/>
+      <c r="G81" s="22" t="s">
+        <v>62</v>
+      </c>
+      <c r="H81" s="22" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="82" spans="1:25" s="6" customFormat="1" ht="12.9" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A82" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="B82" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="C82" s="23" t="s">
+        <v>65</v>
+      </c>
+      <c r="D82" s="21"/>
+      <c r="E82" s="9"/>
+      <c r="G82" s="22"/>
+      <c r="H82" s="22"/>
+    </row>
+    <row r="83" spans="1:25" s="4" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A83" s="4" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="84" spans="1:25" s="4" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A84"/>
+      <c r="B84"/>
+      <c r="C84"/>
+      <c r="D84"/>
+      <c r="E84"/>
+      <c r="F84"/>
+      <c r="G84"/>
+      <c r="H84"/>
+      <c r="I84"/>
+      <c r="J84"/>
+    </row>
+    <row r="85" spans="1:25" s="4" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A85" s="38" t="s">
         <v>17</v>
       </c>
-      <c r="B82" s="4" t="s">
-        <v>212</v>
-      </c>
-      <c r="C82" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="F82" s="19" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="83" spans="1:26" s="6" customFormat="1" ht="12.9" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A83" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="B83" s="9" t="s">
-        <v>214</v>
-      </c>
-      <c r="C83" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="D83" s="9"/>
-      <c r="E83" s="17"/>
-      <c r="G83" s="22"/>
-      <c r="H83" s="22"/>
-      <c r="I83" s="6" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="84" spans="1:26" s="6" customFormat="1" ht="12.9" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A84" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="B84" s="9" t="s">
-        <v>216</v>
-      </c>
-      <c r="C84" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="D84" s="9"/>
-      <c r="E84" s="17"/>
-      <c r="G84" s="22"/>
-      <c r="H84" s="22"/>
-      <c r="I84" s="6" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="85" spans="1:26" s="6" customFormat="1" ht="12.9" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A85" s="9" t="s">
+      <c r="B85" s="38" t="s">
+        <v>203</v>
+      </c>
+      <c r="C85" s="38" t="s">
+        <v>195</v>
+      </c>
+      <c r="D85"/>
+      <c r="E85"/>
+      <c r="F85"/>
+      <c r="G85"/>
+      <c r="H85"/>
+      <c r="I85"/>
+      <c r="J85"/>
+    </row>
+    <row r="86" spans="1:25" s="4" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A86" s="39" t="s">
+        <v>196</v>
+      </c>
+      <c r="B86" s="39" t="s">
+        <v>197</v>
+      </c>
+      <c r="C86" s="39" t="s">
+        <v>204</v>
+      </c>
+      <c r="D86"/>
+      <c r="E86" s="40" t="s">
+        <v>205</v>
+      </c>
+      <c r="F86"/>
+      <c r="G86"/>
+      <c r="H86"/>
+      <c r="I86"/>
+      <c r="J86"/>
+    </row>
+    <row r="87" spans="1:25" s="4" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A87" s="39" t="s">
         <v>48</v>
       </c>
-      <c r="B85" s="9" t="s">
-        <v>60</v>
-      </c>
-      <c r="C85" s="17" t="s">
-        <v>225</v>
-      </c>
-      <c r="D85" s="9"/>
-      <c r="E85" s="17"/>
-      <c r="G85" s="22"/>
-      <c r="H85" s="22"/>
-    </row>
-    <row r="86" spans="1:26" s="6" customFormat="1" ht="12.9" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A86" s="9" t="s">
-        <v>43</v>
-      </c>
-      <c r="B86" s="9" t="s">
-        <v>218</v>
-      </c>
-      <c r="C86" s="10" t="s">
-        <v>61</v>
-      </c>
-      <c r="D86" s="21" t="s">
-        <v>44</v>
-      </c>
-      <c r="E86" s="9"/>
-      <c r="G86" s="22" t="s">
-        <v>62</v>
-      </c>
-      <c r="H86" s="22" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="87" spans="1:26" s="6" customFormat="1" ht="12.9" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A87" s="9" t="s">
-        <v>63</v>
-      </c>
-      <c r="B87" s="9" t="s">
-        <v>64</v>
-      </c>
-      <c r="C87" s="23" t="s">
-        <v>65</v>
-      </c>
-      <c r="D87" s="21"/>
-      <c r="E87" s="9"/>
-      <c r="G87" s="22"/>
-      <c r="H87" s="22"/>
-    </row>
-    <row r="88" spans="1:26" s="6" customFormat="1" ht="12.9" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A88" s="9"/>
-      <c r="B88" s="9"/>
-      <c r="C88" s="23"/>
-      <c r="D88" s="21"/>
-      <c r="E88" s="9"/>
-      <c r="G88" s="22"/>
-      <c r="H88" s="22"/>
-    </row>
-    <row r="89" spans="1:26" s="4" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A89" s="4" t="s">
+      <c r="B87" s="39" t="s">
+        <v>198</v>
+      </c>
+      <c r="C87" s="39" t="s">
+        <v>199</v>
+      </c>
+      <c r="D87"/>
+      <c r="E87" s="40" t="s">
+        <v>206</v>
+      </c>
+      <c r="F87"/>
+      <c r="G87"/>
+      <c r="H87"/>
+      <c r="I87"/>
+      <c r="J87"/>
+    </row>
+    <row r="88" spans="1:25" s="4" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A88" s="38" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="90" spans="1:26" s="4" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A90"/>
-      <c r="B90"/>
-      <c r="C90"/>
+      <c r="B88" s="38"/>
+      <c r="C88" s="38"/>
+      <c r="D88"/>
+      <c r="E88"/>
+      <c r="F88"/>
+      <c r="G88"/>
+      <c r="H88"/>
+      <c r="I88"/>
+      <c r="J88"/>
+    </row>
+    <row r="89" spans="1:25" s="4" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A89" s="39"/>
+      <c r="B89" s="39"/>
+      <c r="C89" s="39"/>
+      <c r="D89"/>
+      <c r="E89"/>
+      <c r="F89"/>
+      <c r="G89"/>
+      <c r="H89"/>
+      <c r="I89"/>
+      <c r="J89"/>
+    </row>
+    <row r="90" spans="1:25" s="4" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A90" s="38" t="s">
+        <v>17</v>
+      </c>
+      <c r="B90" s="38" t="s">
+        <v>289</v>
+      </c>
+      <c r="C90" s="38" t="s">
+        <v>200</v>
+      </c>
       <c r="D90"/>
       <c r="E90"/>
       <c r="F90"/>
@@ -4445,384 +4357,504 @@
       <c r="I90"/>
       <c r="J90"/>
     </row>
-    <row r="91" spans="1:26" s="4" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A91" s="40" t="s">
-        <v>17</v>
-      </c>
-      <c r="B91" s="40" t="s">
-        <v>205</v>
-      </c>
-      <c r="C91" s="40" t="s">
-        <v>197</v>
+    <row r="91" spans="1:25" s="4" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A91" s="39" t="s">
+        <v>48</v>
+      </c>
+      <c r="B91" s="39" t="s">
+        <v>201</v>
+      </c>
+      <c r="C91" s="39" t="s">
+        <v>202</v>
       </c>
       <c r="D91"/>
-      <c r="E91"/>
+      <c r="E91" s="40" t="s">
+        <v>207</v>
+      </c>
       <c r="F91"/>
       <c r="G91"/>
       <c r="H91"/>
       <c r="I91"/>
       <c r="J91"/>
     </row>
-    <row r="92" spans="1:26" s="4" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A92" s="41" t="s">
-        <v>198</v>
-      </c>
-      <c r="B92" s="41" t="s">
-        <v>199</v>
-      </c>
-      <c r="C92" s="41" t="s">
-        <v>206</v>
-      </c>
+    <row r="92" spans="1:25" s="4" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A92" s="38" t="s">
+        <v>29</v>
+      </c>
+      <c r="B92" s="38"/>
+      <c r="C92" s="38"/>
       <c r="D92"/>
-      <c r="E92" s="42" t="s">
-        <v>207</v>
-      </c>
+      <c r="E92"/>
       <c r="F92"/>
       <c r="G92"/>
       <c r="H92"/>
       <c r="I92"/>
       <c r="J92"/>
     </row>
-    <row r="93" spans="1:26" s="4" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A93" s="41" t="s">
-        <v>48</v>
-      </c>
-      <c r="B93" s="41" t="s">
-        <v>200</v>
-      </c>
-      <c r="C93" s="41" t="s">
-        <v>201</v>
-      </c>
+    <row r="93" spans="1:25" s="4" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A93"/>
+      <c r="B93"/>
+      <c r="C93"/>
       <c r="D93"/>
-      <c r="E93" s="42" t="s">
-        <v>208</v>
-      </c>
+      <c r="E93"/>
       <c r="F93"/>
       <c r="G93"/>
       <c r="H93"/>
       <c r="I93"/>
       <c r="J93"/>
     </row>
-    <row r="94" spans="1:26" s="4" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A94" s="40" t="s">
-        <v>29</v>
-      </c>
-      <c r="B94" s="40"/>
-      <c r="C94" s="40"/>
-      <c r="D94"/>
-      <c r="E94"/>
-      <c r="F94"/>
-      <c r="G94"/>
-      <c r="H94"/>
-      <c r="I94"/>
-      <c r="J94"/>
-    </row>
-    <row r="95" spans="1:26" s="4" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A95" s="41"/>
-      <c r="B95" s="41"/>
-      <c r="C95" s="41"/>
-      <c r="D95"/>
-      <c r="E95"/>
-      <c r="F95"/>
-      <c r="G95"/>
-      <c r="H95"/>
-      <c r="I95"/>
-      <c r="J95"/>
-    </row>
-    <row r="96" spans="1:26" s="4" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A96" s="40" t="s">
+    <row r="94" spans="1:25" s="15" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A94" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="B96" s="40" t="s">
-        <v>291</v>
-      </c>
-      <c r="C96" s="40" t="s">
-        <v>202</v>
-      </c>
-      <c r="D96"/>
-      <c r="E96"/>
-      <c r="F96"/>
-      <c r="G96"/>
-      <c r="H96"/>
-      <c r="I96"/>
-      <c r="J96"/>
-    </row>
-    <row r="97" spans="1:25" s="4" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A97" s="41" t="s">
+      <c r="B94" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="C94" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="D94" s="5"/>
+      <c r="E94" s="4"/>
+      <c r="F94" s="19" t="s">
+        <v>67</v>
+      </c>
+      <c r="G94" s="5"/>
+      <c r="H94" s="5"/>
+      <c r="I94" s="5"/>
+      <c r="J94" s="5"/>
+      <c r="K94" s="5"/>
+      <c r="L94" s="5"/>
+      <c r="M94" s="5"/>
+      <c r="N94" s="16"/>
+      <c r="O94" s="16"/>
+      <c r="P94" s="16"/>
+      <c r="Q94" s="16"/>
+      <c r="R94" s="16"/>
+      <c r="S94" s="16"/>
+      <c r="T94" s="16"/>
+      <c r="U94" s="16"/>
+      <c r="V94" s="16"/>
+      <c r="W94" s="16"/>
+      <c r="X94" s="16"/>
+      <c r="Y94" s="16"/>
+    </row>
+    <row r="95" spans="1:25" s="15" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A95" s="16" t="s">
         <v>48</v>
       </c>
-      <c r="B97" s="41" t="s">
-        <v>203</v>
-      </c>
-      <c r="C97" s="41" t="s">
-        <v>204</v>
-      </c>
-      <c r="D97"/>
-      <c r="E97" s="42" t="s">
-        <v>209</v>
-      </c>
-      <c r="F97"/>
-      <c r="G97"/>
-      <c r="H97"/>
-      <c r="I97"/>
-      <c r="J97"/>
-    </row>
-    <row r="98" spans="1:25" s="4" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A98" s="40" t="s">
-        <v>29</v>
-      </c>
-      <c r="B98" s="40"/>
-      <c r="C98" s="40"/>
-      <c r="D98"/>
-      <c r="E98"/>
-      <c r="F98"/>
-      <c r="G98"/>
-      <c r="H98"/>
-      <c r="I98"/>
-      <c r="J98"/>
-    </row>
-    <row r="99" spans="1:25" s="4" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A99"/>
-      <c r="B99"/>
-      <c r="C99"/>
-      <c r="D99"/>
-      <c r="E99"/>
-      <c r="F99"/>
-      <c r="G99"/>
-      <c r="H99"/>
-      <c r="I99"/>
-      <c r="J99"/>
-    </row>
-    <row r="100" spans="1:25" s="15" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A100" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="B100" s="5" t="s">
+      <c r="B95" s="24" t="s">
+        <v>68</v>
+      </c>
+      <c r="C95" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="D95" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="E95" s="3"/>
+      <c r="F95" s="16"/>
+      <c r="G95" s="16"/>
+      <c r="H95" s="16"/>
+      <c r="I95" s="16"/>
+      <c r="J95" s="16"/>
+      <c r="K95" s="16"/>
+      <c r="L95" s="16"/>
+      <c r="M95" s="16"/>
+      <c r="N95" s="16"/>
+      <c r="O95" s="16"/>
+      <c r="P95" s="16"/>
+      <c r="Q95" s="16"/>
+      <c r="R95" s="16"/>
+      <c r="S95" s="16"/>
+      <c r="T95" s="16"/>
+      <c r="U95" s="16"/>
+      <c r="V95" s="16"/>
+      <c r="W95" s="16"/>
+      <c r="X95" s="16"/>
+      <c r="Y95" s="16"/>
+    </row>
+    <row r="96" spans="1:25" s="15" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A96" s="25" t="s">
+        <v>48</v>
+      </c>
+      <c r="B96" s="25" t="s">
         <v>66</v>
       </c>
-      <c r="C100" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="D100" s="5"/>
-      <c r="E100" s="4"/>
-      <c r="F100" s="19" t="s">
-        <v>67</v>
-      </c>
-      <c r="G100" s="5"/>
-      <c r="H100" s="5"/>
-      <c r="I100" s="5"/>
-      <c r="J100" s="5"/>
-      <c r="K100" s="5"/>
-      <c r="L100" s="5"/>
-      <c r="M100" s="5"/>
-      <c r="N100" s="16"/>
-      <c r="O100" s="16"/>
-      <c r="P100" s="16"/>
-      <c r="Q100" s="16"/>
-      <c r="R100" s="16"/>
-      <c r="S100" s="16"/>
-      <c r="T100" s="16"/>
-      <c r="U100" s="16"/>
-      <c r="V100" s="16"/>
-      <c r="W100" s="16"/>
-      <c r="X100" s="16"/>
-      <c r="Y100" s="16"/>
+      <c r="C96" s="26" t="s">
+        <v>70</v>
+      </c>
+      <c r="D96" s="25"/>
+      <c r="E96" s="25"/>
+      <c r="F96" s="25" t="s">
+        <v>71</v>
+      </c>
+      <c r="G96" s="25"/>
+      <c r="H96" s="25"/>
+      <c r="I96" s="25"/>
+      <c r="J96" s="25"/>
+      <c r="K96" s="25"/>
+      <c r="L96" s="25"/>
+      <c r="M96" s="25"/>
+      <c r="N96" s="25"/>
+      <c r="O96" s="25"/>
+      <c r="P96" s="25"/>
+      <c r="Q96" s="25"/>
+      <c r="R96" s="25"/>
+      <c r="S96" s="25"/>
+      <c r="T96" s="25"/>
+      <c r="U96" s="25"/>
+      <c r="V96" s="25"/>
+      <c r="W96" s="25"/>
+      <c r="X96" s="25"/>
+      <c r="Y96" s="25"/>
+    </row>
+    <row r="97" spans="1:25" s="15" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A97" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="B97" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="C97" s="24" t="s">
+        <v>302</v>
+      </c>
+      <c r="D97" s="3"/>
+      <c r="E97" s="3"/>
+      <c r="F97" s="3"/>
+      <c r="G97" s="3"/>
+      <c r="H97" s="3"/>
+      <c r="I97" s="16"/>
+      <c r="J97" s="3"/>
+      <c r="K97" s="3"/>
+      <c r="L97" s="3"/>
+      <c r="M97" s="3"/>
+      <c r="N97" s="3"/>
+      <c r="O97" s="3"/>
+      <c r="P97" s="3"/>
+      <c r="Q97" s="3"/>
+      <c r="R97" s="3"/>
+      <c r="S97" s="3"/>
+      <c r="T97" s="3"/>
+      <c r="U97" s="3"/>
+      <c r="V97" s="3"/>
+      <c r="W97" s="3"/>
+      <c r="X97" s="3"/>
+      <c r="Y97" s="3"/>
+    </row>
+    <row r="98" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A98" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="B98" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="C98" s="27" t="s">
+        <v>73</v>
+      </c>
+      <c r="E98" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="99" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A99" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="B99" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="C99" s="27" t="s">
+        <v>74</v>
+      </c>
+      <c r="E99" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="100" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A100" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="B100" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="C100" s="27" t="s">
+        <v>75</v>
+      </c>
+      <c r="E100" t="s">
+        <v>57</v>
+      </c>
     </row>
     <row r="101" spans="1:25" s="15" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A101" s="16" t="s">
+      <c r="A101" s="28" t="s">
         <v>48</v>
       </c>
-      <c r="B101" s="24" t="s">
-        <v>68</v>
-      </c>
-      <c r="C101" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="D101" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="E101" s="3"/>
-      <c r="F101" s="16"/>
-      <c r="G101" s="16"/>
-      <c r="H101" s="16"/>
-      <c r="I101" s="16"/>
-      <c r="J101" s="16"/>
-      <c r="K101" s="16"/>
-      <c r="L101" s="16"/>
-      <c r="M101" s="16"/>
-      <c r="N101" s="16"/>
-      <c r="O101" s="16"/>
-      <c r="P101" s="16"/>
-      <c r="Q101" s="16"/>
-      <c r="R101" s="16"/>
-      <c r="S101" s="16"/>
-      <c r="T101" s="16"/>
-      <c r="U101" s="16"/>
-      <c r="V101" s="16"/>
-      <c r="W101" s="16"/>
-      <c r="X101" s="16"/>
-      <c r="Y101" s="16"/>
+      <c r="B101" s="29" t="s">
+        <v>76</v>
+      </c>
+      <c r="C101" s="30" t="s">
+        <v>77</v>
+      </c>
+      <c r="D101" s="28"/>
+      <c r="E101" s="28"/>
+      <c r="F101" s="28" t="s">
+        <v>78</v>
+      </c>
+      <c r="G101" s="28"/>
+      <c r="H101" s="28"/>
+      <c r="I101" s="28"/>
+      <c r="J101" s="28"/>
+      <c r="K101" s="28"/>
+      <c r="L101" s="28"/>
+      <c r="M101" s="28"/>
+      <c r="N101" s="28"/>
+      <c r="O101" s="28"/>
+      <c r="P101" s="28"/>
+      <c r="Q101" s="28"/>
+      <c r="R101" s="28"/>
+      <c r="S101" s="28"/>
+      <c r="T101" s="28"/>
+      <c r="U101" s="28"/>
+      <c r="V101" s="28"/>
+      <c r="W101" s="28"/>
+      <c r="X101" s="28"/>
+      <c r="Y101" s="28"/>
     </row>
     <row r="102" spans="1:25" s="15" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A102" s="25" t="s">
+      <c r="A102" s="24" t="s">
         <v>48</v>
       </c>
-      <c r="B102" s="25" t="s">
-        <v>66</v>
-      </c>
-      <c r="C102" s="26" t="s">
-        <v>70</v>
-      </c>
-      <c r="D102" s="25"/>
-      <c r="E102" s="25"/>
-      <c r="F102" s="25" t="s">
-        <v>71</v>
-      </c>
-      <c r="G102" s="25"/>
-      <c r="H102" s="25"/>
-      <c r="I102" s="25"/>
-      <c r="J102" s="25"/>
-      <c r="K102" s="25"/>
-      <c r="L102" s="25"/>
-      <c r="M102" s="25"/>
-      <c r="N102" s="25"/>
-      <c r="O102" s="25"/>
-      <c r="P102" s="25"/>
-      <c r="Q102" s="25"/>
-      <c r="R102" s="25"/>
-      <c r="S102" s="25"/>
-      <c r="T102" s="25"/>
-      <c r="U102" s="25"/>
-      <c r="V102" s="25"/>
-      <c r="W102" s="25"/>
-      <c r="X102" s="25"/>
-      <c r="Y102" s="25"/>
-    </row>
-    <row r="103" spans="1:25" s="15" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A103" s="3" t="s">
+      <c r="B102" s="39" t="s">
+        <v>91</v>
+      </c>
+      <c r="C102" s="39" t="s">
+        <v>159</v>
+      </c>
+      <c r="D102" s="6"/>
+      <c r="E102" s="17" t="s">
+        <v>217</v>
+      </c>
+      <c r="F102" s="15" t="s">
+        <v>79</v>
+      </c>
+      <c r="G102" s="16"/>
+      <c r="H102" s="16"/>
+      <c r="I102" s="16"/>
+      <c r="J102" s="16"/>
+      <c r="K102" s="16"/>
+      <c r="L102" s="16"/>
+      <c r="M102" s="16"/>
+      <c r="N102" s="16"/>
+      <c r="O102" s="16"/>
+      <c r="P102" s="16"/>
+      <c r="Q102" s="16"/>
+      <c r="R102" s="16"/>
+      <c r="S102" s="16"/>
+      <c r="T102" s="16"/>
+      <c r="U102" s="16"/>
+      <c r="V102" s="16"/>
+      <c r="W102" s="16"/>
+      <c r="X102" s="16"/>
+      <c r="Y102" s="16"/>
+    </row>
+    <row r="103" spans="1:25" s="15" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A103" s="24" t="s">
         <v>48</v>
       </c>
-      <c r="B103" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="C103" s="24" t="s">
-        <v>304</v>
-      </c>
-      <c r="D103" s="3"/>
-      <c r="E103" s="3"/>
-      <c r="F103" s="3"/>
-      <c r="G103" s="3"/>
-      <c r="H103" s="3"/>
+      <c r="B103" s="39" t="s">
+        <v>160</v>
+      </c>
+      <c r="C103" s="39" t="s">
+        <v>161</v>
+      </c>
+      <c r="D103" s="6"/>
+      <c r="E103" s="17" t="s">
+        <v>218</v>
+      </c>
+      <c r="F103" s="16" t="s">
+        <v>79</v>
+      </c>
+      <c r="G103" s="16"/>
+      <c r="H103" s="16"/>
       <c r="I103" s="16"/>
-      <c r="J103" s="3"/>
-      <c r="K103" s="3"/>
-      <c r="L103" s="3"/>
-      <c r="M103" s="3"/>
-      <c r="N103" s="3"/>
-      <c r="O103" s="3"/>
-      <c r="P103" s="3"/>
-      <c r="Q103" s="3"/>
-      <c r="R103" s="3"/>
-      <c r="S103" s="3"/>
-      <c r="T103" s="3"/>
-      <c r="U103" s="3"/>
-      <c r="V103" s="3"/>
-      <c r="W103" s="3"/>
-      <c r="X103" s="3"/>
-      <c r="Y103" s="3"/>
-    </row>
-    <row r="104" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A104" s="6" t="s">
+      <c r="J103" s="16"/>
+      <c r="K103" s="16"/>
+      <c r="L103" s="16"/>
+      <c r="M103" s="16"/>
+      <c r="N103" s="16"/>
+      <c r="O103" s="16"/>
+      <c r="P103" s="16"/>
+      <c r="Q103" s="16"/>
+      <c r="R103" s="16"/>
+      <c r="S103" s="16"/>
+      <c r="T103" s="16"/>
+      <c r="U103" s="16"/>
+      <c r="V103" s="16"/>
+      <c r="W103" s="16"/>
+      <c r="X103" s="16"/>
+      <c r="Y103" s="16"/>
+    </row>
+    <row r="104" spans="1:25" s="15" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A104" s="24" t="s">
         <v>48</v>
       </c>
-      <c r="B104" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="C104" s="27" t="s">
-        <v>73</v>
-      </c>
-      <c r="E104" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="105" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A105" s="6" t="s">
+      <c r="B104" s="39" t="s">
+        <v>97</v>
+      </c>
+      <c r="C104" s="39" t="s">
+        <v>162</v>
+      </c>
+      <c r="D104" s="6"/>
+      <c r="E104" s="17" t="s">
+        <v>219</v>
+      </c>
+      <c r="F104" s="16" t="s">
+        <v>79</v>
+      </c>
+      <c r="G104" s="16"/>
+      <c r="H104" s="16"/>
+      <c r="I104" s="16"/>
+      <c r="J104" s="16"/>
+      <c r="K104" s="16"/>
+      <c r="L104" s="16"/>
+      <c r="M104" s="16"/>
+      <c r="N104" s="16"/>
+      <c r="O104" s="16"/>
+      <c r="P104" s="16"/>
+      <c r="Q104" s="16"/>
+      <c r="R104" s="16"/>
+      <c r="S104" s="16"/>
+      <c r="T104" s="16"/>
+      <c r="U104" s="16"/>
+      <c r="V104" s="16"/>
+      <c r="W104" s="16"/>
+      <c r="X104" s="16"/>
+      <c r="Y104" s="16"/>
+    </row>
+    <row r="105" spans="1:25" s="15" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A105" s="24" t="s">
         <v>48</v>
       </c>
-      <c r="B105" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="C105" s="27" t="s">
-        <v>74</v>
-      </c>
-      <c r="E105" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="106" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A106" s="6" t="s">
+      <c r="B105" s="39" t="s">
+        <v>164</v>
+      </c>
+      <c r="C105" s="39" t="s">
+        <v>165</v>
+      </c>
+      <c r="D105" s="6"/>
+      <c r="E105" s="17" t="s">
+        <v>292</v>
+      </c>
+      <c r="F105" s="16" t="s">
+        <v>79</v>
+      </c>
+      <c r="G105" s="16"/>
+      <c r="H105" s="16"/>
+      <c r="I105" s="16"/>
+      <c r="J105" s="16"/>
+      <c r="K105" s="16"/>
+      <c r="L105" s="16"/>
+      <c r="M105" s="16"/>
+      <c r="N105" s="16"/>
+      <c r="O105" s="16"/>
+      <c r="P105" s="16"/>
+      <c r="Q105" s="16"/>
+      <c r="R105" s="16"/>
+      <c r="S105" s="16"/>
+      <c r="T105" s="16"/>
+      <c r="U105" s="16"/>
+      <c r="V105" s="16"/>
+      <c r="W105" s="16"/>
+      <c r="X105" s="16"/>
+      <c r="Y105" s="16"/>
+    </row>
+    <row r="106" spans="1:25" s="15" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A106" s="24" t="s">
         <v>48</v>
       </c>
-      <c r="B106" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="C106" s="27" t="s">
-        <v>75</v>
-      </c>
-      <c r="E106" t="s">
-        <v>57</v>
-      </c>
+      <c r="B106" s="39" t="s">
+        <v>166</v>
+      </c>
+      <c r="C106" s="39" t="s">
+        <v>167</v>
+      </c>
+      <c r="D106" s="6"/>
+      <c r="E106" s="17" t="s">
+        <v>293</v>
+      </c>
+      <c r="F106" s="16" t="s">
+        <v>79</v>
+      </c>
+      <c r="G106" s="16"/>
+      <c r="H106" s="16"/>
+      <c r="I106" s="16"/>
+      <c r="J106" s="16"/>
+      <c r="K106" s="16"/>
+      <c r="L106" s="16"/>
+      <c r="M106" s="16"/>
+      <c r="N106" s="16"/>
+      <c r="O106" s="16"/>
+      <c r="P106" s="16"/>
+      <c r="Q106" s="16"/>
+      <c r="R106" s="16"/>
+      <c r="S106" s="16"/>
+      <c r="T106" s="16"/>
+      <c r="U106" s="16"/>
+      <c r="V106" s="16"/>
+      <c r="W106" s="16"/>
+      <c r="X106" s="16"/>
+      <c r="Y106" s="16"/>
     </row>
     <row r="107" spans="1:25" s="15" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A107" s="28" t="s">
+      <c r="A107" s="24" t="s">
         <v>48</v>
       </c>
-      <c r="B107" s="29" t="s">
-        <v>76</v>
-      </c>
-      <c r="C107" s="30" t="s">
-        <v>77</v>
-      </c>
-      <c r="D107" s="28"/>
-      <c r="E107" s="28"/>
-      <c r="F107" s="28" t="s">
-        <v>78</v>
-      </c>
-      <c r="G107" s="28"/>
-      <c r="H107" s="28"/>
-      <c r="I107" s="28"/>
-      <c r="J107" s="28"/>
-      <c r="K107" s="28"/>
-      <c r="L107" s="28"/>
-      <c r="M107" s="28"/>
-      <c r="N107" s="28"/>
-      <c r="O107" s="28"/>
-      <c r="P107" s="28"/>
-      <c r="Q107" s="28"/>
-      <c r="R107" s="28"/>
-      <c r="S107" s="28"/>
-      <c r="T107" s="28"/>
-      <c r="U107" s="28"/>
-      <c r="V107" s="28"/>
-      <c r="W107" s="28"/>
-      <c r="X107" s="28"/>
-      <c r="Y107" s="28"/>
+      <c r="B107" s="39" t="s">
+        <v>168</v>
+      </c>
+      <c r="C107" s="39" t="s">
+        <v>169</v>
+      </c>
+      <c r="D107" s="6"/>
+      <c r="E107" s="17" t="s">
+        <v>294</v>
+      </c>
+      <c r="F107" s="16" t="s">
+        <v>79</v>
+      </c>
+      <c r="G107" s="16"/>
+      <c r="H107" s="16"/>
+      <c r="I107" s="16"/>
+      <c r="J107" s="16"/>
+      <c r="K107" s="16"/>
+      <c r="L107" s="16"/>
+      <c r="M107" s="16"/>
+      <c r="N107" s="16"/>
+      <c r="O107" s="16"/>
+      <c r="P107" s="16"/>
+      <c r="Q107" s="16"/>
+      <c r="R107" s="16"/>
+      <c r="S107" s="16"/>
+      <c r="T107" s="16"/>
+      <c r="U107" s="16"/>
+      <c r="V107" s="16"/>
+      <c r="W107" s="16"/>
+      <c r="X107" s="16"/>
+      <c r="Y107" s="16"/>
     </row>
     <row r="108" spans="1:25" s="15" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A108" s="24" t="s">
         <v>48</v>
       </c>
-      <c r="B108" s="41" t="s">
+      <c r="B108" s="39" t="s">
         <v>93</v>
       </c>
-      <c r="C108" s="41" t="s">
-        <v>161</v>
+      <c r="C108" s="39" t="s">
+        <v>170</v>
       </c>
       <c r="D108" s="6"/>
       <c r="E108" s="17" t="s">
-        <v>219</v>
-      </c>
-      <c r="F108" s="15" t="s">
+        <v>295</v>
+      </c>
+      <c r="F108" s="16" t="s">
         <v>79</v>
       </c>
       <c r="G108" s="16"/>
@@ -4849,15 +4881,15 @@
       <c r="A109" s="24" t="s">
         <v>48</v>
       </c>
-      <c r="B109" s="41" t="s">
-        <v>162</v>
-      </c>
-      <c r="C109" s="41" t="s">
-        <v>163</v>
+      <c r="B109" s="39" t="s">
+        <v>171</v>
+      </c>
+      <c r="C109" s="39" t="s">
+        <v>172</v>
       </c>
       <c r="D109" s="6"/>
       <c r="E109" s="17" t="s">
-        <v>220</v>
+        <v>296</v>
       </c>
       <c r="F109" s="16" t="s">
         <v>79</v>
@@ -4886,15 +4918,15 @@
       <c r="A110" s="24" t="s">
         <v>48</v>
       </c>
-      <c r="B110" s="41" t="s">
-        <v>99</v>
-      </c>
-      <c r="C110" s="41" t="s">
-        <v>164</v>
+      <c r="B110" s="39" t="s">
+        <v>173</v>
+      </c>
+      <c r="C110" s="39" t="s">
+        <v>80</v>
       </c>
       <c r="D110" s="6"/>
       <c r="E110" s="17" t="s">
-        <v>221</v>
+        <v>297</v>
       </c>
       <c r="F110" s="16" t="s">
         <v>79</v>
@@ -4923,15 +4955,15 @@
       <c r="A111" s="24" t="s">
         <v>48</v>
       </c>
-      <c r="B111" s="41" t="s">
-        <v>166</v>
-      </c>
-      <c r="C111" s="41" t="s">
-        <v>167</v>
+      <c r="B111" s="39" t="s">
+        <v>174</v>
+      </c>
+      <c r="C111" s="39" t="s">
+        <v>175</v>
       </c>
       <c r="D111" s="6"/>
       <c r="E111" s="17" t="s">
-        <v>294</v>
+        <v>298</v>
       </c>
       <c r="F111" s="16" t="s">
         <v>79</v>
@@ -4960,15 +4992,15 @@
       <c r="A112" s="24" t="s">
         <v>48</v>
       </c>
-      <c r="B112" s="41" t="s">
-        <v>168</v>
-      </c>
-      <c r="C112" s="41" t="s">
-        <v>169</v>
+      <c r="B112" s="39" t="s">
+        <v>176</v>
+      </c>
+      <c r="C112" s="39" t="s">
+        <v>177</v>
       </c>
       <c r="D112" s="6"/>
       <c r="E112" s="17" t="s">
-        <v>295</v>
+        <v>299</v>
       </c>
       <c r="F112" s="16" t="s">
         <v>79</v>
@@ -4997,15 +5029,15 @@
       <c r="A113" s="24" t="s">
         <v>48</v>
       </c>
-      <c r="B113" s="41" t="s">
-        <v>170</v>
-      </c>
-      <c r="C113" s="41" t="s">
-        <v>171</v>
+      <c r="B113" s="39" t="s">
+        <v>92</v>
+      </c>
+      <c r="C113" s="39" t="s">
+        <v>81</v>
       </c>
       <c r="D113" s="6"/>
       <c r="E113" s="17" t="s">
-        <v>296</v>
+        <v>300</v>
       </c>
       <c r="F113" s="16" t="s">
         <v>79</v>
@@ -5034,15 +5066,15 @@
       <c r="A114" s="24" t="s">
         <v>48</v>
       </c>
-      <c r="B114" s="41" t="s">
-        <v>95</v>
-      </c>
-      <c r="C114" s="41" t="s">
-        <v>172</v>
+      <c r="B114" s="39" t="s">
+        <v>30</v>
+      </c>
+      <c r="C114" s="39" t="s">
+        <v>178</v>
       </c>
       <c r="D114" s="6"/>
       <c r="E114" s="17" t="s">
-        <v>297</v>
+        <v>301</v>
       </c>
       <c r="F114" s="16" t="s">
         <v>79</v>
@@ -5072,14 +5104,14 @@
         <v>48</v>
       </c>
       <c r="B115" s="41" t="s">
-        <v>173</v>
+        <v>180</v>
       </c>
       <c r="C115" s="41" t="s">
-        <v>174</v>
+        <v>181</v>
       </c>
       <c r="D115" s="6"/>
       <c r="E115" s="17" t="s">
-        <v>298</v>
+        <v>220</v>
       </c>
       <c r="F115" s="16" t="s">
         <v>79</v>
@@ -5109,14 +5141,14 @@
         <v>48</v>
       </c>
       <c r="B116" s="41" t="s">
-        <v>175</v>
+        <v>182</v>
       </c>
       <c r="C116" s="41" t="s">
-        <v>80</v>
+        <v>183</v>
       </c>
       <c r="D116" s="6"/>
       <c r="E116" s="17" t="s">
-        <v>299</v>
+        <v>221</v>
       </c>
       <c r="F116" s="16" t="s">
         <v>79</v>
@@ -5146,14 +5178,14 @@
         <v>48</v>
       </c>
       <c r="B117" s="41" t="s">
-        <v>176</v>
+        <v>184</v>
       </c>
       <c r="C117" s="41" t="s">
-        <v>177</v>
+        <v>185</v>
       </c>
       <c r="D117" s="6"/>
       <c r="E117" s="17" t="s">
-        <v>300</v>
+        <v>222</v>
       </c>
       <c r="F117" s="16" t="s">
         <v>79</v>
@@ -5179,29 +5211,21 @@
       <c r="Y117" s="16"/>
     </row>
     <row r="118" spans="1:25" s="15" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A118" s="24" t="s">
-        <v>48</v>
-      </c>
-      <c r="B118" s="41" t="s">
-        <v>178</v>
-      </c>
-      <c r="C118" s="41" t="s">
-        <v>179</v>
-      </c>
-      <c r="D118" s="6"/>
-      <c r="E118" s="17" t="s">
-        <v>301</v>
-      </c>
-      <c r="F118" s="16" t="s">
-        <v>79</v>
-      </c>
-      <c r="G118" s="16"/>
-      <c r="H118" s="16"/>
-      <c r="I118" s="16"/>
-      <c r="J118" s="16"/>
-      <c r="K118" s="16"/>
-      <c r="L118" s="16"/>
-      <c r="M118" s="16"/>
+      <c r="A118" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="B118" s="5"/>
+      <c r="C118" s="5"/>
+      <c r="D118" s="5"/>
+      <c r="E118" s="5"/>
+      <c r="F118" s="5"/>
+      <c r="G118" s="5"/>
+      <c r="H118" s="5"/>
+      <c r="I118" s="5"/>
+      <c r="J118" s="5"/>
+      <c r="K118" s="5"/>
+      <c r="L118" s="5"/>
+      <c r="M118" s="5"/>
       <c r="N118" s="16"/>
       <c r="O118" s="16"/>
       <c r="P118" s="16"/>
@@ -5215,282 +5239,14 @@
       <c r="X118" s="16"/>
       <c r="Y118" s="16"/>
     </row>
-    <row r="119" spans="1:25" s="15" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A119" s="24" t="s">
-        <v>48</v>
-      </c>
-      <c r="B119" s="41" t="s">
-        <v>94</v>
-      </c>
-      <c r="C119" s="41" t="s">
-        <v>81</v>
-      </c>
-      <c r="D119" s="6"/>
-      <c r="E119" s="17" t="s">
-        <v>302</v>
-      </c>
-      <c r="F119" s="16" t="s">
-        <v>79</v>
-      </c>
-      <c r="G119" s="16"/>
-      <c r="H119" s="16"/>
-      <c r="I119" s="16"/>
-      <c r="J119" s="16"/>
-      <c r="K119" s="16"/>
-      <c r="L119" s="16"/>
-      <c r="M119" s="16"/>
-      <c r="N119" s="16"/>
-      <c r="O119" s="16"/>
-      <c r="P119" s="16"/>
-      <c r="Q119" s="16"/>
-      <c r="R119" s="16"/>
-      <c r="S119" s="16"/>
-      <c r="T119" s="16"/>
-      <c r="U119" s="16"/>
-      <c r="V119" s="16"/>
-      <c r="W119" s="16"/>
-      <c r="X119" s="16"/>
-      <c r="Y119" s="16"/>
-    </row>
-    <row r="120" spans="1:25" s="15" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A120" s="24" t="s">
-        <v>48</v>
-      </c>
-      <c r="B120" s="41" t="s">
-        <v>30</v>
-      </c>
-      <c r="C120" s="41" t="s">
-        <v>180</v>
-      </c>
-      <c r="D120" s="6"/>
-      <c r="E120" s="17" t="s">
-        <v>303</v>
-      </c>
-      <c r="F120" s="16" t="s">
-        <v>79</v>
-      </c>
-      <c r="G120" s="16"/>
-      <c r="H120" s="16"/>
-      <c r="I120" s="16"/>
-      <c r="J120" s="16"/>
-      <c r="K120" s="16"/>
-      <c r="L120" s="16"/>
-      <c r="M120" s="16"/>
-      <c r="N120" s="16"/>
-      <c r="O120" s="16"/>
-      <c r="P120" s="16"/>
-      <c r="Q120" s="16"/>
-      <c r="R120" s="16"/>
-      <c r="S120" s="16"/>
-      <c r="T120" s="16"/>
-      <c r="U120" s="16"/>
-      <c r="V120" s="16"/>
-      <c r="W120" s="16"/>
-      <c r="X120" s="16"/>
-      <c r="Y120" s="16"/>
-    </row>
-    <row r="121" spans="1:25" s="15" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A121" s="24" t="s">
-        <v>48</v>
-      </c>
-      <c r="B121" s="43" t="s">
-        <v>182</v>
-      </c>
-      <c r="C121" s="43" t="s">
-        <v>183</v>
-      </c>
-      <c r="D121" s="6"/>
-      <c r="E121" s="17" t="s">
-        <v>222</v>
-      </c>
-      <c r="F121" s="16" t="s">
-        <v>79</v>
-      </c>
-      <c r="G121" s="16"/>
-      <c r="H121" s="16"/>
-      <c r="I121" s="16"/>
-      <c r="J121" s="16"/>
-      <c r="K121" s="16"/>
-      <c r="L121" s="16"/>
-      <c r="M121" s="16"/>
-      <c r="N121" s="16"/>
-      <c r="O121" s="16"/>
-      <c r="P121" s="16"/>
-      <c r="Q121" s="16"/>
-      <c r="R121" s="16"/>
-      <c r="S121" s="16"/>
-      <c r="T121" s="16"/>
-      <c r="U121" s="16"/>
-      <c r="V121" s="16"/>
-      <c r="W121" s="16"/>
-      <c r="X121" s="16"/>
-      <c r="Y121" s="16"/>
-    </row>
-    <row r="122" spans="1:25" s="15" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A122" s="24" t="s">
-        <v>48</v>
-      </c>
-      <c r="B122" s="43" t="s">
-        <v>184</v>
-      </c>
-      <c r="C122" s="43" t="s">
-        <v>185</v>
-      </c>
-      <c r="D122" s="6"/>
-      <c r="E122" s="17" t="s">
-        <v>223</v>
-      </c>
-      <c r="F122" s="16" t="s">
-        <v>79</v>
-      </c>
-      <c r="G122" s="16"/>
-      <c r="H122" s="16"/>
-      <c r="I122" s="16"/>
-      <c r="J122" s="16"/>
-      <c r="K122" s="16"/>
-      <c r="L122" s="16"/>
-      <c r="M122" s="16"/>
-      <c r="N122" s="16"/>
-      <c r="O122" s="16"/>
-      <c r="P122" s="16"/>
-      <c r="Q122" s="16"/>
-      <c r="R122" s="16"/>
-      <c r="S122" s="16"/>
-      <c r="T122" s="16"/>
-      <c r="U122" s="16"/>
-      <c r="V122" s="16"/>
-      <c r="W122" s="16"/>
-      <c r="X122" s="16"/>
-      <c r="Y122" s="16"/>
-    </row>
-    <row r="123" spans="1:25" s="15" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A123" s="24" t="s">
-        <v>48</v>
-      </c>
-      <c r="B123" s="43" t="s">
-        <v>186</v>
-      </c>
-      <c r="C123" s="43" t="s">
-        <v>187</v>
-      </c>
-      <c r="D123" s="6"/>
-      <c r="E123" s="17" t="s">
-        <v>224</v>
-      </c>
-      <c r="F123" s="16" t="s">
-        <v>79</v>
-      </c>
-      <c r="G123" s="16"/>
-      <c r="H123" s="16"/>
-      <c r="I123" s="16"/>
-      <c r="J123" s="16"/>
-      <c r="K123" s="16"/>
-      <c r="L123" s="16"/>
-      <c r="M123" s="16"/>
-      <c r="N123" s="16"/>
-      <c r="O123" s="16"/>
-      <c r="P123" s="16"/>
-      <c r="Q123" s="16"/>
-      <c r="R123" s="16"/>
-      <c r="S123" s="16"/>
-      <c r="T123" s="16"/>
-      <c r="U123" s="16"/>
-      <c r="V123" s="16"/>
-      <c r="W123" s="16"/>
-      <c r="X123" s="16"/>
-      <c r="Y123" s="16"/>
-    </row>
-    <row r="124" spans="1:25" s="15" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A124" s="24" t="s">
-        <v>48</v>
-      </c>
-      <c r="B124" s="24"/>
-      <c r="C124" s="31"/>
-      <c r="D124" s="6"/>
-      <c r="E124" s="17"/>
-      <c r="F124" s="16"/>
-      <c r="G124" s="16"/>
-      <c r="H124" s="16"/>
-      <c r="I124" s="16"/>
-      <c r="J124" s="16"/>
-      <c r="K124" s="16"/>
-      <c r="L124" s="16"/>
-      <c r="M124" s="16"/>
-      <c r="N124" s="16"/>
-      <c r="O124" s="16"/>
-      <c r="P124" s="16"/>
-      <c r="Q124" s="16"/>
-      <c r="R124" s="16"/>
-      <c r="S124" s="16"/>
-      <c r="T124" s="16"/>
-      <c r="U124" s="16"/>
-      <c r="V124" s="16"/>
-      <c r="W124" s="16"/>
-      <c r="X124" s="16"/>
-      <c r="Y124" s="16"/>
-    </row>
-    <row r="125" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A125" s="24" t="s">
-        <v>48</v>
-      </c>
-      <c r="B125" s="24" t="s">
-        <v>82</v>
-      </c>
-      <c r="C125" s="17" t="s">
-        <v>83</v>
-      </c>
-      <c r="D125" s="6"/>
-      <c r="E125" s="17"/>
-      <c r="F125" s="32"/>
-      <c r="G125" s="32"/>
-      <c r="H125" s="32"/>
-      <c r="I125" s="24"/>
-      <c r="J125" s="32"/>
-      <c r="K125" s="32"/>
-      <c r="L125" s="32"/>
-      <c r="M125" s="32"/>
-      <c r="N125" s="32"/>
-      <c r="O125" s="32"/>
-      <c r="P125" s="32"/>
-      <c r="Q125" s="32"/>
-      <c r="R125" s="32"/>
-      <c r="S125" s="32"/>
-      <c r="T125" s="32"/>
-      <c r="U125" s="32"/>
-      <c r="V125" s="32"/>
-      <c r="W125" s="32"/>
-      <c r="X125" s="32"/>
-      <c r="Y125" s="32"/>
-    </row>
-    <row r="126" spans="1:25" s="15" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A126" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="B126" s="5"/>
-      <c r="C126" s="5"/>
-      <c r="D126" s="5"/>
-      <c r="E126" s="5"/>
-      <c r="F126" s="5"/>
-      <c r="G126" s="5"/>
-      <c r="H126" s="5"/>
-      <c r="I126" s="5"/>
-      <c r="J126" s="5"/>
-      <c r="K126" s="5"/>
-      <c r="L126" s="5"/>
-      <c r="M126" s="5"/>
-      <c r="N126" s="16"/>
-      <c r="O126" s="16"/>
-      <c r="P126" s="16"/>
-      <c r="Q126" s="16"/>
-      <c r="R126" s="16"/>
-      <c r="S126" s="16"/>
-      <c r="T126" s="16"/>
-      <c r="U126" s="16"/>
-      <c r="V126" s="16"/>
-      <c r="W126" s="16"/>
-      <c r="X126" s="16"/>
-      <c r="Y126" s="16"/>
-    </row>
+    <row r="119" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="120" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="121" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="122" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="123" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="124" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="125" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="126" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="127" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="128" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="129" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -6017,32 +5773,24 @@
     <row r="650" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="651" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="652" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="653" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="654" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="655" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="656" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="657" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="658" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="659" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="660" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
   </sheetData>
-  <conditionalFormatting sqref="A102">
+  <conditionalFormatting sqref="A96">
     <cfRule type="cellIs" dxfId="2" priority="2" operator="equal">
       <formula>"begin group"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A103">
+  <conditionalFormatting sqref="A97">
     <cfRule type="cellIs" dxfId="1" priority="3" operator="equal">
       <formula>"begin group"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A107">
+  <conditionalFormatting sqref="A101">
     <cfRule type="cellIs" dxfId="0" priority="4" operator="equal">
       <formula>"begin group"</formula>
     </cfRule>
   </conditionalFormatting>
   <hyperlinks>
-    <hyperlink ref="C71" r:id="rId1" display="mailto:info@agra.org"/>
+    <hyperlink ref="C66" r:id="rId1" display="mailto:info@agra.org"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
@@ -6070,50 +5818,50 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="33" t="s">
-        <v>84</v>
-      </c>
-      <c r="B1" s="33" t="s">
+      <c r="A1" s="31" t="s">
+        <v>82</v>
+      </c>
+      <c r="B1" s="31" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="33" t="s">
+      <c r="C1" s="31" t="s">
         <v>2</v>
       </c>
       <c r="D1" s="20" t="s">
         <v>31</v>
       </c>
-      <c r="E1" s="34" t="s">
+      <c r="E1" s="32" t="s">
         <v>58</v>
       </c>
-      <c r="F1" s="34"/>
-      <c r="G1" s="34"/>
-      <c r="H1" s="34"/>
-      <c r="I1" s="34"/>
-      <c r="J1" s="34"/>
-      <c r="K1" s="34"/>
-      <c r="L1" s="34"/>
-      <c r="M1" s="34"/>
-      <c r="N1" s="34"/>
-      <c r="O1" s="34"/>
-      <c r="P1" s="34"/>
-      <c r="Q1" s="34"/>
-      <c r="R1" s="34"/>
-      <c r="S1" s="34"/>
-      <c r="T1" s="34"/>
-      <c r="U1" s="34"/>
-      <c r="V1" s="34"/>
-      <c r="W1" s="34"/>
-      <c r="X1" s="34"/>
+      <c r="F1" s="32"/>
+      <c r="G1" s="32"/>
+      <c r="H1" s="32"/>
+      <c r="I1" s="32"/>
+      <c r="J1" s="32"/>
+      <c r="K1" s="32"/>
+      <c r="L1" s="32"/>
+      <c r="M1" s="32"/>
+      <c r="N1" s="32"/>
+      <c r="O1" s="32"/>
+      <c r="P1" s="32"/>
+      <c r="Q1" s="32"/>
+      <c r="R1" s="32"/>
+      <c r="S1" s="32"/>
+      <c r="T1" s="32"/>
+      <c r="U1" s="32"/>
+      <c r="V1" s="32"/>
+      <c r="W1" s="32"/>
+      <c r="X1" s="32"/>
     </row>
     <row r="2" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="18" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="B2" s="18" t="s">
         <v>44</v>
       </c>
       <c r="C2" s="18" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="D2" s="6"/>
       <c r="E2" s="6"/>
@@ -6139,13 +5887,13 @@
     </row>
     <row r="3" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="18" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="B3" s="18" t="s">
         <v>46</v>
       </c>
       <c r="C3" s="18" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="D3" s="6"/>
       <c r="E3" s="6"/>
@@ -6171,13 +5919,13 @@
     </row>
     <row r="4" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="18" t="s">
+        <v>86</v>
+      </c>
+      <c r="B4" s="18" t="s">
+        <v>87</v>
+      </c>
+      <c r="C4" s="18" t="s">
         <v>88</v>
-      </c>
-      <c r="B4" s="18" t="s">
-        <v>89</v>
-      </c>
-      <c r="C4" s="18" t="s">
-        <v>90</v>
       </c>
       <c r="D4" s="6"/>
       <c r="E4" s="6"/>
@@ -6205,13 +5953,13 @@
     </row>
     <row r="5" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="18" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B5" s="18" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="C5" s="18" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="D5" s="6"/>
       <c r="E5" s="6"/>
@@ -6239,13 +5987,13 @@
     </row>
     <row r="6" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="18" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="B6" s="18" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="C6" s="18" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="D6" s="6"/>
       <c r="E6" s="6"/>
@@ -6273,359 +6021,359 @@
     </row>
     <row r="7" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="B7" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="C7" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
     </row>
     <row r="8" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
+        <v>98</v>
+      </c>
+      <c r="B8" t="s">
         <v>100</v>
       </c>
-      <c r="B8" t="s">
-        <v>102</v>
-      </c>
       <c r="C8" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
     </row>
     <row r="9" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="B9" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="C9" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
     </row>
     <row r="10" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="B10" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="C10" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="11" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="B11" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="C11" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="12" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="B12" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="C12" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="13" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="B13" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="C13" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
     </row>
     <row r="14" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="B14" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="C14" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
     </row>
     <row r="15" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="B15" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="C15" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
     </row>
     <row r="16" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="B16" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="C16" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="B17" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="C17" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="B18" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="C18" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="B19" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="C19" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A22" s="44" t="s">
+      <c r="A22" s="42" t="s">
+        <v>158</v>
+      </c>
+      <c r="B22" s="39" t="s">
+        <v>91</v>
+      </c>
+      <c r="C22" s="39" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A23" s="42" t="s">
+        <v>158</v>
+      </c>
+      <c r="B23" s="39" t="s">
         <v>160</v>
       </c>
-      <c r="B22" s="41" t="s">
+      <c r="C23" s="39" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A24" s="42" t="s">
+        <v>158</v>
+      </c>
+      <c r="B24" s="39" t="s">
+        <v>97</v>
+      </c>
+      <c r="C24" s="39" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A25" s="42" t="s">
+        <v>163</v>
+      </c>
+      <c r="B25" s="39" t="s">
+        <v>164</v>
+      </c>
+      <c r="C25" s="39" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A26" s="42" t="s">
+        <v>163</v>
+      </c>
+      <c r="B26" s="39" t="s">
+        <v>166</v>
+      </c>
+      <c r="C26" s="39" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A27" s="42" t="s">
+        <v>163</v>
+      </c>
+      <c r="B27" s="39" t="s">
+        <v>168</v>
+      </c>
+      <c r="C27" s="39" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A28" s="42" t="s">
+        <v>163</v>
+      </c>
+      <c r="B28" s="39" t="s">
         <v>93</v>
       </c>
-      <c r="C22" s="41" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A23" s="44" t="s">
-        <v>160</v>
-      </c>
-      <c r="B23" s="41" t="s">
-        <v>162</v>
-      </c>
-      <c r="C23" s="41" t="s">
+      <c r="C28" s="39" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A29" s="42" t="s">
         <v>163</v>
       </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A24" s="44" t="s">
-        <v>160</v>
-      </c>
-      <c r="B24" s="41" t="s">
-        <v>99</v>
-      </c>
-      <c r="C24" s="41" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A25" s="44" t="s">
-        <v>165</v>
-      </c>
-      <c r="B25" s="41" t="s">
-        <v>166</v>
-      </c>
-      <c r="C25" s="41" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A26" s="44" t="s">
-        <v>165</v>
-      </c>
-      <c r="B26" s="41" t="s">
-        <v>168</v>
-      </c>
-      <c r="C26" s="41" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A27" s="44" t="s">
-        <v>165</v>
-      </c>
-      <c r="B27" s="41" t="s">
-        <v>170</v>
-      </c>
-      <c r="C27" s="41" t="s">
+      <c r="B29" s="39" t="s">
         <v>171</v>
       </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A28" s="44" t="s">
-        <v>165</v>
-      </c>
-      <c r="B28" s="41" t="s">
+      <c r="C29" s="39" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A30" s="42" t="s">
+        <v>163</v>
+      </c>
+      <c r="B30" s="39" t="s">
+        <v>173</v>
+      </c>
+      <c r="C30" s="39" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A31" s="42" t="s">
+        <v>163</v>
+      </c>
+      <c r="B31" s="39" t="s">
+        <v>174</v>
+      </c>
+      <c r="C31" s="39" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A32" s="42" t="s">
+        <v>163</v>
+      </c>
+      <c r="B32" s="39" t="s">
+        <v>176</v>
+      </c>
+      <c r="C32" s="39" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A33" s="42" t="s">
+        <v>163</v>
+      </c>
+      <c r="B33" s="39" t="s">
+        <v>92</v>
+      </c>
+      <c r="C33" s="39" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A34" s="42" t="s">
+        <v>163</v>
+      </c>
+      <c r="B34" s="39" t="s">
+        <v>30</v>
+      </c>
+      <c r="C34" s="39" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A35" s="42" t="s">
+        <v>179</v>
+      </c>
+      <c r="B35" s="41" t="s">
+        <v>180</v>
+      </c>
+      <c r="C35" s="41" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A36" s="42" t="s">
+        <v>179</v>
+      </c>
+      <c r="B36" s="41" t="s">
+        <v>182</v>
+      </c>
+      <c r="C36" s="41" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A37" s="42" t="s">
+        <v>179</v>
+      </c>
+      <c r="B37" s="41" t="s">
+        <v>184</v>
+      </c>
+      <c r="C37" s="41" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A38" s="43"/>
+      <c r="B38" s="43"/>
+      <c r="C38" s="43"/>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A39" s="43" t="s">
+        <v>186</v>
+      </c>
+      <c r="B39" s="43" t="s">
         <v>95</v>
       </c>
-      <c r="C28" s="41" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A29" s="44" t="s">
-        <v>165</v>
-      </c>
-      <c r="B29" s="41" t="s">
-        <v>173</v>
-      </c>
-      <c r="C29" s="41" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A30" s="44" t="s">
-        <v>165</v>
-      </c>
-      <c r="B30" s="41" t="s">
-        <v>175</v>
-      </c>
-      <c r="C30" s="41" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A31" s="44" t="s">
-        <v>165</v>
-      </c>
-      <c r="B31" s="41" t="s">
-        <v>176</v>
-      </c>
-      <c r="C31" s="41" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A32" s="44" t="s">
-        <v>165</v>
-      </c>
-      <c r="B32" s="41" t="s">
-        <v>178</v>
-      </c>
-      <c r="C32" s="41" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A33" s="44" t="s">
-        <v>165</v>
-      </c>
-      <c r="B33" s="41" t="s">
-        <v>94</v>
-      </c>
-      <c r="C33" s="41" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A34" s="44" t="s">
-        <v>165</v>
-      </c>
-      <c r="B34" s="41" t="s">
-        <v>30</v>
-      </c>
-      <c r="C34" s="41" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A35" s="44" t="s">
-        <v>181</v>
-      </c>
-      <c r="B35" s="43" t="s">
-        <v>182</v>
-      </c>
-      <c r="C35" s="43" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A36" s="44" t="s">
-        <v>181</v>
-      </c>
-      <c r="B36" s="43" t="s">
-        <v>184</v>
-      </c>
-      <c r="C36" s="43" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A37" s="44" t="s">
-        <v>181</v>
-      </c>
-      <c r="B37" s="43" t="s">
+      <c r="C39" s="43" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A40" s="43" t="s">
         <v>186</v>
       </c>
-      <c r="C37" s="43" t="s">
+      <c r="B40" s="43" t="s">
+        <v>96</v>
+      </c>
+      <c r="C40" s="43" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A41" s="43" t="s">
+        <v>186</v>
+      </c>
+      <c r="B41" s="43" t="s">
         <v>187</v>
       </c>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A38" s="45"/>
-      <c r="B38" s="45"/>
-      <c r="C38" s="45"/>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A39" s="45" t="s">
-        <v>188</v>
-      </c>
-      <c r="B39" s="45" t="s">
-        <v>97</v>
-      </c>
-      <c r="C39" s="45" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A40" s="45" t="s">
-        <v>188</v>
-      </c>
-      <c r="B40" s="45" t="s">
-        <v>98</v>
-      </c>
-      <c r="C40" s="45" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A41" s="45" t="s">
-        <v>188</v>
-      </c>
-      <c r="B41" s="45" t="s">
-        <v>189</v>
-      </c>
-      <c r="C41" s="45" t="s">
-        <v>189</v>
+      <c r="C41" s="43" t="s">
+        <v>187</v>
       </c>
     </row>
   </sheetData>
@@ -6657,25 +6405,25 @@
   <sheetData>
     <row r="1" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>118</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>120</v>
       </c>
       <c r="H1" s="1"/>
       <c r="I1" s="1"/>
@@ -6699,23 +6447,23 @@
     </row>
     <row r="2" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="C2" s="6" t="s">
         <v>121</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="D2" s="3" t="s">
         <v>122</v>
       </c>
-      <c r="C2" s="6" t="s">
+      <c r="E2" s="3" t="s">
         <v>123</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>124</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>125</v>
       </c>
       <c r="F2" s="3"/>
       <c r="G2" s="3" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="H2" s="3"/>
       <c r="I2" s="3"/>
@@ -7732,18 +7480,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="35" t="s">
+      <c r="A1" s="33" t="s">
+        <v>125</v>
+      </c>
+      <c r="B1" s="33"/>
+      <c r="C1" s="33" t="s">
+        <v>126</v>
+      </c>
+      <c r="D1" s="33"/>
+      <c r="E1" s="33" t="s">
         <v>127</v>
       </c>
-      <c r="B1" s="35"/>
-      <c r="C1" s="35" t="s">
-        <v>128</v>
-      </c>
-      <c r="D1" s="35"/>
-      <c r="E1" s="35" t="s">
-        <v>129</v>
-      </c>
-      <c r="F1" s="35"/>
+      <c r="F1" s="33"/>
       <c r="G1" s="14"/>
       <c r="H1" s="14"/>
       <c r="I1" s="14"/>
@@ -7773,7 +7521,7 @@
     </row>
     <row r="3" spans="1:15" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="14" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="B3" s="14"/>
       <c r="C3" s="5"/>
@@ -7792,10 +7540,10 @@
     </row>
     <row r="4" spans="1:15" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="14" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="B4" s="14"/>
-      <c r="C4" s="36"/>
+      <c r="C4" s="34"/>
       <c r="D4" s="14"/>
       <c r="E4" s="14"/>
       <c r="F4" s="14"/>
@@ -7811,10 +7559,10 @@
     </row>
     <row r="5" spans="1:15" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="14" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="B5" s="14"/>
-      <c r="C5" s="37"/>
+      <c r="C5" s="35"/>
       <c r="D5" s="14"/>
       <c r="E5" s="14"/>
       <c r="F5" s="14"/>
@@ -7830,10 +7578,10 @@
     </row>
     <row r="6" spans="1:15" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="14" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="B6" s="14"/>
-      <c r="C6" s="38"/>
+      <c r="C6" s="36"/>
       <c r="D6" s="14"/>
       <c r="E6" s="14"/>
       <c r="F6" s="14"/>
@@ -7849,10 +7597,10 @@
     </row>
     <row r="7" spans="1:15" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="14" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="B7" s="14"/>
-      <c r="C7" s="39"/>
+      <c r="C7" s="37"/>
       <c r="D7" s="14"/>
       <c r="E7" s="14"/>
       <c r="F7" s="14"/>

--- a/config-boda-moh-ke-master/forms/app/case_investigation.xlsx
+++ b/config-boda-moh-ke-master/forms/app/case_investigation.xlsx
@@ -743,18 +743,6 @@
     <t>Ag-RDT</t>
   </si>
   <si>
-    <t>unique</t>
-  </si>
-  <si>
-    <t>if(true, format-date-time(now), '%Y%m%d%H%M%S')</t>
-  </si>
-  <si>
-    <t>uuid</t>
-  </si>
-  <si>
-    <t>concat(${unique},'-',${national_id})</t>
-  </si>
-  <si>
     <t>date_spec_coll</t>
   </si>
   <si>
@@ -776,9 +764,6 @@
     <t>selected(${tb},'bmi_sy')</t>
   </si>
   <si>
-    <t>Please copy this identifier onto the specimen vial: **${uuid}**</t>
-  </si>
-  <si>
     <t>db:trace_contact</t>
   </si>
   <si>
@@ -1032,6 +1017,21 @@
   </si>
   <si>
     <t>../inputs/contact/_id</t>
+  </si>
+  <si>
+    <t>instance('contact-summary')/context/monotonic_counter</t>
+  </si>
+  <si>
+    <t>monotonic_counter</t>
+  </si>
+  <si>
+    <t>if (${specimen_id} ='', concat(${username},'-',${monotonic_counter}), {specimen_id})</t>
+  </si>
+  <si>
+    <t>r_specimen_id</t>
+  </si>
+  <si>
+    <t>Please copy this identifier onto the specimen vial: **${specimen_id}**</t>
   </si>
 </sst>
 </file>
@@ -1680,9 +1680,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Z652"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B22" sqref="B22"/>
+    <sheetView tabSelected="1" topLeftCell="D1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A68" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I79" sqref="I79"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2009,18 +2009,18 @@
     </row>
     <row r="9" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="11" t="s">
-        <v>224</v>
+        <v>219</v>
       </c>
       <c r="B9" s="11" t="s">
-        <v>225</v>
+        <v>220</v>
       </c>
       <c r="C9" s="11" t="s">
-        <v>226</v>
+        <v>221</v>
       </c>
       <c r="D9" s="11"/>
       <c r="E9" s="11"/>
       <c r="F9" s="11" t="s">
-        <v>227</v>
+        <v>222</v>
       </c>
       <c r="G9" s="7"/>
       <c r="H9" s="7"/>
@@ -2050,7 +2050,7 @@
         <v>0</v>
       </c>
       <c r="C10" s="11" t="s">
-        <v>228</v>
+        <v>223</v>
       </c>
       <c r="D10" s="11"/>
       <c r="E10" s="11"/>
@@ -2082,10 +2082,10 @@
         <v>25</v>
       </c>
       <c r="B11" s="11" t="s">
-        <v>229</v>
+        <v>224</v>
       </c>
       <c r="C11" s="11" t="s">
-        <v>230</v>
+        <v>225</v>
       </c>
       <c r="D11" s="11"/>
       <c r="E11" s="11"/>
@@ -2117,10 +2117,10 @@
         <v>25</v>
       </c>
       <c r="B12" s="11" t="s">
-        <v>231</v>
+        <v>226</v>
       </c>
       <c r="C12" s="11" t="s">
-        <v>232</v>
+        <v>227</v>
       </c>
       <c r="D12" s="11"/>
       <c r="E12" s="11"/>
@@ -2152,10 +2152,10 @@
         <v>25</v>
       </c>
       <c r="B13" s="11" t="s">
-        <v>233</v>
+        <v>228</v>
       </c>
       <c r="C13" s="11" t="s">
-        <v>234</v>
+        <v>229</v>
       </c>
       <c r="D13" s="11"/>
       <c r="E13" s="11"/>
@@ -2187,10 +2187,10 @@
         <v>25</v>
       </c>
       <c r="B14" s="11" t="s">
-        <v>235</v>
+        <v>230</v>
       </c>
       <c r="C14" s="11" t="s">
-        <v>236</v>
+        <v>231</v>
       </c>
       <c r="D14" s="11"/>
       <c r="E14" s="11"/>
@@ -2222,10 +2222,10 @@
         <v>25</v>
       </c>
       <c r="B15" s="11" t="s">
-        <v>237</v>
+        <v>232</v>
       </c>
       <c r="C15" s="11" t="s">
-        <v>238</v>
+        <v>233</v>
       </c>
       <c r="D15" s="11"/>
       <c r="E15" s="11"/>
@@ -2255,10 +2255,10 @@
         <v>25</v>
       </c>
       <c r="B16" s="11" t="s">
-        <v>239</v>
+        <v>234</v>
       </c>
       <c r="C16" s="11" t="s">
-        <v>240</v>
+        <v>235</v>
       </c>
       <c r="D16" s="11"/>
       <c r="E16" s="11"/>
@@ -2288,10 +2288,10 @@
         <v>25</v>
       </c>
       <c r="B17" s="11" t="s">
-        <v>241</v>
+        <v>236</v>
       </c>
       <c r="C17" s="11" t="s">
-        <v>242</v>
+        <v>237</v>
       </c>
       <c r="D17" s="11"/>
       <c r="E17" s="11"/>
@@ -2321,10 +2321,10 @@
         <v>25</v>
       </c>
       <c r="B18" s="11" t="s">
-        <v>243</v>
+        <v>238</v>
       </c>
       <c r="C18" s="11" t="s">
-        <v>244</v>
+        <v>239</v>
       </c>
       <c r="D18" s="11"/>
       <c r="E18" s="11"/>
@@ -2354,10 +2354,10 @@
         <v>25</v>
       </c>
       <c r="B19" s="11" t="s">
-        <v>245</v>
+        <v>240</v>
       </c>
       <c r="C19" s="11" t="s">
-        <v>248</v>
+        <v>243</v>
       </c>
       <c r="D19" s="11"/>
       <c r="E19" s="11"/>
@@ -2387,10 +2387,10 @@
         <v>25</v>
       </c>
       <c r="B20" s="11" t="s">
-        <v>246</v>
+        <v>241</v>
       </c>
       <c r="C20" s="11" t="s">
-        <v>249</v>
+        <v>244</v>
       </c>
       <c r="D20" s="11"/>
       <c r="E20" s="11"/>
@@ -2420,10 +2420,10 @@
         <v>25</v>
       </c>
       <c r="B21" s="11" t="s">
-        <v>247</v>
+        <v>242</v>
       </c>
       <c r="C21" s="11" t="s">
-        <v>250</v>
+        <v>245</v>
       </c>
       <c r="D21" s="11"/>
       <c r="E21" s="11"/>
@@ -2456,7 +2456,7 @@
         <v>1</v>
       </c>
       <c r="C22" s="11" t="s">
-        <v>251</v>
+        <v>246</v>
       </c>
       <c r="D22" s="11"/>
       <c r="E22" s="11"/>
@@ -2486,10 +2486,10 @@
         <v>25</v>
       </c>
       <c r="B23" s="11" t="s">
-        <v>252</v>
+        <v>247</v>
       </c>
       <c r="C23" s="11" t="s">
-        <v>253</v>
+        <v>248</v>
       </c>
       <c r="D23" s="11"/>
       <c r="E23" s="11"/>
@@ -2519,10 +2519,10 @@
         <v>25</v>
       </c>
       <c r="B24" s="11" t="s">
-        <v>254</v>
+        <v>249</v>
       </c>
       <c r="C24" s="11" t="s">
-        <v>255</v>
+        <v>250</v>
       </c>
       <c r="D24" s="11"/>
       <c r="E24" s="11"/>
@@ -2552,10 +2552,10 @@
         <v>25</v>
       </c>
       <c r="B25" s="11" t="s">
-        <v>256</v>
+        <v>251</v>
       </c>
       <c r="C25" s="11" t="s">
-        <v>257</v>
+        <v>252</v>
       </c>
       <c r="D25" s="11"/>
       <c r="E25" s="11"/>
@@ -2585,10 +2585,10 @@
         <v>25</v>
       </c>
       <c r="B26" s="11" t="s">
-        <v>258</v>
+        <v>253</v>
       </c>
       <c r="C26" s="11" t="s">
-        <v>259</v>
+        <v>254</v>
       </c>
       <c r="D26" s="11"/>
       <c r="E26" s="11"/>
@@ -2618,10 +2618,10 @@
         <v>25</v>
       </c>
       <c r="B27" s="11" t="s">
-        <v>260</v>
+        <v>255</v>
       </c>
       <c r="C27" s="11" t="s">
-        <v>261</v>
+        <v>256</v>
       </c>
       <c r="D27" s="11"/>
       <c r="E27" s="11"/>
@@ -2651,10 +2651,10 @@
         <v>25</v>
       </c>
       <c r="B28" s="11" t="s">
-        <v>262</v>
+        <v>257</v>
       </c>
       <c r="C28" s="11" t="s">
-        <v>263</v>
+        <v>258</v>
       </c>
       <c r="D28" s="11"/>
       <c r="E28" s="11"/>
@@ -2684,10 +2684,10 @@
         <v>25</v>
       </c>
       <c r="B29" s="11" t="s">
-        <v>264</v>
+        <v>259</v>
       </c>
       <c r="C29" s="11" t="s">
-        <v>265</v>
+        <v>260</v>
       </c>
       <c r="D29" s="11"/>
       <c r="E29" s="11"/>
@@ -2717,10 +2717,10 @@
         <v>25</v>
       </c>
       <c r="B30" s="11" t="s">
-        <v>266</v>
+        <v>261</v>
       </c>
       <c r="C30" s="11" t="s">
-        <v>267</v>
+        <v>262</v>
       </c>
       <c r="D30" s="11"/>
       <c r="E30" s="11"/>
@@ -2753,7 +2753,7 @@
         <v>31</v>
       </c>
       <c r="C31" s="11" t="s">
-        <v>268</v>
+        <v>263</v>
       </c>
       <c r="D31" s="11"/>
       <c r="E31" s="11"/>
@@ -2783,10 +2783,10 @@
         <v>25</v>
       </c>
       <c r="B32" s="11" t="s">
-        <v>269</v>
+        <v>264</v>
       </c>
       <c r="C32" s="11" t="s">
-        <v>270</v>
+        <v>265</v>
       </c>
       <c r="D32" s="11"/>
       <c r="E32" s="11"/>
@@ -2816,10 +2816,10 @@
         <v>25</v>
       </c>
       <c r="B33" s="11" t="s">
-        <v>271</v>
+        <v>266</v>
       </c>
       <c r="C33" s="11" t="s">
-        <v>272</v>
+        <v>267</v>
       </c>
       <c r="D33" s="11"/>
       <c r="E33" s="11"/>
@@ -2849,10 +2849,10 @@
         <v>25</v>
       </c>
       <c r="B34" s="11" t="s">
-        <v>273</v>
+        <v>268</v>
       </c>
       <c r="C34" s="11" t="s">
-        <v>274</v>
+        <v>269</v>
       </c>
       <c r="D34" s="11"/>
       <c r="E34" s="11"/>
@@ -2882,10 +2882,10 @@
         <v>25</v>
       </c>
       <c r="B35" s="11" t="s">
-        <v>275</v>
+        <v>270</v>
       </c>
       <c r="C35" s="11" t="s">
-        <v>276</v>
+        <v>271</v>
       </c>
       <c r="D35" s="11"/>
       <c r="E35" s="11"/>
@@ -2915,10 +2915,10 @@
         <v>25</v>
       </c>
       <c r="B36" s="11" t="s">
-        <v>277</v>
+        <v>272</v>
       </c>
       <c r="C36" s="11" t="s">
-        <v>278</v>
+        <v>273</v>
       </c>
       <c r="D36" s="11"/>
       <c r="E36" s="11"/>
@@ -2948,10 +2948,10 @@
         <v>25</v>
       </c>
       <c r="B37" s="11" t="s">
-        <v>279</v>
+        <v>274</v>
       </c>
       <c r="C37" s="11" t="s">
-        <v>280</v>
+        <v>275</v>
       </c>
       <c r="D37" s="11"/>
       <c r="E37" s="11"/>
@@ -2981,10 +2981,10 @@
         <v>25</v>
       </c>
       <c r="B38" s="11" t="s">
-        <v>281</v>
+        <v>276</v>
       </c>
       <c r="C38" s="11" t="s">
-        <v>282</v>
+        <v>277</v>
       </c>
       <c r="D38" s="11"/>
       <c r="E38" s="11"/>
@@ -3014,10 +3014,10 @@
         <v>25</v>
       </c>
       <c r="B39" s="11" t="s">
-        <v>284</v>
+        <v>279</v>
       </c>
       <c r="C39" s="11" t="s">
-        <v>285</v>
+        <v>280</v>
       </c>
       <c r="D39" s="11"/>
       <c r="E39" s="11"/>
@@ -3047,10 +3047,10 @@
         <v>25</v>
       </c>
       <c r="B40" s="11" t="s">
-        <v>283</v>
+        <v>278</v>
       </c>
       <c r="C40" s="11" t="s">
-        <v>286</v>
+        <v>281</v>
       </c>
       <c r="D40" s="11"/>
       <c r="E40" s="11"/>
@@ -3080,10 +3080,10 @@
         <v>25</v>
       </c>
       <c r="B41" s="11" t="s">
-        <v>287</v>
+        <v>282</v>
       </c>
       <c r="C41" s="11" t="s">
-        <v>288</v>
+        <v>283</v>
       </c>
       <c r="D41" s="11"/>
       <c r="E41" s="11"/>
@@ -3182,7 +3182,7 @@
       <c r="G44" s="11"/>
       <c r="H44" s="11"/>
       <c r="I44" s="11" t="s">
-        <v>308</v>
+        <v>303</v>
       </c>
       <c r="J44" s="11"/>
       <c r="K44" s="11"/>
@@ -3277,7 +3277,7 @@
         <v>47</v>
       </c>
       <c r="C49" t="s">
-        <v>304</v>
+        <v>299</v>
       </c>
       <c r="D49" s="4"/>
       <c r="E49" s="4"/>
@@ -3310,10 +3310,10 @@
         <v>48</v>
       </c>
       <c r="B50" s="4" t="s">
-        <v>306</v>
+        <v>301</v>
       </c>
       <c r="C50" s="4" t="s">
-        <v>307</v>
+        <v>302</v>
       </c>
       <c r="D50" s="4"/>
       <c r="E50" s="4"/>
@@ -3447,7 +3447,7 @@
         <v>148</v>
       </c>
       <c r="C56" t="s">
-        <v>303</v>
+        <v>298</v>
       </c>
       <c r="D56" s="4"/>
       <c r="E56" s="4"/>
@@ -3480,7 +3480,7 @@
         <v>48</v>
       </c>
       <c r="B57" s="4" t="s">
-        <v>305</v>
+        <v>300</v>
       </c>
       <c r="C57" s="4" t="s">
         <v>147</v>
@@ -3757,7 +3757,7 @@
         <v>48</v>
       </c>
       <c r="B65" s="39" t="s">
-        <v>290</v>
+        <v>285</v>
       </c>
       <c r="C65" s="39" t="s">
         <v>156</v>
@@ -3793,7 +3793,7 @@
         <v>48</v>
       </c>
       <c r="B66" s="39" t="s">
-        <v>291</v>
+        <v>286</v>
       </c>
       <c r="C66" s="44" t="s">
         <v>208</v>
@@ -4156,7 +4156,7 @@
         <v>32</v>
       </c>
       <c r="B78" s="9" t="s">
-        <v>212</v>
+        <v>305</v>
       </c>
       <c r="C78" s="5" t="s">
         <v>36</v>
@@ -4166,7 +4166,7 @@
       <c r="G78" s="22"/>
       <c r="H78" s="22"/>
       <c r="I78" s="6" t="s">
-        <v>213</v>
+        <v>304</v>
       </c>
     </row>
     <row r="79" spans="1:26" s="6" customFormat="1" ht="12.9" customHeight="1" x14ac:dyDescent="0.3">
@@ -4174,7 +4174,7 @@
         <v>32</v>
       </c>
       <c r="B79" s="9" t="s">
-        <v>214</v>
+        <v>60</v>
       </c>
       <c r="C79" s="5" t="s">
         <v>36</v>
@@ -4184,7 +4184,7 @@
       <c r="G79" s="22"/>
       <c r="H79" s="22"/>
       <c r="I79" s="6" t="s">
-        <v>215</v>
+        <v>306</v>
       </c>
     </row>
     <row r="80" spans="1:26" s="6" customFormat="1" ht="12.9" customHeight="1" x14ac:dyDescent="0.3">
@@ -4192,10 +4192,10 @@
         <v>48</v>
       </c>
       <c r="B80" s="9" t="s">
-        <v>60</v>
+        <v>307</v>
       </c>
       <c r="C80" s="17" t="s">
-        <v>223</v>
+        <v>308</v>
       </c>
       <c r="D80" s="9"/>
       <c r="E80" s="17"/>
@@ -4207,7 +4207,7 @@
         <v>43</v>
       </c>
       <c r="B81" s="9" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="C81" s="10" t="s">
         <v>61</v>
@@ -4344,7 +4344,7 @@
         <v>17</v>
       </c>
       <c r="B90" s="38" t="s">
-        <v>289</v>
+        <v>284</v>
       </c>
       <c r="C90" s="38" t="s">
         <v>200</v>
@@ -4516,7 +4516,7 @@
         <v>72</v>
       </c>
       <c r="C97" s="24" t="s">
-        <v>302</v>
+        <v>297</v>
       </c>
       <c r="D97" s="3"/>
       <c r="E97" s="3"/>
@@ -4630,7 +4630,7 @@
       </c>
       <c r="D102" s="6"/>
       <c r="E102" s="17" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="F102" s="15" t="s">
         <v>79</v>
@@ -4667,7 +4667,7 @@
       </c>
       <c r="D103" s="6"/>
       <c r="E103" s="17" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="F103" s="16" t="s">
         <v>79</v>
@@ -4704,7 +4704,7 @@
       </c>
       <c r="D104" s="6"/>
       <c r="E104" s="17" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="F104" s="16" t="s">
         <v>79</v>
@@ -4741,7 +4741,7 @@
       </c>
       <c r="D105" s="6"/>
       <c r="E105" s="17" t="s">
-        <v>292</v>
+        <v>287</v>
       </c>
       <c r="F105" s="16" t="s">
         <v>79</v>
@@ -4778,7 +4778,7 @@
       </c>
       <c r="D106" s="6"/>
       <c r="E106" s="17" t="s">
-        <v>293</v>
+        <v>288</v>
       </c>
       <c r="F106" s="16" t="s">
         <v>79</v>
@@ -4815,7 +4815,7 @@
       </c>
       <c r="D107" s="6"/>
       <c r="E107" s="17" t="s">
-        <v>294</v>
+        <v>289</v>
       </c>
       <c r="F107" s="16" t="s">
         <v>79</v>
@@ -4852,7 +4852,7 @@
       </c>
       <c r="D108" s="6"/>
       <c r="E108" s="17" t="s">
-        <v>295</v>
+        <v>290</v>
       </c>
       <c r="F108" s="16" t="s">
         <v>79</v>
@@ -4889,7 +4889,7 @@
       </c>
       <c r="D109" s="6"/>
       <c r="E109" s="17" t="s">
-        <v>296</v>
+        <v>291</v>
       </c>
       <c r="F109" s="16" t="s">
         <v>79</v>
@@ -4926,7 +4926,7 @@
       </c>
       <c r="D110" s="6"/>
       <c r="E110" s="17" t="s">
-        <v>297</v>
+        <v>292</v>
       </c>
       <c r="F110" s="16" t="s">
         <v>79</v>
@@ -4963,7 +4963,7 @@
       </c>
       <c r="D111" s="6"/>
       <c r="E111" s="17" t="s">
-        <v>298</v>
+        <v>293</v>
       </c>
       <c r="F111" s="16" t="s">
         <v>79</v>
@@ -5000,7 +5000,7 @@
       </c>
       <c r="D112" s="6"/>
       <c r="E112" s="17" t="s">
-        <v>299</v>
+        <v>294</v>
       </c>
       <c r="F112" s="16" t="s">
         <v>79</v>
@@ -5037,7 +5037,7 @@
       </c>
       <c r="D113" s="6"/>
       <c r="E113" s="17" t="s">
-        <v>300</v>
+        <v>295</v>
       </c>
       <c r="F113" s="16" t="s">
         <v>79</v>
@@ -5074,7 +5074,7 @@
       </c>
       <c r="D114" s="6"/>
       <c r="E114" s="17" t="s">
-        <v>301</v>
+        <v>296</v>
       </c>
       <c r="F114" s="16" t="s">
         <v>79</v>
@@ -5111,7 +5111,7 @@
       </c>
       <c r="D115" s="6"/>
       <c r="E115" s="17" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="F115" s="16" t="s">
         <v>79</v>
@@ -5148,7 +5148,7 @@
       </c>
       <c r="D116" s="6"/>
       <c r="E116" s="17" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="F116" s="16" t="s">
         <v>79</v>
@@ -5185,7 +5185,7 @@
       </c>
       <c r="D117" s="6"/>
       <c r="E117" s="17" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="F117" s="16" t="s">
         <v>79</v>

--- a/config-boda-moh-ke-master/forms/app/case_investigation.xlsx
+++ b/config-boda-moh-ke-master/forms/app/case_investigation.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="535" uniqueCount="309">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="540" uniqueCount="311">
   <si>
     <t>type</t>
   </si>
@@ -1032,6 +1032,12 @@
   </si>
   <si>
     <t>Please copy this identifier onto the specimen vial: **${specimen_id}**</t>
+  </si>
+  <si>
+    <t>r_specimen</t>
+  </si>
+  <si>
+    <t>Specimen idenfification</t>
   </si>
 </sst>
 </file>
@@ -1680,9 +1686,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Z652"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A68" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I79" sqref="I79"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A48" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F71" sqref="F71"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3921,7 +3927,9 @@
       </c>
       <c r="D70" s="22"/>
       <c r="E70" s="22"/>
-      <c r="F70" s="22"/>
+      <c r="F70" s="22" t="s">
+        <v>21</v>
+      </c>
       <c r="G70" s="22"/>
       <c r="H70" s="22"/>
       <c r="I70" s="22"/>
@@ -4158,14 +4166,12 @@
       <c r="B78" s="9" t="s">
         <v>305</v>
       </c>
-      <c r="C78" s="5" t="s">
-        <v>36</v>
-      </c>
+      <c r="C78" s="5"/>
       <c r="D78" s="9"/>
       <c r="E78" s="17"/>
       <c r="G78" s="22"/>
       <c r="H78" s="22"/>
-      <c r="I78" s="6" t="s">
+      <c r="I78" s="40" t="s">
         <v>304</v>
       </c>
     </row>
@@ -4176,14 +4182,12 @@
       <c r="B79" s="9" t="s">
         <v>60</v>
       </c>
-      <c r="C79" s="5" t="s">
-        <v>36</v>
-      </c>
+      <c r="C79" s="5"/>
       <c r="D79" s="9"/>
       <c r="E79" s="17"/>
       <c r="G79" s="22"/>
       <c r="H79" s="22"/>
-      <c r="I79" s="6" t="s">
+      <c r="I79" s="40" t="s">
         <v>306</v>
       </c>
     </row>
@@ -4267,7 +4271,9 @@
       </c>
       <c r="D85"/>
       <c r="E85"/>
-      <c r="F85"/>
+      <c r="F85" s="38" t="s">
+        <v>21</v>
+      </c>
       <c r="G85"/>
       <c r="H85"/>
       <c r="I85"/>
@@ -4351,7 +4357,9 @@
       </c>
       <c r="D90"/>
       <c r="E90"/>
-      <c r="F90"/>
+      <c r="F90" s="38" t="s">
+        <v>21</v>
+      </c>
       <c r="G90"/>
       <c r="H90"/>
       <c r="I90"/>
@@ -5211,14 +5219,20 @@
       <c r="Y117" s="16"/>
     </row>
     <row r="118" spans="1:25" s="15" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A118" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="B118" s="5"/>
-      <c r="C118" s="5"/>
+      <c r="A118" s="24" t="s">
+        <v>48</v>
+      </c>
+      <c r="B118" s="5" t="s">
+        <v>309</v>
+      </c>
+      <c r="C118" s="5" t="s">
+        <v>310</v>
+      </c>
       <c r="D118" s="5"/>
       <c r="E118" s="5"/>
-      <c r="F118" s="5"/>
+      <c r="F118" s="5" t="s">
+        <v>78</v>
+      </c>
       <c r="G118" s="5"/>
       <c r="H118" s="5"/>
       <c r="I118" s="5"/>
@@ -5239,7 +5253,11 @@
       <c r="X118" s="16"/>
       <c r="Y118" s="16"/>
     </row>
-    <row r="119" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="119" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A119" s="5" t="s">
+        <v>29</v>
+      </c>
+    </row>
     <row r="120" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="121" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="122" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>

--- a/config-boda-moh-ke-master/forms/app/case_investigation.xlsx
+++ b/config-boda-moh-ke-master/forms/app/case_investigation.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24430"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jane\Desktop\test\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin\Dropbox\PC (2)\Desktop\CHT Forms\Working Friday\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{614DBFF8-2C90-4B5B-8D7B-10DD6A5CC283}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="survey" sheetId="1" r:id="rId1"/>
@@ -28,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="558" uniqueCount="323">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="555" uniqueCount="321">
   <si>
     <t>type</t>
   </si>
@@ -1072,17 +1071,11 @@
 concat(${patient_age_in_years}, ' years ', ${c_patient_mod_months}, ' months old'),
 concat(${patient_age_in_years}, ' years old'))</t>
   </si>
-  <si>
-    <t>stop_follow_up</t>
-  </si>
-  <si>
-    <t xml:space="preserve">${was_specimen_collected} </t>
-  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="&quot;TRUE&quot;;&quot;TRUE&quot;;&quot;FALSE&quot;"/>
   </numFmts>
@@ -1742,40 +1735,40 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AL658"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:AL657"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A110" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A47" sqref="A47:XFD51"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A37" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A51" sqref="A51:XFD51"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="25.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="23.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="115.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="6.7109375" customWidth="1"/>
-    <col min="5" max="5" width="36.28515625" customWidth="1"/>
-    <col min="6" max="6" width="14.7109375" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" customWidth="1"/>
+    <col min="1" max="1" width="25.88671875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="23.44140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="115.44140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="6.6640625" customWidth="1"/>
+    <col min="5" max="5" width="36.33203125" customWidth="1"/>
+    <col min="6" max="6" width="14.6640625" customWidth="1"/>
+    <col min="7" max="7" width="14.44140625" customWidth="1"/>
     <col min="8" max="8" width="20" customWidth="1"/>
-    <col min="9" max="9" width="43.140625" customWidth="1"/>
-    <col min="10" max="10" width="9.85546875" customWidth="1"/>
+    <col min="9" max="9" width="43.109375" customWidth="1"/>
+    <col min="10" max="10" width="9.88671875" customWidth="1"/>
     <col min="11" max="11" width="16" customWidth="1"/>
-    <col min="12" max="12" width="9.42578125" customWidth="1"/>
-    <col min="13" max="13" width="5.85546875" customWidth="1"/>
-    <col min="14" max="15" width="6.7109375" customWidth="1"/>
+    <col min="12" max="12" width="9.44140625" customWidth="1"/>
+    <col min="13" max="13" width="5.88671875" customWidth="1"/>
+    <col min="14" max="15" width="6.6640625" customWidth="1"/>
     <col min="16" max="16" width="14" customWidth="1"/>
-    <col min="17" max="17" width="15.7109375" customWidth="1"/>
-    <col min="18" max="18" width="11.7109375" customWidth="1"/>
-    <col min="19" max="20" width="6.7109375" customWidth="1"/>
-    <col min="21" max="22" width="13.28515625" customWidth="1"/>
-    <col min="23" max="23" width="14.7109375" customWidth="1"/>
-    <col min="24" max="1025" width="14.42578125" customWidth="1"/>
+    <col min="17" max="17" width="15.6640625" customWidth="1"/>
+    <col min="18" max="18" width="11.6640625" customWidth="1"/>
+    <col min="19" max="20" width="6.6640625" customWidth="1"/>
+    <col min="21" max="22" width="13.33203125" customWidth="1"/>
+    <col min="23" max="23" width="14.6640625" customWidth="1"/>
+    <col min="24" max="1025" width="14.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1833,7 +1826,7 @@
       <c r="U1" s="3"/>
       <c r="V1" s="3"/>
     </row>
-    <row r="2" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
         <v>17</v>
       </c>
@@ -1871,7 +1864,7 @@
       <c r="Y2" s="3"/>
       <c r="Z2" s="3"/>
     </row>
-    <row r="3" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="6" t="s">
         <v>22</v>
       </c>
@@ -1909,7 +1902,7 @@
       <c r="Y3" s="6"/>
       <c r="Z3" s="6"/>
     </row>
-    <row r="4" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="6" t="s">
         <v>22</v>
       </c>
@@ -1945,7 +1938,7 @@
       <c r="Y4" s="6"/>
       <c r="Z4" s="6"/>
     </row>
-    <row r="5" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="7" t="s">
         <v>17</v>
       </c>
@@ -1976,7 +1969,7 @@
       <c r="X5" s="8"/>
       <c r="Y5" s="8"/>
     </row>
-    <row r="6" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="6" t="s">
         <v>25</v>
       </c>
@@ -2008,7 +2001,7 @@
       <c r="Y6" s="6"/>
       <c r="Z6" s="6"/>
     </row>
-    <row r="7" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="6" t="s">
         <v>29</v>
       </c>
@@ -2038,7 +2031,7 @@
       <c r="Y7" s="6"/>
       <c r="Z7" s="6"/>
     </row>
-    <row r="8" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="7" t="s">
         <v>17</v>
       </c>
@@ -2072,7 +2065,7 @@
       <c r="Y8" s="6"/>
       <c r="Z8" s="6"/>
     </row>
-    <row r="9" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="11" t="s">
         <v>219</v>
       </c>
@@ -2107,7 +2100,7 @@
       <c r="X9" s="8"/>
       <c r="Y9" s="8"/>
     </row>
-    <row r="10" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="11" t="s">
         <v>25</v>
       </c>
@@ -2142,7 +2135,7 @@
       <c r="X10" s="8"/>
       <c r="Y10" s="8"/>
     </row>
-    <row r="11" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="11" t="s">
         <v>25</v>
       </c>
@@ -2177,7 +2170,7 @@
       <c r="X11" s="8"/>
       <c r="Y11" s="8"/>
     </row>
-    <row r="12" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="11" t="s">
         <v>25</v>
       </c>
@@ -2212,7 +2205,7 @@
       <c r="X12" s="8"/>
       <c r="Y12" s="8"/>
     </row>
-    <row r="13" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="11" t="s">
         <v>25</v>
       </c>
@@ -2247,7 +2240,7 @@
       <c r="X13" s="8"/>
       <c r="Y13" s="8"/>
     </row>
-    <row r="14" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="11" t="s">
         <v>25</v>
       </c>
@@ -2282,7 +2275,7 @@
       <c r="X14" s="8"/>
       <c r="Y14" s="8"/>
     </row>
-    <row r="15" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="11" t="s">
         <v>25</v>
       </c>
@@ -2315,7 +2308,7 @@
       <c r="X15" s="8"/>
       <c r="Y15" s="8"/>
     </row>
-    <row r="16" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="11" t="s">
         <v>25</v>
       </c>
@@ -2348,7 +2341,7 @@
       <c r="X16" s="8"/>
       <c r="Y16" s="8"/>
     </row>
-    <row r="17" spans="1:38" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:38" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="11" t="s">
         <v>25</v>
       </c>
@@ -2381,7 +2374,7 @@
       <c r="X17" s="8"/>
       <c r="Y17" s="8"/>
     </row>
-    <row r="18" spans="1:38" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:38" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="11" t="s">
         <v>25</v>
       </c>
@@ -2414,7 +2407,7 @@
       <c r="X18" s="8"/>
       <c r="Y18" s="8"/>
     </row>
-    <row r="19" spans="1:38" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:38" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="11" t="s">
         <v>25</v>
       </c>
@@ -2447,7 +2440,7 @@
       <c r="X19" s="8"/>
       <c r="Y19" s="8"/>
     </row>
-    <row r="20" spans="1:38" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:38" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="11" t="s">
         <v>25</v>
       </c>
@@ -2480,7 +2473,7 @@
       <c r="X20" s="8"/>
       <c r="Y20" s="8"/>
     </row>
-    <row r="21" spans="1:38" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:38" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="11" t="s">
         <v>25</v>
       </c>
@@ -2513,7 +2506,7 @@
       <c r="X21" s="8"/>
       <c r="Y21" s="8"/>
     </row>
-    <row r="22" spans="1:38" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:38" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="11" t="s">
         <v>25</v>
       </c>
@@ -2546,7 +2539,7 @@
       <c r="X22" s="8"/>
       <c r="Y22" s="8"/>
     </row>
-    <row r="23" spans="1:38" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:38" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="11" t="s">
         <v>25</v>
       </c>
@@ -2579,7 +2572,7 @@
       <c r="X23" s="8"/>
       <c r="Y23" s="8"/>
     </row>
-    <row r="24" spans="1:38" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:38" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="11" t="s">
         <v>25</v>
       </c>
@@ -2612,7 +2605,7 @@
       <c r="X24" s="8"/>
       <c r="Y24" s="8"/>
     </row>
-    <row r="25" spans="1:38" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:38" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="11" t="s">
         <v>25</v>
       </c>
@@ -2645,7 +2638,7 @@
       <c r="X25" s="8"/>
       <c r="Y25" s="8"/>
     </row>
-    <row r="26" spans="1:38" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:38" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="11" t="s">
         <v>25</v>
       </c>
@@ -2678,7 +2671,7 @@
       <c r="X26" s="8"/>
       <c r="Y26" s="8"/>
     </row>
-    <row r="27" spans="1:38" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:38" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="9" t="s">
         <v>25</v>
       </c>
@@ -2724,7 +2717,7 @@
       <c r="AK27" s="47"/>
       <c r="AL27" s="47"/>
     </row>
-    <row r="28" spans="1:38" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:38" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="11" t="s">
         <v>25</v>
       </c>
@@ -2757,7 +2750,7 @@
       <c r="X28" s="8"/>
       <c r="Y28" s="8"/>
     </row>
-    <row r="29" spans="1:38" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:38" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="11" t="s">
         <v>25</v>
       </c>
@@ -2790,7 +2783,7 @@
       <c r="X29" s="8"/>
       <c r="Y29" s="8"/>
     </row>
-    <row r="30" spans="1:38" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:38" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" s="11" t="s">
         <v>25</v>
       </c>
@@ -2823,7 +2816,7 @@
       <c r="X30" s="8"/>
       <c r="Y30" s="8"/>
     </row>
-    <row r="31" spans="1:38" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:38" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" s="11" t="s">
         <v>25</v>
       </c>
@@ -2856,7 +2849,7 @@
       <c r="X31" s="8"/>
       <c r="Y31" s="8"/>
     </row>
-    <row r="32" spans="1:38" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:38" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" s="11" t="s">
         <v>25</v>
       </c>
@@ -2889,7 +2882,7 @@
       <c r="X32" s="8"/>
       <c r="Y32" s="8"/>
     </row>
-    <row r="33" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" s="11" t="s">
         <v>25</v>
       </c>
@@ -2922,7 +2915,7 @@
       <c r="X33" s="8"/>
       <c r="Y33" s="8"/>
     </row>
-    <row r="34" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A34" s="11" t="s">
         <v>25</v>
       </c>
@@ -2955,7 +2948,7 @@
       <c r="X34" s="8"/>
       <c r="Y34" s="8"/>
     </row>
-    <row r="35" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A35" s="11" t="s">
         <v>25</v>
       </c>
@@ -2988,7 +2981,7 @@
       <c r="X35" s="8"/>
       <c r="Y35" s="8"/>
     </row>
-    <row r="36" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A36" s="11" t="s">
         <v>25</v>
       </c>
@@ -3021,7 +3014,7 @@
       <c r="X36" s="8"/>
       <c r="Y36" s="8"/>
     </row>
-    <row r="37" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A37" s="11" t="s">
         <v>25</v>
       </c>
@@ -3054,7 +3047,7 @@
       <c r="X37" s="8"/>
       <c r="Y37" s="8"/>
     </row>
-    <row r="38" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A38" s="11" t="s">
         <v>25</v>
       </c>
@@ -3087,7 +3080,7 @@
       <c r="X38" s="8"/>
       <c r="Y38" s="8"/>
     </row>
-    <row r="39" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A39" s="11" t="s">
         <v>25</v>
       </c>
@@ -3120,7 +3113,7 @@
       <c r="X39" s="8"/>
       <c r="Y39" s="8"/>
     </row>
-    <row r="40" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A40" s="11" t="s">
         <v>25</v>
       </c>
@@ -3153,7 +3146,7 @@
       <c r="X40" s="8"/>
       <c r="Y40" s="8"/>
     </row>
-    <row r="41" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A41" s="11" t="s">
         <v>25</v>
       </c>
@@ -3186,7 +3179,7 @@
       <c r="X41" s="8"/>
       <c r="Y41" s="8"/>
     </row>
-    <row r="42" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A42" s="11" t="s">
         <v>25</v>
       </c>
@@ -3219,7 +3212,7 @@
       <c r="X42" s="8"/>
       <c r="Y42" s="8"/>
     </row>
-    <row r="43" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A43" s="4" t="s">
         <v>29</v>
       </c>
@@ -3249,7 +3242,7 @@
       <c r="Y43" s="3"/>
       <c r="Z43" s="3"/>
     </row>
-    <row r="44" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A44" s="4" t="s">
         <v>29</v>
       </c>
@@ -3279,7 +3272,7 @@
       <c r="Y44" s="3"/>
       <c r="Z44" s="3"/>
     </row>
-    <row r="45" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A45" s="11" t="s">
         <v>32</v>
       </c>
@@ -3313,7 +3306,7 @@
       <c r="Y45" s="11"/>
       <c r="Z45" s="11"/>
     </row>
-    <row r="46" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A46" s="11" t="s">
         <v>32</v>
       </c>
@@ -3347,7 +3340,7 @@
       <c r="Y46" s="11"/>
       <c r="Z46" s="11"/>
     </row>
-    <row r="47" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A47" s="11" t="s">
         <v>32</v>
       </c>
@@ -3381,7 +3374,7 @@
       <c r="Y47" s="11"/>
       <c r="Z47" s="11"/>
     </row>
-    <row r="48" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A48" s="11" t="s">
         <v>32</v>
       </c>
@@ -3415,7 +3408,7 @@
       <c r="Y48" s="11"/>
       <c r="Z48" s="11"/>
     </row>
-    <row r="49" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A49" s="11" t="s">
         <v>32</v>
       </c>
@@ -3449,7 +3442,7 @@
       <c r="Y49" s="11"/>
       <c r="Z49" s="11"/>
     </row>
-    <row r="50" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A50" s="11" t="s">
         <v>32</v>
       </c>
@@ -3483,65 +3476,88 @@
       <c r="Y50" s="11"/>
       <c r="Z50" s="11"/>
     </row>
-    <row r="51" spans="1:26" s="11" customFormat="1" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:26" s="11" customFormat="1" ht="12.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A51" s="11" t="s">
         <v>32</v>
       </c>
       <c r="B51" s="11" t="s">
-        <v>321</v>
+        <v>37</v>
       </c>
       <c r="I51" s="12" t="s">
-        <v>322</v>
-      </c>
-    </row>
-    <row r="52" spans="1:26" s="11" customFormat="1" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="52" spans="1:26" s="11" customFormat="1" ht="12.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A52" s="11" t="s">
         <v>32</v>
       </c>
       <c r="B52" s="11" t="s">
-        <v>37</v>
-      </c>
-      <c r="I52" s="12" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="53" spans="1:26" s="11" customFormat="1" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
+        <v>39</v>
+      </c>
+      <c r="I52" s="13" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="53" spans="1:26" s="11" customFormat="1" ht="12.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A53" s="11" t="s">
         <v>32</v>
       </c>
       <c r="B53" s="11" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="I53" s="13" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="54" spans="1:26" s="11" customFormat="1" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="11" t="s">
-        <v>32</v>
-      </c>
-      <c r="B54" s="11" t="s">
-        <v>41</v>
-      </c>
-      <c r="I54" s="13" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="55" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A54" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B54" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="C54" t="s">
+        <v>299</v>
+      </c>
+      <c r="D54" s="4"/>
+      <c r="E54" s="4"/>
+      <c r="F54" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="G54" s="4"/>
+      <c r="H54" s="4"/>
+      <c r="I54" s="4"/>
+      <c r="J54" s="4"/>
+      <c r="K54" s="4"/>
+      <c r="L54" s="4"/>
+      <c r="M54" s="4"/>
+      <c r="N54" s="4"/>
+      <c r="O54" s="4"/>
+      <c r="P54" s="4"/>
+      <c r="Q54" s="4"/>
+      <c r="R54" s="4"/>
+      <c r="S54" s="4"/>
+      <c r="T54" s="4"/>
+      <c r="U54" s="4"/>
+      <c r="V54" s="4"/>
+      <c r="W54" s="4"/>
+      <c r="X54" s="4"/>
+      <c r="Y54" s="4"/>
+      <c r="Z54" s="4"/>
+    </row>
+    <row r="55" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A55" s="4" t="s">
-        <v>17</v>
+        <v>48</v>
       </c>
       <c r="B55" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="C55" t="s">
-        <v>299</v>
+        <v>301</v>
+      </c>
+      <c r="C55" s="4" t="s">
+        <v>302</v>
       </c>
       <c r="D55" s="4"/>
       <c r="E55" s="4"/>
-      <c r="F55" s="4" t="s">
-        <v>21</v>
-      </c>
+      <c r="F55" s="4"/>
       <c r="G55" s="4"/>
       <c r="H55" s="4"/>
       <c r="I55" s="4"/>
@@ -3563,155 +3579,155 @@
       <c r="Y55" s="4"/>
       <c r="Z55" s="4"/>
     </row>
-    <row r="56" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="4" t="s">
+    <row r="56" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A56" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="B56" s="4" t="s">
-        <v>301</v>
-      </c>
-      <c r="C56" s="4" t="s">
-        <v>302</v>
-      </c>
-      <c r="D56" s="4"/>
-      <c r="E56" s="4"/>
-      <c r="F56" s="4"/>
-      <c r="G56" s="4"/>
-      <c r="H56" s="4"/>
-      <c r="I56" s="4"/>
-      <c r="J56" s="4"/>
-      <c r="K56" s="4"/>
-      <c r="L56" s="4"/>
-      <c r="M56" s="4"/>
-      <c r="N56" s="4"/>
-      <c r="O56" s="4"/>
-      <c r="P56" s="4"/>
-      <c r="Q56" s="4"/>
-      <c r="R56" s="4"/>
-      <c r="S56" s="4"/>
-      <c r="T56" s="4"/>
-      <c r="U56" s="4"/>
-      <c r="V56" s="4"/>
-      <c r="W56" s="4"/>
-      <c r="X56" s="4"/>
-      <c r="Y56" s="4"/>
-      <c r="Z56" s="4"/>
-    </row>
-    <row r="57" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="B56" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="C56" t="s">
+        <v>50</v>
+      </c>
+      <c r="E56" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="57" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A57" s="6" t="s">
         <v>48</v>
       </c>
       <c r="B57" s="6" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="C57" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="E57" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="58" spans="1:26" x14ac:dyDescent="0.25">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="58" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A58" s="6" t="s">
         <v>48</v>
       </c>
       <c r="B58" s="6" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="C58" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="E58" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="59" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A59" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="B59" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="C59" t="s">
-        <v>56</v>
-      </c>
-      <c r="E59" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="60" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A60" s="4" t="s">
+    <row r="59" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A59" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="B60" s="4"/>
-      <c r="C60" s="4"/>
-      <c r="D60" s="4"/>
-      <c r="E60" s="4"/>
-      <c r="F60" s="4"/>
-      <c r="G60" s="4"/>
-      <c r="H60" s="4"/>
-      <c r="I60" s="4"/>
-      <c r="J60" s="4"/>
-      <c r="K60" s="4"/>
-      <c r="L60" s="4"/>
-      <c r="M60" s="4"/>
-      <c r="N60" s="4"/>
-      <c r="O60" s="4"/>
-      <c r="P60" s="4"/>
-      <c r="Q60" s="4"/>
-      <c r="R60" s="4"/>
-      <c r="S60" s="4"/>
-      <c r="T60" s="4"/>
-      <c r="U60" s="4"/>
-      <c r="V60" s="4"/>
+      <c r="B59" s="4"/>
+      <c r="C59" s="4"/>
+      <c r="D59" s="4"/>
+      <c r="E59" s="4"/>
+      <c r="F59" s="4"/>
+      <c r="G59" s="4"/>
+      <c r="H59" s="4"/>
+      <c r="I59" s="4"/>
+      <c r="J59" s="4"/>
+      <c r="K59" s="4"/>
+      <c r="L59" s="4"/>
+      <c r="M59" s="4"/>
+      <c r="N59" s="4"/>
+      <c r="O59" s="4"/>
+      <c r="P59" s="4"/>
+      <c r="Q59" s="4"/>
+      <c r="R59" s="4"/>
+      <c r="S59" s="4"/>
+      <c r="T59" s="4"/>
+      <c r="U59" s="4"/>
+      <c r="V59" s="4"/>
+      <c r="W59" s="4"/>
+      <c r="X59" s="4"/>
+      <c r="Y59" s="4"/>
+      <c r="Z59" s="4"/>
+    </row>
+    <row r="60" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A60" s="6"/>
+      <c r="B60" s="6"/>
+      <c r="C60" s="6"/>
+      <c r="D60" s="6"/>
+      <c r="E60" s="6"/>
+      <c r="F60" s="6"/>
+      <c r="G60" s="6"/>
+      <c r="H60" s="6"/>
+      <c r="I60" s="6"/>
+      <c r="J60" s="6"/>
+      <c r="K60" s="6"/>
+      <c r="L60" s="6"/>
+      <c r="M60" s="6"/>
+      <c r="N60" s="6"/>
+      <c r="O60" s="6"/>
+      <c r="P60" s="6"/>
+      <c r="Q60" s="6"/>
+      <c r="R60" s="6"/>
+      <c r="S60" s="6"/>
+      <c r="T60" s="6"/>
+      <c r="U60" s="6"/>
+      <c r="V60" s="6"/>
       <c r="W60" s="4"/>
       <c r="X60" s="4"/>
       <c r="Y60" s="4"/>
       <c r="Z60" s="4"/>
     </row>
-    <row r="61" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A61" s="6"/>
-      <c r="B61" s="6"/>
-      <c r="C61" s="6"/>
-      <c r="D61" s="6"/>
-      <c r="E61" s="6"/>
-      <c r="F61" s="6"/>
-      <c r="G61" s="6"/>
-      <c r="H61" s="6"/>
-      <c r="I61" s="6"/>
-      <c r="J61" s="6"/>
-      <c r="K61" s="6"/>
-      <c r="L61" s="6"/>
-      <c r="M61" s="6"/>
-      <c r="N61" s="6"/>
-      <c r="O61" s="6"/>
-      <c r="P61" s="6"/>
-      <c r="Q61" s="6"/>
-      <c r="R61" s="6"/>
-      <c r="S61" s="6"/>
-      <c r="T61" s="6"/>
-      <c r="U61" s="6"/>
-      <c r="V61" s="6"/>
+    <row r="61" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A61" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B61" s="4" t="s">
+        <v>148</v>
+      </c>
+      <c r="C61" t="s">
+        <v>298</v>
+      </c>
+      <c r="D61" s="4"/>
+      <c r="E61" s="4"/>
+      <c r="F61" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="G61" s="4"/>
+      <c r="H61" s="4"/>
+      <c r="I61" s="4"/>
+      <c r="J61" s="4"/>
+      <c r="K61" s="4"/>
+      <c r="L61" s="4"/>
+      <c r="M61" s="4"/>
+      <c r="N61" s="4"/>
+      <c r="O61" s="4"/>
+      <c r="P61" s="4"/>
+      <c r="Q61" s="4"/>
+      <c r="R61" s="4"/>
+      <c r="S61" s="4"/>
+      <c r="T61" s="4"/>
+      <c r="U61" s="4"/>
+      <c r="V61" s="4"/>
       <c r="W61" s="4"/>
       <c r="X61" s="4"/>
       <c r="Y61" s="4"/>
       <c r="Z61" s="4"/>
     </row>
-    <row r="62" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A62" s="4" t="s">
-        <v>17</v>
+        <v>48</v>
       </c>
       <c r="B62" s="4" t="s">
-        <v>148</v>
-      </c>
-      <c r="C62" t="s">
-        <v>298</v>
+        <v>300</v>
+      </c>
+      <c r="C62" s="4" t="s">
+        <v>147</v>
       </c>
       <c r="D62" s="4"/>
       <c r="E62" s="4"/>
-      <c r="F62" s="4" t="s">
-        <v>21</v>
-      </c>
+      <c r="F62" s="4"/>
       <c r="G62" s="4"/>
       <c r="H62" s="4"/>
       <c r="I62" s="4"/>
@@ -3733,49 +3749,48 @@
       <c r="Y62" s="4"/>
       <c r="Z62" s="4"/>
     </row>
-    <row r="63" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A63" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="B63" s="4" t="s">
-        <v>300</v>
-      </c>
-      <c r="C63" s="4" t="s">
-        <v>147</v>
-      </c>
-      <c r="D63" s="4"/>
-      <c r="E63" s="4"/>
-      <c r="F63" s="4"/>
-      <c r="G63" s="4"/>
-      <c r="H63" s="4"/>
-      <c r="I63" s="4"/>
-      <c r="J63" s="4"/>
-      <c r="K63" s="4"/>
-      <c r="L63" s="4"/>
-      <c r="M63" s="4"/>
-      <c r="N63" s="4"/>
-      <c r="O63" s="4"/>
-      <c r="P63" s="4"/>
-      <c r="Q63" s="4"/>
-      <c r="R63" s="4"/>
-      <c r="S63" s="4"/>
-      <c r="T63" s="4"/>
-      <c r="U63" s="4"/>
-      <c r="V63" s="4"/>
-      <c r="W63" s="4"/>
-      <c r="X63" s="4"/>
-      <c r="Y63" s="4"/>
-      <c r="Z63" s="4"/>
-    </row>
-    <row r="64" spans="1:26" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:26" ht="15.9" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A63" s="39" t="s">
+        <v>133</v>
+      </c>
+      <c r="B63" s="39" t="s">
+        <v>134</v>
+      </c>
+      <c r="C63" s="39" t="s">
+        <v>149</v>
+      </c>
+      <c r="D63" s="6"/>
+      <c r="F63" s="41" t="s">
+        <v>157</v>
+      </c>
+      <c r="I63" s="6"/>
+      <c r="J63" s="6"/>
+      <c r="K63" s="6"/>
+      <c r="L63" s="6"/>
+      <c r="M63" s="6"/>
+      <c r="N63" s="6"/>
+      <c r="O63" s="6"/>
+      <c r="P63" s="6"/>
+      <c r="Q63" s="6"/>
+      <c r="R63" s="6"/>
+      <c r="S63" s="6"/>
+      <c r="T63" s="6"/>
+      <c r="U63" s="6"/>
+      <c r="V63" s="6"/>
+      <c r="W63" s="6"/>
+      <c r="X63" s="6"/>
+      <c r="Y63" s="6"/>
+      <c r="Z63" s="6"/>
+    </row>
+    <row r="64" spans="1:26" ht="15.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A64" s="39" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="B64" s="39" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="C64" s="39" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="D64" s="6"/>
       <c r="F64" s="41" t="s">
@@ -3800,15 +3815,15 @@
       <c r="Y64" s="6"/>
       <c r="Z64" s="6"/>
     </row>
-    <row r="65" spans="1:26" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:26" ht="15.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A65" s="39" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="B65" s="39" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="C65" s="39" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="D65" s="6"/>
       <c r="F65" s="41" t="s">
@@ -3833,20 +3848,23 @@
       <c r="Y65" s="6"/>
       <c r="Z65" s="6"/>
     </row>
-    <row r="66" spans="1:26" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:26" ht="15.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A66" s="39" t="s">
-        <v>137</v>
+        <v>48</v>
       </c>
       <c r="B66" s="39" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="C66" s="39" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="D66" s="6"/>
-      <c r="F66" s="41" t="s">
-        <v>157</v>
-      </c>
+      <c r="E66" s="40" t="s">
+        <v>140</v>
+      </c>
+      <c r="F66" s="41"/>
+      <c r="G66" s="41"/>
+      <c r="H66" s="41"/>
       <c r="I66" s="6"/>
       <c r="J66" s="6"/>
       <c r="K66" s="6"/>
@@ -3866,23 +3884,23 @@
       <c r="Y66" s="6"/>
       <c r="Z66" s="6"/>
     </row>
-    <row r="67" spans="1:26" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:26" ht="15.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A67" s="39" t="s">
         <v>48</v>
       </c>
       <c r="B67" s="39" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="C67" s="39" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="D67" s="6"/>
       <c r="E67" s="40" t="s">
-        <v>140</v>
-      </c>
-      <c r="F67" s="41"/>
-      <c r="G67" s="41"/>
-      <c r="H67" s="41"/>
+        <v>142</v>
+      </c>
+      <c r="F67" s="39"/>
+      <c r="G67" s="39"/>
+      <c r="H67" s="39"/>
       <c r="I67" s="6"/>
       <c r="J67" s="6"/>
       <c r="K67" s="6"/>
@@ -3902,19 +3920,19 @@
       <c r="Y67" s="6"/>
       <c r="Z67" s="6"/>
     </row>
-    <row r="68" spans="1:26" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:26" ht="15.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A68" s="39" t="s">
         <v>48</v>
       </c>
       <c r="B68" s="39" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="C68" s="39" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="D68" s="6"/>
       <c r="E68" s="40" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="F68" s="39"/>
       <c r="G68" s="39"/>
@@ -3938,19 +3956,19 @@
       <c r="Y68" s="6"/>
       <c r="Z68" s="6"/>
     </row>
-    <row r="69" spans="1:26" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:26" ht="15.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A69" s="39" t="s">
         <v>48</v>
       </c>
       <c r="B69" s="39" t="s">
-        <v>143</v>
+        <v>94</v>
       </c>
       <c r="C69" s="39" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="D69" s="6"/>
       <c r="E69" s="40" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="F69" s="39"/>
       <c r="G69" s="39"/>
@@ -3974,19 +3992,19 @@
       <c r="Y69" s="6"/>
       <c r="Z69" s="6"/>
     </row>
-    <row r="70" spans="1:26" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:26" ht="15.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A70" s="39" t="s">
         <v>48</v>
       </c>
       <c r="B70" s="39" t="s">
-        <v>94</v>
+        <v>285</v>
       </c>
       <c r="C70" s="39" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="D70" s="6"/>
       <c r="E70" s="40" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="F70" s="39"/>
       <c r="G70" s="39"/>
@@ -4010,19 +4028,18 @@
       <c r="Y70" s="6"/>
       <c r="Z70" s="6"/>
     </row>
-    <row r="71" spans="1:26" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:26" ht="15.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A71" s="39" t="s">
         <v>48</v>
       </c>
       <c r="B71" s="39" t="s">
-        <v>285</v>
-      </c>
-      <c r="C71" s="39" t="s">
-        <v>156</v>
-      </c>
-      <c r="D71" s="6"/>
-      <c r="E71" s="40" t="s">
-        <v>146</v>
+        <v>286</v>
+      </c>
+      <c r="C71" s="44" t="s">
+        <v>208</v>
+      </c>
+      <c r="E71" s="45" t="s">
+        <v>209</v>
       </c>
       <c r="F71" s="39"/>
       <c r="G71" s="39"/>
@@ -4046,53 +4063,46 @@
       <c r="Y71" s="6"/>
       <c r="Z71" s="6"/>
     </row>
-    <row r="72" spans="1:26" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A72" s="39" t="s">
-        <v>48</v>
-      </c>
-      <c r="B72" s="39" t="s">
-        <v>286</v>
-      </c>
-      <c r="C72" s="44" t="s">
-        <v>208</v>
-      </c>
-      <c r="E72" s="45" t="s">
-        <v>209</v>
-      </c>
-      <c r="F72" s="39"/>
-      <c r="G72" s="39"/>
-      <c r="H72" s="39"/>
-      <c r="I72" s="6"/>
-      <c r="J72" s="6"/>
-      <c r="K72" s="6"/>
-      <c r="L72" s="6"/>
-      <c r="M72" s="6"/>
-      <c r="N72" s="6"/>
-      <c r="O72" s="6"/>
-      <c r="P72" s="6"/>
-      <c r="Q72" s="6"/>
-      <c r="R72" s="6"/>
-      <c r="S72" s="6"/>
-      <c r="T72" s="6"/>
-      <c r="U72" s="6"/>
-      <c r="V72" s="6"/>
-      <c r="W72" s="6"/>
-      <c r="X72" s="6"/>
-      <c r="Y72" s="6"/>
-      <c r="Z72" s="6"/>
-    </row>
-    <row r="73" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A73" s="4" t="s">
+    <row r="72" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A72" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="B73" s="4"/>
-      <c r="C73" s="4"/>
-      <c r="D73" s="4"/>
-      <c r="E73" s="4"/>
-      <c r="F73" s="4"/>
-      <c r="G73" s="4"/>
-      <c r="H73" s="4"/>
-      <c r="I73" s="4"/>
+      <c r="B72" s="4"/>
+      <c r="C72" s="4"/>
+      <c r="D72" s="4"/>
+      <c r="E72" s="4"/>
+      <c r="F72" s="4"/>
+      <c r="G72" s="4"/>
+      <c r="H72" s="4"/>
+      <c r="I72" s="4"/>
+      <c r="J72" s="4"/>
+      <c r="K72" s="4"/>
+      <c r="L72" s="4"/>
+      <c r="M72" s="4"/>
+      <c r="N72" s="4"/>
+      <c r="O72" s="4"/>
+      <c r="P72" s="4"/>
+      <c r="Q72" s="4"/>
+      <c r="R72" s="4"/>
+      <c r="S72" s="4"/>
+      <c r="T72" s="4"/>
+      <c r="U72" s="4"/>
+      <c r="V72" s="4"/>
+      <c r="W72" s="4"/>
+      <c r="X72" s="4"/>
+      <c r="Y72" s="4"/>
+      <c r="Z72" s="4"/>
+    </row>
+    <row r="73" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A73" s="22"/>
+      <c r="B73" s="22"/>
+      <c r="C73" s="22"/>
+      <c r="D73" s="22"/>
+      <c r="E73" s="22"/>
+      <c r="F73" s="22"/>
+      <c r="G73" s="22"/>
+      <c r="H73" s="22"/>
+      <c r="I73" s="22"/>
       <c r="J73" s="4"/>
       <c r="K73" s="4"/>
       <c r="L73" s="4"/>
@@ -4111,7 +4121,7 @@
       <c r="Y73" s="4"/>
       <c r="Z73" s="4"/>
     </row>
-    <row r="74" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A74" s="22"/>
       <c r="B74" s="22"/>
       <c r="C74" s="22"/>
@@ -4121,31 +4131,39 @@
       <c r="G74" s="22"/>
       <c r="H74" s="22"/>
       <c r="I74" s="22"/>
-      <c r="J74" s="4"/>
-      <c r="K74" s="4"/>
-      <c r="L74" s="4"/>
-      <c r="M74" s="4"/>
-      <c r="N74" s="4"/>
-      <c r="O74" s="4"/>
-      <c r="P74" s="4"/>
-      <c r="Q74" s="4"/>
-      <c r="R74" s="4"/>
-      <c r="S74" s="4"/>
-      <c r="T74" s="4"/>
-      <c r="U74" s="4"/>
-      <c r="V74" s="4"/>
-      <c r="W74" s="4"/>
-      <c r="X74" s="4"/>
-      <c r="Y74" s="4"/>
-      <c r="Z74" s="4"/>
-    </row>
-    <row r="75" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A75" s="22"/>
-      <c r="B75" s="22"/>
-      <c r="C75" s="22"/>
+      <c r="J74" s="22"/>
+      <c r="K74" s="22"/>
+      <c r="L74" s="22"/>
+      <c r="M74" s="22"/>
+      <c r="N74" s="22"/>
+      <c r="O74" s="22"/>
+      <c r="P74" s="22"/>
+      <c r="Q74" s="22"/>
+      <c r="R74" s="22"/>
+      <c r="S74" s="22"/>
+      <c r="T74" s="22"/>
+      <c r="U74" s="22"/>
+      <c r="V74" s="22"/>
+      <c r="W74" s="22"/>
+      <c r="X74" s="22"/>
+      <c r="Y74" s="22"/>
+      <c r="Z74" s="22"/>
+    </row>
+    <row r="75" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A75" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B75" s="4" t="s">
+        <v>192</v>
+      </c>
+      <c r="C75" s="4" t="s">
+        <v>188</v>
+      </c>
       <c r="D75" s="22"/>
       <c r="E75" s="22"/>
-      <c r="F75" s="22"/>
+      <c r="F75" s="22" t="s">
+        <v>21</v>
+      </c>
       <c r="G75" s="22"/>
       <c r="H75" s="22"/>
       <c r="I75" s="22"/>
@@ -4167,21 +4185,21 @@
       <c r="Y75" s="22"/>
       <c r="Z75" s="22"/>
     </row>
-    <row r="76" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A76" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="B76" s="4" t="s">
-        <v>192</v>
-      </c>
-      <c r="C76" s="4" t="s">
-        <v>188</v>
+    <row r="76" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A76" s="39" t="s">
+        <v>48</v>
+      </c>
+      <c r="B76" s="39" t="s">
+        <v>189</v>
+      </c>
+      <c r="C76" s="39" t="s">
+        <v>193</v>
       </c>
       <c r="D76" s="22"/>
-      <c r="E76" s="22"/>
-      <c r="F76" s="22" t="s">
-        <v>21</v>
-      </c>
+      <c r="E76" s="40" t="s">
+        <v>140</v>
+      </c>
+      <c r="F76" s="22"/>
       <c r="G76" s="22"/>
       <c r="H76" s="22"/>
       <c r="I76" s="22"/>
@@ -4203,19 +4221,19 @@
       <c r="Y76" s="22"/>
       <c r="Z76" s="22"/>
     </row>
-    <row r="77" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A77" s="39" t="s">
         <v>48</v>
       </c>
       <c r="B77" s="39" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="C77" s="39" t="s">
         <v>193</v>
       </c>
       <c r="D77" s="22"/>
       <c r="E77" s="40" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="F77" s="22"/>
       <c r="G77" s="22"/>
@@ -4239,19 +4257,19 @@
       <c r="Y77" s="22"/>
       <c r="Z77" s="22"/>
     </row>
-    <row r="78" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A78" s="39" t="s">
         <v>48</v>
       </c>
       <c r="B78" s="39" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="C78" s="39" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="D78" s="22"/>
       <c r="E78" s="40" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="F78" s="22"/>
       <c r="G78" s="22"/>
@@ -4275,20 +4293,14 @@
       <c r="Y78" s="22"/>
       <c r="Z78" s="22"/>
     </row>
-    <row r="79" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A79" s="39" t="s">
-        <v>48</v>
-      </c>
-      <c r="B79" s="39" t="s">
-        <v>191</v>
-      </c>
-      <c r="C79" s="39" t="s">
-        <v>194</v>
-      </c>
+    <row r="79" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A79" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="B79" s="4"/>
+      <c r="C79" s="4"/>
       <c r="D79" s="22"/>
-      <c r="E79" s="40" t="s">
-        <v>144</v>
-      </c>
+      <c r="E79" s="22"/>
       <c r="F79" s="22"/>
       <c r="G79" s="22"/>
       <c r="H79" s="22"/>
@@ -4311,12 +4323,10 @@
       <c r="Y79" s="22"/>
       <c r="Z79" s="22"/>
     </row>
-    <row r="80" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A80" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="B80" s="4"/>
-      <c r="C80" s="4"/>
+    <row r="80" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A80" s="22"/>
+      <c r="B80" s="22"/>
+      <c r="C80" s="22"/>
       <c r="D80" s="22"/>
       <c r="E80" s="22"/>
       <c r="F80" s="22"/>
@@ -4341,7 +4351,7 @@
       <c r="Y80" s="22"/>
       <c r="Z80" s="22"/>
     </row>
-    <row r="81" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A81" s="22"/>
       <c r="B81" s="22"/>
       <c r="C81" s="22"/>
@@ -4369,54 +4379,42 @@
       <c r="Y81" s="22"/>
       <c r="Z81" s="22"/>
     </row>
-    <row r="82" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A82" s="22"/>
-      <c r="B82" s="22"/>
-      <c r="C82" s="22"/>
-      <c r="D82" s="22"/>
-      <c r="E82" s="22"/>
-      <c r="F82" s="22"/>
-      <c r="G82" s="22"/>
-      <c r="H82" s="22"/>
-      <c r="I82" s="22"/>
-      <c r="J82" s="22"/>
-      <c r="K82" s="22"/>
-      <c r="L82" s="22"/>
-      <c r="M82" s="22"/>
-      <c r="N82" s="22"/>
-      <c r="O82" s="22"/>
-      <c r="P82" s="22"/>
-      <c r="Q82" s="22"/>
-      <c r="R82" s="22"/>
-      <c r="S82" s="22"/>
-      <c r="T82" s="22"/>
-      <c r="U82" s="22"/>
-      <c r="V82" s="22"/>
-      <c r="W82" s="22"/>
-      <c r="X82" s="22"/>
-      <c r="Y82" s="22"/>
-      <c r="Z82" s="22"/>
-    </row>
-    <row r="83" spans="1:26" s="4" customFormat="1" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A83" s="4" t="s">
+    <row r="82" spans="1:26" s="4" customFormat="1" ht="12.9" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A82" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="B83" s="4" t="s">
+      <c r="B82" s="4" t="s">
         <v>210</v>
       </c>
-      <c r="C83" s="4" t="s">
+      <c r="C82" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="F83" s="19" t="s">
+      <c r="F82" s="19" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="84" spans="1:26" s="6" customFormat="1" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:26" s="6" customFormat="1" ht="12.9" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A83" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="B83" s="9" t="s">
+        <v>305</v>
+      </c>
+      <c r="C83" s="5"/>
+      <c r="D83" s="9"/>
+      <c r="E83" s="17"/>
+      <c r="G83" s="22"/>
+      <c r="H83" s="22"/>
+      <c r="I83" s="40" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="84" spans="1:26" s="6" customFormat="1" ht="12.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A84" s="9" t="s">
         <v>32</v>
       </c>
       <c r="B84" s="9" t="s">
-        <v>305</v>
+        <v>60</v>
       </c>
       <c r="C84" s="5"/>
       <c r="D84" s="9"/>
@@ -4424,126 +4422,130 @@
       <c r="G84" s="22"/>
       <c r="H84" s="22"/>
       <c r="I84" s="40" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="85" spans="1:26" s="6" customFormat="1" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="85" spans="1:26" s="6" customFormat="1" ht="12.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A85" s="9" t="s">
-        <v>32</v>
+        <v>48</v>
       </c>
       <c r="B85" s="9" t="s">
-        <v>60</v>
-      </c>
-      <c r="C85" s="5"/>
+        <v>307</v>
+      </c>
+      <c r="C85" s="17" t="s">
+        <v>308</v>
+      </c>
       <c r="D85" s="9"/>
       <c r="E85" s="17"/>
       <c r="G85" s="22"/>
       <c r="H85" s="22"/>
-      <c r="I85" s="40" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="86" spans="1:26" s="6" customFormat="1" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="86" spans="1:26" s="6" customFormat="1" ht="12.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A86" s="9" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="B86" s="9" t="s">
-        <v>307</v>
-      </c>
-      <c r="C86" s="17" t="s">
-        <v>308</v>
-      </c>
-      <c r="D86" s="9"/>
-      <c r="E86" s="17"/>
-      <c r="G86" s="22"/>
-      <c r="H86" s="22"/>
-    </row>
-    <row r="87" spans="1:26" s="6" customFormat="1" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
+        <v>212</v>
+      </c>
+      <c r="C86" s="10" t="s">
+        <v>61</v>
+      </c>
+      <c r="D86" s="21" t="s">
+        <v>44</v>
+      </c>
+      <c r="E86" s="9"/>
+      <c r="G86" s="22" t="s">
+        <v>62</v>
+      </c>
+      <c r="H86" s="22" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="87" spans="1:26" s="6" customFormat="1" ht="12.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A87" s="9" t="s">
-        <v>43</v>
+        <v>63</v>
       </c>
       <c r="B87" s="9" t="s">
-        <v>212</v>
-      </c>
-      <c r="C87" s="10" t="s">
-        <v>61</v>
-      </c>
-      <c r="D87" s="21" t="s">
-        <v>44</v>
-      </c>
+        <v>64</v>
+      </c>
+      <c r="C87" s="23" t="s">
+        <v>65</v>
+      </c>
+      <c r="D87" s="21"/>
       <c r="E87" s="9"/>
-      <c r="G87" s="22" t="s">
-        <v>62</v>
-      </c>
-      <c r="H87" s="22" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="88" spans="1:26" s="6" customFormat="1" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A88" s="9" t="s">
-        <v>63</v>
-      </c>
-      <c r="B88" s="9" t="s">
-        <v>64</v>
-      </c>
-      <c r="C88" s="23" t="s">
-        <v>65</v>
-      </c>
-      <c r="D88" s="21"/>
-      <c r="E88" s="9"/>
-      <c r="G88" s="22"/>
-      <c r="H88" s="22"/>
-    </row>
-    <row r="89" spans="1:26" s="4" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A89" s="4" t="s">
+      <c r="G87" s="22"/>
+      <c r="H87" s="22"/>
+    </row>
+    <row r="88" spans="1:26" s="4" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A88" s="4" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="90" spans="1:26" s="4" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A90"/>
-      <c r="B90"/>
-      <c r="C90"/>
+    <row r="89" spans="1:26" s="4" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A89"/>
+      <c r="B89"/>
+      <c r="C89"/>
+      <c r="D89"/>
+      <c r="E89"/>
+      <c r="F89"/>
+      <c r="G89"/>
+      <c r="H89"/>
+      <c r="I89"/>
+      <c r="J89"/>
+    </row>
+    <row r="90" spans="1:26" s="4" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A90" s="38" t="s">
+        <v>17</v>
+      </c>
+      <c r="B90" s="38" t="s">
+        <v>203</v>
+      </c>
+      <c r="C90" s="38" t="s">
+        <v>195</v>
+      </c>
       <c r="D90"/>
       <c r="E90"/>
-      <c r="F90"/>
+      <c r="F90" s="38" t="s">
+        <v>21</v>
+      </c>
       <c r="G90"/>
       <c r="H90"/>
       <c r="I90"/>
       <c r="J90"/>
     </row>
-    <row r="91" spans="1:26" s="4" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A91" s="38" t="s">
-        <v>17</v>
-      </c>
-      <c r="B91" s="38" t="s">
-        <v>203</v>
-      </c>
-      <c r="C91" s="38" t="s">
-        <v>195</v>
+    <row r="91" spans="1:26" s="4" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A91" s="39" t="s">
+        <v>196</v>
+      </c>
+      <c r="B91" s="39" t="s">
+        <v>197</v>
+      </c>
+      <c r="C91" s="39" t="s">
+        <v>204</v>
       </c>
       <c r="D91"/>
-      <c r="E91"/>
-      <c r="F91" s="38" t="s">
-        <v>21</v>
-      </c>
+      <c r="E91" s="40" t="s">
+        <v>205</v>
+      </c>
+      <c r="F91"/>
       <c r="G91"/>
       <c r="H91"/>
       <c r="I91"/>
       <c r="J91"/>
     </row>
-    <row r="92" spans="1:26" s="4" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:26" s="4" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A92" s="39" t="s">
-        <v>196</v>
+        <v>48</v>
       </c>
       <c r="B92" s="39" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="C92" s="39" t="s">
-        <v>204</v>
+        <v>199</v>
       </c>
       <c r="D92"/>
       <c r="E92" s="40" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="F92"/>
       <c r="G92"/>
@@ -4551,32 +4553,24 @@
       <c r="I92"/>
       <c r="J92"/>
     </row>
-    <row r="93" spans="1:26" s="4" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A93" s="39" t="s">
-        <v>48</v>
-      </c>
-      <c r="B93" s="39" t="s">
-        <v>198</v>
-      </c>
-      <c r="C93" s="39" t="s">
-        <v>199</v>
-      </c>
+    <row r="93" spans="1:26" s="4" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A93" s="38" t="s">
+        <v>29</v>
+      </c>
+      <c r="B93" s="38"/>
+      <c r="C93" s="38"/>
       <c r="D93"/>
-      <c r="E93" s="40" t="s">
-        <v>206</v>
-      </c>
+      <c r="E93"/>
       <c r="F93"/>
       <c r="G93"/>
       <c r="H93"/>
       <c r="I93"/>
       <c r="J93"/>
     </row>
-    <row r="94" spans="1:26" s="4" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A94" s="38" t="s">
-        <v>29</v>
-      </c>
-      <c r="B94" s="38"/>
-      <c r="C94" s="38"/>
+    <row r="94" spans="1:26" s="4" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A94" s="39"/>
+      <c r="B94" s="39"/>
+      <c r="C94" s="39"/>
       <c r="D94"/>
       <c r="E94"/>
       <c r="F94"/>
@@ -4585,64 +4579,64 @@
       <c r="I94"/>
       <c r="J94"/>
     </row>
-    <row r="95" spans="1:26" s="4" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A95" s="39"/>
-      <c r="B95" s="39"/>
-      <c r="C95" s="39"/>
+    <row r="95" spans="1:26" s="4" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A95" s="38" t="s">
+        <v>17</v>
+      </c>
+      <c r="B95" s="38" t="s">
+        <v>284</v>
+      </c>
+      <c r="C95" s="38" t="s">
+        <v>200</v>
+      </c>
       <c r="D95"/>
       <c r="E95"/>
-      <c r="F95"/>
+      <c r="F95" s="38" t="s">
+        <v>21</v>
+      </c>
       <c r="G95"/>
       <c r="H95"/>
       <c r="I95"/>
       <c r="J95"/>
     </row>
-    <row r="96" spans="1:26" s="4" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A96" s="38" t="s">
-        <v>17</v>
-      </c>
-      <c r="B96" s="38" t="s">
-        <v>284</v>
-      </c>
-      <c r="C96" s="38" t="s">
-        <v>200</v>
+    <row r="96" spans="1:26" s="4" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A96" s="39" t="s">
+        <v>48</v>
+      </c>
+      <c r="B96" s="39" t="s">
+        <v>201</v>
+      </c>
+      <c r="C96" s="39" t="s">
+        <v>202</v>
       </c>
       <c r="D96"/>
-      <c r="E96"/>
-      <c r="F96" s="38" t="s">
-        <v>21</v>
-      </c>
+      <c r="E96" s="40" t="s">
+        <v>207</v>
+      </c>
+      <c r="F96"/>
       <c r="G96"/>
       <c r="H96"/>
       <c r="I96"/>
       <c r="J96"/>
     </row>
-    <row r="97" spans="1:25" s="4" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A97" s="39" t="s">
-        <v>48</v>
-      </c>
-      <c r="B97" s="39" t="s">
-        <v>201</v>
-      </c>
-      <c r="C97" s="39" t="s">
-        <v>202</v>
-      </c>
+    <row r="97" spans="1:25" s="4" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A97" s="38" t="s">
+        <v>29</v>
+      </c>
+      <c r="B97" s="38"/>
+      <c r="C97" s="38"/>
       <c r="D97"/>
-      <c r="E97" s="40" t="s">
-        <v>207</v>
-      </c>
+      <c r="E97"/>
       <c r="F97"/>
       <c r="G97"/>
       <c r="H97"/>
       <c r="I97"/>
       <c r="J97"/>
     </row>
-    <row r="98" spans="1:25" s="4" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A98" s="38" t="s">
-        <v>29</v>
-      </c>
-      <c r="B98" s="38"/>
-      <c r="C98" s="38"/>
+    <row r="98" spans="1:25" s="4" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A98"/>
+      <c r="B98"/>
+      <c r="C98"/>
       <c r="D98"/>
       <c r="E98"/>
       <c r="F98"/>
@@ -4651,40 +4645,63 @@
       <c r="I98"/>
       <c r="J98"/>
     </row>
-    <row r="99" spans="1:25" s="4" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A99"/>
-      <c r="B99"/>
-      <c r="C99"/>
-      <c r="D99"/>
-      <c r="E99"/>
-      <c r="F99"/>
-      <c r="G99"/>
-      <c r="H99"/>
-      <c r="I99"/>
-      <c r="J99"/>
-    </row>
-    <row r="100" spans="1:25" s="15" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A100" s="5" t="s">
+    <row r="99" spans="1:25" s="15" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A99" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="B100" s="5" t="s">
+      <c r="B99" s="5" t="s">
         <v>66</v>
       </c>
-      <c r="C100" s="5" t="s">
+      <c r="C99" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="D100" s="5"/>
-      <c r="E100" s="4"/>
-      <c r="F100" s="19" t="s">
+      <c r="D99" s="5"/>
+      <c r="E99" s="4"/>
+      <c r="F99" s="19" t="s">
         <v>67</v>
       </c>
-      <c r="G100" s="5"/>
-      <c r="H100" s="5"/>
-      <c r="I100" s="5"/>
-      <c r="J100" s="5"/>
-      <c r="K100" s="5"/>
-      <c r="L100" s="5"/>
-      <c r="M100" s="5"/>
+      <c r="G99" s="5"/>
+      <c r="H99" s="5"/>
+      <c r="I99" s="5"/>
+      <c r="J99" s="5"/>
+      <c r="K99" s="5"/>
+      <c r="L99" s="5"/>
+      <c r="M99" s="5"/>
+      <c r="N99" s="16"/>
+      <c r="O99" s="16"/>
+      <c r="P99" s="16"/>
+      <c r="Q99" s="16"/>
+      <c r="R99" s="16"/>
+      <c r="S99" s="16"/>
+      <c r="T99" s="16"/>
+      <c r="U99" s="16"/>
+      <c r="V99" s="16"/>
+      <c r="W99" s="16"/>
+      <c r="X99" s="16"/>
+      <c r="Y99" s="16"/>
+    </row>
+    <row r="100" spans="1:25" s="15" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A100" s="16" t="s">
+        <v>48</v>
+      </c>
+      <c r="B100" s="24" t="s">
+        <v>68</v>
+      </c>
+      <c r="C100" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="D100" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="E100" s="3"/>
+      <c r="F100" s="16"/>
+      <c r="G100" s="16"/>
+      <c r="H100" s="16"/>
+      <c r="I100" s="16"/>
+      <c r="J100" s="16"/>
+      <c r="K100" s="16"/>
+      <c r="L100" s="16"/>
+      <c r="M100" s="16"/>
       <c r="N100" s="16"/>
       <c r="O100" s="16"/>
       <c r="P100" s="16"/>
@@ -4698,201 +4715,203 @@
       <c r="X100" s="16"/>
       <c r="Y100" s="16"/>
     </row>
-    <row r="101" spans="1:25" s="15" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A101" s="16" t="s">
+    <row r="101" spans="1:25" s="15" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A101" s="25" t="s">
         <v>48</v>
       </c>
-      <c r="B101" s="24" t="s">
-        <v>68</v>
-      </c>
-      <c r="C101" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="D101" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="E101" s="3"/>
-      <c r="F101" s="16"/>
-      <c r="G101" s="16"/>
-      <c r="H101" s="16"/>
-      <c r="I101" s="16"/>
-      <c r="J101" s="16"/>
-      <c r="K101" s="16"/>
-      <c r="L101" s="16"/>
-      <c r="M101" s="16"/>
-      <c r="N101" s="16"/>
-      <c r="O101" s="16"/>
-      <c r="P101" s="16"/>
-      <c r="Q101" s="16"/>
-      <c r="R101" s="16"/>
-      <c r="S101" s="16"/>
-      <c r="T101" s="16"/>
-      <c r="U101" s="16"/>
-      <c r="V101" s="16"/>
-      <c r="W101" s="16"/>
-      <c r="X101" s="16"/>
-      <c r="Y101" s="16"/>
-    </row>
-    <row r="102" spans="1:25" s="15" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A102" s="25" t="s">
+      <c r="B101" s="25" t="s">
+        <v>66</v>
+      </c>
+      <c r="C101" s="26" t="s">
+        <v>70</v>
+      </c>
+      <c r="D101" s="25"/>
+      <c r="E101" s="25"/>
+      <c r="F101" s="25" t="s">
+        <v>71</v>
+      </c>
+      <c r="G101" s="25"/>
+      <c r="H101" s="25"/>
+      <c r="I101" s="25"/>
+      <c r="J101" s="25"/>
+      <c r="K101" s="25"/>
+      <c r="L101" s="25"/>
+      <c r="M101" s="25"/>
+      <c r="N101" s="25"/>
+      <c r="O101" s="25"/>
+      <c r="P101" s="25"/>
+      <c r="Q101" s="25"/>
+      <c r="R101" s="25"/>
+      <c r="S101" s="25"/>
+      <c r="T101" s="25"/>
+      <c r="U101" s="25"/>
+      <c r="V101" s="25"/>
+      <c r="W101" s="25"/>
+      <c r="X101" s="25"/>
+      <c r="Y101" s="25"/>
+    </row>
+    <row r="102" spans="1:25" s="15" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A102" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="B102" s="25" t="s">
-        <v>66</v>
-      </c>
-      <c r="C102" s="26" t="s">
-        <v>70</v>
-      </c>
-      <c r="D102" s="25"/>
-      <c r="E102" s="25"/>
-      <c r="F102" s="25" t="s">
-        <v>71</v>
-      </c>
-      <c r="G102" s="25"/>
-      <c r="H102" s="25"/>
-      <c r="I102" s="25"/>
-      <c r="J102" s="25"/>
-      <c r="K102" s="25"/>
-      <c r="L102" s="25"/>
-      <c r="M102" s="25"/>
-      <c r="N102" s="25"/>
-      <c r="O102" s="25"/>
-      <c r="P102" s="25"/>
-      <c r="Q102" s="25"/>
-      <c r="R102" s="25"/>
-      <c r="S102" s="25"/>
-      <c r="T102" s="25"/>
-      <c r="U102" s="25"/>
-      <c r="V102" s="25"/>
-      <c r="W102" s="25"/>
-      <c r="X102" s="25"/>
-      <c r="Y102" s="25"/>
-    </row>
-    <row r="103" spans="1:25" s="15" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A103" s="3" t="s">
+      <c r="B102" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="C102" s="24" t="s">
+        <v>297</v>
+      </c>
+      <c r="D102" s="3"/>
+      <c r="E102" s="3"/>
+      <c r="F102" s="3"/>
+      <c r="G102" s="3"/>
+      <c r="H102" s="3"/>
+      <c r="I102" s="16"/>
+      <c r="J102" s="3"/>
+      <c r="K102" s="3"/>
+      <c r="L102" s="3"/>
+      <c r="M102" s="3"/>
+      <c r="N102" s="3"/>
+      <c r="O102" s="3"/>
+      <c r="P102" s="3"/>
+      <c r="Q102" s="3"/>
+      <c r="R102" s="3"/>
+      <c r="S102" s="3"/>
+      <c r="T102" s="3"/>
+      <c r="U102" s="3"/>
+      <c r="V102" s="3"/>
+      <c r="W102" s="3"/>
+      <c r="X102" s="3"/>
+      <c r="Y102" s="3"/>
+    </row>
+    <row r="103" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A103" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="B103" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="C103" s="24" t="s">
-        <v>297</v>
-      </c>
-      <c r="D103" s="3"/>
-      <c r="E103" s="3"/>
-      <c r="F103" s="3"/>
-      <c r="G103" s="3"/>
-      <c r="H103" s="3"/>
-      <c r="I103" s="16"/>
-      <c r="J103" s="3"/>
-      <c r="K103" s="3"/>
-      <c r="L103" s="3"/>
-      <c r="M103" s="3"/>
-      <c r="N103" s="3"/>
-      <c r="O103" s="3"/>
-      <c r="P103" s="3"/>
-      <c r="Q103" s="3"/>
-      <c r="R103" s="3"/>
-      <c r="S103" s="3"/>
-      <c r="T103" s="3"/>
-      <c r="U103" s="3"/>
-      <c r="V103" s="3"/>
-      <c r="W103" s="3"/>
-      <c r="X103" s="3"/>
-      <c r="Y103" s="3"/>
-    </row>
-    <row r="104" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="B103" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="C103" s="27" t="s">
+        <v>73</v>
+      </c>
+      <c r="E103" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="104" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A104" s="6" t="s">
         <v>48</v>
       </c>
       <c r="B104" s="6" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="C104" s="27" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="E104" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="105" spans="1:25" x14ac:dyDescent="0.25">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="105" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A105" s="6" t="s">
         <v>48</v>
       </c>
       <c r="B105" s="6" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="C105" s="27" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="E105" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="106" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A106" s="6" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="106" spans="1:25" s="15" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A106" s="28" t="s">
         <v>48</v>
       </c>
-      <c r="B106" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="C106" s="27" t="s">
-        <v>75</v>
-      </c>
-      <c r="E106" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="107" spans="1:25" s="15" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A107" s="28" t="s">
+      <c r="B106" s="29" t="s">
+        <v>76</v>
+      </c>
+      <c r="C106" s="30" t="s">
+        <v>77</v>
+      </c>
+      <c r="D106" s="28"/>
+      <c r="E106" s="28"/>
+      <c r="F106" s="28" t="s">
+        <v>78</v>
+      </c>
+      <c r="G106" s="28"/>
+      <c r="H106" s="28"/>
+      <c r="I106" s="28"/>
+      <c r="J106" s="28"/>
+      <c r="K106" s="28"/>
+      <c r="L106" s="28"/>
+      <c r="M106" s="28"/>
+      <c r="N106" s="28"/>
+      <c r="O106" s="28"/>
+      <c r="P106" s="28"/>
+      <c r="Q106" s="28"/>
+      <c r="R106" s="28"/>
+      <c r="S106" s="28"/>
+      <c r="T106" s="28"/>
+      <c r="U106" s="28"/>
+      <c r="V106" s="28"/>
+      <c r="W106" s="28"/>
+      <c r="X106" s="28"/>
+      <c r="Y106" s="28"/>
+    </row>
+    <row r="107" spans="1:25" s="15" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A107" s="24" t="s">
         <v>48</v>
       </c>
-      <c r="B107" s="29" t="s">
-        <v>76</v>
-      </c>
-      <c r="C107" s="30" t="s">
-        <v>77</v>
-      </c>
-      <c r="D107" s="28"/>
-      <c r="E107" s="28"/>
-      <c r="F107" s="28" t="s">
-        <v>78</v>
-      </c>
-      <c r="G107" s="28"/>
-      <c r="H107" s="28"/>
-      <c r="I107" s="28"/>
-      <c r="J107" s="28"/>
-      <c r="K107" s="28"/>
-      <c r="L107" s="28"/>
-      <c r="M107" s="28"/>
-      <c r="N107" s="28"/>
-      <c r="O107" s="28"/>
-      <c r="P107" s="28"/>
-      <c r="Q107" s="28"/>
-      <c r="R107" s="28"/>
-      <c r="S107" s="28"/>
-      <c r="T107" s="28"/>
-      <c r="U107" s="28"/>
-      <c r="V107" s="28"/>
-      <c r="W107" s="28"/>
-      <c r="X107" s="28"/>
-      <c r="Y107" s="28"/>
-    </row>
-    <row r="108" spans="1:25" s="15" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B107" s="39" t="s">
+        <v>91</v>
+      </c>
+      <c r="C107" s="39" t="s">
+        <v>159</v>
+      </c>
+      <c r="D107" s="6"/>
+      <c r="E107" s="17" t="s">
+        <v>213</v>
+      </c>
+      <c r="F107" s="15" t="s">
+        <v>79</v>
+      </c>
+      <c r="G107" s="16"/>
+      <c r="H107" s="16"/>
+      <c r="I107" s="16"/>
+      <c r="J107" s="16"/>
+      <c r="K107" s="16"/>
+      <c r="L107" s="16"/>
+      <c r="M107" s="16"/>
+      <c r="N107" s="16"/>
+      <c r="O107" s="16"/>
+      <c r="P107" s="16"/>
+      <c r="Q107" s="16"/>
+      <c r="R107" s="16"/>
+      <c r="S107" s="16"/>
+      <c r="T107" s="16"/>
+      <c r="U107" s="16"/>
+      <c r="V107" s="16"/>
+      <c r="W107" s="16"/>
+      <c r="X107" s="16"/>
+      <c r="Y107" s="16"/>
+    </row>
+    <row r="108" spans="1:25" s="15" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A108" s="24" t="s">
         <v>48</v>
       </c>
       <c r="B108" s="39" t="s">
-        <v>91</v>
+        <v>160</v>
       </c>
       <c r="C108" s="39" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="D108" s="6"/>
       <c r="E108" s="17" t="s">
-        <v>213</v>
-      </c>
-      <c r="F108" s="15" t="s">
+        <v>214</v>
+      </c>
+      <c r="F108" s="16" t="s">
         <v>79</v>
       </c>
       <c r="G108" s="16"/>
@@ -4915,19 +4934,19 @@
       <c r="X108" s="16"/>
       <c r="Y108" s="16"/>
     </row>
-    <row r="109" spans="1:25" s="15" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:25" s="15" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A109" s="24" t="s">
         <v>48</v>
       </c>
       <c r="B109" s="39" t="s">
-        <v>160</v>
+        <v>97</v>
       </c>
       <c r="C109" s="39" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="D109" s="6"/>
       <c r="E109" s="17" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="F109" s="16" t="s">
         <v>79</v>
@@ -4952,19 +4971,19 @@
       <c r="X109" s="16"/>
       <c r="Y109" s="16"/>
     </row>
-    <row r="110" spans="1:25" s="15" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:25" s="15" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A110" s="24" t="s">
         <v>48</v>
       </c>
       <c r="B110" s="39" t="s">
-        <v>97</v>
+        <v>164</v>
       </c>
       <c r="C110" s="39" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="D110" s="6"/>
       <c r="E110" s="17" t="s">
-        <v>215</v>
+        <v>287</v>
       </c>
       <c r="F110" s="16" t="s">
         <v>79</v>
@@ -4989,19 +5008,19 @@
       <c r="X110" s="16"/>
       <c r="Y110" s="16"/>
     </row>
-    <row r="111" spans="1:25" s="15" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:25" s="15" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A111" s="24" t="s">
         <v>48</v>
       </c>
       <c r="B111" s="39" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="C111" s="39" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="D111" s="6"/>
       <c r="E111" s="17" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="F111" s="16" t="s">
         <v>79</v>
@@ -5026,19 +5045,19 @@
       <c r="X111" s="16"/>
       <c r="Y111" s="16"/>
     </row>
-    <row r="112" spans="1:25" s="15" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:25" s="15" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A112" s="24" t="s">
         <v>48</v>
       </c>
       <c r="B112" s="39" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="C112" s="39" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="D112" s="6"/>
       <c r="E112" s="17" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="F112" s="16" t="s">
         <v>79</v>
@@ -5063,19 +5082,19 @@
       <c r="X112" s="16"/>
       <c r="Y112" s="16"/>
     </row>
-    <row r="113" spans="1:25" s="15" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:25" s="15" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A113" s="24" t="s">
         <v>48</v>
       </c>
       <c r="B113" s="39" t="s">
-        <v>168</v>
+        <v>93</v>
       </c>
       <c r="C113" s="39" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="D113" s="6"/>
       <c r="E113" s="17" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="F113" s="16" t="s">
         <v>79</v>
@@ -5100,19 +5119,19 @@
       <c r="X113" s="16"/>
       <c r="Y113" s="16"/>
     </row>
-    <row r="114" spans="1:25" s="15" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:25" s="15" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A114" s="24" t="s">
         <v>48</v>
       </c>
       <c r="B114" s="39" t="s">
-        <v>93</v>
+        <v>171</v>
       </c>
       <c r="C114" s="39" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="D114" s="6"/>
       <c r="E114" s="17" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="F114" s="16" t="s">
         <v>79</v>
@@ -5137,19 +5156,19 @@
       <c r="X114" s="16"/>
       <c r="Y114" s="16"/>
     </row>
-    <row r="115" spans="1:25" s="15" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:25" s="15" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A115" s="24" t="s">
         <v>48</v>
       </c>
       <c r="B115" s="39" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="C115" s="39" t="s">
-        <v>172</v>
+        <v>80</v>
       </c>
       <c r="D115" s="6"/>
       <c r="E115" s="17" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="F115" s="16" t="s">
         <v>79</v>
@@ -5174,19 +5193,19 @@
       <c r="X115" s="16"/>
       <c r="Y115" s="16"/>
     </row>
-    <row r="116" spans="1:25" s="15" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:25" s="15" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A116" s="24" t="s">
         <v>48</v>
       </c>
       <c r="B116" s="39" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="C116" s="39" t="s">
-        <v>80</v>
+        <v>175</v>
       </c>
       <c r="D116" s="6"/>
       <c r="E116" s="17" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="F116" s="16" t="s">
         <v>79</v>
@@ -5211,19 +5230,19 @@
       <c r="X116" s="16"/>
       <c r="Y116" s="16"/>
     </row>
-    <row r="117" spans="1:25" s="15" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:25" s="15" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A117" s="24" t="s">
         <v>48</v>
       </c>
       <c r="B117" s="39" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="C117" s="39" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="D117" s="6"/>
       <c r="E117" s="17" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="F117" s="16" t="s">
         <v>79</v>
@@ -5248,19 +5267,19 @@
       <c r="X117" s="16"/>
       <c r="Y117" s="16"/>
     </row>
-    <row r="118" spans="1:25" s="15" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:25" s="15" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A118" s="24" t="s">
         <v>48</v>
       </c>
       <c r="B118" s="39" t="s">
-        <v>176</v>
+        <v>92</v>
       </c>
       <c r="C118" s="39" t="s">
-        <v>177</v>
+        <v>81</v>
       </c>
       <c r="D118" s="6"/>
       <c r="E118" s="17" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="F118" s="16" t="s">
         <v>79</v>
@@ -5285,19 +5304,19 @@
       <c r="X118" s="16"/>
       <c r="Y118" s="16"/>
     </row>
-    <row r="119" spans="1:25" s="15" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:25" s="15" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A119" s="24" t="s">
         <v>48</v>
       </c>
       <c r="B119" s="39" t="s">
-        <v>92</v>
+        <v>30</v>
       </c>
       <c r="C119" s="39" t="s">
-        <v>81</v>
+        <v>178</v>
       </c>
       <c r="D119" s="6"/>
       <c r="E119" s="17" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="F119" s="16" t="s">
         <v>79</v>
@@ -5322,19 +5341,19 @@
       <c r="X119" s="16"/>
       <c r="Y119" s="16"/>
     </row>
-    <row r="120" spans="1:25" s="15" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:25" s="15" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A120" s="24" t="s">
         <v>48</v>
       </c>
-      <c r="B120" s="39" t="s">
-        <v>30</v>
-      </c>
-      <c r="C120" s="39" t="s">
-        <v>178</v>
+      <c r="B120" s="41" t="s">
+        <v>180</v>
+      </c>
+      <c r="C120" s="41" t="s">
+        <v>181</v>
       </c>
       <c r="D120" s="6"/>
       <c r="E120" s="17" t="s">
-        <v>296</v>
+        <v>216</v>
       </c>
       <c r="F120" s="16" t="s">
         <v>79</v>
@@ -5359,19 +5378,19 @@
       <c r="X120" s="16"/>
       <c r="Y120" s="16"/>
     </row>
-    <row r="121" spans="1:25" s="15" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:25" s="15" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A121" s="24" t="s">
         <v>48</v>
       </c>
       <c r="B121" s="41" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="C121" s="41" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="D121" s="6"/>
       <c r="E121" s="17" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="F121" s="16" t="s">
         <v>79</v>
@@ -5396,19 +5415,19 @@
       <c r="X121" s="16"/>
       <c r="Y121" s="16"/>
     </row>
-    <row r="122" spans="1:25" s="15" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:25" s="15" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A122" s="24" t="s">
         <v>48</v>
       </c>
       <c r="B122" s="41" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="C122" s="41" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="D122" s="6"/>
       <c r="E122" s="17" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="F122" s="16" t="s">
         <v>79</v>
@@ -5433,30 +5452,28 @@
       <c r="X122" s="16"/>
       <c r="Y122" s="16"/>
     </row>
-    <row r="123" spans="1:25" s="15" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:25" s="15" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A123" s="24" t="s">
         <v>48</v>
       </c>
-      <c r="B123" s="41" t="s">
-        <v>184</v>
-      </c>
-      <c r="C123" s="41" t="s">
-        <v>185</v>
-      </c>
-      <c r="D123" s="6"/>
-      <c r="E123" s="17" t="s">
-        <v>218</v>
-      </c>
-      <c r="F123" s="16" t="s">
-        <v>79</v>
-      </c>
-      <c r="G123" s="16"/>
-      <c r="H123" s="16"/>
-      <c r="I123" s="16"/>
-      <c r="J123" s="16"/>
-      <c r="K123" s="16"/>
-      <c r="L123" s="16"/>
-      <c r="M123" s="16"/>
+      <c r="B123" s="5" t="s">
+        <v>309</v>
+      </c>
+      <c r="C123" s="5" t="s">
+        <v>310</v>
+      </c>
+      <c r="D123" s="5"/>
+      <c r="E123" s="5"/>
+      <c r="F123" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="G123" s="5"/>
+      <c r="H123" s="5"/>
+      <c r="I123" s="5"/>
+      <c r="J123" s="5"/>
+      <c r="K123" s="5"/>
+      <c r="L123" s="5"/>
+      <c r="M123" s="5"/>
       <c r="N123" s="16"/>
       <c r="O123" s="16"/>
       <c r="P123" s="16"/>
@@ -5470,597 +5487,562 @@
       <c r="X123" s="16"/>
       <c r="Y123" s="16"/>
     </row>
-    <row r="124" spans="1:25" s="15" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A124" s="24" t="s">
-        <v>48</v>
-      </c>
-      <c r="B124" s="5" t="s">
-        <v>309</v>
-      </c>
-      <c r="C124" s="5" t="s">
-        <v>310</v>
-      </c>
-      <c r="D124" s="5"/>
-      <c r="E124" s="5"/>
-      <c r="F124" s="5" t="s">
-        <v>78</v>
-      </c>
-      <c r="G124" s="5"/>
-      <c r="H124" s="5"/>
-      <c r="I124" s="5"/>
-      <c r="J124" s="5"/>
-      <c r="K124" s="5"/>
-      <c r="L124" s="5"/>
-      <c r="M124" s="5"/>
-      <c r="N124" s="16"/>
-      <c r="O124" s="16"/>
-      <c r="P124" s="16"/>
-      <c r="Q124" s="16"/>
-      <c r="R124" s="16"/>
-      <c r="S124" s="16"/>
-      <c r="T124" s="16"/>
-      <c r="U124" s="16"/>
-      <c r="V124" s="16"/>
-      <c r="W124" s="16"/>
-      <c r="X124" s="16"/>
-      <c r="Y124" s="16"/>
-    </row>
-    <row r="125" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A125" s="5" t="s">
+    <row r="124" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A124" s="5" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="126" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="127" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="128" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="129" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="130" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="131" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="132" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="133" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="134" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="135" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="136" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="137" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="138" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="139" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="140" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="141" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="142" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="143" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="144" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="145" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="146" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="147" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="148" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="149" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="150" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="151" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="152" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="153" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="154" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="155" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="156" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="157" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="158" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="159" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="160" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="161" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="162" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="163" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="164" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="165" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="166" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="167" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="168" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="169" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="170" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="171" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="172" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="173" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="174" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="175" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="176" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="177" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="178" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="179" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="180" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="181" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="182" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="183" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="184" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="185" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="186" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="187" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="188" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="189" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="190" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="191" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="192" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="193" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="194" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="195" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="196" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="197" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="198" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="199" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="200" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="201" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="202" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="203" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="204" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="205" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="206" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="207" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="208" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="209" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="210" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="211" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="212" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="213" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="214" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="215" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="216" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="217" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="218" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="219" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="220" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="221" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="222" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="223" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="224" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="225" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="226" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="227" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="228" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="229" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="230" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="231" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="232" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="233" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="234" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="235" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="236" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="237" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="238" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="239" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="240" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="241" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="242" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="243" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="244" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="245" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="246" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="247" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="248" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="249" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="250" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="251" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="252" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="253" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="254" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="255" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="256" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="257" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="258" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="259" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="260" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="261" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="262" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="263" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="264" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="265" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="266" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="267" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="268" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="269" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="270" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="271" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="272" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="273" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="274" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="275" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="276" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="277" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="278" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="279" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="280" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="281" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="282" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="283" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="284" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="285" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="286" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="287" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="288" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="289" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="290" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="291" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="292" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="293" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="294" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="295" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="296" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="297" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="298" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="299" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="300" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="301" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="302" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="303" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="304" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="305" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="306" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="307" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="308" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="309" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="310" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="311" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="312" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="313" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="314" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="315" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="316" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="317" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="318" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="319" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="320" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="321" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="322" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="323" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="324" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="325" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="326" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="327" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="328" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="329" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="330" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="331" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="332" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="333" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="334" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="335" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="336" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="337" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="338" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="339" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="340" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="341" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="342" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="343" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="344" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="345" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="346" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="347" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="348" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="349" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="350" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="351" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="352" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="353" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="354" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="355" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="356" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="357" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="358" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="359" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="360" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="361" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="362" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="363" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="364" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="365" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="366" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="367" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="368" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="369" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="370" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="371" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="372" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="373" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="374" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="375" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="376" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="377" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="378" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="379" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="380" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="381" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="382" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="383" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="384" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="385" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="386" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="387" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="388" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="389" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="390" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="391" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="392" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="393" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="394" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="395" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="396" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="397" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="398" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="399" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="400" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="401" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="402" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="403" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="404" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="405" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="406" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="407" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="408" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="409" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="410" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="411" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="412" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="413" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="414" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="415" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="416" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="417" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="418" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="419" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="420" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="421" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="422" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="423" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="424" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="425" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="426" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="427" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="428" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="429" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="430" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="431" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="432" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="433" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="434" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="435" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="436" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="437" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="438" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="439" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="440" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="441" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="442" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="443" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="444" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="445" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="446" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="447" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="448" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="449" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="450" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="451" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="452" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="453" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="454" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="455" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="456" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="457" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="458" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="459" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="460" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="461" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="462" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="463" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="464" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="465" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="466" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="467" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="468" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="469" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="470" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="471" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="472" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="473" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="474" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="475" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="476" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="477" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="478" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="479" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="480" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="481" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="482" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="483" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="484" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="485" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="486" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="487" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="488" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="489" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="490" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="491" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="492" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="493" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="494" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="495" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="496" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="497" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="498" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="499" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="500" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="501" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="502" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="503" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="504" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="505" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="506" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="507" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="508" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="509" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="510" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="511" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="512" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="513" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="514" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="515" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="516" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="517" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="518" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="519" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="520" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="521" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="522" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="523" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="524" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="525" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="526" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="527" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="528" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="529" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="530" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="531" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="532" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="533" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="534" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="535" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="536" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="537" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="538" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="539" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="540" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="541" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="542" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="543" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="544" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="545" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="546" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="547" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="548" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="549" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="550" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="551" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="552" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="553" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="554" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="555" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="556" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="557" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="558" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="559" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="560" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="561" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="562" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="563" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="564" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="565" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="566" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="567" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="568" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="569" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="570" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="571" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="572" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="573" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="574" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="575" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="576" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="577" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="578" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="579" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="580" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="581" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="582" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="583" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="584" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="585" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="586" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="587" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="588" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="589" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="590" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="591" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="592" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="593" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="594" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="595" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="596" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="597" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="598" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="599" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="600" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="601" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="602" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="603" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="604" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="605" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="606" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="607" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="608" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="609" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="610" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="611" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="612" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="613" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="614" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="615" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="616" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="617" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="618" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="619" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="620" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="621" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="622" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="623" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="624" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="625" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="626" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="627" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="628" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="629" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="630" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="631" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="632" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="633" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="634" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="635" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="636" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="637" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="638" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="639" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="640" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="641" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="642" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="643" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="644" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="645" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="646" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="647" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="648" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="649" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="650" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="651" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="652" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="653" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="654" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="655" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="656" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="657" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="658" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="125" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="126" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="127" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="128" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="129" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="130" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="131" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="132" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="133" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="134" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="135" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="136" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="137" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="138" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="139" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="140" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="141" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="142" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="143" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="144" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="145" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="146" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="147" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="148" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="149" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="150" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="151" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="152" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="153" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="154" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="155" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="156" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="157" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="158" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="159" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="160" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="161" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="162" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="163" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="164" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="165" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="166" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="167" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="168" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="169" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="170" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="171" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="172" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="173" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="174" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="175" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="176" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="177" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="178" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="179" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="180" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="181" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="182" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="183" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="184" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="185" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="186" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="187" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="188" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="189" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="190" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="191" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="192" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="193" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="194" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="195" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="196" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="197" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="198" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="199" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="200" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="201" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="202" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="203" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="204" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="205" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="206" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="207" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="208" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="209" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="210" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="211" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="212" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="213" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="214" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="215" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="216" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="217" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="218" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="219" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="220" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="221" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="222" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="223" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="224" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="225" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="226" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="227" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="228" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="229" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="230" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="231" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="232" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="233" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="234" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="235" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="236" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="237" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="238" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="239" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="240" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="241" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="242" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="243" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="244" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="245" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="246" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="247" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="248" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="249" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="250" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="251" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="252" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="253" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="254" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="255" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="256" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="257" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="258" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="259" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="260" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="261" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="262" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="263" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="264" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="265" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="266" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="267" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="268" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="269" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="270" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="271" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="272" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="273" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="274" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="275" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="276" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="277" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="278" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="279" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="280" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="281" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="282" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="283" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="284" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="285" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="286" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="287" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="288" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="289" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="290" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="291" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="292" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="293" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="294" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="295" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="296" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="297" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="298" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="299" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="300" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="301" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="302" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="303" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="304" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="305" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="306" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="307" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="308" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="309" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="310" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="311" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="312" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="313" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="314" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="315" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="316" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="317" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="318" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="319" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="320" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="321" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="322" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="323" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="324" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="325" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="326" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="327" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="328" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="329" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="330" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="331" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="332" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="333" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="334" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="335" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="336" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="337" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="338" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="339" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="340" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="341" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="342" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="343" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="344" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="345" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="346" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="347" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="348" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="349" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="350" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="351" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="352" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="353" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="354" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="355" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="356" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="357" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="358" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="359" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="360" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="361" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="362" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="363" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="364" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="365" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="366" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="367" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="368" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="369" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="370" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="371" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="372" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="373" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="374" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="375" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="376" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="377" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="378" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="379" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="380" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="381" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="382" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="383" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="384" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="385" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="386" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="387" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="388" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="389" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="390" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="391" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="392" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="393" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="394" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="395" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="396" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="397" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="398" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="399" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="400" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="401" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="402" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="403" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="404" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="405" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="406" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="407" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="408" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="409" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="410" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="411" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="412" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="413" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="414" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="415" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="416" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="417" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="418" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="419" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="420" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="421" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="422" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="423" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="424" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="425" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="426" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="427" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="428" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="429" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="430" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="431" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="432" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="433" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="434" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="435" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="436" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="437" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="438" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="439" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="440" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="441" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="442" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="443" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="444" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="445" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="446" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="447" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="448" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="449" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="450" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="451" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="452" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="453" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="454" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="455" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="456" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="457" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="458" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="459" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="460" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="461" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="462" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="463" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="464" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="465" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="466" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="467" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="468" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="469" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="470" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="471" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="472" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="473" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="474" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="475" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="476" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="477" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="478" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="479" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="480" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="481" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="482" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="483" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="484" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="485" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="486" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="487" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="488" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="489" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="490" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="491" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="492" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="493" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="494" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="495" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="496" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="497" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="498" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="499" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="500" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="501" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="502" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="503" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="504" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="505" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="506" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="507" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="508" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="509" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="510" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="511" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="512" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="513" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="514" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="515" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="516" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="517" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="518" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="519" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="520" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="521" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="522" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="523" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="524" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="525" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="526" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="527" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="528" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="529" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="530" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="531" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="532" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="533" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="534" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="535" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="536" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="537" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="538" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="539" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="540" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="541" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="542" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="543" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="544" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="545" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="546" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="547" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="548" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="549" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="550" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="551" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="552" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="553" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="554" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="555" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="556" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="557" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="558" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="559" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="560" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="561" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="562" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="563" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="564" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="565" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="566" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="567" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="568" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="569" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="570" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="571" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="572" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="573" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="574" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="575" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="576" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="577" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="578" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="579" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="580" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="581" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="582" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="583" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="584" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="585" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="586" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="587" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="588" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="589" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="590" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="591" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="592" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="593" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="594" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="595" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="596" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="597" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="598" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="599" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="600" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="601" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="602" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="603" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="604" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="605" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="606" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="607" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="608" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="609" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="610" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="611" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="612" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="613" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="614" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="615" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="616" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="617" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="618" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="619" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="620" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="621" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="622" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="623" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="624" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="625" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="626" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="627" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="628" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="629" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="630" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="631" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="632" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="633" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="634" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="635" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="636" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="637" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="638" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="639" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="640" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="641" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="642" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="643" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="644" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="645" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="646" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="647" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="648" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="649" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="650" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="651" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="652" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="653" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="654" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="655" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="656" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="657" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
   </sheetData>
-  <conditionalFormatting sqref="A102">
+  <conditionalFormatting sqref="A101">
     <cfRule type="cellIs" dxfId="2" priority="2" operator="equal">
       <formula>"begin group"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A103">
+  <conditionalFormatting sqref="A102">
     <cfRule type="cellIs" dxfId="1" priority="3" operator="equal">
       <formula>"begin group"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A107">
+  <conditionalFormatting sqref="A106">
     <cfRule type="cellIs" dxfId="0" priority="4" operator="equal">
       <formula>"begin group"</formula>
     </cfRule>
   </conditionalFormatting>
   <hyperlinks>
-    <hyperlink ref="C72" r:id="rId1" display="mailto:info@agra.org" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="C71" r:id="rId1" display="mailto:info@agra.org"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
@@ -6068,26 +6050,26 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Z41"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B22" sqref="B22:B37"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B43" sqref="B43"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="28.42578125" customWidth="1"/>
+    <col min="1" max="1" width="28.44140625" customWidth="1"/>
     <col min="2" max="2" width="37" customWidth="1"/>
     <col min="3" max="3" width="26" customWidth="1"/>
-    <col min="4" max="4" width="16.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="11" width="6.7109375" customWidth="1"/>
-    <col min="12" max="24" width="8.85546875" customWidth="1"/>
-    <col min="25" max="1025" width="14.42578125" customWidth="1"/>
+    <col min="4" max="4" width="16.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="11" width="6.6640625" customWidth="1"/>
+    <col min="12" max="24" width="8.88671875" customWidth="1"/>
+    <col min="25" max="1025" width="14.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="31" t="s">
         <v>82</v>
       </c>
@@ -6123,7 +6105,7 @@
       <c r="W1" s="32"/>
       <c r="X1" s="32"/>
     </row>
-    <row r="2" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="18" t="s">
         <v>83</v>
       </c>
@@ -6155,7 +6137,7 @@
       <c r="W2" s="6"/>
       <c r="X2" s="6"/>
     </row>
-    <row r="3" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="18" t="s">
         <v>83</v>
       </c>
@@ -6187,7 +6169,7 @@
       <c r="W3" s="6"/>
       <c r="X3" s="6"/>
     </row>
-    <row r="4" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="18" t="s">
         <v>86</v>
       </c>
@@ -6221,7 +6203,7 @@
       <c r="Y4" s="3"/>
       <c r="Z4" s="3"/>
     </row>
-    <row r="5" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="18" t="s">
         <v>86</v>
       </c>
@@ -6255,7 +6237,7 @@
       <c r="Y5" s="3"/>
       <c r="Z5" s="3"/>
     </row>
-    <row r="6" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="18" t="s">
         <v>98</v>
       </c>
@@ -6289,7 +6271,7 @@
       <c r="Y6" s="3"/>
       <c r="Z6" s="3"/>
     </row>
-    <row r="7" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>98</v>
       </c>
@@ -6300,7 +6282,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="8" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>98</v>
       </c>
@@ -6311,7 +6293,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="9" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>98</v>
       </c>
@@ -6322,7 +6304,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="10" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>98</v>
       </c>
@@ -6333,7 +6315,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="11" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>98</v>
       </c>
@@ -6344,7 +6326,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="12" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>98</v>
       </c>
@@ -6355,7 +6337,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="13" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>98</v>
       </c>
@@ -6366,7 +6348,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="14" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>98</v>
       </c>
@@ -6377,7 +6359,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="15" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>98</v>
       </c>
@@ -6388,7 +6370,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="16" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>98</v>
       </c>
@@ -6399,7 +6381,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>98</v>
       </c>
@@ -6410,7 +6392,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>98</v>
       </c>
@@ -6421,7 +6403,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>98</v>
       </c>
@@ -6432,7 +6414,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A22" s="42" t="s">
         <v>158</v>
       </c>
@@ -6443,7 +6425,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A23" s="42" t="s">
         <v>158</v>
       </c>
@@ -6454,7 +6436,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A24" s="42" t="s">
         <v>158</v>
       </c>
@@ -6465,7 +6447,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A25" s="42" t="s">
         <v>163</v>
       </c>
@@ -6476,7 +6458,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A26" s="42" t="s">
         <v>163</v>
       </c>
@@ -6487,7 +6469,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A27" s="42" t="s">
         <v>163</v>
       </c>
@@ -6498,7 +6480,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A28" s="42" t="s">
         <v>163</v>
       </c>
@@ -6509,7 +6491,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A29" s="42" t="s">
         <v>163</v>
       </c>
@@ -6520,7 +6502,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A30" s="42" t="s">
         <v>163</v>
       </c>
@@ -6531,7 +6513,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A31" s="42" t="s">
         <v>163</v>
       </c>
@@ -6542,7 +6524,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A32" s="42" t="s">
         <v>163</v>
       </c>
@@ -6553,7 +6535,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A33" s="42" t="s">
         <v>163</v>
       </c>
@@ -6564,7 +6546,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A34" s="42" t="s">
         <v>163</v>
       </c>
@@ -6575,7 +6557,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A35" s="42" t="s">
         <v>179</v>
       </c>
@@ -6586,7 +6568,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A36" s="42" t="s">
         <v>179</v>
       </c>
@@ -6597,7 +6579,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A37" s="42" t="s">
         <v>179</v>
       </c>
@@ -6608,12 +6590,12 @@
         <v>185</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A38" s="43"/>
       <c r="B38" s="43"/>
       <c r="C38" s="43"/>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A39" s="43" t="s">
         <v>186</v>
       </c>
@@ -6624,7 +6606,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A40" s="43" t="s">
         <v>186</v>
       </c>
@@ -6635,7 +6617,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A41" s="43" t="s">
         <v>186</v>
       </c>
@@ -6653,27 +6635,27 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Z1000"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="25.140625" customWidth="1"/>
+    <col min="1" max="1" width="25.109375" customWidth="1"/>
     <col min="2" max="2" width="19" customWidth="1"/>
-    <col min="3" max="3" width="10.28515625" customWidth="1"/>
-    <col min="4" max="4" width="12.28515625" customWidth="1"/>
-    <col min="5" max="5" width="12.42578125" customWidth="1"/>
-    <col min="6" max="6" width="30.140625" customWidth="1"/>
-    <col min="7" max="16" width="6.7109375" customWidth="1"/>
-    <col min="17" max="26" width="8.85546875" customWidth="1"/>
-    <col min="27" max="1025" width="14.42578125" customWidth="1"/>
+    <col min="3" max="3" width="10.33203125" customWidth="1"/>
+    <col min="4" max="4" width="12.33203125" customWidth="1"/>
+    <col min="5" max="5" width="12.44140625" customWidth="1"/>
+    <col min="6" max="6" width="30.109375" customWidth="1"/>
+    <col min="7" max="16" width="6.6640625" customWidth="1"/>
+    <col min="17" max="26" width="8.88671875" customWidth="1"/>
+    <col min="27" max="1025" width="14.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>112</v>
       </c>
@@ -6715,7 +6697,7 @@
       <c r="Y1" s="1"/>
       <c r="Z1" s="1"/>
     </row>
-    <row r="2" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
         <v>119</v>
       </c>
@@ -6745,986 +6727,986 @@
       <c r="O2" s="3"/>
       <c r="P2" s="3"/>
     </row>
-    <row r="21" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="29" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="30" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="31" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="32" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="33" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="34" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="37" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="38" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="39" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="40" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="41" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="42" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="43" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="44" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="46" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="47" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="48" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="49" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="51" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="52" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="53" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="54" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="55" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="56" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="57" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="59" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="60" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="61" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="62" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="63" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="64" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="65" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="66" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="67" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="68" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="69" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="70" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="71" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="72" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="73" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="74" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="75" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="76" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="77" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="78" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="79" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="80" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="81" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="82" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="83" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="84" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="85" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="86" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="87" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="88" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="89" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="90" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="91" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="92" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="93" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="94" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="95" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="96" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="97" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="98" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="99" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="100" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="101" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="102" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="103" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="104" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="105" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="106" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="107" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="108" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="109" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="110" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="111" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="112" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="113" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="114" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="115" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="116" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="117" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="118" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="119" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="120" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="121" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="122" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="123" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="124" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="125" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="126" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="127" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="128" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="129" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="130" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="131" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="132" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="133" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="134" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="135" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="136" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="137" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="138" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="139" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="140" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="141" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="142" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="143" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="144" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="145" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="146" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="147" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="148" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="149" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="150" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="151" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="152" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="153" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="154" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="155" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="156" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="157" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="158" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="159" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="160" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="161" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="162" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="163" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="164" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="165" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="166" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="167" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="168" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="169" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="170" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="171" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="172" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="173" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="174" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="175" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="176" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="177" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="178" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="179" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="180" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="181" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="182" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="183" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="184" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="185" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="186" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="187" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="188" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="189" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="190" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="191" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="192" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="193" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="194" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="195" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="196" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="197" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="198" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="199" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="200" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="201" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="202" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="203" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="204" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="205" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="206" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="207" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="208" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="209" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="210" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="211" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="212" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="213" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="214" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="215" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="216" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="217" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="218" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="219" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="220" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="221" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="222" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="223" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="224" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="225" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="226" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="227" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="228" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="229" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="230" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="231" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="232" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="233" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="234" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="235" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="236" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="237" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="238" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="239" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="240" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="241" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="242" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="243" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="244" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="245" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="246" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="247" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="248" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="249" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="250" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="251" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="252" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="253" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="254" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="255" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="256" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="257" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="258" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="259" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="260" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="261" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="262" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="263" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="264" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="265" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="266" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="267" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="268" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="269" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="270" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="271" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="272" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="273" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="274" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="275" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="276" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="277" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="278" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="279" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="280" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="281" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="282" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="283" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="284" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="285" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="286" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="287" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="288" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="289" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="290" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="291" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="292" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="293" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="294" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="295" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="296" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="297" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="298" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="299" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="300" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="301" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="302" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="303" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="304" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="305" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="306" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="307" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="308" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="309" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="310" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="311" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="312" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="313" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="314" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="315" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="316" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="317" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="318" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="319" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="320" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="321" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="322" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="323" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="324" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="325" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="326" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="327" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="328" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="329" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="330" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="331" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="332" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="333" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="334" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="335" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="336" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="337" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="338" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="339" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="340" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="341" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="342" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="343" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="344" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="345" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="346" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="347" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="348" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="349" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="350" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="351" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="352" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="353" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="354" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="355" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="356" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="357" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="358" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="359" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="360" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="361" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="362" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="363" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="364" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="365" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="366" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="367" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="368" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="369" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="370" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="371" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="372" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="373" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="374" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="375" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="376" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="377" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="378" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="379" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="380" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="381" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="382" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="383" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="384" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="385" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="386" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="387" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="388" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="389" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="390" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="391" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="392" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="393" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="394" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="395" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="396" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="397" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="398" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="399" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="400" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="401" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="402" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="403" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="404" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="405" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="406" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="407" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="408" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="409" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="410" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="411" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="412" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="413" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="414" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="415" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="416" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="417" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="418" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="419" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="420" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="421" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="422" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="423" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="424" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="425" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="426" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="427" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="428" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="429" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="430" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="431" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="432" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="433" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="434" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="435" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="436" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="437" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="438" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="439" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="440" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="441" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="442" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="443" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="444" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="445" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="446" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="447" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="448" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="449" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="450" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="451" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="452" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="453" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="454" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="455" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="456" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="457" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="458" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="459" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="460" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="461" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="462" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="463" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="464" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="465" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="466" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="467" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="468" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="469" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="470" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="471" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="472" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="473" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="474" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="475" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="476" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="477" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="478" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="479" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="480" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="481" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="482" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="483" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="484" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="485" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="486" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="487" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="488" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="489" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="490" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="491" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="492" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="493" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="494" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="495" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="496" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="497" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="498" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="499" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="500" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="501" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="502" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="503" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="504" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="505" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="506" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="507" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="508" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="509" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="510" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="511" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="512" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="513" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="514" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="515" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="516" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="517" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="518" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="519" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="520" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="521" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="522" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="523" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="524" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="525" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="526" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="527" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="528" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="529" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="530" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="531" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="532" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="533" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="534" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="535" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="536" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="537" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="538" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="539" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="540" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="541" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="542" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="543" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="544" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="545" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="546" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="547" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="548" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="549" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="550" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="551" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="552" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="553" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="554" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="555" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="556" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="557" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="558" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="559" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="560" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="561" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="562" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="563" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="564" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="565" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="566" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="567" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="568" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="569" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="570" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="571" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="572" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="573" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="574" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="575" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="576" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="577" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="578" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="579" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="580" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="581" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="582" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="583" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="584" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="585" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="586" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="587" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="588" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="589" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="590" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="591" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="592" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="593" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="594" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="595" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="596" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="597" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="598" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="599" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="600" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="601" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="602" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="603" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="604" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="605" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="606" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="607" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="608" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="609" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="610" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="611" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="612" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="613" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="614" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="615" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="616" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="617" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="618" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="619" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="620" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="621" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="622" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="623" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="624" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="625" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="626" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="627" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="628" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="629" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="630" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="631" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="632" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="633" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="634" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="635" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="636" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="637" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="638" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="639" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="640" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="641" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="642" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="643" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="644" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="645" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="646" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="647" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="648" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="649" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="650" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="651" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="652" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="653" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="654" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="655" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="656" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="657" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="658" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="659" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="660" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="661" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="662" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="663" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="664" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="665" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="666" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="667" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="668" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="669" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="670" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="671" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="672" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="673" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="674" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="675" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="676" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="677" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="678" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="679" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="680" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="681" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="682" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="683" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="684" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="685" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="686" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="687" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="688" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="689" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="690" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="691" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="692" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="693" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="694" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="695" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="696" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="697" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="698" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="699" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="700" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="701" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="702" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="703" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="704" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="705" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="706" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="707" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="708" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="709" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="710" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="711" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="712" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="713" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="714" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="715" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="716" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="717" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="718" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="719" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="720" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="721" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="722" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="723" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="724" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="725" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="726" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="727" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="728" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="729" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="730" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="731" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="732" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="733" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="734" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="735" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="736" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="737" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="738" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="739" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="740" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="741" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="742" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="743" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="744" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="745" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="746" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="747" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="748" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="749" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="750" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="751" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="752" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="753" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="754" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="755" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="756" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="757" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="758" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="759" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="760" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="761" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="762" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="763" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="764" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="765" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="766" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="767" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="768" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="769" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="770" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="771" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="772" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="773" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="774" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="775" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="776" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="777" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="778" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="779" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="780" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="781" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="782" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="783" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="784" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="785" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="786" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="787" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="788" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="789" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="790" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="791" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="792" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="793" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="794" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="795" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="796" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="797" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="798" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="799" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="800" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="801" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="802" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="803" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="804" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="805" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="806" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="807" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="808" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="809" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="810" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="811" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="812" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="813" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="814" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="815" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="816" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="817" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="818" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="819" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="820" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="821" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="822" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="823" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="824" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="825" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="826" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="827" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="828" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="829" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="830" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="831" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="832" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="833" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="834" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="835" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="836" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="837" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="838" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="839" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="840" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="841" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="842" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="843" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="844" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="845" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="846" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="847" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="848" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="849" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="850" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="851" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="852" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="853" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="854" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="855" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="856" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="857" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="858" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="859" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="860" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="861" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="862" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="863" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="864" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="865" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="866" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="867" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="868" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="869" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="870" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="871" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="872" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="873" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="874" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="875" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="876" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="877" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="878" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="879" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="880" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="881" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="882" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="883" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="884" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="885" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="886" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="887" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="888" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="889" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="890" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="891" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="892" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="893" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="894" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="895" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="896" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="897" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="898" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="899" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="900" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="901" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="902" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="903" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="904" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="905" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="906" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="907" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="908" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="909" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="910" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="911" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="912" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="913" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="914" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="915" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="916" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="917" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="918" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="919" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="920" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="921" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="922" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="923" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="924" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="925" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="926" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="927" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="928" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="929" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="930" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="931" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="932" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="933" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="934" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="935" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="936" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="937" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="938" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="939" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="940" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="941" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="942" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="943" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="944" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="945" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="946" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="947" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="948" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="949" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="950" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="951" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="952" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="953" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="954" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="955" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="956" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="957" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="958" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="959" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="960" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="961" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="962" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="963" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="964" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="965" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="966" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="967" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="968" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="969" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="970" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="971" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="972" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="973" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="974" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="975" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="976" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="977" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="978" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="979" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="980" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="981" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="982" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="983" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="984" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="985" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="986" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="987" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="988" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="989" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="990" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="991" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="992" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="993" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="994" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="995" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="996" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="997" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="998" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="999" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="1000" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="21" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="22" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="23" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="27" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="29" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="30" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="32" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="33" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="34" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="36" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="37" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="38" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="39" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="40" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="41" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="42" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="43" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="44" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="45" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="47" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="48" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="49" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="51" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="52" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="53" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="54" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="55" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="56" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="57" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="59" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="60" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="61" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="62" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="63" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="64" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="65" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="66" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="67" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="68" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="69" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="70" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="71" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="72" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="73" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="74" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="75" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="76" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="77" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="78" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="79" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="80" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="81" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="82" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="83" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="84" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="85" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="86" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="87" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="88" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="89" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="90" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="91" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="92" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="93" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="94" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="95" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="96" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="97" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="98" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="99" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="100" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="101" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="102" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="103" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="104" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="105" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="106" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="107" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="108" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="109" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="110" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="111" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="112" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="113" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="114" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="115" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="116" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="117" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="118" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="119" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="120" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="121" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="122" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="123" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="124" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="125" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="126" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="127" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="128" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="129" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="130" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="131" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="132" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="133" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="134" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="135" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="136" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="137" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="138" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="139" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="140" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="141" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="142" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="143" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="144" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="145" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="146" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="147" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="148" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="149" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="150" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="151" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="152" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="153" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="154" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="155" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="156" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="157" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="158" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="159" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="160" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="161" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="162" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="163" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="164" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="165" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="166" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="167" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="168" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="169" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="170" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="171" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="172" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="173" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="174" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="175" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="176" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="177" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="178" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="179" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="180" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="181" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="182" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="183" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="184" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="185" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="186" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="187" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="188" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="189" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="190" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="191" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="192" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="193" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="194" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="195" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="196" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="197" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="198" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="199" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="200" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="201" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="202" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="203" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="204" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="205" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="206" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="207" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="208" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="209" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="210" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="211" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="212" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="213" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="214" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="215" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="216" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="217" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="218" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="219" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="220" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="221" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="222" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="223" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="224" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="225" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="226" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="227" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="228" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="229" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="230" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="231" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="232" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="233" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="234" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="235" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="236" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="237" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="238" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="239" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="240" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="241" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="242" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="243" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="244" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="245" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="246" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="247" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="248" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="249" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="250" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="251" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="252" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="253" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="254" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="255" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="256" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="257" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="258" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="259" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="260" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="261" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="262" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="263" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="264" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="265" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="266" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="267" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="268" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="269" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="270" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="271" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="272" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="273" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="274" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="275" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="276" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="277" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="278" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="279" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="280" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="281" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="282" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="283" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="284" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="285" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="286" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="287" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="288" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="289" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="290" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="291" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="292" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="293" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="294" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="295" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="296" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="297" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="298" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="299" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="300" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="301" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="302" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="303" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="304" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="305" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="306" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="307" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="308" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="309" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="310" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="311" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="312" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="313" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="314" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="315" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="316" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="317" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="318" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="319" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="320" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="321" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="322" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="323" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="324" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="325" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="326" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="327" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="328" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="329" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="330" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="331" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="332" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="333" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="334" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="335" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="336" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="337" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="338" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="339" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="340" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="341" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="342" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="343" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="344" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="345" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="346" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="347" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="348" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="349" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="350" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="351" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="352" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="353" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="354" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="355" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="356" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="357" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="358" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="359" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="360" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="361" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="362" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="363" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="364" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="365" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="366" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="367" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="368" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="369" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="370" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="371" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="372" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="373" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="374" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="375" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="376" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="377" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="378" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="379" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="380" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="381" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="382" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="383" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="384" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="385" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="386" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="387" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="388" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="389" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="390" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="391" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="392" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="393" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="394" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="395" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="396" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="397" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="398" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="399" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="400" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="401" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="402" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="403" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="404" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="405" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="406" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="407" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="408" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="409" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="410" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="411" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="412" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="413" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="414" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="415" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="416" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="417" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="418" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="419" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="420" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="421" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="422" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="423" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="424" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="425" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="426" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="427" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="428" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="429" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="430" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="431" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="432" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="433" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="434" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="435" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="436" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="437" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="438" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="439" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="440" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="441" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="442" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="443" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="444" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="445" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="446" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="447" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="448" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="449" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="450" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="451" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="452" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="453" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="454" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="455" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="456" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="457" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="458" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="459" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="460" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="461" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="462" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="463" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="464" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="465" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="466" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="467" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="468" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="469" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="470" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="471" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="472" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="473" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="474" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="475" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="476" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="477" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="478" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="479" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="480" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="481" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="482" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="483" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="484" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="485" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="486" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="487" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="488" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="489" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="490" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="491" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="492" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="493" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="494" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="495" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="496" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="497" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="498" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="499" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="500" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="501" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="502" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="503" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="504" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="505" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="506" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="507" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="508" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="509" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="510" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="511" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="512" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="513" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="514" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="515" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="516" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="517" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="518" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="519" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="520" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="521" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="522" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="523" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="524" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="525" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="526" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="527" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="528" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="529" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="530" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="531" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="532" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="533" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="534" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="535" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="536" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="537" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="538" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="539" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="540" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="541" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="542" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="543" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="544" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="545" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="546" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="547" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="548" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="549" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="550" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="551" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="552" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="553" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="554" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="555" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="556" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="557" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="558" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="559" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="560" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="561" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="562" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="563" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="564" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="565" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="566" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="567" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="568" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="569" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="570" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="571" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="572" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="573" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="574" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="575" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="576" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="577" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="578" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="579" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="580" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="581" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="582" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="583" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="584" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="585" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="586" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="587" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="588" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="589" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="590" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="591" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="592" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="593" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="594" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="595" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="596" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="597" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="598" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="599" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="600" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="601" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="602" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="603" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="604" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="605" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="606" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="607" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="608" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="609" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="610" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="611" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="612" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="613" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="614" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="615" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="616" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="617" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="618" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="619" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="620" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="621" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="622" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="623" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="624" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="625" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="626" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="627" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="628" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="629" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="630" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="631" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="632" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="633" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="634" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="635" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="636" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="637" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="638" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="639" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="640" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="641" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="642" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="643" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="644" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="645" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="646" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="647" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="648" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="649" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="650" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="651" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="652" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="653" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="654" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="655" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="656" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="657" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="658" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="659" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="660" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="661" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="662" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="663" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="664" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="665" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="666" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="667" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="668" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="669" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="670" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="671" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="672" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="673" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="674" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="675" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="676" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="677" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="678" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="679" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="680" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="681" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="682" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="683" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="684" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="685" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="686" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="687" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="688" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="689" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="690" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="691" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="692" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="693" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="694" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="695" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="696" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="697" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="698" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="699" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="700" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="701" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="702" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="703" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="704" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="705" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="706" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="707" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="708" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="709" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="710" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="711" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="712" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="713" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="714" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="715" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="716" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="717" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="718" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="719" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="720" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="721" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="722" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="723" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="724" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="725" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="726" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="727" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="728" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="729" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="730" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="731" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="732" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="733" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="734" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="735" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="736" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="737" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="738" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="739" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="740" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="741" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="742" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="743" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="744" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="745" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="746" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="747" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="748" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="749" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="750" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="751" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="752" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="753" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="754" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="755" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="756" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="757" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="758" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="759" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="760" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="761" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="762" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="763" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="764" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="765" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="766" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="767" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="768" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="769" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="770" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="771" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="772" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="773" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="774" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="775" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="776" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="777" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="778" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="779" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="780" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="781" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="782" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="783" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="784" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="785" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="786" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="787" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="788" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="789" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="790" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="791" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="792" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="793" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="794" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="795" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="796" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="797" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="798" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="799" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="800" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="801" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="802" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="803" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="804" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="805" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="806" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="807" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="808" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="809" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="810" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="811" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="812" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="813" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="814" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="815" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="816" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="817" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="818" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="819" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="820" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="821" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="822" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="823" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="824" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="825" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="826" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="827" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="828" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="829" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="830" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="831" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="832" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="833" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="834" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="835" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="836" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="837" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="838" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="839" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="840" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="841" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="842" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="843" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="844" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="845" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="846" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="847" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="848" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="849" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="850" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="851" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="852" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="853" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="854" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="855" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="856" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="857" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="858" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="859" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="860" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="861" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="862" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="863" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="864" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="865" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="866" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="867" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="868" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="869" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="870" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="871" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="872" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="873" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="874" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="875" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="876" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="877" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="878" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="879" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="880" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="881" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="882" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="883" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="884" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="885" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="886" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="887" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="888" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="889" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="890" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="891" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="892" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="893" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="894" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="895" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="896" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="897" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="898" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="899" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="900" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="901" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="902" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="903" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="904" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="905" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="906" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="907" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="908" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="909" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="910" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="911" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="912" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="913" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="914" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="915" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="916" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="917" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="918" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="919" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="920" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="921" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="922" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="923" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="924" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="925" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="926" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="927" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="928" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="929" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="930" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="931" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="932" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="933" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="934" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="935" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="936" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="937" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="938" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="939" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="940" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="941" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="942" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="943" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="944" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="945" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="946" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="947" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="948" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="949" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="950" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="951" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="952" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="953" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="954" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="955" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="956" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="957" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="958" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="959" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="960" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="961" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="962" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="963" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="964" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="965" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="966" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="967" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="968" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="969" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="970" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="971" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="972" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="973" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="974" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="975" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="976" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="977" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="978" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="979" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="980" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="981" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="982" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="983" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="984" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="985" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="986" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="987" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="988" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="989" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="990" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="991" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="992" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="993" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="994" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="995" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="996" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="997" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="998" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="999" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="1000" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
@@ -7732,24 +7714,24 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O1000"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="39.28515625" customWidth="1"/>
-    <col min="2" max="2" width="1.7109375" customWidth="1"/>
-    <col min="3" max="3" width="59.140625" customWidth="1"/>
-    <col min="4" max="4" width="1.85546875" customWidth="1"/>
-    <col min="5" max="5" width="103.140625" customWidth="1"/>
-    <col min="6" max="15" width="14.42578125" customWidth="1"/>
-    <col min="16" max="26" width="8.85546875" customWidth="1"/>
-    <col min="27" max="1025" width="14.42578125" customWidth="1"/>
+    <col min="1" max="1" width="39.33203125" customWidth="1"/>
+    <col min="2" max="2" width="1.6640625" customWidth="1"/>
+    <col min="3" max="3" width="59.109375" customWidth="1"/>
+    <col min="4" max="4" width="1.88671875" customWidth="1"/>
+    <col min="5" max="5" width="103.109375" customWidth="1"/>
+    <col min="6" max="15" width="14.44140625" customWidth="1"/>
+    <col min="16" max="26" width="8.88671875" customWidth="1"/>
+    <col min="27" max="1025" width="14.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="33" t="s">
         <v>125</v>
       </c>
@@ -7772,7 +7754,7 @@
       <c r="N1" s="14"/>
       <c r="O1" s="14"/>
     </row>
-    <row r="2" spans="1:15" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:15" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="14"/>
       <c r="B2" s="14"/>
       <c r="C2" s="14"/>
@@ -7789,7 +7771,7 @@
       <c r="N2" s="14"/>
       <c r="O2" s="14"/>
     </row>
-    <row r="3" spans="1:15" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:15" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="14" t="s">
         <v>128</v>
       </c>
@@ -7808,7 +7790,7 @@
       <c r="N3" s="14"/>
       <c r="O3" s="14"/>
     </row>
-    <row r="4" spans="1:15" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:15" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="14" t="s">
         <v>129</v>
       </c>
@@ -7827,7 +7809,7 @@
       <c r="N4" s="14"/>
       <c r="O4" s="14"/>
     </row>
-    <row r="5" spans="1:15" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:15" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="14" t="s">
         <v>130</v>
       </c>
@@ -7846,7 +7828,7 @@
       <c r="N5" s="14"/>
       <c r="O5" s="14"/>
     </row>
-    <row r="6" spans="1:15" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:15" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="14" t="s">
         <v>131</v>
       </c>
@@ -7865,7 +7847,7 @@
       <c r="N6" s="14"/>
       <c r="O6" s="14"/>
     </row>
-    <row r="7" spans="1:15" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:15" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="14" t="s">
         <v>132</v>
       </c>
@@ -7884,986 +7866,986 @@
       <c r="N7" s="14"/>
       <c r="O7" s="14"/>
     </row>
-    <row r="21" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="29" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="30" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="31" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="32" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="33" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="34" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="37" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="38" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="39" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="40" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="41" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="42" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="43" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="44" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="46" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="47" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="48" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="49" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="51" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="52" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="53" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="54" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="55" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="56" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="57" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="59" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="60" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="61" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="62" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="63" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="64" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="65" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="66" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="67" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="68" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="69" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="70" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="71" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="72" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="73" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="74" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="75" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="76" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="77" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="78" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="79" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="80" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="81" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="82" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="83" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="84" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="85" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="86" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="87" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="88" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="89" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="90" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="91" ht="15.75" customHeight="1" x14ac:dyDescent="0.